--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7DC9E7-84B0-4360-9F7D-D46532E18351}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D92C570-5236-4C44-9B01-E24794CAFFDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B130" authorId="0" shapeId="0" xr:uid="{DC8F7FB6-3DC6-4935-ACF1-76EA89CC6816}">
+    <comment ref="B130" authorId="0" shapeId="0" xr:uid="{83DDC449-38CC-4BA4-B213-BDCE9FA9F099}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
   <si>
     <t>سامر شراب</t>
   </si>
@@ -270,9 +270,6 @@
     <t>عبد البنا</t>
   </si>
   <si>
-    <t>الروف 2</t>
-  </si>
-  <si>
     <t>سامي الحداد</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>ابوالحسن دغمش</t>
   </si>
   <si>
-    <t>طيبه</t>
-  </si>
-  <si>
     <t>فادي حنونه</t>
   </si>
   <si>
@@ -399,9 +393,6 @@
     <t>مهند ابوخضير</t>
   </si>
   <si>
-    <t>محمد قنيطه</t>
-  </si>
-  <si>
     <t>موني جرام</t>
   </si>
   <si>
@@ -441,9 +432,6 @@
     <t>ام سائد شركة فيجين</t>
   </si>
   <si>
-    <t>حاتم المشهراوي</t>
-  </si>
-  <si>
     <t>وفيق2</t>
   </si>
   <si>
@@ -480,9 +468,6 @@
     <t>مالك الرنتيسي</t>
   </si>
   <si>
-    <t>احمد جوال بي</t>
-  </si>
-  <si>
     <t>الصفدي صفد</t>
   </si>
   <si>
@@ -495,10 +480,34 @@
     <t>ايمن الخضري</t>
   </si>
   <si>
-    <t>صندوق واحد كاظم كـــــــــــاظـــــــــــــــــــــــم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">طيبه للسياحة </t>
+    <t>صدقات ابومفيد</t>
+  </si>
+  <si>
+    <t>الروف 2 حتى 28-2-2023</t>
+  </si>
+  <si>
+    <t>احمد بارود جينيف</t>
+  </si>
+  <si>
+    <t>عمار ابوضاهر</t>
+  </si>
+  <si>
+    <t>محمد رفعت مشتهى</t>
+  </si>
+  <si>
+    <t>خدمات العماره سفن ستار</t>
+  </si>
+  <si>
+    <t>هبه الشوا</t>
+  </si>
+  <si>
+    <t>رائد صيام وهنام المغني 10000 و200 دولار</t>
+  </si>
+  <si>
+    <t>صندوق 1 كاظم صندوق واحد كـــــــــــــاظـــــــــــــــم</t>
+  </si>
+  <si>
+    <t>طيبه للسياحة</t>
   </si>
 </sst>
 </file>
@@ -791,7 +800,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="178"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -894,7 +903,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,73 +977,55 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,13 +1376,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A126" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A128" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J134" sqref="J2:J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
     <col min="7" max="7" width="9" style="3"/>
     <col min="10" max="11" width="9" style="3"/>
@@ -1416,68 +1407,68 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="57">
+      <c r="A2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="13">
         <v>13670</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="13">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
         <v>-13670</v>
       </c>
-      <c r="E2" s="58">
-        <v>0</v>
-      </c>
-      <c r="F2" s="58">
-        <v>196450</v>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>296306</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
-        <v>196450</v>
-      </c>
-      <c r="H2" s="59">
-        <v>5725</v>
-      </c>
-      <c r="I2" s="59">
+        <v>296306</v>
+      </c>
+      <c r="H2" s="13">
+        <v>39195</v>
+      </c>
+      <c r="I2" s="13">
         <v>0</v>
       </c>
       <c r="J2" s="6">
         <f>I2-H2</f>
-        <v>-5725</v>
+        <v>-39195</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="57">
-        <v>350</v>
-      </c>
-      <c r="C3" s="57">
+      <c r="B3" s="13">
+        <v>2150</v>
+      </c>
+      <c r="C3" s="13">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-350</v>
-      </c>
-      <c r="E3" s="58">
-        <v>3000</v>
-      </c>
-      <c r="F3" s="58">
+        <v>-2150</v>
+      </c>
+      <c r="E3" s="13">
+        <v>500</v>
+      </c>
+      <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-3000</v>
-      </c>
-      <c r="H3" s="59">
+        <v>-500</v>
+      </c>
+      <c r="H3" s="13">
         <v>40</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1486,33 +1477,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="57">
-        <v>0</v>
-      </c>
-      <c r="C4" s="57">
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="58">
-        <v>0</v>
-      </c>
-      <c r="F4" s="58">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="59">
-        <v>0</v>
-      </c>
-      <c r="I4" s="59">
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1521,68 +1512,68 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="57">
-        <v>500</v>
-      </c>
-      <c r="C5" s="57">
-        <v>3227</v>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1230</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>2727</v>
-      </c>
-      <c r="E5" s="58">
-        <v>1527</v>
-      </c>
-      <c r="F5" s="58">
-        <v>9775</v>
+        <v>1230</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3405</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>8248</v>
-      </c>
-      <c r="H5" s="59">
-        <v>0</v>
-      </c>
-      <c r="I5" s="59">
-        <v>540</v>
+        <v>3405</v>
+      </c>
+      <c r="H5" s="13">
+        <v>4000</v>
+      </c>
+      <c r="I5" s="13">
+        <v>690</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>-3310</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="57">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="58">
-        <v>0</v>
-      </c>
-      <c r="F6" s="58">
-        <v>288</v>
+      <c r="E6" s="13">
+        <v>1445</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="H6" s="59">
-        <v>0</v>
-      </c>
-      <c r="I6" s="59">
+        <v>-1445</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1591,33 +1582,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="57">
-        <v>0</v>
-      </c>
-      <c r="C7" s="57">
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="13">
         <v>1000</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="H7" s="59">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59">
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1626,33 +1617,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="57">
-        <v>0</v>
-      </c>
-      <c r="C8" s="57">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="58">
-        <v>0</v>
-      </c>
-      <c r="F8" s="58">
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <v>547</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>547</v>
       </c>
-      <c r="H8" s="59">
-        <v>0</v>
-      </c>
-      <c r="I8" s="59">
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1661,33 +1652,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="57">
-        <v>0</v>
-      </c>
-      <c r="C9" s="57">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="13">
         <v>33</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="59">
-        <v>0</v>
-      </c>
-      <c r="I9" s="59">
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1696,33 +1687,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="57">
-        <v>0</v>
-      </c>
-      <c r="C10" s="57">
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="58">
-        <v>0</v>
-      </c>
-      <c r="F10" s="58">
-        <v>1521</v>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>1521</v>
-      </c>
-      <c r="H10" s="59">
-        <v>0</v>
-      </c>
-      <c r="I10" s="59">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1731,33 +1722,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="57">
-        <v>0</v>
-      </c>
-      <c r="C11" s="57">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="58">
-        <v>0</v>
-      </c>
-      <c r="F11" s="58">
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="59">
-        <v>0</v>
-      </c>
-      <c r="I11" s="59">
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1766,33 +1757,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="57">
-        <v>0</v>
-      </c>
-      <c r="C12" s="57">
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="58">
-        <v>1961</v>
-      </c>
-      <c r="F12" s="58">
+      <c r="E12" s="13">
+        <v>1890</v>
+      </c>
+      <c r="F12" s="13">
         <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>-1961</v>
-      </c>
-      <c r="H12" s="59">
-        <v>0</v>
-      </c>
-      <c r="I12" s="59">
+        <v>-1890</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1801,33 +1792,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="57">
-        <v>0</v>
-      </c>
-      <c r="C13" s="57">
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="58">
-        <v>0</v>
-      </c>
-      <c r="F13" s="58">
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="59">
-        <v>0</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1836,33 +1827,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="57">
-        <v>0</v>
-      </c>
-      <c r="C14" s="57">
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="13">
         <v>300</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="13">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H14" s="59">
-        <v>0</v>
-      </c>
-      <c r="I14" s="59">
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1871,33 +1862,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="13">
         <v>1070</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="13">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="58">
-        <v>0</v>
-      </c>
-      <c r="F15" s="58">
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="59">
-        <v>0</v>
-      </c>
-      <c r="I15" s="59">
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1906,33 +1897,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="13">
         <v>40</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="13">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="13">
         <v>115</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="59">
-        <v>0</v>
-      </c>
-      <c r="I16" s="59">
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -1941,33 +1932,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="57">
-        <v>1700</v>
-      </c>
-      <c r="C17" s="57">
+      <c r="B17" s="13">
+        <v>1900</v>
+      </c>
+      <c r="C17" s="13">
         <v>300</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>-1400</v>
-      </c>
-      <c r="E17" s="58">
-        <v>0</v>
-      </c>
-      <c r="F17" s="58">
+        <v>-1600</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="59">
-        <v>0</v>
-      </c>
-      <c r="I17" s="59">
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -1976,33 +1967,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="57">
-        <v>0</v>
-      </c>
-      <c r="C18" s="57">
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="13">
         <v>10650</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="59">
-        <v>0</v>
-      </c>
-      <c r="I18" s="59">
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -2011,33 +2002,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="57">
-        <v>0</v>
-      </c>
-      <c r="C19" s="57">
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="13">
         <v>18500</v>
       </c>
-      <c r="F19" s="58">
-        <v>2275</v>
+      <c r="F19" s="13">
+        <v>7642</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>-16225</v>
-      </c>
-      <c r="H19" s="59">
-        <v>0</v>
-      </c>
-      <c r="I19" s="59">
+        <v>-10858</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2046,33 +2037,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="13">
         <v>160</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="13">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="58">
-        <v>0</v>
-      </c>
-      <c r="F20" s="58">
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="59">
-        <v>0</v>
-      </c>
-      <c r="I20" s="59">
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2081,33 +2072,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="57">
-        <v>0</v>
-      </c>
-      <c r="C21" s="57">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="13">
         <v>156</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="13">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="59">
-        <v>0</v>
-      </c>
-      <c r="I21" s="59">
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2116,33 +2107,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="57">
-        <v>0</v>
-      </c>
-      <c r="C22" s="57">
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="58">
-        <v>0</v>
-      </c>
-      <c r="F22" s="58">
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="59">
-        <v>0</v>
-      </c>
-      <c r="I22" s="59">
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2151,33 +2142,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="57">
-        <v>0</v>
-      </c>
-      <c r="C23" s="57">
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="58">
-        <v>0</v>
-      </c>
-      <c r="F23" s="58">
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="13">
         <v>3000</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="13">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2186,33 +2177,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="57">
-        <v>0</v>
-      </c>
-      <c r="C24" s="57">
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="58">
-        <v>0</v>
-      </c>
-      <c r="F24" s="58">
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="59">
-        <v>0</v>
-      </c>
-      <c r="I24" s="59">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2221,33 +2212,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="57">
-        <v>0</v>
-      </c>
-      <c r="C25" s="57">
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="58">
-        <v>0</v>
-      </c>
-      <c r="F25" s="58">
-        <v>345</v>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>230</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
-        <v>345</v>
-      </c>
-      <c r="H25" s="59">
-        <v>0</v>
-      </c>
-      <c r="I25" s="59">
+        <v>230</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2256,33 +2247,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="57">
-        <v>0</v>
-      </c>
-      <c r="C26" s="57">
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="13">
         <v>656</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="13">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="59">
-        <v>0</v>
-      </c>
-      <c r="I26" s="59">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2291,33 +2282,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="57">
-        <v>0</v>
-      </c>
-      <c r="C27" s="57">
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="13">
         <v>1596</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="13">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="59">
-        <v>0</v>
-      </c>
-      <c r="I27" s="59">
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2326,33 +2317,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="57">
-        <v>0</v>
-      </c>
-      <c r="C28" s="57">
+      <c r="A28" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="13">
         <v>3800</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="13">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>-3800</v>
       </c>
-      <c r="H28" s="59">
-        <v>0</v>
-      </c>
-      <c r="I28" s="59">
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2361,33 +2352,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="57">
-        <v>0</v>
-      </c>
-      <c r="C29" s="57">
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="58">
-        <v>4836</v>
-      </c>
-      <c r="F29" s="58">
-        <v>0</v>
+      <c r="E29" s="13">
+        <v>15836</v>
+      </c>
+      <c r="F29" s="13">
+        <v>4000</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
-        <v>-4836</v>
-      </c>
-      <c r="H29" s="59">
-        <v>0</v>
-      </c>
-      <c r="I29" s="59">
+        <v>-11836</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2396,33 +2387,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="13">
         <v>610</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="13">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="58">
-        <v>0</v>
-      </c>
-      <c r="F30" s="58">
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="59">
-        <v>0</v>
-      </c>
-      <c r="I30" s="59">
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2431,33 +2422,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="57">
-        <v>0</v>
-      </c>
-      <c r="C31" s="57">
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="13">
         <v>300</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="13">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H31" s="59">
-        <v>0</v>
-      </c>
-      <c r="I31" s="59">
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2466,33 +2457,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="13">
         <v>5600</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="13">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="58">
-        <v>0</v>
-      </c>
-      <c r="F32" s="58">
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="59">
-        <v>0</v>
-      </c>
-      <c r="I32" s="59">
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2501,33 +2492,33 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="57">
-        <v>0</v>
-      </c>
-      <c r="C33" s="57">
-        <v>6138</v>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>7033</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>6138</v>
-      </c>
-      <c r="E33" s="58">
-        <v>4924</v>
-      </c>
-      <c r="F33" s="58">
+        <v>7033</v>
+      </c>
+      <c r="E33" s="13">
+        <v>5848</v>
+      </c>
+      <c r="F33" s="13">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>-4924</v>
-      </c>
-      <c r="H33" s="59">
-        <v>0</v>
-      </c>
-      <c r="I33" s="59">
+        <v>-5848</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
         <v>100</v>
       </c>
       <c r="J33" s="6">
@@ -2536,33 +2527,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="13">
         <v>15</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="13">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="13">
         <v>5600</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="13">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="59">
-        <v>0</v>
-      </c>
-      <c r="I34" s="59">
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2571,33 +2562,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="57">
-        <v>0</v>
-      </c>
-      <c r="C35" s="57">
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="13">
         <v>10</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="13">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="59">
-        <v>0</v>
-      </c>
-      <c r="I35" s="59">
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2606,33 +2597,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="57">
-        <v>0</v>
-      </c>
-      <c r="C36" s="57">
+      <c r="A36" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="58">
-        <v>0</v>
-      </c>
-      <c r="F36" s="58">
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="59">
-        <v>0</v>
-      </c>
-      <c r="I36" s="59">
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2641,33 +2632,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="57">
-        <v>0</v>
-      </c>
-      <c r="C37" s="57">
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="58">
-        <v>0</v>
-      </c>
-      <c r="F37" s="58">
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
         <v>0</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="59">
-        <v>0</v>
-      </c>
-      <c r="I37" s="59">
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2676,33 +2667,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="13">
         <v>20</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="13">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="58">
-        <v>0</v>
-      </c>
-      <c r="F38" s="58">
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="59">
-        <v>0</v>
-      </c>
-      <c r="I38" s="59">
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2711,33 +2702,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="57">
-        <v>0</v>
-      </c>
-      <c r="C39" s="57">
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="58">
-        <v>1098</v>
-      </c>
-      <c r="F39" s="58">
+      <c r="E39" s="13">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>-1098</v>
-      </c>
-      <c r="H39" s="59">
-        <v>0</v>
-      </c>
-      <c r="I39" s="59">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2746,33 +2737,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="57">
-        <v>0</v>
-      </c>
-      <c r="C40" s="57">
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="58">
-        <v>0</v>
-      </c>
-      <c r="F40" s="58">
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="59">
-        <v>0</v>
-      </c>
-      <c r="I40" s="59">
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2781,33 +2772,33 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="57">
-        <v>0</v>
-      </c>
-      <c r="C41" s="57">
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="13">
         <v>239</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="13">
         <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
         <v>-239</v>
       </c>
-      <c r="H41" s="59">
-        <v>0</v>
-      </c>
-      <c r="I41" s="59">
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
         <v>0</v>
       </c>
       <c r="J41" s="6">
@@ -2816,33 +2807,33 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="57">
-        <v>200</v>
-      </c>
-      <c r="C42" s="57">
+      <c r="B42" s="13">
+        <v>500</v>
+      </c>
+      <c r="C42" s="13">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>-200</v>
-      </c>
-      <c r="E42" s="58">
-        <v>0</v>
-      </c>
-      <c r="F42" s="58">
+        <v>-500</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="59">
-        <v>0</v>
-      </c>
-      <c r="I42" s="59">
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2851,33 +2842,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="57">
-        <v>0</v>
-      </c>
-      <c r="C43" s="57">
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
         <v>2100</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="E43" s="58">
-        <v>0</v>
-      </c>
-      <c r="F43" s="58">
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="59">
-        <v>0</v>
-      </c>
-      <c r="I43" s="59">
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2886,33 +2877,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="57">
-        <v>0</v>
-      </c>
-      <c r="C44" s="57">
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="13">
         <v>60</v>
       </c>
-      <c r="F44" s="58">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="59">
-        <v>0</v>
-      </c>
-      <c r="I44" s="59">
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -2921,33 +2912,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="57">
-        <v>0</v>
-      </c>
-      <c r="C45" s="57">
+      <c r="A45" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="58">
-        <v>0</v>
-      </c>
-      <c r="F45" s="58">
-        <v>3500</v>
+      <c r="E45" s="13">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
-        <v>3500</v>
-      </c>
-      <c r="H45" s="59">
-        <v>0</v>
-      </c>
-      <c r="I45" s="59">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -2956,33 +2947,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="57">
-        <v>0</v>
-      </c>
-      <c r="C46" s="57">
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="13">
         <v>10</v>
       </c>
-      <c r="F46" s="58">
+      <c r="F46" s="13">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="59">
-        <v>0</v>
-      </c>
-      <c r="I46" s="59">
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -2991,33 +2982,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="57">
-        <v>0</v>
-      </c>
-      <c r="C47" s="57">
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="13">
         <v>250</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="13">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="59">
-        <v>0</v>
-      </c>
-      <c r="I47" s="59">
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -3026,33 +3017,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="57">
-        <v>0</v>
-      </c>
-      <c r="C48" s="57">
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="58">
+      <c r="E48" s="13">
         <v>2719</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="13">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>-2719</v>
       </c>
-      <c r="H48" s="59">
-        <v>0</v>
-      </c>
-      <c r="I48" s="59">
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3061,33 +3052,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="57">
+      <c r="B49" s="13">
         <v>74</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="13">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="58">
-        <v>0</v>
-      </c>
-      <c r="F49" s="58">
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="59">
-        <v>0</v>
-      </c>
-      <c r="I49" s="59">
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3096,33 +3087,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="57">
-        <v>0</v>
-      </c>
-      <c r="C50" s="57">
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="58">
-        <v>921</v>
-      </c>
-      <c r="F50" s="58">
+      <c r="E50" s="13">
+        <v>0</v>
+      </c>
+      <c r="F50" s="13">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
-        <v>-921</v>
-      </c>
-      <c r="H50" s="59">
-        <v>0</v>
-      </c>
-      <c r="I50" s="59">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3131,33 +3122,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="57">
-        <v>0</v>
-      </c>
-      <c r="C51" s="57">
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="13">
         <v>300</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="13">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="59">
-        <v>0</v>
-      </c>
-      <c r="I51" s="59">
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3169,30 +3160,30 @@
       <c r="A52" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="57">
+      <c r="B52" s="13">
         <v>250</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="13">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="58">
-        <v>0</v>
-      </c>
-      <c r="F52" s="58">
+      <c r="E52" s="13">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
         <v>119</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="H52" s="59">
-        <v>0</v>
-      </c>
-      <c r="I52" s="59">
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3201,68 +3192,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="57">
-        <v>0</v>
-      </c>
-      <c r="C53" s="57">
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="58">
-        <v>37472</v>
-      </c>
-      <c r="F53" s="58">
+      <c r="E53" s="13">
+        <v>88257</v>
+      </c>
+      <c r="F53" s="13">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-37472</v>
-      </c>
-      <c r="H53" s="59">
-        <v>0</v>
-      </c>
-      <c r="I53" s="59">
-        <v>12286</v>
+        <v>-88257</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <v>51585</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>12286</v>
+        <v>51585</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="57">
-        <v>0</v>
-      </c>
-      <c r="C54" s="57">
+      <c r="A54" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="58">
-        <v>0</v>
-      </c>
-      <c r="F54" s="58">
+      <c r="E54" s="13">
+        <v>0</v>
+      </c>
+      <c r="F54" s="13">
         <v>0</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="59">
-        <v>0</v>
-      </c>
-      <c r="I54" s="59">
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3271,33 +3262,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="57">
+      <c r="B55" s="13">
         <v>14</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="13">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="58">
-        <v>0</v>
-      </c>
-      <c r="F55" s="58">
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="59">
-        <v>0</v>
-      </c>
-      <c r="I55" s="59">
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3306,33 +3297,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="57">
-        <v>64</v>
-      </c>
-      <c r="C56" s="57">
+      <c r="B56" s="13">
+        <v>480</v>
+      </c>
+      <c r="C56" s="13">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
-        <v>-64</v>
-      </c>
-      <c r="E56" s="58">
-        <v>0</v>
-      </c>
-      <c r="F56" s="58">
+        <v>-480</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H56" s="59">
-        <v>0</v>
-      </c>
-      <c r="I56" s="59">
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3341,33 +3332,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="57">
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="13">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="13">
         <v>10</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="13">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="59">
-        <v>0</v>
-      </c>
-      <c r="I57" s="59">
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3376,33 +3367,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="57">
-        <v>300</v>
-      </c>
-      <c r="C58" s="57">
+      <c r="A58" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="13">
+        <v>600</v>
+      </c>
+      <c r="C58" s="13">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
-        <v>-300</v>
-      </c>
-      <c r="E58" s="58">
+        <v>-600</v>
+      </c>
+      <c r="E58" s="13">
         <v>2522</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="13">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="59">
-        <v>0</v>
-      </c>
-      <c r="I58" s="59">
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3411,33 +3402,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="57">
-        <v>0</v>
-      </c>
-      <c r="C59" s="57">
+      <c r="A59" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13">
         <v>0</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="58">
-        <v>17063</v>
-      </c>
-      <c r="F59" s="58">
+      <c r="E59" s="13">
+        <v>14148</v>
+      </c>
+      <c r="F59" s="13">
         <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>-17063</v>
-      </c>
-      <c r="H59" s="59">
-        <v>0</v>
-      </c>
-      <c r="I59" s="59">
+        <v>-14148</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3446,33 +3437,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="57">
-        <v>0</v>
-      </c>
-      <c r="C60" s="57">
+      <c r="A60" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="58">
+      <c r="E60" s="13">
         <v>265</v>
       </c>
-      <c r="F60" s="58">
+      <c r="F60" s="13">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
         <v>-265</v>
       </c>
-      <c r="H60" s="59">
-        <v>0</v>
-      </c>
-      <c r="I60" s="59">
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3481,33 +3472,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="57">
-        <v>0</v>
-      </c>
-      <c r="C61" s="57">
-        <v>80</v>
+      <c r="A61" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="13">
+        <v>839</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E61" s="58">
-        <v>0</v>
-      </c>
-      <c r="F61" s="58">
+        <v>839</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
         <v>10</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H61" s="59">
-        <v>0</v>
-      </c>
-      <c r="I61" s="59">
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3516,33 +3507,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="57">
+      <c r="A62" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="13">
         <v>389</v>
       </c>
-      <c r="C62" s="57">
+      <c r="C62" s="13">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="58">
-        <v>0</v>
-      </c>
-      <c r="F62" s="58">
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="59">
-        <v>0</v>
-      </c>
-      <c r="I62" s="59">
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3551,33 +3542,33 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="57">
-        <v>0</v>
-      </c>
-      <c r="C63" s="57">
+      <c r="A63" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="13">
+        <v>0</v>
+      </c>
+      <c r="C63" s="13">
         <v>0</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E63" s="58">
-        <v>250</v>
-      </c>
-      <c r="F63" s="58">
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
         <v>0</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
-        <v>-250</v>
-      </c>
-      <c r="H63" s="59">
-        <v>0</v>
-      </c>
-      <c r="I63" s="59">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
         <v>0</v>
       </c>
       <c r="J63" s="6">
@@ -3586,33 +3577,33 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="57">
-        <v>0</v>
-      </c>
-      <c r="C64" s="57">
+      <c r="A64" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="13">
+        <v>0</v>
+      </c>
+      <c r="C64" s="13">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="58">
+      <c r="E64" s="13">
         <v>200</v>
       </c>
-      <c r="F64" s="58">
+      <c r="F64" s="13">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="59">
-        <v>0</v>
-      </c>
-      <c r="I64" s="59">
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3621,33 +3612,33 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="57">
-        <v>0</v>
-      </c>
-      <c r="C65" s="57">
+      <c r="A65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="13">
         <v>450</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="E65" s="58">
-        <v>0</v>
-      </c>
-      <c r="F65" s="58">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="59">
-        <v>0</v>
-      </c>
-      <c r="I65" s="59">
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13">
         <v>0</v>
       </c>
       <c r="J65" s="6">
@@ -3656,33 +3647,33 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="57">
-        <v>0</v>
-      </c>
-      <c r="C66" s="57">
-        <v>220</v>
+      <c r="A66" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="13">
+        <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="E66" s="58">
-        <v>0</v>
-      </c>
-      <c r="F66" s="58">
-        <v>1053</v>
+        <v>20</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>1062</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
-        <v>1053</v>
-      </c>
-      <c r="H66" s="59">
-        <v>0</v>
-      </c>
-      <c r="I66" s="59">
+        <v>1062</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0</v>
+      </c>
+      <c r="I66" s="13">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3691,33 +3682,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="57">
-        <v>0</v>
-      </c>
-      <c r="C67" s="57">
+      <c r="A67" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="13">
+        <v>0</v>
+      </c>
+      <c r="C67" s="13">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="58">
-        <v>0</v>
-      </c>
-      <c r="F67" s="58">
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
         <v>0</v>
       </c>
-      <c r="H67" s="59">
-        <v>0</v>
-      </c>
-      <c r="I67" s="59">
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3726,33 +3717,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="57">
-        <v>0</v>
-      </c>
-      <c r="C68" s="57">
+      <c r="A68" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E68" s="13">
         <v>16</v>
       </c>
-      <c r="F68" s="58">
+      <c r="F68" s="13">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="59">
-        <v>0</v>
-      </c>
-      <c r="I68" s="59">
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3761,33 +3752,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" s="57">
-        <v>0</v>
-      </c>
-      <c r="C69" s="57">
+      <c r="A69" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="13">
+        <v>0</v>
+      </c>
+      <c r="C69" s="13">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="58">
-        <v>0</v>
-      </c>
-      <c r="F69" s="58">
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
         <v>0</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H69" s="59">
-        <v>0</v>
-      </c>
-      <c r="I69" s="59">
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3796,33 +3787,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="57">
-        <v>0</v>
-      </c>
-      <c r="C70" s="57">
+      <c r="A70" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="13">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="13">
         <v>146</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="13">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="59">
-        <v>0</v>
-      </c>
-      <c r="I70" s="59">
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3831,31 +3822,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="57">
-        <v>0</v>
-      </c>
-      <c r="C71" s="57">
+      <c r="A71" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="13">
+        <v>0</v>
+      </c>
+      <c r="C71" s="13">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="58">
-        <v>0</v>
-      </c>
-      <c r="F71" s="58">
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
         <v>0</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H71" s="59">
-        <v>0</v>
-      </c>
-      <c r="I71" s="59">
+      <c r="H71" s="13">
+        <v>0</v>
+      </c>
+      <c r="I71" s="13">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3864,33 +3857,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="57">
-        <v>1800</v>
-      </c>
-      <c r="C72" s="57">
+      <c r="A72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1850</v>
+      </c>
+      <c r="C72" s="13">
         <v>2400</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="E72" s="58">
-        <v>0</v>
-      </c>
-      <c r="F72" s="58">
+        <v>550</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
         <v>0</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H72" s="59">
-        <v>0</v>
-      </c>
-      <c r="I72" s="59">
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
+      <c r="I72" s="13">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -3899,33 +3892,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="57">
-        <v>0</v>
-      </c>
-      <c r="C73" s="57">
+      <c r="A73" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="13">
+        <v>0</v>
+      </c>
+      <c r="C73" s="13">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="58">
+      <c r="E73" s="13">
         <v>13083</v>
       </c>
-      <c r="F73" s="58">
+      <c r="F73" s="13">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
         <v>-13083</v>
       </c>
-      <c r="H73" s="59">
-        <v>0</v>
-      </c>
-      <c r="I73" s="59">
+      <c r="H73" s="13">
+        <v>0</v>
+      </c>
+      <c r="I73" s="13">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -3934,33 +3927,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="57">
-        <v>0</v>
-      </c>
-      <c r="C74" s="57">
+      <c r="A74" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="13">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="58">
-        <v>0</v>
-      </c>
-      <c r="F74" s="58">
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H74" s="59">
-        <v>0</v>
-      </c>
-      <c r="I74" s="59">
+      <c r="H74" s="13">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -3969,33 +3962,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="57">
+      <c r="A75" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="13">
         <v>200</v>
       </c>
-      <c r="C75" s="57">
+      <c r="C75" s="13">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="58">
-        <v>0</v>
-      </c>
-      <c r="F75" s="58">
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="59">
-        <v>0</v>
-      </c>
-      <c r="I75" s="59">
+      <c r="H75" s="13">
+        <v>0</v>
+      </c>
+      <c r="I75" s="13">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -4004,33 +3997,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="57">
-        <v>0</v>
-      </c>
-      <c r="C76" s="57">
+      <c r="A76" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="13">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="58">
-        <v>12439</v>
-      </c>
-      <c r="F76" s="58">
+      <c r="E76" s="13">
+        <v>4248</v>
+      </c>
+      <c r="F76" s="13">
         <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-12439</v>
-      </c>
-      <c r="H76" s="59">
-        <v>0</v>
-      </c>
-      <c r="I76" s="59">
+        <v>-4248</v>
+      </c>
+      <c r="H76" s="13">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -4039,33 +4032,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="57">
-        <v>0</v>
-      </c>
-      <c r="C77" s="57">
+      <c r="A77" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="13">
+        <v>0</v>
+      </c>
+      <c r="C77" s="13">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="58">
+      <c r="E77" s="13">
         <v>333</v>
       </c>
-      <c r="F77" s="58">
+      <c r="F77" s="13">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
         <v>-333</v>
       </c>
-      <c r="H77" s="59">
-        <v>0</v>
-      </c>
-      <c r="I77" s="59">
+      <c r="H77" s="13">
+        <v>0</v>
+      </c>
+      <c r="I77" s="13">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4074,33 +4067,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="57">
-        <v>0</v>
-      </c>
-      <c r="C78" s="57">
+      <c r="A78" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="13">
+        <v>0</v>
+      </c>
+      <c r="C78" s="13">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="58">
-        <v>1010</v>
-      </c>
-      <c r="F78" s="58">
-        <v>0</v>
+      <c r="E78" s="13">
+        <v>4040</v>
+      </c>
+      <c r="F78" s="13">
+        <v>2000</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
-        <v>-1010</v>
-      </c>
-      <c r="H78" s="59">
-        <v>0</v>
-      </c>
-      <c r="I78" s="59">
+        <v>-2040</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
+      </c>
+      <c r="I78" s="13">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4109,33 +4102,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="57">
+      <c r="A79" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="13">
         <v>150</v>
       </c>
-      <c r="C79" s="57">
+      <c r="C79" s="13">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="58">
-        <v>0</v>
-      </c>
-      <c r="F79" s="58">
-        <v>2000</v>
+      <c r="E79" s="13">
+        <v>4513</v>
+      </c>
+      <c r="F79" s="13">
+        <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="H79" s="59">
-        <v>0</v>
-      </c>
-      <c r="I79" s="59">
+        <v>-4513</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4144,33 +4137,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="57">
-        <v>0</v>
-      </c>
-      <c r="C80" s="57">
+      <c r="A80" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="13">
+        <v>0</v>
+      </c>
+      <c r="C80" s="13">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="58">
-        <v>0</v>
-      </c>
-      <c r="F80" s="58">
+      <c r="E80" s="13">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="59">
-        <v>0</v>
-      </c>
-      <c r="I80" s="59">
+      <c r="H80" s="13">
+        <v>0</v>
+      </c>
+      <c r="I80" s="13">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4179,33 +4172,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="57">
-        <v>0</v>
-      </c>
-      <c r="C81" s="57">
+      <c r="A81" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="13">
+        <v>0</v>
+      </c>
+      <c r="C81" s="13">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="58">
-        <v>0</v>
-      </c>
-      <c r="F81" s="58">
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="59">
-        <v>0</v>
-      </c>
-      <c r="I81" s="59">
+      <c r="H81" s="13">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4214,33 +4207,33 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" s="57">
-        <v>110</v>
-      </c>
-      <c r="C82" s="57">
+      <c r="A82" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0</v>
+      </c>
+      <c r="C82" s="13">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
-        <v>-110</v>
-      </c>
-      <c r="E82" s="58">
-        <v>0</v>
-      </c>
-      <c r="F82" s="58">
-        <v>2512</v>
+        <v>0</v>
+      </c>
+      <c r="E82" s="13">
+        <v>0</v>
+      </c>
+      <c r="F82" s="13">
+        <v>2804</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>2512</v>
-      </c>
-      <c r="H82" s="59">
-        <v>0</v>
-      </c>
-      <c r="I82" s="59">
+        <v>2804</v>
+      </c>
+      <c r="H82" s="13">
+        <v>0</v>
+      </c>
+      <c r="I82" s="13">
         <v>0</v>
       </c>
       <c r="J82" s="6">
@@ -4249,31 +4242,33 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="57">
-        <v>0</v>
-      </c>
-      <c r="C83" s="57">
+      <c r="A83" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="13">
+        <v>0</v>
+      </c>
+      <c r="C83" s="13">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="58">
-        <v>0</v>
-      </c>
-      <c r="F83" s="58">
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H83" s="59">
-        <v>0</v>
-      </c>
-      <c r="I83" s="59">
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4282,68 +4277,68 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="57">
-        <v>0</v>
-      </c>
-      <c r="C84" s="57">
+      <c r="A84" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="13">
+        <v>0</v>
+      </c>
+      <c r="C84" s="13">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="58">
-        <v>252</v>
-      </c>
-      <c r="F84" s="58">
+      <c r="E84" s="13">
+        <v>322</v>
+      </c>
+      <c r="F84" s="13">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
-        <v>-252</v>
-      </c>
-      <c r="H84" s="59">
-        <v>53</v>
-      </c>
-      <c r="I84" s="59">
+        <v>-322</v>
+      </c>
+      <c r="H84" s="13">
+        <v>0</v>
+      </c>
+      <c r="I84" s="13">
         <v>0</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" si="5"/>
-        <v>-53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="57">
+      <c r="A85" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="13">
         <v>95</v>
       </c>
-      <c r="C85" s="57">
+      <c r="C85" s="13">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="13">
         <v>200</v>
       </c>
-      <c r="F85" s="58">
+      <c r="F85" s="13">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="59">
-        <v>0</v>
-      </c>
-      <c r="I85" s="59">
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+      <c r="I85" s="13">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4352,33 +4347,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="57">
-        <v>0</v>
-      </c>
-      <c r="C86" s="57">
+      <c r="A86" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="13">
+        <v>0</v>
+      </c>
+      <c r="C86" s="13">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="58">
-        <v>0</v>
-      </c>
-      <c r="F86" s="58">
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="59">
-        <v>0</v>
-      </c>
-      <c r="I86" s="59">
+      <c r="H86" s="13">
+        <v>0</v>
+      </c>
+      <c r="I86" s="13">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4387,33 +4382,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="57">
-        <v>0</v>
-      </c>
-      <c r="C87" s="57">
+      <c r="A87" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="13">
+        <v>0</v>
+      </c>
+      <c r="C87" s="13">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="58">
-        <v>0</v>
-      </c>
-      <c r="F87" s="58">
+      <c r="E87" s="13">
+        <v>0</v>
+      </c>
+      <c r="F87" s="13">
         <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H87" s="59">
-        <v>0</v>
-      </c>
-      <c r="I87" s="59">
+      <c r="H87" s="13">
+        <v>0</v>
+      </c>
+      <c r="I87" s="13">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4422,33 +4417,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="57">
-        <v>0</v>
-      </c>
-      <c r="C88" s="57">
+      <c r="A88" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="13">
+        <v>0</v>
+      </c>
+      <c r="C88" s="13">
         <v>900</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="E88" s="58">
-        <v>0</v>
-      </c>
-      <c r="F88" s="58">
+      <c r="E88" s="13">
+        <v>0</v>
+      </c>
+      <c r="F88" s="13">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="59">
-        <v>0</v>
-      </c>
-      <c r="I88" s="59">
+      <c r="H88" s="13">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4457,31 +4452,33 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="57">
-        <v>0</v>
-      </c>
-      <c r="C89" s="57">
+      <c r="A89" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="13">
+        <v>0</v>
+      </c>
+      <c r="C89" s="13">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="58">
-        <v>0</v>
-      </c>
-      <c r="F89" s="58">
+      <c r="E89" s="13">
+        <v>323</v>
+      </c>
+      <c r="F89" s="13">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="59">
-        <v>0</v>
-      </c>
-      <c r="I89" s="59">
+        <v>-323</v>
+      </c>
+      <c r="H89" s="13">
+        <v>0</v>
+      </c>
+      <c r="I89" s="13">
         <v>0</v>
       </c>
       <c r="J89" s="6">
@@ -4490,33 +4487,33 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="57">
-        <v>0</v>
-      </c>
-      <c r="C90" s="57">
+      <c r="A90" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="13">
+        <v>0</v>
+      </c>
+      <c r="C90" s="13">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="13">
         <v>12662</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="13">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="59">
-        <v>0</v>
-      </c>
-      <c r="I90" s="59">
+      <c r="H90" s="13">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4525,31 +4522,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="57">
-        <v>0</v>
-      </c>
-      <c r="C91" s="57">
+      <c r="A91" s="10"/>
+      <c r="B91" s="13">
+        <v>0</v>
+      </c>
+      <c r="C91" s="13">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="58">
-        <v>0</v>
-      </c>
-      <c r="F91" s="58">
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="59">
-        <v>0</v>
-      </c>
-      <c r="I91" s="59">
+      <c r="H91" s="13">
+        <v>0</v>
+      </c>
+      <c r="I91" s="13">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4558,31 +4555,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="57">
-        <v>0</v>
-      </c>
-      <c r="C92" s="57">
-        <v>0</v>
+      <c r="A92" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="13">
+        <v>0</v>
+      </c>
+      <c r="C92" s="13">
+        <v>275</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="58">
-        <v>0</v>
-      </c>
-      <c r="F92" s="58">
+        <v>275</v>
+      </c>
+      <c r="E92" s="13">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="59">
-        <v>0</v>
-      </c>
-      <c r="I92" s="59">
+      <c r="H92" s="13">
+        <v>0</v>
+      </c>
+      <c r="I92" s="13">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4591,33 +4590,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="57">
-        <v>0</v>
-      </c>
-      <c r="C93" s="57">
-        <v>2850</v>
+      <c r="A93" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="13">
+        <v>0</v>
+      </c>
+      <c r="C93" s="13">
+        <v>2700</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
-        <v>2850</v>
-      </c>
-      <c r="E93" s="58">
-        <v>0</v>
-      </c>
-      <c r="F93" s="58">
+        <v>2700</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="59">
-        <v>0</v>
-      </c>
-      <c r="I93" s="59">
+      <c r="H93" s="13">
+        <v>0</v>
+      </c>
+      <c r="I93" s="13">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4626,33 +4625,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="57">
+      <c r="A94" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="13">
         <v>7</v>
       </c>
-      <c r="C94" s="57">
+      <c r="C94" s="13">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="58">
-        <v>0</v>
-      </c>
-      <c r="F94" s="58">
+      <c r="E94" s="13">
+        <v>0</v>
+      </c>
+      <c r="F94" s="13">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="59">
-        <v>0</v>
-      </c>
-      <c r="I94" s="59">
+      <c r="H94" s="13">
+        <v>0</v>
+      </c>
+      <c r="I94" s="13">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4661,33 +4660,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="57">
-        <v>0</v>
-      </c>
-      <c r="C95" s="57">
+      <c r="A95" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="13">
+        <v>0</v>
+      </c>
+      <c r="C95" s="13">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="58">
+      <c r="E95" s="13">
         <v>21</v>
       </c>
-      <c r="F95" s="58">
+      <c r="F95" s="13">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="59">
-        <v>0</v>
-      </c>
-      <c r="I95" s="59">
+      <c r="H95" s="13">
+        <v>0</v>
+      </c>
+      <c r="I95" s="13">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4696,33 +4695,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="57">
-        <v>0</v>
-      </c>
-      <c r="C96" s="57">
+      <c r="A96" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0</v>
+      </c>
+      <c r="C96" s="13">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="58">
-        <v>3411</v>
-      </c>
-      <c r="F96" s="58">
+      <c r="E96" s="13">
+        <v>11404</v>
+      </c>
+      <c r="F96" s="13">
         <v>0</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
-        <v>-3411</v>
-      </c>
-      <c r="H96" s="59">
-        <v>0</v>
-      </c>
-      <c r="I96" s="59">
+        <v>-11404</v>
+      </c>
+      <c r="H96" s="13">
+        <v>0</v>
+      </c>
+      <c r="I96" s="13">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4731,33 +4730,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" s="57">
-        <v>0</v>
-      </c>
-      <c r="C97" s="57">
+      <c r="A97" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" s="13">
+        <v>0</v>
+      </c>
+      <c r="C97" s="13">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="58">
-        <v>500</v>
-      </c>
-      <c r="F97" s="58">
+      <c r="E97" s="13">
+        <v>650</v>
+      </c>
+      <c r="F97" s="13">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
-        <v>-500</v>
-      </c>
-      <c r="H97" s="59">
-        <v>0</v>
-      </c>
-      <c r="I97" s="59">
+        <v>-650</v>
+      </c>
+      <c r="H97" s="13">
+        <v>0</v>
+      </c>
+      <c r="I97" s="13">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4766,31 +4765,33 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="57">
-        <v>0</v>
-      </c>
-      <c r="C98" s="57">
+      <c r="A98" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" s="13">
+        <v>0</v>
+      </c>
+      <c r="C98" s="13">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="58">
-        <v>0</v>
-      </c>
-      <c r="F98" s="58">
-        <v>0</v>
+      <c r="E98" s="13">
+        <v>0</v>
+      </c>
+      <c r="F98" s="13">
+        <v>600</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="59">
-        <v>0</v>
-      </c>
-      <c r="I98" s="59">
+        <v>600</v>
+      </c>
+      <c r="H98" s="13">
+        <v>0</v>
+      </c>
+      <c r="I98" s="13">
         <v>0</v>
       </c>
       <c r="J98" s="6">
@@ -4799,33 +4800,33 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="57">
-        <v>0</v>
-      </c>
-      <c r="C99" s="57">
+      <c r="A99" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="13">
+        <v>0</v>
+      </c>
+      <c r="C99" s="13">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="58">
-        <v>0</v>
-      </c>
-      <c r="F99" s="58">
+      <c r="E99" s="13">
+        <v>0</v>
+      </c>
+      <c r="F99" s="13">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H99" s="59">
+      <c r="H99" s="13">
         <v>814</v>
       </c>
-      <c r="I99" s="59">
+      <c r="I99" s="13">
         <v>0</v>
       </c>
       <c r="J99" s="6">
@@ -4834,33 +4835,33 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="57">
-        <v>0</v>
-      </c>
-      <c r="C100" s="57">
+      <c r="A100" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="13">
+        <v>0</v>
+      </c>
+      <c r="C100" s="13">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="58">
-        <v>0</v>
-      </c>
-      <c r="F100" s="58">
+      <c r="E100" s="13">
+        <v>0</v>
+      </c>
+      <c r="F100" s="13">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="59">
-        <v>0</v>
-      </c>
-      <c r="I100" s="59">
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="13">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4869,33 +4870,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="57">
-        <v>0</v>
-      </c>
-      <c r="C101" s="57">
+      <c r="A101" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="13">
+        <v>0</v>
+      </c>
+      <c r="C101" s="13">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="58">
-        <v>2000</v>
-      </c>
-      <c r="F101" s="58">
-        <v>500</v>
+      <c r="E101" s="13">
+        <v>0</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
-        <v>-1500</v>
-      </c>
-      <c r="H101" s="59">
-        <v>0</v>
-      </c>
-      <c r="I101" s="59">
+        <v>0</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -4904,31 +4905,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
-      <c r="B102" s="57">
-        <v>0</v>
-      </c>
-      <c r="C102" s="57">
+      <c r="A102" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="13">
+        <v>0</v>
+      </c>
+      <c r="C102" s="13">
         <v>0</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E102" s="58">
-        <v>0</v>
-      </c>
-      <c r="F102" s="58">
-        <v>0</v>
+      <c r="E102" s="13">
+        <v>0</v>
+      </c>
+      <c r="F102" s="13">
+        <v>10200</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="59">
-        <v>0</v>
-      </c>
-      <c r="I102" s="59">
+        <v>10200</v>
+      </c>
+      <c r="H102" s="13">
+        <v>0</v>
+      </c>
+      <c r="I102" s="13">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -4937,33 +4940,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="57">
+      <c r="A103" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" s="13">
         <v>50</v>
       </c>
-      <c r="C103" s="57">
+      <c r="C103" s="13">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="58">
-        <v>0</v>
-      </c>
-      <c r="F103" s="58">
+      <c r="E103" s="13">
+        <v>0</v>
+      </c>
+      <c r="F103" s="13">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="59">
-        <v>0</v>
-      </c>
-      <c r="I103" s="59">
+      <c r="H103" s="13">
+        <v>0</v>
+      </c>
+      <c r="I103" s="13">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -4972,33 +4975,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="57">
-        <v>0</v>
-      </c>
-      <c r="C104" s="57">
+      <c r="A104" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="13">
+        <v>0</v>
+      </c>
+      <c r="C104" s="13">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="58">
-        <v>0</v>
-      </c>
-      <c r="F104" s="58">
-        <v>55396</v>
+      <c r="E104" s="13">
+        <v>34259</v>
+      </c>
+      <c r="F104" s="13">
+        <v>0</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>55396</v>
-      </c>
-      <c r="H104" s="59">
-        <v>0</v>
-      </c>
-      <c r="I104" s="59">
+        <v>-34259</v>
+      </c>
+      <c r="H104" s="13">
+        <v>0</v>
+      </c>
+      <c r="I104" s="13">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -5007,33 +5010,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" s="57">
-        <v>0</v>
-      </c>
-      <c r="C105" s="57">
+      <c r="A105" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="13">
+        <v>0</v>
+      </c>
+      <c r="C105" s="13">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="58">
-        <v>6747</v>
-      </c>
-      <c r="F105" s="58">
-        <v>20000</v>
+      <c r="E105" s="13">
+        <v>0</v>
+      </c>
+      <c r="F105" s="13">
+        <v>32254</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>13253</v>
-      </c>
-      <c r="H105" s="59">
-        <v>0</v>
-      </c>
-      <c r="I105" s="59">
+        <v>32254</v>
+      </c>
+      <c r="H105" s="13">
+        <v>0</v>
+      </c>
+      <c r="I105" s="13">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5042,33 +5045,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="57">
-        <v>0</v>
-      </c>
-      <c r="C106" s="57">
+      <c r="A106" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="13">
+        <v>0</v>
+      </c>
+      <c r="C106" s="13">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="58">
+      <c r="E106" s="13">
         <v>300</v>
       </c>
-      <c r="F106" s="58">
+      <c r="F106" s="13">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="59">
-        <v>0</v>
-      </c>
-      <c r="I106" s="59">
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5077,31 +5080,31 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
-      <c r="B107" s="57">
-        <v>0</v>
-      </c>
-      <c r="C107" s="57">
+      <c r="A107" s="10"/>
+      <c r="B107" s="13">
+        <v>0</v>
+      </c>
+      <c r="C107" s="13">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="58">
-        <v>0</v>
-      </c>
-      <c r="F107" s="58">
+      <c r="E107" s="13">
+        <v>0</v>
+      </c>
+      <c r="F107" s="13">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H107" s="59">
-        <v>0</v>
-      </c>
-      <c r="I107" s="59">
+      <c r="H107" s="13">
+        <v>0</v>
+      </c>
+      <c r="I107" s="13">
         <v>0</v>
       </c>
       <c r="J107" s="6">
@@ -5110,31 +5113,31 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="57">
-        <v>0</v>
-      </c>
-      <c r="C108" s="57">
+      <c r="A108" s="10"/>
+      <c r="B108" s="13">
+        <v>0</v>
+      </c>
+      <c r="C108" s="13">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="58">
-        <v>0</v>
-      </c>
-      <c r="F108" s="58">
+      <c r="E108" s="13">
+        <v>0</v>
+      </c>
+      <c r="F108" s="13">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H108" s="59">
-        <v>0</v>
-      </c>
-      <c r="I108" s="59">
+      <c r="H108" s="13">
+        <v>0</v>
+      </c>
+      <c r="I108" s="13">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5143,31 +5146,31 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="57">
-        <v>0</v>
-      </c>
-      <c r="C109" s="57">
+      <c r="A109" s="10"/>
+      <c r="B109" s="13">
+        <v>0</v>
+      </c>
+      <c r="C109" s="13">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="58">
-        <v>0</v>
-      </c>
-      <c r="F109" s="58">
+      <c r="E109" s="13">
+        <v>0</v>
+      </c>
+      <c r="F109" s="13">
         <v>0</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H109" s="59">
-        <v>0</v>
-      </c>
-      <c r="I109" s="59">
+      <c r="H109" s="13">
+        <v>0</v>
+      </c>
+      <c r="I109" s="13">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5176,33 +5179,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B110" s="57">
-        <v>0</v>
-      </c>
-      <c r="C110" s="57">
+      <c r="A110" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="13">
+        <v>0</v>
+      </c>
+      <c r="C110" s="13">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="58">
+      <c r="E110" s="13">
         <v>10</v>
       </c>
-      <c r="F110" s="58">
+      <c r="F110" s="13">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="59">
-        <v>0</v>
-      </c>
-      <c r="I110" s="59">
+      <c r="H110" s="13">
+        <v>0</v>
+      </c>
+      <c r="I110" s="13">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5211,33 +5214,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B111" s="57">
-        <v>0</v>
-      </c>
-      <c r="C111" s="57">
-        <v>15</v>
+      <c r="A111" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111" s="13">
+        <v>0</v>
+      </c>
+      <c r="C111" s="13">
+        <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E111" s="58">
-        <v>0</v>
-      </c>
-      <c r="F111" s="58">
+        <v>0</v>
+      </c>
+      <c r="E111" s="13">
+        <v>0</v>
+      </c>
+      <c r="F111" s="13">
         <v>0</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H111" s="59">
-        <v>0</v>
-      </c>
-      <c r="I111" s="59">
+      <c r="H111" s="13">
+        <v>0</v>
+      </c>
+      <c r="I111" s="13">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5246,33 +5249,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B112" s="57">
-        <v>0</v>
-      </c>
-      <c r="C112" s="57">
+      <c r="A112" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="13">
+        <v>0</v>
+      </c>
+      <c r="C112" s="13">
         <v>451</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
         <v>451</v>
       </c>
-      <c r="E112" s="58">
-        <v>0</v>
-      </c>
-      <c r="F112" s="58">
+      <c r="E112" s="13">
+        <v>0</v>
+      </c>
+      <c r="F112" s="13">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="59">
-        <v>0</v>
-      </c>
-      <c r="I112" s="59">
+      <c r="H112" s="13">
+        <v>0</v>
+      </c>
+      <c r="I112" s="13">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5281,33 +5284,31 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B113" s="57">
-        <v>0</v>
-      </c>
-      <c r="C113" s="57">
-        <v>73</v>
+      <c r="A113" s="10"/>
+      <c r="B113" s="13">
+        <v>0</v>
+      </c>
+      <c r="C113" s="13">
+        <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="E113" s="58">
-        <v>0</v>
-      </c>
-      <c r="F113" s="58">
+        <v>0</v>
+      </c>
+      <c r="E113" s="13">
+        <v>0</v>
+      </c>
+      <c r="F113" s="13">
         <v>0</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H113" s="59">
-        <v>0</v>
-      </c>
-      <c r="I113" s="59">
+      <c r="H113" s="13">
+        <v>0</v>
+      </c>
+      <c r="I113" s="13">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5316,33 +5317,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B114" s="57">
-        <v>0</v>
-      </c>
-      <c r="C114" s="57">
+      <c r="A114" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="13">
+        <v>0</v>
+      </c>
+      <c r="C114" s="13">
         <v>0</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E114" s="58">
-        <v>16433</v>
-      </c>
-      <c r="F114" s="58">
-        <v>140</v>
+      <c r="E114" s="13">
+        <v>28918</v>
+      </c>
+      <c r="F114" s="13">
+        <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-16293</v>
-      </c>
-      <c r="H114" s="59">
-        <v>0</v>
-      </c>
-      <c r="I114" s="59">
+        <v>-28918</v>
+      </c>
+      <c r="H114" s="13">
+        <v>0</v>
+      </c>
+      <c r="I114" s="13">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5351,33 +5352,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B115" s="57">
-        <v>800</v>
-      </c>
-      <c r="C115" s="57">
+      <c r="A115" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="13">
+        <v>1800</v>
+      </c>
+      <c r="C115" s="13">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
-        <v>-800</v>
-      </c>
-      <c r="E115" s="58">
-        <v>0</v>
-      </c>
-      <c r="F115" s="58">
+        <v>-1800</v>
+      </c>
+      <c r="E115" s="13">
+        <v>0</v>
+      </c>
+      <c r="F115" s="13">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="59">
-        <v>0</v>
-      </c>
-      <c r="I115" s="59">
+      <c r="H115" s="13">
+        <v>0</v>
+      </c>
+      <c r="I115" s="13">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5386,33 +5387,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B116" s="57">
+      <c r="A116" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="13">
         <v>935</v>
       </c>
-      <c r="C116" s="57">
-        <v>4037</v>
+      <c r="C116" s="13">
+        <v>6737</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
-        <v>3102</v>
-      </c>
-      <c r="E116" s="58">
-        <v>0</v>
-      </c>
-      <c r="F116" s="58">
+        <v>5802</v>
+      </c>
+      <c r="E116" s="13">
+        <v>0</v>
+      </c>
+      <c r="F116" s="13">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H116" s="59">
-        <v>0</v>
-      </c>
-      <c r="I116" s="59">
+      <c r="H116" s="13">
+        <v>0</v>
+      </c>
+      <c r="I116" s="13">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5421,33 +5422,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B117" s="57">
-        <v>0</v>
-      </c>
-      <c r="C117" s="57">
+      <c r="A117" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117" s="13">
+        <v>0</v>
+      </c>
+      <c r="C117" s="13">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E117" s="58">
-        <v>3070</v>
-      </c>
-      <c r="F117" s="58">
+      <c r="E117" s="13">
+        <v>3739</v>
+      </c>
+      <c r="F117" s="13">
         <v>3400</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
-        <v>330</v>
-      </c>
-      <c r="H117" s="59">
-        <v>0</v>
-      </c>
-      <c r="I117" s="59">
+        <v>-339</v>
+      </c>
+      <c r="H117" s="13">
+        <v>0</v>
+      </c>
+      <c r="I117" s="13">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5456,33 +5457,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B118" s="57">
-        <v>0</v>
-      </c>
-      <c r="C118" s="57">
+      <c r="A118" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" s="13">
+        <v>0</v>
+      </c>
+      <c r="C118" s="13">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="58">
+      <c r="E118" s="13">
         <v>7682</v>
       </c>
-      <c r="F118" s="58">
+      <c r="F118" s="13">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="59">
-        <v>0</v>
-      </c>
-      <c r="I118" s="59">
+      <c r="H118" s="13">
+        <v>0</v>
+      </c>
+      <c r="I118" s="13">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5491,33 +5492,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" s="57">
-        <v>100</v>
-      </c>
-      <c r="C119" s="57">
+      <c r="A119" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="13">
+        <v>0</v>
+      </c>
+      <c r="C119" s="13">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-      <c r="E119" s="58">
-        <v>831</v>
-      </c>
-      <c r="F119" s="58">
+        <v>0</v>
+      </c>
+      <c r="E119" s="13">
+        <v>2750</v>
+      </c>
+      <c r="F119" s="13">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-831</v>
-      </c>
-      <c r="H119" s="59">
-        <v>0</v>
-      </c>
-      <c r="I119" s="59">
+        <v>-2750</v>
+      </c>
+      <c r="H119" s="13">
+        <v>0</v>
+      </c>
+      <c r="I119" s="13">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5526,33 +5527,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B120" s="57">
-        <v>0</v>
-      </c>
-      <c r="C120" s="57">
+      <c r="A120" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="13">
+        <v>0</v>
+      </c>
+      <c r="C120" s="13">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E120" s="58">
-        <v>186</v>
-      </c>
-      <c r="F120" s="58">
+      <c r="E120" s="13">
+        <v>0</v>
+      </c>
+      <c r="F120" s="13">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
-        <v>-186</v>
-      </c>
-      <c r="H120" s="59">
-        <v>0</v>
-      </c>
-      <c r="I120" s="59">
+        <v>0</v>
+      </c>
+      <c r="H120" s="13">
+        <v>0</v>
+      </c>
+      <c r="I120" s="13">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5561,33 +5562,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B121" s="57">
-        <v>0</v>
-      </c>
-      <c r="C121" s="57">
+      <c r="A121" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" s="13">
+        <v>0</v>
+      </c>
+      <c r="C121" s="13">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="58">
+      <c r="E121" s="13">
         <v>15000</v>
       </c>
-      <c r="F121" s="58">
+      <c r="F121" s="13">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="59">
-        <v>0</v>
-      </c>
-      <c r="I121" s="59">
+      <c r="H121" s="13">
+        <v>0</v>
+      </c>
+      <c r="I121" s="13">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5596,33 +5597,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B122" s="57">
-        <v>0</v>
-      </c>
-      <c r="C122" s="57">
+      <c r="A122" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="13">
+        <v>0</v>
+      </c>
+      <c r="C122" s="13">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="58">
+      <c r="E122" s="13">
         <v>147</v>
       </c>
-      <c r="F122" s="58">
+      <c r="F122" s="13">
         <v>200</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="H122" s="59">
+      <c r="H122" s="13">
         <v>70</v>
       </c>
-      <c r="I122" s="59">
+      <c r="I122" s="13">
         <v>0</v>
       </c>
       <c r="J122" s="6">
@@ -5631,33 +5632,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123" s="57">
-        <v>0</v>
-      </c>
-      <c r="C123" s="57">
+      <c r="A123" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="13">
+        <v>0</v>
+      </c>
+      <c r="C123" s="13">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E123" s="58">
-        <v>0</v>
-      </c>
-      <c r="F123" s="58">
+      <c r="E123" s="13">
+        <v>0</v>
+      </c>
+      <c r="F123" s="13">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H123" s="59">
-        <v>0</v>
-      </c>
-      <c r="I123" s="59">
+      <c r="H123" s="13">
+        <v>0</v>
+      </c>
+      <c r="I123" s="13">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5666,33 +5667,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B124" s="57">
-        <v>0</v>
-      </c>
-      <c r="C124" s="57">
+      <c r="A124" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="13">
+        <v>0</v>
+      </c>
+      <c r="C124" s="13">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E124" s="58">
-        <v>0</v>
-      </c>
-      <c r="F124" s="58">
+      <c r="E124" s="13">
+        <v>0</v>
+      </c>
+      <c r="F124" s="13">
         <v>0</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H124" s="59">
-        <v>0</v>
-      </c>
-      <c r="I124" s="59">
+      <c r="H124" s="13">
+        <v>0</v>
+      </c>
+      <c r="I124" s="13">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5701,33 +5702,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B125" s="57">
+      <c r="A125" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125" s="13">
         <v>320</v>
       </c>
-      <c r="C125" s="57">
+      <c r="C125" s="13">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
         <v>-320</v>
       </c>
-      <c r="E125" s="58">
+      <c r="E125" s="13">
         <v>60</v>
       </c>
-      <c r="F125" s="58">
+      <c r="F125" s="13">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
         <v>-60</v>
       </c>
-      <c r="H125" s="59">
-        <v>0</v>
-      </c>
-      <c r="I125" s="59">
+      <c r="H125" s="13">
+        <v>0</v>
+      </c>
+      <c r="I125" s="13">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5736,33 +5737,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B126" s="57">
+      <c r="A126" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" s="13">
         <v>150</v>
       </c>
-      <c r="C126" s="57">
+      <c r="C126" s="13">
         <v>120</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
         <v>-30</v>
       </c>
-      <c r="E126" s="58">
-        <v>0</v>
-      </c>
-      <c r="F126" s="58">
-        <v>363</v>
+      <c r="E126" s="13">
+        <v>0</v>
+      </c>
+      <c r="F126" s="13">
+        <v>449</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
-        <v>363</v>
-      </c>
-      <c r="H126" s="59">
-        <v>0</v>
-      </c>
-      <c r="I126" s="59">
+        <v>449</v>
+      </c>
+      <c r="H126" s="13">
+        <v>0</v>
+      </c>
+      <c r="I126" s="13">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5771,33 +5772,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B127" s="57">
-        <v>0</v>
-      </c>
-      <c r="C127" s="57">
+      <c r="A127" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="13">
+        <v>0</v>
+      </c>
+      <c r="C127" s="13">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="58">
+      <c r="E127" s="13">
         <v>8951</v>
       </c>
-      <c r="F127" s="58">
+      <c r="F127" s="13">
         <v>0</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
         <v>-8951</v>
       </c>
-      <c r="H127" s="59">
-        <v>0</v>
-      </c>
-      <c r="I127" s="59">
+      <c r="H127" s="13">
+        <v>0</v>
+      </c>
+      <c r="I127" s="13">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5806,33 +5807,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B128" s="57">
+      <c r="A128" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="13">
         <v>300</v>
       </c>
-      <c r="C128" s="57">
+      <c r="C128" s="13">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E128" s="58">
-        <v>0</v>
-      </c>
-      <c r="F128" s="58">
+      <c r="E128" s="13">
+        <v>0</v>
+      </c>
+      <c r="F128" s="13">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H128" s="59">
-        <v>0</v>
-      </c>
-      <c r="I128" s="59">
+      <c r="H128" s="13">
+        <v>0</v>
+      </c>
+      <c r="I128" s="13">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5841,33 +5842,31 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B129" s="57">
-        <v>0</v>
-      </c>
-      <c r="C129" s="57">
+      <c r="A129" s="10"/>
+      <c r="B129" s="13">
+        <v>0</v>
+      </c>
+      <c r="C129" s="13">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="58">
-        <v>200</v>
-      </c>
-      <c r="F129" s="58">
+      <c r="E129" s="13">
+        <v>0</v>
+      </c>
+      <c r="F129" s="13">
         <v>0</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
-        <v>-200</v>
-      </c>
-      <c r="H129" s="59">
-        <v>0</v>
-      </c>
-      <c r="I129" s="59">
+        <v>0</v>
+      </c>
+      <c r="H129" s="13">
+        <v>0</v>
+      </c>
+      <c r="I129" s="13">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5876,33 +5875,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B130" s="57">
+      <c r="A130" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130" s="13">
         <v>270</v>
       </c>
-      <c r="C130" s="57">
+      <c r="C130" s="13">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
         <v>-270</v>
       </c>
-      <c r="E130" s="58">
+      <c r="E130" s="13">
         <v>25000</v>
       </c>
-      <c r="F130" s="58">
+      <c r="F130" s="13">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
         <v>-25000</v>
       </c>
-      <c r="H130" s="59">
-        <v>0</v>
-      </c>
-      <c r="I130" s="59">
+      <c r="H130" s="13">
+        <v>0</v>
+      </c>
+      <c r="I130" s="13">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -5911,33 +5910,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B131" s="57">
-        <v>0</v>
-      </c>
-      <c r="C131" s="57">
+      <c r="A131" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B131" s="13">
+        <v>0</v>
+      </c>
+      <c r="C131" s="13">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
         <v>0</v>
       </c>
-      <c r="E131" s="58">
-        <v>0</v>
-      </c>
-      <c r="F131" s="58">
-        <v>3868</v>
+      <c r="E131" s="13">
+        <v>0</v>
+      </c>
+      <c r="F131" s="13">
+        <v>3845</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
-        <v>3868</v>
-      </c>
-      <c r="H131" s="59">
-        <v>0</v>
-      </c>
-      <c r="I131" s="59">
+        <v>3845</v>
+      </c>
+      <c r="H131" s="13">
+        <v>0</v>
+      </c>
+      <c r="I131" s="13">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -5946,31 +5945,31 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="57">
-        <v>0</v>
-      </c>
-      <c r="C132" s="57">
+      <c r="A132" s="10"/>
+      <c r="B132" s="13">
+        <v>0</v>
+      </c>
+      <c r="C132" s="13">
         <v>0</v>
       </c>
       <c r="D132" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E132" s="58">
-        <v>0</v>
-      </c>
-      <c r="F132" s="58">
+      <c r="E132" s="13">
+        <v>0</v>
+      </c>
+      <c r="F132" s="13">
         <v>0</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H132" s="59">
-        <v>0</v>
-      </c>
-      <c r="I132" s="59">
+      <c r="H132" s="13">
+        <v>0</v>
+      </c>
+      <c r="I132" s="13">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -5979,33 +5978,33 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B133" s="57">
-        <v>0</v>
-      </c>
-      <c r="C133" s="57">
+      <c r="A133" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B133" s="13">
+        <v>0</v>
+      </c>
+      <c r="C133" s="13">
         <v>0</v>
       </c>
       <c r="D133" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="58">
-        <v>20715</v>
-      </c>
-      <c r="F133" s="58">
+      <c r="E133" s="13">
+        <v>9378</v>
+      </c>
+      <c r="F133" s="13">
         <v>0</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="7"/>
-        <v>-20715</v>
-      </c>
-      <c r="H133" s="59">
-        <v>0</v>
-      </c>
-      <c r="I133" s="59">
+        <v>-9378</v>
+      </c>
+      <c r="H133" s="13">
+        <v>0</v>
+      </c>
+      <c r="I133" s="13">
         <v>0</v>
       </c>
       <c r="J133" s="6">
@@ -6014,33 +6013,33 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134" s="57">
-        <v>0</v>
-      </c>
-      <c r="C134" s="57">
-        <v>0</v>
+      <c r="A134" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="13">
+        <v>0</v>
+      </c>
+      <c r="C134" s="13">
+        <v>55000</v>
       </c>
       <c r="D134" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="58">
-        <v>670</v>
-      </c>
-      <c r="F134" s="58">
-        <v>0</v>
+        <v>55000</v>
+      </c>
+      <c r="E134" s="13">
+        <v>20670</v>
+      </c>
+      <c r="F134" s="13">
+        <v>3900</v>
       </c>
       <c r="G134" s="6">
         <f t="shared" si="7"/>
-        <v>-670</v>
-      </c>
-      <c r="H134" s="59">
-        <v>0</v>
-      </c>
-      <c r="I134" s="59">
+        <v>-16770</v>
+      </c>
+      <c r="H134" s="13">
+        <v>0</v>
+      </c>
+      <c r="I134" s="13">
         <v>0</v>
       </c>
       <c r="J134" s="6">
@@ -6049,7 +6048,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
+      <c r="A135" s="10"/>
       <c r="B135" s="31"/>
       <c r="C135" s="31"/>
       <c r="D135" s="6">
@@ -6442,8 +6441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6481,35 +6480,35 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>139</v>
+      <c r="A4" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="B4" s="15">
         <v>-13670</v>
       </c>
       <c r="C4" s="15">
-        <v>196450</v>
+        <v>296306</v>
       </c>
       <c r="D4" s="15">
-        <v>-5725</v>
+        <v>-39195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="15">
-        <v>-350</v>
+        <v>-2150</v>
       </c>
       <c r="C5" s="15">
-        <v>-3000</v>
+        <v>-500</v>
       </c>
       <c r="D5" s="15">
         <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="15">
@@ -6523,35 +6522,35 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="15">
-        <v>2727</v>
+        <v>1230</v>
       </c>
       <c r="C7" s="15">
-        <v>8248</v>
+        <v>3405</v>
       </c>
       <c r="D7" s="15">
-        <v>540</v>
+        <v>-3310</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>288</v>
+        <v>-1445</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15">
@@ -6565,7 +6564,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="15">
@@ -6579,7 +6578,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="15">
@@ -6593,21 +6592,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>1521</v>
+        <v>0</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="15">
@@ -6621,21 +6620,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="15">
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <v>-1961</v>
+        <v>-1890</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15">
@@ -6649,7 +6648,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="15">
@@ -6663,7 +6662,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="15">
@@ -6677,7 +6676,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="39" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="15">
@@ -6691,11 +6690,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="15">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
@@ -6705,7 +6704,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="15">
@@ -6719,21 +6718,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="15">
         <v>0</v>
       </c>
       <c r="C21" s="15">
-        <v>-16225</v>
+        <v>-10858</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="15">
@@ -6747,7 +6746,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="15">
@@ -6761,7 +6760,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="15">
@@ -6775,7 +6774,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="15">
@@ -6789,7 +6788,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="15">
@@ -6803,21 +6802,21 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="15">
         <v>0</v>
       </c>
       <c r="C27" s="15">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="D27" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="15">
@@ -6831,7 +6830,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="15">
@@ -6845,7 +6844,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="15">
@@ -6859,21 +6858,21 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="15">
         <v>0</v>
       </c>
       <c r="C31" s="15">
-        <v>-4836</v>
+        <v>-11836</v>
       </c>
       <c r="D31" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="15">
@@ -6887,7 +6886,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="15">
@@ -6901,7 +6900,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="15">
@@ -6915,21 +6914,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="15">
-        <v>6138</v>
+        <v>7033</v>
       </c>
       <c r="C35" s="15">
-        <v>-4924</v>
+        <v>-5848</v>
       </c>
       <c r="D35" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="38" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="15">
@@ -6943,7 +6942,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="15">
@@ -6957,8 +6956,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
-        <v>133</v>
+      <c r="A38" s="45" t="s">
+        <v>129</v>
       </c>
       <c r="B38" s="15">
         <v>0</v>
@@ -6971,7 +6970,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="15">
@@ -6985,7 +6984,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="46" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="15">
@@ -6999,21 +6998,21 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
       </c>
       <c r="C41" s="15">
-        <v>-1098</v>
+        <v>0</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="15">
@@ -7027,7 +7026,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="15">
@@ -7041,11 +7040,11 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="15">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -7055,7 +7054,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="49" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="15">
@@ -7069,7 +7068,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="15">
@@ -7083,21 +7082,21 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>131</v>
+      <c r="A47" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B47" s="15">
         <v>0</v>
       </c>
       <c r="C47" s="15">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D47" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="45" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="15">
@@ -7111,7 +7110,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="15">
@@ -7125,7 +7124,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="15">
@@ -7139,7 +7138,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="15">
@@ -7153,21 +7152,21 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
       </c>
       <c r="C52" s="15">
-        <v>-921</v>
+        <v>0</v>
       </c>
       <c r="D52" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="15">
@@ -7195,22 +7194,22 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-37472</v>
+        <v>-88257</v>
       </c>
       <c r="D55" s="15">
-        <v>12286</v>
+        <v>51585</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>132</v>
+      <c r="A56" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B56" s="15">
         <v>0</v>
@@ -7223,7 +7222,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="15">
@@ -7237,11 +7236,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B58" s="15">
-        <v>-64</v>
+        <v>-480</v>
       </c>
       <c r="C58" s="15">
         <v>0</v>
@@ -7251,7 +7250,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="15">
@@ -7265,11 +7264,11 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
-        <v>64</v>
+      <c r="A60" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="B60" s="15">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="C60" s="15">
         <v>-2522</v>
@@ -7279,22 +7278,22 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="15">
+        <v>0</v>
+      </c>
+      <c r="C61" s="15">
+        <v>-14148</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="B61" s="15">
-        <v>0</v>
-      </c>
-      <c r="C61" s="15">
-        <v>-17063</v>
-      </c>
-      <c r="D61" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
-        <v>66</v>
       </c>
       <c r="B62" s="15">
         <v>0</v>
@@ -7307,11 +7306,11 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
-        <v>67</v>
+      <c r="A63" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B63" s="15">
-        <v>80</v>
+        <v>839</v>
       </c>
       <c r="C63" s="15">
         <v>10</v>
@@ -7321,8 +7320,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>68</v>
+      <c r="A64" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B64" s="15">
         <v>-389</v>
@@ -7335,22 +7334,22 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="15">
+        <v>0</v>
+      </c>
+      <c r="C65" s="15">
+        <v>0</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="B65" s="15">
-        <v>0</v>
-      </c>
-      <c r="C65" s="15">
-        <v>-250</v>
-      </c>
-      <c r="D65" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
-        <v>70</v>
       </c>
       <c r="B66" s="15">
         <v>0</v>
@@ -7363,8 +7362,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
-        <v>71</v>
+      <c r="A67" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B67" s="15">
         <v>450</v>
@@ -7377,36 +7376,36 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="15">
+        <v>20</v>
+      </c>
+      <c r="C68" s="15">
+        <v>1062</v>
+      </c>
+      <c r="D68" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="15">
-        <v>220</v>
-      </c>
-      <c r="C68" s="15">
-        <v>1053</v>
-      </c>
-      <c r="D68" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
+      <c r="B69" s="15">
+        <v>0</v>
+      </c>
+      <c r="C69" s="15">
+        <v>0</v>
+      </c>
+      <c r="D69" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="51" t="s">
         <v>73</v>
-      </c>
-      <c r="B69" s="15">
-        <v>0</v>
-      </c>
-      <c r="C69" s="15">
-        <v>0</v>
-      </c>
-      <c r="D69" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
-        <v>74</v>
       </c>
       <c r="B70" s="15">
         <v>0</v>
@@ -7419,8 +7418,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
-        <v>135</v>
+      <c r="A71" s="51" t="s">
+        <v>130</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
@@ -7433,8 +7432,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
-        <v>75</v>
+      <c r="A72" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B72" s="15">
         <v>0</v>
@@ -7447,7 +7446,9 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
+      <c r="A73" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="B73" s="15">
         <v>0</v>
       </c>
@@ -7459,22 +7460,22 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="15">
+        <v>550</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0</v>
+      </c>
+      <c r="D74" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="B74" s="15">
-        <v>600</v>
-      </c>
-      <c r="C74" s="15">
-        <v>0</v>
-      </c>
-      <c r="D74" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
-        <v>77</v>
       </c>
       <c r="B75" s="15">
         <v>0</v>
@@ -7487,8 +7488,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
-        <v>136</v>
+      <c r="A76" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B76" s="15">
         <v>0</v>
@@ -7501,8 +7502,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="37" t="s">
-        <v>78</v>
+      <c r="A77" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B77" s="15">
         <v>-200</v>
@@ -7515,22 +7516,22 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="15">
+        <v>0</v>
+      </c>
+      <c r="C78" s="15">
+        <v>-4248</v>
+      </c>
+      <c r="D78" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B78" s="15">
-        <v>0</v>
-      </c>
-      <c r="C78" s="15">
-        <v>-12439</v>
-      </c>
-      <c r="D78" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
-        <v>80</v>
       </c>
       <c r="B79" s="15">
         <v>0</v>
@@ -7543,36 +7544,36 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="15">
+        <v>0</v>
+      </c>
+      <c r="C80" s="15">
+        <v>-2040</v>
+      </c>
+      <c r="D80" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="B80" s="15">
-        <v>0</v>
-      </c>
-      <c r="C80" s="15">
-        <v>-1010</v>
-      </c>
-      <c r="D80" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
-        <v>82</v>
       </c>
       <c r="B81" s="15">
         <v>-150</v>
       </c>
       <c r="C81" s="15">
-        <v>2000</v>
+        <v>-4513</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="37" t="s">
-        <v>83</v>
+      <c r="A82" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B82" s="15">
         <v>1620</v>
@@ -7585,8 +7586,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="54" t="s">
-        <v>84</v>
+      <c r="A83" s="52" t="s">
+        <v>83</v>
       </c>
       <c r="B83" s="15">
         <v>0</v>
@@ -7599,48 +7600,50 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="15">
+        <v>0</v>
+      </c>
+      <c r="C84" s="15">
+        <v>2804</v>
+      </c>
+      <c r="D84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="15">
+        <v>0</v>
+      </c>
+      <c r="C85" s="15">
+        <v>0</v>
+      </c>
+      <c r="D85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="15">
+        <v>0</v>
+      </c>
+      <c r="C86" s="15">
+        <v>-322</v>
+      </c>
+      <c r="D86" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B84" s="15">
-        <v>-110</v>
-      </c>
-      <c r="C84" s="15">
-        <v>2512</v>
-      </c>
-      <c r="D84" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="15">
-        <v>0</v>
-      </c>
-      <c r="C85" s="15">
-        <v>0</v>
-      </c>
-      <c r="D85" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B86" s="15">
-        <v>0</v>
-      </c>
-      <c r="C86" s="15">
-        <v>-252</v>
-      </c>
-      <c r="D86" s="15">
-        <v>-53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
-        <v>87</v>
       </c>
       <c r="B87" s="15">
         <v>-95</v>
@@ -7653,8 +7656,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
-        <v>88</v>
+      <c r="A88" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="B88" s="15">
         <v>0</v>
@@ -7667,8 +7670,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="37" t="s">
-        <v>89</v>
+      <c r="A89" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
@@ -7681,8 +7684,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
-        <v>90</v>
+      <c r="A90" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B90" s="15">
         <v>900</v>
@@ -7695,20 +7698,22 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
+      <c r="A91" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="B91" s="15">
         <v>0</v>
       </c>
       <c r="C91" s="15">
-        <v>0</v>
+        <v>-323</v>
       </c>
       <c r="D91" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
-        <v>91</v>
+      <c r="A92" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B92" s="15">
         <v>0</v>
@@ -7721,7 +7726,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="15">
         <v>0</v>
       </c>
@@ -7733,9 +7738,11 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+      <c r="A94" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="B94" s="15">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="C94" s="15">
         <v>0</v>
@@ -7745,11 +7752,11 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
-        <v>92</v>
+      <c r="A95" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="B95" s="15">
-        <v>2850</v>
+        <v>2700</v>
       </c>
       <c r="C95" s="15">
         <v>0</v>
@@ -7759,8 +7766,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
-        <v>93</v>
+      <c r="A96" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B96" s="15">
         <v>-7</v>
@@ -7773,8 +7780,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
-        <v>94</v>
+      <c r="A97" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B97" s="15">
         <v>0</v>
@@ -7787,48 +7794,50 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="15">
+        <v>0</v>
+      </c>
+      <c r="C98" s="15">
+        <v>-11404</v>
+      </c>
+      <c r="D98" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="15">
+        <v>0</v>
+      </c>
+      <c r="C99" s="15">
+        <v>-650</v>
+      </c>
+      <c r="D99" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="15">
+        <v>0</v>
+      </c>
+      <c r="C100" s="15">
+        <v>600</v>
+      </c>
+      <c r="D100" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B98" s="15">
-        <v>0</v>
-      </c>
-      <c r="C98" s="15">
-        <v>-3411</v>
-      </c>
-      <c r="D98" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="15">
-        <v>0</v>
-      </c>
-      <c r="C99" s="15">
-        <v>-500</v>
-      </c>
-      <c r="D99" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="15">
-        <v>0</v>
-      </c>
-      <c r="C100" s="15">
-        <v>0</v>
-      </c>
-      <c r="D100" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
-        <v>97</v>
       </c>
       <c r="B101" s="15">
         <v>0</v>
@@ -7841,48 +7850,50 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="15">
+        <v>0</v>
+      </c>
+      <c r="C102" s="15">
+        <v>0</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="15">
+        <v>0</v>
+      </c>
+      <c r="C103" s="15">
+        <v>0</v>
+      </c>
+      <c r="D103" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="15">
+        <v>0</v>
+      </c>
+      <c r="C104" s="15">
+        <v>10200</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="B102" s="15">
-        <v>0</v>
-      </c>
-      <c r="C102" s="15">
-        <v>0</v>
-      </c>
-      <c r="D102" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="15">
-        <v>0</v>
-      </c>
-      <c r="C103" s="15">
-        <v>-1500</v>
-      </c>
-      <c r="D103" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
-      <c r="B104" s="15">
-        <v>0</v>
-      </c>
-      <c r="C104" s="15">
-        <v>0</v>
-      </c>
-      <c r="D104" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
-        <v>100</v>
       </c>
       <c r="B105" s="15">
         <v>-50</v>
@@ -7895,36 +7906,36 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="15">
+        <v>0</v>
+      </c>
+      <c r="C106" s="15">
+        <v>-34259</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="15">
+        <v>0</v>
+      </c>
+      <c r="C107" s="15">
+        <v>32254</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B106" s="15">
-        <v>0</v>
-      </c>
-      <c r="C106" s="15">
-        <v>55396</v>
-      </c>
-      <c r="D106" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="15">
-        <v>0</v>
-      </c>
-      <c r="C107" s="15">
-        <v>13253</v>
-      </c>
-      <c r="D107" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="B108" s="15">
         <v>245</v>
@@ -7937,7 +7948,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="15">
         <v>0</v>
       </c>
@@ -7949,7 +7960,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="15">
         <v>0</v>
       </c>
@@ -7961,7 +7972,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="15">
         <v>0</v>
       </c>
@@ -7973,8 +7984,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
-        <v>104</v>
+      <c r="A112" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B112" s="15">
         <v>0</v>
@@ -7987,11 +7998,11 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="37" t="s">
-        <v>105</v>
+      <c r="A113" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B113" s="15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C113" s="15">
         <v>0</v>
@@ -8001,8 +8012,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="37" t="s">
-        <v>106</v>
+      <c r="A114" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="B114" s="15">
         <v>451</v>
@@ -8015,78 +8026,76 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="10"/>
+      <c r="B115" s="15">
+        <v>0</v>
+      </c>
+      <c r="C115" s="15">
+        <v>0</v>
+      </c>
+      <c r="D115" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="15">
+        <v>0</v>
+      </c>
+      <c r="C116" s="15">
+        <v>-28918</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="15">
+        <v>-1800</v>
+      </c>
+      <c r="C117" s="15">
+        <v>0</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="15">
-        <v>73</v>
-      </c>
-      <c r="C115" s="15">
-        <v>0</v>
-      </c>
-      <c r="D115" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
+      <c r="B118" s="15">
+        <v>5802</v>
+      </c>
+      <c r="C118" s="15">
+        <v>0</v>
+      </c>
+      <c r="D118" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B116" s="15">
-        <v>0</v>
-      </c>
-      <c r="C116" s="15">
-        <v>-16293</v>
-      </c>
-      <c r="D116" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="37" t="s">
+      <c r="B119" s="15">
+        <v>0</v>
+      </c>
+      <c r="C119" s="15">
+        <v>-339</v>
+      </c>
+      <c r="D119" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B117" s="15">
-        <v>-800</v>
-      </c>
-      <c r="C117" s="15">
-        <v>0</v>
-      </c>
-      <c r="D117" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B118" s="15">
-        <v>3102</v>
-      </c>
-      <c r="C118" s="15">
-        <v>0</v>
-      </c>
-      <c r="D118" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B119" s="15">
-        <v>0</v>
-      </c>
-      <c r="C119" s="15">
-        <v>330</v>
-      </c>
-      <c r="D119" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="37" t="s">
-        <v>112</v>
       </c>
       <c r="B120" s="15">
         <v>23800</v>
@@ -8099,36 +8108,36 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
-        <v>113</v>
+      <c r="A121" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B121" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C121" s="15">
-        <v>-831</v>
+        <v>-2750</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="37" t="s">
-        <v>114</v>
+      <c r="A122" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B122" s="15">
         <v>0</v>
       </c>
       <c r="C122" s="15">
-        <v>-186</v>
+        <v>0</v>
       </c>
       <c r="D122" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="37" t="s">
-        <v>115</v>
+      <c r="A123" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B123" s="15">
         <v>0</v>
@@ -8141,8 +8150,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="37" t="s">
-        <v>116</v>
+      <c r="A124" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B124" s="15">
         <v>0</v>
@@ -8155,8 +8164,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="37" t="s">
-        <v>137</v>
+      <c r="A125" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B125" s="15">
         <v>0</v>
@@ -8169,8 +8178,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="37" t="s">
-        <v>138</v>
+      <c r="A126" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B126" s="15">
         <v>0</v>
@@ -8183,8 +8192,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
-        <v>117</v>
+      <c r="A127" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B127" s="15">
         <v>-320</v>
@@ -8197,22 +8206,22 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="37" t="s">
-        <v>118</v>
+      <c r="A128" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B128" s="15">
         <v>-30</v>
       </c>
       <c r="C128" s="15">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="D128" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="37" t="s">
-        <v>119</v>
+      <c r="A129" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B129" s="15">
         <v>0</v>
@@ -8225,8 +8234,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="37" t="s">
-        <v>120</v>
+      <c r="A130" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B130" s="15">
         <v>-300</v>
@@ -8239,22 +8248,20 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="37" t="s">
-        <v>121</v>
-      </c>
+      <c r="A131" s="10"/>
       <c r="B131" s="15">
         <v>0</v>
       </c>
       <c r="C131" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D131" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="37" t="s">
-        <v>122</v>
+      <c r="A132" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B132" s="15">
         <v>-270</v>
@@ -8267,21 +8274,21 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="37" t="s">
-        <v>123</v>
+      <c r="A133" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B133" s="15">
         <v>0</v>
       </c>
       <c r="C133" s="15">
-        <v>3868</v>
+        <v>3845</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
+      <c r="A134" s="10"/>
       <c r="B134" s="15">
         <v>0</v>
       </c>
@@ -8293,35 +8300,35 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="37" t="s">
-        <v>124</v>
+      <c r="A135" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B135" s="15">
         <v>0</v>
       </c>
       <c r="C135" s="15">
-        <v>-20715</v>
+        <v>-9378</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="37" t="s">
-        <v>125</v>
+      <c r="A136" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B136" s="15">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="C136" s="15">
-        <v>-670</v>
+        <v>-16770</v>
       </c>
       <c r="D136" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
+      <c r="A137" s="10"/>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="33"/>
@@ -8376,15 +8383,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>25388</v>
+        <v>79226</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>44341</v>
+        <v>1430</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>3224</v>
+        <v>5256</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8414,7 +8421,7 @@
     </row>
     <row r="159" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C159" s="26"/>
       <c r="D159" s="23" t="s">
@@ -8426,52 +8433,40 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B160" s="15">
-        <v>36727</v>
+        <v>25964</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E160" s="15">
-        <v>3.6</v>
-      </c>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B161" s="15">
-        <v>-9826</v>
+        <v>1274</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E161" s="15">
-        <v>0.71</v>
-      </c>
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B162" s="15">
-        <v>-215</v>
+        <v>-1867</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">
         <v>10</v>
-      </c>
-      <c r="E162" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="F162" s="15">
-        <v>24</v>
       </c>
       <c r="G162" s="15"/>
     </row>
@@ -8481,12 +8476,6 @@
       <c r="D163" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="15">
-        <v>0.185</v>
-      </c>
-      <c r="F163" s="15">
-        <v>3.83783783783</v>
-      </c>
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8495,14 +8484,11 @@
       <c r="D164" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E164" s="15">
-        <v>1.0549999999999999</v>
-      </c>
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B165" s="15">
         <v>375</v>

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D92C570-5236-4C44-9B01-E24794CAFFDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7ED7E1-916A-4643-986C-375862372DD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
   <si>
     <t>سامر شراب</t>
   </si>
@@ -498,16 +498,19 @@
     <t>خدمات العماره سفن ستار</t>
   </si>
   <si>
-    <t>هبه الشوا</t>
-  </si>
-  <si>
     <t>رائد صيام وهنام المغني 10000 و200 دولار</t>
   </si>
   <si>
-    <t>صندوق 1 كاظم صندوق واحد كـــــــــــــاظـــــــــــــــم</t>
-  </si>
-  <si>
-    <t>طيبه للسياحة</t>
+    <t>طيبه</t>
+  </si>
+  <si>
+    <t>احمد خليل</t>
+  </si>
+  <si>
+    <t>ابويوسف اللوح</t>
+  </si>
+  <si>
+    <t>صندوق 1 صندوق واحد كــــــاظـــــــم</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,55 +980,133 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A128" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J134" sqref="J2:J134"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,33 +1488,33 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="57">
         <v>13670</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="57">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
         <v>-13670</v>
       </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>296306</v>
+      <c r="E2" s="58">
+        <v>0</v>
+      </c>
+      <c r="F2" s="58">
+        <v>287806</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
-        <v>296306</v>
-      </c>
-      <c r="H2" s="13">
+        <v>287806</v>
+      </c>
+      <c r="H2" s="60">
         <v>39195</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="60">
         <v>0</v>
       </c>
       <c r="J2" s="6">
@@ -1442,33 +1523,33 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="57">
         <v>2150</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="57">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
         <v>-2150</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="58">
         <v>500</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="58">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
         <v>-500</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="60">
         <v>40</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="60">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1477,33 +1558,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="57">
+        <v>0</v>
+      </c>
+      <c r="C4" s="57">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="58">
+        <v>0</v>
+      </c>
+      <c r="F4" s="58">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="H4" s="60">
+        <v>0</v>
+      </c>
+      <c r="I4" s="60">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1512,68 +1593,68 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="57">
+        <v>0</v>
+      </c>
+      <c r="C5" s="57">
         <v>1230</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="58">
+        <v>0</v>
+      </c>
+      <c r="F5" s="58">
         <v>3405</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>3405</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="60">
         <v>4000</v>
       </c>
-      <c r="I5" s="13">
-        <v>690</v>
+      <c r="I5" s="60">
+        <v>830</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>-3310</v>
+        <v>-3170</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="57">
+        <v>0</v>
+      </c>
+      <c r="C6" s="57">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="58">
         <v>1445</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="58">
         <v>0</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>-1445</v>
       </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
+      <c r="H6" s="60">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1582,33 +1663,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="57">
+        <v>0</v>
+      </c>
+      <c r="C7" s="57">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="58">
         <v>1000</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="58">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="60">
+        <v>0</v>
+      </c>
+      <c r="I7" s="60">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1617,33 +1698,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="57">
+        <v>0</v>
+      </c>
+      <c r="C8" s="57">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="58">
+        <v>0</v>
+      </c>
+      <c r="F8" s="58">
         <v>547</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>547</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="60">
+        <v>0</v>
+      </c>
+      <c r="I8" s="60">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1652,33 +1733,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="57">
+        <v>0</v>
+      </c>
+      <c r="C9" s="57">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="58">
         <v>33</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="58">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="60">
+        <v>0</v>
+      </c>
+      <c r="I9" s="60">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1687,33 +1768,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="57">
+        <v>0</v>
+      </c>
+      <c r="C10" s="57">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
+      <c r="E10" s="58">
+        <v>0</v>
+      </c>
+      <c r="F10" s="58">
+        <v>2000</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0</v>
+      </c>
+      <c r="I10" s="60">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1722,33 +1803,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="57">
+        <v>0</v>
+      </c>
+      <c r="C11" s="57">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="58">
+        <v>0</v>
+      </c>
+      <c r="F11" s="58">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="H11" s="60">
+        <v>0</v>
+      </c>
+      <c r="I11" s="60">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1757,33 +1838,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="57">
+        <v>0</v>
+      </c>
+      <c r="C12" s="57">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="58">
         <v>1890</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="58">
         <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>-1890</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="H12" s="60">
+        <v>0</v>
+      </c>
+      <c r="I12" s="60">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1792,33 +1873,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="57">
+        <v>0</v>
+      </c>
+      <c r="C13" s="57">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="58">
+        <v>0</v>
+      </c>
+      <c r="F13" s="58">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="H13" s="60">
+        <v>0</v>
+      </c>
+      <c r="I13" s="60">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1827,33 +1908,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="57">
+        <v>0</v>
+      </c>
+      <c r="C14" s="57">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="58">
         <v>300</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="58">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="H14" s="60">
+        <v>0</v>
+      </c>
+      <c r="I14" s="60">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1862,33 +1943,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="57">
         <v>1070</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="57">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="58">
+        <v>0</v>
+      </c>
+      <c r="F15" s="58">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="H15" s="60">
+        <v>0</v>
+      </c>
+      <c r="I15" s="60">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1897,33 +1978,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="57">
         <v>40</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="57">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="58">
         <v>115</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="58">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="H16" s="60">
+        <v>0</v>
+      </c>
+      <c r="I16" s="60">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -1932,33 +2013,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="57">
         <v>1900</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="57">
         <v>300</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>-1600</v>
       </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17" s="58">
+        <v>0</v>
+      </c>
+      <c r="F17" s="58">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="H17" s="60">
+        <v>0</v>
+      </c>
+      <c r="I17" s="60">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -1967,33 +2048,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="57">
+        <v>0</v>
+      </c>
+      <c r="C18" s="57">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="58">
         <v>10650</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="58">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="H18" s="60">
+        <v>0</v>
+      </c>
+      <c r="I18" s="60">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -2002,33 +2083,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="57">
+        <v>0</v>
+      </c>
+      <c r="C19" s="57">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="58">
         <v>18500</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="58">
         <v>7642</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>-10858</v>
       </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
+      <c r="H19" s="60">
+        <v>0</v>
+      </c>
+      <c r="I19" s="60">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2037,33 +2118,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="57">
         <v>160</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="57">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
+      <c r="E20" s="58">
+        <v>0</v>
+      </c>
+      <c r="F20" s="58">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13">
+      <c r="H20" s="60">
+        <v>0</v>
+      </c>
+      <c r="I20" s="60">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2072,33 +2153,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="57">
+        <v>0</v>
+      </c>
+      <c r="C21" s="57">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="58">
         <v>156</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="58">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="H21" s="60">
+        <v>0</v>
+      </c>
+      <c r="I21" s="60">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2107,33 +2188,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="57">
+        <v>0</v>
+      </c>
+      <c r="C22" s="57">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E22" s="58">
+        <v>0</v>
+      </c>
+      <c r="F22" s="58">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="H22" s="60">
+        <v>0</v>
+      </c>
+      <c r="I22" s="60">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2142,33 +2223,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="57">
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="E23" s="58">
+        <v>0</v>
+      </c>
+      <c r="F23" s="58">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="60">
         <v>3000</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="60">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2177,33 +2258,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24" s="57">
+        <v>0</v>
+      </c>
+      <c r="C24" s="57">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="58">
+        <v>0</v>
+      </c>
+      <c r="F24" s="58">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="H24" s="60">
+        <v>0</v>
+      </c>
+      <c r="I24" s="60">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2212,33 +2293,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="57">
+        <v>0</v>
+      </c>
+      <c r="C25" s="57">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>230</v>
+      <c r="E25" s="58">
+        <v>0</v>
+      </c>
+      <c r="F25" s="58">
+        <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="60">
+        <v>0</v>
+      </c>
+      <c r="I25" s="60">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2247,33 +2328,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26" s="57">
+        <v>0</v>
+      </c>
+      <c r="C26" s="57">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="58">
         <v>656</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="58">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="H26" s="60">
+        <v>0</v>
+      </c>
+      <c r="I26" s="60">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2282,33 +2363,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B27" s="57">
+        <v>0</v>
+      </c>
+      <c r="C27" s="57">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="58">
         <v>1596</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="58">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="H27" s="60">
+        <v>0</v>
+      </c>
+      <c r="I27" s="60">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2317,33 +2398,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="A28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="57">
+        <v>0</v>
+      </c>
+      <c r="C28" s="57">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="58">
         <v>3800</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="58">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>-3800</v>
       </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
+      <c r="H28" s="60">
+        <v>0</v>
+      </c>
+      <c r="I28" s="60">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2352,33 +2433,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="B29" s="57">
+        <v>0</v>
+      </c>
+      <c r="C29" s="57">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="58">
         <v>15836</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="58">
         <v>4000</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>-11836</v>
       </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="H29" s="60">
+        <v>0</v>
+      </c>
+      <c r="I29" s="60">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2387,33 +2468,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="57">
         <v>610</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="57">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="E30" s="58">
+        <v>0</v>
+      </c>
+      <c r="F30" s="58">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
+      <c r="H30" s="60">
+        <v>0</v>
+      </c>
+      <c r="I30" s="60">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2422,33 +2503,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31" s="57">
+        <v>0</v>
+      </c>
+      <c r="C31" s="57">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="58">
         <v>300</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="58">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="H31" s="60">
+        <v>0</v>
+      </c>
+      <c r="I31" s="60">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2457,33 +2538,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="57">
         <v>5600</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="57">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
+      <c r="E32" s="58">
+        <v>0</v>
+      </c>
+      <c r="F32" s="58">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13">
+      <c r="H32" s="60">
+        <v>0</v>
+      </c>
+      <c r="I32" s="60">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2492,33 +2573,33 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="13">
-        <v>0</v>
-      </c>
-      <c r="C33" s="13">
+      <c r="B33" s="57">
+        <v>0</v>
+      </c>
+      <c r="C33" s="57">
         <v>7033</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>7033</v>
       </c>
-      <c r="E33" s="13">
-        <v>5848</v>
-      </c>
-      <c r="F33" s="13">
+      <c r="E33" s="58">
+        <v>6259</v>
+      </c>
+      <c r="F33" s="58">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>-5848</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
-      </c>
-      <c r="I33" s="13">
+        <v>-6259</v>
+      </c>
+      <c r="H33" s="60">
+        <v>0</v>
+      </c>
+      <c r="I33" s="60">
         <v>100</v>
       </c>
       <c r="J33" s="6">
@@ -2527,33 +2608,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="57">
         <v>15</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="57">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="58">
         <v>5600</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="58">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="I34" s="13">
+      <c r="H34" s="60">
+        <v>0</v>
+      </c>
+      <c r="I34" s="60">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2562,33 +2643,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="13">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="B35" s="57">
+        <v>0</v>
+      </c>
+      <c r="C35" s="57">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="58">
         <v>10</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="58">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="13">
+      <c r="H35" s="60">
+        <v>0</v>
+      </c>
+      <c r="I35" s="60">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2597,33 +2678,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="13">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="B36" s="57">
+        <v>0</v>
+      </c>
+      <c r="C36" s="57">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="13">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
+      <c r="E36" s="58">
+        <v>0</v>
+      </c>
+      <c r="F36" s="58">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="H36" s="60">
+        <v>0</v>
+      </c>
+      <c r="I36" s="60">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2632,33 +2713,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="13">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="B37" s="57">
+        <v>0</v>
+      </c>
+      <c r="C37" s="57">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="E37" s="58">
+        <v>0</v>
+      </c>
+      <c r="F37" s="58">
         <v>0</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="13">
+      <c r="H37" s="60">
+        <v>0</v>
+      </c>
+      <c r="I37" s="60">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2667,33 +2748,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="57">
         <v>20</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="57">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
+      <c r="E38" s="58">
+        <v>0</v>
+      </c>
+      <c r="F38" s="58">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
+      <c r="H38" s="60">
+        <v>0</v>
+      </c>
+      <c r="I38" s="60">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2702,33 +2783,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="13">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="B39" s="57">
+        <v>0</v>
+      </c>
+      <c r="C39" s="57">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="13">
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="E39" s="58">
+        <v>0</v>
+      </c>
+      <c r="F39" s="58">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="13">
+      <c r="H39" s="60">
+        <v>0</v>
+      </c>
+      <c r="I39" s="60">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2737,33 +2818,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="13">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B40" s="57">
+        <v>0</v>
+      </c>
+      <c r="C40" s="57">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="13">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
+      <c r="E40" s="58">
+        <v>0</v>
+      </c>
+      <c r="F40" s="58">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13">
+      <c r="H40" s="60">
+        <v>0</v>
+      </c>
+      <c r="I40" s="60">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2772,33 +2853,33 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="13">
-        <v>0</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41" s="57">
+        <v>0</v>
+      </c>
+      <c r="C41" s="57">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="58">
         <v>239</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="58">
         <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
         <v>-239</v>
       </c>
-      <c r="H41" s="13">
-        <v>0</v>
-      </c>
-      <c r="I41" s="13">
+      <c r="H41" s="60">
+        <v>0</v>
+      </c>
+      <c r="I41" s="60">
         <v>0</v>
       </c>
       <c r="J41" s="6">
@@ -2807,33 +2888,33 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="57">
         <v>500</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="57">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
         <v>-500</v>
       </c>
-      <c r="E42" s="13">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="E42" s="58">
+        <v>0</v>
+      </c>
+      <c r="F42" s="58">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="13">
-        <v>0</v>
-      </c>
-      <c r="I42" s="13">
+      <c r="H42" s="60">
+        <v>0</v>
+      </c>
+      <c r="I42" s="60">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2842,33 +2923,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="13">
-        <v>0</v>
-      </c>
-      <c r="C43" s="13">
+      <c r="B43" s="57">
+        <v>0</v>
+      </c>
+      <c r="C43" s="57">
         <v>2100</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
+      <c r="E43" s="58">
+        <v>0</v>
+      </c>
+      <c r="F43" s="58">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
+      <c r="H43" s="60">
+        <v>0</v>
+      </c>
+      <c r="I43" s="60">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2877,33 +2958,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
+      <c r="B44" s="57">
+        <v>0</v>
+      </c>
+      <c r="C44" s="57">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="58">
         <v>60</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="58">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="13">
-        <v>0</v>
-      </c>
-      <c r="I44" s="13">
+      <c r="H44" s="60">
+        <v>0</v>
+      </c>
+      <c r="I44" s="60">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -2912,33 +2993,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="13">
-        <v>0</v>
-      </c>
-      <c r="C45" s="13">
+      <c r="B45" s="57">
+        <v>0</v>
+      </c>
+      <c r="C45" s="57">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="13">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
+      <c r="E45" s="58">
+        <v>0</v>
+      </c>
+      <c r="F45" s="58">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13">
+      <c r="H45" s="60">
+        <v>0</v>
+      </c>
+      <c r="I45" s="60">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -2947,33 +3028,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="13">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13">
+      <c r="B46" s="57">
+        <v>0</v>
+      </c>
+      <c r="C46" s="57">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="58">
         <v>10</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="58">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
+      <c r="H46" s="60">
+        <v>0</v>
+      </c>
+      <c r="I46" s="60">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -2982,33 +3063,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="13">
-        <v>0</v>
-      </c>
-      <c r="C47" s="13">
+      <c r="B47" s="57">
+        <v>0</v>
+      </c>
+      <c r="C47" s="57">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="58">
         <v>250</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="58">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
+      <c r="H47" s="60">
+        <v>0</v>
+      </c>
+      <c r="I47" s="60">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -3017,33 +3098,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="13">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13">
+      <c r="B48" s="57">
+        <v>0</v>
+      </c>
+      <c r="C48" s="57">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="58">
         <v>2719</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="58">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>-2719</v>
       </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="I48" s="13">
+      <c r="H48" s="60">
+        <v>0</v>
+      </c>
+      <c r="I48" s="60">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3052,33 +3133,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="57">
         <v>74</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="57">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="13">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
+      <c r="E49" s="58">
+        <v>0</v>
+      </c>
+      <c r="F49" s="58">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-      <c r="I49" s="13">
+      <c r="H49" s="60">
+        <v>0</v>
+      </c>
+      <c r="I49" s="60">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3087,33 +3168,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="13">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13">
+      <c r="B50" s="57">
+        <v>0</v>
+      </c>
+      <c r="C50" s="57">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="13">
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E50" s="58">
+        <v>0</v>
+      </c>
+      <c r="F50" s="58">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H50" s="13">
-        <v>0</v>
-      </c>
-      <c r="I50" s="13">
+      <c r="H50" s="60">
+        <v>0</v>
+      </c>
+      <c r="I50" s="60">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3122,33 +3203,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="13">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="B51" s="57">
+        <v>0</v>
+      </c>
+      <c r="C51" s="57">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="58">
         <v>300</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="58">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="I51" s="13">
+      <c r="H51" s="60">
+        <v>0</v>
+      </c>
+      <c r="I51" s="60">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3160,30 +3241,30 @@
       <c r="A52" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="57">
         <v>250</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="57">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="13">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13">
+      <c r="E52" s="58">
+        <v>0</v>
+      </c>
+      <c r="F52" s="58">
         <v>119</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="13">
+      <c r="H52" s="60">
+        <v>0</v>
+      </c>
+      <c r="I52" s="60">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3192,68 +3273,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="13">
-        <v>0</v>
-      </c>
-      <c r="C53" s="13">
+      <c r="B53" s="57">
+        <v>0</v>
+      </c>
+      <c r="C53" s="57">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="13">
-        <v>88257</v>
-      </c>
-      <c r="F53" s="13">
+      <c r="E53" s="58">
+        <v>87997</v>
+      </c>
+      <c r="F53" s="58">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-88257</v>
-      </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-      <c r="I53" s="13">
-        <v>51585</v>
+        <v>-87997</v>
+      </c>
+      <c r="H53" s="60">
+        <v>0</v>
+      </c>
+      <c r="I53" s="60">
+        <v>50150</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>51585</v>
+        <v>50150</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="13">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13">
+      <c r="B54" s="57">
+        <v>0</v>
+      </c>
+      <c r="C54" s="57">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="13">
-        <v>0</v>
-      </c>
-      <c r="F54" s="13">
+      <c r="E54" s="58">
+        <v>0</v>
+      </c>
+      <c r="F54" s="58">
         <v>0</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="13">
-        <v>0</v>
-      </c>
-      <c r="I54" s="13">
+      <c r="H54" s="60">
+        <v>0</v>
+      </c>
+      <c r="I54" s="60">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3262,33 +3343,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="57">
         <v>14</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="57">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="13">
-        <v>0</v>
-      </c>
-      <c r="F55" s="13">
+      <c r="E55" s="58">
+        <v>0</v>
+      </c>
+      <c r="F55" s="58">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="13">
-        <v>0</v>
-      </c>
-      <c r="I55" s="13">
+      <c r="H55" s="60">
+        <v>0</v>
+      </c>
+      <c r="I55" s="60">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3297,33 +3378,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="57">
         <v>480</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="57">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
         <v>-480</v>
       </c>
-      <c r="E56" s="13">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13">
+      <c r="E56" s="58">
+        <v>0</v>
+      </c>
+      <c r="F56" s="58">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H56" s="13">
-        <v>0</v>
-      </c>
-      <c r="I56" s="13">
+      <c r="H56" s="60">
+        <v>0</v>
+      </c>
+      <c r="I56" s="60">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3332,33 +3413,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="13">
-        <v>0</v>
-      </c>
-      <c r="C57" s="13">
+      <c r="B57" s="57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="57">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="58">
         <v>10</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="58">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="13">
-        <v>0</v>
-      </c>
-      <c r="I57" s="13">
+      <c r="H57" s="60">
+        <v>0</v>
+      </c>
+      <c r="I57" s="60">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3367,33 +3448,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="57">
         <v>600</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="57">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="58">
         <v>2522</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="58">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="13">
-        <v>0</v>
-      </c>
-      <c r="I58" s="13">
+      <c r="H58" s="60">
+        <v>0</v>
+      </c>
+      <c r="I58" s="60">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3402,33 +3483,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="13">
-        <v>0</v>
-      </c>
-      <c r="C59" s="13">
+      <c r="B59" s="57">
+        <v>0</v>
+      </c>
+      <c r="C59" s="57">
         <v>0</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="13">
-        <v>14148</v>
-      </c>
-      <c r="F59" s="13">
-        <v>0</v>
+      <c r="E59" s="58">
+        <v>0</v>
+      </c>
+      <c r="F59" s="58">
+        <v>4622</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>-14148</v>
-      </c>
-      <c r="H59" s="13">
-        <v>0</v>
-      </c>
-      <c r="I59" s="13">
+        <v>4622</v>
+      </c>
+      <c r="H59" s="60">
+        <v>0</v>
+      </c>
+      <c r="I59" s="60">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3437,33 +3518,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="13">
-        <v>0</v>
-      </c>
-      <c r="C60" s="13">
+      <c r="B60" s="57">
+        <v>0</v>
+      </c>
+      <c r="C60" s="57">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="58">
         <v>265</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="58">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
         <v>-265</v>
       </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
+      <c r="H60" s="60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="60">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3472,33 +3553,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="13">
-        <v>0</v>
-      </c>
-      <c r="C61" s="13">
+      <c r="B61" s="57">
+        <v>0</v>
+      </c>
+      <c r="C61" s="57">
         <v>839</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
         <v>839</v>
       </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="E61" s="58">
+        <v>0</v>
+      </c>
+      <c r="F61" s="58">
         <v>10</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H61" s="13">
-        <v>0</v>
-      </c>
-      <c r="I61" s="13">
+      <c r="H61" s="60">
+        <v>0</v>
+      </c>
+      <c r="I61" s="60">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3507,33 +3588,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="57">
         <v>389</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="57">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="E62" s="58">
+        <v>0</v>
+      </c>
+      <c r="F62" s="58">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="13">
-        <v>0</v>
-      </c>
-      <c r="I62" s="13">
+      <c r="H62" s="60">
+        <v>0</v>
+      </c>
+      <c r="I62" s="60">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3542,33 +3623,33 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="13">
-        <v>0</v>
-      </c>
-      <c r="C63" s="13">
+      <c r="B63" s="57">
+        <v>0</v>
+      </c>
+      <c r="C63" s="57">
         <v>0</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E63" s="13">
-        <v>0</v>
-      </c>
-      <c r="F63" s="13">
+      <c r="E63" s="58">
+        <v>0</v>
+      </c>
+      <c r="F63" s="58">
         <v>0</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H63" s="13">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13">
+      <c r="H63" s="60">
+        <v>0</v>
+      </c>
+      <c r="I63" s="60">
         <v>0</v>
       </c>
       <c r="J63" s="6">
@@ -3577,33 +3658,33 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="13">
-        <v>0</v>
-      </c>
-      <c r="C64" s="13">
+      <c r="B64" s="57">
+        <v>0</v>
+      </c>
+      <c r="C64" s="57">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="58">
         <v>200</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="58">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="13">
-        <v>0</v>
-      </c>
-      <c r="I64" s="13">
+      <c r="H64" s="60">
+        <v>0</v>
+      </c>
+      <c r="I64" s="60">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3612,33 +3693,33 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="13">
-        <v>0</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="B65" s="57">
+        <v>0</v>
+      </c>
+      <c r="C65" s="57">
         <v>450</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="13">
+      <c r="E65" s="58">
+        <v>0</v>
+      </c>
+      <c r="F65" s="58">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="13">
-        <v>0</v>
-      </c>
-      <c r="I65" s="13">
+      <c r="H65" s="60">
+        <v>0</v>
+      </c>
+      <c r="I65" s="60">
         <v>0</v>
       </c>
       <c r="J65" s="6">
@@ -3647,33 +3728,33 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="13">
-        <v>0</v>
-      </c>
-      <c r="C66" s="13">
+      <c r="B66" s="57">
+        <v>0</v>
+      </c>
+      <c r="C66" s="57">
         <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13">
+      <c r="E66" s="58">
+        <v>0</v>
+      </c>
+      <c r="F66" s="58">
         <v>1062</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
         <v>1062</v>
       </c>
-      <c r="H66" s="13">
-        <v>0</v>
-      </c>
-      <c r="I66" s="13">
+      <c r="H66" s="60">
+        <v>0</v>
+      </c>
+      <c r="I66" s="60">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3682,33 +3763,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="13">
-        <v>0</v>
-      </c>
-      <c r="C67" s="13">
+      <c r="B67" s="57">
+        <v>0</v>
+      </c>
+      <c r="C67" s="57">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="13">
-        <v>0</v>
-      </c>
-      <c r="F67" s="13">
+      <c r="E67" s="58">
+        <v>0</v>
+      </c>
+      <c r="F67" s="58">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
         <v>0</v>
       </c>
-      <c r="H67" s="13">
-        <v>0</v>
-      </c>
-      <c r="I67" s="13">
+      <c r="H67" s="60">
+        <v>0</v>
+      </c>
+      <c r="I67" s="60">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3717,33 +3798,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="13">
-        <v>0</v>
-      </c>
-      <c r="C68" s="13">
+      <c r="B68" s="57">
+        <v>0</v>
+      </c>
+      <c r="C68" s="57">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="58">
         <v>16</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="58">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="13">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13">
+      <c r="H68" s="60">
+        <v>0</v>
+      </c>
+      <c r="I68" s="60">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3752,33 +3833,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="13">
-        <v>0</v>
-      </c>
-      <c r="C69" s="13">
+      <c r="B69" s="57">
+        <v>0</v>
+      </c>
+      <c r="C69" s="57">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="13">
-        <v>0</v>
-      </c>
-      <c r="F69" s="13">
+      <c r="E69" s="58">
+        <v>0</v>
+      </c>
+      <c r="F69" s="58">
         <v>0</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H69" s="13">
-        <v>0</v>
-      </c>
-      <c r="I69" s="13">
+      <c r="H69" s="60">
+        <v>0</v>
+      </c>
+      <c r="I69" s="60">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3787,33 +3868,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="13">
-        <v>0</v>
-      </c>
-      <c r="C70" s="13">
+      <c r="B70" s="57">
+        <v>0</v>
+      </c>
+      <c r="C70" s="57">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="58">
         <v>146</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="58">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="13">
-        <v>0</v>
-      </c>
-      <c r="I70" s="13">
+      <c r="H70" s="60">
+        <v>0</v>
+      </c>
+      <c r="I70" s="60">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3822,33 +3903,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="13">
-        <v>0</v>
-      </c>
-      <c r="C71" s="13">
+      <c r="B71" s="57">
+        <v>0</v>
+      </c>
+      <c r="C71" s="57">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="13">
-        <v>0</v>
-      </c>
-      <c r="F71" s="13">
-        <v>0</v>
+      <c r="E71" s="58">
+        <v>0</v>
+      </c>
+      <c r="F71" s="58">
+        <v>682</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="13">
-        <v>0</v>
-      </c>
-      <c r="I71" s="13">
+        <v>682</v>
+      </c>
+      <c r="H71" s="60">
+        <v>0</v>
+      </c>
+      <c r="I71" s="60">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3857,33 +3938,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="57">
         <v>1850</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="57">
         <v>2400</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="E72" s="13">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13">
+      <c r="E72" s="58">
+        <v>0</v>
+      </c>
+      <c r="F72" s="58">
         <v>0</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H72" s="13">
-        <v>0</v>
-      </c>
-      <c r="I72" s="13">
+      <c r="H72" s="60">
+        <v>0</v>
+      </c>
+      <c r="I72" s="60">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -3892,33 +3973,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="13">
-        <v>0</v>
-      </c>
-      <c r="C73" s="13">
+      <c r="B73" s="57">
+        <v>0</v>
+      </c>
+      <c r="C73" s="57">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="58">
         <v>13083</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="58">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
         <v>-13083</v>
       </c>
-      <c r="H73" s="13">
-        <v>0</v>
-      </c>
-      <c r="I73" s="13">
+      <c r="H73" s="60">
+        <v>0</v>
+      </c>
+      <c r="I73" s="60">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -3927,33 +4008,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="13">
-        <v>0</v>
-      </c>
-      <c r="C74" s="13">
+      <c r="B74" s="57">
+        <v>0</v>
+      </c>
+      <c r="C74" s="57">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="13">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
+      <c r="E74" s="58">
+        <v>0</v>
+      </c>
+      <c r="F74" s="58">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H74" s="13">
-        <v>0</v>
-      </c>
-      <c r="I74" s="13">
+      <c r="H74" s="60">
+        <v>0</v>
+      </c>
+      <c r="I74" s="60">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -3962,33 +4043,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="57">
         <v>200</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="57">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="13">
-        <v>0</v>
-      </c>
-      <c r="F75" s="13">
+      <c r="E75" s="58">
+        <v>0</v>
+      </c>
+      <c r="F75" s="58">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="13">
-        <v>0</v>
-      </c>
-      <c r="I75" s="13">
+      <c r="H75" s="60">
+        <v>0</v>
+      </c>
+      <c r="I75" s="60">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -3997,33 +4078,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="13">
-        <v>0</v>
-      </c>
-      <c r="C76" s="13">
+      <c r="B76" s="57">
+        <v>0</v>
+      </c>
+      <c r="C76" s="57">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="13">
-        <v>4248</v>
-      </c>
-      <c r="F76" s="13">
+      <c r="E76" s="58">
+        <v>3705</v>
+      </c>
+      <c r="F76" s="58">
         <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-4248</v>
-      </c>
-      <c r="H76" s="13">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13">
+        <v>-3705</v>
+      </c>
+      <c r="H76" s="60">
+        <v>0</v>
+      </c>
+      <c r="I76" s="60">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -4032,33 +4113,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="13">
-        <v>0</v>
-      </c>
-      <c r="C77" s="13">
+      <c r="B77" s="57">
+        <v>0</v>
+      </c>
+      <c r="C77" s="57">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="58">
         <v>333</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="58">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
         <v>-333</v>
       </c>
-      <c r="H77" s="13">
-        <v>0</v>
-      </c>
-      <c r="I77" s="13">
+      <c r="H77" s="60">
+        <v>0</v>
+      </c>
+      <c r="I77" s="60">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4067,33 +4148,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="13">
-        <v>0</v>
-      </c>
-      <c r="C78" s="13">
+      <c r="B78" s="57">
+        <v>0</v>
+      </c>
+      <c r="C78" s="57">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="58">
         <v>4040</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="58">
         <v>2000</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
         <v>-2040</v>
       </c>
-      <c r="H78" s="13">
-        <v>0</v>
-      </c>
-      <c r="I78" s="13">
+      <c r="H78" s="60">
+        <v>0</v>
+      </c>
+      <c r="I78" s="60">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4102,33 +4183,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="57">
         <v>150</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="57">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="13">
-        <v>4513</v>
-      </c>
-      <c r="F79" s="13">
-        <v>0</v>
+      <c r="E79" s="58">
+        <v>0</v>
+      </c>
+      <c r="F79" s="58">
+        <v>3563</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
-        <v>-4513</v>
-      </c>
-      <c r="H79" s="13">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13">
+        <v>3563</v>
+      </c>
+      <c r="H79" s="60">
+        <v>0</v>
+      </c>
+      <c r="I79" s="60">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4137,33 +4218,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="13">
-        <v>0</v>
-      </c>
-      <c r="C80" s="13">
+      <c r="B80" s="57">
+        <v>0</v>
+      </c>
+      <c r="C80" s="57">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="13">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13">
+      <c r="E80" s="58">
+        <v>0</v>
+      </c>
+      <c r="F80" s="58">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="13">
-        <v>0</v>
-      </c>
-      <c r="I80" s="13">
+      <c r="H80" s="60">
+        <v>0</v>
+      </c>
+      <c r="I80" s="60">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4172,33 +4253,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="13">
-        <v>0</v>
-      </c>
-      <c r="C81" s="13">
+      <c r="B81" s="57">
+        <v>0</v>
+      </c>
+      <c r="C81" s="57">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="13">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="E81" s="58">
+        <v>0</v>
+      </c>
+      <c r="F81" s="58">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="13">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13">
+      <c r="H81" s="60">
+        <v>0</v>
+      </c>
+      <c r="I81" s="60">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4207,33 +4288,33 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="13">
-        <v>0</v>
-      </c>
-      <c r="C82" s="13">
+      <c r="B82" s="57">
+        <v>0</v>
+      </c>
+      <c r="C82" s="57">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="13">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
-        <v>2804</v>
+      <c r="E82" s="58">
+        <v>0</v>
+      </c>
+      <c r="F82" s="58">
+        <v>3076</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>2804</v>
-      </c>
-      <c r="H82" s="13">
-        <v>0</v>
-      </c>
-      <c r="I82" s="13">
+        <v>3076</v>
+      </c>
+      <c r="H82" s="60">
+        <v>0</v>
+      </c>
+      <c r="I82" s="60">
         <v>0</v>
       </c>
       <c r="J82" s="6">
@@ -4242,33 +4323,33 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B83" s="13">
-        <v>0</v>
-      </c>
-      <c r="C83" s="13">
+      <c r="B83" s="57">
+        <v>0</v>
+      </c>
+      <c r="C83" s="57">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
+      <c r="E83" s="58">
+        <v>1008</v>
+      </c>
+      <c r="F83" s="58">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="13">
-        <v>0</v>
-      </c>
-      <c r="I83" s="13">
+        <v>-1008</v>
+      </c>
+      <c r="H83" s="60">
+        <v>0</v>
+      </c>
+      <c r="I83" s="60">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4277,33 +4358,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="13">
-        <v>0</v>
-      </c>
-      <c r="C84" s="13">
+      <c r="A84" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="57">
+        <v>0</v>
+      </c>
+      <c r="C84" s="57">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="58">
         <v>322</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="58">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
         <v>-322</v>
       </c>
-      <c r="H84" s="13">
-        <v>0</v>
-      </c>
-      <c r="I84" s="13">
+      <c r="H84" s="60">
+        <v>0</v>
+      </c>
+      <c r="I84" s="60">
         <v>0</v>
       </c>
       <c r="J84" s="6">
@@ -4312,33 +4393,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="57">
         <v>95</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="57">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="58">
         <v>200</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="58">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="13">
-        <v>0</v>
-      </c>
-      <c r="I85" s="13">
+      <c r="H85" s="60">
+        <v>0</v>
+      </c>
+      <c r="I85" s="60">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4347,33 +4428,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="13">
-        <v>0</v>
-      </c>
-      <c r="C86" s="13">
+      <c r="B86" s="57">
+        <v>0</v>
+      </c>
+      <c r="C86" s="57">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="13">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="E86" s="58">
+        <v>0</v>
+      </c>
+      <c r="F86" s="58">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="13">
-        <v>0</v>
-      </c>
-      <c r="I86" s="13">
+      <c r="H86" s="60">
+        <v>0</v>
+      </c>
+      <c r="I86" s="60">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4382,33 +4463,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="13">
-        <v>0</v>
-      </c>
-      <c r="C87" s="13">
+      <c r="B87" s="57">
+        <v>0</v>
+      </c>
+      <c r="C87" s="57">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="13">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13">
+      <c r="E87" s="58">
+        <v>0</v>
+      </c>
+      <c r="F87" s="58">
         <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H87" s="13">
-        <v>0</v>
-      </c>
-      <c r="I87" s="13">
+      <c r="H87" s="60">
+        <v>0</v>
+      </c>
+      <c r="I87" s="60">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4417,33 +4498,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="13">
-        <v>0</v>
-      </c>
-      <c r="C88" s="13">
+      <c r="B88" s="57">
+        <v>0</v>
+      </c>
+      <c r="C88" s="57">
         <v>900</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="E88" s="13">
-        <v>0</v>
-      </c>
-      <c r="F88" s="13">
+      <c r="E88" s="58">
+        <v>0</v>
+      </c>
+      <c r="F88" s="58">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="13">
-        <v>0</v>
-      </c>
-      <c r="I88" s="13">
+      <c r="H88" s="60">
+        <v>0</v>
+      </c>
+      <c r="I88" s="60">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4452,33 +4533,33 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B89" s="13">
-        <v>0</v>
-      </c>
-      <c r="C89" s="13">
+      <c r="B89" s="57">
+        <v>0</v>
+      </c>
+      <c r="C89" s="57">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="58">
         <v>323</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="58">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
         <v>-323</v>
       </c>
-      <c r="H89" s="13">
-        <v>0</v>
-      </c>
-      <c r="I89" s="13">
+      <c r="H89" s="60">
+        <v>0</v>
+      </c>
+      <c r="I89" s="60">
         <v>0</v>
       </c>
       <c r="J89" s="6">
@@ -4487,33 +4568,33 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="13">
-        <v>0</v>
-      </c>
-      <c r="C90" s="13">
+      <c r="B90" s="57">
+        <v>0</v>
+      </c>
+      <c r="C90" s="57">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="58">
         <v>12662</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="58">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="13">
-        <v>0</v>
-      </c>
-      <c r="I90" s="13">
+      <c r="H90" s="60">
+        <v>0</v>
+      </c>
+      <c r="I90" s="60">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4522,31 +4603,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="13">
-        <v>0</v>
-      </c>
-      <c r="C91" s="13">
+      <c r="A91" s="37"/>
+      <c r="B91" s="57">
+        <v>0</v>
+      </c>
+      <c r="C91" s="57">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="13">
-        <v>0</v>
-      </c>
-      <c r="F91" s="13">
+      <c r="E91" s="58">
+        <v>0</v>
+      </c>
+      <c r="F91" s="58">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="13">
-        <v>0</v>
-      </c>
-      <c r="I91" s="13">
+      <c r="H91" s="60">
+        <v>0</v>
+      </c>
+      <c r="I91" s="60">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4555,33 +4636,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="13">
-        <v>0</v>
-      </c>
-      <c r="C92" s="13">
+      <c r="B92" s="57">
+        <v>0</v>
+      </c>
+      <c r="C92" s="57">
         <v>275</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="E92" s="13">
-        <v>0</v>
-      </c>
-      <c r="F92" s="13">
+      <c r="E92" s="58">
+        <v>0</v>
+      </c>
+      <c r="F92" s="58">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="13">
-        <v>0</v>
-      </c>
-      <c r="I92" s="13">
+      <c r="H92" s="60">
+        <v>0</v>
+      </c>
+      <c r="I92" s="60">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4590,33 +4671,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="13">
-        <v>0</v>
-      </c>
-      <c r="C93" s="13">
+      <c r="B93" s="57">
+        <v>0</v>
+      </c>
+      <c r="C93" s="57">
         <v>2700</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
         <v>2700</v>
       </c>
-      <c r="E93" s="13">
-        <v>0</v>
-      </c>
-      <c r="F93" s="13">
+      <c r="E93" s="58">
+        <v>0</v>
+      </c>
+      <c r="F93" s="58">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="13">
-        <v>0</v>
-      </c>
-      <c r="I93" s="13">
+      <c r="H93" s="60">
+        <v>0</v>
+      </c>
+      <c r="I93" s="60">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4625,33 +4706,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="57">
         <v>7</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="57">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="13">
-        <v>0</v>
-      </c>
-      <c r="F94" s="13">
+      <c r="E94" s="58">
+        <v>0</v>
+      </c>
+      <c r="F94" s="58">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="13">
-        <v>0</v>
-      </c>
-      <c r="I94" s="13">
+      <c r="H94" s="60">
+        <v>0</v>
+      </c>
+      <c r="I94" s="60">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4660,33 +4741,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="13">
-        <v>0</v>
-      </c>
-      <c r="C95" s="13">
+      <c r="B95" s="57">
+        <v>0</v>
+      </c>
+      <c r="C95" s="57">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="58">
         <v>21</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="58">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="13">
-        <v>0</v>
-      </c>
-      <c r="I95" s="13">
+      <c r="H95" s="60">
+        <v>0</v>
+      </c>
+      <c r="I95" s="60">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4695,33 +4776,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="13">
-        <v>0</v>
-      </c>
-      <c r="C96" s="13">
+      <c r="B96" s="57">
+        <v>0</v>
+      </c>
+      <c r="C96" s="57">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="13">
-        <v>11404</v>
-      </c>
-      <c r="F96" s="13">
+      <c r="E96" s="58">
+        <v>2369</v>
+      </c>
+      <c r="F96" s="58">
         <v>0</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
-        <v>-11404</v>
-      </c>
-      <c r="H96" s="13">
-        <v>0</v>
-      </c>
-      <c r="I96" s="13">
+        <v>-2369</v>
+      </c>
+      <c r="H96" s="60">
+        <v>0</v>
+      </c>
+      <c r="I96" s="60">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4730,33 +4811,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="13">
-        <v>0</v>
-      </c>
-      <c r="C97" s="13">
+      <c r="B97" s="57">
+        <v>0</v>
+      </c>
+      <c r="C97" s="57">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="58">
         <v>650</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="58">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
         <v>-650</v>
       </c>
-      <c r="H97" s="13">
-        <v>0</v>
-      </c>
-      <c r="I97" s="13">
+      <c r="H97" s="60">
+        <v>0</v>
+      </c>
+      <c r="I97" s="60">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4765,33 +4846,33 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B98" s="13">
-        <v>0</v>
-      </c>
-      <c r="C98" s="13">
+      <c r="A98" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="57">
+        <v>0</v>
+      </c>
+      <c r="C98" s="57">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="13">
-        <v>0</v>
-      </c>
-      <c r="F98" s="13">
-        <v>600</v>
+      <c r="E98" s="58">
+        <v>105</v>
+      </c>
+      <c r="F98" s="58">
+        <v>0</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="H98" s="13">
-        <v>0</v>
-      </c>
-      <c r="I98" s="13">
+        <v>-105</v>
+      </c>
+      <c r="H98" s="60">
+        <v>0</v>
+      </c>
+      <c r="I98" s="60">
         <v>0</v>
       </c>
       <c r="J98" s="6">
@@ -4800,33 +4881,33 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="13">
-        <v>0</v>
-      </c>
-      <c r="C99" s="13">
+      <c r="B99" s="57">
+        <v>0</v>
+      </c>
+      <c r="C99" s="57">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="13">
-        <v>0</v>
-      </c>
-      <c r="F99" s="13">
+      <c r="E99" s="58">
+        <v>0</v>
+      </c>
+      <c r="F99" s="58">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99" s="60">
         <v>814</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="60">
         <v>0</v>
       </c>
       <c r="J99" s="6">
@@ -4835,33 +4916,33 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="13">
-        <v>0</v>
-      </c>
-      <c r="C100" s="13">
+      <c r="B100" s="57">
+        <v>0</v>
+      </c>
+      <c r="C100" s="57">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="13">
-        <v>0</v>
-      </c>
-      <c r="F100" s="13">
+      <c r="E100" s="58">
+        <v>0</v>
+      </c>
+      <c r="F100" s="58">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="13">
-        <v>0</v>
-      </c>
-      <c r="I100" s="13">
+      <c r="H100" s="60">
+        <v>0</v>
+      </c>
+      <c r="I100" s="60">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4870,33 +4951,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="13">
-        <v>0</v>
-      </c>
-      <c r="C101" s="13">
+      <c r="B101" s="57">
+        <v>0</v>
+      </c>
+      <c r="C101" s="57">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="13">
-        <v>0</v>
-      </c>
-      <c r="F101" s="13">
+      <c r="E101" s="58">
+        <v>0</v>
+      </c>
+      <c r="F101" s="58">
         <v>0</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H101" s="13">
-        <v>0</v>
-      </c>
-      <c r="I101" s="13">
+      <c r="H101" s="60">
+        <v>0</v>
+      </c>
+      <c r="I101" s="60">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -4905,33 +4986,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B102" s="13">
-        <v>0</v>
-      </c>
-      <c r="C102" s="13">
+      <c r="A102" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="57">
+        <v>0</v>
+      </c>
+      <c r="C102" s="57">
         <v>0</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E102" s="13">
-        <v>0</v>
-      </c>
-      <c r="F102" s="13">
-        <v>10200</v>
+      <c r="E102" s="58">
+        <v>0</v>
+      </c>
+      <c r="F102" s="58">
+        <v>200</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
-        <v>10200</v>
-      </c>
-      <c r="H102" s="13">
-        <v>0</v>
-      </c>
-      <c r="I102" s="13">
+        <v>200</v>
+      </c>
+      <c r="H102" s="60">
+        <v>0</v>
+      </c>
+      <c r="I102" s="60">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -4940,33 +5021,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="57">
         <v>50</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="57">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="13">
-        <v>0</v>
-      </c>
-      <c r="F103" s="13">
+      <c r="E103" s="58">
+        <v>0</v>
+      </c>
+      <c r="F103" s="58">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="13">
-        <v>0</v>
-      </c>
-      <c r="I103" s="13">
+      <c r="H103" s="60">
+        <v>0</v>
+      </c>
+      <c r="I103" s="60">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -4975,33 +5056,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="13">
-        <v>0</v>
-      </c>
-      <c r="C104" s="13">
+      <c r="B104" s="57">
+        <v>0</v>
+      </c>
+      <c r="C104" s="57">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="13">
-        <v>34259</v>
-      </c>
-      <c r="F104" s="13">
+      <c r="E104" s="58">
+        <v>35259</v>
+      </c>
+      <c r="F104" s="58">
         <v>0</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>-34259</v>
-      </c>
-      <c r="H104" s="13">
-        <v>0</v>
-      </c>
-      <c r="I104" s="13">
+        <v>-35259</v>
+      </c>
+      <c r="H104" s="60">
+        <v>0</v>
+      </c>
+      <c r="I104" s="60">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -5010,33 +5091,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="13">
-        <v>0</v>
-      </c>
-      <c r="C105" s="13">
+      <c r="B105" s="57">
+        <v>0</v>
+      </c>
+      <c r="C105" s="57">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="13">
-        <v>0</v>
-      </c>
-      <c r="F105" s="13">
-        <v>32254</v>
+      <c r="E105" s="58">
+        <v>0</v>
+      </c>
+      <c r="F105" s="58">
+        <v>37554</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>32254</v>
-      </c>
-      <c r="H105" s="13">
-        <v>0</v>
-      </c>
-      <c r="I105" s="13">
+        <v>37554</v>
+      </c>
+      <c r="H105" s="60">
+        <v>0</v>
+      </c>
+      <c r="I105" s="60">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5045,33 +5126,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="13">
-        <v>0</v>
-      </c>
-      <c r="C106" s="13">
+      <c r="B106" s="57">
+        <v>0</v>
+      </c>
+      <c r="C106" s="57">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="58">
         <v>300</v>
       </c>
-      <c r="F106" s="13">
+      <c r="F106" s="58">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="13">
-        <v>0</v>
-      </c>
-      <c r="I106" s="13">
+      <c r="H106" s="60">
+        <v>0</v>
+      </c>
+      <c r="I106" s="60">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5080,31 +5161,33 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="13">
-        <v>0</v>
-      </c>
-      <c r="C107" s="13">
+      <c r="A107" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="57">
+        <v>0</v>
+      </c>
+      <c r="C107" s="57">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="13">
-        <v>0</v>
-      </c>
-      <c r="F107" s="13">
+      <c r="E107" s="58">
+        <v>105</v>
+      </c>
+      <c r="F107" s="58">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="13">
-        <v>0</v>
-      </c>
-      <c r="I107" s="13">
+        <v>-105</v>
+      </c>
+      <c r="H107" s="60">
+        <v>0</v>
+      </c>
+      <c r="I107" s="60">
         <v>0</v>
       </c>
       <c r="J107" s="6">
@@ -5113,31 +5196,31 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="13">
-        <v>0</v>
-      </c>
-      <c r="C108" s="13">
+      <c r="A108" s="37"/>
+      <c r="B108" s="57">
+        <v>0</v>
+      </c>
+      <c r="C108" s="57">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="13">
-        <v>0</v>
-      </c>
-      <c r="F108" s="13">
+      <c r="E108" s="58">
+        <v>0</v>
+      </c>
+      <c r="F108" s="58">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H108" s="13">
-        <v>0</v>
-      </c>
-      <c r="I108" s="13">
+      <c r="H108" s="60">
+        <v>0</v>
+      </c>
+      <c r="I108" s="60">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5146,31 +5229,31 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="13">
-        <v>0</v>
-      </c>
-      <c r="C109" s="13">
+      <c r="A109" s="37"/>
+      <c r="B109" s="57">
+        <v>0</v>
+      </c>
+      <c r="C109" s="57">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="13">
-        <v>0</v>
-      </c>
-      <c r="F109" s="13">
+      <c r="E109" s="58">
+        <v>0</v>
+      </c>
+      <c r="F109" s="58">
         <v>0</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H109" s="13">
-        <v>0</v>
-      </c>
-      <c r="I109" s="13">
+      <c r="H109" s="60">
+        <v>0</v>
+      </c>
+      <c r="I109" s="60">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5179,33 +5262,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B110" s="13">
-        <v>0</v>
-      </c>
-      <c r="C110" s="13">
+      <c r="B110" s="57">
+        <v>0</v>
+      </c>
+      <c r="C110" s="57">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="13">
+      <c r="E110" s="58">
         <v>10</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="58">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="13">
-        <v>0</v>
-      </c>
-      <c r="I110" s="13">
+      <c r="H110" s="60">
+        <v>0</v>
+      </c>
+      <c r="I110" s="60">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5214,33 +5297,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B111" s="13">
-        <v>0</v>
-      </c>
-      <c r="C111" s="13">
+      <c r="B111" s="57">
+        <v>0</v>
+      </c>
+      <c r="C111" s="57">
         <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E111" s="13">
-        <v>0</v>
-      </c>
-      <c r="F111" s="13">
+      <c r="E111" s="58">
+        <v>0</v>
+      </c>
+      <c r="F111" s="58">
         <v>0</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H111" s="13">
-        <v>0</v>
-      </c>
-      <c r="I111" s="13">
+      <c r="H111" s="60">
+        <v>0</v>
+      </c>
+      <c r="I111" s="60">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5249,33 +5332,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B112" s="13">
-        <v>0</v>
-      </c>
-      <c r="C112" s="13">
+      <c r="B112" s="57">
+        <v>0</v>
+      </c>
+      <c r="C112" s="57">
         <v>451</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
         <v>451</v>
       </c>
-      <c r="E112" s="13">
-        <v>0</v>
-      </c>
-      <c r="F112" s="13">
+      <c r="E112" s="58">
+        <v>0</v>
+      </c>
+      <c r="F112" s="58">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="13">
-        <v>0</v>
-      </c>
-      <c r="I112" s="13">
+      <c r="H112" s="60">
+        <v>0</v>
+      </c>
+      <c r="I112" s="60">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5284,31 +5367,31 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="13">
-        <v>0</v>
-      </c>
-      <c r="C113" s="13">
+      <c r="A113" s="37"/>
+      <c r="B113" s="57">
+        <v>0</v>
+      </c>
+      <c r="C113" s="57">
         <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="13">
-        <v>0</v>
-      </c>
-      <c r="F113" s="13">
+      <c r="E113" s="58">
+        <v>0</v>
+      </c>
+      <c r="F113" s="58">
         <v>0</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H113" s="13">
-        <v>0</v>
-      </c>
-      <c r="I113" s="13">
+      <c r="H113" s="60">
+        <v>0</v>
+      </c>
+      <c r="I113" s="60">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5317,33 +5400,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B114" s="13">
-        <v>0</v>
-      </c>
-      <c r="C114" s="13">
+      <c r="B114" s="57">
+        <v>0</v>
+      </c>
+      <c r="C114" s="57">
         <v>0</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E114" s="13">
-        <v>28918</v>
-      </c>
-      <c r="F114" s="13">
+      <c r="E114" s="58">
+        <v>45125</v>
+      </c>
+      <c r="F114" s="58">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-28918</v>
-      </c>
-      <c r="H114" s="13">
-        <v>0</v>
-      </c>
-      <c r="I114" s="13">
+        <v>-45125</v>
+      </c>
+      <c r="H114" s="60">
+        <v>0</v>
+      </c>
+      <c r="I114" s="60">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5352,33 +5435,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="57">
         <v>1800</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="57">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
         <v>-1800</v>
       </c>
-      <c r="E115" s="13">
-        <v>0</v>
-      </c>
-      <c r="F115" s="13">
+      <c r="E115" s="58">
+        <v>0</v>
+      </c>
+      <c r="F115" s="58">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="13">
-        <v>0</v>
-      </c>
-      <c r="I115" s="13">
+      <c r="H115" s="60">
+        <v>0</v>
+      </c>
+      <c r="I115" s="60">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5387,33 +5470,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="57">
         <v>935</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="57">
         <v>6737</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
         <v>5802</v>
       </c>
-      <c r="E116" s="13">
-        <v>0</v>
-      </c>
-      <c r="F116" s="13">
+      <c r="E116" s="58">
+        <v>0</v>
+      </c>
+      <c r="F116" s="58">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H116" s="13">
-        <v>0</v>
-      </c>
-      <c r="I116" s="13">
+      <c r="H116" s="60">
+        <v>0</v>
+      </c>
+      <c r="I116" s="60">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5422,33 +5505,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B117" s="13">
-        <v>0</v>
-      </c>
-      <c r="C117" s="13">
+      <c r="B117" s="57">
+        <v>0</v>
+      </c>
+      <c r="C117" s="57">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="58">
         <v>3739</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="58">
         <v>3400</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
         <v>-339</v>
       </c>
-      <c r="H117" s="13">
-        <v>0</v>
-      </c>
-      <c r="I117" s="13">
+      <c r="H117" s="60">
+        <v>0</v>
+      </c>
+      <c r="I117" s="60">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5457,33 +5540,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B118" s="13">
-        <v>0</v>
-      </c>
-      <c r="C118" s="13">
+      <c r="B118" s="57">
+        <v>0</v>
+      </c>
+      <c r="C118" s="57">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="58">
         <v>7682</v>
       </c>
-      <c r="F118" s="13">
+      <c r="F118" s="58">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="13">
-        <v>0</v>
-      </c>
-      <c r="I118" s="13">
+      <c r="H118" s="60">
+        <v>0</v>
+      </c>
+      <c r="I118" s="60">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5492,33 +5575,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B119" s="13">
-        <v>0</v>
-      </c>
-      <c r="C119" s="13">
+      <c r="B119" s="57">
+        <v>0</v>
+      </c>
+      <c r="C119" s="57">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E119" s="13">
-        <v>2750</v>
-      </c>
-      <c r="F119" s="13">
+      <c r="E119" s="58">
+        <v>2956</v>
+      </c>
+      <c r="F119" s="58">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-2750</v>
-      </c>
-      <c r="H119" s="13">
-        <v>0</v>
-      </c>
-      <c r="I119" s="13">
+        <v>-2956</v>
+      </c>
+      <c r="H119" s="60">
+        <v>0</v>
+      </c>
+      <c r="I119" s="60">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5527,33 +5610,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="13">
-        <v>0</v>
-      </c>
-      <c r="C120" s="13">
+      <c r="B120" s="57">
+        <v>0</v>
+      </c>
+      <c r="C120" s="57">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E120" s="13">
-        <v>0</v>
-      </c>
-      <c r="F120" s="13">
+      <c r="E120" s="58">
+        <v>0</v>
+      </c>
+      <c r="F120" s="58">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H120" s="13">
-        <v>0</v>
-      </c>
-      <c r="I120" s="13">
+      <c r="H120" s="60">
+        <v>0</v>
+      </c>
+      <c r="I120" s="60">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5562,33 +5645,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B121" s="13">
-        <v>0</v>
-      </c>
-      <c r="C121" s="13">
+      <c r="B121" s="57">
+        <v>0</v>
+      </c>
+      <c r="C121" s="57">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="58">
         <v>15000</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="58">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="13">
-        <v>0</v>
-      </c>
-      <c r="I121" s="13">
+      <c r="H121" s="60">
+        <v>0</v>
+      </c>
+      <c r="I121" s="60">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5597,33 +5680,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B122" s="13">
-        <v>0</v>
-      </c>
-      <c r="C122" s="13">
+      <c r="B122" s="57">
+        <v>0</v>
+      </c>
+      <c r="C122" s="57">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="13">
-        <v>147</v>
-      </c>
-      <c r="F122" s="13">
-        <v>200</v>
+      <c r="E122" s="58">
+        <v>1157</v>
+      </c>
+      <c r="F122" s="58">
+        <v>1800</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="H122" s="13">
+        <v>643</v>
+      </c>
+      <c r="H122" s="60">
         <v>70</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122" s="60">
         <v>0</v>
       </c>
       <c r="J122" s="6">
@@ -5632,33 +5715,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="13">
-        <v>0</v>
-      </c>
-      <c r="C123" s="13">
+      <c r="B123" s="57">
+        <v>0</v>
+      </c>
+      <c r="C123" s="57">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E123" s="13">
-        <v>0</v>
-      </c>
-      <c r="F123" s="13">
+      <c r="E123" s="58">
+        <v>0</v>
+      </c>
+      <c r="F123" s="58">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H123" s="13">
-        <v>0</v>
-      </c>
-      <c r="I123" s="13">
+      <c r="H123" s="60">
+        <v>0</v>
+      </c>
+      <c r="I123" s="60">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5667,33 +5750,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B124" s="13">
-        <v>0</v>
-      </c>
-      <c r="C124" s="13">
+      <c r="B124" s="57">
+        <v>0</v>
+      </c>
+      <c r="C124" s="57">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E124" s="13">
-        <v>0</v>
-      </c>
-      <c r="F124" s="13">
+      <c r="E124" s="58">
+        <v>0</v>
+      </c>
+      <c r="F124" s="58">
         <v>0</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H124" s="13">
-        <v>0</v>
-      </c>
-      <c r="I124" s="13">
+      <c r="H124" s="60">
+        <v>0</v>
+      </c>
+      <c r="I124" s="60">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5702,33 +5785,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="13">
+      <c r="B125" s="57">
         <v>320</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="57">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
         <v>-320</v>
       </c>
-      <c r="E125" s="13">
+      <c r="E125" s="58">
         <v>60</v>
       </c>
-      <c r="F125" s="13">
+      <c r="F125" s="58">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
         <v>-60</v>
       </c>
-      <c r="H125" s="13">
-        <v>0</v>
-      </c>
-      <c r="I125" s="13">
+      <c r="H125" s="60">
+        <v>0</v>
+      </c>
+      <c r="I125" s="60">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5737,33 +5820,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="13">
+      <c r="B126" s="57">
         <v>150</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="57">
         <v>120</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
         <v>-30</v>
       </c>
-      <c r="E126" s="13">
-        <v>0</v>
-      </c>
-      <c r="F126" s="13">
+      <c r="E126" s="58">
+        <v>0</v>
+      </c>
+      <c r="F126" s="58">
         <v>449</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
         <v>449</v>
       </c>
-      <c r="H126" s="13">
-        <v>0</v>
-      </c>
-      <c r="I126" s="13">
+      <c r="H126" s="60">
+        <v>0</v>
+      </c>
+      <c r="I126" s="60">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5772,33 +5855,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B127" s="13">
-        <v>0</v>
-      </c>
-      <c r="C127" s="13">
+      <c r="B127" s="57">
+        <v>0</v>
+      </c>
+      <c r="C127" s="57">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="58">
         <v>8951</v>
       </c>
-      <c r="F127" s="13">
+      <c r="F127" s="58">
         <v>0</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
         <v>-8951</v>
       </c>
-      <c r="H127" s="13">
-        <v>0</v>
-      </c>
-      <c r="I127" s="13">
+      <c r="H127" s="60">
+        <v>0</v>
+      </c>
+      <c r="I127" s="60">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5807,33 +5890,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128" s="57">
         <v>300</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="57">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E128" s="13">
-        <v>0</v>
-      </c>
-      <c r="F128" s="13">
+      <c r="E128" s="58">
+        <v>0</v>
+      </c>
+      <c r="F128" s="58">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H128" s="13">
-        <v>0</v>
-      </c>
-      <c r="I128" s="13">
+      <c r="H128" s="60">
+        <v>0</v>
+      </c>
+      <c r="I128" s="60">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5842,31 +5925,31 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="13">
-        <v>0</v>
-      </c>
-      <c r="C129" s="13">
+      <c r="A129" s="37"/>
+      <c r="B129" s="57">
+        <v>0</v>
+      </c>
+      <c r="C129" s="57">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="13">
-        <v>0</v>
-      </c>
-      <c r="F129" s="13">
+      <c r="E129" s="58">
+        <v>0</v>
+      </c>
+      <c r="F129" s="58">
         <v>0</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H129" s="13">
-        <v>0</v>
-      </c>
-      <c r="I129" s="13">
+      <c r="H129" s="60">
+        <v>0</v>
+      </c>
+      <c r="I129" s="60">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5875,33 +5958,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="57">
         <v>270</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C130" s="57">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
         <v>-270</v>
       </c>
-      <c r="E130" s="13">
+      <c r="E130" s="58">
         <v>25000</v>
       </c>
-      <c r="F130" s="13">
+      <c r="F130" s="58">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
         <v>-25000</v>
       </c>
-      <c r="H130" s="13">
-        <v>0</v>
-      </c>
-      <c r="I130" s="13">
+      <c r="H130" s="60">
+        <v>0</v>
+      </c>
+      <c r="I130" s="60">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -5910,33 +5993,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B131" s="13">
-        <v>0</v>
-      </c>
-      <c r="C131" s="13">
+      <c r="B131" s="57">
+        <v>200</v>
+      </c>
+      <c r="C131" s="57">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
-        <v>0</v>
-      </c>
-      <c r="E131" s="13">
-        <v>0</v>
-      </c>
-      <c r="F131" s="13">
-        <v>3845</v>
+        <v>-200</v>
+      </c>
+      <c r="E131" s="58">
+        <v>0</v>
+      </c>
+      <c r="F131" s="58">
+        <v>3100</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
-        <v>3845</v>
-      </c>
-      <c r="H131" s="13">
-        <v>0</v>
-      </c>
-      <c r="I131" s="13">
+        <v>3100</v>
+      </c>
+      <c r="H131" s="60">
+        <v>0</v>
+      </c>
+      <c r="I131" s="60">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -5945,31 +6028,31 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" s="13">
-        <v>0</v>
-      </c>
-      <c r="C132" s="13">
+      <c r="A132" s="37"/>
+      <c r="B132" s="57">
+        <v>0</v>
+      </c>
+      <c r="C132" s="57">
         <v>0</v>
       </c>
       <c r="D132" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E132" s="13">
-        <v>0</v>
-      </c>
-      <c r="F132" s="13">
+      <c r="E132" s="58">
+        <v>0</v>
+      </c>
+      <c r="F132" s="58">
         <v>0</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H132" s="13">
-        <v>0</v>
-      </c>
-      <c r="I132" s="13">
+      <c r="H132" s="60">
+        <v>0</v>
+      </c>
+      <c r="I132" s="60">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -5978,33 +6061,33 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="B133" s="13">
-        <v>0</v>
-      </c>
-      <c r="C133" s="13">
+      <c r="B133" s="57">
+        <v>0</v>
+      </c>
+      <c r="C133" s="57">
         <v>0</v>
       </c>
       <c r="D133" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="13">
-        <v>9378</v>
-      </c>
-      <c r="F133" s="13">
+      <c r="E133" s="58">
+        <v>878</v>
+      </c>
+      <c r="F133" s="58">
         <v>0</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="7"/>
-        <v>-9378</v>
-      </c>
-      <c r="H133" s="13">
-        <v>0</v>
-      </c>
-      <c r="I133" s="13">
+        <v>-878</v>
+      </c>
+      <c r="H133" s="60">
+        <v>0</v>
+      </c>
+      <c r="I133" s="60">
         <v>0</v>
       </c>
       <c r="J133" s="6">
@@ -6013,33 +6096,33 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B134" s="13">
-        <v>0</v>
-      </c>
-      <c r="C134" s="13">
+      <c r="B134" s="57">
+        <v>0</v>
+      </c>
+      <c r="C134" s="57">
         <v>55000</v>
       </c>
       <c r="D134" s="6">
         <f t="shared" si="6"/>
         <v>55000</v>
       </c>
-      <c r="E134" s="13">
+      <c r="E134" s="58">
         <v>20670</v>
       </c>
-      <c r="F134" s="13">
+      <c r="F134" s="58">
         <v>3900</v>
       </c>
       <c r="G134" s="6">
         <f t="shared" si="7"/>
         <v>-16770</v>
       </c>
-      <c r="H134" s="13">
-        <v>0</v>
-      </c>
-      <c r="I134" s="13">
+      <c r="H134" s="60">
+        <v>0</v>
+      </c>
+      <c r="I134" s="60">
         <v>0</v>
       </c>
       <c r="J134" s="6">
@@ -6048,7 +6131,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
+      <c r="A135" s="37"/>
       <c r="B135" s="31"/>
       <c r="C135" s="31"/>
       <c r="D135" s="6">
@@ -6441,8 +6524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6480,21 +6563,21 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>142</v>
+      <c r="A4" s="59" t="s">
+        <v>144</v>
       </c>
       <c r="B4" s="15">
         <v>-13670</v>
       </c>
       <c r="C4" s="15">
-        <v>296306</v>
+        <v>287806</v>
       </c>
       <c r="D4" s="15">
         <v>-39195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="70" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="15">
@@ -6508,7 +6591,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="70" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="15">
@@ -6522,7 +6605,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="15">
@@ -6532,11 +6615,11 @@
         <v>3405</v>
       </c>
       <c r="D7" s="15">
-        <v>-3310</v>
+        <v>-3170</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="15">
@@ -6550,7 +6633,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="59" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15">
@@ -6564,7 +6647,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="15">
@@ -6578,7 +6661,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="15">
@@ -6592,21 +6675,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="15">
@@ -6620,7 +6703,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="64" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="15">
@@ -6634,7 +6717,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="71" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15">
@@ -6648,7 +6731,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="15">
@@ -6662,7 +6745,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="15">
@@ -6676,7 +6759,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="71" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="15">
@@ -6690,7 +6773,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="62" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="15">
@@ -6704,7 +6787,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="15">
@@ -6718,7 +6801,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="15">
@@ -6732,7 +6815,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="15">
@@ -6746,7 +6829,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="72" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="15">
@@ -6760,7 +6843,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="15">
@@ -6774,7 +6857,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="78" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="15">
@@ -6788,7 +6871,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="71" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="15">
@@ -6802,21 +6885,21 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="71" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="15">
         <v>0</v>
       </c>
       <c r="C27" s="15">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="D27" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="67" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="15">
@@ -6830,7 +6913,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="15">
@@ -6844,7 +6927,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="15">
@@ -6858,7 +6941,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="59" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="15">
@@ -6872,7 +6955,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="71" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="15">
@@ -6886,7 +6969,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="71" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="15">
@@ -6900,7 +6983,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="59" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="15">
@@ -6914,21 +6997,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="15">
         <v>7033</v>
       </c>
       <c r="C35" s="15">
-        <v>-5848</v>
+        <v>-6259</v>
       </c>
       <c r="D35" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="64" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="15">
@@ -6942,7 +7025,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="65" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="15">
@@ -6956,7 +7039,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="61" t="s">
         <v>129</v>
       </c>
       <c r="B38" s="15">
@@ -6970,7 +7053,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="59" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="15">
@@ -6984,7 +7067,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="15">
@@ -6998,7 +7081,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="59" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="15">
@@ -7012,7 +7095,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="68" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="15">
@@ -7026,7 +7109,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="75" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="15">
@@ -7040,7 +7123,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="76" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="15">
@@ -7054,7 +7137,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="66" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="15">
@@ -7068,7 +7151,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="66" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="15">
@@ -7082,7 +7165,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="59" t="s">
         <v>127</v>
       </c>
       <c r="B47" s="15">
@@ -7096,7 +7179,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="61" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="15">
@@ -7110,7 +7193,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="59" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="15">
@@ -7124,7 +7207,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="15">
@@ -7138,7 +7221,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="59" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="15">
@@ -7152,7 +7235,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="59" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="15">
@@ -7166,7 +7249,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="64" t="s">
         <v>58</v>
       </c>
       <c r="B53" s="15">
@@ -7180,7 +7263,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="73" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="15">
@@ -7194,21 +7277,21 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="59" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-88257</v>
+        <v>-87997</v>
       </c>
       <c r="D55" s="15">
-        <v>51585</v>
+        <v>50150</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="59" t="s">
         <v>128</v>
       </c>
       <c r="B56" s="15">
@@ -7222,7 +7305,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="59" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="15">
@@ -7236,7 +7319,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="59" t="s">
         <v>134</v>
       </c>
       <c r="B58" s="15">
@@ -7250,7 +7333,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="62" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="15">
@@ -7264,7 +7347,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="62" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="15">
@@ -7278,21 +7361,21 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="62" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="15">
         <v>0</v>
       </c>
       <c r="C61" s="15">
-        <v>-14148</v>
+        <v>4622</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="59" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="15">
@@ -7306,7 +7389,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="59" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="15">
@@ -7320,7 +7403,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="59" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="15">
@@ -7334,7 +7417,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="59" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="15">
@@ -7348,7 +7431,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="59" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="15">
@@ -7362,7 +7445,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="59" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="15">
@@ -7376,7 +7459,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="59" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="15">
@@ -7390,7 +7473,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="15">
@@ -7404,7 +7487,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="69" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="15">
@@ -7418,7 +7501,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="51" t="s">
+      <c r="A71" s="69" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="15">
@@ -7432,7 +7515,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="59" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="15">
@@ -7446,21 +7529,21 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="59" t="s">
         <v>136</v>
       </c>
       <c r="B73" s="15">
         <v>0</v>
       </c>
       <c r="C73" s="15">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="59" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="15">
@@ -7474,7 +7557,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="59" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="15">
@@ -7488,7 +7571,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="59" t="s">
         <v>131</v>
       </c>
       <c r="B76" s="15">
@@ -7502,7 +7585,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="59" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="15">
@@ -7516,21 +7599,21 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="59" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="15">
         <v>0</v>
       </c>
       <c r="C78" s="15">
-        <v>-4248</v>
+        <v>-3705</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="59" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="15">
@@ -7544,7 +7627,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="59" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="15">
@@ -7558,21 +7641,21 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="59" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="15">
         <v>-150</v>
       </c>
       <c r="C81" s="15">
-        <v>-4513</v>
+        <v>3563</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="59" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="15">
@@ -7586,7 +7669,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="52" t="s">
+      <c r="A83" s="77" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="15">
@@ -7600,36 +7683,36 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="59" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="15">
         <v>0</v>
       </c>
       <c r="C84" s="15">
-        <v>2804</v>
+        <v>3076</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="59" t="s">
         <v>137</v>
       </c>
       <c r="B85" s="15">
         <v>0</v>
       </c>
       <c r="C85" s="15">
-        <v>0</v>
+        <v>-1008</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>143</v>
+      <c r="A86" s="59" t="s">
+        <v>141</v>
       </c>
       <c r="B86" s="15">
         <v>0</v>
@@ -7642,7 +7725,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="59" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="15">
@@ -7656,7 +7739,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="15">
@@ -7670,7 +7753,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="59" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="15">
@@ -7684,7 +7767,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="59" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="15">
@@ -7698,7 +7781,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="59" t="s">
         <v>138</v>
       </c>
       <c r="B91" s="15">
@@ -7712,7 +7795,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="59" t="s">
         <v>89</v>
       </c>
       <c r="B92" s="15">
@@ -7726,7 +7809,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="15">
         <v>0</v>
       </c>
@@ -7738,7 +7821,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="59" t="s">
         <v>139</v>
       </c>
       <c r="B94" s="15">
@@ -7752,7 +7835,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="59" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="15">
@@ -7766,7 +7849,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="59" t="s">
         <v>91</v>
       </c>
       <c r="B96" s="15">
@@ -7780,7 +7863,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="59" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="15">
@@ -7794,21 +7877,21 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="59" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="15">
         <v>0</v>
       </c>
       <c r="C98" s="15">
-        <v>-11404</v>
+        <v>-2369</v>
       </c>
       <c r="D98" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="59" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="15">
@@ -7822,21 +7905,21 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>140</v>
+      <c r="A100" s="59" t="s">
+        <v>142</v>
       </c>
       <c r="B100" s="15">
         <v>0</v>
       </c>
       <c r="C100" s="15">
-        <v>600</v>
+        <v>-105</v>
       </c>
       <c r="D100" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="59" t="s">
         <v>95</v>
       </c>
       <c r="B101" s="15">
@@ -7850,7 +7933,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="59" t="s">
         <v>96</v>
       </c>
       <c r="B102" s="15">
@@ -7864,7 +7947,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="59" t="s">
         <v>97</v>
       </c>
       <c r="B103" s="15">
@@ -7878,21 +7961,21 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="53" t="s">
-        <v>141</v>
+      <c r="A104" s="79" t="s">
+        <v>140</v>
       </c>
       <c r="B104" s="15">
         <v>0</v>
       </c>
       <c r="C104" s="15">
-        <v>10200</v>
+        <v>200</v>
       </c>
       <c r="D104" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="59" t="s">
         <v>98</v>
       </c>
       <c r="B105" s="15">
@@ -7906,35 +7989,35 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="59" t="s">
         <v>99</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
       </c>
       <c r="C106" s="15">
-        <v>-34259</v>
+        <v>-35259</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="59" t="s">
         <v>100</v>
       </c>
       <c r="B107" s="15">
         <v>0</v>
       </c>
       <c r="C107" s="15">
-        <v>32254</v>
+        <v>37554</v>
       </c>
       <c r="D107" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="59" t="s">
         <v>101</v>
       </c>
       <c r="B108" s="15">
@@ -7948,19 +8031,21 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="59" t="s">
+        <v>143</v>
+      </c>
       <c r="B109" s="15">
         <v>0</v>
       </c>
       <c r="C109" s="15">
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="D109" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="15">
         <v>0</v>
       </c>
@@ -7972,7 +8057,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="15">
         <v>0</v>
       </c>
@@ -7984,7 +8069,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="62" t="s">
         <v>102</v>
       </c>
       <c r="B112" s="15">
@@ -7998,7 +8083,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="59" t="s">
         <v>103</v>
       </c>
       <c r="B113" s="15">
@@ -8012,7 +8097,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="59" t="s">
         <v>104</v>
       </c>
       <c r="B114" s="15">
@@ -8026,7 +8111,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="15">
         <v>0</v>
       </c>
@@ -8038,21 +8123,21 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="59" t="s">
         <v>105</v>
       </c>
       <c r="B116" s="15">
         <v>0</v>
       </c>
       <c r="C116" s="15">
-        <v>-28918</v>
+        <v>-45125</v>
       </c>
       <c r="D116" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="59" t="s">
         <v>106</v>
       </c>
       <c r="B117" s="15">
@@ -8066,7 +8151,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="59" t="s">
         <v>107</v>
       </c>
       <c r="B118" s="15">
@@ -8080,7 +8165,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="59" t="s">
         <v>108</v>
       </c>
       <c r="B119" s="15">
@@ -8094,7 +8179,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="59" t="s">
         <v>109</v>
       </c>
       <c r="B120" s="15">
@@ -8108,21 +8193,21 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="59" t="s">
         <v>110</v>
       </c>
       <c r="B121" s="15">
         <v>0</v>
       </c>
       <c r="C121" s="15">
-        <v>-2750</v>
+        <v>-2956</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="59" t="s">
         <v>111</v>
       </c>
       <c r="B122" s="15">
@@ -8136,7 +8221,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="59" t="s">
         <v>112</v>
       </c>
       <c r="B123" s="15">
@@ -8150,21 +8235,21 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="59" t="s">
         <v>113</v>
       </c>
       <c r="B124" s="15">
         <v>0</v>
       </c>
       <c r="C124" s="15">
-        <v>53</v>
+        <v>643</v>
       </c>
       <c r="D124" s="15">
         <v>-70</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="59" t="s">
         <v>132</v>
       </c>
       <c r="B125" s="15">
@@ -8178,7 +8263,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="59" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="15">
@@ -8192,7 +8277,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="59" t="s">
         <v>114</v>
       </c>
       <c r="B127" s="15">
@@ -8206,7 +8291,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="59" t="s">
         <v>115</v>
       </c>
       <c r="B128" s="15">
@@ -8220,7 +8305,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="59" t="s">
         <v>116</v>
       </c>
       <c r="B129" s="15">
@@ -8234,7 +8319,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="59" t="s">
         <v>117</v>
       </c>
       <c r="B130" s="15">
@@ -8248,7 +8333,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="59"/>
       <c r="B131" s="15">
         <v>0</v>
       </c>
@@ -8260,7 +8345,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="59" t="s">
         <v>118</v>
       </c>
       <c r="B132" s="15">
@@ -8274,21 +8359,21 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="59" t="s">
         <v>119</v>
       </c>
       <c r="B133" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C133" s="15">
-        <v>3845</v>
+        <v>3100</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+      <c r="A134" s="59"/>
       <c r="B134" s="15">
         <v>0</v>
       </c>
@@ -8300,21 +8385,21 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="59" t="s">
         <v>120</v>
       </c>
       <c r="B135" s="15">
         <v>0</v>
       </c>
       <c r="C135" s="15">
-        <v>-9378</v>
+        <v>-878</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="59" t="s">
         <v>121</v>
       </c>
       <c r="B136" s="15">
@@ -8328,7 +8413,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="59"/>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="33"/>
@@ -8383,15 +8468,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>79226</v>
+        <v>79026</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>1430</v>
+        <v>16341</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>5256</v>
+        <v>3961</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8436,7 +8521,7 @@
         <v>123</v>
       </c>
       <c r="B160" s="15">
-        <v>25964</v>
+        <v>12144</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
@@ -8449,7 +8534,7 @@
         <v>124</v>
       </c>
       <c r="B161" s="15">
-        <v>1274</v>
+        <v>4989</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
@@ -8462,7 +8547,7 @@
         <v>125</v>
       </c>
       <c r="B162" s="15">
-        <v>-1867</v>
+        <v>-1262</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7ED7E1-916A-4643-986C-375862372DD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE475E-82F9-4A1D-B5FD-3DBA8DB09F41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
-  <si>
-    <t>سامر شراب</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="151">
   <si>
     <t>الشيكل</t>
   </si>
@@ -219,9 +216,6 @@
     <t>اسامه مصبح</t>
   </si>
   <si>
-    <t>ابراهيم الطويل</t>
-  </si>
-  <si>
     <t>ابوعبدالله مشتهى</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>ابوصالح</t>
   </si>
   <si>
-    <t>كيليو بترا</t>
-  </si>
-  <si>
     <t xml:space="preserve">بهاء غنام </t>
   </si>
   <si>
@@ -387,9 +378,6 @@
     <t>حمدي الريفي ابومحمد</t>
   </si>
   <si>
-    <t>عامر ابوحجر ابورهف</t>
-  </si>
-  <si>
     <t>مهند ابوخضير</t>
   </si>
   <si>
@@ -426,9 +414,6 @@
     <t>فراس دير البلح</t>
   </si>
   <si>
-    <t>عطا النيرب</t>
-  </si>
-  <si>
     <t>ام سائد شركة فيجين</t>
   </si>
   <si>
@@ -459,9 +444,6 @@
     <t>يورو</t>
   </si>
   <si>
-    <t>مصطفى بشير</t>
-  </si>
-  <si>
     <t>محمد حميد</t>
   </si>
   <si>
@@ -471,18 +453,6 @@
     <t>الصفدي صفد</t>
   </si>
   <si>
-    <t>فادي شتيوي</t>
-  </si>
-  <si>
-    <t>ابوعبدالله الريس</t>
-  </si>
-  <si>
-    <t>ايمن الخضري</t>
-  </si>
-  <si>
-    <t>صدقات ابومفيد</t>
-  </si>
-  <si>
     <t>الروف 2 حتى 28-2-2023</t>
   </si>
   <si>
@@ -498,19 +468,67 @@
     <t>خدمات العماره سفن ستار</t>
   </si>
   <si>
-    <t>رائد صيام وهنام المغني 10000 و200 دولار</t>
-  </si>
-  <si>
     <t>طيبه</t>
   </si>
   <si>
-    <t>احمد خليل</t>
-  </si>
-  <si>
-    <t>ابويوسف اللوح</t>
-  </si>
-  <si>
-    <t>صندوق 1 صندوق واحد كــــــاظـــــــم</t>
+    <t>محمد فوره</t>
+  </si>
+  <si>
+    <t>اسعد حموده</t>
+  </si>
+  <si>
+    <t>سعدو خلف</t>
+  </si>
+  <si>
+    <t>عبد الكريم القصاص</t>
+  </si>
+  <si>
+    <t>ام هيثم الشيخ علي</t>
+  </si>
+  <si>
+    <t>ام فادي ابوسيدو</t>
+  </si>
+  <si>
+    <t>ميار دلول سندس</t>
+  </si>
+  <si>
+    <t>الدن</t>
+  </si>
+  <si>
+    <t>محمد شعت</t>
+  </si>
+  <si>
+    <t>عبد الكريم عابدين</t>
+  </si>
+  <si>
+    <t>ابوغسان الخزندار</t>
+  </si>
+  <si>
+    <t>حكيم خلف</t>
+  </si>
+  <si>
+    <t>باي كاش</t>
+  </si>
+  <si>
+    <t>فراس ابوكميل</t>
+  </si>
+  <si>
+    <t>خلدون غلة تركيا</t>
+  </si>
+  <si>
+    <t>خالد محمود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسن العبادله </t>
+  </si>
+  <si>
+    <t>العبادله 2</t>
+  </si>
+  <si>
+    <t>مدى يورو</t>
+  </si>
+  <si>
+    <t>صندوق واحد صندوق كــــاظــــم 1</t>
   </si>
 </sst>
 </file>
@@ -522,7 +540,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,13 +806,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="20"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="5"/>
       <color indexed="10"/>
       <name val="Simplified Arabic"/>
@@ -904,9 +915,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,21 +965,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1034,11 +1030,8 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,11 +1096,8 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1457,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J134"/>
+    <sheetView rightToLeft="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,84 +1462,84 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="57">
-        <v>13670</v>
-      </c>
-      <c r="C2" s="57">
+      <c r="A2" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="51">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
-        <v>-13670</v>
-      </c>
-      <c r="E2" s="58">
-        <v>0</v>
-      </c>
-      <c r="F2" s="58">
-        <v>287806</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="52">
+        <v>0</v>
+      </c>
+      <c r="F2" s="52">
+        <v>85826</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
-        <v>287806</v>
-      </c>
-      <c r="H2" s="60">
-        <v>39195</v>
-      </c>
-      <c r="I2" s="60">
-        <v>0</v>
+        <v>85826</v>
+      </c>
+      <c r="H2" s="54">
+        <v>0</v>
+      </c>
+      <c r="I2" s="54">
+        <v>25712</v>
       </c>
       <c r="J2" s="6">
         <f>I2-H2</f>
-        <v>-39195</v>
+        <v>25712</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="57">
-        <v>2150</v>
-      </c>
-      <c r="C3" s="57">
+      <c r="A3" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="51">
+        <v>7722</v>
+      </c>
+      <c r="C3" s="51">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-2150</v>
-      </c>
-      <c r="E3" s="58">
-        <v>500</v>
-      </c>
-      <c r="F3" s="58">
+        <v>-7722</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1550</v>
+      </c>
+      <c r="F3" s="52">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-500</v>
-      </c>
-      <c r="H3" s="60">
+        <v>-1550</v>
+      </c>
+      <c r="H3" s="54">
         <v>40</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="54">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1558,33 +1548,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="57">
-        <v>0</v>
-      </c>
-      <c r="C4" s="57">
+      <c r="A4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="51">
+        <v>0</v>
+      </c>
+      <c r="C4" s="51">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="58">
-        <v>0</v>
-      </c>
-      <c r="F4" s="58">
+      <c r="E4" s="52">
+        <v>0</v>
+      </c>
+      <c r="F4" s="52">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="60">
-        <v>0</v>
-      </c>
-      <c r="I4" s="60">
+      <c r="H4" s="54">
+        <v>0</v>
+      </c>
+      <c r="I4" s="54">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1593,68 +1583,68 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="57">
-        <v>0</v>
-      </c>
-      <c r="C5" s="57">
-        <v>1230</v>
+      <c r="A5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="51">
+        <v>0</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>1230</v>
-      </c>
-      <c r="E5" s="58">
-        <v>0</v>
-      </c>
-      <c r="F5" s="58">
-        <v>3405</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="52">
+        <v>90</v>
+      </c>
+      <c r="F5" s="52">
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>3405</v>
-      </c>
-      <c r="H5" s="60">
-        <v>4000</v>
-      </c>
-      <c r="I5" s="60">
-        <v>830</v>
+        <v>-90</v>
+      </c>
+      <c r="H5" s="54">
+        <v>0</v>
+      </c>
+      <c r="I5" s="54">
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>-3170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="57">
-        <v>0</v>
-      </c>
-      <c r="C6" s="57">
+      <c r="A6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="51">
+        <v>0</v>
+      </c>
+      <c r="C6" s="51">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="58">
-        <v>1445</v>
-      </c>
-      <c r="F6" s="58">
-        <v>0</v>
+      <c r="E6" s="52">
+        <v>0</v>
+      </c>
+      <c r="F6" s="52">
+        <v>897</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>-1445</v>
-      </c>
-      <c r="H6" s="60">
-        <v>0</v>
-      </c>
-      <c r="I6" s="60">
+        <v>897</v>
+      </c>
+      <c r="H6" s="54">
+        <v>0</v>
+      </c>
+      <c r="I6" s="54">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1663,33 +1653,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="57">
-        <v>0</v>
-      </c>
-      <c r="C7" s="57">
+      <c r="A7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="51">
+        <v>0</v>
+      </c>
+      <c r="C7" s="51">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="58">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="58">
+      <c r="E7" s="52">
+        <v>0</v>
+      </c>
+      <c r="F7" s="52">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>-1000</v>
-      </c>
-      <c r="H7" s="60">
-        <v>0</v>
-      </c>
-      <c r="I7" s="60">
+        <v>0</v>
+      </c>
+      <c r="H7" s="54">
+        <v>0</v>
+      </c>
+      <c r="I7" s="54">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1698,33 +1688,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="57">
-        <v>0</v>
-      </c>
-      <c r="C8" s="57">
+      <c r="A8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="51">
+        <v>0</v>
+      </c>
+      <c r="C8" s="51">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="58">
-        <v>0</v>
-      </c>
-      <c r="F8" s="58">
-        <v>547</v>
+      <c r="E8" s="52">
+        <v>0</v>
+      </c>
+      <c r="F8" s="52">
+        <v>459</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>547</v>
-      </c>
-      <c r="H8" s="60">
-        <v>0</v>
-      </c>
-      <c r="I8" s="60">
+        <v>459</v>
+      </c>
+      <c r="H8" s="54">
+        <v>0</v>
+      </c>
+      <c r="I8" s="54">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1733,33 +1723,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="57">
-        <v>0</v>
-      </c>
-      <c r="C9" s="57">
+      <c r="A9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="51">
+        <v>0</v>
+      </c>
+      <c r="C9" s="51">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="52">
         <v>33</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="52">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="60">
-        <v>0</v>
-      </c>
-      <c r="I9" s="60">
+      <c r="H9" s="54">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1768,33 +1758,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="57">
-        <v>0</v>
-      </c>
-      <c r="C10" s="57">
+      <c r="A10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51">
+        <v>0</v>
+      </c>
+      <c r="C10" s="51">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="58">
-        <v>0</v>
-      </c>
-      <c r="F10" s="58">
-        <v>2000</v>
+      <c r="E10" s="52">
+        <v>526</v>
+      </c>
+      <c r="F10" s="52">
+        <v>243</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="H10" s="60">
-        <v>0</v>
-      </c>
-      <c r="I10" s="60">
+        <v>-283</v>
+      </c>
+      <c r="H10" s="54">
+        <v>0</v>
+      </c>
+      <c r="I10" s="54">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1803,33 +1793,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="57">
-        <v>0</v>
-      </c>
-      <c r="C11" s="57">
+      <c r="A11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="51">
+        <v>0</v>
+      </c>
+      <c r="C11" s="51">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="58">
-        <v>0</v>
-      </c>
-      <c r="F11" s="58">
+      <c r="E11" s="52">
+        <v>0</v>
+      </c>
+      <c r="F11" s="52">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="60">
-        <v>0</v>
-      </c>
-      <c r="I11" s="60">
+      <c r="H11" s="54">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1838,33 +1828,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="57">
-        <v>0</v>
-      </c>
-      <c r="C12" s="57">
+      <c r="A12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="51">
+        <v>0</v>
+      </c>
+      <c r="C12" s="51">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="58">
-        <v>1890</v>
-      </c>
-      <c r="F12" s="58">
+      <c r="E12" s="52">
+        <v>890</v>
+      </c>
+      <c r="F12" s="52">
         <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>-1890</v>
-      </c>
-      <c r="H12" s="60">
-        <v>0</v>
-      </c>
-      <c r="I12" s="60">
+        <v>-890</v>
+      </c>
+      <c r="H12" s="54">
+        <v>0</v>
+      </c>
+      <c r="I12" s="54">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1873,33 +1863,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="57">
-        <v>0</v>
-      </c>
-      <c r="C13" s="57">
+      <c r="A13" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="51">
+        <v>0</v>
+      </c>
+      <c r="C13" s="51">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="58">
-        <v>0</v>
-      </c>
-      <c r="F13" s="58">
+      <c r="E13" s="52">
+        <v>0</v>
+      </c>
+      <c r="F13" s="52">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="60">
-        <v>0</v>
-      </c>
-      <c r="I13" s="60">
+      <c r="H13" s="54">
+        <v>0</v>
+      </c>
+      <c r="I13" s="54">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1908,33 +1898,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="57">
-        <v>0</v>
-      </c>
-      <c r="C14" s="57">
+      <c r="A14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="51">
+        <v>0</v>
+      </c>
+      <c r="C14" s="51">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="52">
         <v>300</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="52">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H14" s="60">
-        <v>0</v>
-      </c>
-      <c r="I14" s="60">
+      <c r="H14" s="54">
+        <v>0</v>
+      </c>
+      <c r="I14" s="54">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1943,33 +1933,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="57">
+      <c r="A15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="51">
         <v>1070</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="51">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="58">
-        <v>0</v>
-      </c>
-      <c r="F15" s="58">
+      <c r="E15" s="52">
+        <v>0</v>
+      </c>
+      <c r="F15" s="52">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="60">
-        <v>0</v>
-      </c>
-      <c r="I15" s="60">
+      <c r="H15" s="54">
+        <v>0</v>
+      </c>
+      <c r="I15" s="54">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1978,33 +1968,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="57">
+      <c r="A16" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="51">
         <v>40</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="51">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="52">
         <v>115</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="52">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="60">
-        <v>0</v>
-      </c>
-      <c r="I16" s="60">
+      <c r="H16" s="54">
+        <v>0</v>
+      </c>
+      <c r="I16" s="54">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -2013,33 +2003,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="57">
-        <v>1900</v>
-      </c>
-      <c r="C17" s="57">
+      <c r="A17" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="51">
+        <v>1700</v>
+      </c>
+      <c r="C17" s="51">
         <v>300</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>-1600</v>
-      </c>
-      <c r="E17" s="58">
-        <v>0</v>
-      </c>
-      <c r="F17" s="58">
+        <v>-1400</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0</v>
+      </c>
+      <c r="F17" s="52">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="60">
-        <v>0</v>
-      </c>
-      <c r="I17" s="60">
+      <c r="H17" s="54">
+        <v>0</v>
+      </c>
+      <c r="I17" s="54">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -2048,33 +2038,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="57">
-        <v>0</v>
-      </c>
-      <c r="C18" s="57">
+      <c r="A18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="51">
+        <v>0</v>
+      </c>
+      <c r="C18" s="51">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="52">
         <v>10650</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="52">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="60">
-        <v>0</v>
-      </c>
-      <c r="I18" s="60">
+      <c r="H18" s="54">
+        <v>0</v>
+      </c>
+      <c r="I18" s="54">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -2083,33 +2073,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="57">
-        <v>0</v>
-      </c>
-      <c r="C19" s="57">
+      <c r="A19" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="51">
+        <v>1110</v>
+      </c>
+      <c r="C19" s="51">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="58">
-        <v>18500</v>
-      </c>
-      <c r="F19" s="58">
-        <v>7642</v>
+        <v>-1110</v>
+      </c>
+      <c r="E19" s="52">
+        <v>5400</v>
+      </c>
+      <c r="F19" s="52">
+        <v>9192</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>-10858</v>
-      </c>
-      <c r="H19" s="60">
-        <v>0</v>
-      </c>
-      <c r="I19" s="60">
+        <v>3792</v>
+      </c>
+      <c r="H19" s="54">
+        <v>0</v>
+      </c>
+      <c r="I19" s="54">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2118,33 +2108,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="57">
+      <c r="A20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="51">
         <v>160</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="51">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="58">
-        <v>0</v>
-      </c>
-      <c r="F20" s="58">
+      <c r="E20" s="52">
+        <v>0</v>
+      </c>
+      <c r="F20" s="52">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="60">
-        <v>0</v>
-      </c>
-      <c r="I20" s="60">
+      <c r="H20" s="54">
+        <v>0</v>
+      </c>
+      <c r="I20" s="54">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2153,33 +2143,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="57">
-        <v>0</v>
-      </c>
-      <c r="C21" s="57">
+      <c r="A21" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="51">
+        <v>0</v>
+      </c>
+      <c r="C21" s="51">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="52">
         <v>156</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="52">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="60">
-        <v>0</v>
-      </c>
-      <c r="I21" s="60">
+      <c r="H21" s="54">
+        <v>0</v>
+      </c>
+      <c r="I21" s="54">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2188,33 +2178,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="57">
-        <v>0</v>
-      </c>
-      <c r="C22" s="57">
+      <c r="A22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="51">
+        <v>0</v>
+      </c>
+      <c r="C22" s="51">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="58">
-        <v>0</v>
-      </c>
-      <c r="F22" s="58">
+      <c r="E22" s="52">
+        <v>0</v>
+      </c>
+      <c r="F22" s="52">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="60">
-        <v>0</v>
-      </c>
-      <c r="I22" s="60">
+      <c r="H22" s="54">
+        <v>0</v>
+      </c>
+      <c r="I22" s="54">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2223,33 +2213,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="57">
-        <v>0</v>
-      </c>
-      <c r="C23" s="57">
+      <c r="A23" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="51">
+        <v>0</v>
+      </c>
+      <c r="C23" s="51">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="58">
-        <v>0</v>
-      </c>
-      <c r="F23" s="58">
+      <c r="E23" s="52">
+        <v>0</v>
+      </c>
+      <c r="F23" s="52">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="54">
         <v>3000</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="54">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2258,33 +2248,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="57">
-        <v>0</v>
-      </c>
-      <c r="C24" s="57">
+      <c r="A24" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="51">
+        <v>0</v>
+      </c>
+      <c r="C24" s="51">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="58">
-        <v>0</v>
-      </c>
-      <c r="F24" s="58">
+      <c r="E24" s="52">
+        <v>0</v>
+      </c>
+      <c r="F24" s="52">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="60">
-        <v>0</v>
-      </c>
-      <c r="I24" s="60">
+      <c r="H24" s="54">
+        <v>0</v>
+      </c>
+      <c r="I24" s="54">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2293,33 +2283,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="57">
-        <v>0</v>
-      </c>
-      <c r="C25" s="57">
+      <c r="A25" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="51">
+        <v>0</v>
+      </c>
+      <c r="C25" s="51">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="58">
-        <v>0</v>
-      </c>
-      <c r="F25" s="58">
+      <c r="E25" s="52">
+        <v>0</v>
+      </c>
+      <c r="F25" s="52">
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="60">
-        <v>0</v>
-      </c>
-      <c r="I25" s="60">
+      <c r="H25" s="54">
+        <v>0</v>
+      </c>
+      <c r="I25" s="54">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2328,33 +2318,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="57">
-        <v>0</v>
-      </c>
-      <c r="C26" s="57">
+      <c r="A26" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="51">
+        <v>0</v>
+      </c>
+      <c r="C26" s="51">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="52">
         <v>656</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="52">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="60">
-        <v>0</v>
-      </c>
-      <c r="I26" s="60">
+      <c r="H26" s="54">
+        <v>0</v>
+      </c>
+      <c r="I26" s="54">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2363,33 +2353,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="57">
-        <v>0</v>
-      </c>
-      <c r="C27" s="57">
+      <c r="A27" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="51">
+        <v>0</v>
+      </c>
+      <c r="C27" s="51">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="52">
         <v>1596</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="52">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="60">
-        <v>0</v>
-      </c>
-      <c r="I27" s="60">
+      <c r="H27" s="54">
+        <v>0</v>
+      </c>
+      <c r="I27" s="54">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2398,33 +2388,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="57">
-        <v>0</v>
-      </c>
-      <c r="C28" s="57">
+      <c r="A28" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="51">
+        <v>0</v>
+      </c>
+      <c r="C28" s="51">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="58">
-        <v>3800</v>
-      </c>
-      <c r="F28" s="58">
+      <c r="E28" s="52">
+        <v>105</v>
+      </c>
+      <c r="F28" s="52">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
-        <v>-3800</v>
-      </c>
-      <c r="H28" s="60">
-        <v>0</v>
-      </c>
-      <c r="I28" s="60">
+        <v>-105</v>
+      </c>
+      <c r="H28" s="54">
+        <v>0</v>
+      </c>
+      <c r="I28" s="54">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2433,33 +2423,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="57">
-        <v>0</v>
-      </c>
-      <c r="C29" s="57">
+      <c r="A29" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="51">
+        <v>0</v>
+      </c>
+      <c r="C29" s="51">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="58">
-        <v>15836</v>
-      </c>
-      <c r="F29" s="58">
-        <v>4000</v>
+      <c r="E29" s="52">
+        <v>0</v>
+      </c>
+      <c r="F29" s="52">
+        <v>0</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
-        <v>-11836</v>
-      </c>
-      <c r="H29" s="60">
-        <v>0</v>
-      </c>
-      <c r="I29" s="60">
+        <v>0</v>
+      </c>
+      <c r="H29" s="54">
+        <v>0</v>
+      </c>
+      <c r="I29" s="54">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2468,33 +2458,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="57">
+      <c r="A30" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="51">
         <v>610</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="51">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="58">
-        <v>0</v>
-      </c>
-      <c r="F30" s="58">
+      <c r="E30" s="52">
+        <v>0</v>
+      </c>
+      <c r="F30" s="52">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="60">
-        <v>0</v>
-      </c>
-      <c r="I30" s="60">
+      <c r="H30" s="54">
+        <v>0</v>
+      </c>
+      <c r="I30" s="54">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2503,33 +2493,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="57">
-        <v>0</v>
-      </c>
-      <c r="C31" s="57">
+      <c r="A31" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="51">
+        <v>0</v>
+      </c>
+      <c r="C31" s="51">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="58">
-        <v>300</v>
-      </c>
-      <c r="F31" s="58">
+      <c r="E31" s="52">
+        <v>760</v>
+      </c>
+      <c r="F31" s="52">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
-        <v>-300</v>
-      </c>
-      <c r="H31" s="60">
-        <v>0</v>
-      </c>
-      <c r="I31" s="60">
+        <v>-760</v>
+      </c>
+      <c r="H31" s="54">
+        <v>0</v>
+      </c>
+      <c r="I31" s="54">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2538,33 +2528,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="57">
+      <c r="A32" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="51">
         <v>5600</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="51">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="58">
-        <v>0</v>
-      </c>
-      <c r="F32" s="58">
+      <c r="E32" s="52">
+        <v>0</v>
+      </c>
+      <c r="F32" s="52">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="60">
-        <v>0</v>
-      </c>
-      <c r="I32" s="60">
+      <c r="H32" s="54">
+        <v>0</v>
+      </c>
+      <c r="I32" s="54">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2573,68 +2563,68 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="57">
-        <v>0</v>
-      </c>
-      <c r="C33" s="57">
-        <v>7033</v>
+      <c r="A33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="51">
+        <v>0</v>
+      </c>
+      <c r="C33" s="51">
+        <v>12468</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>7033</v>
-      </c>
-      <c r="E33" s="58">
-        <v>6259</v>
-      </c>
-      <c r="F33" s="58">
+        <v>12468</v>
+      </c>
+      <c r="E33" s="52">
+        <v>6005</v>
+      </c>
+      <c r="F33" s="52">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>-6259</v>
-      </c>
-      <c r="H33" s="60">
-        <v>0</v>
-      </c>
-      <c r="I33" s="60">
-        <v>100</v>
+        <v>-6005</v>
+      </c>
+      <c r="H33" s="54">
+        <v>0</v>
+      </c>
+      <c r="I33" s="54">
+        <v>860</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>860</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="57">
+      <c r="A34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="51">
         <v>15</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="51">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="52">
         <v>5600</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="52">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="60">
-        <v>0</v>
-      </c>
-      <c r="I34" s="60">
+      <c r="H34" s="54">
+        <v>0</v>
+      </c>
+      <c r="I34" s="54">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2643,33 +2633,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="57">
-        <v>0</v>
-      </c>
-      <c r="C35" s="57">
+      <c r="A35" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="51">
+        <v>0</v>
+      </c>
+      <c r="C35" s="51">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="52">
         <v>10</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="52">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="60">
-        <v>0</v>
-      </c>
-      <c r="I35" s="60">
+      <c r="H35" s="54">
+        <v>0</v>
+      </c>
+      <c r="I35" s="54">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2678,33 +2668,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="57">
-        <v>0</v>
-      </c>
-      <c r="C36" s="57">
+      <c r="A36" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="51">
+        <v>0</v>
+      </c>
+      <c r="C36" s="51">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="58">
-        <v>0</v>
-      </c>
-      <c r="F36" s="58">
+      <c r="E36" s="52">
+        <v>400</v>
+      </c>
+      <c r="F36" s="52">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="60">
-        <v>0</v>
-      </c>
-      <c r="I36" s="60">
+        <v>-400</v>
+      </c>
+      <c r="H36" s="54">
+        <v>0</v>
+      </c>
+      <c r="I36" s="54">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2713,33 +2703,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="57">
-        <v>0</v>
-      </c>
-      <c r="C37" s="57">
+      <c r="A37" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="51">
+        <v>0</v>
+      </c>
+      <c r="C37" s="51">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="58">
-        <v>0</v>
-      </c>
-      <c r="F37" s="58">
+      <c r="E37" s="52">
+        <v>0</v>
+      </c>
+      <c r="F37" s="52">
         <v>0</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="60">
-        <v>0</v>
-      </c>
-      <c r="I37" s="60">
+      <c r="H37" s="54">
+        <v>0</v>
+      </c>
+      <c r="I37" s="54">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2748,33 +2738,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="57">
+      <c r="A38" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="51">
         <v>20</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="51">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="58">
-        <v>0</v>
-      </c>
-      <c r="F38" s="58">
+      <c r="E38" s="52">
+        <v>0</v>
+      </c>
+      <c r="F38" s="52">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="60">
-        <v>0</v>
-      </c>
-      <c r="I38" s="60">
+      <c r="H38" s="54">
+        <v>0</v>
+      </c>
+      <c r="I38" s="54">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2783,33 +2773,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="57">
-        <v>0</v>
-      </c>
-      <c r="C39" s="57">
+      <c r="A39" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="51">
+        <v>0</v>
+      </c>
+      <c r="C39" s="51">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="58">
-        <v>0</v>
-      </c>
-      <c r="F39" s="58">
+      <c r="E39" s="52">
+        <v>0</v>
+      </c>
+      <c r="F39" s="52">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="60">
-        <v>0</v>
-      </c>
-      <c r="I39" s="60">
+      <c r="H39" s="54">
+        <v>0</v>
+      </c>
+      <c r="I39" s="54">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2818,33 +2808,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="57">
-        <v>0</v>
-      </c>
-      <c r="C40" s="57">
+      <c r="A40" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="51">
+        <v>0</v>
+      </c>
+      <c r="C40" s="51">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="58">
-        <v>0</v>
-      </c>
-      <c r="F40" s="58">
+      <c r="E40" s="52">
+        <v>0</v>
+      </c>
+      <c r="F40" s="52">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="60">
-        <v>0</v>
-      </c>
-      <c r="I40" s="60">
+      <c r="H40" s="54">
+        <v>0</v>
+      </c>
+      <c r="I40" s="54">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2853,33 +2843,33 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="57">
-        <v>0</v>
-      </c>
-      <c r="C41" s="57">
+      <c r="A41" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="51">
+        <v>0</v>
+      </c>
+      <c r="C41" s="51">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="58">
-        <v>239</v>
-      </c>
-      <c r="F41" s="58">
-        <v>0</v>
+      <c r="E41" s="52">
+        <v>13638</v>
+      </c>
+      <c r="F41" s="52">
+        <v>4722</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>-239</v>
-      </c>
-      <c r="H41" s="60">
-        <v>0</v>
-      </c>
-      <c r="I41" s="60">
+        <v>-8916</v>
+      </c>
+      <c r="H41" s="54">
+        <v>0</v>
+      </c>
+      <c r="I41" s="54">
         <v>0</v>
       </c>
       <c r="J41" s="6">
@@ -2888,33 +2878,33 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="57">
-        <v>500</v>
-      </c>
-      <c r="C42" s="57">
+      <c r="A42" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="51">
+        <v>0</v>
+      </c>
+      <c r="C42" s="51">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>-500</v>
-      </c>
-      <c r="E42" s="58">
-        <v>0</v>
-      </c>
-      <c r="F42" s="58">
+        <v>0</v>
+      </c>
+      <c r="E42" s="52">
+        <v>0</v>
+      </c>
+      <c r="F42" s="52">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="60">
-        <v>0</v>
-      </c>
-      <c r="I42" s="60">
+      <c r="H42" s="54">
+        <v>0</v>
+      </c>
+      <c r="I42" s="54">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2923,33 +2913,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="57">
-        <v>0</v>
-      </c>
-      <c r="C43" s="57">
-        <v>2100</v>
+      <c r="A43" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="51">
+        <v>0</v>
+      </c>
+      <c r="C43" s="51">
+        <v>1200</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="E43" s="58">
-        <v>0</v>
-      </c>
-      <c r="F43" s="58">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="52">
+        <v>0</v>
+      </c>
+      <c r="F43" s="52">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="60">
-        <v>0</v>
-      </c>
-      <c r="I43" s="60">
+      <c r="H43" s="54">
+        <v>0</v>
+      </c>
+      <c r="I43" s="54">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2958,33 +2948,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="57">
-        <v>0</v>
-      </c>
-      <c r="C44" s="57">
+      <c r="A44" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="51">
+        <v>0</v>
+      </c>
+      <c r="C44" s="51">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="52">
         <v>60</v>
       </c>
-      <c r="F44" s="58">
+      <c r="F44" s="52">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="60">
-        <v>0</v>
-      </c>
-      <c r="I44" s="60">
+      <c r="H44" s="54">
+        <v>0</v>
+      </c>
+      <c r="I44" s="54">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -2993,33 +2983,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="57">
-        <v>0</v>
-      </c>
-      <c r="C45" s="57">
+      <c r="A45" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="51">
+        <v>0</v>
+      </c>
+      <c r="C45" s="51">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="58">
-        <v>0</v>
-      </c>
-      <c r="F45" s="58">
+      <c r="E45" s="52">
+        <v>0</v>
+      </c>
+      <c r="F45" s="52">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="60">
-        <v>0</v>
-      </c>
-      <c r="I45" s="60">
+      <c r="H45" s="54">
+        <v>0</v>
+      </c>
+      <c r="I45" s="54">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -3028,33 +3018,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="57">
-        <v>0</v>
-      </c>
-      <c r="C46" s="57">
+      <c r="A46" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="51">
+        <v>0</v>
+      </c>
+      <c r="C46" s="51">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="52">
         <v>10</v>
       </c>
-      <c r="F46" s="58">
+      <c r="F46" s="52">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="60">
-        <v>0</v>
-      </c>
-      <c r="I46" s="60">
+      <c r="H46" s="54">
+        <v>0</v>
+      </c>
+      <c r="I46" s="54">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -3063,33 +3053,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="57">
-        <v>0</v>
-      </c>
-      <c r="C47" s="57">
+      <c r="A47" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="51">
+        <v>0</v>
+      </c>
+      <c r="C47" s="51">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="52">
         <v>250</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="52">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="60">
-        <v>0</v>
-      </c>
-      <c r="I47" s="60">
+      <c r="H47" s="54">
+        <v>0</v>
+      </c>
+      <c r="I47" s="54">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -3098,33 +3088,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="57">
-        <v>0</v>
-      </c>
-      <c r="C48" s="57">
+      <c r="A48" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="51">
+        <v>0</v>
+      </c>
+      <c r="C48" s="51">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="58">
-        <v>2719</v>
-      </c>
-      <c r="F48" s="58">
+      <c r="E48" s="52">
+        <v>2419</v>
+      </c>
+      <c r="F48" s="52">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
-        <v>-2719</v>
-      </c>
-      <c r="H48" s="60">
-        <v>0</v>
-      </c>
-      <c r="I48" s="60">
+        <v>-2419</v>
+      </c>
+      <c r="H48" s="54">
+        <v>0</v>
+      </c>
+      <c r="I48" s="54">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3133,33 +3123,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="57">
+      <c r="A49" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="51">
         <v>74</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="51">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="58">
-        <v>0</v>
-      </c>
-      <c r="F49" s="58">
+      <c r="E49" s="52">
+        <v>0</v>
+      </c>
+      <c r="F49" s="52">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="60">
-        <v>0</v>
-      </c>
-      <c r="I49" s="60">
+      <c r="H49" s="54">
+        <v>0</v>
+      </c>
+      <c r="I49" s="54">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3168,33 +3158,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="57">
-        <v>0</v>
-      </c>
-      <c r="C50" s="57">
+      <c r="A50" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="51">
+        <v>0</v>
+      </c>
+      <c r="C50" s="51">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="58">
-        <v>0</v>
-      </c>
-      <c r="F50" s="58">
+      <c r="E50" s="52">
+        <v>1308</v>
+      </c>
+      <c r="F50" s="52">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="60">
-        <v>0</v>
-      </c>
-      <c r="I50" s="60">
+        <v>-1308</v>
+      </c>
+      <c r="H50" s="54">
+        <v>0</v>
+      </c>
+      <c r="I50" s="54">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3203,33 +3193,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="57">
-        <v>0</v>
-      </c>
-      <c r="C51" s="57">
+      <c r="A51" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="51">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="52">
         <v>300</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="52">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="60">
-        <v>0</v>
-      </c>
-      <c r="I51" s="60">
+      <c r="H51" s="54">
+        <v>0</v>
+      </c>
+      <c r="I51" s="54">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3238,33 +3228,33 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="57">
+      <c r="A52" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="51">
         <v>250</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="51">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="58">
-        <v>0</v>
-      </c>
-      <c r="F52" s="58">
-        <v>119</v>
+      <c r="E52" s="52">
+        <v>100</v>
+      </c>
+      <c r="F52" s="52">
+        <v>0</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="H52" s="60">
-        <v>0</v>
-      </c>
-      <c r="I52" s="60">
+        <v>-100</v>
+      </c>
+      <c r="H52" s="54">
+        <v>0</v>
+      </c>
+      <c r="I52" s="54">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3273,68 +3263,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="57">
-        <v>0</v>
-      </c>
-      <c r="C53" s="57">
+      <c r="A53" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="51">
+        <v>0</v>
+      </c>
+      <c r="C53" s="51">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="58">
-        <v>87997</v>
-      </c>
-      <c r="F53" s="58">
+      <c r="E53" s="52">
+        <v>9858</v>
+      </c>
+      <c r="F53" s="52">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-87997</v>
-      </c>
-      <c r="H53" s="60">
-        <v>0</v>
-      </c>
-      <c r="I53" s="60">
-        <v>50150</v>
+        <v>-9858</v>
+      </c>
+      <c r="H53" s="54">
+        <v>19639</v>
+      </c>
+      <c r="I53" s="54">
+        <v>0</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>50150</v>
+        <v>-19639</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="57">
-        <v>0</v>
-      </c>
-      <c r="C54" s="57">
+      <c r="A54" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="51">
+        <v>0</v>
+      </c>
+      <c r="C54" s="51">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="58">
-        <v>0</v>
-      </c>
-      <c r="F54" s="58">
+      <c r="E54" s="52">
+        <v>0</v>
+      </c>
+      <c r="F54" s="52">
         <v>0</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="60">
-        <v>0</v>
-      </c>
-      <c r="I54" s="60">
+      <c r="H54" s="54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="54">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3343,33 +3333,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="57">
+      <c r="A55" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="51">
         <v>14</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="51">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="58">
-        <v>0</v>
-      </c>
-      <c r="F55" s="58">
+      <c r="E55" s="52">
+        <v>0</v>
+      </c>
+      <c r="F55" s="52">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="60">
-        <v>0</v>
-      </c>
-      <c r="I55" s="60">
+      <c r="H55" s="54">
+        <v>0</v>
+      </c>
+      <c r="I55" s="54">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3378,33 +3368,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="57">
-        <v>480</v>
-      </c>
-      <c r="C56" s="57">
+      <c r="A56" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="51">
+        <v>0</v>
+      </c>
+      <c r="C56" s="51">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
-        <v>-480</v>
-      </c>
-      <c r="E56" s="58">
-        <v>0</v>
-      </c>
-      <c r="F56" s="58">
+        <v>0</v>
+      </c>
+      <c r="E56" s="52">
+        <v>200</v>
+      </c>
+      <c r="F56" s="52">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="60">
-        <v>0</v>
-      </c>
-      <c r="I56" s="60">
+        <v>-200</v>
+      </c>
+      <c r="H56" s="54">
+        <v>0</v>
+      </c>
+      <c r="I56" s="54">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3413,33 +3403,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="57">
+      <c r="A57" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="51">
+        <v>0</v>
+      </c>
+      <c r="C57" s="51">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="52">
         <v>10</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="52">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="60">
-        <v>0</v>
-      </c>
-      <c r="I57" s="60">
+      <c r="H57" s="54">
+        <v>0</v>
+      </c>
+      <c r="I57" s="54">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3448,33 +3438,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B58" s="57">
+      <c r="A58" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="51">
         <v>600</v>
       </c>
-      <c r="C58" s="57">
+      <c r="C58" s="51">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="52">
         <v>2522</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="52">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="60">
-        <v>0</v>
-      </c>
-      <c r="I58" s="60">
+      <c r="H58" s="54">
+        <v>0</v>
+      </c>
+      <c r="I58" s="54">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3483,33 +3473,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="57">
-        <v>0</v>
-      </c>
-      <c r="C59" s="57">
+      <c r="A59" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="51">
+        <v>0</v>
+      </c>
+      <c r="C59" s="51">
         <v>0</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="58">
-        <v>0</v>
-      </c>
-      <c r="F59" s="58">
-        <v>4622</v>
+      <c r="E59" s="52">
+        <v>13913</v>
+      </c>
+      <c r="F59" s="52">
+        <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>4622</v>
-      </c>
-      <c r="H59" s="60">
-        <v>0</v>
-      </c>
-      <c r="I59" s="60">
+        <v>-13913</v>
+      </c>
+      <c r="H59" s="54">
+        <v>0</v>
+      </c>
+      <c r="I59" s="54">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3518,33 +3508,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="57">
-        <v>0</v>
-      </c>
-      <c r="C60" s="57">
+      <c r="A60" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="51">
+        <v>0</v>
+      </c>
+      <c r="C60" s="51">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="58">
-        <v>265</v>
-      </c>
-      <c r="F60" s="58">
+      <c r="E60" s="52">
+        <v>165</v>
+      </c>
+      <c r="F60" s="52">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
-        <v>-265</v>
-      </c>
-      <c r="H60" s="60">
-        <v>0</v>
-      </c>
-      <c r="I60" s="60">
+        <v>-165</v>
+      </c>
+      <c r="H60" s="54">
+        <v>0</v>
+      </c>
+      <c r="I60" s="54">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3553,33 +3543,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="57">
-        <v>0</v>
-      </c>
-      <c r="C61" s="57">
-        <v>839</v>
+      <c r="A61" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="51">
+        <v>0</v>
+      </c>
+      <c r="C61" s="51">
+        <v>6746</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
-        <v>839</v>
-      </c>
-      <c r="E61" s="58">
-        <v>0</v>
-      </c>
-      <c r="F61" s="58">
-        <v>10</v>
+        <v>6746</v>
+      </c>
+      <c r="E61" s="52">
+        <v>967</v>
+      </c>
+      <c r="F61" s="52">
+        <v>0</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H61" s="60">
-        <v>0</v>
-      </c>
-      <c r="I61" s="60">
+        <v>-967</v>
+      </c>
+      <c r="H61" s="54">
+        <v>0</v>
+      </c>
+      <c r="I61" s="54">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3588,33 +3578,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="57">
+      <c r="A62" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="51">
         <v>389</v>
       </c>
-      <c r="C62" s="57">
+      <c r="C62" s="51">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="58">
-        <v>0</v>
-      </c>
-      <c r="F62" s="58">
+      <c r="E62" s="52">
+        <v>0</v>
+      </c>
+      <c r="F62" s="52">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="60">
-        <v>0</v>
-      </c>
-      <c r="I62" s="60">
+      <c r="H62" s="54">
+        <v>0</v>
+      </c>
+      <c r="I62" s="54">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3623,33 +3613,33 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="57">
-        <v>0</v>
-      </c>
-      <c r="C63" s="57">
+      <c r="A63" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="51">
+        <v>0</v>
+      </c>
+      <c r="C63" s="51">
         <v>0</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E63" s="58">
-        <v>0</v>
-      </c>
-      <c r="F63" s="58">
-        <v>0</v>
+      <c r="E63" s="52">
+        <v>0</v>
+      </c>
+      <c r="F63" s="52">
+        <v>500</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="60">
-        <v>0</v>
-      </c>
-      <c r="I63" s="60">
+        <v>500</v>
+      </c>
+      <c r="H63" s="54">
+        <v>0</v>
+      </c>
+      <c r="I63" s="54">
         <v>0</v>
       </c>
       <c r="J63" s="6">
@@ -3658,33 +3648,33 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="57">
-        <v>0</v>
-      </c>
-      <c r="C64" s="57">
+      <c r="A64" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="51">
+        <v>0</v>
+      </c>
+      <c r="C64" s="51">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="58">
+      <c r="E64" s="52">
         <v>200</v>
       </c>
-      <c r="F64" s="58">
+      <c r="F64" s="52">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="60">
-        <v>0</v>
-      </c>
-      <c r="I64" s="60">
+      <c r="H64" s="54">
+        <v>0</v>
+      </c>
+      <c r="I64" s="54">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3693,33 +3683,33 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="57">
-        <v>0</v>
-      </c>
-      <c r="C65" s="57">
-        <v>450</v>
+      <c r="A65" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="51">
+        <v>0</v>
+      </c>
+      <c r="C65" s="51">
+        <v>0</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="E65" s="58">
-        <v>0</v>
-      </c>
-      <c r="F65" s="58">
+        <v>0</v>
+      </c>
+      <c r="E65" s="52">
+        <v>0</v>
+      </c>
+      <c r="F65" s="52">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="60">
-        <v>0</v>
-      </c>
-      <c r="I65" s="60">
+      <c r="H65" s="54">
+        <v>0</v>
+      </c>
+      <c r="I65" s="54">
         <v>0</v>
       </c>
       <c r="J65" s="6">
@@ -3728,33 +3718,33 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="57">
-        <v>0</v>
-      </c>
-      <c r="C66" s="57">
+      <c r="A66" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="51">
+        <v>0</v>
+      </c>
+      <c r="C66" s="51">
         <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="58">
-        <v>0</v>
-      </c>
-      <c r="F66" s="58">
-        <v>1062</v>
+      <c r="E66" s="52">
+        <v>0</v>
+      </c>
+      <c r="F66" s="52">
+        <v>1124</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
-        <v>1062</v>
-      </c>
-      <c r="H66" s="60">
-        <v>0</v>
-      </c>
-      <c r="I66" s="60">
+        <v>1124</v>
+      </c>
+      <c r="H66" s="54">
+        <v>0</v>
+      </c>
+      <c r="I66" s="54">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3763,33 +3753,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="57">
-        <v>0</v>
-      </c>
-      <c r="C67" s="57">
+      <c r="A67" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="51">
+        <v>0</v>
+      </c>
+      <c r="C67" s="51">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="58">
-        <v>0</v>
-      </c>
-      <c r="F67" s="58">
+      <c r="E67" s="52">
+        <v>3710</v>
+      </c>
+      <c r="F67" s="52">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="60">
-        <v>0</v>
-      </c>
-      <c r="I67" s="60">
+        <v>-3710</v>
+      </c>
+      <c r="H67" s="54">
+        <v>0</v>
+      </c>
+      <c r="I67" s="54">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3798,33 +3788,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="57">
-        <v>0</v>
-      </c>
-      <c r="C68" s="57">
+      <c r="A68" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="51">
+        <v>0</v>
+      </c>
+      <c r="C68" s="51">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E68" s="52">
         <v>16</v>
       </c>
-      <c r="F68" s="58">
+      <c r="F68" s="52">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="60">
-        <v>0</v>
-      </c>
-      <c r="I68" s="60">
+      <c r="H68" s="54">
+        <v>0</v>
+      </c>
+      <c r="I68" s="54">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3833,33 +3823,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="57">
-        <v>0</v>
-      </c>
-      <c r="C69" s="57">
+      <c r="A69" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="51">
+        <v>0</v>
+      </c>
+      <c r="C69" s="51">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="58">
-        <v>0</v>
-      </c>
-      <c r="F69" s="58">
+      <c r="E69" s="52">
+        <v>0</v>
+      </c>
+      <c r="F69" s="52">
         <v>0</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H69" s="60">
-        <v>0</v>
-      </c>
-      <c r="I69" s="60">
+      <c r="H69" s="54">
+        <v>0</v>
+      </c>
+      <c r="I69" s="54">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3868,33 +3858,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="57">
-        <v>0</v>
-      </c>
-      <c r="C70" s="57">
+      <c r="A70" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="51">
+        <v>0</v>
+      </c>
+      <c r="C70" s="51">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="52">
         <v>146</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="52">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="60">
-        <v>0</v>
-      </c>
-      <c r="I70" s="60">
+      <c r="H70" s="54">
+        <v>0</v>
+      </c>
+      <c r="I70" s="54">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3903,33 +3893,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="57">
-        <v>0</v>
-      </c>
-      <c r="C71" s="57">
+      <c r="A71" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="51">
+        <v>0</v>
+      </c>
+      <c r="C71" s="51">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="58">
-        <v>0</v>
-      </c>
-      <c r="F71" s="58">
-        <v>682</v>
+      <c r="E71" s="52">
+        <v>0</v>
+      </c>
+      <c r="F71" s="52">
+        <v>179</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>682</v>
-      </c>
-      <c r="H71" s="60">
-        <v>0</v>
-      </c>
-      <c r="I71" s="60">
+        <v>179</v>
+      </c>
+      <c r="H71" s="54">
+        <v>0</v>
+      </c>
+      <c r="I71" s="54">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3938,33 +3928,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="57">
-        <v>1850</v>
-      </c>
-      <c r="C72" s="57">
-        <v>2400</v>
+      <c r="A72" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="51">
+        <v>0</v>
+      </c>
+      <c r="C72" s="51">
+        <v>0</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="E72" s="58">
-        <v>0</v>
-      </c>
-      <c r="F72" s="58">
+        <v>0</v>
+      </c>
+      <c r="E72" s="52">
+        <v>0</v>
+      </c>
+      <c r="F72" s="52">
         <v>0</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H72" s="60">
-        <v>0</v>
-      </c>
-      <c r="I72" s="60">
+      <c r="H72" s="54">
+        <v>0</v>
+      </c>
+      <c r="I72" s="54">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -3973,33 +3963,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="57">
-        <v>0</v>
-      </c>
-      <c r="C73" s="57">
+      <c r="A73" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="51">
+        <v>0</v>
+      </c>
+      <c r="C73" s="51">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="58">
+      <c r="E73" s="52">
         <v>13083</v>
       </c>
-      <c r="F73" s="58">
+      <c r="F73" s="52">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
         <v>-13083</v>
       </c>
-      <c r="H73" s="60">
-        <v>0</v>
-      </c>
-      <c r="I73" s="60">
+      <c r="H73" s="54">
+        <v>0</v>
+      </c>
+      <c r="I73" s="54">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -4008,33 +3998,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="57">
-        <v>0</v>
-      </c>
-      <c r="C74" s="57">
+      <c r="A74" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="51">
+        <v>0</v>
+      </c>
+      <c r="C74" s="51">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="58">
-        <v>0</v>
-      </c>
-      <c r="F74" s="58">
+      <c r="E74" s="52">
+        <v>0</v>
+      </c>
+      <c r="F74" s="52">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H74" s="60">
-        <v>0</v>
-      </c>
-      <c r="I74" s="60">
+      <c r="H74" s="54">
+        <v>0</v>
+      </c>
+      <c r="I74" s="54">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -4043,33 +4033,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="57">
+      <c r="A75" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="51">
         <v>200</v>
       </c>
-      <c r="C75" s="57">
+      <c r="C75" s="51">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="58">
-        <v>0</v>
-      </c>
-      <c r="F75" s="58">
+      <c r="E75" s="52">
+        <v>0</v>
+      </c>
+      <c r="F75" s="52">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="60">
-        <v>0</v>
-      </c>
-      <c r="I75" s="60">
+      <c r="H75" s="54">
+        <v>0</v>
+      </c>
+      <c r="I75" s="54">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -4078,33 +4068,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="57">
-        <v>0</v>
-      </c>
-      <c r="C76" s="57">
+      <c r="A76" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="51">
+        <v>0</v>
+      </c>
+      <c r="C76" s="51">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="58">
-        <v>3705</v>
-      </c>
-      <c r="F76" s="58">
-        <v>0</v>
+      <c r="E76" s="52">
+        <v>20320</v>
+      </c>
+      <c r="F76" s="52">
+        <v>12437</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-3705</v>
-      </c>
-      <c r="H76" s="60">
-        <v>0</v>
-      </c>
-      <c r="I76" s="60">
+        <v>-7883</v>
+      </c>
+      <c r="H76" s="54">
+        <v>0</v>
+      </c>
+      <c r="I76" s="54">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -4113,33 +4103,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="57">
-        <v>0</v>
-      </c>
-      <c r="C77" s="57">
+      <c r="A77" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="51">
+        <v>0</v>
+      </c>
+      <c r="C77" s="51">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="58">
-        <v>333</v>
-      </c>
-      <c r="F77" s="58">
+      <c r="E77" s="52">
+        <v>233</v>
+      </c>
+      <c r="F77" s="52">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
-        <v>-333</v>
-      </c>
-      <c r="H77" s="60">
-        <v>0</v>
-      </c>
-      <c r="I77" s="60">
+        <v>-233</v>
+      </c>
+      <c r="H77" s="54">
+        <v>0</v>
+      </c>
+      <c r="I77" s="54">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4148,33 +4138,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="57">
-        <v>0</v>
-      </c>
-      <c r="C78" s="57">
+      <c r="A78" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="51">
+        <v>0</v>
+      </c>
+      <c r="C78" s="51">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="58">
-        <v>4040</v>
-      </c>
-      <c r="F78" s="58">
-        <v>2000</v>
+      <c r="E78" s="52">
+        <v>7040</v>
+      </c>
+      <c r="F78" s="52">
+        <v>6000</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
-        <v>-2040</v>
-      </c>
-      <c r="H78" s="60">
-        <v>0</v>
-      </c>
-      <c r="I78" s="60">
+        <v>-1040</v>
+      </c>
+      <c r="H78" s="54">
+        <v>0</v>
+      </c>
+      <c r="I78" s="54">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4183,33 +4173,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="57">
+      <c r="A79" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="51">
         <v>150</v>
       </c>
-      <c r="C79" s="57">
+      <c r="C79" s="51">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="58">
-        <v>0</v>
-      </c>
-      <c r="F79" s="58">
-        <v>3563</v>
+      <c r="E79" s="52">
+        <v>4516</v>
+      </c>
+      <c r="F79" s="52">
+        <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
-        <v>3563</v>
-      </c>
-      <c r="H79" s="60">
-        <v>0</v>
-      </c>
-      <c r="I79" s="60">
+        <v>-4516</v>
+      </c>
+      <c r="H79" s="54">
+        <v>0</v>
+      </c>
+      <c r="I79" s="54">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4218,33 +4208,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="57">
-        <v>0</v>
-      </c>
-      <c r="C80" s="57">
+      <c r="A80" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="51">
+        <v>0</v>
+      </c>
+      <c r="C80" s="51">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="58">
-        <v>0</v>
-      </c>
-      <c r="F80" s="58">
+      <c r="E80" s="52">
+        <v>0</v>
+      </c>
+      <c r="F80" s="52">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="60">
-        <v>0</v>
-      </c>
-      <c r="I80" s="60">
+      <c r="H80" s="54">
+        <v>0</v>
+      </c>
+      <c r="I80" s="54">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4253,33 +4243,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="57">
-        <v>0</v>
-      </c>
-      <c r="C81" s="57">
+      <c r="A81" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="51">
+        <v>0</v>
+      </c>
+      <c r="C81" s="51">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="58">
-        <v>0</v>
-      </c>
-      <c r="F81" s="58">
+      <c r="E81" s="52">
+        <v>0</v>
+      </c>
+      <c r="F81" s="52">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="60">
-        <v>0</v>
-      </c>
-      <c r="I81" s="60">
+      <c r="H81" s="54">
+        <v>0</v>
+      </c>
+      <c r="I81" s="54">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4288,33 +4278,33 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="57">
-        <v>0</v>
-      </c>
-      <c r="C82" s="57">
+      <c r="A82" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="51">
+        <v>0</v>
+      </c>
+      <c r="C82" s="51">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="58">
-        <v>0</v>
-      </c>
-      <c r="F82" s="58">
-        <v>3076</v>
+      <c r="E82" s="52">
+        <v>0</v>
+      </c>
+      <c r="F82" s="52">
+        <v>1057</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>3076</v>
-      </c>
-      <c r="H82" s="60">
-        <v>0</v>
-      </c>
-      <c r="I82" s="60">
+        <v>1057</v>
+      </c>
+      <c r="H82" s="54">
+        <v>0</v>
+      </c>
+      <c r="I82" s="54">
         <v>0</v>
       </c>
       <c r="J82" s="6">
@@ -4323,33 +4313,31 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B83" s="57">
-        <v>0</v>
-      </c>
-      <c r="C83" s="57">
+      <c r="A83" s="32"/>
+      <c r="B83" s="51">
+        <v>0</v>
+      </c>
+      <c r="C83" s="51">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="58">
-        <v>1008</v>
-      </c>
-      <c r="F83" s="58">
+      <c r="E83" s="52">
+        <v>0</v>
+      </c>
+      <c r="F83" s="52">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
-        <v>-1008</v>
-      </c>
-      <c r="H83" s="60">
-        <v>0</v>
-      </c>
-      <c r="I83" s="60">
+        <v>0</v>
+      </c>
+      <c r="H83" s="54">
+        <v>0</v>
+      </c>
+      <c r="I83" s="54">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4358,33 +4346,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="57">
-        <v>0</v>
-      </c>
-      <c r="C84" s="57">
+      <c r="A84" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="51">
+        <v>0</v>
+      </c>
+      <c r="C84" s="51">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="58">
-        <v>322</v>
-      </c>
-      <c r="F84" s="58">
+      <c r="E84" s="52">
+        <v>312</v>
+      </c>
+      <c r="F84" s="52">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
-        <v>-322</v>
-      </c>
-      <c r="H84" s="60">
-        <v>0</v>
-      </c>
-      <c r="I84" s="60">
+        <v>-312</v>
+      </c>
+      <c r="H84" s="54">
+        <v>0</v>
+      </c>
+      <c r="I84" s="54">
         <v>0</v>
       </c>
       <c r="J84" s="6">
@@ -4393,33 +4381,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="57">
+      <c r="A85" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="51">
         <v>95</v>
       </c>
-      <c r="C85" s="57">
+      <c r="C85" s="51">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="52">
         <v>200</v>
       </c>
-      <c r="F85" s="58">
+      <c r="F85" s="52">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="60">
-        <v>0</v>
-      </c>
-      <c r="I85" s="60">
+      <c r="H85" s="54">
+        <v>0</v>
+      </c>
+      <c r="I85" s="54">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4428,33 +4416,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="57">
-        <v>0</v>
-      </c>
-      <c r="C86" s="57">
+      <c r="A86" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="51">
+        <v>0</v>
+      </c>
+      <c r="C86" s="51">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="58">
-        <v>0</v>
-      </c>
-      <c r="F86" s="58">
+      <c r="E86" s="52">
+        <v>0</v>
+      </c>
+      <c r="F86" s="52">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="60">
-        <v>0</v>
-      </c>
-      <c r="I86" s="60">
+      <c r="H86" s="54">
+        <v>0</v>
+      </c>
+      <c r="I86" s="54">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4463,33 +4451,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="57">
-        <v>0</v>
-      </c>
-      <c r="C87" s="57">
+      <c r="A87" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="51">
+        <v>0</v>
+      </c>
+      <c r="C87" s="51">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="58">
-        <v>0</v>
-      </c>
-      <c r="F87" s="58">
+      <c r="E87" s="52">
+        <v>0</v>
+      </c>
+      <c r="F87" s="52">
         <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H87" s="60">
-        <v>0</v>
-      </c>
-      <c r="I87" s="60">
+      <c r="H87" s="54">
+        <v>0</v>
+      </c>
+      <c r="I87" s="54">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4498,33 +4486,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="57">
-        <v>0</v>
-      </c>
-      <c r="C88" s="57">
-        <v>900</v>
+      <c r="A88" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="51">
+        <v>0</v>
+      </c>
+      <c r="C88" s="51">
+        <v>0</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="E88" s="58">
-        <v>0</v>
-      </c>
-      <c r="F88" s="58">
+        <v>0</v>
+      </c>
+      <c r="E88" s="52">
+        <v>0</v>
+      </c>
+      <c r="F88" s="52">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="60">
-        <v>0</v>
-      </c>
-      <c r="I88" s="60">
+      <c r="H88" s="54">
+        <v>0</v>
+      </c>
+      <c r="I88" s="54">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4533,33 +4521,33 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B89" s="57">
-        <v>0</v>
-      </c>
-      <c r="C89" s="57">
+      <c r="A89" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="51">
+        <v>0</v>
+      </c>
+      <c r="C89" s="51">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="58">
-        <v>323</v>
-      </c>
-      <c r="F89" s="58">
+      <c r="E89" s="52">
+        <v>208</v>
+      </c>
+      <c r="F89" s="52">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
-        <v>-323</v>
-      </c>
-      <c r="H89" s="60">
-        <v>0</v>
-      </c>
-      <c r="I89" s="60">
+        <v>-208</v>
+      </c>
+      <c r="H89" s="54">
+        <v>0</v>
+      </c>
+      <c r="I89" s="54">
         <v>0</v>
       </c>
       <c r="J89" s="6">
@@ -4568,33 +4556,33 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="57">
-        <v>0</v>
-      </c>
-      <c r="C90" s="57">
+      <c r="A90" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="51">
+        <v>0</v>
+      </c>
+      <c r="C90" s="51">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="52">
         <v>12662</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="52">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="60">
-        <v>0</v>
-      </c>
-      <c r="I90" s="60">
+      <c r="H90" s="54">
+        <v>0</v>
+      </c>
+      <c r="I90" s="54">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4603,31 +4591,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="57">
-        <v>0</v>
-      </c>
-      <c r="C91" s="57">
+      <c r="A91" s="32"/>
+      <c r="B91" s="51">
+        <v>0</v>
+      </c>
+      <c r="C91" s="51">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="58">
-        <v>0</v>
-      </c>
-      <c r="F91" s="58">
+      <c r="E91" s="52">
+        <v>0</v>
+      </c>
+      <c r="F91" s="52">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="60">
-        <v>0</v>
-      </c>
-      <c r="I91" s="60">
+      <c r="H91" s="54">
+        <v>0</v>
+      </c>
+      <c r="I91" s="54">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4636,33 +4624,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B92" s="57">
-        <v>0</v>
-      </c>
-      <c r="C92" s="57">
-        <v>275</v>
+      <c r="A92" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="51">
+        <v>0</v>
+      </c>
+      <c r="C92" s="51">
+        <v>250</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
-        <v>275</v>
-      </c>
-      <c r="E92" s="58">
-        <v>0</v>
-      </c>
-      <c r="F92" s="58">
+        <v>250</v>
+      </c>
+      <c r="E92" s="52">
+        <v>0</v>
+      </c>
+      <c r="F92" s="52">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="60">
-        <v>0</v>
-      </c>
-      <c r="I92" s="60">
+      <c r="H92" s="54">
+        <v>0</v>
+      </c>
+      <c r="I92" s="54">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4671,33 +4659,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" s="57">
-        <v>0</v>
-      </c>
-      <c r="C93" s="57">
-        <v>2700</v>
+      <c r="A93" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="51">
+        <v>0</v>
+      </c>
+      <c r="C93" s="51">
+        <v>300</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-      <c r="E93" s="58">
-        <v>0</v>
-      </c>
-      <c r="F93" s="58">
+        <v>300</v>
+      </c>
+      <c r="E93" s="52">
+        <v>0</v>
+      </c>
+      <c r="F93" s="52">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="60">
-        <v>0</v>
-      </c>
-      <c r="I93" s="60">
+      <c r="H93" s="54">
+        <v>0</v>
+      </c>
+      <c r="I93" s="54">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4706,33 +4694,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="57">
+      <c r="A94" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="51">
         <v>7</v>
       </c>
-      <c r="C94" s="57">
+      <c r="C94" s="51">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="58">
-        <v>0</v>
-      </c>
-      <c r="F94" s="58">
+      <c r="E94" s="52">
+        <v>0</v>
+      </c>
+      <c r="F94" s="52">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="60">
-        <v>0</v>
-      </c>
-      <c r="I94" s="60">
+      <c r="H94" s="54">
+        <v>0</v>
+      </c>
+      <c r="I94" s="54">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4741,33 +4729,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="57">
-        <v>0</v>
-      </c>
-      <c r="C95" s="57">
+      <c r="A95" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="51">
+        <v>0</v>
+      </c>
+      <c r="C95" s="51">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="58">
+      <c r="E95" s="52">
         <v>21</v>
       </c>
-      <c r="F95" s="58">
+      <c r="F95" s="52">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="60">
-        <v>0</v>
-      </c>
-      <c r="I95" s="60">
+      <c r="H95" s="54">
+        <v>0</v>
+      </c>
+      <c r="I95" s="54">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4776,33 +4764,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="57">
-        <v>0</v>
-      </c>
-      <c r="C96" s="57">
+      <c r="A96" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="51">
+        <v>0</v>
+      </c>
+      <c r="C96" s="51">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="58">
-        <v>2369</v>
-      </c>
-      <c r="F96" s="58">
-        <v>0</v>
+      <c r="E96" s="52">
+        <v>24478</v>
+      </c>
+      <c r="F96" s="52">
+        <v>12915</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
-        <v>-2369</v>
-      </c>
-      <c r="H96" s="60">
-        <v>0</v>
-      </c>
-      <c r="I96" s="60">
+        <v>-11563</v>
+      </c>
+      <c r="H96" s="54">
+        <v>0</v>
+      </c>
+      <c r="I96" s="54">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4811,33 +4799,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="57">
-        <v>0</v>
-      </c>
-      <c r="C97" s="57">
+      <c r="A97" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="51">
+        <v>0</v>
+      </c>
+      <c r="C97" s="51">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="58">
-        <v>650</v>
-      </c>
-      <c r="F97" s="58">
+      <c r="E97" s="52">
+        <v>450</v>
+      </c>
+      <c r="F97" s="52">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
-        <v>-650</v>
-      </c>
-      <c r="H97" s="60">
-        <v>0</v>
-      </c>
-      <c r="I97" s="60">
+        <v>-450</v>
+      </c>
+      <c r="H97" s="54">
+        <v>0</v>
+      </c>
+      <c r="I97" s="54">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4846,33 +4834,33 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98" s="57">
-        <v>0</v>
-      </c>
-      <c r="C98" s="57">
+      <c r="A98" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="51">
+        <v>0</v>
+      </c>
+      <c r="C98" s="51">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="58">
-        <v>105</v>
-      </c>
-      <c r="F98" s="58">
+      <c r="E98" s="52">
+        <v>0</v>
+      </c>
+      <c r="F98" s="52">
         <v>0</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
-        <v>-105</v>
-      </c>
-      <c r="H98" s="60">
-        <v>0</v>
-      </c>
-      <c r="I98" s="60">
+        <v>0</v>
+      </c>
+      <c r="H98" s="54">
+        <v>0</v>
+      </c>
+      <c r="I98" s="54">
         <v>0</v>
       </c>
       <c r="J98" s="6">
@@ -4881,33 +4869,33 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" s="57">
-        <v>0</v>
-      </c>
-      <c r="C99" s="57">
+      <c r="A99" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="51">
+        <v>0</v>
+      </c>
+      <c r="C99" s="51">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="58">
-        <v>0</v>
-      </c>
-      <c r="F99" s="58">
+      <c r="E99" s="52">
+        <v>400</v>
+      </c>
+      <c r="F99" s="52">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="60">
+        <v>-400</v>
+      </c>
+      <c r="H99" s="54">
         <v>814</v>
       </c>
-      <c r="I99" s="60">
+      <c r="I99" s="54">
         <v>0</v>
       </c>
       <c r="J99" s="6">
@@ -4916,33 +4904,33 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B100" s="57">
-        <v>0</v>
-      </c>
-      <c r="C100" s="57">
+      <c r="A100" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="51">
+        <v>0</v>
+      </c>
+      <c r="C100" s="51">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="58">
-        <v>0</v>
-      </c>
-      <c r="F100" s="58">
+      <c r="E100" s="52">
+        <v>0</v>
+      </c>
+      <c r="F100" s="52">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="60">
-        <v>0</v>
-      </c>
-      <c r="I100" s="60">
+      <c r="H100" s="54">
+        <v>0</v>
+      </c>
+      <c r="I100" s="54">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4951,33 +4939,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B101" s="57">
-        <v>0</v>
-      </c>
-      <c r="C101" s="57">
+      <c r="A101" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="51">
+        <v>0</v>
+      </c>
+      <c r="C101" s="51">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="58">
-        <v>0</v>
-      </c>
-      <c r="F101" s="58">
+      <c r="E101" s="52">
+        <v>0</v>
+      </c>
+      <c r="F101" s="52">
         <v>0</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H101" s="60">
-        <v>0</v>
-      </c>
-      <c r="I101" s="60">
+      <c r="H101" s="54">
+        <v>0</v>
+      </c>
+      <c r="I101" s="54">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -4986,33 +4974,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="57">
-        <v>0</v>
-      </c>
-      <c r="C102" s="57">
+      <c r="A102" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="51">
+        <v>0</v>
+      </c>
+      <c r="C102" s="51">
         <v>0</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E102" s="58">
-        <v>0</v>
-      </c>
-      <c r="F102" s="58">
-        <v>200</v>
+      <c r="E102" s="52">
+        <v>3102</v>
+      </c>
+      <c r="F102" s="52">
+        <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="H102" s="60">
-        <v>0</v>
-      </c>
-      <c r="I102" s="60">
+        <v>-3102</v>
+      </c>
+      <c r="H102" s="54">
+        <v>0</v>
+      </c>
+      <c r="I102" s="54">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -5021,33 +5009,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" s="57">
+      <c r="A103" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="51">
         <v>50</v>
       </c>
-      <c r="C103" s="57">
+      <c r="C103" s="51">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="58">
-        <v>0</v>
-      </c>
-      <c r="F103" s="58">
+      <c r="E103" s="52">
+        <v>0</v>
+      </c>
+      <c r="F103" s="52">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="60">
-        <v>0</v>
-      </c>
-      <c r="I103" s="60">
+      <c r="H103" s="54">
+        <v>0</v>
+      </c>
+      <c r="I103" s="54">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -5056,33 +5044,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="57">
-        <v>0</v>
-      </c>
-      <c r="C104" s="57">
+      <c r="A104" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104" s="51">
+        <v>0</v>
+      </c>
+      <c r="C104" s="51">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="58">
-        <v>35259</v>
-      </c>
-      <c r="F104" s="58">
+      <c r="E104" s="52">
+        <v>11715</v>
+      </c>
+      <c r="F104" s="52">
         <v>0</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>-35259</v>
-      </c>
-      <c r="H104" s="60">
-        <v>0</v>
-      </c>
-      <c r="I104" s="60">
+        <v>-11715</v>
+      </c>
+      <c r="H104" s="54">
+        <v>0</v>
+      </c>
+      <c r="I104" s="54">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -5091,33 +5079,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="57">
-        <v>0</v>
-      </c>
-      <c r="C105" s="57">
+      <c r="A105" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="51">
+        <v>0</v>
+      </c>
+      <c r="C105" s="51">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="58">
-        <v>0</v>
-      </c>
-      <c r="F105" s="58">
-        <v>37554</v>
+      <c r="E105" s="52">
+        <v>121445</v>
+      </c>
+      <c r="F105" s="52">
+        <v>0</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>37554</v>
-      </c>
-      <c r="H105" s="60">
-        <v>0</v>
-      </c>
-      <c r="I105" s="60">
+        <v>-121445</v>
+      </c>
+      <c r="H105" s="54">
+        <v>0</v>
+      </c>
+      <c r="I105" s="54">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5126,33 +5114,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="57">
-        <v>0</v>
-      </c>
-      <c r="C106" s="57">
+      <c r="A106" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="51">
+        <v>0</v>
+      </c>
+      <c r="C106" s="51">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="58">
+      <c r="E106" s="52">
         <v>300</v>
       </c>
-      <c r="F106" s="58">
+      <c r="F106" s="52">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="60">
-        <v>0</v>
-      </c>
-      <c r="I106" s="60">
+      <c r="H106" s="54">
+        <v>0</v>
+      </c>
+      <c r="I106" s="54">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5161,33 +5149,33 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B107" s="57">
-        <v>0</v>
-      </c>
-      <c r="C107" s="57">
+      <c r="A107" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="51">
+        <v>0</v>
+      </c>
+      <c r="C107" s="51">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="58">
-        <v>105</v>
-      </c>
-      <c r="F107" s="58">
+      <c r="E107" s="52">
+        <v>0</v>
+      </c>
+      <c r="F107" s="52">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
-        <v>-105</v>
-      </c>
-      <c r="H107" s="60">
-        <v>0</v>
-      </c>
-      <c r="I107" s="60">
+        <v>0</v>
+      </c>
+      <c r="H107" s="54">
+        <v>0</v>
+      </c>
+      <c r="I107" s="54">
         <v>0</v>
       </c>
       <c r="J107" s="6">
@@ -5196,31 +5184,33 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
-      <c r="B108" s="57">
-        <v>0</v>
-      </c>
-      <c r="C108" s="57">
+      <c r="A108" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="51">
+        <v>0</v>
+      </c>
+      <c r="C108" s="51">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="58">
-        <v>0</v>
-      </c>
-      <c r="F108" s="58">
+      <c r="E108" s="52">
+        <v>0</v>
+      </c>
+      <c r="F108" s="52">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H108" s="60">
-        <v>0</v>
-      </c>
-      <c r="I108" s="60">
+      <c r="H108" s="54">
+        <v>0</v>
+      </c>
+      <c r="I108" s="54">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5229,31 +5219,33 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
-      <c r="B109" s="57">
-        <v>0</v>
-      </c>
-      <c r="C109" s="57">
+      <c r="A109" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="51">
+        <v>0</v>
+      </c>
+      <c r="C109" s="51">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="58">
-        <v>0</v>
-      </c>
-      <c r="F109" s="58">
+      <c r="E109" s="52">
+        <v>0</v>
+      </c>
+      <c r="F109" s="52">
         <v>0</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H109" s="60">
-        <v>0</v>
-      </c>
-      <c r="I109" s="60">
+      <c r="H109" s="54">
+        <v>0</v>
+      </c>
+      <c r="I109" s="54">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5262,33 +5254,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" s="57">
-        <v>0</v>
-      </c>
-      <c r="C110" s="57">
+      <c r="A110" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="51">
+        <v>0</v>
+      </c>
+      <c r="C110" s="51">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="58">
+      <c r="E110" s="52">
         <v>10</v>
       </c>
-      <c r="F110" s="58">
+      <c r="F110" s="52">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="60">
-        <v>0</v>
-      </c>
-      <c r="I110" s="60">
+      <c r="H110" s="54">
+        <v>0</v>
+      </c>
+      <c r="I110" s="54">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5297,33 +5289,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" s="57">
-        <v>0</v>
-      </c>
-      <c r="C111" s="57">
+      <c r="A111" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="51">
+        <v>0</v>
+      </c>
+      <c r="C111" s="51">
         <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E111" s="58">
-        <v>0</v>
-      </c>
-      <c r="F111" s="58">
+      <c r="E111" s="52">
+        <v>0</v>
+      </c>
+      <c r="F111" s="52">
         <v>0</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H111" s="60">
-        <v>0</v>
-      </c>
-      <c r="I111" s="60">
+      <c r="H111" s="54">
+        <v>0</v>
+      </c>
+      <c r="I111" s="54">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5332,33 +5324,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" s="57">
-        <v>0</v>
-      </c>
-      <c r="C112" s="57">
+      <c r="A112" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" s="51">
+        <v>0</v>
+      </c>
+      <c r="C112" s="51">
         <v>451</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
         <v>451</v>
       </c>
-      <c r="E112" s="58">
-        <v>0</v>
-      </c>
-      <c r="F112" s="58">
+      <c r="E112" s="52">
+        <v>0</v>
+      </c>
+      <c r="F112" s="52">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="60">
-        <v>0</v>
-      </c>
-      <c r="I112" s="60">
+      <c r="H112" s="54">
+        <v>0</v>
+      </c>
+      <c r="I112" s="54">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5367,31 +5359,33 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="57">
-        <v>0</v>
-      </c>
-      <c r="C113" s="57">
+      <c r="A113" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="51">
+        <v>0</v>
+      </c>
+      <c r="C113" s="51">
         <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="58">
-        <v>0</v>
-      </c>
-      <c r="F113" s="58">
+      <c r="E113" s="52">
+        <v>500</v>
+      </c>
+      <c r="F113" s="52">
         <v>0</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="60">
-        <v>0</v>
-      </c>
-      <c r="I113" s="60">
+        <v>-500</v>
+      </c>
+      <c r="H113" s="54">
+        <v>0</v>
+      </c>
+      <c r="I113" s="54">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5400,33 +5394,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="57">
-        <v>0</v>
-      </c>
-      <c r="C114" s="57">
+      <c r="A114" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="51">
+        <v>0</v>
+      </c>
+      <c r="C114" s="51">
         <v>0</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E114" s="58">
-        <v>45125</v>
-      </c>
-      <c r="F114" s="58">
+      <c r="E114" s="52">
+        <v>24910</v>
+      </c>
+      <c r="F114" s="52">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-45125</v>
-      </c>
-      <c r="H114" s="60">
-        <v>0</v>
-      </c>
-      <c r="I114" s="60">
+        <v>-24910</v>
+      </c>
+      <c r="H114" s="54">
+        <v>0</v>
+      </c>
+      <c r="I114" s="54">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5435,33 +5429,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B115" s="57">
+      <c r="A115" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" s="51">
         <v>1800</v>
       </c>
-      <c r="C115" s="57">
+      <c r="C115" s="51">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
         <v>-1800</v>
       </c>
-      <c r="E115" s="58">
-        <v>0</v>
-      </c>
-      <c r="F115" s="58">
+      <c r="E115" s="52">
+        <v>0</v>
+      </c>
+      <c r="F115" s="52">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="60">
-        <v>0</v>
-      </c>
-      <c r="I115" s="60">
+      <c r="H115" s="54">
+        <v>0</v>
+      </c>
+      <c r="I115" s="54">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5470,33 +5464,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B116" s="57">
-        <v>935</v>
-      </c>
-      <c r="C116" s="57">
-        <v>6737</v>
+      <c r="A116" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="51">
+        <v>0</v>
+      </c>
+      <c r="C116" s="51">
+        <v>2832</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
-        <v>5802</v>
-      </c>
-      <c r="E116" s="58">
-        <v>0</v>
-      </c>
-      <c r="F116" s="58">
+        <v>2832</v>
+      </c>
+      <c r="E116" s="52">
+        <v>277</v>
+      </c>
+      <c r="F116" s="52">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="60">
-        <v>0</v>
-      </c>
-      <c r="I116" s="60">
+        <v>-277</v>
+      </c>
+      <c r="H116" s="54">
+        <v>0</v>
+      </c>
+      <c r="I116" s="54">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5505,33 +5499,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B117" s="57">
-        <v>0</v>
-      </c>
-      <c r="C117" s="57">
+      <c r="A117" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" s="51">
+        <v>0</v>
+      </c>
+      <c r="C117" s="51">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E117" s="58">
-        <v>3739</v>
-      </c>
-      <c r="F117" s="58">
-        <v>3400</v>
+      <c r="E117" s="52">
+        <v>7947</v>
+      </c>
+      <c r="F117" s="52">
+        <v>8050</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
-        <v>-339</v>
-      </c>
-      <c r="H117" s="60">
-        <v>0</v>
-      </c>
-      <c r="I117" s="60">
+        <v>103</v>
+      </c>
+      <c r="H117" s="54">
+        <v>0</v>
+      </c>
+      <c r="I117" s="54">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5540,33 +5534,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B118" s="57">
-        <v>0</v>
-      </c>
-      <c r="C118" s="57">
+      <c r="A118" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" s="51">
+        <v>0</v>
+      </c>
+      <c r="C118" s="51">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="58">
+      <c r="E118" s="52">
         <v>7682</v>
       </c>
-      <c r="F118" s="58">
+      <c r="F118" s="52">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="60">
-        <v>0</v>
-      </c>
-      <c r="I118" s="60">
+      <c r="H118" s="54">
+        <v>0</v>
+      </c>
+      <c r="I118" s="54">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5575,33 +5569,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B119" s="57">
-        <v>0</v>
-      </c>
-      <c r="C119" s="57">
+      <c r="A119" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" s="51">
+        <v>600</v>
+      </c>
+      <c r="C119" s="51">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="58">
-        <v>2956</v>
-      </c>
-      <c r="F119" s="58">
+        <v>-600</v>
+      </c>
+      <c r="E119" s="52">
+        <v>1337</v>
+      </c>
+      <c r="F119" s="52">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-2956</v>
-      </c>
-      <c r="H119" s="60">
-        <v>0</v>
-      </c>
-      <c r="I119" s="60">
+        <v>-1337</v>
+      </c>
+      <c r="H119" s="54">
+        <v>0</v>
+      </c>
+      <c r="I119" s="54">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5610,33 +5604,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B120" s="57">
-        <v>0</v>
-      </c>
-      <c r="C120" s="57">
+      <c r="A120" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="51">
+        <v>300</v>
+      </c>
+      <c r="C120" s="51">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E120" s="58">
-        <v>0</v>
-      </c>
-      <c r="F120" s="58">
+        <v>-300</v>
+      </c>
+      <c r="E120" s="52">
+        <v>0</v>
+      </c>
+      <c r="F120" s="52">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H120" s="60">
-        <v>0</v>
-      </c>
-      <c r="I120" s="60">
+      <c r="H120" s="54">
+        <v>0</v>
+      </c>
+      <c r="I120" s="54">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5645,33 +5639,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B121" s="57">
-        <v>0</v>
-      </c>
-      <c r="C121" s="57">
+      <c r="A121" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" s="51">
+        <v>0</v>
+      </c>
+      <c r="C121" s="51">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="58">
+      <c r="E121" s="52">
         <v>15000</v>
       </c>
-      <c r="F121" s="58">
+      <c r="F121" s="52">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="60">
-        <v>0</v>
-      </c>
-      <c r="I121" s="60">
+      <c r="H121" s="54">
+        <v>0</v>
+      </c>
+      <c r="I121" s="54">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5680,33 +5674,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B122" s="57">
-        <v>0</v>
-      </c>
-      <c r="C122" s="57">
+      <c r="A122" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="51">
+        <v>0</v>
+      </c>
+      <c r="C122" s="51">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="58">
+      <c r="E122" s="52">
         <v>1157</v>
       </c>
-      <c r="F122" s="58">
+      <c r="F122" s="52">
         <v>1800</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
         <v>643</v>
       </c>
-      <c r="H122" s="60">
+      <c r="H122" s="54">
         <v>70</v>
       </c>
-      <c r="I122" s="60">
+      <c r="I122" s="54">
         <v>0</v>
       </c>
       <c r="J122" s="6">
@@ -5715,33 +5709,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="57">
-        <v>0</v>
-      </c>
-      <c r="C123" s="57">
+      <c r="A123" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="51">
+        <v>0</v>
+      </c>
+      <c r="C123" s="51">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E123" s="58">
-        <v>0</v>
-      </c>
-      <c r="F123" s="58">
+      <c r="E123" s="52">
+        <v>2930</v>
+      </c>
+      <c r="F123" s="52">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H123" s="60">
-        <v>0</v>
-      </c>
-      <c r="I123" s="60">
+        <v>-2930</v>
+      </c>
+      <c r="H123" s="54">
+        <v>0</v>
+      </c>
+      <c r="I123" s="54">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5750,33 +5744,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="57">
-        <v>0</v>
-      </c>
-      <c r="C124" s="57">
+      <c r="A124" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="51">
+        <v>400</v>
+      </c>
+      <c r="C124" s="51">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E124" s="58">
-        <v>0</v>
-      </c>
-      <c r="F124" s="58">
+        <v>-400</v>
+      </c>
+      <c r="E124" s="52">
+        <v>0</v>
+      </c>
+      <c r="F124" s="52">
         <v>0</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H124" s="60">
-        <v>0</v>
-      </c>
-      <c r="I124" s="60">
+      <c r="H124" s="54">
+        <v>0</v>
+      </c>
+      <c r="I124" s="54">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5785,33 +5779,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B125" s="57">
-        <v>320</v>
-      </c>
-      <c r="C125" s="57">
+      <c r="A125" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="51">
+        <v>820</v>
+      </c>
+      <c r="C125" s="51">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
-        <v>-320</v>
-      </c>
-      <c r="E125" s="58">
-        <v>60</v>
-      </c>
-      <c r="F125" s="58">
+        <v>-820</v>
+      </c>
+      <c r="E125" s="52">
+        <v>0</v>
+      </c>
+      <c r="F125" s="52">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
-        <v>-60</v>
-      </c>
-      <c r="H125" s="60">
-        <v>0</v>
-      </c>
-      <c r="I125" s="60">
+        <v>0</v>
+      </c>
+      <c r="H125" s="54">
+        <v>0</v>
+      </c>
+      <c r="I125" s="54">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5820,33 +5814,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B126" s="57">
-        <v>150</v>
-      </c>
-      <c r="C126" s="57">
-        <v>120</v>
+      <c r="A126" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="51">
+        <v>0</v>
+      </c>
+      <c r="C126" s="51">
+        <v>0</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
-        <v>-30</v>
-      </c>
-      <c r="E126" s="58">
-        <v>0</v>
-      </c>
-      <c r="F126" s="58">
-        <v>449</v>
+        <v>0</v>
+      </c>
+      <c r="E126" s="52">
+        <v>0</v>
+      </c>
+      <c r="F126" s="52">
+        <v>535</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
-        <v>449</v>
-      </c>
-      <c r="H126" s="60">
-        <v>0</v>
-      </c>
-      <c r="I126" s="60">
+        <v>535</v>
+      </c>
+      <c r="H126" s="54">
+        <v>0</v>
+      </c>
+      <c r="I126" s="54">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5855,33 +5849,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B127" s="57">
-        <v>0</v>
-      </c>
-      <c r="C127" s="57">
+      <c r="A127" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" s="51">
+        <v>0</v>
+      </c>
+      <c r="C127" s="51">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="58">
-        <v>8951</v>
-      </c>
-      <c r="F127" s="58">
+      <c r="E127" s="52">
+        <v>237444</v>
+      </c>
+      <c r="F127" s="52">
         <v>0</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
-        <v>-8951</v>
-      </c>
-      <c r="H127" s="60">
-        <v>0</v>
-      </c>
-      <c r="I127" s="60">
+        <v>-237444</v>
+      </c>
+      <c r="H127" s="54">
+        <v>0</v>
+      </c>
+      <c r="I127" s="54">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5890,33 +5884,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B128" s="57">
+      <c r="A128" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="51">
         <v>300</v>
       </c>
-      <c r="C128" s="57">
+      <c r="C128" s="51">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E128" s="58">
-        <v>0</v>
-      </c>
-      <c r="F128" s="58">
+      <c r="E128" s="52">
+        <v>0</v>
+      </c>
+      <c r="F128" s="52">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H128" s="60">
-        <v>0</v>
-      </c>
-      <c r="I128" s="60">
+      <c r="H128" s="54">
+        <v>0</v>
+      </c>
+      <c r="I128" s="54">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5925,31 +5919,33 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="57">
-        <v>0</v>
-      </c>
-      <c r="C129" s="57">
+      <c r="A129" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="51">
+        <v>0</v>
+      </c>
+      <c r="C129" s="51">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="58">
-        <v>0</v>
-      </c>
-      <c r="F129" s="58">
+      <c r="E129" s="52">
+        <v>277</v>
+      </c>
+      <c r="F129" s="52">
         <v>0</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H129" s="60">
-        <v>0</v>
-      </c>
-      <c r="I129" s="60">
+        <v>-277</v>
+      </c>
+      <c r="H129" s="54">
+        <v>0</v>
+      </c>
+      <c r="I129" s="54">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5958,33 +5954,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B130" s="57">
-        <v>270</v>
-      </c>
-      <c r="C130" s="57">
+      <c r="A130" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" s="51">
+        <v>0</v>
+      </c>
+      <c r="C130" s="51">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
-        <v>-270</v>
-      </c>
-      <c r="E130" s="58">
+        <v>0</v>
+      </c>
+      <c r="E130" s="52">
         <v>25000</v>
       </c>
-      <c r="F130" s="58">
+      <c r="F130" s="52">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
         <v>-25000</v>
       </c>
-      <c r="H130" s="60">
-        <v>0</v>
-      </c>
-      <c r="I130" s="60">
+      <c r="H130" s="54">
+        <v>0</v>
+      </c>
+      <c r="I130" s="54">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -5993,33 +5989,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B131" s="57">
-        <v>200</v>
-      </c>
-      <c r="C131" s="57">
+      <c r="A131" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="51">
+        <v>0</v>
+      </c>
+      <c r="C131" s="51">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
-        <v>-200</v>
-      </c>
-      <c r="E131" s="58">
-        <v>0</v>
-      </c>
-      <c r="F131" s="58">
-        <v>3100</v>
+        <v>0</v>
+      </c>
+      <c r="E131" s="52">
+        <v>0</v>
+      </c>
+      <c r="F131" s="52">
+        <v>0</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
-        <v>3100</v>
-      </c>
-      <c r="H131" s="60">
-        <v>0</v>
-      </c>
-      <c r="I131" s="60">
+        <v>0</v>
+      </c>
+      <c r="H131" s="54">
+        <v>0</v>
+      </c>
+      <c r="I131" s="54">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -6028,31 +6024,33 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="57">
-        <v>0</v>
-      </c>
-      <c r="C132" s="57">
+      <c r="A132" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" s="51">
+        <v>0</v>
+      </c>
+      <c r="C132" s="51">
         <v>0</v>
       </c>
       <c r="D132" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E132" s="58">
-        <v>0</v>
-      </c>
-      <c r="F132" s="58">
-        <v>0</v>
+      <c r="E132" s="52">
+        <v>0</v>
+      </c>
+      <c r="F132" s="52">
+        <v>52200</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H132" s="60">
-        <v>0</v>
-      </c>
-      <c r="I132" s="60">
+        <v>52200</v>
+      </c>
+      <c r="H132" s="54">
+        <v>0</v>
+      </c>
+      <c r="I132" s="54">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -6061,33 +6059,33 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B133" s="57">
-        <v>0</v>
-      </c>
-      <c r="C133" s="57">
+      <c r="A133" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="51">
+        <v>0</v>
+      </c>
+      <c r="C133" s="51">
         <v>0</v>
       </c>
       <c r="D133" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="58">
-        <v>878</v>
-      </c>
-      <c r="F133" s="58">
+      <c r="E133" s="52">
+        <v>1578</v>
+      </c>
+      <c r="F133" s="52">
         <v>0</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="7"/>
-        <v>-878</v>
-      </c>
-      <c r="H133" s="60">
-        <v>0</v>
-      </c>
-      <c r="I133" s="60">
+        <v>-1578</v>
+      </c>
+      <c r="H133" s="54">
+        <v>0</v>
+      </c>
+      <c r="I133" s="54">
         <v>0</v>
       </c>
       <c r="J133" s="6">
@@ -6096,33 +6094,33 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B134" s="57">
-        <v>0</v>
-      </c>
-      <c r="C134" s="57">
-        <v>55000</v>
+      <c r="A134" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="51">
+        <v>0</v>
+      </c>
+      <c r="C134" s="51">
+        <v>0</v>
       </c>
       <c r="D134" s="6">
         <f t="shared" si="6"/>
-        <v>55000</v>
-      </c>
-      <c r="E134" s="58">
-        <v>20670</v>
-      </c>
-      <c r="F134" s="58">
-        <v>3900</v>
+        <v>0</v>
+      </c>
+      <c r="E134" s="52">
+        <v>6370</v>
+      </c>
+      <c r="F134" s="52">
+        <v>5150</v>
       </c>
       <c r="G134" s="6">
         <f t="shared" si="7"/>
-        <v>-16770</v>
-      </c>
-      <c r="H134" s="60">
-        <v>0</v>
-      </c>
-      <c r="I134" s="60">
+        <v>-1220</v>
+      </c>
+      <c r="H134" s="54">
+        <v>0</v>
+      </c>
+      <c r="I134" s="54">
         <v>0</v>
       </c>
       <c r="J134" s="6">
@@ -6131,49 +6129,77 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
+      <c r="A135" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" s="51">
+        <v>0</v>
+      </c>
+      <c r="C135" s="51">
+        <v>0</v>
+      </c>
       <c r="D135" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
+      <c r="E135" s="52">
+        <v>0</v>
+      </c>
+      <c r="F135" s="52">
+        <v>404900</v>
+      </c>
       <c r="G135" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H135" s="34"/>
-      <c r="I135" s="34"/>
+        <v>404900</v>
+      </c>
+      <c r="H135" s="54">
+        <v>0</v>
+      </c>
+      <c r="I135" s="54">
+        <v>0</v>
+      </c>
       <c r="J135" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
+      <c r="A136" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="51">
+        <v>0</v>
+      </c>
+      <c r="C136" s="51">
+        <v>0</v>
+      </c>
       <c r="D136" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
+      <c r="E136" s="52">
+        <v>0</v>
+      </c>
+      <c r="F136" s="52">
+        <v>345</v>
+      </c>
       <c r="G136" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H136" s="34"/>
-      <c r="I136" s="34"/>
+        <v>345</v>
+      </c>
+      <c r="H136" s="54">
+        <v>0</v>
+      </c>
+      <c r="I136" s="54">
+        <v>0</v>
+      </c>
       <c r="J136" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="6">
@@ -6524,8 +6550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6541,19 +6567,19 @@
     <row r="1" spans="1:6" s="17" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A1" s="18"/>
       <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -6563,36 +6589,36 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>144</v>
+      <c r="A4" s="53" t="s">
+        <v>150</v>
       </c>
       <c r="B4" s="15">
-        <v>-13670</v>
+        <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>287806</v>
+        <v>85826</v>
       </c>
       <c r="D4" s="15">
-        <v>-39195</v>
+        <v>25712</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>14</v>
+      <c r="A5" s="64" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="15">
-        <v>-2150</v>
+        <v>-7722</v>
       </c>
       <c r="C5" s="15">
-        <v>-500</v>
+        <v>-1550</v>
       </c>
       <c r="D5" s="15">
         <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>15</v>
+      <c r="A6" s="64" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -6605,64 +6631,64 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-90</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15">
-        <v>1230</v>
-      </c>
-      <c r="C7" s="15">
-        <v>3405</v>
-      </c>
-      <c r="D7" s="15">
-        <v>-3170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>897</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>-1445</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>-1000</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>459</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>547</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>20</v>
       </c>
       <c r="B11" s="15">
         <v>0</v>
@@ -6675,22 +6701,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>-283</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>22</v>
       </c>
       <c r="B13" s="15">
         <v>0</v>
@@ -6703,22 +6729,22 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>-890</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15">
-        <v>-1890</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>24</v>
       </c>
       <c r="B15" s="15">
         <v>0</v>
@@ -6731,8 +6757,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
-        <v>25</v>
+      <c r="A16" s="59" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="15">
         <v>0</v>
@@ -6745,8 +6771,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>26</v>
+      <c r="A17" s="53" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="15">
         <v>-970</v>
@@ -6759,8 +6785,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
-        <v>27</v>
+      <c r="A18" s="65" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="15">
         <v>-40</v>
@@ -6773,22 +6799,22 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="15">
+        <v>-1400</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" s="15">
-        <v>-1600</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>29</v>
       </c>
       <c r="B20" s="15">
         <v>0</v>
@@ -6801,22 +6827,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="15">
+        <v>-1110</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3792</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="15">
-        <v>0</v>
-      </c>
-      <c r="C21" s="15">
-        <v>-10858</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="B22" s="15">
         <v>-160</v>
@@ -6829,8 +6855,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
-        <v>32</v>
+      <c r="A23" s="66" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="15">
         <v>0</v>
@@ -6843,8 +6869,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
-        <v>33</v>
+      <c r="A24" s="53" t="s">
+        <v>32</v>
       </c>
       <c r="B24" s="15">
         <v>0</v>
@@ -6857,8 +6883,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
-        <v>34</v>
+      <c r="A25" s="72" t="s">
+        <v>33</v>
       </c>
       <c r="B25" s="15">
         <v>0</v>
@@ -6871,8 +6897,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
-        <v>35</v>
+      <c r="A26" s="65" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="15">
         <v>800</v>
@@ -6885,8 +6911,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
-        <v>61</v>
+      <c r="A27" s="65" t="s">
+        <v>58</v>
       </c>
       <c r="B27" s="15">
         <v>0</v>
@@ -6899,8 +6925,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
-        <v>36</v>
+      <c r="A28" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="B28" s="15">
         <v>0</v>
@@ -6913,8 +6939,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
-        <v>37</v>
+      <c r="A29" s="53" t="s">
+        <v>36</v>
       </c>
       <c r="B29" s="15">
         <v>0</v>
@@ -6927,36 +6953,36 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
-        <v>0</v>
+      <c r="A30" s="57" t="s">
+        <v>131</v>
       </c>
       <c r="B30" s="15">
         <v>0</v>
       </c>
       <c r="C30" s="15">
-        <v>-3800</v>
+        <v>-105</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
         <v>38</v>
-      </c>
-      <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="15">
-        <v>-11836</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
-        <v>39</v>
       </c>
       <c r="B32" s="15">
         <v>-610</v>
@@ -6969,22 +6995,22 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="15">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
+        <v>-760</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
         <v>40</v>
-      </c>
-      <c r="B33" s="15">
-        <v>0</v>
-      </c>
-      <c r="C33" s="15">
-        <v>-300</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>41</v>
       </c>
       <c r="B34" s="15">
         <v>-5600</v>
@@ -6997,22 +7023,22 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="15">
+        <v>12468</v>
+      </c>
+      <c r="C35" s="15">
+        <v>-6005</v>
+      </c>
+      <c r="D35" s="15">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
         <v>42</v>
-      </c>
-      <c r="B35" s="15">
-        <v>7033</v>
-      </c>
-      <c r="C35" s="15">
-        <v>-6259</v>
-      </c>
-      <c r="D35" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
-        <v>43</v>
       </c>
       <c r="B36" s="15">
         <v>-15</v>
@@ -7025,8 +7051,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
-        <v>44</v>
+      <c r="A37" s="59" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="15">
         <v>0</v>
@@ -7039,36 +7065,36 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
-        <v>129</v>
+      <c r="A38" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="B38" s="15">
         <v>0</v>
       </c>
       <c r="C38" s="15">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D38" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="15">
+        <v>0</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" s="15">
-        <v>0</v>
-      </c>
-      <c r="C39" s="15">
-        <v>0</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
-        <v>46</v>
       </c>
       <c r="B40" s="15">
         <v>-20</v>
@@ -7081,8 +7107,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
-        <v>47</v>
+      <c r="A41" s="53" t="s">
+        <v>133</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
@@ -7095,8 +7121,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
-        <v>48</v>
+      <c r="A42" s="62" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="15">
         <v>5475</v>
@@ -7109,50 +7135,50 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="15">
+        <v>0</v>
+      </c>
+      <c r="C43" s="15">
+        <v>-8916</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="15">
+        <v>0</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="15">
-        <v>0</v>
-      </c>
-      <c r="C43" s="15">
-        <v>-239</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="76" t="s">
+      <c r="B45" s="15">
+        <v>1200</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="60" t="s">
         <v>50</v>
-      </c>
-      <c r="B44" s="15">
-        <v>-500</v>
-      </c>
-      <c r="C44" s="15">
-        <v>0</v>
-      </c>
-      <c r="D44" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="15">
-        <v>2100</v>
-      </c>
-      <c r="C45" s="15">
-        <v>0</v>
-      </c>
-      <c r="D45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
-        <v>52</v>
       </c>
       <c r="B46" s="15">
         <v>0</v>
@@ -7165,8 +7191,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
-        <v>127</v>
+      <c r="A47" s="53" t="s">
+        <v>134</v>
       </c>
       <c r="B47" s="15">
         <v>0</v>
@@ -7179,8 +7205,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
-        <v>53</v>
+      <c r="A48" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="B48" s="15">
         <v>0</v>
@@ -7193,8 +7219,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
-        <v>54</v>
+      <c r="A49" s="53" t="s">
+        <v>52</v>
       </c>
       <c r="B49" s="15">
         <v>0</v>
@@ -7207,22 +7233,22 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
-        <v>55</v>
+      <c r="A50" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="B50" s="15">
         <v>300</v>
       </c>
       <c r="C50" s="15">
-        <v>-2719</v>
+        <v>-2419</v>
       </c>
       <c r="D50" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="59" t="s">
-        <v>56</v>
+      <c r="A51" s="53" t="s">
+        <v>54</v>
       </c>
       <c r="B51" s="15">
         <v>-74</v>
@@ -7235,22 +7261,22 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
-        <v>57</v>
+      <c r="A52" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
       </c>
       <c r="C52" s="15">
-        <v>0</v>
+        <v>-1308</v>
       </c>
       <c r="D52" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
-        <v>58</v>
+      <c r="A53" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="B53" s="15">
         <v>0</v>
@@ -7263,36 +7289,36 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="73" t="s">
-        <v>59</v>
+      <c r="A54" s="67" t="s">
+        <v>56</v>
       </c>
       <c r="B54" s="15">
         <v>-250</v>
       </c>
       <c r="C54" s="15">
-        <v>119</v>
+        <v>-100</v>
       </c>
       <c r="D54" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
-        <v>60</v>
+      <c r="A55" s="53" t="s">
+        <v>57</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-87997</v>
+        <v>-9858</v>
       </c>
       <c r="D55" s="15">
-        <v>50150</v>
+        <v>-19639</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
-        <v>128</v>
+      <c r="A56" s="53" t="s">
+        <v>122</v>
       </c>
       <c r="B56" s="15">
         <v>0</v>
@@ -7305,8 +7331,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="s">
-        <v>62</v>
+      <c r="A57" s="53" t="s">
+        <v>59</v>
       </c>
       <c r="B57" s="15">
         <v>-14</v>
@@ -7319,22 +7345,22 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
-        <v>134</v>
+      <c r="A58" s="53" t="s">
+        <v>123</v>
       </c>
       <c r="B58" s="15">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="C58" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="62" t="s">
-        <v>63</v>
+      <c r="A59" s="56" t="s">
+        <v>60</v>
       </c>
       <c r="B59" s="15">
         <v>0</v>
@@ -7347,8 +7373,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="62" t="s">
-        <v>135</v>
+      <c r="A60" s="56" t="s">
+        <v>125</v>
       </c>
       <c r="B60" s="15">
         <v>-600</v>
@@ -7361,50 +7387,50 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="15">
+        <v>0</v>
+      </c>
+      <c r="C61" s="15">
+        <v>-13913</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="15">
+        <v>0</v>
+      </c>
+      <c r="C62" s="15">
+        <v>-165</v>
+      </c>
+      <c r="D62" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="15">
+        <v>6746</v>
+      </c>
+      <c r="C63" s="15">
+        <v>-967</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="B61" s="15">
-        <v>0</v>
-      </c>
-      <c r="C61" s="15">
-        <v>4622</v>
-      </c>
-      <c r="D61" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="15">
-        <v>0</v>
-      </c>
-      <c r="C62" s="15">
-        <v>-265</v>
-      </c>
-      <c r="D62" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="15">
-        <v>839</v>
-      </c>
-      <c r="C63" s="15">
-        <v>10</v>
-      </c>
-      <c r="D63" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
-        <v>67</v>
       </c>
       <c r="B64" s="15">
         <v>-389</v>
@@ -7417,22 +7443,22 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="59" t="s">
-        <v>68</v>
+      <c r="A65" s="53" t="s">
+        <v>65</v>
       </c>
       <c r="B65" s="15">
         <v>0</v>
       </c>
       <c r="C65" s="15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D65" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="59" t="s">
-        <v>69</v>
+      <c r="A66" s="53" t="s">
+        <v>66</v>
       </c>
       <c r="B66" s="15">
         <v>0</v>
@@ -7445,11 +7471,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="59" t="s">
-        <v>70</v>
+      <c r="A67" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="B67" s="15">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="C67" s="15">
         <v>0</v>
@@ -7459,36 +7485,36 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="s">
-        <v>71</v>
+      <c r="A68" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="B68" s="15">
         <v>20</v>
       </c>
       <c r="C68" s="15">
-        <v>1062</v>
+        <v>1124</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="59" t="s">
-        <v>72</v>
+      <c r="A69" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="B69" s="15">
         <v>0</v>
       </c>
       <c r="C69" s="15">
-        <v>0</v>
+        <v>-3710</v>
       </c>
       <c r="D69" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
-        <v>73</v>
+      <c r="A70" s="63" t="s">
+        <v>70</v>
       </c>
       <c r="B70" s="15">
         <v>0</v>
@@ -7501,8 +7527,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="69" t="s">
-        <v>130</v>
+      <c r="A71" s="63" t="s">
+        <v>124</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
@@ -7515,8 +7541,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
-        <v>74</v>
+      <c r="A72" s="53" t="s">
+        <v>71</v>
       </c>
       <c r="B72" s="15">
         <v>0</v>
@@ -7529,25 +7555,25 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
-        <v>136</v>
+      <c r="A73" s="53" t="s">
+        <v>126</v>
       </c>
       <c r="B73" s="15">
         <v>0</v>
       </c>
       <c r="C73" s="15">
-        <v>682</v>
+        <v>179</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
-        <v>75</v>
+      <c r="A74" s="53" t="s">
+        <v>72</v>
       </c>
       <c r="B74" s="15">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="C74" s="15">
         <v>0</v>
@@ -7557,8 +7583,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="s">
-        <v>76</v>
+      <c r="A75" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="B75" s="15">
         <v>0</v>
@@ -7571,8 +7597,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="59" t="s">
-        <v>131</v>
+      <c r="A76" s="53" t="s">
+        <v>135</v>
       </c>
       <c r="B76" s="15">
         <v>0</v>
@@ -7585,8 +7611,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
-        <v>77</v>
+      <c r="A77" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="B77" s="15">
         <v>-200</v>
@@ -7599,64 +7625,64 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="59" t="s">
+      <c r="A78" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="15">
+        <v>0</v>
+      </c>
+      <c r="C78" s="15">
+        <v>-7883</v>
+      </c>
+      <c r="D78" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="15">
+        <v>0</v>
+      </c>
+      <c r="C79" s="15">
+        <v>-233</v>
+      </c>
+      <c r="D79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="15">
+        <v>0</v>
+      </c>
+      <c r="C80" s="15">
+        <v>-1040</v>
+      </c>
+      <c r="D80" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="53" t="s">
         <v>78</v>
-      </c>
-      <c r="B78" s="15">
-        <v>0</v>
-      </c>
-      <c r="C78" s="15">
-        <v>-3705</v>
-      </c>
-      <c r="D78" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="15">
-        <v>0</v>
-      </c>
-      <c r="C79" s="15">
-        <v>-333</v>
-      </c>
-      <c r="D79" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="15">
-        <v>0</v>
-      </c>
-      <c r="C80" s="15">
-        <v>-2040</v>
-      </c>
-      <c r="D80" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="59" t="s">
-        <v>81</v>
       </c>
       <c r="B81" s="15">
         <v>-150</v>
       </c>
       <c r="C81" s="15">
-        <v>3563</v>
+        <v>-4516</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="59" t="s">
-        <v>82</v>
+      <c r="A82" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="B82" s="15">
         <v>1620</v>
@@ -7669,8 +7695,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="77" t="s">
-        <v>83</v>
+      <c r="A83" s="71" t="s">
+        <v>80</v>
       </c>
       <c r="B83" s="15">
         <v>0</v>
@@ -7683,50 +7709,48 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
-        <v>84</v>
+      <c r="A84" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="B84" s="15">
         <v>0</v>
       </c>
       <c r="C84" s="15">
-        <v>3076</v>
+        <v>1057</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="59" t="s">
-        <v>137</v>
-      </c>
+      <c r="A85" s="53"/>
       <c r="B85" s="15">
         <v>0</v>
       </c>
       <c r="C85" s="15">
-        <v>-1008</v>
+        <v>0</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
-        <v>141</v>
+      <c r="A86" s="53" t="s">
+        <v>130</v>
       </c>
       <c r="B86" s="15">
         <v>0</v>
       </c>
       <c r="C86" s="15">
-        <v>-322</v>
+        <v>-312</v>
       </c>
       <c r="D86" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="59" t="s">
-        <v>85</v>
+      <c r="A87" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B87" s="15">
         <v>-95</v>
@@ -7739,8 +7763,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="59" t="s">
-        <v>86</v>
+      <c r="A88" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="B88" s="15">
         <v>0</v>
@@ -7753,8 +7777,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
-        <v>87</v>
+      <c r="A89" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
@@ -7767,11 +7791,11 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="59" t="s">
-        <v>88</v>
+      <c r="A90" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="B90" s="15">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="C90" s="15">
         <v>0</v>
@@ -7781,22 +7805,22 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="59" t="s">
-        <v>138</v>
+      <c r="A91" s="53" t="s">
+        <v>128</v>
       </c>
       <c r="B91" s="15">
         <v>0</v>
       </c>
       <c r="C91" s="15">
-        <v>-323</v>
+        <v>-208</v>
       </c>
       <c r="D91" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="59" t="s">
-        <v>89</v>
+      <c r="A92" s="53" t="s">
+        <v>86</v>
       </c>
       <c r="B92" s="15">
         <v>0</v>
@@ -7809,7 +7833,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
+      <c r="A93" s="53"/>
       <c r="B93" s="15">
         <v>0</v>
       </c>
@@ -7821,11 +7845,11 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="59" t="s">
-        <v>139</v>
+      <c r="A94" s="53" t="s">
+        <v>129</v>
       </c>
       <c r="B94" s="15">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C94" s="15">
         <v>0</v>
@@ -7835,11 +7859,11 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="59" t="s">
-        <v>90</v>
+      <c r="A95" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="B95" s="15">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="C95" s="15">
         <v>0</v>
@@ -7849,8 +7873,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="59" t="s">
-        <v>91</v>
+      <c r="A96" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B96" s="15">
         <v>-7</v>
@@ -7863,8 +7887,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="59" t="s">
-        <v>92</v>
+      <c r="A97" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="B97" s="15">
         <v>0</v>
@@ -7877,64 +7901,64 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="59" t="s">
-        <v>93</v>
+      <c r="A98" s="53" t="s">
+        <v>90</v>
       </c>
       <c r="B98" s="15">
         <v>0</v>
       </c>
       <c r="C98" s="15">
-        <v>-2369</v>
+        <v>-11563</v>
       </c>
       <c r="D98" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="59" t="s">
-        <v>94</v>
+      <c r="A99" s="53" t="s">
+        <v>91</v>
       </c>
       <c r="B99" s="15">
         <v>0</v>
       </c>
       <c r="C99" s="15">
-        <v>-650</v>
+        <v>-450</v>
       </c>
       <c r="D99" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
-        <v>142</v>
+      <c r="A100" s="53" t="s">
+        <v>136</v>
       </c>
       <c r="B100" s="15">
         <v>0</v>
       </c>
       <c r="C100" s="15">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="D100" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="s">
-        <v>95</v>
+      <c r="A101" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="B101" s="15">
         <v>0</v>
       </c>
       <c r="C101" s="15">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D101" s="15">
         <v>-814</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="59" t="s">
-        <v>96</v>
+      <c r="A102" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="B102" s="15">
         <v>0</v>
@@ -7947,8 +7971,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="59" t="s">
-        <v>97</v>
+      <c r="A103" s="53" t="s">
+        <v>94</v>
       </c>
       <c r="B103" s="15">
         <v>0</v>
@@ -7960,23 +7984,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="79" t="s">
-        <v>140</v>
+    <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="53" t="s">
+        <v>137</v>
       </c>
       <c r="B104" s="15">
         <v>0</v>
       </c>
       <c r="C104" s="15">
-        <v>200</v>
+        <v>-3102</v>
       </c>
       <c r="D104" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="s">
-        <v>98</v>
+      <c r="A105" s="53" t="s">
+        <v>95</v>
       </c>
       <c r="B105" s="15">
         <v>-50</v>
@@ -7989,36 +8013,36 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="59" t="s">
-        <v>99</v>
+      <c r="A106" s="53" t="s">
+        <v>96</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
       </c>
       <c r="C106" s="15">
-        <v>-35259</v>
+        <v>-11715</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="59" t="s">
-        <v>100</v>
+      <c r="A107" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="B107" s="15">
         <v>0</v>
       </c>
       <c r="C107" s="15">
-        <v>37554</v>
+        <v>-121445</v>
       </c>
       <c r="D107" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="59" t="s">
-        <v>101</v>
+      <c r="A108" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="B108" s="15">
         <v>245</v>
@@ -8031,21 +8055,23 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
-        <v>143</v>
+      <c r="A109" s="53" t="s">
+        <v>138</v>
       </c>
       <c r="B109" s="15">
         <v>0</v>
       </c>
       <c r="C109" s="15">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="D109" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
+      <c r="A110" s="53" t="s">
+        <v>139</v>
+      </c>
       <c r="B110" s="15">
         <v>0</v>
       </c>
@@ -8057,7 +8083,9 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
+      <c r="A111" s="53" t="s">
+        <v>140</v>
+      </c>
       <c r="B111" s="15">
         <v>0</v>
       </c>
@@ -8069,8 +8097,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="62" t="s">
-        <v>102</v>
+      <c r="A112" s="56" t="s">
+        <v>99</v>
       </c>
       <c r="B112" s="15">
         <v>0</v>
@@ -8083,8 +8111,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="59" t="s">
-        <v>103</v>
+      <c r="A113" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="B113" s="15">
         <v>0</v>
@@ -8097,8 +8125,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="59" t="s">
-        <v>104</v>
+      <c r="A114" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="B114" s="15">
         <v>451</v>
@@ -8111,34 +8139,36 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
+      <c r="A115" s="53" t="s">
+        <v>142</v>
+      </c>
       <c r="B115" s="15">
         <v>0</v>
       </c>
       <c r="C115" s="15">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D115" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="59" t="s">
-        <v>105</v>
+      <c r="A116" s="53" t="s">
+        <v>101</v>
       </c>
       <c r="B116" s="15">
         <v>0</v>
       </c>
       <c r="C116" s="15">
-        <v>-45125</v>
+        <v>-24910</v>
       </c>
       <c r="D116" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="59" t="s">
-        <v>106</v>
+      <c r="A117" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="B117" s="15">
         <v>-1800</v>
@@ -8151,36 +8181,36 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="59" t="s">
-        <v>107</v>
+      <c r="A118" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="B118" s="15">
-        <v>5802</v>
+        <v>2832</v>
       </c>
       <c r="C118" s="15">
-        <v>0</v>
+        <v>-277</v>
       </c>
       <c r="D118" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="59" t="s">
-        <v>108</v>
+      <c r="A119" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="B119" s="15">
         <v>0</v>
       </c>
       <c r="C119" s="15">
-        <v>-339</v>
+        <v>103</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="59" t="s">
-        <v>109</v>
+      <c r="A120" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="B120" s="15">
         <v>23800</v>
@@ -8193,25 +8223,25 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="59" t="s">
-        <v>110</v>
+      <c r="A121" s="53" t="s">
+        <v>106</v>
       </c>
       <c r="B121" s="15">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C121" s="15">
-        <v>-2956</v>
+        <v>-1337</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="59" t="s">
-        <v>111</v>
+      <c r="A122" s="53" t="s">
+        <v>107</v>
       </c>
       <c r="B122" s="15">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C122" s="15">
         <v>0</v>
@@ -8221,8 +8251,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="59" t="s">
-        <v>112</v>
+      <c r="A123" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="B123" s="15">
         <v>0</v>
@@ -8235,8 +8265,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="59" t="s">
-        <v>113</v>
+      <c r="A124" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="B124" s="15">
         <v>0</v>
@@ -8249,25 +8279,25 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="59" t="s">
-        <v>132</v>
+      <c r="A125" s="53" t="s">
+        <v>143</v>
       </c>
       <c r="B125" s="15">
         <v>0</v>
       </c>
       <c r="C125" s="15">
-        <v>0</v>
+        <v>-2930</v>
       </c>
       <c r="D125" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="59" t="s">
-        <v>133</v>
+      <c r="A126" s="53" t="s">
+        <v>144</v>
       </c>
       <c r="B126" s="15">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C126" s="15">
         <v>0</v>
@@ -8277,50 +8307,50 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="59" t="s">
-        <v>114</v>
+      <c r="A127" s="53" t="s">
+        <v>110</v>
       </c>
       <c r="B127" s="15">
-        <v>-320</v>
+        <v>-820</v>
       </c>
       <c r="C127" s="15">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D127" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="59" t="s">
-        <v>115</v>
+      <c r="A128" s="53" t="s">
+        <v>111</v>
       </c>
       <c r="B128" s="15">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="C128" s="15">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="D128" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="59" t="s">
-        <v>116</v>
+      <c r="A129" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="B129" s="15">
         <v>0</v>
       </c>
       <c r="C129" s="15">
-        <v>-8951</v>
+        <v>-237444</v>
       </c>
       <c r="D129" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="59" t="s">
-        <v>117</v>
+      <c r="A130" s="53" t="s">
+        <v>112</v>
       </c>
       <c r="B130" s="15">
         <v>-300</v>
@@ -8333,23 +8363,25 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="59"/>
+      <c r="A131" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="B131" s="15">
         <v>0</v>
       </c>
       <c r="C131" s="15">
-        <v>0</v>
+        <v>-277</v>
       </c>
       <c r="D131" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="59" t="s">
-        <v>118</v>
+      <c r="A132" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="B132" s="15">
-        <v>-270</v>
+        <v>0</v>
       </c>
       <c r="C132" s="15">
         <v>-25000</v>
@@ -8359,67 +8391,91 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="59" t="s">
-        <v>119</v>
+      <c r="A133" s="53" t="s">
+        <v>114</v>
       </c>
       <c r="B133" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C133" s="15">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="59"/>
+      <c r="A134" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="B134" s="15">
         <v>0</v>
       </c>
       <c r="C134" s="15">
-        <v>0</v>
+        <v>52200</v>
       </c>
       <c r="D134" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="59" t="s">
-        <v>120</v>
+      <c r="A135" s="53" t="s">
+        <v>115</v>
       </c>
       <c r="B135" s="15">
         <v>0</v>
       </c>
       <c r="C135" s="15">
-        <v>-878</v>
+        <v>-1578</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="59" t="s">
-        <v>121</v>
+      <c r="A136" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="B136" s="15">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="C136" s="15">
-        <v>-16770</v>
+        <v>-1220</v>
       </c>
       <c r="D136" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="59"/>
+      <c r="A137" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="15">
+        <v>0</v>
+      </c>
+      <c r="C137" s="15">
+        <v>404900</v>
+      </c>
+      <c r="D137" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="33"/>
+      <c r="A138" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="15">
+        <v>0</v>
+      </c>
+      <c r="C138" s="15">
+        <v>345</v>
+      </c>
+      <c r="D138" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
+      <c r="A139" s="53"/>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
@@ -8468,15 +8524,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>79026</v>
+        <v>32811</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>16341</v>
+        <v>-14510</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>3961</v>
+        <v>3009</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8489,69 +8545,69 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B156" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="D156" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D156" s="15" t="s">
+      <c r="E156" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E156" s="15" t="s">
+      <c r="F156" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C159" s="26"/>
       <c r="D159" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="24" t="s">
         <v>6</v>
-      </c>
-      <c r="E159" s="24" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B160" s="15">
-        <v>12144</v>
+        <v>-4308</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B161" s="15">
-        <v>4989</v>
+        <v>17263</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B162" s="15">
-        <v>-1262</v>
+        <v>3127</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G162" s="15"/>
     </row>
@@ -8559,7 +8615,7 @@
       <c r="A163" s="25"/>
       <c r="C163" s="26"/>
       <c r="D163" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G163" s="15"/>
     </row>
@@ -8567,26 +8623,26 @@
       <c r="A164" s="25"/>
       <c r="C164" s="26"/>
       <c r="D164" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B165" s="15">
         <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="35"/>
-      <c r="D169" s="35"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
+      <c r="B169" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE475E-82F9-4A1D-B5FD-3DBA8DB09F41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50545DC-D877-481A-9C2C-6C654703FEA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>الشيكل</t>
   </si>
@@ -405,9 +405,6 @@
     <t xml:space="preserve">تامين سلطة النقد سمير حرزالله </t>
   </si>
   <si>
-    <t>ابوخالد الريس</t>
-  </si>
-  <si>
     <t>خالد جراده</t>
   </si>
   <si>
@@ -420,9 +417,6 @@
     <t>وفيق2</t>
   </si>
   <si>
-    <t>صامد الشريف</t>
-  </si>
-  <si>
     <t>ابوفياض</t>
   </si>
   <si>
@@ -459,9 +453,6 @@
     <t>احمد بارود جينيف</t>
   </si>
   <si>
-    <t>عمار ابوضاهر</t>
-  </si>
-  <si>
     <t>محمد رفعت مشتهى</t>
   </si>
   <si>
@@ -477,33 +468,9 @@
     <t>اسعد حموده</t>
   </si>
   <si>
-    <t>سعدو خلف</t>
-  </si>
-  <si>
-    <t>عبد الكريم القصاص</t>
-  </si>
-  <si>
-    <t>ام هيثم الشيخ علي</t>
-  </si>
-  <si>
-    <t>ام فادي ابوسيدو</t>
-  </si>
-  <si>
     <t>ميار دلول سندس</t>
   </si>
   <si>
-    <t>الدن</t>
-  </si>
-  <si>
-    <t>محمد شعت</t>
-  </si>
-  <si>
-    <t>عبد الكريم عابدين</t>
-  </si>
-  <si>
-    <t>ابوغسان الخزندار</t>
-  </si>
-  <si>
     <t>حكيم خلف</t>
   </si>
   <si>
@@ -516,9 +483,6 @@
     <t>خلدون غلة تركيا</t>
   </si>
   <si>
-    <t>خالد محمود</t>
-  </si>
-  <si>
     <t xml:space="preserve">حسن العبادله </t>
   </si>
   <si>
@@ -529,6 +493,12 @@
   </si>
   <si>
     <t>صندوق واحد صندوق كــــاظــــم 1</t>
+  </si>
+  <si>
+    <t>محمد انيس</t>
+  </si>
+  <si>
+    <t>عبد الهادي القصاص</t>
   </si>
 </sst>
 </file>
@@ -540,7 +510,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;₪&quot;\ * #,##0.00_-;_-&quot;₪&quot;\ * #,##0.00\-;_-&quot;₪&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,8 +786,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +847,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -906,7 +887,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -916,8 +897,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,137 +952,89 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma 3" xfId="6" xr:uid="{CAC05E55-69B2-484C-80E6-7F5D198782BA}"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1110,6 +1044,7 @@
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
     <cellStyle name="عادي 2" xfId="5" xr:uid="{F278A3C5-ABB1-4E13-91B8-CB6CD7EBB4BC}"/>
     <cellStyle name="عادي 3" xfId="8" xr:uid="{256B968B-35CA-4EED-8A77-3997ED530AA4}"/>
+    <cellStyle name="عادي 4" xfId="9" xr:uid="{B1E88578-E6C2-4EA2-8837-68D95CFAF75B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1447,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J136"/>
+    <sheetView rightToLeft="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,33 +1413,33 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="51">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51">
+      <c r="A2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="53">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="52">
-        <v>0</v>
-      </c>
-      <c r="F2" s="52">
-        <v>85826</v>
+      <c r="E2" s="55">
+        <v>0</v>
+      </c>
+      <c r="F2" s="55">
+        <v>29462</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
-        <v>85826</v>
-      </c>
-      <c r="H2" s="54">
-        <v>0</v>
-      </c>
-      <c r="I2" s="54">
+        <v>29462</v>
+      </c>
+      <c r="H2" s="56">
+        <v>0</v>
+      </c>
+      <c r="I2" s="56">
         <v>25712</v>
       </c>
       <c r="J2" s="6">
@@ -1513,33 +1448,33 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51">
-        <v>7722</v>
-      </c>
-      <c r="C3" s="51">
+      <c r="B3" s="53">
+        <v>0</v>
+      </c>
+      <c r="C3" s="53">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-7722</v>
-      </c>
-      <c r="E3" s="52">
+        <v>0</v>
+      </c>
+      <c r="E3" s="55">
         <v>1550</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="55">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
         <v>-1550</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="56">
         <v>40</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="56">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1548,33 +1483,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="51">
-        <v>0</v>
-      </c>
-      <c r="C4" s="51">
+      <c r="B4" s="53">
+        <v>0</v>
+      </c>
+      <c r="C4" s="53">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="52">
-        <v>0</v>
-      </c>
-      <c r="F4" s="52">
+      <c r="E4" s="55">
+        <v>0</v>
+      </c>
+      <c r="F4" s="55">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="54">
-        <v>0</v>
-      </c>
-      <c r="I4" s="54">
+      <c r="H4" s="56">
+        <v>0</v>
+      </c>
+      <c r="I4" s="56">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1583,33 +1518,33 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="51">
-        <v>0</v>
-      </c>
-      <c r="C5" s="51">
+      <c r="B5" s="53">
+        <v>0</v>
+      </c>
+      <c r="C5" s="53">
         <v>0</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="52">
-        <v>90</v>
-      </c>
-      <c r="F5" s="52">
-        <v>0</v>
+      <c r="E5" s="55">
+        <v>100</v>
+      </c>
+      <c r="F5" s="55">
+        <v>55</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>-90</v>
-      </c>
-      <c r="H5" s="54">
-        <v>0</v>
-      </c>
-      <c r="I5" s="54">
+        <v>-45</v>
+      </c>
+      <c r="H5" s="56">
+        <v>0</v>
+      </c>
+      <c r="I5" s="56">
         <v>0</v>
       </c>
       <c r="J5" s="6">
@@ -1618,33 +1553,33 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="51">
-        <v>0</v>
-      </c>
-      <c r="C6" s="51">
+      <c r="B6" s="53">
+        <v>0</v>
+      </c>
+      <c r="C6" s="53">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="52">
-        <v>0</v>
-      </c>
-      <c r="F6" s="52">
-        <v>897</v>
+      <c r="E6" s="55">
+        <v>3275</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>897</v>
-      </c>
-      <c r="H6" s="54">
-        <v>0</v>
-      </c>
-      <c r="I6" s="54">
+        <v>-3275</v>
+      </c>
+      <c r="H6" s="56">
+        <v>0</v>
+      </c>
+      <c r="I6" s="56">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1653,33 +1588,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="51">
-        <v>0</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="B7" s="53">
+        <v>0</v>
+      </c>
+      <c r="C7" s="53">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="52">
-        <v>0</v>
-      </c>
-      <c r="F7" s="52">
+      <c r="E7" s="55">
+        <v>0</v>
+      </c>
+      <c r="F7" s="55">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="54">
-        <v>0</v>
-      </c>
-      <c r="I7" s="54">
+      <c r="H7" s="56">
+        <v>0</v>
+      </c>
+      <c r="I7" s="56">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1688,33 +1623,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="51">
-        <v>0</v>
-      </c>
-      <c r="C8" s="51">
+      <c r="B8" s="53">
+        <v>0</v>
+      </c>
+      <c r="C8" s="53">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="52">
-        <v>0</v>
-      </c>
-      <c r="F8" s="52">
+      <c r="E8" s="55">
+        <v>0</v>
+      </c>
+      <c r="F8" s="55">
         <v>459</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>459</v>
       </c>
-      <c r="H8" s="54">
-        <v>0</v>
-      </c>
-      <c r="I8" s="54">
+      <c r="H8" s="56">
+        <v>0</v>
+      </c>
+      <c r="I8" s="56">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1723,33 +1658,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="51">
-        <v>0</v>
-      </c>
-      <c r="C9" s="51">
+      <c r="B9" s="53">
+        <v>0</v>
+      </c>
+      <c r="C9" s="53">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="55">
         <v>33</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="55">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="54">
-        <v>0</v>
-      </c>
-      <c r="I9" s="54">
+      <c r="H9" s="56">
+        <v>0</v>
+      </c>
+      <c r="I9" s="56">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1758,33 +1693,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="51">
-        <v>0</v>
-      </c>
-      <c r="C10" s="51">
+      <c r="B10" s="53">
+        <v>0</v>
+      </c>
+      <c r="C10" s="53">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="52">
-        <v>526</v>
-      </c>
-      <c r="F10" s="52">
-        <v>243</v>
+      <c r="E10" s="55">
+        <v>0</v>
+      </c>
+      <c r="F10" s="55">
+        <v>804</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>-283</v>
-      </c>
-      <c r="H10" s="54">
-        <v>0</v>
-      </c>
-      <c r="I10" s="54">
+        <v>804</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0</v>
+      </c>
+      <c r="I10" s="56">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1793,33 +1728,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="51">
-        <v>0</v>
-      </c>
-      <c r="C11" s="51">
+      <c r="B11" s="53">
+        <v>0</v>
+      </c>
+      <c r="C11" s="53">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="52">
-        <v>0</v>
-      </c>
-      <c r="F11" s="52">
+      <c r="E11" s="55">
+        <v>0</v>
+      </c>
+      <c r="F11" s="55">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="54">
-        <v>0</v>
-      </c>
-      <c r="I11" s="54">
+      <c r="H11" s="56">
+        <v>0</v>
+      </c>
+      <c r="I11" s="56">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1828,33 +1763,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="51">
-        <v>0</v>
-      </c>
-      <c r="C12" s="51">
+      <c r="B12" s="53">
+        <v>0</v>
+      </c>
+      <c r="C12" s="53">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="55">
         <v>890</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="55">
         <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>-890</v>
       </c>
-      <c r="H12" s="54">
-        <v>0</v>
-      </c>
-      <c r="I12" s="54">
+      <c r="H12" s="56">
+        <v>0</v>
+      </c>
+      <c r="I12" s="56">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1863,33 +1798,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="51">
-        <v>0</v>
-      </c>
-      <c r="C13" s="51">
+      <c r="B13" s="53">
+        <v>0</v>
+      </c>
+      <c r="C13" s="53">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="52">
-        <v>0</v>
-      </c>
-      <c r="F13" s="52">
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
+      <c r="F13" s="55">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="54">
-        <v>0</v>
-      </c>
-      <c r="I13" s="54">
+      <c r="H13" s="56">
+        <v>0</v>
+      </c>
+      <c r="I13" s="56">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1898,33 +1833,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51">
-        <v>0</v>
-      </c>
-      <c r="C14" s="51">
+      <c r="B14" s="53">
+        <v>0</v>
+      </c>
+      <c r="C14" s="53">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="55">
         <v>300</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="55">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H14" s="54">
-        <v>0</v>
-      </c>
-      <c r="I14" s="54">
+      <c r="H14" s="56">
+        <v>0</v>
+      </c>
+      <c r="I14" s="56">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1933,33 +1868,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="53">
         <v>1070</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="53">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="52">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52">
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="54">
-        <v>0</v>
-      </c>
-      <c r="I15" s="54">
+      <c r="H15" s="56">
+        <v>0</v>
+      </c>
+      <c r="I15" s="56">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1968,33 +1903,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="53">
         <v>40</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="53">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="55">
         <v>115</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="55">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="54">
-        <v>0</v>
-      </c>
-      <c r="I16" s="54">
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="56">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -2003,33 +1938,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="51">
-        <v>1700</v>
-      </c>
-      <c r="C17" s="51">
+      <c r="B17" s="53">
+        <v>1620</v>
+      </c>
+      <c r="C17" s="53">
         <v>300</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>-1400</v>
-      </c>
-      <c r="E17" s="52">
-        <v>0</v>
-      </c>
-      <c r="F17" s="52">
+        <v>-1320</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="54">
-        <v>0</v>
-      </c>
-      <c r="I17" s="54">
+      <c r="H17" s="56">
+        <v>0</v>
+      </c>
+      <c r="I17" s="56">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -2038,33 +1973,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="51">
-        <v>0</v>
-      </c>
-      <c r="C18" s="51">
+      <c r="B18" s="53">
+        <v>0</v>
+      </c>
+      <c r="C18" s="53">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="55">
         <v>10650</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="55">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="54">
-        <v>0</v>
-      </c>
-      <c r="I18" s="54">
+      <c r="H18" s="56">
+        <v>0</v>
+      </c>
+      <c r="I18" s="56">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -2073,33 +2008,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="51">
-        <v>1110</v>
-      </c>
-      <c r="C19" s="51">
+      <c r="B19" s="53">
+        <v>1310</v>
+      </c>
+      <c r="C19" s="53">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-1110</v>
-      </c>
-      <c r="E19" s="52">
+        <v>-1310</v>
+      </c>
+      <c r="E19" s="55">
         <v>5400</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="55">
         <v>9192</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>3792</v>
       </c>
-      <c r="H19" s="54">
-        <v>0</v>
-      </c>
-      <c r="I19" s="54">
+      <c r="H19" s="56">
+        <v>0</v>
+      </c>
+      <c r="I19" s="56">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2108,33 +2043,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="53">
         <v>160</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="53">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="52">
-        <v>0</v>
-      </c>
-      <c r="F20" s="52">
+      <c r="E20" s="55">
+        <v>0</v>
+      </c>
+      <c r="F20" s="55">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="54">
-        <v>0</v>
-      </c>
-      <c r="I20" s="54">
+      <c r="H20" s="56">
+        <v>0</v>
+      </c>
+      <c r="I20" s="56">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2143,33 +2078,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="51">
-        <v>0</v>
-      </c>
-      <c r="C21" s="51">
+      <c r="B21" s="53">
+        <v>0</v>
+      </c>
+      <c r="C21" s="53">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="55">
         <v>156</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="55">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="54">
-        <v>0</v>
-      </c>
-      <c r="I21" s="54">
+      <c r="H21" s="56">
+        <v>0</v>
+      </c>
+      <c r="I21" s="56">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2178,33 +2113,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="51">
-        <v>0</v>
-      </c>
-      <c r="C22" s="51">
+      <c r="B22" s="53">
+        <v>0</v>
+      </c>
+      <c r="C22" s="53">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="52">
-        <v>0</v>
-      </c>
-      <c r="F22" s="52">
+      <c r="E22" s="55">
+        <v>0</v>
+      </c>
+      <c r="F22" s="55">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="54">
-        <v>0</v>
-      </c>
-      <c r="I22" s="54">
+      <c r="H22" s="56">
+        <v>0</v>
+      </c>
+      <c r="I22" s="56">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2213,33 +2148,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="51">
-        <v>0</v>
-      </c>
-      <c r="C23" s="51">
+      <c r="B23" s="53">
+        <v>0</v>
+      </c>
+      <c r="C23" s="53">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="52">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52">
+      <c r="E23" s="55">
+        <v>0</v>
+      </c>
+      <c r="F23" s="55">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="54">
+      <c r="H23" s="56">
         <v>3000</v>
       </c>
-      <c r="I23" s="54">
+      <c r="I23" s="56">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2248,33 +2183,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="51">
-        <v>0</v>
-      </c>
-      <c r="C24" s="51">
+      <c r="B24" s="53">
+        <v>0</v>
+      </c>
+      <c r="C24" s="53">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="52">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52">
+      <c r="E24" s="55">
+        <v>0</v>
+      </c>
+      <c r="F24" s="55">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="54">
-        <v>0</v>
-      </c>
-      <c r="I24" s="54">
+      <c r="H24" s="56">
+        <v>0</v>
+      </c>
+      <c r="I24" s="56">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2283,33 +2218,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="51">
-        <v>0</v>
-      </c>
-      <c r="C25" s="51">
+      <c r="B25" s="53">
+        <v>0</v>
+      </c>
+      <c r="C25" s="53">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="52">
-        <v>0</v>
-      </c>
-      <c r="F25" s="52">
+      <c r="E25" s="55">
+        <v>0</v>
+      </c>
+      <c r="F25" s="55">
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="54">
-        <v>0</v>
-      </c>
-      <c r="I25" s="54">
+      <c r="H25" s="56">
+        <v>0</v>
+      </c>
+      <c r="I25" s="56">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2318,33 +2253,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="51">
-        <v>0</v>
-      </c>
-      <c r="C26" s="51">
+      <c r="B26" s="53">
+        <v>0</v>
+      </c>
+      <c r="C26" s="53">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="55">
         <v>656</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="55">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="54">
-        <v>0</v>
-      </c>
-      <c r="I26" s="54">
+      <c r="H26" s="56">
+        <v>0</v>
+      </c>
+      <c r="I26" s="56">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2353,33 +2288,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="51">
-        <v>0</v>
-      </c>
-      <c r="C27" s="51">
+      <c r="B27" s="53">
+        <v>0</v>
+      </c>
+      <c r="C27" s="53">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="55">
         <v>1596</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="55">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="54">
-        <v>0</v>
-      </c>
-      <c r="I27" s="54">
+      <c r="H27" s="56">
+        <v>0</v>
+      </c>
+      <c r="I27" s="56">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2388,33 +2323,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="51">
-        <v>0</v>
-      </c>
-      <c r="C28" s="51">
+      <c r="A28" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="53">
+        <v>0</v>
+      </c>
+      <c r="C28" s="53">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="55">
         <v>105</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="55">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>-105</v>
       </c>
-      <c r="H28" s="54">
-        <v>0</v>
-      </c>
-      <c r="I28" s="54">
+      <c r="H28" s="56">
+        <v>0</v>
+      </c>
+      <c r="I28" s="56">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2423,33 +2358,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="51">
-        <v>0</v>
-      </c>
-      <c r="C29" s="51">
+      <c r="B29" s="53">
+        <v>0</v>
+      </c>
+      <c r="C29" s="53">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="52">
-        <v>0</v>
-      </c>
-      <c r="F29" s="52">
+      <c r="E29" s="55">
+        <v>6000</v>
+      </c>
+      <c r="F29" s="55">
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="54">
-        <v>0</v>
-      </c>
-      <c r="I29" s="54">
+        <v>-6000</v>
+      </c>
+      <c r="H29" s="56">
+        <v>0</v>
+      </c>
+      <c r="I29" s="56">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2458,33 +2393,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="53">
         <v>610</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="53">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="52">
-        <v>0</v>
-      </c>
-      <c r="F30" s="52">
+      <c r="E30" s="55">
+        <v>0</v>
+      </c>
+      <c r="F30" s="55">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="54">
-        <v>0</v>
-      </c>
-      <c r="I30" s="54">
+      <c r="H30" s="56">
+        <v>0</v>
+      </c>
+      <c r="I30" s="56">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2493,33 +2428,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="51">
-        <v>0</v>
-      </c>
-      <c r="C31" s="51">
+      <c r="B31" s="53">
+        <v>0</v>
+      </c>
+      <c r="C31" s="53">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="55">
         <v>760</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="55">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>-760</v>
       </c>
-      <c r="H31" s="54">
-        <v>0</v>
-      </c>
-      <c r="I31" s="54">
+      <c r="H31" s="56">
+        <v>0</v>
+      </c>
+      <c r="I31" s="56">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2528,33 +2463,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="53">
         <v>5600</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="53">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="52">
-        <v>0</v>
-      </c>
-      <c r="F32" s="52">
+      <c r="E32" s="55">
+        <v>0</v>
+      </c>
+      <c r="F32" s="55">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="54">
-        <v>0</v>
-      </c>
-      <c r="I32" s="54">
+      <c r="H32" s="56">
+        <v>0</v>
+      </c>
+      <c r="I32" s="56">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2563,68 +2498,68 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="51">
-        <v>0</v>
-      </c>
-      <c r="C33" s="51">
-        <v>12468</v>
+      <c r="B33" s="53">
+        <v>0</v>
+      </c>
+      <c r="C33" s="53">
+        <v>68</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>12468</v>
-      </c>
-      <c r="E33" s="52">
-        <v>6005</v>
-      </c>
-      <c r="F33" s="52">
+        <v>68</v>
+      </c>
+      <c r="E33" s="55">
+        <v>5</v>
+      </c>
+      <c r="F33" s="55">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>-6005</v>
-      </c>
-      <c r="H33" s="54">
-        <v>0</v>
-      </c>
-      <c r="I33" s="54">
-        <v>860</v>
+        <v>-5</v>
+      </c>
+      <c r="H33" s="56">
+        <v>0</v>
+      </c>
+      <c r="I33" s="56">
+        <v>0</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="53">
         <v>15</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="53">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="55">
         <v>5600</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="55">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="54">
-        <v>0</v>
-      </c>
-      <c r="I34" s="54">
+      <c r="H34" s="56">
+        <v>0</v>
+      </c>
+      <c r="I34" s="56">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2633,33 +2568,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="51">
-        <v>0</v>
-      </c>
-      <c r="C35" s="51">
+      <c r="B35" s="53">
+        <v>0</v>
+      </c>
+      <c r="C35" s="53">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="55">
         <v>10</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="55">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="54">
-        <v>0</v>
-      </c>
-      <c r="I35" s="54">
+      <c r="H35" s="56">
+        <v>0</v>
+      </c>
+      <c r="I35" s="56">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2668,33 +2603,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="51">
-        <v>0</v>
-      </c>
-      <c r="C36" s="51">
+      <c r="A36" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="53">
+        <v>0</v>
+      </c>
+      <c r="C36" s="53">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="55">
         <v>400</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="55">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>-400</v>
       </c>
-      <c r="H36" s="54">
-        <v>0</v>
-      </c>
-      <c r="I36" s="54">
+      <c r="H36" s="56">
+        <v>0</v>
+      </c>
+      <c r="I36" s="56">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2703,33 +2638,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="51">
-        <v>0</v>
-      </c>
-      <c r="C37" s="51">
+      <c r="B37" s="53">
+        <v>0</v>
+      </c>
+      <c r="C37" s="53">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="52">
-        <v>0</v>
-      </c>
-      <c r="F37" s="52">
+      <c r="E37" s="55">
+        <v>0</v>
+      </c>
+      <c r="F37" s="55">
         <v>0</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="54">
-        <v>0</v>
-      </c>
-      <c r="I37" s="54">
+      <c r="H37" s="56">
+        <v>0</v>
+      </c>
+      <c r="I37" s="56">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2738,33 +2673,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="53">
         <v>20</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="53">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="52">
-        <v>0</v>
-      </c>
-      <c r="F38" s="52">
+      <c r="E38" s="55">
+        <v>0</v>
+      </c>
+      <c r="F38" s="55">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="54">
-        <v>0</v>
-      </c>
-      <c r="I38" s="54">
+      <c r="H38" s="56">
+        <v>0</v>
+      </c>
+      <c r="I38" s="56">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2773,33 +2708,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="51">
-        <v>0</v>
-      </c>
-      <c r="C39" s="51">
+      <c r="A39" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="53">
+        <v>0</v>
+      </c>
+      <c r="C39" s="53">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="52">
-        <v>0</v>
-      </c>
-      <c r="F39" s="52">
+      <c r="E39" s="55">
+        <v>1500</v>
+      </c>
+      <c r="F39" s="55">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="54">
-        <v>0</v>
-      </c>
-      <c r="I39" s="54">
+        <v>-1500</v>
+      </c>
+      <c r="H39" s="56">
+        <v>0</v>
+      </c>
+      <c r="I39" s="56">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2808,33 +2743,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="51">
-        <v>0</v>
-      </c>
-      <c r="C40" s="51">
+      <c r="B40" s="53">
+        <v>0</v>
+      </c>
+      <c r="C40" s="53">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="52">
-        <v>0</v>
-      </c>
-      <c r="F40" s="52">
+      <c r="E40" s="55">
+        <v>0</v>
+      </c>
+      <c r="F40" s="55">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="54">
-        <v>0</v>
-      </c>
-      <c r="I40" s="54">
+      <c r="H40" s="56">
+        <v>0</v>
+      </c>
+      <c r="I40" s="56">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2843,33 +2778,33 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="51">
-        <v>0</v>
-      </c>
-      <c r="C41" s="51">
+      <c r="B41" s="53">
+        <v>0</v>
+      </c>
+      <c r="C41" s="53">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="52">
-        <v>13638</v>
-      </c>
-      <c r="F41" s="52">
-        <v>4722</v>
+      <c r="E41" s="55">
+        <v>9416</v>
+      </c>
+      <c r="F41" s="55">
+        <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>-8916</v>
-      </c>
-      <c r="H41" s="54">
-        <v>0</v>
-      </c>
-      <c r="I41" s="54">
+        <v>-9416</v>
+      </c>
+      <c r="H41" s="56">
+        <v>0</v>
+      </c>
+      <c r="I41" s="56">
         <v>0</v>
       </c>
       <c r="J41" s="6">
@@ -2878,33 +2813,33 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="51">
-        <v>0</v>
-      </c>
-      <c r="C42" s="51">
+      <c r="B42" s="53">
+        <v>125</v>
+      </c>
+      <c r="C42" s="53">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="52">
-        <v>0</v>
-      </c>
-      <c r="F42" s="52">
+        <v>-125</v>
+      </c>
+      <c r="E42" s="55">
+        <v>0</v>
+      </c>
+      <c r="F42" s="55">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="54">
-        <v>0</v>
-      </c>
-      <c r="I42" s="54">
+      <c r="H42" s="56">
+        <v>0</v>
+      </c>
+      <c r="I42" s="56">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2913,33 +2848,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="51">
-        <v>0</v>
-      </c>
-      <c r="C43" s="51">
+      <c r="B43" s="53">
+        <v>0</v>
+      </c>
+      <c r="C43" s="53">
         <v>1200</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="E43" s="52">
-        <v>0</v>
-      </c>
-      <c r="F43" s="52">
+      <c r="E43" s="55">
+        <v>0</v>
+      </c>
+      <c r="F43" s="55">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="54">
-        <v>0</v>
-      </c>
-      <c r="I43" s="54">
+      <c r="H43" s="56">
+        <v>0</v>
+      </c>
+      <c r="I43" s="56">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2948,33 +2883,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="51">
-        <v>0</v>
-      </c>
-      <c r="C44" s="51">
+      <c r="B44" s="53">
+        <v>0</v>
+      </c>
+      <c r="C44" s="53">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="55">
         <v>60</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="55">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="54">
-        <v>0</v>
-      </c>
-      <c r="I44" s="54">
+      <c r="H44" s="56">
+        <v>0</v>
+      </c>
+      <c r="I44" s="56">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -2983,33 +2918,31 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="51">
-        <v>0</v>
-      </c>
-      <c r="C45" s="51">
+      <c r="A45" s="34"/>
+      <c r="B45" s="53">
+        <v>95</v>
+      </c>
+      <c r="C45" s="53">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="52">
-        <v>0</v>
-      </c>
-      <c r="F45" s="52">
+        <v>-95</v>
+      </c>
+      <c r="E45" s="55">
+        <v>0</v>
+      </c>
+      <c r="F45" s="55">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="54">
-        <v>0</v>
-      </c>
-      <c r="I45" s="54">
+      <c r="H45" s="56">
+        <v>0</v>
+      </c>
+      <c r="I45" s="56">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -3018,33 +2951,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="51">
-        <v>0</v>
-      </c>
-      <c r="C46" s="51">
+      <c r="B46" s="53">
+        <v>0</v>
+      </c>
+      <c r="C46" s="53">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="55">
         <v>10</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="55">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="54">
-        <v>0</v>
-      </c>
-      <c r="I46" s="54">
+      <c r="H46" s="56">
+        <v>0</v>
+      </c>
+      <c r="I46" s="56">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -3053,33 +2986,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="51">
-        <v>0</v>
-      </c>
-      <c r="C47" s="51">
+      <c r="B47" s="53">
+        <v>0</v>
+      </c>
+      <c r="C47" s="53">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="55">
         <v>250</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="55">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="54">
-        <v>0</v>
-      </c>
-      <c r="I47" s="54">
+      <c r="H47" s="56">
+        <v>0</v>
+      </c>
+      <c r="I47" s="56">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -3088,33 +3021,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="51">
-        <v>0</v>
-      </c>
-      <c r="C48" s="51">
+      <c r="B48" s="53">
+        <v>0</v>
+      </c>
+      <c r="C48" s="53">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="55">
         <v>2419</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="55">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>-2419</v>
       </c>
-      <c r="H48" s="54">
-        <v>0</v>
-      </c>
-      <c r="I48" s="54">
+      <c r="H48" s="56">
+        <v>0</v>
+      </c>
+      <c r="I48" s="56">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3123,33 +3056,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="51">
+      <c r="B49" s="53">
         <v>74</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="53">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="52">
-        <v>0</v>
-      </c>
-      <c r="F49" s="52">
+      <c r="E49" s="55">
+        <v>0</v>
+      </c>
+      <c r="F49" s="55">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="54">
-        <v>0</v>
-      </c>
-      <c r="I49" s="54">
+      <c r="H49" s="56">
+        <v>0</v>
+      </c>
+      <c r="I49" s="56">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3158,33 +3091,31 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="51">
-        <v>0</v>
-      </c>
-      <c r="C50" s="51">
+      <c r="A50" s="34"/>
+      <c r="B50" s="53">
+        <v>0</v>
+      </c>
+      <c r="C50" s="53">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="52">
-        <v>1308</v>
-      </c>
-      <c r="F50" s="52">
+      <c r="E50" s="55">
+        <v>0</v>
+      </c>
+      <c r="F50" s="55">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
-        <v>-1308</v>
-      </c>
-      <c r="H50" s="54">
-        <v>0</v>
-      </c>
-      <c r="I50" s="54">
+        <v>0</v>
+      </c>
+      <c r="H50" s="56">
+        <v>0</v>
+      </c>
+      <c r="I50" s="56">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3193,33 +3124,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="51">
-        <v>0</v>
-      </c>
-      <c r="C51" s="51">
+      <c r="B51" s="53">
+        <v>0</v>
+      </c>
+      <c r="C51" s="53">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="52">
+      <c r="E51" s="55">
         <v>300</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="55">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="54">
-        <v>0</v>
-      </c>
-      <c r="I51" s="54">
+      <c r="H51" s="56">
+        <v>0</v>
+      </c>
+      <c r="I51" s="56">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3228,33 +3159,33 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="51">
+      <c r="B52" s="53">
         <v>250</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="53">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="52">
+      <c r="E52" s="55">
         <v>100</v>
       </c>
-      <c r="F52" s="52">
+      <c r="F52" s="55">
         <v>0</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
         <v>-100</v>
       </c>
-      <c r="H52" s="54">
-        <v>0</v>
-      </c>
-      <c r="I52" s="54">
+      <c r="H52" s="56">
+        <v>0</v>
+      </c>
+      <c r="I52" s="56">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3263,68 +3194,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="51">
-        <v>0</v>
-      </c>
-      <c r="C53" s="51">
+      <c r="B53" s="53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="53">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="52">
-        <v>9858</v>
-      </c>
-      <c r="F53" s="52">
+      <c r="E53" s="55">
+        <v>20925</v>
+      </c>
+      <c r="F53" s="55">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-9858</v>
-      </c>
-      <c r="H53" s="54">
-        <v>19639</v>
-      </c>
-      <c r="I53" s="54">
+        <v>-20925</v>
+      </c>
+      <c r="H53" s="56">
+        <v>20354</v>
+      </c>
+      <c r="I53" s="56">
         <v>0</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>-19639</v>
+        <v>-20354</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="51">
-        <v>0</v>
-      </c>
-      <c r="C54" s="51">
+      <c r="A54" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="53">
+        <v>0</v>
+      </c>
+      <c r="C54" s="53">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="52">
-        <v>0</v>
-      </c>
-      <c r="F54" s="52">
+      <c r="E54" s="55">
+        <v>0</v>
+      </c>
+      <c r="F54" s="55">
         <v>0</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="54">
-        <v>0</v>
-      </c>
-      <c r="I54" s="54">
+      <c r="H54" s="56">
+        <v>0</v>
+      </c>
+      <c r="I54" s="56">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3333,33 +3264,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="53">
         <v>14</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="53">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="52">
-        <v>0</v>
-      </c>
-      <c r="F55" s="52">
+      <c r="E55" s="55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="55">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="54">
-        <v>0</v>
-      </c>
-      <c r="I55" s="54">
+      <c r="H55" s="56">
+        <v>0</v>
+      </c>
+      <c r="I55" s="56">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3368,33 +3299,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="51">
-        <v>0</v>
-      </c>
-      <c r="C56" s="51">
+      <c r="A56" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="53">
+        <v>0</v>
+      </c>
+      <c r="C56" s="53">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="55">
         <v>200</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="55">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H56" s="54">
-        <v>0</v>
-      </c>
-      <c r="I56" s="54">
+      <c r="H56" s="56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="56">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3403,33 +3334,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="51">
-        <v>0</v>
-      </c>
-      <c r="C57" s="51">
+      <c r="B57" s="53">
+        <v>0</v>
+      </c>
+      <c r="C57" s="53">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="52">
+      <c r="E57" s="55">
         <v>10</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="55">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="54">
-        <v>0</v>
-      </c>
-      <c r="I57" s="54">
+      <c r="H57" s="56">
+        <v>0</v>
+      </c>
+      <c r="I57" s="56">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3438,33 +3369,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="51">
+      <c r="A58" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="53">
         <v>600</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="53">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
         <v>-600</v>
       </c>
-      <c r="E58" s="52">
+      <c r="E58" s="55">
         <v>2522</v>
       </c>
-      <c r="F58" s="52">
+      <c r="F58" s="55">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="54">
-        <v>0</v>
-      </c>
-      <c r="I58" s="54">
+      <c r="H58" s="56">
+        <v>0</v>
+      </c>
+      <c r="I58" s="56">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3473,33 +3404,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="51">
-        <v>0</v>
-      </c>
-      <c r="C59" s="51">
+      <c r="B59" s="53">
+        <v>0</v>
+      </c>
+      <c r="C59" s="53">
         <v>0</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="52">
-        <v>13913</v>
-      </c>
-      <c r="F59" s="52">
+      <c r="E59" s="55">
+        <v>4395</v>
+      </c>
+      <c r="F59" s="55">
         <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>-13913</v>
-      </c>
-      <c r="H59" s="54">
-        <v>0</v>
-      </c>
-      <c r="I59" s="54">
+        <v>-4395</v>
+      </c>
+      <c r="H59" s="56">
+        <v>0</v>
+      </c>
+      <c r="I59" s="56">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3508,33 +3439,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="51">
-        <v>0</v>
-      </c>
-      <c r="C60" s="51">
+      <c r="B60" s="53">
+        <v>0</v>
+      </c>
+      <c r="C60" s="53">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="55">
         <v>165</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="55">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
         <v>-165</v>
       </c>
-      <c r="H60" s="54">
-        <v>0</v>
-      </c>
-      <c r="I60" s="54">
+      <c r="H60" s="56">
+        <v>0</v>
+      </c>
+      <c r="I60" s="56">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3543,33 +3474,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="51">
-        <v>0</v>
-      </c>
-      <c r="C61" s="51">
-        <v>6746</v>
+      <c r="B61" s="53">
+        <v>0</v>
+      </c>
+      <c r="C61" s="53">
+        <v>6776</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
-        <v>6746</v>
-      </c>
-      <c r="E61" s="52">
+        <v>6776</v>
+      </c>
+      <c r="E61" s="55">
         <v>967</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="55">
         <v>0</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
         <v>-967</v>
       </c>
-      <c r="H61" s="54">
-        <v>0</v>
-      </c>
-      <c r="I61" s="54">
+      <c r="H61" s="56">
+        <v>0</v>
+      </c>
+      <c r="I61" s="56">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3578,33 +3509,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="51">
+      <c r="B62" s="53">
         <v>389</v>
       </c>
-      <c r="C62" s="51">
+      <c r="C62" s="53">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="52">
-        <v>0</v>
-      </c>
-      <c r="F62" s="52">
+      <c r="E62" s="55">
+        <v>0</v>
+      </c>
+      <c r="F62" s="55">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="54">
-        <v>0</v>
-      </c>
-      <c r="I62" s="54">
+      <c r="H62" s="56">
+        <v>0</v>
+      </c>
+      <c r="I62" s="56">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3613,68 +3544,68 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="51">
-        <v>0</v>
-      </c>
-      <c r="C63" s="51">
-        <v>0</v>
+      <c r="B63" s="53">
+        <v>95</v>
+      </c>
+      <c r="C63" s="53">
+        <v>3000</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="52">
-        <v>0</v>
-      </c>
-      <c r="F63" s="52">
-        <v>500</v>
+        <v>2905</v>
+      </c>
+      <c r="E63" s="55">
+        <v>671</v>
+      </c>
+      <c r="F63" s="55">
+        <v>1000</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="H63" s="54">
-        <v>0</v>
-      </c>
-      <c r="I63" s="54">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="H63" s="56">
+        <v>0</v>
+      </c>
+      <c r="I63" s="56">
+        <v>240</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="51">
-        <v>0</v>
-      </c>
-      <c r="C64" s="51">
+      <c r="B64" s="53">
+        <v>0</v>
+      </c>
+      <c r="C64" s="53">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="55">
         <v>200</v>
       </c>
-      <c r="F64" s="52">
+      <c r="F64" s="55">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="54">
-        <v>0</v>
-      </c>
-      <c r="I64" s="54">
+      <c r="H64" s="56">
+        <v>0</v>
+      </c>
+      <c r="I64" s="56">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3683,33 +3614,33 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="51">
-        <v>0</v>
-      </c>
-      <c r="C65" s="51">
+      <c r="B65" s="53">
+        <v>0</v>
+      </c>
+      <c r="C65" s="53">
         <v>0</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="52">
-        <v>0</v>
-      </c>
-      <c r="F65" s="52">
+      <c r="E65" s="55">
+        <v>0</v>
+      </c>
+      <c r="F65" s="55">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="54">
-        <v>0</v>
-      </c>
-      <c r="I65" s="54">
+      <c r="H65" s="56">
+        <v>0</v>
+      </c>
+      <c r="I65" s="56">
         <v>0</v>
       </c>
       <c r="J65" s="6">
@@ -3718,33 +3649,33 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="51">
-        <v>0</v>
-      </c>
-      <c r="C66" s="51">
+      <c r="B66" s="53">
+        <v>0</v>
+      </c>
+      <c r="C66" s="53">
         <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="52">
-        <v>0</v>
-      </c>
-      <c r="F66" s="52">
+      <c r="E66" s="55">
+        <v>0</v>
+      </c>
+      <c r="F66" s="55">
         <v>1124</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
         <v>1124</v>
       </c>
-      <c r="H66" s="54">
-        <v>0</v>
-      </c>
-      <c r="I66" s="54">
+      <c r="H66" s="56">
+        <v>0</v>
+      </c>
+      <c r="I66" s="56">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3753,33 +3684,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="51">
-        <v>0</v>
-      </c>
-      <c r="C67" s="51">
+      <c r="B67" s="53">
+        <v>0</v>
+      </c>
+      <c r="C67" s="53">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="52">
-        <v>3710</v>
-      </c>
-      <c r="F67" s="52">
+      <c r="E67" s="55">
+        <v>0</v>
+      </c>
+      <c r="F67" s="55">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>-3710</v>
-      </c>
-      <c r="H67" s="54">
-        <v>0</v>
-      </c>
-      <c r="I67" s="54">
+        <v>0</v>
+      </c>
+      <c r="H67" s="56">
+        <v>0</v>
+      </c>
+      <c r="I67" s="56">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3788,33 +3719,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="51">
-        <v>0</v>
-      </c>
-      <c r="C68" s="51">
+      <c r="B68" s="53">
+        <v>0</v>
+      </c>
+      <c r="C68" s="53">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="55">
         <v>16</v>
       </c>
-      <c r="F68" s="52">
+      <c r="F68" s="55">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="54">
-        <v>0</v>
-      </c>
-      <c r="I68" s="54">
+      <c r="H68" s="56">
+        <v>0</v>
+      </c>
+      <c r="I68" s="56">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3823,33 +3754,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" s="51">
-        <v>0</v>
-      </c>
-      <c r="C69" s="51">
+      <c r="A69" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="53">
+        <v>0</v>
+      </c>
+      <c r="C69" s="53">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="52">
-        <v>0</v>
-      </c>
-      <c r="F69" s="52">
+      <c r="E69" s="55">
+        <v>0</v>
+      </c>
+      <c r="F69" s="55">
         <v>0</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H69" s="54">
-        <v>0</v>
-      </c>
-      <c r="I69" s="54">
+      <c r="H69" s="56">
+        <v>0</v>
+      </c>
+      <c r="I69" s="56">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3858,33 +3789,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="51">
-        <v>0</v>
-      </c>
-      <c r="C70" s="51">
+      <c r="B70" s="53">
+        <v>0</v>
+      </c>
+      <c r="C70" s="53">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="52">
+      <c r="E70" s="55">
         <v>146</v>
       </c>
-      <c r="F70" s="52">
+      <c r="F70" s="55">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="54">
-        <v>0</v>
-      </c>
-      <c r="I70" s="54">
+      <c r="H70" s="56">
+        <v>0</v>
+      </c>
+      <c r="I70" s="56">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3893,33 +3824,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="51">
-        <v>0</v>
-      </c>
-      <c r="C71" s="51">
+      <c r="A71" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="53">
+        <v>0</v>
+      </c>
+      <c r="C71" s="53">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="52">
-        <v>0</v>
-      </c>
-      <c r="F71" s="52">
-        <v>179</v>
+      <c r="E71" s="55">
+        <v>5633</v>
+      </c>
+      <c r="F71" s="55">
+        <v>111</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>179</v>
-      </c>
-      <c r="H71" s="54">
-        <v>0</v>
-      </c>
-      <c r="I71" s="54">
+        <v>-5522</v>
+      </c>
+      <c r="H71" s="56">
+        <v>0</v>
+      </c>
+      <c r="I71" s="56">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3928,33 +3859,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="51">
-        <v>0</v>
-      </c>
-      <c r="C72" s="51">
+      <c r="B72" s="53">
+        <v>0</v>
+      </c>
+      <c r="C72" s="53">
         <v>0</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E72" s="52">
-        <v>0</v>
-      </c>
-      <c r="F72" s="52">
-        <v>0</v>
+      <c r="E72" s="55">
+        <v>0</v>
+      </c>
+      <c r="F72" s="55">
+        <v>585</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="54">
-        <v>0</v>
-      </c>
-      <c r="I72" s="54">
+        <v>585</v>
+      </c>
+      <c r="H72" s="56">
+        <v>0</v>
+      </c>
+      <c r="I72" s="56">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -3963,33 +3894,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="51">
-        <v>0</v>
-      </c>
-      <c r="C73" s="51">
+      <c r="B73" s="53">
+        <v>0</v>
+      </c>
+      <c r="C73" s="53">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="52">
+      <c r="E73" s="55">
         <v>13083</v>
       </c>
-      <c r="F73" s="52">
+      <c r="F73" s="55">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
         <v>-13083</v>
       </c>
-      <c r="H73" s="54">
-        <v>0</v>
-      </c>
-      <c r="I73" s="54">
+      <c r="H73" s="56">
+        <v>0</v>
+      </c>
+      <c r="I73" s="56">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -3998,33 +3929,31 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="51">
-        <v>0</v>
-      </c>
-      <c r="C74" s="51">
+      <c r="A74" s="34"/>
+      <c r="B74" s="53">
+        <v>0</v>
+      </c>
+      <c r="C74" s="53">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="52">
-        <v>0</v>
-      </c>
-      <c r="F74" s="52">
+      <c r="E74" s="55">
+        <v>0</v>
+      </c>
+      <c r="F74" s="55">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H74" s="54">
-        <v>0</v>
-      </c>
-      <c r="I74" s="54">
+      <c r="H74" s="56">
+        <v>0</v>
+      </c>
+      <c r="I74" s="56">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -4033,33 +3962,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="51">
+      <c r="B75" s="53">
         <v>200</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="53">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="52">
-        <v>0</v>
-      </c>
-      <c r="F75" s="52">
+      <c r="E75" s="55">
+        <v>0</v>
+      </c>
+      <c r="F75" s="55">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="54">
-        <v>0</v>
-      </c>
-      <c r="I75" s="54">
+      <c r="H75" s="56">
+        <v>0</v>
+      </c>
+      <c r="I75" s="56">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -4068,33 +3997,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="51">
-        <v>0</v>
-      </c>
-      <c r="C76" s="51">
+      <c r="B76" s="53">
+        <v>0</v>
+      </c>
+      <c r="C76" s="53">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="52">
-        <v>20320</v>
-      </c>
-      <c r="F76" s="52">
-        <v>12437</v>
+      <c r="E76" s="55">
+        <v>6116</v>
+      </c>
+      <c r="F76" s="55">
+        <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-7883</v>
-      </c>
-      <c r="H76" s="54">
-        <v>0</v>
-      </c>
-      <c r="I76" s="54">
+        <v>-6116</v>
+      </c>
+      <c r="H76" s="56">
+        <v>0</v>
+      </c>
+      <c r="I76" s="56">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -4103,33 +4032,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="51">
-        <v>0</v>
-      </c>
-      <c r="C77" s="51">
+      <c r="B77" s="53">
+        <v>0</v>
+      </c>
+      <c r="C77" s="53">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="52">
+      <c r="E77" s="55">
         <v>233</v>
       </c>
-      <c r="F77" s="52">
+      <c r="F77" s="55">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
         <v>-233</v>
       </c>
-      <c r="H77" s="54">
-        <v>0</v>
-      </c>
-      <c r="I77" s="54">
+      <c r="H77" s="56">
+        <v>0</v>
+      </c>
+      <c r="I77" s="56">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4138,33 +4067,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="51">
-        <v>0</v>
-      </c>
-      <c r="C78" s="51">
+      <c r="B78" s="53">
+        <v>0</v>
+      </c>
+      <c r="C78" s="53">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="52">
+      <c r="E78" s="55">
         <v>7040</v>
       </c>
-      <c r="F78" s="52">
-        <v>6000</v>
+      <c r="F78" s="55">
+        <v>7000</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
-        <v>-1040</v>
-      </c>
-      <c r="H78" s="54">
-        <v>0</v>
-      </c>
-      <c r="I78" s="54">
+        <v>-40</v>
+      </c>
+      <c r="H78" s="56">
+        <v>0</v>
+      </c>
+      <c r="I78" s="56">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4173,33 +4102,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="51">
+      <c r="B79" s="53">
         <v>150</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="53">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="52">
-        <v>4516</v>
-      </c>
-      <c r="F79" s="52">
+      <c r="E79" s="55">
+        <v>1074</v>
+      </c>
+      <c r="F79" s="55">
         <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
-        <v>-4516</v>
-      </c>
-      <c r="H79" s="54">
-        <v>0</v>
-      </c>
-      <c r="I79" s="54">
+        <v>-1074</v>
+      </c>
+      <c r="H79" s="56">
+        <v>0</v>
+      </c>
+      <c r="I79" s="56">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4208,33 +4137,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="51">
-        <v>0</v>
-      </c>
-      <c r="C80" s="51">
+      <c r="B80" s="53">
+        <v>0</v>
+      </c>
+      <c r="C80" s="53">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="52">
-        <v>0</v>
-      </c>
-      <c r="F80" s="52">
+      <c r="E80" s="55">
+        <v>0</v>
+      </c>
+      <c r="F80" s="55">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="54">
-        <v>0</v>
-      </c>
-      <c r="I80" s="54">
+      <c r="H80" s="56">
+        <v>0</v>
+      </c>
+      <c r="I80" s="56">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4243,33 +4172,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="51">
-        <v>0</v>
-      </c>
-      <c r="C81" s="51">
+      <c r="B81" s="53">
+        <v>0</v>
+      </c>
+      <c r="C81" s="53">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="52">
-        <v>0</v>
-      </c>
-      <c r="F81" s="52">
+      <c r="E81" s="55">
+        <v>0</v>
+      </c>
+      <c r="F81" s="55">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="54">
-        <v>0</v>
-      </c>
-      <c r="I81" s="54">
+      <c r="H81" s="56">
+        <v>0</v>
+      </c>
+      <c r="I81" s="56">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4278,33 +4207,33 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="51">
-        <v>0</v>
-      </c>
-      <c r="C82" s="51">
+      <c r="B82" s="53">
+        <v>0</v>
+      </c>
+      <c r="C82" s="53">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="52">
-        <v>0</v>
-      </c>
-      <c r="F82" s="52">
-        <v>1057</v>
+      <c r="E82" s="55">
+        <v>0</v>
+      </c>
+      <c r="F82" s="55">
+        <v>1070</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>1057</v>
-      </c>
-      <c r="H82" s="54">
-        <v>0</v>
-      </c>
-      <c r="I82" s="54">
+        <v>1070</v>
+      </c>
+      <c r="H82" s="56">
+        <v>0</v>
+      </c>
+      <c r="I82" s="56">
         <v>0</v>
       </c>
       <c r="J82" s="6">
@@ -4313,31 +4242,33 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="51">
-        <v>0</v>
-      </c>
-      <c r="C83" s="51">
+      <c r="A83" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="53">
+        <v>0</v>
+      </c>
+      <c r="C83" s="53">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="52">
-        <v>0</v>
-      </c>
-      <c r="F83" s="52">
+      <c r="E83" s="55">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="55">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="54">
-        <v>0</v>
-      </c>
-      <c r="I83" s="54">
+        <v>-1000</v>
+      </c>
+      <c r="H83" s="56">
+        <v>0</v>
+      </c>
+      <c r="I83" s="56">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4346,33 +4277,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="51">
-        <v>0</v>
-      </c>
-      <c r="C84" s="51">
+      <c r="A84" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="53">
+        <v>0</v>
+      </c>
+      <c r="C84" s="53">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="55">
         <v>312</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="55">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
         <v>-312</v>
       </c>
-      <c r="H84" s="54">
-        <v>0</v>
-      </c>
-      <c r="I84" s="54">
+      <c r="H84" s="56">
+        <v>0</v>
+      </c>
+      <c r="I84" s="56">
         <v>0</v>
       </c>
       <c r="J84" s="6">
@@ -4381,33 +4312,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="51">
+      <c r="B85" s="53">
         <v>95</v>
       </c>
-      <c r="C85" s="51">
+      <c r="C85" s="53">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="52">
+      <c r="E85" s="55">
         <v>200</v>
       </c>
-      <c r="F85" s="52">
+      <c r="F85" s="55">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="54">
-        <v>0</v>
-      </c>
-      <c r="I85" s="54">
+      <c r="H85" s="56">
+        <v>0</v>
+      </c>
+      <c r="I85" s="56">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4416,33 +4347,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="51">
-        <v>0</v>
-      </c>
-      <c r="C86" s="51">
+      <c r="B86" s="53">
+        <v>0</v>
+      </c>
+      <c r="C86" s="53">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="52">
-        <v>0</v>
-      </c>
-      <c r="F86" s="52">
+      <c r="E86" s="55">
+        <v>0</v>
+      </c>
+      <c r="F86" s="55">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="54">
-        <v>0</v>
-      </c>
-      <c r="I86" s="54">
+      <c r="H86" s="56">
+        <v>0</v>
+      </c>
+      <c r="I86" s="56">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4451,33 +4382,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="51">
-        <v>0</v>
-      </c>
-      <c r="C87" s="51">
+      <c r="B87" s="53">
+        <v>0</v>
+      </c>
+      <c r="C87" s="53">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="52">
-        <v>0</v>
-      </c>
-      <c r="F87" s="52">
+      <c r="E87" s="55">
+        <v>0</v>
+      </c>
+      <c r="F87" s="55">
         <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H87" s="54">
-        <v>0</v>
-      </c>
-      <c r="I87" s="54">
+      <c r="H87" s="56">
+        <v>0</v>
+      </c>
+      <c r="I87" s="56">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4486,33 +4417,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="51">
-        <v>0</v>
-      </c>
-      <c r="C88" s="51">
+      <c r="B88" s="53">
+        <v>0</v>
+      </c>
+      <c r="C88" s="53">
         <v>0</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E88" s="52">
-        <v>0</v>
-      </c>
-      <c r="F88" s="52">
+      <c r="E88" s="55">
+        <v>0</v>
+      </c>
+      <c r="F88" s="55">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="54">
-        <v>0</v>
-      </c>
-      <c r="I88" s="54">
+      <c r="H88" s="56">
+        <v>0</v>
+      </c>
+      <c r="I88" s="56">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4521,68 +4452,68 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="51">
-        <v>0</v>
-      </c>
-      <c r="C89" s="51">
+      <c r="A89" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="53">
+        <v>0</v>
+      </c>
+      <c r="C89" s="53">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="52">
+      <c r="E89" s="55">
         <v>208</v>
       </c>
-      <c r="F89" s="52">
+      <c r="F89" s="55">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
         <v>-208</v>
       </c>
-      <c r="H89" s="54">
-        <v>0</v>
-      </c>
-      <c r="I89" s="54">
+      <c r="H89" s="56">
+        <v>358</v>
+      </c>
+      <c r="I89" s="56">
         <v>0</v>
       </c>
       <c r="J89" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="51">
-        <v>0</v>
-      </c>
-      <c r="C90" s="51">
+      <c r="B90" s="53">
+        <v>0</v>
+      </c>
+      <c r="C90" s="53">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="52">
+      <c r="E90" s="55">
         <v>12662</v>
       </c>
-      <c r="F90" s="52">
+      <c r="F90" s="55">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="54">
-        <v>0</v>
-      </c>
-      <c r="I90" s="54">
+      <c r="H90" s="56">
+        <v>0</v>
+      </c>
+      <c r="I90" s="56">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4591,31 +4522,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="51">
-        <v>0</v>
-      </c>
-      <c r="C91" s="51">
+      <c r="A91" s="34"/>
+      <c r="B91" s="53">
+        <v>0</v>
+      </c>
+      <c r="C91" s="53">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="52">
-        <v>0</v>
-      </c>
-      <c r="F91" s="52">
+      <c r="E91" s="55">
+        <v>0</v>
+      </c>
+      <c r="F91" s="55">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="54">
-        <v>0</v>
-      </c>
-      <c r="I91" s="54">
+      <c r="H91" s="56">
+        <v>0</v>
+      </c>
+      <c r="I91" s="56">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4624,33 +4555,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B92" s="51">
-        <v>0</v>
-      </c>
-      <c r="C92" s="51">
-        <v>250</v>
+      <c r="A92" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="53">
+        <v>0</v>
+      </c>
+      <c r="C92" s="53">
+        <v>225</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="E92" s="52">
-        <v>0</v>
-      </c>
-      <c r="F92" s="52">
+        <v>225</v>
+      </c>
+      <c r="E92" s="55">
+        <v>0</v>
+      </c>
+      <c r="F92" s="55">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="54">
-        <v>0</v>
-      </c>
-      <c r="I92" s="54">
+      <c r="H92" s="56">
+        <v>0</v>
+      </c>
+      <c r="I92" s="56">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4659,33 +4590,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B93" s="51">
-        <v>0</v>
-      </c>
-      <c r="C93" s="51">
+      <c r="B93" s="53">
+        <v>0</v>
+      </c>
+      <c r="C93" s="53">
         <v>300</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="E93" s="52">
-        <v>0</v>
-      </c>
-      <c r="F93" s="52">
+      <c r="E93" s="55">
+        <v>0</v>
+      </c>
+      <c r="F93" s="55">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="54">
-        <v>0</v>
-      </c>
-      <c r="I93" s="54">
+      <c r="H93" s="56">
+        <v>0</v>
+      </c>
+      <c r="I93" s="56">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4694,33 +4625,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="51">
+      <c r="B94" s="53">
         <v>7</v>
       </c>
-      <c r="C94" s="51">
+      <c r="C94" s="53">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="52">
-        <v>0</v>
-      </c>
-      <c r="F94" s="52">
+      <c r="E94" s="55">
+        <v>0</v>
+      </c>
+      <c r="F94" s="55">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="54">
-        <v>0</v>
-      </c>
-      <c r="I94" s="54">
+      <c r="H94" s="56">
+        <v>0</v>
+      </c>
+      <c r="I94" s="56">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4729,33 +4660,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B95" s="51">
-        <v>0</v>
-      </c>
-      <c r="C95" s="51">
+      <c r="B95" s="53">
+        <v>0</v>
+      </c>
+      <c r="C95" s="53">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="52">
+      <c r="E95" s="55">
         <v>21</v>
       </c>
-      <c r="F95" s="52">
+      <c r="F95" s="55">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="54">
-        <v>0</v>
-      </c>
-      <c r="I95" s="54">
+      <c r="H95" s="56">
+        <v>0</v>
+      </c>
+      <c r="I95" s="56">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4764,33 +4695,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B96" s="51">
-        <v>0</v>
-      </c>
-      <c r="C96" s="51">
+      <c r="B96" s="53">
+        <v>0</v>
+      </c>
+      <c r="C96" s="53">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="52">
+      <c r="E96" s="55">
         <v>24478</v>
       </c>
-      <c r="F96" s="52">
+      <c r="F96" s="55">
         <v>12915</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
         <v>-11563</v>
       </c>
-      <c r="H96" s="54">
-        <v>0</v>
-      </c>
-      <c r="I96" s="54">
+      <c r="H96" s="56">
+        <v>0</v>
+      </c>
+      <c r="I96" s="56">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4799,33 +4730,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="51">
-        <v>0</v>
-      </c>
-      <c r="C97" s="51">
+      <c r="B97" s="53">
+        <v>0</v>
+      </c>
+      <c r="C97" s="53">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="52">
-        <v>450</v>
-      </c>
-      <c r="F97" s="52">
+      <c r="E97" s="55">
+        <v>350</v>
+      </c>
+      <c r="F97" s="55">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
-        <v>-450</v>
-      </c>
-      <c r="H97" s="54">
-        <v>0</v>
-      </c>
-      <c r="I97" s="54">
+        <v>-350</v>
+      </c>
+      <c r="H97" s="56">
+        <v>0</v>
+      </c>
+      <c r="I97" s="56">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4834,33 +4765,31 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" s="51">
-        <v>0</v>
-      </c>
-      <c r="C98" s="51">
+      <c r="A98" s="34"/>
+      <c r="B98" s="53">
+        <v>0</v>
+      </c>
+      <c r="C98" s="53">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="52">
-        <v>0</v>
-      </c>
-      <c r="F98" s="52">
+      <c r="E98" s="55">
+        <v>0</v>
+      </c>
+      <c r="F98" s="55">
         <v>0</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H98" s="54">
-        <v>0</v>
-      </c>
-      <c r="I98" s="54">
+      <c r="H98" s="56">
+        <v>0</v>
+      </c>
+      <c r="I98" s="56">
         <v>0</v>
       </c>
       <c r="J98" s="6">
@@ -4869,33 +4798,33 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="51">
-        <v>0</v>
-      </c>
-      <c r="C99" s="51">
+      <c r="B99" s="53">
+        <v>0</v>
+      </c>
+      <c r="C99" s="53">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="52">
+      <c r="E99" s="55">
         <v>400</v>
       </c>
-      <c r="F99" s="52">
+      <c r="F99" s="55">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
         <v>-400</v>
       </c>
-      <c r="H99" s="54">
+      <c r="H99" s="56">
         <v>814</v>
       </c>
-      <c r="I99" s="54">
+      <c r="I99" s="56">
         <v>0</v>
       </c>
       <c r="J99" s="6">
@@ -4904,33 +4833,33 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="51">
-        <v>0</v>
-      </c>
-      <c r="C100" s="51">
+      <c r="B100" s="53">
+        <v>0</v>
+      </c>
+      <c r="C100" s="53">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="52">
-        <v>0</v>
-      </c>
-      <c r="F100" s="52">
+      <c r="E100" s="55">
+        <v>0</v>
+      </c>
+      <c r="F100" s="55">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="54">
-        <v>0</v>
-      </c>
-      <c r="I100" s="54">
+      <c r="H100" s="56">
+        <v>0</v>
+      </c>
+      <c r="I100" s="56">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4939,33 +4868,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="51">
-        <v>0</v>
-      </c>
-      <c r="C101" s="51">
+      <c r="B101" s="53">
+        <v>0</v>
+      </c>
+      <c r="C101" s="53">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="52">
-        <v>0</v>
-      </c>
-      <c r="F101" s="52">
+      <c r="E101" s="55">
+        <v>0</v>
+      </c>
+      <c r="F101" s="55">
         <v>0</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H101" s="54">
-        <v>0</v>
-      </c>
-      <c r="I101" s="54">
+      <c r="H101" s="56">
+        <v>0</v>
+      </c>
+      <c r="I101" s="56">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -4974,33 +4903,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B102" s="51">
-        <v>0</v>
-      </c>
-      <c r="C102" s="51">
+      <c r="A102" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="53">
+        <v>0</v>
+      </c>
+      <c r="C102" s="53">
         <v>0</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E102" s="52">
+      <c r="E102" s="55">
         <v>3102</v>
       </c>
-      <c r="F102" s="52">
+      <c r="F102" s="55">
         <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
         <v>-3102</v>
       </c>
-      <c r="H102" s="54">
-        <v>0</v>
-      </c>
-      <c r="I102" s="54">
+      <c r="H102" s="56">
+        <v>0</v>
+      </c>
+      <c r="I102" s="56">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -5009,33 +4938,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B103" s="51">
+      <c r="B103" s="53">
         <v>50</v>
       </c>
-      <c r="C103" s="51">
+      <c r="C103" s="53">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="52">
-        <v>0</v>
-      </c>
-      <c r="F103" s="52">
+      <c r="E103" s="55">
+        <v>0</v>
+      </c>
+      <c r="F103" s="55">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="54">
-        <v>0</v>
-      </c>
-      <c r="I103" s="54">
+      <c r="H103" s="56">
+        <v>0</v>
+      </c>
+      <c r="I103" s="56">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -5044,33 +4973,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B104" s="51">
-        <v>0</v>
-      </c>
-      <c r="C104" s="51">
+      <c r="B104" s="53">
+        <v>0</v>
+      </c>
+      <c r="C104" s="53">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="52">
-        <v>11715</v>
-      </c>
-      <c r="F104" s="52">
+      <c r="E104" s="55">
+        <v>12515</v>
+      </c>
+      <c r="F104" s="55">
         <v>0</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>-11715</v>
-      </c>
-      <c r="H104" s="54">
-        <v>0</v>
-      </c>
-      <c r="I104" s="54">
+        <v>-12515</v>
+      </c>
+      <c r="H104" s="56">
+        <v>0</v>
+      </c>
+      <c r="I104" s="56">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -5079,33 +5008,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="51">
-        <v>0</v>
-      </c>
-      <c r="C105" s="51">
+      <c r="B105" s="53">
+        <v>0</v>
+      </c>
+      <c r="C105" s="53">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="52">
-        <v>121445</v>
-      </c>
-      <c r="F105" s="52">
+      <c r="E105" s="55">
+        <v>91595</v>
+      </c>
+      <c r="F105" s="55">
         <v>0</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>-121445</v>
-      </c>
-      <c r="H105" s="54">
-        <v>0</v>
-      </c>
-      <c r="I105" s="54">
+        <v>-91595</v>
+      </c>
+      <c r="H105" s="56">
+        <v>0</v>
+      </c>
+      <c r="I105" s="56">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5114,33 +5043,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B106" s="51">
-        <v>0</v>
-      </c>
-      <c r="C106" s="51">
+      <c r="B106" s="53">
+        <v>0</v>
+      </c>
+      <c r="C106" s="53">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="52">
+      <c r="E106" s="55">
         <v>300</v>
       </c>
-      <c r="F106" s="52">
+      <c r="F106" s="55">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="54">
-        <v>0</v>
-      </c>
-      <c r="I106" s="54">
+      <c r="H106" s="56">
+        <v>0</v>
+      </c>
+      <c r="I106" s="56">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5149,33 +5078,31 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B107" s="51">
-        <v>0</v>
-      </c>
-      <c r="C107" s="51">
+      <c r="A107" s="34"/>
+      <c r="B107" s="53">
+        <v>0</v>
+      </c>
+      <c r="C107" s="53">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="52">
-        <v>0</v>
-      </c>
-      <c r="F107" s="52">
+      <c r="E107" s="55">
+        <v>0</v>
+      </c>
+      <c r="F107" s="55">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H107" s="54">
-        <v>0</v>
-      </c>
-      <c r="I107" s="54">
+      <c r="H107" s="56">
+        <v>0</v>
+      </c>
+      <c r="I107" s="56">
         <v>0</v>
       </c>
       <c r="J107" s="6">
@@ -5184,33 +5111,31 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108" s="51">
-        <v>0</v>
-      </c>
-      <c r="C108" s="51">
+      <c r="A108" s="34"/>
+      <c r="B108" s="53">
+        <v>0</v>
+      </c>
+      <c r="C108" s="53">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="52">
-        <v>0</v>
-      </c>
-      <c r="F108" s="52">
+      <c r="E108" s="55">
+        <v>0</v>
+      </c>
+      <c r="F108" s="55">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H108" s="54">
-        <v>0</v>
-      </c>
-      <c r="I108" s="54">
+      <c r="H108" s="56">
+        <v>0</v>
+      </c>
+      <c r="I108" s="56">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5219,33 +5144,31 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B109" s="51">
-        <v>0</v>
-      </c>
-      <c r="C109" s="51">
+      <c r="A109" s="34"/>
+      <c r="B109" s="53">
+        <v>0</v>
+      </c>
+      <c r="C109" s="53">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="52">
-        <v>0</v>
-      </c>
-      <c r="F109" s="52">
+      <c r="E109" s="55">
+        <v>0</v>
+      </c>
+      <c r="F109" s="55">
         <v>0</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H109" s="54">
-        <v>0</v>
-      </c>
-      <c r="I109" s="54">
+      <c r="H109" s="56">
+        <v>0</v>
+      </c>
+      <c r="I109" s="56">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5254,33 +5177,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
+      <c r="A110" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="51">
-        <v>0</v>
-      </c>
-      <c r="C110" s="51">
+      <c r="B110" s="53">
+        <v>0</v>
+      </c>
+      <c r="C110" s="53">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="52">
+      <c r="E110" s="55">
         <v>10</v>
       </c>
-      <c r="F110" s="52">
+      <c r="F110" s="55">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="54">
-        <v>0</v>
-      </c>
-      <c r="I110" s="54">
+      <c r="H110" s="56">
+        <v>0</v>
+      </c>
+      <c r="I110" s="56">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5289,33 +5212,31 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B111" s="51">
-        <v>0</v>
-      </c>
-      <c r="C111" s="51">
+      <c r="A111" s="34"/>
+      <c r="B111" s="53">
+        <v>0</v>
+      </c>
+      <c r="C111" s="53">
         <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E111" s="52">
-        <v>0</v>
-      </c>
-      <c r="F111" s="52">
+      <c r="E111" s="55">
+        <v>0</v>
+      </c>
+      <c r="F111" s="55">
         <v>0</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H111" s="54">
-        <v>0</v>
-      </c>
-      <c r="I111" s="54">
+      <c r="H111" s="56">
+        <v>0</v>
+      </c>
+      <c r="I111" s="56">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5324,33 +5245,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="51">
-        <v>0</v>
-      </c>
-      <c r="C112" s="51">
+      <c r="B112" s="53">
+        <v>0</v>
+      </c>
+      <c r="C112" s="53">
         <v>451</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
         <v>451</v>
       </c>
-      <c r="E112" s="52">
-        <v>0</v>
-      </c>
-      <c r="F112" s="52">
+      <c r="E112" s="55">
+        <v>0</v>
+      </c>
+      <c r="F112" s="55">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="54">
-        <v>0</v>
-      </c>
-      <c r="I112" s="54">
+      <c r="H112" s="56">
+        <v>0</v>
+      </c>
+      <c r="I112" s="56">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5359,33 +5280,33 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113" s="51">
-        <v>0</v>
-      </c>
-      <c r="C113" s="51">
+      <c r="A113" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="53">
+        <v>0</v>
+      </c>
+      <c r="C113" s="53">
         <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="52">
+      <c r="E113" s="55">
         <v>500</v>
       </c>
-      <c r="F113" s="52">
+      <c r="F113" s="55">
         <v>0</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
         <v>-500</v>
       </c>
-      <c r="H113" s="54">
-        <v>0</v>
-      </c>
-      <c r="I113" s="54">
+      <c r="H113" s="56">
+        <v>0</v>
+      </c>
+      <c r="I113" s="56">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5394,33 +5315,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="32" t="s">
+      <c r="A114" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B114" s="51">
-        <v>0</v>
-      </c>
-      <c r="C114" s="51">
+      <c r="B114" s="53">
+        <v>0</v>
+      </c>
+      <c r="C114" s="53">
         <v>0</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E114" s="52">
-        <v>24910</v>
-      </c>
-      <c r="F114" s="52">
+      <c r="E114" s="55">
+        <v>24520</v>
+      </c>
+      <c r="F114" s="55">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-24910</v>
-      </c>
-      <c r="H114" s="54">
-        <v>0</v>
-      </c>
-      <c r="I114" s="54">
+        <v>-24520</v>
+      </c>
+      <c r="H114" s="56">
+        <v>0</v>
+      </c>
+      <c r="I114" s="56">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5429,33 +5350,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B115" s="51">
+      <c r="B115" s="53">
         <v>1800</v>
       </c>
-      <c r="C115" s="51">
+      <c r="C115" s="53">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
         <v>-1800</v>
       </c>
-      <c r="E115" s="52">
-        <v>0</v>
-      </c>
-      <c r="F115" s="52">
+      <c r="E115" s="55">
+        <v>0</v>
+      </c>
+      <c r="F115" s="55">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="54">
-        <v>0</v>
-      </c>
-      <c r="I115" s="54">
+      <c r="H115" s="56">
+        <v>0</v>
+      </c>
+      <c r="I115" s="56">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5464,33 +5385,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B116" s="51">
-        <v>0</v>
-      </c>
-      <c r="C116" s="51">
+      <c r="B116" s="53">
+        <v>0</v>
+      </c>
+      <c r="C116" s="53">
         <v>2832</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
         <v>2832</v>
       </c>
-      <c r="E116" s="52">
+      <c r="E116" s="55">
         <v>277</v>
       </c>
-      <c r="F116" s="52">
+      <c r="F116" s="55">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
         <v>-277</v>
       </c>
-      <c r="H116" s="54">
-        <v>0</v>
-      </c>
-      <c r="I116" s="54">
+      <c r="H116" s="56">
+        <v>0</v>
+      </c>
+      <c r="I116" s="56">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5499,33 +5420,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="32" t="s">
+      <c r="A117" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="51">
-        <v>0</v>
-      </c>
-      <c r="C117" s="51">
+      <c r="B117" s="53">
+        <v>200</v>
+      </c>
+      <c r="C117" s="53">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E117" s="52">
-        <v>7947</v>
-      </c>
-      <c r="F117" s="52">
+        <v>-200</v>
+      </c>
+      <c r="E117" s="55">
+        <v>8247</v>
+      </c>
+      <c r="F117" s="55">
         <v>8050</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
-        <v>103</v>
-      </c>
-      <c r="H117" s="54">
-        <v>0</v>
-      </c>
-      <c r="I117" s="54">
+        <v>-197</v>
+      </c>
+      <c r="H117" s="56">
+        <v>0</v>
+      </c>
+      <c r="I117" s="56">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5534,33 +5455,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B118" s="51">
-        <v>0</v>
-      </c>
-      <c r="C118" s="51">
+      <c r="B118" s="53">
+        <v>0</v>
+      </c>
+      <c r="C118" s="53">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="52">
+      <c r="E118" s="55">
         <v>7682</v>
       </c>
-      <c r="F118" s="52">
+      <c r="F118" s="55">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="54">
-        <v>0</v>
-      </c>
-      <c r="I118" s="54">
+      <c r="H118" s="56">
+        <v>0</v>
+      </c>
+      <c r="I118" s="56">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5569,33 +5490,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B119" s="51">
-        <v>600</v>
-      </c>
-      <c r="C119" s="51">
+      <c r="B119" s="53">
+        <v>0</v>
+      </c>
+      <c r="C119" s="53">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
-        <v>-600</v>
-      </c>
-      <c r="E119" s="52">
-        <v>1337</v>
-      </c>
-      <c r="F119" s="52">
+        <v>0</v>
+      </c>
+      <c r="E119" s="55">
+        <v>57</v>
+      </c>
+      <c r="F119" s="55">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-1337</v>
-      </c>
-      <c r="H119" s="54">
-        <v>0</v>
-      </c>
-      <c r="I119" s="54">
+        <v>-57</v>
+      </c>
+      <c r="H119" s="56">
+        <v>0</v>
+      </c>
+      <c r="I119" s="56">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5604,33 +5525,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B120" s="51">
+      <c r="B120" s="53">
         <v>300</v>
       </c>
-      <c r="C120" s="51">
+      <c r="C120" s="53">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E120" s="52">
-        <v>0</v>
-      </c>
-      <c r="F120" s="52">
+      <c r="E120" s="55">
+        <v>0</v>
+      </c>
+      <c r="F120" s="55">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H120" s="54">
-        <v>0</v>
-      </c>
-      <c r="I120" s="54">
+      <c r="H120" s="56">
+        <v>0</v>
+      </c>
+      <c r="I120" s="56">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5639,33 +5560,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="51">
-        <v>0</v>
-      </c>
-      <c r="C121" s="51">
+      <c r="B121" s="53">
+        <v>0</v>
+      </c>
+      <c r="C121" s="53">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="52">
+      <c r="E121" s="55">
         <v>15000</v>
       </c>
-      <c r="F121" s="52">
+      <c r="F121" s="55">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="54">
-        <v>0</v>
-      </c>
-      <c r="I121" s="54">
+      <c r="H121" s="56">
+        <v>0</v>
+      </c>
+      <c r="I121" s="56">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5674,68 +5595,66 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B122" s="51">
-        <v>0</v>
-      </c>
-      <c r="C122" s="51">
+      <c r="A122" s="34"/>
+      <c r="B122" s="53">
+        <v>0</v>
+      </c>
+      <c r="C122" s="53">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="52">
-        <v>1157</v>
-      </c>
-      <c r="F122" s="52">
-        <v>1800</v>
+      <c r="E122" s="55">
+        <v>0</v>
+      </c>
+      <c r="F122" s="55">
+        <v>0</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
-        <v>643</v>
-      </c>
-      <c r="H122" s="54">
-        <v>70</v>
-      </c>
-      <c r="I122" s="54">
+        <v>0</v>
+      </c>
+      <c r="H122" s="56">
+        <v>0</v>
+      </c>
+      <c r="I122" s="56">
         <v>0</v>
       </c>
       <c r="J122" s="6">
         <f t="shared" si="5"/>
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B123" s="51">
-        <v>0</v>
-      </c>
-      <c r="C123" s="51">
+      <c r="A123" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="53">
+        <v>0</v>
+      </c>
+      <c r="C123" s="53">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E123" s="52">
+      <c r="E123" s="55">
         <v>2930</v>
       </c>
-      <c r="F123" s="52">
+      <c r="F123" s="55">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
         <v>-2930</v>
       </c>
-      <c r="H123" s="54">
-        <v>0</v>
-      </c>
-      <c r="I123" s="54">
+      <c r="H123" s="56">
+        <v>0</v>
+      </c>
+      <c r="I123" s="56">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5744,33 +5663,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="B124" s="51">
+      <c r="A124" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="53">
         <v>400</v>
       </c>
-      <c r="C124" s="51">
+      <c r="C124" s="53">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
         <v>-400</v>
       </c>
-      <c r="E124" s="52">
-        <v>0</v>
-      </c>
-      <c r="F124" s="52">
+      <c r="E124" s="55">
+        <v>0</v>
+      </c>
+      <c r="F124" s="55">
         <v>0</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H124" s="54">
-        <v>0</v>
-      </c>
-      <c r="I124" s="54">
+      <c r="H124" s="56">
+        <v>0</v>
+      </c>
+      <c r="I124" s="56">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5779,33 +5698,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B125" s="51">
+      <c r="A125" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="53">
         <v>820</v>
       </c>
-      <c r="C125" s="51">
+      <c r="C125" s="53">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
         <v>-820</v>
       </c>
-      <c r="E125" s="52">
-        <v>0</v>
-      </c>
-      <c r="F125" s="52">
+      <c r="E125" s="55">
+        <v>0</v>
+      </c>
+      <c r="F125" s="55">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H125" s="54">
-        <v>0</v>
-      </c>
-      <c r="I125" s="54">
+      <c r="H125" s="56">
+        <v>0</v>
+      </c>
+      <c r="I125" s="56">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5814,33 +5733,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B126" s="51">
-        <v>0</v>
-      </c>
-      <c r="C126" s="51">
+      <c r="A126" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="53">
+        <v>0</v>
+      </c>
+      <c r="C126" s="53">
         <v>0</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E126" s="52">
-        <v>0</v>
-      </c>
-      <c r="F126" s="52">
-        <v>535</v>
+      <c r="E126" s="55">
+        <v>0</v>
+      </c>
+      <c r="F126" s="55">
+        <v>678</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
-        <v>535</v>
-      </c>
-      <c r="H126" s="54">
-        <v>0</v>
-      </c>
-      <c r="I126" s="54">
+        <v>678</v>
+      </c>
+      <c r="H126" s="56">
+        <v>0</v>
+      </c>
+      <c r="I126" s="56">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5849,33 +5768,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B127" s="51">
-        <v>0</v>
-      </c>
-      <c r="C127" s="51">
+      <c r="A127" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="53">
+        <v>0</v>
+      </c>
+      <c r="C127" s="53">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="52">
-        <v>237444</v>
-      </c>
-      <c r="F127" s="52">
+      <c r="E127" s="55">
+        <v>168513</v>
+      </c>
+      <c r="F127" s="55">
         <v>0</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
-        <v>-237444</v>
-      </c>
-      <c r="H127" s="54">
-        <v>0</v>
-      </c>
-      <c r="I127" s="54">
+        <v>-168513</v>
+      </c>
+      <c r="H127" s="56">
+        <v>0</v>
+      </c>
+      <c r="I127" s="56">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5884,33 +5803,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B128" s="51">
+      <c r="A128" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128" s="53">
         <v>300</v>
       </c>
-      <c r="C128" s="51">
+      <c r="C128" s="53">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E128" s="52">
-        <v>0</v>
-      </c>
-      <c r="F128" s="52">
+      <c r="E128" s="55">
+        <v>0</v>
+      </c>
+      <c r="F128" s="55">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H128" s="54">
-        <v>0</v>
-      </c>
-      <c r="I128" s="54">
+      <c r="H128" s="56">
+        <v>0</v>
+      </c>
+      <c r="I128" s="56">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5919,33 +5838,31 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B129" s="51">
-        <v>0</v>
-      </c>
-      <c r="C129" s="51">
+      <c r="A129" s="34"/>
+      <c r="B129" s="53">
+        <v>0</v>
+      </c>
+      <c r="C129" s="53">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="52">
-        <v>277</v>
-      </c>
-      <c r="F129" s="52">
+      <c r="E129" s="55">
+        <v>0</v>
+      </c>
+      <c r="F129" s="55">
         <v>0</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
-        <v>-277</v>
-      </c>
-      <c r="H129" s="54">
-        <v>0</v>
-      </c>
-      <c r="I129" s="54">
+        <v>0</v>
+      </c>
+      <c r="H129" s="56">
+        <v>0</v>
+      </c>
+      <c r="I129" s="56">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5954,33 +5871,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B130" s="51">
-        <v>0</v>
-      </c>
-      <c r="C130" s="51">
+      <c r="A130" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B130" s="53">
+        <v>0</v>
+      </c>
+      <c r="C130" s="53">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E130" s="52">
-        <v>25000</v>
-      </c>
-      <c r="F130" s="52">
+      <c r="E130" s="55">
+        <v>23000</v>
+      </c>
+      <c r="F130" s="55">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
-        <v>-25000</v>
-      </c>
-      <c r="H130" s="54">
-        <v>0</v>
-      </c>
-      <c r="I130" s="54">
+        <v>-23000</v>
+      </c>
+      <c r="H130" s="56">
+        <v>0</v>
+      </c>
+      <c r="I130" s="56">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -5989,33 +5906,31 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B131" s="51">
-        <v>0</v>
-      </c>
-      <c r="C131" s="51">
+      <c r="A131" s="34"/>
+      <c r="B131" s="53">
+        <v>0</v>
+      </c>
+      <c r="C131" s="53">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
         <v>0</v>
       </c>
-      <c r="E131" s="52">
-        <v>0</v>
-      </c>
-      <c r="F131" s="52">
+      <c r="E131" s="55">
+        <v>0</v>
+      </c>
+      <c r="F131" s="55">
         <v>0</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
         <v>0</v>
       </c>
-      <c r="H131" s="54">
-        <v>0</v>
-      </c>
-      <c r="I131" s="54">
+      <c r="H131" s="56">
+        <v>0</v>
+      </c>
+      <c r="I131" s="56">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -6024,33 +5939,33 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B132" s="51">
-        <v>0</v>
-      </c>
-      <c r="C132" s="51">
+      <c r="A132" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="53">
+        <v>0</v>
+      </c>
+      <c r="C132" s="53">
         <v>0</v>
       </c>
       <c r="D132" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E132" s="52">
-        <v>0</v>
-      </c>
-      <c r="F132" s="52">
-        <v>52200</v>
+      <c r="E132" s="55">
+        <v>0</v>
+      </c>
+      <c r="F132" s="55">
+        <v>51200</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
-        <v>52200</v>
-      </c>
-      <c r="H132" s="54">
-        <v>0</v>
-      </c>
-      <c r="I132" s="54">
+        <v>51200</v>
+      </c>
+      <c r="H132" s="56">
+        <v>0</v>
+      </c>
+      <c r="I132" s="56">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -6059,33 +5974,33 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B133" s="51">
-        <v>0</v>
-      </c>
-      <c r="C133" s="51">
+      <c r="A133" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133" s="53">
+        <v>0</v>
+      </c>
+      <c r="C133" s="53">
         <v>0</v>
       </c>
       <c r="D133" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="52">
-        <v>1578</v>
-      </c>
-      <c r="F133" s="52">
+      <c r="E133" s="55">
+        <v>1478</v>
+      </c>
+      <c r="F133" s="55">
         <v>0</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="7"/>
-        <v>-1578</v>
-      </c>
-      <c r="H133" s="54">
-        <v>0</v>
-      </c>
-      <c r="I133" s="54">
+        <v>-1478</v>
+      </c>
+      <c r="H133" s="56">
+        <v>0</v>
+      </c>
+      <c r="I133" s="56">
         <v>0</v>
       </c>
       <c r="J133" s="6">
@@ -6094,33 +6009,33 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B134" s="51">
-        <v>0</v>
-      </c>
-      <c r="C134" s="51">
+      <c r="A134" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="53">
+        <v>0</v>
+      </c>
+      <c r="C134" s="53">
         <v>0</v>
       </c>
       <c r="D134" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E134" s="52">
-        <v>6370</v>
-      </c>
-      <c r="F134" s="52">
-        <v>5150</v>
+      <c r="E134" s="55">
+        <v>1220</v>
+      </c>
+      <c r="F134" s="55">
+        <v>0</v>
       </c>
       <c r="G134" s="6">
         <f t="shared" si="7"/>
         <v>-1220</v>
       </c>
-      <c r="H134" s="54">
-        <v>0</v>
-      </c>
-      <c r="I134" s="54">
+      <c r="H134" s="56">
+        <v>0</v>
+      </c>
+      <c r="I134" s="56">
         <v>0</v>
       </c>
       <c r="J134" s="6">
@@ -6129,33 +6044,33 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B135" s="51">
-        <v>0</v>
-      </c>
-      <c r="C135" s="51">
+      <c r="A135" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="53">
+        <v>0</v>
+      </c>
+      <c r="C135" s="53">
         <v>0</v>
       </c>
       <c r="D135" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E135" s="52">
-        <v>0</v>
-      </c>
-      <c r="F135" s="52">
+      <c r="E135" s="55">
+        <v>0</v>
+      </c>
+      <c r="F135" s="55">
         <v>404900</v>
       </c>
       <c r="G135" s="6">
         <f t="shared" si="7"/>
         <v>404900</v>
       </c>
-      <c r="H135" s="54">
-        <v>0</v>
-      </c>
-      <c r="I135" s="54">
+      <c r="H135" s="56">
+        <v>0</v>
+      </c>
+      <c r="I135" s="56">
         <v>0</v>
       </c>
       <c r="J135" s="6">
@@ -6164,33 +6079,33 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B136" s="51">
-        <v>0</v>
-      </c>
-      <c r="C136" s="51">
+      <c r="A136" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="54">
+        <v>0</v>
+      </c>
+      <c r="C136" s="53">
         <v>0</v>
       </c>
       <c r="D136" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E136" s="52">
-        <v>0</v>
-      </c>
-      <c r="F136" s="52">
+      <c r="E136" s="55">
+        <v>0</v>
+      </c>
+      <c r="F136" s="55">
         <v>345</v>
       </c>
       <c r="G136" s="6">
         <f t="shared" si="7"/>
         <v>345</v>
       </c>
-      <c r="H136" s="54">
-        <v>0</v>
-      </c>
-      <c r="I136" s="54">
+      <c r="H136" s="56">
+        <v>0</v>
+      </c>
+      <c r="I136" s="56">
         <v>0</v>
       </c>
       <c r="J136" s="6">
@@ -6199,7 +6114,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="6">
@@ -6550,8 +6465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6589,25 +6504,25 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
-        <v>150</v>
+      <c r="A4" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>85826</v>
+        <v>29462</v>
       </c>
       <c r="D4" s="15">
         <v>25712</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="44" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="15">
-        <v>-7722</v>
+        <v>0</v>
       </c>
       <c r="C5" s="15">
         <v>-1550</v>
@@ -6617,7 +6532,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15">
@@ -6631,35 +6546,35 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15">
         <v>0</v>
       </c>
       <c r="C7" s="15">
-        <v>-90</v>
+        <v>-45</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>897</v>
+        <v>-3275</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="15">
@@ -6673,7 +6588,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="15">
@@ -6687,7 +6602,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="15">
@@ -6701,21 +6616,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>-283</v>
+        <v>804</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="15">
@@ -6729,7 +6644,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="15">
@@ -6743,7 +6658,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="15">
@@ -6757,7 +6672,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="15">
@@ -6771,7 +6686,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="15">
@@ -6785,7 +6700,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="15">
@@ -6799,11 +6714,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="15">
-        <v>-1400</v>
+        <v>-1320</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
@@ -6813,7 +6728,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="15">
@@ -6827,11 +6742,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="45" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="15">
-        <v>-1110</v>
+        <v>-1310</v>
       </c>
       <c r="C21" s="15">
         <v>3792</v>
@@ -6841,7 +6756,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="15">
@@ -6855,7 +6770,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15">
@@ -6869,7 +6784,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="15">
@@ -6883,7 +6798,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="15">
@@ -6897,7 +6812,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="15">
@@ -6911,7 +6826,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="15">
@@ -6925,7 +6840,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="15">
@@ -6939,7 +6854,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="15">
@@ -6953,8 +6868,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>131</v>
+      <c r="A30" s="37" t="s">
+        <v>128</v>
       </c>
       <c r="B30" s="15">
         <v>0</v>
@@ -6967,21 +6882,21 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="34" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="15">
         <v>0</v>
       </c>
       <c r="C31" s="15">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="D31" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="45" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="15">
@@ -6995,7 +6910,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="45" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="15">
@@ -7009,7 +6924,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="15">
@@ -7023,21 +6938,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="15">
-        <v>12468</v>
+        <v>68</v>
       </c>
       <c r="C35" s="15">
-        <v>-6005</v>
+        <v>-5</v>
       </c>
       <c r="D35" s="15">
-        <v>860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="15">
@@ -7051,7 +6966,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="15">
@@ -7065,8 +6980,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>132</v>
+      <c r="A38" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="B38" s="15">
         <v>0</v>
@@ -7079,7 +6994,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="15">
@@ -7093,7 +7008,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="15">
@@ -7107,21 +7022,21 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
-        <v>133</v>
+      <c r="A41" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
       </c>
       <c r="C41" s="15">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="15">
@@ -7135,25 +7050,25 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="15">
         <v>0</v>
       </c>
       <c r="C43" s="15">
-        <v>-8916</v>
+        <v>-9416</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="50" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="15">
-        <v>0</v>
+        <v>-125</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -7163,7 +7078,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="15">
@@ -7177,7 +7092,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="15">
@@ -7191,11 +7106,9 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
-        <v>134</v>
-      </c>
+      <c r="A47" s="34"/>
       <c r="B47" s="15">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="C47" s="15">
         <v>0</v>
@@ -7205,7 +7118,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="35" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="15">
@@ -7219,7 +7132,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="15">
@@ -7233,7 +7146,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="15">
@@ -7247,7 +7160,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="15">
@@ -7261,21 +7174,19 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="53" t="s">
-        <v>127</v>
-      </c>
+      <c r="A52" s="34"/>
       <c r="B52" s="15">
         <v>0</v>
       </c>
       <c r="C52" s="15">
-        <v>-1308</v>
+        <v>0</v>
       </c>
       <c r="D52" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="38" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="15">
@@ -7289,7 +7200,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="15">
@@ -7303,22 +7214,22 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-9858</v>
+        <v>-20925</v>
       </c>
       <c r="D55" s="15">
-        <v>-19639</v>
+        <v>-20354</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="s">
-        <v>122</v>
+      <c r="A56" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="B56" s="15">
         <v>0</v>
@@ -7331,7 +7242,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="15">
@@ -7345,8 +7256,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="53" t="s">
-        <v>123</v>
+      <c r="A58" s="34" t="s">
+        <v>121</v>
       </c>
       <c r="B58" s="15">
         <v>0</v>
@@ -7359,7 +7270,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="15">
@@ -7373,8 +7284,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="56" t="s">
-        <v>125</v>
+      <c r="A60" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="B60" s="15">
         <v>-600</v>
@@ -7387,21 +7298,21 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="15">
         <v>0</v>
       </c>
       <c r="C61" s="15">
-        <v>-13913</v>
+        <v>-4395</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="15">
@@ -7415,11 +7326,11 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="34" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="15">
-        <v>6746</v>
+        <v>6776</v>
       </c>
       <c r="C63" s="15">
         <v>-967</v>
@@ -7429,7 +7340,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="15">
@@ -7443,21 +7354,21 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="15">
-        <v>0</v>
+        <v>2905</v>
       </c>
       <c r="C65" s="15">
-        <v>500</v>
+        <v>329</v>
       </c>
       <c r="D65" s="15">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="15">
@@ -7471,7 +7382,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="15">
@@ -7485,7 +7396,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="15">
@@ -7499,21 +7410,21 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="15">
         <v>0</v>
       </c>
       <c r="C69" s="15">
-        <v>-3710</v>
+        <v>0</v>
       </c>
       <c r="D69" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="63" t="s">
+      <c r="A70" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="15">
@@ -7527,8 +7438,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
-        <v>124</v>
+      <c r="A71" s="43" t="s">
+        <v>122</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
@@ -7541,7 +7452,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="15">
@@ -7555,35 +7466,35 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="53" t="s">
-        <v>126</v>
+      <c r="A73" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="B73" s="15">
         <v>0</v>
       </c>
       <c r="C73" s="15">
-        <v>179</v>
+        <v>-5522</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="15">
         <v>0</v>
       </c>
       <c r="C74" s="15">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="D74" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="15">
@@ -7597,9 +7508,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="53" t="s">
-        <v>135</v>
-      </c>
+      <c r="A76" s="34"/>
       <c r="B76" s="15">
         <v>0</v>
       </c>
@@ -7611,7 +7520,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="15">
@@ -7625,21 +7534,21 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
+      <c r="A78" s="34" t="s">
         <v>75</v>
       </c>
       <c r="B78" s="15">
         <v>0</v>
       </c>
       <c r="C78" s="15">
-        <v>-7883</v>
+        <v>-6116</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B79" s="15">
@@ -7653,35 +7562,35 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="34" t="s">
         <v>77</v>
       </c>
       <c r="B80" s="15">
         <v>0</v>
       </c>
       <c r="C80" s="15">
-        <v>-1040</v>
+        <v>-40</v>
       </c>
       <c r="D80" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="53" t="s">
+      <c r="A81" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B81" s="15">
         <v>-150</v>
       </c>
       <c r="C81" s="15">
-        <v>-4516</v>
+        <v>-1074</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="34" t="s">
         <v>79</v>
       </c>
       <c r="B82" s="15">
@@ -7695,7 +7604,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="51" t="s">
         <v>80</v>
       </c>
       <c r="B83" s="15">
@@ -7709,34 +7618,36 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B84" s="15">
         <v>0</v>
       </c>
       <c r="C84" s="15">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
+      <c r="A85" s="34" t="s">
+        <v>140</v>
+      </c>
       <c r="B85" s="15">
         <v>0</v>
       </c>
       <c r="C85" s="15">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="53" t="s">
-        <v>130</v>
+      <c r="A86" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="B86" s="15">
         <v>0</v>
@@ -7749,7 +7660,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="34" t="s">
         <v>82</v>
       </c>
       <c r="B87" s="15">
@@ -7763,7 +7674,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="53" t="s">
+      <c r="A88" s="34" t="s">
         <v>83</v>
       </c>
       <c r="B88" s="15">
@@ -7777,7 +7688,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="53" t="s">
+      <c r="A89" s="34" t="s">
         <v>84</v>
       </c>
       <c r="B89" s="15">
@@ -7791,7 +7702,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="53" t="s">
+      <c r="A90" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B90" s="15">
@@ -7805,8 +7716,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
-        <v>128</v>
+      <c r="A91" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="B91" s="15">
         <v>0</v>
@@ -7815,11 +7726,11 @@
         <v>-208</v>
       </c>
       <c r="D91" s="15">
-        <v>0</v>
+        <v>-358</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="53" t="s">
+      <c r="A92" s="34" t="s">
         <v>86</v>
       </c>
       <c r="B92" s="15">
@@ -7833,7 +7744,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="15">
         <v>0</v>
       </c>
@@ -7845,11 +7756,11 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
-        <v>129</v>
+      <c r="A94" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="B94" s="15">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C94" s="15">
         <v>0</v>
@@ -7859,7 +7770,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="53" t="s">
+      <c r="A95" s="34" t="s">
         <v>87</v>
       </c>
       <c r="B95" s="15">
@@ -7873,7 +7784,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="34" t="s">
         <v>88</v>
       </c>
       <c r="B96" s="15">
@@ -7887,7 +7798,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="34" t="s">
         <v>89</v>
       </c>
       <c r="B97" s="15">
@@ -7901,7 +7812,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="53" t="s">
+      <c r="A98" s="34" t="s">
         <v>90</v>
       </c>
       <c r="B98" s="15">
@@ -7915,23 +7826,21 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="34" t="s">
         <v>91</v>
       </c>
       <c r="B99" s="15">
         <v>0</v>
       </c>
       <c r="C99" s="15">
-        <v>-450</v>
+        <v>-350</v>
       </c>
       <c r="D99" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="53" t="s">
-        <v>136</v>
-      </c>
+      <c r="A100" s="34"/>
       <c r="B100" s="15">
         <v>0</v>
       </c>
@@ -7943,7 +7852,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="34" t="s">
         <v>92</v>
       </c>
       <c r="B101" s="15">
@@ -7957,7 +7866,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="34" t="s">
         <v>93</v>
       </c>
       <c r="B102" s="15">
@@ -7971,7 +7880,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="34" t="s">
         <v>94</v>
       </c>
       <c r="B103" s="15">
@@ -7985,8 +7894,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="53" t="s">
-        <v>137</v>
+      <c r="A104" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="B104" s="15">
         <v>0</v>
@@ -7999,7 +7908,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="34" t="s">
         <v>95</v>
       </c>
       <c r="B105" s="15">
@@ -8013,35 +7922,35 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="34" t="s">
         <v>96</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
       </c>
       <c r="C106" s="15">
-        <v>-11715</v>
+        <v>-12515</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="53" t="s">
+      <c r="A107" s="34" t="s">
         <v>97</v>
       </c>
       <c r="B107" s="15">
         <v>0</v>
       </c>
       <c r="C107" s="15">
-        <v>-121445</v>
+        <v>-91595</v>
       </c>
       <c r="D107" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="53" t="s">
+      <c r="A108" s="34" t="s">
         <v>98</v>
       </c>
       <c r="B108" s="15">
@@ -8055,9 +7964,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53" t="s">
-        <v>138</v>
-      </c>
+      <c r="A109" s="34"/>
       <c r="B109" s="15">
         <v>0</v>
       </c>
@@ -8069,9 +7976,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="53" t="s">
-        <v>139</v>
-      </c>
+      <c r="A110" s="34"/>
       <c r="B110" s="15">
         <v>0</v>
       </c>
@@ -8083,9 +7988,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
-        <v>140</v>
-      </c>
+      <c r="A111" s="34"/>
       <c r="B111" s="15">
         <v>0</v>
       </c>
@@ -8097,7 +8000,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="56" t="s">
+      <c r="A112" s="36" t="s">
         <v>99</v>
       </c>
       <c r="B112" s="15">
@@ -8111,9 +8014,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="53" t="s">
-        <v>141</v>
-      </c>
+      <c r="A113" s="34"/>
       <c r="B113" s="15">
         <v>0</v>
       </c>
@@ -8125,7 +8026,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="53" t="s">
+      <c r="A114" s="34" t="s">
         <v>100</v>
       </c>
       <c r="B114" s="15">
@@ -8139,8 +8040,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="53" t="s">
-        <v>142</v>
+      <c r="A115" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="B115" s="15">
         <v>0</v>
@@ -8153,21 +8054,21 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="53" t="s">
+      <c r="A116" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B116" s="15">
         <v>0</v>
       </c>
       <c r="C116" s="15">
-        <v>-24910</v>
+        <v>-24520</v>
       </c>
       <c r="D116" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="53" t="s">
+      <c r="A117" s="34" t="s">
         <v>102</v>
       </c>
       <c r="B117" s="15">
@@ -8181,7 +8082,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="53" t="s">
+      <c r="A118" s="34" t="s">
         <v>103</v>
       </c>
       <c r="B118" s="15">
@@ -8195,21 +8096,21 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="53" t="s">
+      <c r="A119" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B119" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C119" s="15">
-        <v>103</v>
+        <v>-197</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="34" t="s">
         <v>105</v>
       </c>
       <c r="B120" s="15">
@@ -8223,21 +8124,21 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="53" t="s">
+      <c r="A121" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B121" s="15">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C121" s="15">
-        <v>-1337</v>
+        <v>-57</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="53" t="s">
+      <c r="A122" s="34" t="s">
         <v>107</v>
       </c>
       <c r="B122" s="15">
@@ -8251,7 +8152,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="34" t="s">
         <v>108</v>
       </c>
       <c r="B123" s="15">
@@ -8265,22 +8166,20 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="53" t="s">
-        <v>109</v>
-      </c>
+      <c r="A124" s="34"/>
       <c r="B124" s="15">
         <v>0</v>
       </c>
       <c r="C124" s="15">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="D124" s="15">
-        <v>-70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="53" t="s">
-        <v>143</v>
+      <c r="A125" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="B125" s="15">
         <v>0</v>
@@ -8293,8 +8192,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="53" t="s">
-        <v>144</v>
+      <c r="A126" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="B126" s="15">
         <v>-400</v>
@@ -8307,8 +8206,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="53" t="s">
-        <v>110</v>
+      <c r="A127" s="34" t="s">
+        <v>109</v>
       </c>
       <c r="B127" s="15">
         <v>-820</v>
@@ -8321,36 +8220,36 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="53" t="s">
+      <c r="A128" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" s="15">
+        <v>0</v>
+      </c>
+      <c r="C128" s="15">
+        <v>678</v>
+      </c>
+      <c r="D128" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="15">
+        <v>0</v>
+      </c>
+      <c r="C129" s="15">
+        <v>-168513</v>
+      </c>
+      <c r="D129" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="34" t="s">
         <v>111</v>
-      </c>
-      <c r="B128" s="15">
-        <v>0</v>
-      </c>
-      <c r="C128" s="15">
-        <v>535</v>
-      </c>
-      <c r="D128" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="B129" s="15">
-        <v>0</v>
-      </c>
-      <c r="C129" s="15">
-        <v>-237444</v>
-      </c>
-      <c r="D129" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="53" t="s">
-        <v>112</v>
       </c>
       <c r="B130" s="15">
         <v>-300</v>
@@ -8363,78 +8262,74 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="53" t="s">
-        <v>146</v>
-      </c>
+      <c r="A131" s="34"/>
       <c r="B131" s="15">
         <v>0</v>
       </c>
       <c r="C131" s="15">
-        <v>-277</v>
+        <v>0</v>
       </c>
       <c r="D131" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B132" s="15">
+        <v>0</v>
+      </c>
+      <c r="C132" s="15">
+        <v>-23000</v>
+      </c>
+      <c r="D132" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="34"/>
+      <c r="B133" s="15">
+        <v>0</v>
+      </c>
+      <c r="C133" s="15">
+        <v>0</v>
+      </c>
+      <c r="D133" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="15">
+        <v>0</v>
+      </c>
+      <c r="C134" s="15">
+        <v>51200</v>
+      </c>
+      <c r="D134" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B132" s="15">
-        <v>0</v>
-      </c>
-      <c r="C132" s="15">
-        <v>-25000</v>
-      </c>
-      <c r="D132" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="53" t="s">
+      <c r="B135" s="15">
+        <v>0</v>
+      </c>
+      <c r="C135" s="15">
+        <v>-1478</v>
+      </c>
+      <c r="D135" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="34" t="s">
         <v>114</v>
-      </c>
-      <c r="B133" s="15">
-        <v>0</v>
-      </c>
-      <c r="C133" s="15">
-        <v>0</v>
-      </c>
-      <c r="D133" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="B134" s="15">
-        <v>0</v>
-      </c>
-      <c r="C134" s="15">
-        <v>52200</v>
-      </c>
-      <c r="D134" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="B135" s="15">
-        <v>0</v>
-      </c>
-      <c r="C135" s="15">
-        <v>-1578</v>
-      </c>
-      <c r="D135" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="53" t="s">
-        <v>116</v>
       </c>
       <c r="B136" s="15">
         <v>0</v>
@@ -8447,8 +8342,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="53" t="s">
-        <v>148</v>
+      <c r="A137" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="B137" s="15">
         <v>0</v>
@@ -8461,8 +8356,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="53" t="s">
-        <v>149</v>
+      <c r="A138" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="B138" s="15">
         <v>0</v>
@@ -8475,7 +8370,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
+      <c r="A139" s="34"/>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
@@ -8524,15 +8419,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>32811</v>
+        <v>31103</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>-14510</v>
+        <v>27818</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>3009</v>
+        <v>1386</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8562,7 +8457,7 @@
     </row>
     <row r="159" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C159" s="26"/>
       <c r="D159" s="23" t="s">
@@ -8574,10 +8469,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B160" s="15">
-        <v>-4308</v>
+        <v>8279</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
@@ -8587,10 +8482,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B161" s="15">
-        <v>17263</v>
+        <v>-2050</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
@@ -8600,10 +8495,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B162" s="15">
-        <v>3127</v>
+        <v>890</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">
@@ -8629,20 +8524,20 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B165" s="15">
         <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="30" t="s">
+      <c r="B169" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50545DC-D877-481A-9C2C-6C654703FEA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988F1DA-7FC2-4E3F-B879-2343353901E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
   <si>
     <t>الشيكل</t>
   </si>
@@ -499,6 +499,21 @@
   </si>
   <si>
     <t>عبد الهادي القصاص</t>
+  </si>
+  <si>
+    <t>علاء المشهراوي</t>
+  </si>
+  <si>
+    <t>ابوانس سكيك</t>
+  </si>
+  <si>
+    <t>عبد الكريم عابدين</t>
+  </si>
+  <si>
+    <t>محمد الزين دليس</t>
+  </si>
+  <si>
+    <t>عمار ابوضاهر</t>
   </si>
 </sst>
 </file>
@@ -955,7 +970,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1382,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,11 +1455,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="56">
-        <v>25712</v>
+        <v>27712</v>
       </c>
       <c r="J2" s="6">
         <f>I2-H2</f>
-        <v>25712</v>
+        <v>27712</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1462,14 +1477,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="55">
-        <v>1550</v>
+        <v>500</v>
       </c>
       <c r="F3" s="55">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-1550</v>
+        <v>-500</v>
       </c>
       <c r="H3" s="56">
         <v>40</v>
@@ -1532,24 +1547,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="55">
-        <v>100</v>
+        <v>3345</v>
       </c>
       <c r="F5" s="55">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>-45</v>
+        <v>-3345</v>
       </c>
       <c r="H5" s="56">
         <v>0</v>
       </c>
       <c r="I5" s="56">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -1567,14 +1582,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="55">
-        <v>3275</v>
+        <v>3289</v>
       </c>
       <c r="F6" s="55">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>-3275</v>
+        <v>11</v>
       </c>
       <c r="H6" s="56">
         <v>0</v>
@@ -1602,14 +1617,14 @@
         <v>0</v>
       </c>
       <c r="E7" s="55">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="F7" s="55">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-70000</v>
       </c>
       <c r="H7" s="56">
         <v>0</v>
@@ -1710,11 +1725,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="55">
-        <v>804</v>
+        <v>1304</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>804</v>
+        <v>1304</v>
       </c>
       <c r="H10" s="56">
         <v>0</v>
@@ -2817,14 +2832,14 @@
         <v>48</v>
       </c>
       <c r="B42" s="53">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="C42" s="53">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>-125</v>
+        <v>-225</v>
       </c>
       <c r="E42" s="55">
         <v>0</v>
@@ -2918,7 +2933,9 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="34" t="s">
+        <v>141</v>
+      </c>
       <c r="B45" s="53">
         <v>95</v>
       </c>
@@ -3091,7 +3108,9 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="34" t="s">
+        <v>142</v>
+      </c>
       <c r="B50" s="53">
         <v>0</v>
       </c>
@@ -3103,14 +3122,14 @@
         <v>0</v>
       </c>
       <c r="E50" s="55">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F50" s="55">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="H50" s="56">
         <v>0</v>
@@ -3208,24 +3227,24 @@
         <v>0</v>
       </c>
       <c r="E53" s="55">
-        <v>20925</v>
+        <v>21495</v>
       </c>
       <c r="F53" s="55">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-20925</v>
+        <v>-21495</v>
       </c>
       <c r="H53" s="56">
-        <v>20354</v>
+        <v>21652</v>
       </c>
       <c r="I53" s="56">
         <v>0</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>-20354</v>
+        <v>-21652</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -3418,14 +3437,14 @@
         <v>0</v>
       </c>
       <c r="E59" s="55">
-        <v>4395</v>
+        <v>8965</v>
       </c>
       <c r="F59" s="55">
         <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>-4395</v>
+        <v>-8965</v>
       </c>
       <c r="H59" s="56">
         <v>0</v>
@@ -3666,11 +3685,11 @@
         <v>0</v>
       </c>
       <c r="F66" s="55">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="H66" s="56">
         <v>0</v>
@@ -3838,14 +3857,14 @@
         <v>0</v>
       </c>
       <c r="E71" s="55">
-        <v>5633</v>
+        <v>1722</v>
       </c>
       <c r="F71" s="55">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>-5522</v>
+        <v>-1722</v>
       </c>
       <c r="H71" s="56">
         <v>0</v>
@@ -3929,7 +3948,9 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+      <c r="A74" s="34" t="s">
+        <v>143</v>
+      </c>
       <c r="B74" s="53">
         <v>0</v>
       </c>
@@ -3941,14 +3962,14 @@
         <v>0</v>
       </c>
       <c r="E74" s="55">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="F74" s="55">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-330</v>
       </c>
       <c r="H74" s="56">
         <v>0</v>
@@ -4011,14 +4032,14 @@
         <v>0</v>
       </c>
       <c r="E76" s="55">
-        <v>6116</v>
+        <v>4750</v>
       </c>
       <c r="F76" s="55">
         <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-6116</v>
+        <v>-4750</v>
       </c>
       <c r="H76" s="56">
         <v>0</v>
@@ -4046,14 +4067,14 @@
         <v>0</v>
       </c>
       <c r="E77" s="55">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="F77" s="55">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
-        <v>-233</v>
+        <v>-133</v>
       </c>
       <c r="H77" s="56">
         <v>0</v>
@@ -4116,14 +4137,14 @@
         <v>-150</v>
       </c>
       <c r="E79" s="55">
-        <v>1074</v>
+        <v>812</v>
       </c>
       <c r="F79" s="55">
         <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
-        <v>-1074</v>
+        <v>-812</v>
       </c>
       <c r="H79" s="56">
         <v>0</v>
@@ -4224,11 +4245,11 @@
         <v>0</v>
       </c>
       <c r="F82" s="55">
-        <v>1070</v>
+        <v>395</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>1070</v>
+        <v>395</v>
       </c>
       <c r="H82" s="56">
         <v>0</v>
@@ -4256,14 +4277,14 @@
         <v>0</v>
       </c>
       <c r="E83" s="55">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F83" s="55">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H83" s="56">
         <v>0</v>
@@ -4765,7 +4786,9 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
+      <c r="A98" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="B98" s="53">
         <v>0</v>
       </c>
@@ -4787,14 +4810,14 @@
         <v>0</v>
       </c>
       <c r="H98" s="56">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I98" s="56">
         <v>0</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -4987,14 +5010,14 @@
         <v>0</v>
       </c>
       <c r="E104" s="55">
-        <v>12515</v>
+        <v>0</v>
       </c>
       <c r="F104" s="55">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>-12515</v>
+        <v>300</v>
       </c>
       <c r="H104" s="56">
         <v>0</v>
@@ -5022,14 +5045,14 @@
         <v>0</v>
       </c>
       <c r="E105" s="55">
-        <v>91595</v>
+        <v>32105</v>
       </c>
       <c r="F105" s="55">
         <v>0</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>-91595</v>
+        <v>-32105</v>
       </c>
       <c r="H105" s="56">
         <v>0</v>
@@ -5078,7 +5101,9 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
+      <c r="A107" s="34" t="s">
+        <v>145</v>
+      </c>
       <c r="B107" s="53">
         <v>0</v>
       </c>
@@ -5090,14 +5115,14 @@
         <v>0</v>
       </c>
       <c r="E107" s="55">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="F107" s="55">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-508</v>
       </c>
       <c r="H107" s="56">
         <v>0</v>
@@ -5294,14 +5319,14 @@
         <v>0</v>
       </c>
       <c r="E113" s="55">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F113" s="55">
         <v>0</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="H113" s="56">
         <v>0</v>
@@ -5329,14 +5354,14 @@
         <v>0</v>
       </c>
       <c r="E114" s="55">
-        <v>24520</v>
+        <v>45349</v>
       </c>
       <c r="F114" s="55">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-24520</v>
+        <v>-45349</v>
       </c>
       <c r="H114" s="56">
         <v>0</v>
@@ -5504,14 +5529,14 @@
         <v>0</v>
       </c>
       <c r="E119" s="55">
-        <v>57</v>
+        <v>1357</v>
       </c>
       <c r="F119" s="55">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-57</v>
+        <v>-1357</v>
       </c>
       <c r="H119" s="56">
         <v>0</v>
@@ -5642,14 +5667,14 @@
         <v>0</v>
       </c>
       <c r="E123" s="55">
-        <v>2930</v>
+        <v>2880</v>
       </c>
       <c r="F123" s="55">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
-        <v>-2930</v>
+        <v>-2880</v>
       </c>
       <c r="H123" s="56">
         <v>0</v>
@@ -5702,14 +5727,14 @@
         <v>109</v>
       </c>
       <c r="B125" s="53">
-        <v>820</v>
+        <v>1120</v>
       </c>
       <c r="C125" s="53">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
-        <v>-820</v>
+        <v>-1120</v>
       </c>
       <c r="E125" s="55">
         <v>0</v>
@@ -5782,14 +5807,14 @@
         <v>0</v>
       </c>
       <c r="E127" s="55">
-        <v>168513</v>
+        <v>149276</v>
       </c>
       <c r="F127" s="55">
         <v>0</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
-        <v>-168513</v>
+        <v>-149276</v>
       </c>
       <c r="H127" s="56">
         <v>0</v>
@@ -6465,7 +6490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A155" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
@@ -6504,7 +6529,7 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="15">
@@ -6514,7 +6539,7 @@
         <v>29462</v>
       </c>
       <c r="D4" s="15">
-        <v>25712</v>
+        <v>27712</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
@@ -6525,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="15">
-        <v>-1550</v>
+        <v>-500</v>
       </c>
       <c r="D5" s="15">
         <v>-40</v>
@@ -6553,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="15">
-        <v>-45</v>
+        <v>-3345</v>
       </c>
       <c r="D7" s="15">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
@@ -6567,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>-3275</v>
+        <v>11</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -6581,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <v>0</v>
+        <v>-70000</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
@@ -6623,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>804</v>
+        <v>1304</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
@@ -7068,7 +7093,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="15">
-        <v>-125</v>
+        <v>-225</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -7106,7 +7131,9 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="34" t="s">
+        <v>141</v>
+      </c>
       <c r="B47" s="15">
         <v>-95</v>
       </c>
@@ -7174,12 +7201,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="34" t="s">
+        <v>142</v>
+      </c>
       <c r="B52" s="15">
         <v>0</v>
       </c>
       <c r="C52" s="15">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D52" s="15">
         <v>0</v>
@@ -7221,10 +7250,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-20925</v>
+        <v>-21495</v>
       </c>
       <c r="D55" s="15">
-        <v>-20354</v>
+        <v>-21652</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7305,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="15">
-        <v>-4395</v>
+        <v>-8965</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
@@ -7403,7 +7432,7 @@
         <v>20</v>
       </c>
       <c r="C68" s="15">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
@@ -7473,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="15">
-        <v>-5522</v>
+        <v>-1722</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -7508,12 +7537,14 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
+      <c r="A76" s="34" t="s">
+        <v>143</v>
+      </c>
       <c r="B76" s="15">
         <v>0</v>
       </c>
       <c r="C76" s="15">
-        <v>0</v>
+        <v>-330</v>
       </c>
       <c r="D76" s="15">
         <v>0</v>
@@ -7541,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="15">
-        <v>-6116</v>
+        <v>-4750</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
@@ -7555,7 +7586,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="15">
-        <v>-233</v>
+        <v>-133</v>
       </c>
       <c r="D79" s="15">
         <v>0</v>
@@ -7583,7 +7614,7 @@
         <v>-150</v>
       </c>
       <c r="C81" s="15">
-        <v>-1074</v>
+        <v>-812</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
@@ -7625,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="15">
-        <v>1070</v>
+        <v>395</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
@@ -7639,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="15">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
@@ -7840,7 +7871,9 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
+      <c r="A100" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="B100" s="15">
         <v>0</v>
       </c>
@@ -7848,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="15">
-        <v>0</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7929,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="15">
-        <v>-12515</v>
+        <v>300</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
@@ -7943,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="15">
-        <v>-91595</v>
+        <v>-32105</v>
       </c>
       <c r="D107" s="15">
         <v>0</v>
@@ -7964,12 +7997,14 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
+      <c r="A109" s="34" t="s">
+        <v>145</v>
+      </c>
       <c r="B109" s="15">
         <v>0</v>
       </c>
       <c r="C109" s="15">
-        <v>0</v>
+        <v>-508</v>
       </c>
       <c r="D109" s="15">
         <v>0</v>
@@ -8047,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="15">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D115" s="15">
         <v>0</v>
@@ -8061,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="15">
-        <v>-24520</v>
+        <v>-45349</v>
       </c>
       <c r="D116" s="15">
         <v>0</v>
@@ -8131,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="15">
-        <v>-57</v>
+        <v>-1357</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
@@ -8185,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="15">
-        <v>-2930</v>
+        <v>-2880</v>
       </c>
       <c r="D125" s="15">
         <v>0</v>
@@ -8210,7 +8245,7 @@
         <v>109</v>
       </c>
       <c r="B127" s="15">
-        <v>-820</v>
+        <v>-1120</v>
       </c>
       <c r="C127" s="15">
         <v>0</v>
@@ -8241,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="15">
-        <v>-168513</v>
+        <v>-149276</v>
       </c>
       <c r="D129" s="15">
         <v>0</v>
@@ -8370,7 +8405,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="34"/>
+      <c r="A139" s="31"/>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
@@ -8419,15 +8454,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>31103</v>
+        <v>30703</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>27818</v>
+        <v>27203</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>1386</v>
+        <v>2283</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8472,7 +8507,7 @@
         <v>116</v>
       </c>
       <c r="B160" s="15">
-        <v>8279</v>
+        <v>6527</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
@@ -8485,7 +8520,7 @@
         <v>117</v>
       </c>
       <c r="B161" s="15">
-        <v>-2050</v>
+        <v>300</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
@@ -8498,7 +8533,7 @@
         <v>118</v>
       </c>
       <c r="B162" s="15">
-        <v>890</v>
+        <v>198</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988F1DA-7FC2-4E3F-B879-2343353901E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A52785E-D54F-49C8-A6DE-8621A933C73B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B130" authorId="0" shapeId="0" xr:uid="{83DDC449-38CC-4BA4-B213-BDCE9FA9F099}">
+    <comment ref="B130" authorId="0" shapeId="0" xr:uid="{C108AB85-F20D-4B79-9A6E-1A3C617D5D66}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
   <si>
     <t>الشيكل</t>
   </si>
@@ -210,9 +210,6 @@
     <t>ابوخالد مطر</t>
   </si>
   <si>
-    <t>الصوص وطن</t>
-  </si>
-  <si>
     <t>اسامه مصبح</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>نعيم مشتهى ابواشرف</t>
   </si>
   <si>
-    <t>احمد شعت</t>
-  </si>
-  <si>
     <t>زيادات موني جرام</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t>محمود سكيك ميلاد</t>
   </si>
   <si>
-    <t>الاوائل تركيا</t>
-  </si>
-  <si>
     <t>محمد مفيد تامين عماره</t>
   </si>
   <si>
@@ -408,9 +399,6 @@
     <t>خالد جراده</t>
   </si>
   <si>
-    <t>فراس دير البلح</t>
-  </si>
-  <si>
     <t>ام سائد شركة فيجين</t>
   </si>
   <si>
@@ -465,12 +453,6 @@
     <t>محمد فوره</t>
   </si>
   <si>
-    <t>اسعد حموده</t>
-  </si>
-  <si>
-    <t>ميار دلول سندس</t>
-  </si>
-  <si>
     <t>حكيم خلف</t>
   </si>
   <si>
@@ -480,24 +462,9 @@
     <t>فراس ابوكميل</t>
   </si>
   <si>
-    <t>خلدون غلة تركيا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حسن العبادله </t>
-  </si>
-  <si>
     <t>العبادله 2</t>
   </si>
   <si>
-    <t>مدى يورو</t>
-  </si>
-  <si>
-    <t>صندوق واحد صندوق كــــاظــــم 1</t>
-  </si>
-  <si>
-    <t>محمد انيس</t>
-  </si>
-  <si>
     <t>عبد الهادي القصاص</t>
   </si>
   <si>
@@ -507,13 +474,64 @@
     <t>ابوانس سكيك</t>
   </si>
   <si>
-    <t>عبد الكريم عابدين</t>
-  </si>
-  <si>
     <t>محمد الزين دليس</t>
   </si>
   <si>
     <t>عمار ابوضاهر</t>
+  </si>
+  <si>
+    <t>صندوق واحد صندوق كــــاظــــم 1 كـاظم</t>
+  </si>
+  <si>
+    <t>نور مشتهى</t>
+  </si>
+  <si>
+    <t>حازم مصبح</t>
+  </si>
+  <si>
+    <t>صامد الشريف</t>
+  </si>
+  <si>
+    <t>هادي ابومعروف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حازم مشتهى </t>
+  </si>
+  <si>
+    <t>سمير فتحي ساق الله</t>
+  </si>
+  <si>
+    <t>ابواسعد حموده</t>
+  </si>
+  <si>
+    <t>ابوالمجد ابوعقلين</t>
+  </si>
+  <si>
+    <t>احمد جوال بي</t>
+  </si>
+  <si>
+    <t>ابودرويش</t>
+  </si>
+  <si>
+    <t>اكرم وادي</t>
+  </si>
+  <si>
+    <t>إبراهيم الطويل</t>
+  </si>
+  <si>
+    <t>احمد خليل</t>
+  </si>
+  <si>
+    <t>خالد محمود</t>
+  </si>
+  <si>
+    <t>ام محمود مهنا</t>
+  </si>
+  <si>
+    <t>مصطفى بشير</t>
+  </si>
+  <si>
+    <t>محمد شيك</t>
   </si>
 </sst>
 </file>
@@ -914,7 +932,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,15 +976,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,73 +988,56 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="10" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1395,9 +1387,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J136"/>
     </sheetView>
   </sheetViews>
@@ -1428,68 +1420,68 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="53">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53">
+      <c r="A2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="55">
-        <v>0</v>
-      </c>
-      <c r="F2" s="55">
-        <v>29462</v>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>152370</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
-        <v>29462</v>
-      </c>
-      <c r="H2" s="56">
-        <v>0</v>
-      </c>
-      <c r="I2" s="56">
-        <v>27712</v>
+        <v>152370</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>10848</v>
       </c>
       <c r="J2" s="6">
         <f>I2-H2</f>
-        <v>27712</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="53">
-        <v>0</v>
-      </c>
-      <c r="C3" s="53">
+      <c r="B3" s="13">
+        <v>2498</v>
+      </c>
+      <c r="C3" s="13">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="55">
+        <v>-2498</v>
+      </c>
+      <c r="E3" s="13">
         <v>500</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
         <v>-500</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="13">
         <v>40</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1498,33 +1490,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="53">
-        <v>0</v>
-      </c>
-      <c r="C4" s="53">
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="55">
-        <v>0</v>
-      </c>
-      <c r="F4" s="55">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="56">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56">
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1533,68 +1525,68 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="53">
-        <v>0</v>
-      </c>
-      <c r="C5" s="53">
-        <v>0</v>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>475</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="55">
-        <v>3345</v>
-      </c>
-      <c r="F5" s="55">
-        <v>0</v>
+        <v>475</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1383</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>-3345</v>
-      </c>
-      <c r="H5" s="56">
-        <v>0</v>
-      </c>
-      <c r="I5" s="56">
-        <v>300</v>
+        <v>1383</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1110</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="53">
-        <v>0</v>
-      </c>
-      <c r="C6" s="53">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="55">
-        <v>3289</v>
-      </c>
-      <c r="F6" s="55">
-        <v>3300</v>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>480</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H6" s="56">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56">
+        <v>480</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1603,33 +1595,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="53">
-        <v>0</v>
-      </c>
-      <c r="C7" s="53">
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="55">
-        <v>70000</v>
-      </c>
-      <c r="F7" s="55">
-        <v>0</v>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>138</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>-70000</v>
-      </c>
-      <c r="H7" s="56">
-        <v>0</v>
-      </c>
-      <c r="I7" s="56">
+        <v>138</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1638,33 +1630,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="53">
-        <v>0</v>
-      </c>
-      <c r="C8" s="53">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="55">
-        <v>0</v>
-      </c>
-      <c r="F8" s="55">
-        <v>459</v>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>472</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>459</v>
-      </c>
-      <c r="H8" s="56">
-        <v>0</v>
-      </c>
-      <c r="I8" s="56">
+        <v>472</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1673,33 +1665,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="53">
-        <v>0</v>
-      </c>
-      <c r="C9" s="53">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="13">
         <v>33</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="56">
-        <v>0</v>
-      </c>
-      <c r="I9" s="56">
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1708,33 +1700,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="53">
-        <v>0</v>
-      </c>
-      <c r="C10" s="53">
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="55">
-        <v>0</v>
-      </c>
-      <c r="F10" s="55">
-        <v>1304</v>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>1304</v>
-      </c>
-      <c r="H10" s="56">
-        <v>0</v>
-      </c>
-      <c r="I10" s="56">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1743,33 +1735,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="53">
-        <v>0</v>
-      </c>
-      <c r="C11" s="53">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="55">
-        <v>0</v>
-      </c>
-      <c r="F11" s="55">
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="56">
-        <v>0</v>
-      </c>
-      <c r="I11" s="56">
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1778,33 +1770,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="53">
-        <v>0</v>
-      </c>
-      <c r="C12" s="53">
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="55">
-        <v>890</v>
-      </c>
-      <c r="F12" s="55">
-        <v>0</v>
+      <c r="E12" s="13">
+        <v>18899</v>
+      </c>
+      <c r="F12" s="13">
+        <v>15000</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>-890</v>
-      </c>
-      <c r="H12" s="56">
-        <v>0</v>
-      </c>
-      <c r="I12" s="56">
+        <v>-3899</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1813,33 +1805,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="53">
-        <v>0</v>
-      </c>
-      <c r="C13" s="53">
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="55">
-        <v>0</v>
-      </c>
-      <c r="F13" s="55">
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="56">
-        <v>0</v>
-      </c>
-      <c r="I13" s="56">
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1848,33 +1840,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="53">
-        <v>0</v>
-      </c>
-      <c r="C14" s="53">
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="55">
-        <v>300</v>
-      </c>
-      <c r="F14" s="55">
+      <c r="E14" s="13">
+        <v>2800</v>
+      </c>
+      <c r="F14" s="13">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>-300</v>
-      </c>
-      <c r="H14" s="56">
-        <v>0</v>
-      </c>
-      <c r="I14" s="56">
+        <v>-2800</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1883,33 +1875,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="13">
         <v>1070</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="13">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="55">
-        <v>0</v>
-      </c>
-      <c r="F15" s="55">
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="56">
-        <v>0</v>
-      </c>
-      <c r="I15" s="56">
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1918,33 +1910,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="13">
         <v>40</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="13">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="13">
         <v>115</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="56">
-        <v>0</v>
-      </c>
-      <c r="I16" s="56">
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -1953,33 +1945,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="53">
-        <v>1620</v>
-      </c>
-      <c r="C17" s="53">
+      <c r="B17" s="13">
+        <v>1960</v>
+      </c>
+      <c r="C17" s="13">
         <v>300</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>-1320</v>
-      </c>
-      <c r="E17" s="55">
-        <v>0</v>
-      </c>
-      <c r="F17" s="55">
+        <v>-1660</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="56">
-        <v>0</v>
-      </c>
-      <c r="I17" s="56">
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -1988,33 +1980,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="53">
-        <v>0</v>
-      </c>
-      <c r="C18" s="53">
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="13">
         <v>10650</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="56">
-        <v>0</v>
-      </c>
-      <c r="I18" s="56">
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -2023,33 +2015,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="53">
-        <v>1310</v>
-      </c>
-      <c r="C19" s="53">
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-1310</v>
-      </c>
-      <c r="E19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
         <v>5400</v>
       </c>
-      <c r="F19" s="55">
-        <v>9192</v>
+      <c r="F19" s="13">
+        <v>11062</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>3792</v>
-      </c>
-      <c r="H19" s="56">
-        <v>0</v>
-      </c>
-      <c r="I19" s="56">
+        <v>5662</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2058,33 +2050,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="13">
         <v>160</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="13">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="55">
-        <v>0</v>
-      </c>
-      <c r="F20" s="55">
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="56">
-        <v>0</v>
-      </c>
-      <c r="I20" s="56">
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2093,33 +2085,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="53">
-        <v>0</v>
-      </c>
-      <c r="C21" s="53">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="13">
         <v>156</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="13">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="56">
-        <v>0</v>
-      </c>
-      <c r="I21" s="56">
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2128,33 +2120,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="53">
-        <v>0</v>
-      </c>
-      <c r="C22" s="53">
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="55">
-        <v>0</v>
-      </c>
-      <c r="F22" s="55">
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="56">
-        <v>0</v>
-      </c>
-      <c r="I22" s="56">
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2163,33 +2155,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="53">
-        <v>0</v>
-      </c>
-      <c r="C23" s="53">
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="55">
-        <v>0</v>
-      </c>
-      <c r="F23" s="55">
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="13">
         <v>3000</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="13">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2198,33 +2190,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="53">
-        <v>0</v>
-      </c>
-      <c r="C24" s="53">
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="55">
-        <v>0</v>
-      </c>
-      <c r="F24" s="55">
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="56">
-        <v>0</v>
-      </c>
-      <c r="I24" s="56">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2233,33 +2225,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="53">
-        <v>0</v>
-      </c>
-      <c r="C25" s="53">
+      <c r="A25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="55">
-        <v>0</v>
-      </c>
-      <c r="F25" s="55">
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="56">
-        <v>0</v>
-      </c>
-      <c r="I25" s="56">
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2268,33 +2260,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="53">
-        <v>0</v>
-      </c>
-      <c r="C26" s="53">
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="13">
         <v>656</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="13">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="56">
-        <v>0</v>
-      </c>
-      <c r="I26" s="56">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2303,33 +2295,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="53">
-        <v>0</v>
-      </c>
-      <c r="C27" s="53">
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="13">
         <v>1596</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="13">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="56">
-        <v>0</v>
-      </c>
-      <c r="I27" s="56">
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2338,33 +2330,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="53">
-        <v>0</v>
-      </c>
-      <c r="C28" s="53">
+      <c r="A28" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="55">
-        <v>105</v>
-      </c>
-      <c r="F28" s="55">
+      <c r="E28" s="13">
+        <v>100</v>
+      </c>
+      <c r="F28" s="13">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
-        <v>-105</v>
-      </c>
-      <c r="H28" s="56">
-        <v>0</v>
-      </c>
-      <c r="I28" s="56">
+        <v>-100</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2373,33 +2365,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="53">
-        <v>0</v>
-      </c>
-      <c r="C29" s="53">
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="13">
         <v>6000</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="13">
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>-6000</v>
       </c>
-      <c r="H29" s="56">
-        <v>0</v>
-      </c>
-      <c r="I29" s="56">
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2408,33 +2400,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="13">
         <v>610</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="13">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="55">
-        <v>0</v>
-      </c>
-      <c r="F30" s="55">
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="56">
-        <v>0</v>
-      </c>
-      <c r="I30" s="56">
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2443,33 +2435,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="53">
-        <v>0</v>
-      </c>
-      <c r="C31" s="53">
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="55">
-        <v>760</v>
-      </c>
-      <c r="F31" s="55">
+      <c r="E31" s="13">
+        <v>660</v>
+      </c>
+      <c r="F31" s="13">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
-        <v>-760</v>
-      </c>
-      <c r="H31" s="56">
-        <v>0</v>
-      </c>
-      <c r="I31" s="56">
+        <v>-660</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2478,33 +2470,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="13">
         <v>5600</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="13">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="55">
-        <v>0</v>
-      </c>
-      <c r="F32" s="55">
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="56">
-        <v>0</v>
-      </c>
-      <c r="I32" s="56">
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2513,33 +2505,33 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="53">
-        <v>0</v>
-      </c>
-      <c r="C33" s="53">
-        <v>68</v>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>973</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E33" s="55">
-        <v>5</v>
-      </c>
-      <c r="F33" s="55">
+        <v>973</v>
+      </c>
+      <c r="E33" s="13">
+        <v>630</v>
+      </c>
+      <c r="F33" s="13">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="H33" s="56">
-        <v>0</v>
-      </c>
-      <c r="I33" s="56">
+        <v>-630</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
         <v>0</v>
       </c>
       <c r="J33" s="6">
@@ -2548,33 +2540,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="13">
         <v>15</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="13">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="13">
         <v>5600</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F34" s="13">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="56">
-        <v>0</v>
-      </c>
-      <c r="I34" s="56">
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2583,33 +2575,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="53">
-        <v>0</v>
-      </c>
-      <c r="C35" s="53">
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="13">
         <v>10</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F35" s="13">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="56">
-        <v>0</v>
-      </c>
-      <c r="I35" s="56">
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2618,33 +2610,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="53">
-        <v>0</v>
-      </c>
-      <c r="C36" s="53">
+      <c r="A36" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="13">
+        <v>200</v>
+      </c>
+      <c r="C36" s="13">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="55">
-        <v>400</v>
-      </c>
-      <c r="F36" s="55">
+        <v>-200</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
-        <v>-400</v>
-      </c>
-      <c r="H36" s="56">
-        <v>0</v>
-      </c>
-      <c r="I36" s="56">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2653,33 +2645,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="53">
-        <v>0</v>
-      </c>
-      <c r="C37" s="53">
+      <c r="A37" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="55">
-        <v>0</v>
-      </c>
-      <c r="F37" s="55">
-        <v>0</v>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>10424</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="56">
-        <v>0</v>
-      </c>
-      <c r="I37" s="56">
+        <v>10424</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2688,33 +2680,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="53">
+      <c r="A38" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="13">
         <v>20</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="13">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="55">
-        <v>0</v>
-      </c>
-      <c r="F38" s="55">
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="56">
-        <v>0</v>
-      </c>
-      <c r="I38" s="56">
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2723,33 +2715,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="53">
-        <v>0</v>
-      </c>
-      <c r="C39" s="53">
+      <c r="A39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="55">
-        <v>1500</v>
-      </c>
-      <c r="F39" s="55">
+      <c r="E39" s="13">
+        <v>100</v>
+      </c>
+      <c r="F39" s="13">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>-1500</v>
-      </c>
-      <c r="H39" s="56">
-        <v>0</v>
-      </c>
-      <c r="I39" s="56">
+        <v>-100</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2759,32 +2751,32 @@
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="53">
-        <v>0</v>
-      </c>
-      <c r="C40" s="53">
+        <v>45</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="55">
-        <v>0</v>
-      </c>
-      <c r="F40" s="55">
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="56">
-        <v>0</v>
-      </c>
-      <c r="I40" s="56">
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2793,68 +2785,68 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="53">
-        <v>0</v>
-      </c>
-      <c r="C41" s="53">
+      <c r="A41" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="55">
-        <v>9416</v>
-      </c>
-      <c r="F41" s="55">
+      <c r="E41" s="13">
+        <v>14255</v>
+      </c>
+      <c r="F41" s="13">
         <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>-9416</v>
-      </c>
-      <c r="H41" s="56">
-        <v>0</v>
-      </c>
-      <c r="I41" s="56">
+        <v>-14255</v>
+      </c>
+      <c r="H41" s="13">
+        <v>150</v>
+      </c>
+      <c r="I41" s="13">
         <v>0</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="53">
+      <c r="A42" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="13">
         <v>225</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="13">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
         <v>-225</v>
       </c>
-      <c r="E42" s="55">
-        <v>0</v>
-      </c>
-      <c r="F42" s="55">
+      <c r="E42" s="13">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="56">
-        <v>0</v>
-      </c>
-      <c r="I42" s="56">
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2863,33 +2855,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="53">
-        <v>0</v>
-      </c>
-      <c r="C43" s="53">
+      <c r="A43" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
         <v>1200</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="E43" s="55">
-        <v>0</v>
-      </c>
-      <c r="F43" s="55">
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="56">
-        <v>0</v>
-      </c>
-      <c r="I43" s="56">
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2898,33 +2890,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="53">
-        <v>0</v>
-      </c>
-      <c r="C44" s="53">
+      <c r="A44" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="13">
         <v>60</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="56">
-        <v>0</v>
-      </c>
-      <c r="I44" s="56">
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -2933,33 +2925,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="53">
+      <c r="A45" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="13">
         <v>95</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="13">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>-95</v>
       </c>
-      <c r="E45" s="55">
-        <v>0</v>
-      </c>
-      <c r="F45" s="55">
+      <c r="E45" s="13">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="56">
-        <v>0</v>
-      </c>
-      <c r="I45" s="56">
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -2968,33 +2960,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="53">
-        <v>0</v>
-      </c>
-      <c r="C46" s="53">
+      <c r="A46" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="13">
         <v>10</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="13">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="56">
-        <v>0</v>
-      </c>
-      <c r="I46" s="56">
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -3003,33 +2995,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="53">
-        <v>0</v>
-      </c>
-      <c r="C47" s="53">
+      <c r="A47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="13">
         <v>250</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F47" s="13">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="56">
-        <v>0</v>
-      </c>
-      <c r="I47" s="56">
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -3038,33 +3030,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="53">
-        <v>0</v>
-      </c>
-      <c r="C48" s="53">
+      <c r="A48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="13">
         <v>2419</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F48" s="13">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>-2419</v>
       </c>
-      <c r="H48" s="56">
-        <v>0</v>
-      </c>
-      <c r="I48" s="56">
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3073,33 +3065,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="53">
+      <c r="A49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="13">
         <v>74</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C49" s="13">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="55">
-        <v>0</v>
-      </c>
-      <c r="F49" s="55">
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="56">
-        <v>0</v>
-      </c>
-      <c r="I49" s="56">
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3108,33 +3100,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="53">
-        <v>0</v>
-      </c>
-      <c r="C50" s="53">
+      <c r="A50" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F50" s="55">
+      <c r="E50" s="13">
+        <v>0</v>
+      </c>
+      <c r="F50" s="13">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
-        <v>-2000</v>
-      </c>
-      <c r="H50" s="56">
-        <v>0</v>
-      </c>
-      <c r="I50" s="56">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3143,33 +3135,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="53">
-        <v>0</v>
-      </c>
-      <c r="C51" s="53">
+      <c r="A51" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="55">
+      <c r="E51" s="13">
         <v>300</v>
       </c>
-      <c r="F51" s="55">
+      <c r="F51" s="13">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="56">
-        <v>0</v>
-      </c>
-      <c r="I51" s="56">
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3178,33 +3170,33 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="53">
+      <c r="A52" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="13">
         <v>250</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="13">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="55">
-        <v>100</v>
-      </c>
-      <c r="F52" s="55">
+      <c r="E52" s="13">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
         <v>0</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-      <c r="H52" s="56">
-        <v>0</v>
-      </c>
-      <c r="I52" s="56">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3213,68 +3205,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="53">
-        <v>0</v>
-      </c>
-      <c r="C53" s="53">
+      <c r="A53" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="55">
-        <v>21495</v>
-      </c>
-      <c r="F53" s="55">
+      <c r="E53" s="13">
+        <v>11540</v>
+      </c>
+      <c r="F53" s="13">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-21495</v>
-      </c>
-      <c r="H53" s="56">
-        <v>21652</v>
-      </c>
-      <c r="I53" s="56">
+        <v>-11540</v>
+      </c>
+      <c r="H53" s="13">
+        <v>3205</v>
+      </c>
+      <c r="I53" s="13">
         <v>0</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>-21652</v>
+        <v>-3205</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="53">
-        <v>0</v>
-      </c>
-      <c r="C54" s="53">
+      <c r="A54" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="55">
-        <v>0</v>
-      </c>
-      <c r="F54" s="55">
+      <c r="E54" s="13">
+        <v>0</v>
+      </c>
+      <c r="F54" s="13">
         <v>0</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="56">
-        <v>0</v>
-      </c>
-      <c r="I54" s="56">
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3283,33 +3275,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="53">
+      <c r="A55" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="13">
         <v>14</v>
       </c>
-      <c r="C55" s="53">
+      <c r="C55" s="13">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="55">
-        <v>0</v>
-      </c>
-      <c r="F55" s="55">
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="56">
-        <v>0</v>
-      </c>
-      <c r="I55" s="56">
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3318,33 +3310,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="53">
-        <v>0</v>
-      </c>
-      <c r="C56" s="53">
+      <c r="A56" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="55">
-        <v>200</v>
-      </c>
-      <c r="F56" s="55">
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
-        <v>-200</v>
-      </c>
-      <c r="H56" s="56">
-        <v>0</v>
-      </c>
-      <c r="I56" s="56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3353,33 +3345,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="53">
-        <v>0</v>
-      </c>
-      <c r="C57" s="53">
+      <c r="A57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="13">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="55">
+      <c r="E57" s="13">
         <v>10</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F57" s="13">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="56">
-        <v>0</v>
-      </c>
-      <c r="I57" s="56">
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3388,33 +3380,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="53">
-        <v>600</v>
-      </c>
-      <c r="C58" s="53">
+      <c r="A58" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="13">
+        <v>625</v>
+      </c>
+      <c r="C58" s="13">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
-        <v>-600</v>
-      </c>
-      <c r="E58" s="55">
+        <v>-625</v>
+      </c>
+      <c r="E58" s="13">
         <v>2522</v>
       </c>
-      <c r="F58" s="55">
+      <c r="F58" s="13">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="56">
-        <v>0</v>
-      </c>
-      <c r="I58" s="56">
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3423,33 +3415,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="53">
-        <v>0</v>
-      </c>
-      <c r="C59" s="53">
+      <c r="A59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13">
         <v>0</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="55">
-        <v>8965</v>
-      </c>
-      <c r="F59" s="55">
+      <c r="E59" s="13">
+        <v>7495</v>
+      </c>
+      <c r="F59" s="13">
         <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>-8965</v>
-      </c>
-      <c r="H59" s="56">
-        <v>0</v>
-      </c>
-      <c r="I59" s="56">
+        <v>-7495</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3458,33 +3450,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="53">
-        <v>0</v>
-      </c>
-      <c r="C60" s="53">
+      <c r="A60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="55">
+      <c r="E60" s="13">
         <v>165</v>
       </c>
-      <c r="F60" s="55">
+      <c r="F60" s="13">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
         <v>-165</v>
       </c>
-      <c r="H60" s="56">
-        <v>0</v>
-      </c>
-      <c r="I60" s="56">
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3493,33 +3485,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="53">
-        <v>0</v>
-      </c>
-      <c r="C61" s="53">
-        <v>6776</v>
+      <c r="A61" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
-        <v>6776</v>
-      </c>
-      <c r="E61" s="55">
-        <v>967</v>
-      </c>
-      <c r="F61" s="55">
+        <v>0</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
         <v>0</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
-        <v>-967</v>
-      </c>
-      <c r="H61" s="56">
-        <v>0</v>
-      </c>
-      <c r="I61" s="56">
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3528,33 +3520,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="53">
+      <c r="A62" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="13">
         <v>389</v>
       </c>
-      <c r="C62" s="53">
+      <c r="C62" s="13">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="55">
-        <v>0</v>
-      </c>
-      <c r="F62" s="55">
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="56">
-        <v>0</v>
-      </c>
-      <c r="I62" s="56">
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3563,33 +3555,33 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="53">
-        <v>95</v>
-      </c>
-      <c r="C63" s="53">
-        <v>3000</v>
+      <c r="A63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="13">
+        <v>0</v>
+      </c>
+      <c r="C63" s="13">
+        <v>2600</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
-        <v>2905</v>
-      </c>
-      <c r="E63" s="55">
-        <v>671</v>
-      </c>
-      <c r="F63" s="55">
-        <v>1000</v>
+        <v>2600</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
+        <v>500</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
-        <v>329</v>
-      </c>
-      <c r="H63" s="56">
-        <v>0</v>
-      </c>
-      <c r="I63" s="56">
+        <v>500</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
         <v>240</v>
       </c>
       <c r="J63" s="6">
@@ -3598,33 +3590,33 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="53">
-        <v>0</v>
-      </c>
-      <c r="C64" s="53">
+      <c r="A64" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="13">
+        <v>0</v>
+      </c>
+      <c r="C64" s="13">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="55">
+      <c r="E64" s="13">
         <v>200</v>
       </c>
-      <c r="F64" s="55">
+      <c r="F64" s="13">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="56">
-        <v>0</v>
-      </c>
-      <c r="I64" s="56">
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3633,33 +3625,33 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="53">
-        <v>0</v>
-      </c>
-      <c r="C65" s="53">
+      <c r="A65" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="13">
         <v>0</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="55">
-        <v>0</v>
-      </c>
-      <c r="F65" s="55">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="56">
-        <v>0</v>
-      </c>
-      <c r="I65" s="56">
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13">
         <v>0</v>
       </c>
       <c r="J65" s="6">
@@ -3668,33 +3660,33 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="53">
-        <v>0</v>
-      </c>
-      <c r="C66" s="53">
+      <c r="A66" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="13">
         <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="55">
-        <v>0</v>
-      </c>
-      <c r="F66" s="55">
-        <v>1135</v>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>1180</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
-        <v>1135</v>
-      </c>
-      <c r="H66" s="56">
-        <v>0</v>
-      </c>
-      <c r="I66" s="56">
+        <v>1180</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0</v>
+      </c>
+      <c r="I66" s="13">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3703,33 +3695,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="53">
-        <v>0</v>
-      </c>
-      <c r="C67" s="53">
+      <c r="A67" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="13">
+        <v>0</v>
+      </c>
+      <c r="C67" s="13">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="55">
-        <v>0</v>
-      </c>
-      <c r="F67" s="55">
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
         <v>0</v>
       </c>
-      <c r="H67" s="56">
-        <v>0</v>
-      </c>
-      <c r="I67" s="56">
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3738,33 +3730,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="53">
-        <v>0</v>
-      </c>
-      <c r="C68" s="53">
+      <c r="A68" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="55">
+      <c r="E68" s="13">
         <v>16</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="13">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="56">
-        <v>0</v>
-      </c>
-      <c r="I68" s="56">
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3773,33 +3765,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="53">
-        <v>0</v>
-      </c>
-      <c r="C69" s="53">
+      <c r="A69" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="13">
+        <v>0</v>
+      </c>
+      <c r="C69" s="13">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="55">
-        <v>0</v>
-      </c>
-      <c r="F69" s="55">
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
         <v>0</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H69" s="56">
-        <v>0</v>
-      </c>
-      <c r="I69" s="56">
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3808,33 +3800,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="53">
-        <v>0</v>
-      </c>
-      <c r="C70" s="53">
+      <c r="A70" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="13">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="55">
+      <c r="E70" s="13">
         <v>146</v>
       </c>
-      <c r="F70" s="55">
+      <c r="F70" s="13">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="56">
-        <v>0</v>
-      </c>
-      <c r="I70" s="56">
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3843,33 +3835,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="53">
-        <v>0</v>
-      </c>
-      <c r="C71" s="53">
+      <c r="A71" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="13">
+        <v>0</v>
+      </c>
+      <c r="C71" s="13">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="55">
-        <v>1722</v>
-      </c>
-      <c r="F71" s="55">
-        <v>0</v>
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
+        <v>392</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>-1722</v>
-      </c>
-      <c r="H71" s="56">
-        <v>0</v>
-      </c>
-      <c r="I71" s="56">
+        <v>392</v>
+      </c>
+      <c r="H71" s="13">
+        <v>0</v>
+      </c>
+      <c r="I71" s="13">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3878,33 +3870,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="53">
-        <v>0</v>
-      </c>
-      <c r="C72" s="53">
-        <v>0</v>
+      <c r="A72" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="13">
+        <v>50</v>
+      </c>
+      <c r="C72" s="13">
+        <v>2170</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="55">
-        <v>0</v>
-      </c>
-      <c r="F72" s="55">
-        <v>585</v>
+        <v>2120</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
+        <v>0</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
-        <v>585</v>
-      </c>
-      <c r="H72" s="56">
-        <v>0</v>
-      </c>
-      <c r="I72" s="56">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
+      <c r="I72" s="13">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -3913,33 +3905,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="53">
-        <v>0</v>
-      </c>
-      <c r="C73" s="53">
+      <c r="A73" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="13">
+        <v>0</v>
+      </c>
+      <c r="C73" s="13">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="55">
-        <v>13083</v>
-      </c>
-      <c r="F73" s="55">
+      <c r="E73" s="13">
+        <v>12813</v>
+      </c>
+      <c r="F73" s="13">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
-        <v>-13083</v>
-      </c>
-      <c r="H73" s="56">
-        <v>0</v>
-      </c>
-      <c r="I73" s="56">
+        <v>-12813</v>
+      </c>
+      <c r="H73" s="13">
+        <v>0</v>
+      </c>
+      <c r="I73" s="13">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -3948,33 +3940,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="53">
-        <v>0</v>
-      </c>
-      <c r="C74" s="53">
+      <c r="A74" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="13">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="55">
-        <v>330</v>
-      </c>
-      <c r="F74" s="55">
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
-        <v>-330</v>
-      </c>
-      <c r="H74" s="56">
-        <v>0</v>
-      </c>
-      <c r="I74" s="56">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -3983,33 +3975,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="53">
+      <c r="A75" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="13">
         <v>200</v>
       </c>
-      <c r="C75" s="53">
+      <c r="C75" s="13">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="55">
-        <v>0</v>
-      </c>
-      <c r="F75" s="55">
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="56">
-        <v>0</v>
-      </c>
-      <c r="I75" s="56">
+      <c r="H75" s="13">
+        <v>0</v>
+      </c>
+      <c r="I75" s="13">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -4018,33 +4010,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="53">
-        <v>0</v>
-      </c>
-      <c r="C76" s="53">
+      <c r="A76" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="13">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="55">
-        <v>4750</v>
-      </c>
-      <c r="F76" s="55">
+      <c r="E76" s="13">
+        <v>13030</v>
+      </c>
+      <c r="F76" s="13">
         <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-4750</v>
-      </c>
-      <c r="H76" s="56">
-        <v>0</v>
-      </c>
-      <c r="I76" s="56">
+        <v>-13030</v>
+      </c>
+      <c r="H76" s="13">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -4053,33 +4045,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="53">
-        <v>0</v>
-      </c>
-      <c r="C77" s="53">
+      <c r="A77" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="13">
+        <v>0</v>
+      </c>
+      <c r="C77" s="13">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="55">
+      <c r="E77" s="13">
         <v>133</v>
       </c>
-      <c r="F77" s="55">
+      <c r="F77" s="13">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
         <v>-133</v>
       </c>
-      <c r="H77" s="56">
-        <v>0</v>
-      </c>
-      <c r="I77" s="56">
+      <c r="H77" s="13">
+        <v>0</v>
+      </c>
+      <c r="I77" s="13">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4088,33 +4080,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="53">
-        <v>0</v>
-      </c>
-      <c r="C78" s="53">
+      <c r="A78" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="13">
+        <v>0</v>
+      </c>
+      <c r="C78" s="13">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="55">
-        <v>7040</v>
-      </c>
-      <c r="F78" s="55">
-        <v>7000</v>
+      <c r="E78" s="13">
+        <v>12840</v>
+      </c>
+      <c r="F78" s="13">
+        <v>8000</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
-        <v>-40</v>
-      </c>
-      <c r="H78" s="56">
-        <v>0</v>
-      </c>
-      <c r="I78" s="56">
+        <v>-4840</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
+      </c>
+      <c r="I78" s="13">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4123,33 +4115,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="53">
+      <c r="A79" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="13">
         <v>150</v>
       </c>
-      <c r="C79" s="53">
+      <c r="C79" s="13">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="55">
-        <v>812</v>
-      </c>
-      <c r="F79" s="55">
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
         <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
-        <v>-812</v>
-      </c>
-      <c r="H79" s="56">
-        <v>0</v>
-      </c>
-      <c r="I79" s="56">
+        <v>0</v>
+      </c>
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4158,33 +4150,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" s="53">
-        <v>0</v>
-      </c>
-      <c r="C80" s="53">
+      <c r="A80" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="13">
+        <v>0</v>
+      </c>
+      <c r="C80" s="13">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="55">
-        <v>0</v>
-      </c>
-      <c r="F80" s="55">
+      <c r="E80" s="13">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="56">
-        <v>0</v>
-      </c>
-      <c r="I80" s="56">
+      <c r="H80" s="13">
+        <v>0</v>
+      </c>
+      <c r="I80" s="13">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4193,33 +4185,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="53">
-        <v>0</v>
-      </c>
-      <c r="C81" s="53">
+      <c r="A81" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="13">
+        <v>0</v>
+      </c>
+      <c r="C81" s="13">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="55">
-        <v>0</v>
-      </c>
-      <c r="F81" s="55">
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="56">
-        <v>0</v>
-      </c>
-      <c r="I81" s="56">
+      <c r="H81" s="13">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4228,68 +4220,68 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="53">
-        <v>0</v>
-      </c>
-      <c r="C82" s="53">
+      <c r="A82" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0</v>
+      </c>
+      <c r="C82" s="13">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="55">
-        <v>0</v>
-      </c>
-      <c r="F82" s="55">
-        <v>395</v>
+      <c r="E82" s="13">
+        <v>0</v>
+      </c>
+      <c r="F82" s="13">
+        <v>1673</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>395</v>
-      </c>
-      <c r="H82" s="56">
-        <v>0</v>
-      </c>
-      <c r="I82" s="56">
+        <v>1673</v>
+      </c>
+      <c r="H82" s="13">
+        <v>590</v>
+      </c>
+      <c r="I82" s="13">
         <v>0</v>
       </c>
       <c r="J82" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-590</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" s="53">
-        <v>0</v>
-      </c>
-      <c r="C83" s="53">
+      <c r="A83" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="13">
+        <v>0</v>
+      </c>
+      <c r="C83" s="13">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="55">
-        <v>0</v>
-      </c>
-      <c r="F83" s="55">
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="13">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H83" s="56">
-        <v>0</v>
-      </c>
-      <c r="I83" s="56">
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4298,33 +4290,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="53">
-        <v>0</v>
-      </c>
-      <c r="C84" s="53">
+      <c r="A84" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="13">
+        <v>0</v>
+      </c>
+      <c r="C84" s="13">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="55">
+      <c r="E84" s="13">
         <v>312</v>
       </c>
-      <c r="F84" s="55">
+      <c r="F84" s="13">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
         <v>-312</v>
       </c>
-      <c r="H84" s="56">
-        <v>0</v>
-      </c>
-      <c r="I84" s="56">
+      <c r="H84" s="13">
+        <v>0</v>
+      </c>
+      <c r="I84" s="13">
         <v>0</v>
       </c>
       <c r="J84" s="6">
@@ -4333,33 +4325,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="53">
+      <c r="A85" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="13">
         <v>95</v>
       </c>
-      <c r="C85" s="53">
+      <c r="C85" s="13">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="55">
+      <c r="E85" s="13">
         <v>200</v>
       </c>
-      <c r="F85" s="55">
+      <c r="F85" s="13">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="56">
-        <v>0</v>
-      </c>
-      <c r="I85" s="56">
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+      <c r="I85" s="13">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4368,33 +4360,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="53">
-        <v>0</v>
-      </c>
-      <c r="C86" s="53">
+      <c r="A86" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="13">
+        <v>0</v>
+      </c>
+      <c r="C86" s="13">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="55">
-        <v>0</v>
-      </c>
-      <c r="F86" s="55">
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="56">
-        <v>0</v>
-      </c>
-      <c r="I86" s="56">
+      <c r="H86" s="13">
+        <v>0</v>
+      </c>
+      <c r="I86" s="13">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4403,33 +4395,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="53">
-        <v>0</v>
-      </c>
-      <c r="C87" s="53">
+      <c r="A87" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="13">
+        <v>0</v>
+      </c>
+      <c r="C87" s="13">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="55">
-        <v>0</v>
-      </c>
-      <c r="F87" s="55">
+      <c r="E87" s="13">
+        <v>0</v>
+      </c>
+      <c r="F87" s="13">
         <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H87" s="56">
-        <v>0</v>
-      </c>
-      <c r="I87" s="56">
+      <c r="H87" s="13">
+        <v>0</v>
+      </c>
+      <c r="I87" s="13">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4438,33 +4430,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="53">
-        <v>0</v>
-      </c>
-      <c r="C88" s="53">
+      <c r="A88" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="13">
+        <v>0</v>
+      </c>
+      <c r="C88" s="13">
         <v>0</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E88" s="55">
-        <v>0</v>
-      </c>
-      <c r="F88" s="55">
+      <c r="E88" s="13">
+        <v>0</v>
+      </c>
+      <c r="F88" s="13">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="56">
-        <v>0</v>
-      </c>
-      <c r="I88" s="56">
+      <c r="H88" s="13">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4473,33 +4465,33 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B89" s="53">
-        <v>0</v>
-      </c>
-      <c r="C89" s="53">
+      <c r="A89" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="13">
+        <v>0</v>
+      </c>
+      <c r="C89" s="13">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="55">
+      <c r="E89" s="13">
         <v>208</v>
       </c>
-      <c r="F89" s="55">
+      <c r="F89" s="13">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
         <v>-208</v>
       </c>
-      <c r="H89" s="56">
+      <c r="H89" s="13">
         <v>358</v>
       </c>
-      <c r="I89" s="56">
+      <c r="I89" s="13">
         <v>0</v>
       </c>
       <c r="J89" s="6">
@@ -4508,33 +4500,33 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" s="53">
-        <v>0</v>
-      </c>
-      <c r="C90" s="53">
+      <c r="A90" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="13">
+        <v>0</v>
+      </c>
+      <c r="C90" s="13">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="55">
+      <c r="E90" s="13">
         <v>12662</v>
       </c>
-      <c r="F90" s="55">
+      <c r="F90" s="13">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="56">
-        <v>0</v>
-      </c>
-      <c r="I90" s="56">
+      <c r="H90" s="13">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4543,31 +4535,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="53">
-        <v>0</v>
-      </c>
-      <c r="C91" s="53">
+      <c r="A91" s="10"/>
+      <c r="B91" s="13">
+        <v>0</v>
+      </c>
+      <c r="C91" s="13">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="55">
-        <v>0</v>
-      </c>
-      <c r="F91" s="55">
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="56">
-        <v>0</v>
-      </c>
-      <c r="I91" s="56">
+      <c r="H91" s="13">
+        <v>0</v>
+      </c>
+      <c r="I91" s="13">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4576,33 +4568,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="53">
-        <v>0</v>
-      </c>
-      <c r="C92" s="53">
+      <c r="A92" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="13">
+        <v>0</v>
+      </c>
+      <c r="C92" s="13">
         <v>225</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="E92" s="55">
-        <v>0</v>
-      </c>
-      <c r="F92" s="55">
+      <c r="E92" s="13">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="56">
-        <v>0</v>
-      </c>
-      <c r="I92" s="56">
+      <c r="H92" s="13">
+        <v>0</v>
+      </c>
+      <c r="I92" s="13">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4611,33 +4603,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="53">
-        <v>0</v>
-      </c>
-      <c r="C93" s="53">
-        <v>300</v>
+      <c r="A93" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="13">
+        <v>0</v>
+      </c>
+      <c r="C93" s="13">
+        <v>0</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="E93" s="55">
-        <v>0</v>
-      </c>
-      <c r="F93" s="55">
+        <v>0</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="56">
-        <v>0</v>
-      </c>
-      <c r="I93" s="56">
+      <c r="H93" s="13">
+        <v>0</v>
+      </c>
+      <c r="I93" s="13">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4646,33 +4638,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="53">
+      <c r="A94" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="13">
         <v>7</v>
       </c>
-      <c r="C94" s="53">
+      <c r="C94" s="13">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="55">
-        <v>0</v>
-      </c>
-      <c r="F94" s="55">
+      <c r="E94" s="13">
+        <v>0</v>
+      </c>
+      <c r="F94" s="13">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="56">
-        <v>0</v>
-      </c>
-      <c r="I94" s="56">
+      <c r="H94" s="13">
+        <v>0</v>
+      </c>
+      <c r="I94" s="13">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4681,33 +4673,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B95" s="53">
-        <v>0</v>
-      </c>
-      <c r="C95" s="53">
+      <c r="A95" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="13">
+        <v>0</v>
+      </c>
+      <c r="C95" s="13">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="55">
+      <c r="E95" s="13">
         <v>21</v>
       </c>
-      <c r="F95" s="55">
+      <c r="F95" s="13">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="56">
-        <v>0</v>
-      </c>
-      <c r="I95" s="56">
+      <c r="H95" s="13">
+        <v>0</v>
+      </c>
+      <c r="I95" s="13">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4716,33 +4708,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B96" s="53">
-        <v>0</v>
-      </c>
-      <c r="C96" s="53">
+      <c r="A96" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0</v>
+      </c>
+      <c r="C96" s="13">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="55">
-        <v>24478</v>
-      </c>
-      <c r="F96" s="55">
-        <v>12915</v>
+      <c r="E96" s="13">
+        <v>0</v>
+      </c>
+      <c r="F96" s="13">
+        <v>0</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
-        <v>-11563</v>
-      </c>
-      <c r="H96" s="56">
-        <v>0</v>
-      </c>
-      <c r="I96" s="56">
+        <v>0</v>
+      </c>
+      <c r="H96" s="13">
+        <v>0</v>
+      </c>
+      <c r="I96" s="13">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4751,33 +4743,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="53">
-        <v>0</v>
-      </c>
-      <c r="C97" s="53">
+      <c r="A97" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="13">
+        <v>0</v>
+      </c>
+      <c r="C97" s="13">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="55">
+      <c r="E97" s="13">
         <v>350</v>
       </c>
-      <c r="F97" s="55">
+      <c r="F97" s="13">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
         <v>-350</v>
       </c>
-      <c r="H97" s="56">
-        <v>0</v>
-      </c>
-      <c r="I97" s="56">
+      <c r="H97" s="13">
+        <v>0</v>
+      </c>
+      <c r="I97" s="13">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4786,33 +4778,33 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="53">
-        <v>0</v>
-      </c>
-      <c r="C98" s="53">
+      <c r="A98" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="13">
+        <v>0</v>
+      </c>
+      <c r="C98" s="13">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="55">
-        <v>0</v>
-      </c>
-      <c r="F98" s="55">
+      <c r="E98" s="13">
+        <v>0</v>
+      </c>
+      <c r="F98" s="13">
         <v>0</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H98" s="56">
+      <c r="H98" s="13">
         <v>105</v>
       </c>
-      <c r="I98" s="56">
+      <c r="I98" s="13">
         <v>0</v>
       </c>
       <c r="J98" s="6">
@@ -4821,68 +4813,68 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" s="53">
-        <v>0</v>
-      </c>
-      <c r="C99" s="53">
+      <c r="A99" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="13">
+        <v>0</v>
+      </c>
+      <c r="C99" s="13">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="55">
-        <v>400</v>
-      </c>
-      <c r="F99" s="55">
+      <c r="E99" s="13">
+        <v>100</v>
+      </c>
+      <c r="F99" s="13">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
-        <v>-400</v>
-      </c>
-      <c r="H99" s="56">
-        <v>814</v>
-      </c>
-      <c r="I99" s="56">
+        <v>-100</v>
+      </c>
+      <c r="H99" s="13">
+        <v>0</v>
+      </c>
+      <c r="I99" s="13">
         <v>0</v>
       </c>
       <c r="J99" s="6">
         <f t="shared" si="5"/>
-        <v>-814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" s="53">
-        <v>0</v>
-      </c>
-      <c r="C100" s="53">
+      <c r="A100" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="13">
+        <v>0</v>
+      </c>
+      <c r="C100" s="13">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="55">
-        <v>0</v>
-      </c>
-      <c r="F100" s="55">
+      <c r="E100" s="13">
+        <v>0</v>
+      </c>
+      <c r="F100" s="13">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="56">
-        <v>0</v>
-      </c>
-      <c r="I100" s="56">
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="13">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4891,33 +4883,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B101" s="53">
-        <v>0</v>
-      </c>
-      <c r="C101" s="53">
+      <c r="A101" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="13">
+        <v>0</v>
+      </c>
+      <c r="C101" s="13">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="55">
-        <v>0</v>
-      </c>
-      <c r="F101" s="55">
+      <c r="E101" s="13">
+        <v>0</v>
+      </c>
+      <c r="F101" s="13">
         <v>0</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H101" s="56">
-        <v>0</v>
-      </c>
-      <c r="I101" s="56">
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -4926,33 +4918,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B102" s="53">
-        <v>0</v>
-      </c>
-      <c r="C102" s="53">
-        <v>0</v>
+      <c r="A102" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="13">
+        <v>215</v>
+      </c>
+      <c r="C102" s="13">
+        <v>100</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="55">
-        <v>3102</v>
-      </c>
-      <c r="F102" s="55">
+        <v>-115</v>
+      </c>
+      <c r="E102" s="13">
+        <v>0</v>
+      </c>
+      <c r="F102" s="13">
         <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
-        <v>-3102</v>
-      </c>
-      <c r="H102" s="56">
-        <v>0</v>
-      </c>
-      <c r="I102" s="56">
+        <v>0</v>
+      </c>
+      <c r="H102" s="13">
+        <v>0</v>
+      </c>
+      <c r="I102" s="13">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -4961,33 +4953,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="53">
+      <c r="A103" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="13">
         <v>50</v>
       </c>
-      <c r="C103" s="53">
+      <c r="C103" s="13">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="55">
-        <v>0</v>
-      </c>
-      <c r="F103" s="55">
+      <c r="E103" s="13">
+        <v>0</v>
+      </c>
+      <c r="F103" s="13">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="56">
-        <v>0</v>
-      </c>
-      <c r="I103" s="56">
+      <c r="H103" s="13">
+        <v>0</v>
+      </c>
+      <c r="I103" s="13">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -4996,33 +4988,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="53">
-        <v>0</v>
-      </c>
-      <c r="C104" s="53">
+      <c r="A104" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="13">
+        <v>0</v>
+      </c>
+      <c r="C104" s="13">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="55">
-        <v>0</v>
-      </c>
-      <c r="F104" s="55">
-        <v>300</v>
+      <c r="E104" s="13">
+        <v>3599</v>
+      </c>
+      <c r="F104" s="13">
+        <v>0</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="H104" s="56">
-        <v>0</v>
-      </c>
-      <c r="I104" s="56">
+        <v>-3599</v>
+      </c>
+      <c r="H104" s="13">
+        <v>0</v>
+      </c>
+      <c r="I104" s="13">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -5031,33 +5023,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="53">
-        <v>0</v>
-      </c>
-      <c r="C105" s="53">
+      <c r="A105" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="13">
+        <v>0</v>
+      </c>
+      <c r="C105" s="13">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="55">
-        <v>32105</v>
-      </c>
-      <c r="F105" s="55">
+      <c r="E105" s="13">
+        <v>12985</v>
+      </c>
+      <c r="F105" s="13">
         <v>0</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>-32105</v>
-      </c>
-      <c r="H105" s="56">
-        <v>0</v>
-      </c>
-      <c r="I105" s="56">
+        <v>-12985</v>
+      </c>
+      <c r="H105" s="13">
+        <v>0</v>
+      </c>
+      <c r="I105" s="13">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5066,33 +5058,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="53">
-        <v>0</v>
-      </c>
-      <c r="C106" s="53">
+      <c r="A106" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="13">
+        <v>0</v>
+      </c>
+      <c r="C106" s="13">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="55">
+      <c r="E106" s="13">
         <v>300</v>
       </c>
-      <c r="F106" s="55">
+      <c r="F106" s="13">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="56">
-        <v>0</v>
-      </c>
-      <c r="I106" s="56">
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5101,33 +5093,33 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B107" s="53">
-        <v>0</v>
-      </c>
-      <c r="C107" s="53">
+      <c r="A107" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" s="13">
+        <v>0</v>
+      </c>
+      <c r="C107" s="13">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="55">
-        <v>508</v>
-      </c>
-      <c r="F107" s="55">
+      <c r="E107" s="13">
+        <v>6000</v>
+      </c>
+      <c r="F107" s="13">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
-        <v>-508</v>
-      </c>
-      <c r="H107" s="56">
-        <v>0</v>
-      </c>
-      <c r="I107" s="56">
+        <v>-6000</v>
+      </c>
+      <c r="H107" s="13">
+        <v>0</v>
+      </c>
+      <c r="I107" s="13">
         <v>0</v>
       </c>
       <c r="J107" s="6">
@@ -5136,31 +5128,33 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="53">
-        <v>0</v>
-      </c>
-      <c r="C108" s="53">
+      <c r="A108" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="13">
+        <v>0</v>
+      </c>
+      <c r="C108" s="13">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="55">
-        <v>0</v>
-      </c>
-      <c r="F108" s="55">
+      <c r="E108" s="13">
+        <v>300</v>
+      </c>
+      <c r="F108" s="13">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="56">
-        <v>0</v>
-      </c>
-      <c r="I108" s="56">
+        <v>-300</v>
+      </c>
+      <c r="H108" s="13">
+        <v>0</v>
+      </c>
+      <c r="I108" s="13">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5169,31 +5163,33 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="53">
-        <v>0</v>
-      </c>
-      <c r="C109" s="53">
+      <c r="A109" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109" s="13">
+        <v>0</v>
+      </c>
+      <c r="C109" s="13">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="55">
-        <v>0</v>
-      </c>
-      <c r="F109" s="55">
+      <c r="E109" s="13">
+        <v>250</v>
+      </c>
+      <c r="F109" s="13">
         <v>0</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="56">
-        <v>0</v>
-      </c>
-      <c r="I109" s="56">
+        <v>-250</v>
+      </c>
+      <c r="H109" s="13">
+        <v>0</v>
+      </c>
+      <c r="I109" s="13">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5202,33 +5198,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="53">
-        <v>0</v>
-      </c>
-      <c r="C110" s="53">
+      <c r="A110" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" s="13">
+        <v>0</v>
+      </c>
+      <c r="C110" s="13">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="55">
+      <c r="E110" s="13">
         <v>10</v>
       </c>
-      <c r="F110" s="55">
+      <c r="F110" s="13">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="56">
-        <v>0</v>
-      </c>
-      <c r="I110" s="56">
+      <c r="H110" s="13">
+        <v>0</v>
+      </c>
+      <c r="I110" s="13">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5237,31 +5233,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="53">
-        <v>0</v>
-      </c>
-      <c r="C111" s="53">
+      <c r="A111" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" s="13">
+        <v>0</v>
+      </c>
+      <c r="C111" s="13">
         <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E111" s="55">
-        <v>0</v>
-      </c>
-      <c r="F111" s="55">
+      <c r="E111" s="13">
+        <v>327</v>
+      </c>
+      <c r="F111" s="13">
         <v>0</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="56">
-        <v>0</v>
-      </c>
-      <c r="I111" s="56">
+        <v>-327</v>
+      </c>
+      <c r="H111" s="13">
+        <v>0</v>
+      </c>
+      <c r="I111" s="13">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5270,33 +5268,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B112" s="53">
-        <v>0</v>
-      </c>
-      <c r="C112" s="53">
+      <c r="A112" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="13">
+        <v>0</v>
+      </c>
+      <c r="C112" s="13">
         <v>451</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
         <v>451</v>
       </c>
-      <c r="E112" s="55">
-        <v>0</v>
-      </c>
-      <c r="F112" s="55">
+      <c r="E112" s="13">
+        <v>0</v>
+      </c>
+      <c r="F112" s="13">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="56">
-        <v>0</v>
-      </c>
-      <c r="I112" s="56">
+      <c r="H112" s="13">
+        <v>0</v>
+      </c>
+      <c r="I112" s="13">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5305,33 +5303,33 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B113" s="53">
-        <v>0</v>
-      </c>
-      <c r="C113" s="53">
+      <c r="A113" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="13">
+        <v>0</v>
+      </c>
+      <c r="C113" s="13">
         <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="55">
-        <v>0</v>
-      </c>
-      <c r="F113" s="55">
+      <c r="E113" s="13">
+        <v>100</v>
+      </c>
+      <c r="F113" s="13">
         <v>0</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="56">
-        <v>0</v>
-      </c>
-      <c r="I113" s="56">
+        <v>-100</v>
+      </c>
+      <c r="H113" s="13">
+        <v>0</v>
+      </c>
+      <c r="I113" s="13">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5340,33 +5338,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" s="53">
-        <v>0</v>
-      </c>
-      <c r="C114" s="53">
-        <v>0</v>
+      <c r="A114" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114" s="13">
+        <v>0</v>
+      </c>
+      <c r="C114" s="13">
+        <v>370</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E114" s="55">
-        <v>45349</v>
-      </c>
-      <c r="F114" s="55">
+        <v>370</v>
+      </c>
+      <c r="E114" s="13">
+        <v>27312</v>
+      </c>
+      <c r="F114" s="13">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-45349</v>
-      </c>
-      <c r="H114" s="56">
-        <v>0</v>
-      </c>
-      <c r="I114" s="56">
+        <v>-27312</v>
+      </c>
+      <c r="H114" s="13">
+        <v>0</v>
+      </c>
+      <c r="I114" s="13">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5375,33 +5373,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B115" s="53">
-        <v>1800</v>
-      </c>
-      <c r="C115" s="53">
+      <c r="A115" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" s="13">
+        <v>800</v>
+      </c>
+      <c r="C115" s="13">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
-        <v>-1800</v>
-      </c>
-      <c r="E115" s="55">
-        <v>0</v>
-      </c>
-      <c r="F115" s="55">
+        <v>-800</v>
+      </c>
+      <c r="E115" s="13">
+        <v>0</v>
+      </c>
+      <c r="F115" s="13">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="56">
-        <v>0</v>
-      </c>
-      <c r="I115" s="56">
+      <c r="H115" s="13">
+        <v>0</v>
+      </c>
+      <c r="I115" s="13">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5410,33 +5408,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B116" s="53">
-        <v>0</v>
-      </c>
-      <c r="C116" s="53">
-        <v>2832</v>
+      <c r="A116" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" s="13">
+        <v>0</v>
+      </c>
+      <c r="C116" s="13">
+        <v>2340</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
-        <v>2832</v>
-      </c>
-      <c r="E116" s="55">
-        <v>277</v>
-      </c>
-      <c r="F116" s="55">
+        <v>2340</v>
+      </c>
+      <c r="E116" s="13">
+        <v>7</v>
+      </c>
+      <c r="F116" s="13">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
-        <v>-277</v>
-      </c>
-      <c r="H116" s="56">
-        <v>0</v>
-      </c>
-      <c r="I116" s="56">
+        <v>-7</v>
+      </c>
+      <c r="H116" s="13">
+        <v>0</v>
+      </c>
+      <c r="I116" s="13">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5445,33 +5443,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B117" s="53">
+      <c r="A117" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" s="13">
         <v>200</v>
       </c>
-      <c r="C117" s="53">
+      <c r="C117" s="13">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E117" s="55">
-        <v>8247</v>
-      </c>
-      <c r="F117" s="55">
-        <v>8050</v>
+      <c r="E117" s="13">
+        <v>13997</v>
+      </c>
+      <c r="F117" s="13">
+        <v>10400</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
-        <v>-197</v>
-      </c>
-      <c r="H117" s="56">
-        <v>0</v>
-      </c>
-      <c r="I117" s="56">
+        <v>-3597</v>
+      </c>
+      <c r="H117" s="13">
+        <v>0</v>
+      </c>
+      <c r="I117" s="13">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5480,33 +5478,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B118" s="53">
-        <v>0</v>
-      </c>
-      <c r="C118" s="53">
+      <c r="A118" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118" s="13">
+        <v>0</v>
+      </c>
+      <c r="C118" s="13">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="55">
+      <c r="E118" s="13">
         <v>7682</v>
       </c>
-      <c r="F118" s="55">
+      <c r="F118" s="13">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="56">
-        <v>0</v>
-      </c>
-      <c r="I118" s="56">
+      <c r="H118" s="13">
+        <v>0</v>
+      </c>
+      <c r="I118" s="13">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5515,33 +5513,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B119" s="53">
-        <v>0</v>
-      </c>
-      <c r="C119" s="53">
+      <c r="A119" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B119" s="13">
+        <v>245</v>
+      </c>
+      <c r="C119" s="13">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="55">
-        <v>1357</v>
-      </c>
-      <c r="F119" s="55">
+        <v>-245</v>
+      </c>
+      <c r="E119" s="13">
+        <v>1113</v>
+      </c>
+      <c r="F119" s="13">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-1357</v>
-      </c>
-      <c r="H119" s="56">
-        <v>0</v>
-      </c>
-      <c r="I119" s="56">
+        <v>-1113</v>
+      </c>
+      <c r="H119" s="13">
+        <v>0</v>
+      </c>
+      <c r="I119" s="13">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5550,33 +5548,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="53">
+      <c r="A120" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" s="13">
         <v>300</v>
       </c>
-      <c r="C120" s="53">
+      <c r="C120" s="13">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E120" s="55">
-        <v>0</v>
-      </c>
-      <c r="F120" s="55">
+      <c r="E120" s="13">
+        <v>26</v>
+      </c>
+      <c r="F120" s="13">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="56">
-        <v>0</v>
-      </c>
-      <c r="I120" s="56">
+        <v>-26</v>
+      </c>
+      <c r="H120" s="13">
+        <v>0</v>
+      </c>
+      <c r="I120" s="13">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5585,33 +5583,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B121" s="53">
-        <v>0</v>
-      </c>
-      <c r="C121" s="53">
+      <c r="A121" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="13">
+        <v>0</v>
+      </c>
+      <c r="C121" s="13">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="55">
+      <c r="E121" s="13">
         <v>15000</v>
       </c>
-      <c r="F121" s="55">
+      <c r="F121" s="13">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="56">
-        <v>0</v>
-      </c>
-      <c r="I121" s="56">
+      <c r="H121" s="13">
+        <v>0</v>
+      </c>
+      <c r="I121" s="13">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5620,31 +5618,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
-      <c r="B122" s="53">
-        <v>0</v>
-      </c>
-      <c r="C122" s="53">
+      <c r="A122" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="13">
+        <v>0</v>
+      </c>
+      <c r="C122" s="13">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="55">
-        <v>0</v>
-      </c>
-      <c r="F122" s="55">
+      <c r="E122" s="13">
+        <v>508</v>
+      </c>
+      <c r="F122" s="13">
         <v>0</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="56">
-        <v>0</v>
-      </c>
-      <c r="I122" s="56">
+        <v>-508</v>
+      </c>
+      <c r="H122" s="13">
+        <v>0</v>
+      </c>
+      <c r="I122" s="13">
         <v>0</v>
       </c>
       <c r="J122" s="6">
@@ -5653,33 +5653,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="53">
-        <v>0</v>
-      </c>
-      <c r="C123" s="53">
+      <c r="A123" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="13">
+        <v>1430</v>
+      </c>
+      <c r="C123" s="13">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E123" s="55">
+        <v>-1430</v>
+      </c>
+      <c r="E123" s="13">
         <v>2880</v>
       </c>
-      <c r="F123" s="55">
+      <c r="F123" s="13">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
         <v>-2880</v>
       </c>
-      <c r="H123" s="56">
-        <v>0</v>
-      </c>
-      <c r="I123" s="56">
+      <c r="H123" s="13">
+        <v>0</v>
+      </c>
+      <c r="I123" s="13">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5688,33 +5688,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="53">
+      <c r="A124" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="13">
         <v>400</v>
       </c>
-      <c r="C124" s="53">
+      <c r="C124" s="13">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
         <v>-400</v>
       </c>
-      <c r="E124" s="55">
-        <v>0</v>
-      </c>
-      <c r="F124" s="55">
+      <c r="E124" s="13">
+        <v>0</v>
+      </c>
+      <c r="F124" s="13">
         <v>0</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H124" s="56">
-        <v>0</v>
-      </c>
-      <c r="I124" s="56">
+      <c r="H124" s="13">
+        <v>0</v>
+      </c>
+      <c r="I124" s="13">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5723,33 +5723,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B125" s="53">
-        <v>1120</v>
-      </c>
-      <c r="C125" s="53">
+      <c r="A125" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C125" s="13">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
-        <v>-1120</v>
-      </c>
-      <c r="E125" s="55">
-        <v>0</v>
-      </c>
-      <c r="F125" s="55">
+        <v>-1000</v>
+      </c>
+      <c r="E125" s="13">
+        <v>0</v>
+      </c>
+      <c r="F125" s="13">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H125" s="56">
-        <v>0</v>
-      </c>
-      <c r="I125" s="56">
+      <c r="H125" s="13">
+        <v>0</v>
+      </c>
+      <c r="I125" s="13">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5758,33 +5758,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B126" s="53">
-        <v>0</v>
-      </c>
-      <c r="C126" s="53">
+      <c r="A126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="13">
+        <v>0</v>
+      </c>
+      <c r="C126" s="13">
         <v>0</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E126" s="55">
-        <v>0</v>
-      </c>
-      <c r="F126" s="55">
-        <v>678</v>
+      <c r="E126" s="13">
+        <v>108</v>
+      </c>
+      <c r="F126" s="13">
+        <v>0</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
-        <v>678</v>
-      </c>
-      <c r="H126" s="56">
-        <v>0</v>
-      </c>
-      <c r="I126" s="56">
+        <v>-108</v>
+      </c>
+      <c r="H126" s="13">
+        <v>0</v>
+      </c>
+      <c r="I126" s="13">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5793,33 +5793,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" s="53">
-        <v>0</v>
-      </c>
-      <c r="C127" s="53">
+      <c r="A127" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="13">
+        <v>0</v>
+      </c>
+      <c r="C127" s="13">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="55">
-        <v>149276</v>
-      </c>
-      <c r="F127" s="55">
+      <c r="E127" s="13">
+        <v>500</v>
+      </c>
+      <c r="F127" s="13">
         <v>0</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
-        <v>-149276</v>
-      </c>
-      <c r="H127" s="56">
-        <v>0</v>
-      </c>
-      <c r="I127" s="56">
+        <v>-500</v>
+      </c>
+      <c r="H127" s="13">
+        <v>0</v>
+      </c>
+      <c r="I127" s="13">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5828,33 +5828,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B128" s="53">
+      <c r="A128" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" s="13">
         <v>300</v>
       </c>
-      <c r="C128" s="53">
+      <c r="C128" s="13">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E128" s="55">
-        <v>0</v>
-      </c>
-      <c r="F128" s="55">
+      <c r="E128" s="13">
+        <v>0</v>
+      </c>
+      <c r="F128" s="13">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H128" s="56">
-        <v>0</v>
-      </c>
-      <c r="I128" s="56">
+      <c r="H128" s="13">
+        <v>0</v>
+      </c>
+      <c r="I128" s="13">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5863,31 +5863,33 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
-      <c r="B129" s="53">
-        <v>0</v>
-      </c>
-      <c r="C129" s="53">
+      <c r="A129" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="13">
+        <v>0</v>
+      </c>
+      <c r="C129" s="13">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="55">
-        <v>0</v>
-      </c>
-      <c r="F129" s="55">
+      <c r="E129" s="13">
+        <v>128</v>
+      </c>
+      <c r="F129" s="13">
         <v>0</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H129" s="56">
-        <v>0</v>
-      </c>
-      <c r="I129" s="56">
+        <v>-128</v>
+      </c>
+      <c r="H129" s="13">
+        <v>0</v>
+      </c>
+      <c r="I129" s="13">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5896,33 +5898,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B130" s="53">
-        <v>0</v>
-      </c>
-      <c r="C130" s="53">
+      <c r="A130" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="13">
+        <v>0</v>
+      </c>
+      <c r="C130" s="13">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E130" s="55">
+      <c r="E130" s="13">
         <v>23000</v>
       </c>
-      <c r="F130" s="55">
+      <c r="F130" s="13">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
         <v>-23000</v>
       </c>
-      <c r="H130" s="56">
-        <v>0</v>
-      </c>
-      <c r="I130" s="56">
+      <c r="H130" s="13">
+        <v>0</v>
+      </c>
+      <c r="I130" s="13">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -5931,31 +5933,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
-      <c r="B131" s="53">
-        <v>0</v>
-      </c>
-      <c r="C131" s="53">
+      <c r="A131" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" s="13">
+        <v>0</v>
+      </c>
+      <c r="C131" s="13">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
         <v>0</v>
       </c>
-      <c r="E131" s="55">
-        <v>0</v>
-      </c>
-      <c r="F131" s="55">
+      <c r="E131" s="13">
+        <v>3000</v>
+      </c>
+      <c r="F131" s="13">
         <v>0</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="56">
-        <v>0</v>
-      </c>
-      <c r="I131" s="56">
+        <v>-3000</v>
+      </c>
+      <c r="H131" s="13">
+        <v>0</v>
+      </c>
+      <c r="I131" s="13">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -5964,33 +5968,33 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="53">
-        <v>0</v>
-      </c>
-      <c r="C132" s="53">
-        <v>0</v>
+      <c r="A132" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B132" s="13">
+        <v>0</v>
+      </c>
+      <c r="C132" s="13">
+        <v>323</v>
       </c>
       <c r="D132" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E132" s="55">
-        <v>0</v>
-      </c>
-      <c r="F132" s="55">
-        <v>51200</v>
+        <v>323</v>
+      </c>
+      <c r="E132" s="13">
+        <v>0</v>
+      </c>
+      <c r="F132" s="13">
+        <v>0</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
-        <v>51200</v>
-      </c>
-      <c r="H132" s="56">
-        <v>0</v>
-      </c>
-      <c r="I132" s="56">
+        <v>0</v>
+      </c>
+      <c r="H132" s="13">
+        <v>0</v>
+      </c>
+      <c r="I132" s="13">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -5999,33 +6003,33 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B133" s="53">
-        <v>0</v>
-      </c>
-      <c r="C133" s="53">
+      <c r="A133" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" s="13">
+        <v>0</v>
+      </c>
+      <c r="C133" s="13">
         <v>0</v>
       </c>
       <c r="D133" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="55">
+      <c r="E133" s="13">
         <v>1478</v>
       </c>
-      <c r="F133" s="55">
+      <c r="F133" s="13">
         <v>0</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="7"/>
         <v>-1478</v>
       </c>
-      <c r="H133" s="56">
-        <v>0</v>
-      </c>
-      <c r="I133" s="56">
+      <c r="H133" s="13">
+        <v>0</v>
+      </c>
+      <c r="I133" s="13">
         <v>0</v>
       </c>
       <c r="J133" s="6">
@@ -6034,33 +6038,33 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B134" s="53">
-        <v>0</v>
-      </c>
-      <c r="C134" s="53">
+      <c r="A134" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="13">
+        <v>0</v>
+      </c>
+      <c r="C134" s="13">
         <v>0</v>
       </c>
       <c r="D134" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E134" s="55">
-        <v>1220</v>
-      </c>
-      <c r="F134" s="55">
+      <c r="E134" s="13">
+        <v>670</v>
+      </c>
+      <c r="F134" s="13">
         <v>0</v>
       </c>
       <c r="G134" s="6">
         <f t="shared" si="7"/>
-        <v>-1220</v>
-      </c>
-      <c r="H134" s="56">
-        <v>0</v>
-      </c>
-      <c r="I134" s="56">
+        <v>-670</v>
+      </c>
+      <c r="H134" s="13">
+        <v>0</v>
+      </c>
+      <c r="I134" s="13">
         <v>0</v>
       </c>
       <c r="J134" s="6">
@@ -6069,33 +6073,33 @@
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" s="53">
-        <v>0</v>
-      </c>
-      <c r="C135" s="53">
+      <c r="A135" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="13">
+        <v>0</v>
+      </c>
+      <c r="C135" s="13">
         <v>0</v>
       </c>
       <c r="D135" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E135" s="55">
-        <v>0</v>
-      </c>
-      <c r="F135" s="55">
-        <v>404900</v>
+      <c r="E135" s="13">
+        <v>0</v>
+      </c>
+      <c r="F135" s="13">
+        <v>60620</v>
       </c>
       <c r="G135" s="6">
         <f t="shared" si="7"/>
-        <v>404900</v>
-      </c>
-      <c r="H135" s="56">
-        <v>0</v>
-      </c>
-      <c r="I135" s="56">
+        <v>60620</v>
+      </c>
+      <c r="H135" s="13">
+        <v>0</v>
+      </c>
+      <c r="I135" s="13">
         <v>0</v>
       </c>
       <c r="J135" s="6">
@@ -6104,33 +6108,33 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" s="54">
-        <v>0</v>
-      </c>
-      <c r="C136" s="53">
+      <c r="A136" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="48">
+        <v>1050</v>
+      </c>
+      <c r="C136" s="13">
         <v>0</v>
       </c>
       <c r="D136" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="55">
-        <v>0</v>
-      </c>
-      <c r="F136" s="55">
-        <v>345</v>
+        <v>-1050</v>
+      </c>
+      <c r="E136" s="13">
+        <v>0</v>
+      </c>
+      <c r="F136" s="13">
+        <v>0</v>
       </c>
       <c r="G136" s="6">
         <f t="shared" si="7"/>
-        <v>345</v>
-      </c>
-      <c r="H136" s="56">
-        <v>0</v>
-      </c>
-      <c r="I136" s="56">
+        <v>0</v>
+      </c>
+      <c r="H136" s="13">
+        <v>0</v>
+      </c>
+      <c r="I136" s="13">
         <v>0</v>
       </c>
       <c r="J136" s="6">
@@ -6139,21 +6143,33 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="34"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="48">
+        <v>0</v>
+      </c>
+      <c r="C137" s="13">
+        <v>0</v>
+      </c>
       <c r="D137" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
+      <c r="E137" s="13">
+        <v>0</v>
+      </c>
+      <c r="F137" s="13">
+        <v>0</v>
+      </c>
       <c r="G137" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
+      <c r="H137" s="13">
+        <v>0</v>
+      </c>
+      <c r="I137" s="13">
+        <v>0</v>
+      </c>
       <c r="J137" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6161,20 +6177,32 @@
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
+      <c r="B138" s="48">
+        <v>0</v>
+      </c>
+      <c r="C138" s="13">
+        <v>0</v>
+      </c>
       <c r="D138" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
+      <c r="E138" s="13">
+        <v>0</v>
+      </c>
+      <c r="F138" s="13">
+        <v>0</v>
+      </c>
       <c r="G138" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
+      <c r="H138" s="13">
+        <v>0</v>
+      </c>
+      <c r="I138" s="13">
+        <v>0</v>
+      </c>
       <c r="J138" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6182,20 +6210,32 @@
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
+      <c r="B139" s="48">
+        <v>0</v>
+      </c>
+      <c r="C139" s="13">
+        <v>0</v>
+      </c>
       <c r="D139" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
+      <c r="E139" s="13">
+        <v>0</v>
+      </c>
+      <c r="F139" s="13">
+        <v>0</v>
+      </c>
       <c r="G139" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
+      <c r="H139" s="13">
+        <v>0</v>
+      </c>
+      <c r="I139" s="13">
+        <v>0</v>
+      </c>
       <c r="J139" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6203,20 +6243,32 @@
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
+      <c r="B140" s="48">
+        <v>0</v>
+      </c>
+      <c r="C140" s="13">
+        <v>0</v>
+      </c>
       <c r="D140" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
+      <c r="E140" s="13">
+        <v>0</v>
+      </c>
+      <c r="F140" s="13">
+        <v>0</v>
+      </c>
       <c r="G140" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
+      <c r="H140" s="13">
+        <v>0</v>
+      </c>
+      <c r="I140" s="13">
+        <v>0</v>
+      </c>
       <c r="J140" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6224,20 +6276,32 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
+      <c r="B141" s="48">
+        <v>0</v>
+      </c>
+      <c r="C141" s="13">
+        <v>0</v>
+      </c>
       <c r="D141" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
+      <c r="E141" s="13">
+        <v>0</v>
+      </c>
+      <c r="F141" s="13">
+        <v>0</v>
+      </c>
       <c r="G141" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
+      <c r="H141" s="13">
+        <v>0</v>
+      </c>
+      <c r="I141" s="13">
+        <v>0</v>
+      </c>
       <c r="J141" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6245,20 +6309,32 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
+      <c r="B142" s="48">
+        <v>0</v>
+      </c>
+      <c r="C142" s="13">
+        <v>0</v>
+      </c>
       <c r="D142" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
+      <c r="E142" s="13">
+        <v>0</v>
+      </c>
+      <c r="F142" s="13">
+        <v>0</v>
+      </c>
       <c r="G142" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
+      <c r="H142" s="13">
+        <v>0</v>
+      </c>
+      <c r="I142" s="13">
+        <v>0</v>
+      </c>
       <c r="J142" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6266,20 +6342,32 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
+      <c r="B143" s="48">
+        <v>0</v>
+      </c>
+      <c r="C143" s="13">
+        <v>0</v>
+      </c>
       <c r="D143" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
+      <c r="E143" s="13">
+        <v>0</v>
+      </c>
+      <c r="F143" s="13">
+        <v>0</v>
+      </c>
       <c r="G143" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
+      <c r="H143" s="13">
+        <v>0</v>
+      </c>
+      <c r="I143" s="13">
+        <v>0</v>
+      </c>
       <c r="J143" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6287,20 +6375,32 @@
     </row>
     <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="27"/>
+      <c r="B144" s="48">
+        <v>0</v>
+      </c>
+      <c r="C144" s="13">
+        <v>0</v>
+      </c>
       <c r="D144" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E144" s="28"/>
-      <c r="F144" s="28"/>
+      <c r="E144" s="13">
+        <v>0</v>
+      </c>
+      <c r="F144" s="13">
+        <v>0</v>
+      </c>
       <c r="G144" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
+      <c r="H144" s="13">
+        <v>0</v>
+      </c>
+      <c r="I144" s="13">
+        <v>0</v>
+      </c>
       <c r="J144" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6308,20 +6408,32 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="27"/>
+      <c r="B145" s="48">
+        <v>0</v>
+      </c>
+      <c r="C145" s="13">
+        <v>0</v>
+      </c>
       <c r="D145" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
+      <c r="E145" s="13">
+        <v>0</v>
+      </c>
+      <c r="F145" s="13">
+        <v>0</v>
+      </c>
       <c r="G145" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
+      <c r="H145" s="13">
+        <v>0</v>
+      </c>
+      <c r="I145" s="13">
+        <v>0</v>
+      </c>
       <c r="J145" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6329,20 +6441,32 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
+      <c r="B146" s="48">
+        <v>0</v>
+      </c>
+      <c r="C146" s="13">
+        <v>0</v>
+      </c>
       <c r="D146" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
+      <c r="E146" s="13">
+        <v>0</v>
+      </c>
+      <c r="F146" s="13">
+        <v>0</v>
+      </c>
       <c r="G146" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
+      <c r="H146" s="13">
+        <v>0</v>
+      </c>
+      <c r="I146" s="13">
+        <v>0</v>
+      </c>
       <c r="J146" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6350,20 +6474,32 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
+      <c r="B147" s="48">
+        <v>0</v>
+      </c>
+      <c r="C147" s="13">
+        <v>0</v>
+      </c>
       <c r="D147" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
+      <c r="E147" s="13">
+        <v>0</v>
+      </c>
+      <c r="F147" s="13">
+        <v>0</v>
+      </c>
       <c r="G147" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
+      <c r="H147" s="13">
+        <v>0</v>
+      </c>
+      <c r="I147" s="13">
+        <v>0</v>
+      </c>
       <c r="J147" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6371,20 +6507,32 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
+      <c r="B148" s="48">
+        <v>0</v>
+      </c>
+      <c r="C148" s="13">
+        <v>0</v>
+      </c>
       <c r="D148" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
+      <c r="E148" s="13">
+        <v>0</v>
+      </c>
+      <c r="F148" s="13">
+        <v>0</v>
+      </c>
       <c r="G148" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
+      <c r="H148" s="13">
+        <v>0</v>
+      </c>
+      <c r="I148" s="13">
+        <v>0</v>
+      </c>
       <c r="J148" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6392,20 +6540,32 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
+      <c r="B149" s="48">
+        <v>0</v>
+      </c>
+      <c r="C149" s="13">
+        <v>0</v>
+      </c>
       <c r="D149" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
+      <c r="E149" s="13">
+        <v>0</v>
+      </c>
+      <c r="F149" s="13">
+        <v>0</v>
+      </c>
       <c r="G149" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H149" s="29"/>
-      <c r="I149" s="29"/>
+      <c r="H149" s="13">
+        <v>0</v>
+      </c>
+      <c r="I149" s="13">
+        <v>0</v>
+      </c>
       <c r="J149" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6413,20 +6573,32 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
+      <c r="B150" s="48">
+        <v>0</v>
+      </c>
+      <c r="C150" s="13">
+        <v>0</v>
+      </c>
       <c r="D150" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E150" s="28"/>
-      <c r="F150" s="28"/>
+      <c r="E150" s="13">
+        <v>0</v>
+      </c>
+      <c r="F150" s="13">
+        <v>0</v>
+      </c>
       <c r="G150" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
+      <c r="H150" s="13">
+        <v>0</v>
+      </c>
+      <c r="I150" s="13">
+        <v>0</v>
+      </c>
       <c r="J150" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6434,20 +6606,32 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="27"/>
+      <c r="B151" s="48">
+        <v>0</v>
+      </c>
+      <c r="C151" s="13">
+        <v>0</v>
+      </c>
       <c r="D151" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
+      <c r="E151" s="13">
+        <v>0</v>
+      </c>
+      <c r="F151" s="13">
+        <v>0</v>
+      </c>
       <c r="G151" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
+      <c r="H151" s="13">
+        <v>0</v>
+      </c>
+      <c r="I151" s="13">
+        <v>0</v>
+      </c>
       <c r="J151" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6455,29 +6639,151 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
+      <c r="B152" s="48">
+        <v>0</v>
+      </c>
+      <c r="C152" s="13">
+        <v>0</v>
+      </c>
       <c r="D152" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
+      <c r="E152" s="13">
+        <v>0</v>
+      </c>
+      <c r="F152" s="13">
+        <v>0</v>
+      </c>
       <c r="G152" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
+      <c r="H152" s="13">
+        <v>0</v>
+      </c>
+      <c r="I152" s="13">
+        <v>0</v>
+      </c>
       <c r="J152" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
+      <c r="B153" s="48">
+        <v>0</v>
+      </c>
+      <c r="C153" s="13">
+        <v>0</v>
+      </c>
+      <c r="E153" s="13">
+        <v>0</v>
+      </c>
+      <c r="F153" s="13">
+        <v>0</v>
+      </c>
+      <c r="H153" s="13">
+        <v>0</v>
+      </c>
+      <c r="I153" s="13">
+        <v>0</v>
+      </c>
       <c r="L153" s="14"/>
+    </row>
+    <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B154" s="48">
+        <v>0</v>
+      </c>
+      <c r="C154" s="13">
+        <v>0</v>
+      </c>
+      <c r="E154" s="13">
+        <v>0</v>
+      </c>
+      <c r="F154" s="13">
+        <v>0</v>
+      </c>
+      <c r="H154" s="13">
+        <v>0</v>
+      </c>
+      <c r="I154" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H155" s="13">
+        <v>0</v>
+      </c>
+      <c r="I155" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H156" s="13">
+        <v>0</v>
+      </c>
+      <c r="I156" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H157" s="13">
+        <v>0</v>
+      </c>
+      <c r="I157" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H158" s="13">
+        <v>0</v>
+      </c>
+      <c r="I158" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H159" s="13">
+        <v>0</v>
+      </c>
+      <c r="I159" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H160" s="13">
+        <v>0</v>
+      </c>
+      <c r="I160" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="8:9" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H161" s="13">
+        <v>0</v>
+      </c>
+      <c r="I161" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="8:9" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H162" s="13">
+        <v>0</v>
+      </c>
+      <c r="I162" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="8:9" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="H163" s="13">
+        <v>0</v>
+      </c>
+      <c r="I163" s="13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6491,7 +6797,7 @@
   <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6501,7 +6807,7 @@
     <col min="3" max="3" width="11" style="15" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9" style="15" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
@@ -6529,25 +6835,25 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>138</v>
+      <c r="A4" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>29462</v>
+        <v>152370</v>
       </c>
       <c r="D4" s="15">
-        <v>27712</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="15">
-        <v>0</v>
+        <v>-2498</v>
       </c>
       <c r="C5" s="15">
         <v>-500</v>
@@ -6557,7 +6863,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15">
@@ -6571,63 +6877,63 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="C7" s="15">
-        <v>-3345</v>
+        <v>1383</v>
       </c>
       <c r="D7" s="15">
-        <v>300</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>11</v>
+        <v>480</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="15">
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <v>-70000</v>
+        <v>138</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="15">
         <v>0</v>
       </c>
       <c r="C10" s="15">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="15">
@@ -6641,21 +6947,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="15">
@@ -6669,21 +6975,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="15">
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <v>-890</v>
+        <v>-3899</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="15">
@@ -6697,21 +7003,21 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="15">
         <v>0</v>
       </c>
       <c r="C16" s="15">
-        <v>-300</v>
+        <v>-2800</v>
       </c>
       <c r="D16" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="15">
@@ -6725,7 +7031,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="15">
@@ -6739,11 +7045,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="15">
-        <v>-1320</v>
+        <v>-1660</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
@@ -6753,7 +7059,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="15">
@@ -6767,21 +7073,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="34" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="15">
-        <v>-1310</v>
+        <v>0</v>
       </c>
       <c r="C21" s="15">
-        <v>3792</v>
+        <v>5662</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="15">
@@ -6795,7 +7101,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15">
@@ -6809,7 +7115,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="15">
@@ -6823,7 +7129,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="15">
@@ -6837,7 +7143,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="15">
@@ -6851,8 +7157,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>58</v>
+      <c r="A27" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="B27" s="15">
         <v>0</v>
@@ -6865,7 +7171,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="15">
@@ -6879,7 +7185,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="15">
@@ -6893,21 +7199,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>128</v>
+      <c r="A30" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="B30" s="15">
         <v>0</v>
       </c>
       <c r="C30" s="15">
-        <v>-105</v>
+        <v>-100</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="15">
@@ -6921,7 +7227,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="15">
@@ -6935,21 +7241,21 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="15">
         <v>0</v>
       </c>
       <c r="C33" s="15">
-        <v>-760</v>
+        <v>-660</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="15">
@@ -6963,21 +7269,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="15">
-        <v>68</v>
+        <v>973</v>
       </c>
       <c r="C35" s="15">
-        <v>-5</v>
+        <v>-630</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="15">
@@ -6991,7 +7297,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="15">
@@ -7005,36 +7311,36 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>129</v>
+      <c r="A38" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="B38" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C38" s="15">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D38" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="15">
+        <v>0</v>
+      </c>
+      <c r="C39" s="15">
+        <v>10424</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
         <v>44</v>
-      </c>
-      <c r="B39" s="15">
-        <v>0</v>
-      </c>
-      <c r="C39" s="15">
-        <v>0</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>45</v>
       </c>
       <c r="B40" s="15">
         <v>-20</v>
@@ -7047,14 +7353,14 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
-        <v>139</v>
+      <c r="A41" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
       </c>
       <c r="C41" s="15">
-        <v>-1500</v>
+        <v>-100</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
@@ -7062,7 +7368,7 @@
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="15">
         <v>5475</v>
@@ -7075,22 +7381,22 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="A43" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="15">
+        <v>0</v>
+      </c>
+      <c r="C43" s="15">
+        <v>-14255</v>
+      </c>
+      <c r="D43" s="15">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B43" s="15">
-        <v>0</v>
-      </c>
-      <c r="C43" s="15">
-        <v>-9416</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
-        <v>48</v>
       </c>
       <c r="B44" s="15">
         <v>-225</v>
@@ -7103,8 +7409,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>49</v>
+      <c r="A45" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="B45" s="15">
         <v>1200</v>
@@ -7117,8 +7423,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
-        <v>50</v>
+      <c r="A46" s="44" t="s">
+        <v>49</v>
       </c>
       <c r="B46" s="15">
         <v>0</v>
@@ -7131,8 +7437,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>141</v>
+      <c r="A47" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B47" s="15">
         <v>-95</v>
@@ -7145,8 +7451,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>51</v>
+      <c r="A48" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="B48" s="15">
         <v>0</v>
@@ -7159,8 +7465,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>52</v>
+      <c r="A49" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B49" s="15">
         <v>0</v>
@@ -7173,8 +7479,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
-        <v>53</v>
+      <c r="A50" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B50" s="15">
         <v>300</v>
@@ -7187,8 +7493,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>54</v>
+      <c r="A51" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B51" s="15">
         <v>-74</v>
@@ -7201,22 +7507,22 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
-        <v>142</v>
+      <c r="A52" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
       </c>
       <c r="C52" s="15">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D52" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
-        <v>55</v>
+      <c r="A53" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="B53" s="15">
         <v>0</v>
@@ -7229,36 +7535,36 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
-        <v>56</v>
+      <c r="A54" s="45" t="s">
+        <v>55</v>
       </c>
       <c r="B54" s="15">
         <v>-250</v>
       </c>
       <c r="C54" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D54" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
-        <v>57</v>
+      <c r="A55" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-21495</v>
+        <v>-11540</v>
       </c>
       <c r="D55" s="15">
-        <v>-21652</v>
+        <v>-3205</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
-        <v>120</v>
+      <c r="A56" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B56" s="15">
         <v>0</v>
@@ -7271,8 +7577,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
-        <v>59</v>
+      <c r="A57" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B57" s="15">
         <v>-14</v>
@@ -7285,22 +7591,22 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
-        <v>121</v>
+      <c r="A58" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="B58" s="15">
         <v>0</v>
       </c>
       <c r="C58" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>60</v>
+      <c r="A59" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B59" s="15">
         <v>0</v>
@@ -7313,11 +7619,11 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
-        <v>123</v>
+      <c r="A60" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="B60" s="15">
-        <v>-600</v>
+        <v>-625</v>
       </c>
       <c r="C60" s="15">
         <v>-2522</v>
@@ -7327,22 +7633,22 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="15">
+        <v>0</v>
+      </c>
+      <c r="C61" s="15">
+        <v>-7495</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B61" s="15">
-        <v>0</v>
-      </c>
-      <c r="C61" s="15">
-        <v>-8965</v>
-      </c>
-      <c r="D61" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
-        <v>62</v>
       </c>
       <c r="B62" s="15">
         <v>0</v>
@@ -7355,22 +7661,22 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="15">
+        <v>0</v>
+      </c>
+      <c r="C63" s="15">
+        <v>0</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="B63" s="15">
-        <v>6776</v>
-      </c>
-      <c r="C63" s="15">
-        <v>-967</v>
-      </c>
-      <c r="D63" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
-        <v>64</v>
       </c>
       <c r="B64" s="15">
         <v>-389</v>
@@ -7383,22 +7689,22 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>65</v>
+      <c r="A65" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B65" s="15">
-        <v>2905</v>
+        <v>2600</v>
       </c>
       <c r="C65" s="15">
-        <v>329</v>
+        <v>500</v>
       </c>
       <c r="D65" s="15">
         <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
-        <v>66</v>
+      <c r="A66" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B66" s="15">
         <v>0</v>
@@ -7411,8 +7717,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
-        <v>67</v>
+      <c r="A67" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B67" s="15">
         <v>0</v>
@@ -7425,22 +7731,22 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
-        <v>68</v>
+      <c r="A68" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B68" s="15">
         <v>20</v>
       </c>
       <c r="C68" s="15">
-        <v>1135</v>
+        <v>1180</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
-        <v>69</v>
+      <c r="A69" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B69" s="15">
         <v>0</v>
@@ -7453,8 +7759,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
-        <v>70</v>
+      <c r="A70" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="B70" s="15">
         <v>0</v>
@@ -7467,8 +7773,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
-        <v>122</v>
+      <c r="A71" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
@@ -7481,8 +7787,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
-        <v>71</v>
+      <c r="A72" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B72" s="15">
         <v>0</v>
@@ -7495,64 +7801,64 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="34" t="s">
-        <v>124</v>
+      <c r="A73" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B73" s="15">
         <v>0</v>
       </c>
       <c r="C73" s="15">
-        <v>-1722</v>
+        <v>392</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="15">
+        <v>2120</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0</v>
+      </c>
+      <c r="D74" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="15">
+        <v>0</v>
+      </c>
+      <c r="C75" s="15">
+        <v>-12813</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="15">
+        <v>0</v>
+      </c>
+      <c r="C76" s="15">
+        <v>0</v>
+      </c>
+      <c r="D76" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="B74" s="15">
-        <v>0</v>
-      </c>
-      <c r="C74" s="15">
-        <v>585</v>
-      </c>
-      <c r="D74" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="15">
-        <v>0</v>
-      </c>
-      <c r="C75" s="15">
-        <v>-13083</v>
-      </c>
-      <c r="D75" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="15">
-        <v>0</v>
-      </c>
-      <c r="C76" s="15">
-        <v>-330</v>
-      </c>
-      <c r="D76" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="34" t="s">
-        <v>74</v>
       </c>
       <c r="B77" s="15">
         <v>-200</v>
@@ -7565,22 +7871,22 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
-        <v>75</v>
+      <c r="A78" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B78" s="15">
         <v>0</v>
       </c>
       <c r="C78" s="15">
-        <v>-4750</v>
+        <v>-13030</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
-        <v>76</v>
+      <c r="A79" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B79" s="15">
         <v>0</v>
@@ -7593,36 +7899,36 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="34" t="s">
-        <v>77</v>
+      <c r="A80" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B80" s="15">
         <v>0</v>
       </c>
       <c r="C80" s="15">
-        <v>-40</v>
+        <v>-4840</v>
       </c>
       <c r="D80" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
-        <v>78</v>
+      <c r="A81" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="B81" s="15">
         <v>-150</v>
       </c>
       <c r="C81" s="15">
-        <v>-812</v>
+        <v>0</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="34" t="s">
-        <v>79</v>
+      <c r="A82" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B82" s="15">
         <v>1620</v>
@@ -7635,8 +7941,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="51" t="s">
-        <v>80</v>
+      <c r="A83" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="B83" s="15">
         <v>0</v>
@@ -7649,22 +7955,22 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
-        <v>81</v>
+      <c r="A84" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B84" s="15">
         <v>0</v>
       </c>
       <c r="C84" s="15">
-        <v>395</v>
+        <v>1673</v>
       </c>
       <c r="D84" s="15">
-        <v>0</v>
+        <v>-590</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
-        <v>140</v>
+      <c r="A85" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B85" s="15">
         <v>0</v>
@@ -7677,8 +7983,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
-        <v>127</v>
+      <c r="A86" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B86" s="15">
         <v>0</v>
@@ -7691,8 +7997,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
-        <v>82</v>
+      <c r="A87" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B87" s="15">
         <v>-95</v>
@@ -7705,8 +8011,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
-        <v>83</v>
+      <c r="A88" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B88" s="15">
         <v>0</v>
@@ -7719,8 +8025,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
-        <v>84</v>
+      <c r="A89" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
@@ -7733,8 +8039,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
-        <v>85</v>
+      <c r="A90" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B90" s="15">
         <v>0</v>
@@ -7747,8 +8053,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
-        <v>125</v>
+      <c r="A91" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B91" s="15">
         <v>0</v>
@@ -7761,8 +8067,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
-        <v>86</v>
+      <c r="A92" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B92" s="15">
         <v>0</v>
@@ -7775,7 +8081,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="15">
         <v>0</v>
       </c>
@@ -7787,8 +8093,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="34" t="s">
-        <v>126</v>
+      <c r="A94" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B94" s="15">
         <v>225</v>
@@ -7801,11 +8107,11 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="34" t="s">
-        <v>87</v>
+      <c r="A95" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B95" s="15">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C95" s="15">
         <v>0</v>
@@ -7815,8 +8121,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="34" t="s">
-        <v>88</v>
+      <c r="A96" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="B96" s="15">
         <v>-7</v>
@@ -7829,8 +8135,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
-        <v>89</v>
+      <c r="A97" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="B97" s="15">
         <v>0</v>
@@ -7843,22 +8149,22 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="s">
-        <v>90</v>
+      <c r="A98" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B98" s="15">
         <v>0</v>
       </c>
       <c r="C98" s="15">
-        <v>-11563</v>
+        <v>0</v>
       </c>
       <c r="D98" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="34" t="s">
-        <v>91</v>
+      <c r="A99" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B99" s="15">
         <v>0</v>
@@ -7871,8 +8177,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="34" t="s">
-        <v>144</v>
+      <c r="A100" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B100" s="15">
         <v>0</v>
@@ -7885,64 +8191,64 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="15">
+        <v>0</v>
+      </c>
+      <c r="C101" s="15">
+        <v>-100</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="15">
+        <v>0</v>
+      </c>
+      <c r="C102" s="15">
+        <v>0</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="15">
+        <v>0</v>
+      </c>
+      <c r="C103" s="15">
+        <v>0</v>
+      </c>
+      <c r="D103" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="15">
+        <v>-115</v>
+      </c>
+      <c r="C104" s="15">
+        <v>0</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="B101" s="15">
-        <v>0</v>
-      </c>
-      <c r="C101" s="15">
-        <v>-400</v>
-      </c>
-      <c r="D101" s="15">
-        <v>-814</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B102" s="15">
-        <v>0</v>
-      </c>
-      <c r="C102" s="15">
-        <v>0</v>
-      </c>
-      <c r="D102" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B103" s="15">
-        <v>0</v>
-      </c>
-      <c r="C103" s="15">
-        <v>0</v>
-      </c>
-      <c r="D103" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B104" s="15">
-        <v>0</v>
-      </c>
-      <c r="C104" s="15">
-        <v>-3102</v>
-      </c>
-      <c r="D104" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="34" t="s">
-        <v>95</v>
       </c>
       <c r="B105" s="15">
         <v>-50</v>
@@ -7955,36 +8261,36 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="34" t="s">
-        <v>96</v>
+      <c r="A106" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
       </c>
       <c r="C106" s="15">
-        <v>300</v>
+        <v>-3599</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
-        <v>97</v>
+      <c r="A107" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="B107" s="15">
         <v>0</v>
       </c>
       <c r="C107" s="15">
-        <v>-32105</v>
+        <v>-12985</v>
       </c>
       <c r="D107" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="34" t="s">
-        <v>98</v>
+      <c r="A108" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B108" s="15">
         <v>245</v>
@@ -7997,46 +8303,50 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="15">
+        <v>0</v>
+      </c>
+      <c r="C109" s="15">
+        <v>-6000</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="15">
+        <v>0</v>
+      </c>
+      <c r="C110" s="15">
+        <v>-300</v>
+      </c>
+      <c r="D110" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="15">
-        <v>0</v>
-      </c>
-      <c r="C109" s="15">
-        <v>-508</v>
-      </c>
-      <c r="D109" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="15">
-        <v>0</v>
-      </c>
-      <c r="C110" s="15">
-        <v>0</v>
-      </c>
-      <c r="D110" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
       <c r="B111" s="15">
         <v>0</v>
       </c>
       <c r="C111" s="15">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D111" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="36" t="s">
-        <v>99</v>
+      <c r="A112" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B112" s="15">
         <v>0</v>
@@ -8049,20 +8359,22 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
+      <c r="A113" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="B113" s="15">
         <v>0</v>
       </c>
       <c r="C113" s="15">
-        <v>0</v>
+        <v>-327</v>
       </c>
       <c r="D113" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
-        <v>100</v>
+      <c r="A114" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B114" s="15">
         <v>451</v>
@@ -8075,78 +8387,78 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="34" t="s">
-        <v>131</v>
+      <c r="A115" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B115" s="15">
         <v>0</v>
       </c>
       <c r="C115" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D115" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="s">
+      <c r="A116" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="15">
+        <v>370</v>
+      </c>
+      <c r="C116" s="15">
+        <v>-27312</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="15">
+        <v>-800</v>
+      </c>
+      <c r="C117" s="15">
+        <v>0</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="15">
+        <v>2340</v>
+      </c>
+      <c r="C118" s="15">
+        <v>-7</v>
+      </c>
+      <c r="D118" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B116" s="15">
-        <v>0</v>
-      </c>
-      <c r="C116" s="15">
-        <v>-45349</v>
-      </c>
-      <c r="D116" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B117" s="15">
-        <v>-1800</v>
-      </c>
-      <c r="C117" s="15">
-        <v>0</v>
-      </c>
-      <c r="D117" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B118" s="15">
-        <v>2832</v>
-      </c>
-      <c r="C118" s="15">
-        <v>-277</v>
-      </c>
-      <c r="D118" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="34" t="s">
-        <v>104</v>
       </c>
       <c r="B119" s="15">
         <v>-200</v>
       </c>
       <c r="C119" s="15">
-        <v>-197</v>
+        <v>-3597</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="34" t="s">
-        <v>105</v>
+      <c r="A120" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B120" s="15">
         <v>23800</v>
@@ -8159,36 +8471,36 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
-        <v>106</v>
+      <c r="A121" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B121" s="15">
-        <v>0</v>
+        <v>-245</v>
       </c>
       <c r="C121" s="15">
-        <v>-1357</v>
+        <v>-1113</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="34" t="s">
-        <v>107</v>
+      <c r="A122" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="B122" s="15">
         <v>-300</v>
       </c>
       <c r="C122" s="15">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="D122" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="34" t="s">
-        <v>108</v>
+      <c r="A123" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="B123" s="15">
         <v>0</v>
@@ -8201,23 +8513,25 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
+      <c r="A124" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="B124" s="15">
         <v>0</v>
       </c>
       <c r="C124" s="15">
-        <v>0</v>
+        <v>-508</v>
       </c>
       <c r="D124" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="34" t="s">
-        <v>132</v>
+      <c r="A125" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B125" s="15">
-        <v>0</v>
+        <v>-1430</v>
       </c>
       <c r="C125" s="15">
         <v>-2880</v>
@@ -8227,8 +8541,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="34" t="s">
-        <v>133</v>
+      <c r="A126" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B126" s="15">
         <v>-400</v>
@@ -8241,11 +8555,11 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="34" t="s">
-        <v>109</v>
+      <c r="A127" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B127" s="15">
-        <v>-1120</v>
+        <v>-1000</v>
       </c>
       <c r="C127" s="15">
         <v>0</v>
@@ -8255,36 +8569,36 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="34" t="s">
-        <v>110</v>
+      <c r="A128" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="B128" s="15">
         <v>0</v>
       </c>
       <c r="C128" s="15">
-        <v>678</v>
+        <v>-108</v>
       </c>
       <c r="D128" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="34" t="s">
-        <v>134</v>
+      <c r="A129" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B129" s="15">
         <v>0</v>
       </c>
       <c r="C129" s="15">
-        <v>-149276</v>
+        <v>-500</v>
       </c>
       <c r="D129" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="34" t="s">
-        <v>111</v>
+      <c r="A130" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B130" s="15">
         <v>-300</v>
@@ -8297,20 +8611,22 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
+      <c r="A131" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="B131" s="15">
         <v>0</v>
       </c>
       <c r="C131" s="15">
-        <v>0</v>
+        <v>-128</v>
       </c>
       <c r="D131" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="34" t="s">
-        <v>112</v>
+      <c r="A132" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="B132" s="15">
         <v>0</v>
@@ -8323,34 +8639,36 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="34"/>
+      <c r="A133" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="B133" s="15">
         <v>0</v>
       </c>
       <c r="C133" s="15">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="34" t="s">
-        <v>135</v>
+      <c r="A134" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B134" s="15">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="C134" s="15">
-        <v>51200</v>
+        <v>0</v>
       </c>
       <c r="D134" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="34" t="s">
-        <v>113</v>
+      <c r="A135" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="B135" s="15">
         <v>0</v>
@@ -8363,49 +8681,49 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="34" t="s">
-        <v>114</v>
+      <c r="A136" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B136" s="15">
         <v>0</v>
       </c>
       <c r="C136" s="15">
-        <v>-1220</v>
+        <v>-670</v>
       </c>
       <c r="D136" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="34" t="s">
-        <v>136</v>
+      <c r="A137" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B137" s="15">
         <v>0</v>
       </c>
       <c r="C137" s="15">
-        <v>404900</v>
+        <v>60620</v>
       </c>
       <c r="D137" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="34" t="s">
-        <v>137</v>
+      <c r="A138" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="B138" s="15">
-        <v>0</v>
+        <v>-1050</v>
       </c>
       <c r="C138" s="15">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="D138" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
+      <c r="A139" s="28"/>
     </row>
     <row r="140" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
@@ -8454,15 +8772,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>30703</v>
+        <v>23550</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>27203</v>
+        <v>21349</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>2283</v>
+        <v>4750</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8492,7 +8810,7 @@
     </row>
     <row r="159" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C159" s="26"/>
       <c r="D159" s="23" t="s">
@@ -8504,40 +8822,52 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B160" s="15">
-        <v>6527</v>
+        <v>10556</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
         <v>7</v>
       </c>
+      <c r="E160" s="16">
+        <v>3.72</v>
+      </c>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B161" s="15">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
         <v>8</v>
       </c>
+      <c r="E161" s="16">
+        <v>0.71</v>
+      </c>
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B162" s="15">
-        <v>198</v>
+        <v>-846</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">
         <v>9</v>
+      </c>
+      <c r="E162" s="15">
+        <v>0.115</v>
+      </c>
+      <c r="F162" s="31">
+        <v>32.3478260869</v>
       </c>
       <c r="G162" s="15"/>
     </row>
@@ -8547,6 +8877,12 @@
       <c r="D163" s="25" t="s">
         <v>10</v>
       </c>
+      <c r="E163" s="15">
+        <v>0.185</v>
+      </c>
+      <c r="F163" s="31">
+        <v>3.83783783783</v>
+      </c>
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8555,24 +8891,27 @@
       <c r="D164" s="25" t="s">
         <v>11</v>
       </c>
+      <c r="E164" s="16">
+        <v>1.08</v>
+      </c>
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B165" s="15">
         <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A52785E-D54F-49C8-A6DE-8621A933C73B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F68DDD-739D-4C2C-BA7A-B65FB819F646}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="1965" windowWidth="9195" windowHeight="8535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="164">
   <si>
     <t>الشيكل</t>
   </si>
@@ -532,6 +532,42 @@
   </si>
   <si>
     <t>محمد شيك</t>
+  </si>
+  <si>
+    <t>ام العبد الترتوري 2</t>
+  </si>
+  <si>
+    <t>عبد اللطيف عبيد</t>
+  </si>
+  <si>
+    <t>سعدو خلف</t>
+  </si>
+  <si>
+    <t>محمد شعت</t>
+  </si>
+  <si>
+    <t>ابوضياء الخالدي</t>
+  </si>
+  <si>
+    <t>فراس دير البلح</t>
+  </si>
+  <si>
+    <t>اميره الواديه</t>
+  </si>
+  <si>
+    <t>شادي ابوحصيره</t>
+  </si>
+  <si>
+    <t>حسن العبادله</t>
+  </si>
+  <si>
+    <t>الدكتور القيشاوي</t>
+  </si>
+  <si>
+    <t>محمد الخزندار</t>
+  </si>
+  <si>
+    <t>حميد</t>
   </si>
 </sst>
 </file>
@@ -932,7 +968,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,12 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,6 +1068,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J136"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,65 +1525,65 @@
       <c r="A2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="68">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>152370</v>
+      <c r="E2" s="69">
+        <v>0</v>
+      </c>
+      <c r="F2" s="69">
+        <v>259891</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
-        <v>152370</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>10848</v>
+        <v>259891</v>
+      </c>
+      <c r="H2" s="70">
+        <v>0</v>
+      </c>
+      <c r="I2" s="70">
+        <v>10621</v>
       </c>
       <c r="J2" s="6">
         <f>I2-H2</f>
-        <v>10848</v>
+        <v>10621</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13">
-        <v>2498</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="68">
+        <v>3086</v>
+      </c>
+      <c r="C3" s="68">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-2498</v>
-      </c>
-      <c r="E3" s="13">
-        <v>500</v>
-      </c>
-      <c r="F3" s="13">
+        <v>-3086</v>
+      </c>
+      <c r="E3" s="69">
+        <v>0</v>
+      </c>
+      <c r="F3" s="69">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>-500</v>
-      </c>
-      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="70">
         <v>40</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="70">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1490,33 +1592,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="68">
+        <v>0</v>
+      </c>
+      <c r="C4" s="68">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="69">
+        <v>0</v>
+      </c>
+      <c r="F4" s="69">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="H4" s="70">
+        <v>0</v>
+      </c>
+      <c r="I4" s="70">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1525,68 +1627,68 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>475</v>
+      <c r="B5" s="68">
+        <v>0</v>
+      </c>
+      <c r="C5" s="68">
+        <v>0</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>475</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1383</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="69">
+        <v>0</v>
+      </c>
+      <c r="F5" s="69">
+        <v>500</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>1383</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>1110</v>
+        <v>500</v>
+      </c>
+      <c r="H5" s="70">
+        <v>0</v>
+      </c>
+      <c r="I5" s="70">
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>1110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="68">
+        <v>0</v>
+      </c>
+      <c r="C6" s="68">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>480</v>
+      <c r="E6" s="69">
+        <v>0</v>
+      </c>
+      <c r="F6" s="69">
+        <v>3353</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
+        <v>3353</v>
+      </c>
+      <c r="H6" s="70">
+        <v>0</v>
+      </c>
+      <c r="I6" s="70">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1595,33 +1697,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="A7" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="68">
+        <v>1050</v>
+      </c>
+      <c r="C7" s="68">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>138</v>
+        <v>-1050</v>
+      </c>
+      <c r="E7" s="69">
+        <v>0</v>
+      </c>
+      <c r="F7" s="69">
+        <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="70">
+        <v>0</v>
+      </c>
+      <c r="I7" s="70">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1630,33 +1732,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="68">
+        <v>0</v>
+      </c>
+      <c r="C8" s="68">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="69">
+        <v>0</v>
+      </c>
+      <c r="F8" s="69">
         <v>472</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>472</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="70">
+        <v>0</v>
+      </c>
+      <c r="I8" s="70">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1665,33 +1767,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="68">
+        <v>0</v>
+      </c>
+      <c r="C9" s="68">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="69">
         <v>33</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="69">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="70">
+        <v>0</v>
+      </c>
+      <c r="I9" s="70">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1700,33 +1802,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="68">
+        <v>0</v>
+      </c>
+      <c r="C10" s="68">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="69">
+        <v>18</v>
+      </c>
+      <c r="F10" s="69">
         <v>0</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
+        <v>-18</v>
+      </c>
+      <c r="H10" s="70">
+        <v>0</v>
+      </c>
+      <c r="I10" s="70">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1735,33 +1837,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="68">
+        <v>0</v>
+      </c>
+      <c r="C11" s="68">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="69">
+        <v>0</v>
+      </c>
+      <c r="F11" s="69">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="H11" s="70">
+        <v>0</v>
+      </c>
+      <c r="I11" s="70">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1770,33 +1872,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="68">
+        <v>0</v>
+      </c>
+      <c r="C12" s="68">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="13">
-        <v>18899</v>
-      </c>
-      <c r="F12" s="13">
-        <v>15000</v>
+      <c r="E12" s="69">
+        <v>1013</v>
+      </c>
+      <c r="F12" s="69">
+        <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>-3899</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
+        <v>-1013</v>
+      </c>
+      <c r="H12" s="70">
+        <v>0</v>
+      </c>
+      <c r="I12" s="70">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1805,33 +1907,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="68">
+        <v>0</v>
+      </c>
+      <c r="C13" s="68">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="69">
+        <v>0</v>
+      </c>
+      <c r="F13" s="69">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="H13" s="70">
+        <v>0</v>
+      </c>
+      <c r="I13" s="70">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1840,33 +1942,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="68">
+        <v>0</v>
+      </c>
+      <c r="C14" s="68">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="13">
-        <v>2800</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="E14" s="69">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="69">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>-2800</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
+        <v>-1400</v>
+      </c>
+      <c r="H14" s="70">
+        <v>0</v>
+      </c>
+      <c r="I14" s="70">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1875,33 +1977,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="68">
         <v>1070</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="68">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="69">
+        <v>0</v>
+      </c>
+      <c r="F15" s="69">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="H15" s="70">
+        <v>0</v>
+      </c>
+      <c r="I15" s="70">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1910,33 +2012,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="68">
         <v>40</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="68">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="69">
         <v>115</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="69">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="H16" s="70">
+        <v>0</v>
+      </c>
+      <c r="I16" s="70">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -1945,33 +2047,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="13">
-        <v>1960</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="68">
+        <v>1980</v>
+      </c>
+      <c r="C17" s="68">
         <v>300</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>-1660</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
+        <v>-1680</v>
+      </c>
+      <c r="E17" s="69">
+        <v>0</v>
+      </c>
+      <c r="F17" s="69">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="H17" s="70">
+        <v>0</v>
+      </c>
+      <c r="I17" s="70">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -1980,33 +2082,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="68">
+        <v>0</v>
+      </c>
+      <c r="C18" s="68">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="69">
         <v>10650</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="69">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="H18" s="70">
+        <v>0</v>
+      </c>
+      <c r="I18" s="70">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -2015,33 +2117,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="68">
+        <v>470</v>
+      </c>
+      <c r="C19" s="68">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
-        <v>5400</v>
-      </c>
-      <c r="F19" s="13">
-        <v>11062</v>
+        <v>-470</v>
+      </c>
+      <c r="E19" s="69">
+        <v>4000</v>
+      </c>
+      <c r="F19" s="69">
+        <v>6894</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>5662</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
+        <v>2894</v>
+      </c>
+      <c r="H19" s="70">
+        <v>0</v>
+      </c>
+      <c r="I19" s="70">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2050,33 +2152,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="68">
         <v>160</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="68">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
+      <c r="E20" s="69">
+        <v>0</v>
+      </c>
+      <c r="F20" s="69">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13">
+      <c r="H20" s="70">
+        <v>0</v>
+      </c>
+      <c r="I20" s="70">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2085,33 +2187,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="68">
+        <v>0</v>
+      </c>
+      <c r="C21" s="68">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="69">
         <v>156</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="69">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="H21" s="70">
+        <v>0</v>
+      </c>
+      <c r="I21" s="70">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2120,33 +2222,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="68">
+        <v>0</v>
+      </c>
+      <c r="C22" s="68">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E22" s="69">
+        <v>0</v>
+      </c>
+      <c r="F22" s="69">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="H22" s="70">
+        <v>0</v>
+      </c>
+      <c r="I22" s="70">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2155,33 +2257,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="68">
+        <v>0</v>
+      </c>
+      <c r="C23" s="68">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="E23" s="69">
+        <v>0</v>
+      </c>
+      <c r="F23" s="69">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="70">
         <v>3000</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="70">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2190,33 +2292,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24" s="68">
+        <v>0</v>
+      </c>
+      <c r="C24" s="68">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="69">
+        <v>0</v>
+      </c>
+      <c r="F24" s="69">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="H24" s="70">
+        <v>0</v>
+      </c>
+      <c r="I24" s="70">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2225,33 +2327,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="68">
+        <v>0</v>
+      </c>
+      <c r="C25" s="68">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="69">
+        <v>0</v>
+      </c>
+      <c r="F25" s="69">
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="H25" s="70">
+        <v>0</v>
+      </c>
+      <c r="I25" s="70">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2260,33 +2362,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26" s="68">
+        <v>0</v>
+      </c>
+      <c r="C26" s="68">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="69">
         <v>656</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="69">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="H26" s="70">
+        <v>0</v>
+      </c>
+      <c r="I26" s="70">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2295,33 +2397,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B27" s="68">
+        <v>0</v>
+      </c>
+      <c r="C27" s="68">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="69">
         <v>1596</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="69">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="H27" s="70">
+        <v>0</v>
+      </c>
+      <c r="I27" s="70">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2330,33 +2432,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="A28" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="68">
+        <v>300</v>
+      </c>
+      <c r="C28" s="68">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
-        <v>100</v>
-      </c>
-      <c r="F28" s="13">
+        <v>-300</v>
+      </c>
+      <c r="E28" s="69">
+        <v>0</v>
+      </c>
+      <c r="F28" s="69">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="70">
+        <v>0</v>
+      </c>
+      <c r="I28" s="70">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2365,33 +2467,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="B29" s="68">
+        <v>0</v>
+      </c>
+      <c r="C29" s="68">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="69">
         <v>6000</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="69">
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>-6000</v>
       </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="H29" s="70">
+        <v>0</v>
+      </c>
+      <c r="I29" s="70">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2400,33 +2502,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="68">
         <v>610</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="68">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="13">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="E30" s="69">
+        <v>0</v>
+      </c>
+      <c r="F30" s="69">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
+      <c r="H30" s="70">
+        <v>0</v>
+      </c>
+      <c r="I30" s="70">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2435,33 +2537,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31" s="68">
+        <v>0</v>
+      </c>
+      <c r="C31" s="68">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="13">
-        <v>660</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="E31" s="69">
+        <v>600</v>
+      </c>
+      <c r="F31" s="69">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
-        <v>-660</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
+        <v>-600</v>
+      </c>
+      <c r="H31" s="70">
+        <v>0</v>
+      </c>
+      <c r="I31" s="70">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2470,33 +2572,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="68">
         <v>5600</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="68">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
+      <c r="E32" s="69">
+        <v>0</v>
+      </c>
+      <c r="F32" s="69">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13">
+      <c r="H32" s="70">
+        <v>0</v>
+      </c>
+      <c r="I32" s="70">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2505,33 +2607,33 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="13">
-        <v>0</v>
-      </c>
-      <c r="C33" s="13">
-        <v>973</v>
+      <c r="B33" s="68">
+        <v>0</v>
+      </c>
+      <c r="C33" s="68">
+        <v>2114</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>973</v>
-      </c>
-      <c r="E33" s="13">
-        <v>630</v>
-      </c>
-      <c r="F33" s="13">
+        <v>2114</v>
+      </c>
+      <c r="E33" s="69">
+        <v>3641</v>
+      </c>
+      <c r="F33" s="69">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>-630</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
-      </c>
-      <c r="I33" s="13">
+        <v>-3641</v>
+      </c>
+      <c r="H33" s="70">
+        <v>0</v>
+      </c>
+      <c r="I33" s="70">
         <v>0</v>
       </c>
       <c r="J33" s="6">
@@ -2540,33 +2642,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="68">
         <v>15</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="68">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="69">
         <v>5600</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="69">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="I34" s="13">
+      <c r="H34" s="70">
+        <v>0</v>
+      </c>
+      <c r="I34" s="70">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2575,33 +2677,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="13">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="B35" s="68">
+        <v>0</v>
+      </c>
+      <c r="C35" s="68">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="69">
         <v>10</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="69">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="13">
+      <c r="H35" s="70">
+        <v>0</v>
+      </c>
+      <c r="I35" s="70">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2610,33 +2712,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="13">
-        <v>200</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="A36" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="68">
+        <v>0</v>
+      </c>
+      <c r="C36" s="68">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
-        <v>-200</v>
-      </c>
-      <c r="E36" s="13">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="69">
+        <v>0</v>
+      </c>
+      <c r="F36" s="69">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="H36" s="70">
+        <v>0</v>
+      </c>
+      <c r="I36" s="70">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2645,33 +2747,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="13">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="B37" s="68">
+        <v>0</v>
+      </c>
+      <c r="C37" s="68">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
-        <v>10424</v>
+      <c r="E37" s="69">
+        <v>0</v>
+      </c>
+      <c r="F37" s="69">
+        <v>2793</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
-        <v>10424</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="13">
+        <v>2793</v>
+      </c>
+      <c r="H37" s="70">
+        <v>0</v>
+      </c>
+      <c r="I37" s="70">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2680,33 +2782,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="68">
         <v>20</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="68">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
+      <c r="E38" s="69">
+        <v>0</v>
+      </c>
+      <c r="F38" s="69">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
+      <c r="H38" s="70">
+        <v>0</v>
+      </c>
+      <c r="I38" s="70">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2715,33 +2817,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="13">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="B39" s="68">
+        <v>0</v>
+      </c>
+      <c r="C39" s="68">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="13">
-        <v>100</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="E39" s="69">
+        <v>0</v>
+      </c>
+      <c r="F39" s="69">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="70">
+        <v>0</v>
+      </c>
+      <c r="I39" s="70">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2750,33 +2852,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="13">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B40" s="68">
+        <v>0</v>
+      </c>
+      <c r="C40" s="68">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="13">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13">
+      <c r="E40" s="69">
+        <v>0</v>
+      </c>
+      <c r="F40" s="69">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13">
+      <c r="H40" s="70">
+        <v>0</v>
+      </c>
+      <c r="I40" s="70">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2785,68 +2887,68 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="13">
-        <v>0</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41" s="68">
+        <v>0</v>
+      </c>
+      <c r="C41" s="68">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="13">
-        <v>14255</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="E41" s="69">
+        <v>4527</v>
+      </c>
+      <c r="F41" s="69">
         <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>-14255</v>
-      </c>
-      <c r="H41" s="13">
-        <v>150</v>
-      </c>
-      <c r="I41" s="13">
+        <v>-4527</v>
+      </c>
+      <c r="H41" s="70">
+        <v>0</v>
+      </c>
+      <c r="I41" s="70">
         <v>0</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" si="2"/>
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="13">
-        <v>225</v>
-      </c>
-      <c r="C42" s="13">
+      <c r="B42" s="68">
+        <v>0</v>
+      </c>
+      <c r="C42" s="68">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>-225</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="69">
+        <v>0</v>
+      </c>
+      <c r="F42" s="69">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="13">
-        <v>0</v>
-      </c>
-      <c r="I42" s="13">
+      <c r="H42" s="70">
+        <v>0</v>
+      </c>
+      <c r="I42" s="70">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2855,33 +2957,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="13">
-        <v>0</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1200</v>
+      <c r="B43" s="68">
+        <v>0</v>
+      </c>
+      <c r="C43" s="68">
+        <v>300</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
+        <v>300</v>
+      </c>
+      <c r="E43" s="69">
+        <v>0</v>
+      </c>
+      <c r="F43" s="69">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
+      <c r="H43" s="70">
+        <v>0</v>
+      </c>
+      <c r="I43" s="70">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2890,33 +2992,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
+      <c r="B44" s="68">
+        <v>0</v>
+      </c>
+      <c r="C44" s="68">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="69">
         <v>60</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="69">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="13">
-        <v>0</v>
-      </c>
-      <c r="I44" s="13">
+      <c r="H44" s="70">
+        <v>0</v>
+      </c>
+      <c r="I44" s="70">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -2925,33 +3027,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="68">
         <v>95</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="68">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>-95</v>
       </c>
-      <c r="E45" s="13">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
+      <c r="E45" s="69">
+        <v>0</v>
+      </c>
+      <c r="F45" s="69">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13">
+      <c r="H45" s="70">
+        <v>0</v>
+      </c>
+      <c r="I45" s="70">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -2960,33 +3062,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="13">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13">
+      <c r="B46" s="68">
+        <v>0</v>
+      </c>
+      <c r="C46" s="68">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="69">
         <v>10</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="69">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
+      <c r="H46" s="70">
+        <v>0</v>
+      </c>
+      <c r="I46" s="70">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -2995,33 +3097,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="13">
-        <v>0</v>
-      </c>
-      <c r="C47" s="13">
+      <c r="B47" s="68">
+        <v>0</v>
+      </c>
+      <c r="C47" s="68">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="69">
         <v>250</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="69">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
+      <c r="H47" s="70">
+        <v>0</v>
+      </c>
+      <c r="I47" s="70">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -3030,33 +3132,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="13">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13">
+      <c r="B48" s="68">
+        <v>0</v>
+      </c>
+      <c r="C48" s="68">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="69">
         <v>2419</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="69">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>-2419</v>
       </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="I48" s="13">
+      <c r="H48" s="70">
+        <v>0</v>
+      </c>
+      <c r="I48" s="70">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3065,33 +3167,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="68">
         <v>74</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="68">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="13">
-        <v>0</v>
-      </c>
-      <c r="F49" s="13">
+      <c r="E49" s="69">
+        <v>0</v>
+      </c>
+      <c r="F49" s="69">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-      <c r="I49" s="13">
+      <c r="H49" s="70">
+        <v>0</v>
+      </c>
+      <c r="I49" s="70">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3100,33 +3202,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="13">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13">
+      <c r="A50" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="68">
+        <v>0</v>
+      </c>
+      <c r="C50" s="68">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="13">
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E50" s="69">
+        <v>128</v>
+      </c>
+      <c r="F50" s="69">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0</v>
-      </c>
-      <c r="I50" s="13">
+        <v>-128</v>
+      </c>
+      <c r="H50" s="70">
+        <v>0</v>
+      </c>
+      <c r="I50" s="70">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3135,33 +3237,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="13">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="B51" s="68">
+        <v>0</v>
+      </c>
+      <c r="C51" s="68">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="69">
         <v>300</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="69">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="I51" s="13">
+      <c r="H51" s="70">
+        <v>0</v>
+      </c>
+      <c r="I51" s="70">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3170,33 +3272,33 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="68">
         <v>250</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="68">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="13">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13">
+      <c r="E52" s="69">
+        <v>0</v>
+      </c>
+      <c r="F52" s="69">
         <v>0</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="13">
+      <c r="H52" s="70">
+        <v>0</v>
+      </c>
+      <c r="I52" s="70">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3205,68 +3307,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="13">
-        <v>0</v>
-      </c>
-      <c r="C53" s="13">
+      <c r="B53" s="68">
+        <v>0</v>
+      </c>
+      <c r="C53" s="68">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="13">
-        <v>11540</v>
-      </c>
-      <c r="F53" s="13">
+      <c r="E53" s="69">
+        <v>26431</v>
+      </c>
+      <c r="F53" s="69">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-11540</v>
-      </c>
-      <c r="H53" s="13">
-        <v>3205</v>
-      </c>
-      <c r="I53" s="13">
+        <v>-26431</v>
+      </c>
+      <c r="H53" s="70">
+        <v>6714</v>
+      </c>
+      <c r="I53" s="70">
         <v>0</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>-3205</v>
+        <v>-6714</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="13">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13">
+      <c r="A54" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="68">
+        <v>0</v>
+      </c>
+      <c r="C54" s="68">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="13">
-        <v>0</v>
-      </c>
-      <c r="F54" s="13">
+      <c r="E54" s="69">
+        <v>0</v>
+      </c>
+      <c r="F54" s="69">
         <v>0</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="13">
-        <v>0</v>
-      </c>
-      <c r="I54" s="13">
+      <c r="H54" s="70">
+        <v>0</v>
+      </c>
+      <c r="I54" s="70">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3275,33 +3377,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="68">
         <v>14</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="68">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="13">
-        <v>0</v>
-      </c>
-      <c r="F55" s="13">
+      <c r="E55" s="69">
+        <v>0</v>
+      </c>
+      <c r="F55" s="69">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="13">
-        <v>0</v>
-      </c>
-      <c r="I55" s="13">
+      <c r="H55" s="70">
+        <v>0</v>
+      </c>
+      <c r="I55" s="70">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3310,33 +3412,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="13">
-        <v>0</v>
-      </c>
-      <c r="C56" s="13">
+      <c r="A56" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="68">
+        <v>0</v>
+      </c>
+      <c r="C56" s="68">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="13">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13">
+      <c r="E56" s="69">
+        <v>548</v>
+      </c>
+      <c r="F56" s="69">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="13">
-        <v>0</v>
-      </c>
-      <c r="I56" s="13">
+        <v>-548</v>
+      </c>
+      <c r="H56" s="70">
+        <v>0</v>
+      </c>
+      <c r="I56" s="70">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3345,33 +3447,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="13">
-        <v>0</v>
-      </c>
-      <c r="C57" s="13">
+      <c r="B57" s="68">
+        <v>0</v>
+      </c>
+      <c r="C57" s="68">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="69">
         <v>10</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="69">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="13">
-        <v>0</v>
-      </c>
-      <c r="I57" s="13">
+      <c r="H57" s="70">
+        <v>0</v>
+      </c>
+      <c r="I57" s="70">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3380,33 +3482,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="68">
         <v>625</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="68">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
         <v>-625</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="69">
         <v>2522</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="69">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="13">
-        <v>0</v>
-      </c>
-      <c r="I58" s="13">
+      <c r="H58" s="70">
+        <v>0</v>
+      </c>
+      <c r="I58" s="70">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3415,33 +3517,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="13">
-        <v>0</v>
-      </c>
-      <c r="C59" s="13">
+      <c r="B59" s="68">
+        <v>0</v>
+      </c>
+      <c r="C59" s="68">
         <v>0</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="13">
-        <v>7495</v>
-      </c>
-      <c r="F59" s="13">
+      <c r="E59" s="69">
+        <v>1569</v>
+      </c>
+      <c r="F59" s="69">
         <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>-7495</v>
-      </c>
-      <c r="H59" s="13">
-        <v>0</v>
-      </c>
-      <c r="I59" s="13">
+        <v>-1569</v>
+      </c>
+      <c r="H59" s="70">
+        <v>0</v>
+      </c>
+      <c r="I59" s="70">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3450,33 +3552,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="13">
-        <v>0</v>
-      </c>
-      <c r="C60" s="13">
+      <c r="B60" s="68">
+        <v>0</v>
+      </c>
+      <c r="C60" s="68">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="69">
         <v>165</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="69">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
         <v>-165</v>
       </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
+      <c r="H60" s="70">
+        <v>0</v>
+      </c>
+      <c r="I60" s="70">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3485,33 +3587,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="13">
-        <v>0</v>
-      </c>
-      <c r="C61" s="13">
-        <v>0</v>
+      <c r="B61" s="68">
+        <v>0</v>
+      </c>
+      <c r="C61" s="68">
+        <v>4420</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-      <c r="F61" s="13">
+        <v>4420</v>
+      </c>
+      <c r="E61" s="69">
+        <v>0</v>
+      </c>
+      <c r="F61" s="69">
         <v>0</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H61" s="13">
-        <v>0</v>
-      </c>
-      <c r="I61" s="13">
+      <c r="H61" s="70">
+        <v>0</v>
+      </c>
+      <c r="I61" s="70">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3520,33 +3622,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="68">
         <v>389</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="68">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="E62" s="69">
+        <v>0</v>
+      </c>
+      <c r="F62" s="69">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="13">
-        <v>0</v>
-      </c>
-      <c r="I62" s="13">
+      <c r="H62" s="70">
+        <v>0</v>
+      </c>
+      <c r="I62" s="70">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3555,68 +3657,68 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="13">
-        <v>0</v>
-      </c>
-      <c r="C63" s="13">
-        <v>2600</v>
+      <c r="B63" s="68">
+        <v>0</v>
+      </c>
+      <c r="C63" s="68">
+        <v>0</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-      <c r="E63" s="13">
-        <v>0</v>
-      </c>
-      <c r="F63" s="13">
+        <v>0</v>
+      </c>
+      <c r="E63" s="69">
+        <v>0</v>
+      </c>
+      <c r="F63" s="69">
         <v>500</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H63" s="13">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13">
-        <v>240</v>
+      <c r="H63" s="70">
+        <v>0</v>
+      </c>
+      <c r="I63" s="70">
+        <v>120</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="13">
-        <v>0</v>
-      </c>
-      <c r="C64" s="13">
+      <c r="B64" s="68">
+        <v>0</v>
+      </c>
+      <c r="C64" s="68">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="69">
         <v>200</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="69">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="13">
-        <v>0</v>
-      </c>
-      <c r="I64" s="13">
+      <c r="H64" s="70">
+        <v>0</v>
+      </c>
+      <c r="I64" s="70">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3625,68 +3727,68 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="13">
-        <v>0</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="B65" s="68">
+        <v>0</v>
+      </c>
+      <c r="C65" s="68">
         <v>0</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="13">
+      <c r="E65" s="69">
+        <v>0</v>
+      </c>
+      <c r="F65" s="69">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="13">
-        <v>0</v>
-      </c>
-      <c r="I65" s="13">
+      <c r="H65" s="70">
+        <v>2525</v>
+      </c>
+      <c r="I65" s="70">
         <v>0</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2525</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="13">
-        <v>0</v>
-      </c>
-      <c r="C66" s="13">
+      <c r="B66" s="68">
+        <v>0</v>
+      </c>
+      <c r="C66" s="68">
         <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="13">
-        <v>1180</v>
+      <c r="E66" s="69">
+        <v>0</v>
+      </c>
+      <c r="F66" s="69">
+        <v>1239</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
-        <v>1180</v>
-      </c>
-      <c r="H66" s="13">
-        <v>0</v>
-      </c>
-      <c r="I66" s="13">
+        <v>1239</v>
+      </c>
+      <c r="H66" s="70">
+        <v>0</v>
+      </c>
+      <c r="I66" s="70">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3695,33 +3797,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="13">
-        <v>0</v>
-      </c>
-      <c r="C67" s="13">
+      <c r="B67" s="68">
+        <v>0</v>
+      </c>
+      <c r="C67" s="68">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="13">
-        <v>0</v>
-      </c>
-      <c r="F67" s="13">
+      <c r="E67" s="69">
+        <v>64665</v>
+      </c>
+      <c r="F67" s="69">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="13">
-        <v>0</v>
-      </c>
-      <c r="I67" s="13">
+        <v>-64665</v>
+      </c>
+      <c r="H67" s="70">
+        <v>0</v>
+      </c>
+      <c r="I67" s="70">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3730,33 +3832,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="13">
-        <v>0</v>
-      </c>
-      <c r="C68" s="13">
+      <c r="B68" s="68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="68">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="69">
         <v>16</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="69">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="13">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13">
+      <c r="H68" s="70">
+        <v>0</v>
+      </c>
+      <c r="I68" s="70">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3765,33 +3867,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="13">
-        <v>0</v>
-      </c>
-      <c r="C69" s="13">
+      <c r="B69" s="68">
+        <v>0</v>
+      </c>
+      <c r="C69" s="68">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="13">
-        <v>0</v>
-      </c>
-      <c r="F69" s="13">
-        <v>0</v>
+      <c r="E69" s="69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="69">
+        <v>940</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="13">
-        <v>0</v>
-      </c>
-      <c r="I69" s="13">
+        <v>940</v>
+      </c>
+      <c r="H69" s="70">
+        <v>0</v>
+      </c>
+      <c r="I69" s="70">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3800,33 +3902,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="13">
-        <v>0</v>
-      </c>
-      <c r="C70" s="13">
+      <c r="B70" s="68">
+        <v>0</v>
+      </c>
+      <c r="C70" s="68">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="69">
         <v>146</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="69">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="13">
-        <v>0</v>
-      </c>
-      <c r="I70" s="13">
+      <c r="H70" s="70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="70">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3835,33 +3937,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="13">
-        <v>0</v>
-      </c>
-      <c r="C71" s="13">
+      <c r="B71" s="68">
+        <v>0</v>
+      </c>
+      <c r="C71" s="68">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="13">
-        <v>0</v>
-      </c>
-      <c r="F71" s="13">
-        <v>392</v>
+      <c r="E71" s="69">
+        <v>0</v>
+      </c>
+      <c r="F71" s="69">
+        <v>48</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>392</v>
-      </c>
-      <c r="H71" s="13">
-        <v>0</v>
-      </c>
-      <c r="I71" s="13">
+        <v>48</v>
+      </c>
+      <c r="H71" s="70">
+        <v>0</v>
+      </c>
+      <c r="I71" s="70">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3870,33 +3972,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="13">
-        <v>50</v>
-      </c>
-      <c r="C72" s="13">
-        <v>2170</v>
+      <c r="B72" s="68">
+        <v>100</v>
+      </c>
+      <c r="C72" s="68">
+        <v>1270</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
-        <v>2120</v>
-      </c>
-      <c r="E72" s="13">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13">
+        <v>1170</v>
+      </c>
+      <c r="E72" s="69">
+        <v>0</v>
+      </c>
+      <c r="F72" s="69">
         <v>0</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H72" s="13">
-        <v>0</v>
-      </c>
-      <c r="I72" s="13">
+      <c r="H72" s="70">
+        <v>0</v>
+      </c>
+      <c r="I72" s="70">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -3905,33 +4007,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="13">
-        <v>0</v>
-      </c>
-      <c r="C73" s="13">
+      <c r="B73" s="68">
+        <v>0</v>
+      </c>
+      <c r="C73" s="68">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="69">
         <v>12813</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="69">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
         <v>-12813</v>
       </c>
-      <c r="H73" s="13">
-        <v>0</v>
-      </c>
-      <c r="I73" s="13">
+      <c r="H73" s="70">
+        <v>0</v>
+      </c>
+      <c r="I73" s="70">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -3940,33 +4042,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="13">
-        <v>0</v>
-      </c>
-      <c r="C74" s="13">
+      <c r="A74" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="68">
+        <v>0</v>
+      </c>
+      <c r="C74" s="68">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="13">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
+      <c r="E74" s="69">
+        <v>22000</v>
+      </c>
+      <c r="F74" s="69">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="13">
-        <v>0</v>
-      </c>
-      <c r="I74" s="13">
+        <v>-22000</v>
+      </c>
+      <c r="H74" s="70">
+        <v>0</v>
+      </c>
+      <c r="I74" s="70">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -3975,33 +4077,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="68">
         <v>200</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="68">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="13">
-        <v>0</v>
-      </c>
-      <c r="F75" s="13">
+      <c r="E75" s="69">
+        <v>0</v>
+      </c>
+      <c r="F75" s="69">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="13">
-        <v>0</v>
-      </c>
-      <c r="I75" s="13">
+      <c r="H75" s="70">
+        <v>0</v>
+      </c>
+      <c r="I75" s="70">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -4010,33 +4112,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="13">
-        <v>0</v>
-      </c>
-      <c r="C76" s="13">
+      <c r="B76" s="68">
+        <v>0</v>
+      </c>
+      <c r="C76" s="68">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="13">
-        <v>13030</v>
-      </c>
-      <c r="F76" s="13">
+      <c r="E76" s="69">
+        <v>3680</v>
+      </c>
+      <c r="F76" s="69">
         <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-13030</v>
-      </c>
-      <c r="H76" s="13">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13">
+        <v>-3680</v>
+      </c>
+      <c r="H76" s="70">
+        <v>0</v>
+      </c>
+      <c r="I76" s="70">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -4045,33 +4147,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="13">
-        <v>0</v>
-      </c>
-      <c r="C77" s="13">
+      <c r="B77" s="68">
+        <v>0</v>
+      </c>
+      <c r="C77" s="68">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="69">
         <v>133</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="69">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
         <v>-133</v>
       </c>
-      <c r="H77" s="13">
-        <v>0</v>
-      </c>
-      <c r="I77" s="13">
+      <c r="H77" s="70">
+        <v>0</v>
+      </c>
+      <c r="I77" s="70">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4080,33 +4182,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="13">
-        <v>0</v>
-      </c>
-      <c r="C78" s="13">
+      <c r="B78" s="68">
+        <v>0</v>
+      </c>
+      <c r="C78" s="68">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="13">
-        <v>12840</v>
-      </c>
-      <c r="F78" s="13">
-        <v>8000</v>
+      <c r="E78" s="69">
+        <v>12853</v>
+      </c>
+      <c r="F78" s="69">
+        <v>10000</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
-        <v>-4840</v>
-      </c>
-      <c r="H78" s="13">
-        <v>0</v>
-      </c>
-      <c r="I78" s="13">
+        <v>-2853</v>
+      </c>
+      <c r="H78" s="70">
+        <v>0</v>
+      </c>
+      <c r="I78" s="70">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4115,33 +4217,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="68">
         <v>150</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="68">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="13">
-        <v>0</v>
-      </c>
-      <c r="F79" s="13">
+      <c r="E79" s="69">
+        <v>0</v>
+      </c>
+      <c r="F79" s="69">
         <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H79" s="13">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13">
+      <c r="H79" s="70">
+        <v>0</v>
+      </c>
+      <c r="I79" s="70">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4150,33 +4252,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="13">
-        <v>0</v>
-      </c>
-      <c r="C80" s="13">
+      <c r="B80" s="68">
+        <v>0</v>
+      </c>
+      <c r="C80" s="68">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="13">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13">
+      <c r="E80" s="69">
+        <v>0</v>
+      </c>
+      <c r="F80" s="69">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="13">
-        <v>0</v>
-      </c>
-      <c r="I80" s="13">
+      <c r="H80" s="70">
+        <v>0</v>
+      </c>
+      <c r="I80" s="70">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4185,33 +4287,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="13">
-        <v>0</v>
-      </c>
-      <c r="C81" s="13">
+      <c r="B81" s="68">
+        <v>0</v>
+      </c>
+      <c r="C81" s="68">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="13">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="E81" s="69">
+        <v>0</v>
+      </c>
+      <c r="F81" s="69">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="13">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13">
+      <c r="H81" s="70">
+        <v>0</v>
+      </c>
+      <c r="I81" s="70">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4220,68 +4322,68 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="13">
-        <v>0</v>
-      </c>
-      <c r="C82" s="13">
+      <c r="B82" s="68">
+        <v>0</v>
+      </c>
+      <c r="C82" s="68">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="13">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
-        <v>1673</v>
+      <c r="E82" s="69">
+        <v>0</v>
+      </c>
+      <c r="F82" s="69">
+        <v>3036</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>1673</v>
-      </c>
-      <c r="H82" s="13">
-        <v>590</v>
-      </c>
-      <c r="I82" s="13">
+        <v>3036</v>
+      </c>
+      <c r="H82" s="70">
+        <v>0</v>
+      </c>
+      <c r="I82" s="70">
         <v>0</v>
       </c>
       <c r="J82" s="6">
         <f t="shared" si="5"/>
-        <v>-590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="13">
-        <v>0</v>
-      </c>
-      <c r="C83" s="13">
+      <c r="A83" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="68">
+        <v>0</v>
+      </c>
+      <c r="C83" s="68">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
+      <c r="E83" s="69">
+        <v>1502</v>
+      </c>
+      <c r="F83" s="69">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="13">
-        <v>0</v>
-      </c>
-      <c r="I83" s="13">
+        <v>-1502</v>
+      </c>
+      <c r="H83" s="70">
+        <v>0</v>
+      </c>
+      <c r="I83" s="70">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4290,33 +4392,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="13">
-        <v>0</v>
-      </c>
-      <c r="C84" s="13">
+      <c r="B84" s="68">
+        <v>0</v>
+      </c>
+      <c r="C84" s="68">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="69">
         <v>312</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="69">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
         <v>-312</v>
       </c>
-      <c r="H84" s="13">
-        <v>0</v>
-      </c>
-      <c r="I84" s="13">
+      <c r="H84" s="70">
+        <v>0</v>
+      </c>
+      <c r="I84" s="70">
         <v>0</v>
       </c>
       <c r="J84" s="6">
@@ -4325,33 +4427,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="68">
         <v>95</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="68">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="69">
         <v>200</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="69">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="13">
-        <v>0</v>
-      </c>
-      <c r="I85" s="13">
+      <c r="H85" s="70">
+        <v>0</v>
+      </c>
+      <c r="I85" s="70">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4360,33 +4462,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="13">
-        <v>0</v>
-      </c>
-      <c r="C86" s="13">
+      <c r="B86" s="68">
+        <v>0</v>
+      </c>
+      <c r="C86" s="68">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="13">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="E86" s="69">
+        <v>0</v>
+      </c>
+      <c r="F86" s="69">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="13">
-        <v>0</v>
-      </c>
-      <c r="I86" s="13">
+      <c r="H86" s="70">
+        <v>0</v>
+      </c>
+      <c r="I86" s="70">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4395,33 +4497,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="13">
-        <v>0</v>
-      </c>
-      <c r="C87" s="13">
+      <c r="A87" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="68">
+        <v>0</v>
+      </c>
+      <c r="C87" s="68">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="13">
-        <v>0</v>
-      </c>
-      <c r="F87" s="13">
+      <c r="E87" s="69">
+        <v>6533</v>
+      </c>
+      <c r="F87" s="69">
         <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="13">
-        <v>0</v>
-      </c>
-      <c r="I87" s="13">
+        <v>-6533</v>
+      </c>
+      <c r="H87" s="70">
+        <v>0</v>
+      </c>
+      <c r="I87" s="70">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4430,33 +4532,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="13">
-        <v>0</v>
-      </c>
-      <c r="C88" s="13">
-        <v>0</v>
+      <c r="B88" s="68">
+        <v>0</v>
+      </c>
+      <c r="C88" s="68">
+        <v>1800</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="13">
-        <v>0</v>
-      </c>
-      <c r="F88" s="13">
+        <v>1800</v>
+      </c>
+      <c r="E88" s="69">
+        <v>0</v>
+      </c>
+      <c r="F88" s="69">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="13">
-        <v>0</v>
-      </c>
-      <c r="I88" s="13">
+      <c r="H88" s="70">
+        <v>0</v>
+      </c>
+      <c r="I88" s="70">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4465,33 +4567,33 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="13">
-        <v>0</v>
-      </c>
-      <c r="C89" s="13">
+      <c r="B89" s="68">
+        <v>0</v>
+      </c>
+      <c r="C89" s="68">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="69">
         <v>208</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="69">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
         <v>-208</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="70">
         <v>358</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="70">
         <v>0</v>
       </c>
       <c r="J89" s="6">
@@ -4500,33 +4602,33 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="13">
-        <v>0</v>
-      </c>
-      <c r="C90" s="13">
+      <c r="B90" s="68">
+        <v>0</v>
+      </c>
+      <c r="C90" s="68">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="69">
         <v>12662</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="69">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="13">
-        <v>0</v>
-      </c>
-      <c r="I90" s="13">
+      <c r="H90" s="70">
+        <v>0</v>
+      </c>
+      <c r="I90" s="70">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4535,31 +4637,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="13">
-        <v>0</v>
-      </c>
-      <c r="C91" s="13">
+      <c r="A91" s="49"/>
+      <c r="B91" s="68">
+        <v>0</v>
+      </c>
+      <c r="C91" s="68">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="13">
-        <v>0</v>
-      </c>
-      <c r="F91" s="13">
+      <c r="E91" s="69">
+        <v>0</v>
+      </c>
+      <c r="F91" s="69">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="13">
-        <v>0</v>
-      </c>
-      <c r="I91" s="13">
+      <c r="H91" s="70">
+        <v>0</v>
+      </c>
+      <c r="I91" s="70">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4568,33 +4670,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="13">
-        <v>0</v>
-      </c>
-      <c r="C92" s="13">
-        <v>225</v>
+      <c r="B92" s="68">
+        <v>0</v>
+      </c>
+      <c r="C92" s="68">
+        <v>200</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="E92" s="13">
-        <v>0</v>
-      </c>
-      <c r="F92" s="13">
+        <v>200</v>
+      </c>
+      <c r="E92" s="69">
+        <v>0</v>
+      </c>
+      <c r="F92" s="69">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="13">
-        <v>0</v>
-      </c>
-      <c r="I92" s="13">
+      <c r="H92" s="70">
+        <v>0</v>
+      </c>
+      <c r="I92" s="70">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4603,33 +4705,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="13">
-        <v>0</v>
-      </c>
-      <c r="C93" s="13">
-        <v>0</v>
+      <c r="B93" s="68">
+        <v>0</v>
+      </c>
+      <c r="C93" s="68">
+        <v>3000</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="13">
-        <v>0</v>
-      </c>
-      <c r="F93" s="13">
+        <v>3000</v>
+      </c>
+      <c r="E93" s="69">
+        <v>0</v>
+      </c>
+      <c r="F93" s="69">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="13">
-        <v>0</v>
-      </c>
-      <c r="I93" s="13">
+      <c r="H93" s="70">
+        <v>0</v>
+      </c>
+      <c r="I93" s="70">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4638,33 +4740,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="68">
         <v>7</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="68">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="13">
-        <v>0</v>
-      </c>
-      <c r="F94" s="13">
+      <c r="E94" s="69">
+        <v>0</v>
+      </c>
+      <c r="F94" s="69">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="13">
-        <v>0</v>
-      </c>
-      <c r="I94" s="13">
+      <c r="H94" s="70">
+        <v>0</v>
+      </c>
+      <c r="I94" s="70">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4673,33 +4775,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="13">
-        <v>0</v>
-      </c>
-      <c r="C95" s="13">
+      <c r="B95" s="68">
+        <v>0</v>
+      </c>
+      <c r="C95" s="68">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E95" s="69">
         <v>21</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="69">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="13">
-        <v>0</v>
-      </c>
-      <c r="I95" s="13">
+      <c r="H95" s="70">
+        <v>0</v>
+      </c>
+      <c r="I95" s="70">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4708,33 +4810,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="13">
-        <v>0</v>
-      </c>
-      <c r="C96" s="13">
+      <c r="B96" s="68">
+        <v>0</v>
+      </c>
+      <c r="C96" s="68">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="13">
-        <v>0</v>
-      </c>
-      <c r="F96" s="13">
-        <v>0</v>
+      <c r="E96" s="69">
+        <v>15225</v>
+      </c>
+      <c r="F96" s="69">
+        <v>5281</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="13">
-        <v>0</v>
-      </c>
-      <c r="I96" s="13">
+        <v>-9944</v>
+      </c>
+      <c r="H96" s="70">
+        <v>0</v>
+      </c>
+      <c r="I96" s="70">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4743,33 +4845,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="13">
-        <v>0</v>
-      </c>
-      <c r="C97" s="13">
+      <c r="B97" s="68">
+        <v>0</v>
+      </c>
+      <c r="C97" s="68">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="13">
-        <v>350</v>
-      </c>
-      <c r="F97" s="13">
+      <c r="E97" s="69">
+        <v>250</v>
+      </c>
+      <c r="F97" s="69">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
-        <v>-350</v>
-      </c>
-      <c r="H97" s="13">
-        <v>0</v>
-      </c>
-      <c r="I97" s="13">
+        <v>-250</v>
+      </c>
+      <c r="H97" s="70">
+        <v>0</v>
+      </c>
+      <c r="I97" s="70">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4778,68 +4880,68 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B98" s="13">
-        <v>0</v>
-      </c>
-      <c r="C98" s="13">
+      <c r="A98" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" s="68">
+        <v>0</v>
+      </c>
+      <c r="C98" s="68">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="13">
-        <v>0</v>
-      </c>
-      <c r="F98" s="13">
+      <c r="E98" s="69">
+        <v>500</v>
+      </c>
+      <c r="F98" s="69">
         <v>0</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="13">
-        <v>105</v>
-      </c>
-      <c r="I98" s="13">
+        <v>-500</v>
+      </c>
+      <c r="H98" s="70">
+        <v>0</v>
+      </c>
+      <c r="I98" s="70">
         <v>0</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" si="5"/>
-        <v>-105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="13">
-        <v>0</v>
-      </c>
-      <c r="C99" s="13">
+      <c r="B99" s="68">
+        <v>0</v>
+      </c>
+      <c r="C99" s="68">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="13">
+      <c r="E99" s="69">
         <v>100</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="69">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
-      <c r="H99" s="13">
-        <v>0</v>
-      </c>
-      <c r="I99" s="13">
+      <c r="H99" s="70">
+        <v>0</v>
+      </c>
+      <c r="I99" s="70">
         <v>0</v>
       </c>
       <c r="J99" s="6">
@@ -4848,33 +4950,31 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="13">
-        <v>0</v>
-      </c>
-      <c r="C100" s="13">
+      <c r="A100" s="49"/>
+      <c r="B100" s="68">
+        <v>0</v>
+      </c>
+      <c r="C100" s="68">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="13">
-        <v>0</v>
-      </c>
-      <c r="F100" s="13">
+      <c r="E100" s="69">
+        <v>0</v>
+      </c>
+      <c r="F100" s="69">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="13">
-        <v>0</v>
-      </c>
-      <c r="I100" s="13">
+      <c r="H100" s="70">
+        <v>0</v>
+      </c>
+      <c r="I100" s="70">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4883,33 +4983,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101" s="13">
-        <v>0</v>
-      </c>
-      <c r="C101" s="13">
+      <c r="A101" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="68">
+        <v>0</v>
+      </c>
+      <c r="C101" s="68">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="13">
-        <v>0</v>
-      </c>
-      <c r="F101" s="13">
-        <v>0</v>
+      <c r="E101" s="69">
+        <v>1478</v>
+      </c>
+      <c r="F101" s="69">
+        <v>595</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="13">
-        <v>0</v>
-      </c>
-      <c r="I101" s="13">
+        <v>-883</v>
+      </c>
+      <c r="H101" s="70">
+        <v>0</v>
+      </c>
+      <c r="I101" s="70">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -4918,33 +5018,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="13">
-        <v>215</v>
-      </c>
-      <c r="C102" s="13">
-        <v>100</v>
+      <c r="B102" s="68">
+        <v>415</v>
+      </c>
+      <c r="C102" s="68">
+        <v>193</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
-        <v>-115</v>
-      </c>
-      <c r="E102" s="13">
-        <v>0</v>
-      </c>
-      <c r="F102" s="13">
+        <v>-222</v>
+      </c>
+      <c r="E102" s="69">
+        <v>0</v>
+      </c>
+      <c r="F102" s="69">
         <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H102" s="13">
-        <v>0</v>
-      </c>
-      <c r="I102" s="13">
+      <c r="H102" s="70">
+        <v>0</v>
+      </c>
+      <c r="I102" s="70">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -4953,33 +5053,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="68">
         <v>50</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="68">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="13">
-        <v>0</v>
-      </c>
-      <c r="F103" s="13">
+      <c r="E103" s="69">
+        <v>0</v>
+      </c>
+      <c r="F103" s="69">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="13">
-        <v>0</v>
-      </c>
-      <c r="I103" s="13">
+      <c r="H103" s="70">
+        <v>0</v>
+      </c>
+      <c r="I103" s="70">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -4988,33 +5088,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B104" s="13">
-        <v>0</v>
-      </c>
-      <c r="C104" s="13">
+      <c r="B104" s="68">
+        <v>0</v>
+      </c>
+      <c r="C104" s="68">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="13">
-        <v>3599</v>
-      </c>
-      <c r="F104" s="13">
+      <c r="E104" s="69">
+        <v>11394</v>
+      </c>
+      <c r="F104" s="69">
         <v>0</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>-3599</v>
-      </c>
-      <c r="H104" s="13">
-        <v>0</v>
-      </c>
-      <c r="I104" s="13">
+        <v>-11394</v>
+      </c>
+      <c r="H104" s="70">
+        <v>0</v>
+      </c>
+      <c r="I104" s="70">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -5023,33 +5123,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B105" s="13">
-        <v>0</v>
-      </c>
-      <c r="C105" s="13">
+      <c r="B105" s="68">
+        <v>0</v>
+      </c>
+      <c r="C105" s="68">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="13">
-        <v>12985</v>
-      </c>
-      <c r="F105" s="13">
-        <v>0</v>
+      <c r="E105" s="69">
+        <v>0</v>
+      </c>
+      <c r="F105" s="69">
+        <v>11478</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>-12985</v>
-      </c>
-      <c r="H105" s="13">
-        <v>0</v>
-      </c>
-      <c r="I105" s="13">
+        <v>11478</v>
+      </c>
+      <c r="H105" s="70">
+        <v>0</v>
+      </c>
+      <c r="I105" s="70">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5058,33 +5158,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="13">
-        <v>0</v>
-      </c>
-      <c r="C106" s="13">
+      <c r="B106" s="68">
+        <v>0</v>
+      </c>
+      <c r="C106" s="68">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="69">
         <v>300</v>
       </c>
-      <c r="F106" s="13">
+      <c r="F106" s="69">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="13">
-        <v>0</v>
-      </c>
-      <c r="I106" s="13">
+      <c r="H106" s="70">
+        <v>0</v>
+      </c>
+      <c r="I106" s="70">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5093,68 +5193,68 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B107" s="13">
-        <v>0</v>
-      </c>
-      <c r="C107" s="13">
+      <c r="A107" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="68">
+        <v>0</v>
+      </c>
+      <c r="C107" s="68">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="13">
-        <v>6000</v>
-      </c>
-      <c r="F107" s="13">
+      <c r="E107" s="69">
+        <v>670</v>
+      </c>
+      <c r="F107" s="69">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
-        <v>-6000</v>
-      </c>
-      <c r="H107" s="13">
-        <v>0</v>
-      </c>
-      <c r="I107" s="13">
+        <v>-670</v>
+      </c>
+      <c r="H107" s="70">
+        <v>15</v>
+      </c>
+      <c r="I107" s="70">
         <v>0</v>
       </c>
       <c r="J107" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B108" s="13">
-        <v>0</v>
-      </c>
-      <c r="C108" s="13">
+      <c r="B108" s="68">
+        <v>0</v>
+      </c>
+      <c r="C108" s="68">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="13">
+      <c r="E108" s="69">
         <v>300</v>
       </c>
-      <c r="F108" s="13">
+      <c r="F108" s="69">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H108" s="13">
-        <v>0</v>
-      </c>
-      <c r="I108" s="13">
+      <c r="H108" s="70">
+        <v>0</v>
+      </c>
+      <c r="I108" s="70">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5163,33 +5263,33 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B109" s="13">
-        <v>0</v>
-      </c>
-      <c r="C109" s="13">
+      <c r="A109" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B109" s="68">
+        <v>0</v>
+      </c>
+      <c r="C109" s="68">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="13">
-        <v>250</v>
-      </c>
-      <c r="F109" s="13">
-        <v>0</v>
+      <c r="E109" s="69">
+        <v>0</v>
+      </c>
+      <c r="F109" s="69">
+        <v>7303</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
-        <v>-250</v>
-      </c>
-      <c r="H109" s="13">
-        <v>0</v>
-      </c>
-      <c r="I109" s="13">
+        <v>7303</v>
+      </c>
+      <c r="H109" s="70">
+        <v>0</v>
+      </c>
+      <c r="I109" s="70">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5198,33 +5298,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="13">
-        <v>0</v>
-      </c>
-      <c r="C110" s="13">
+      <c r="B110" s="68">
+        <v>0</v>
+      </c>
+      <c r="C110" s="68">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="13">
+      <c r="E110" s="69">
         <v>10</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="69">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="13">
-        <v>0</v>
-      </c>
-      <c r="I110" s="13">
+      <c r="H110" s="70">
+        <v>0</v>
+      </c>
+      <c r="I110" s="70">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5233,33 +5333,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B111" s="13">
-        <v>0</v>
-      </c>
-      <c r="C111" s="13">
+      <c r="A111" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="68">
+        <v>0</v>
+      </c>
+      <c r="C111" s="68">
         <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E111" s="13">
-        <v>327</v>
-      </c>
-      <c r="F111" s="13">
+      <c r="E111" s="69">
+        <v>1100</v>
+      </c>
+      <c r="F111" s="69">
         <v>0</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
-        <v>-327</v>
-      </c>
-      <c r="H111" s="13">
-        <v>0</v>
-      </c>
-      <c r="I111" s="13">
+        <v>-1100</v>
+      </c>
+      <c r="H111" s="70">
+        <v>0</v>
+      </c>
+      <c r="I111" s="70">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5268,33 +5368,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B112" s="13">
-        <v>0</v>
-      </c>
-      <c r="C112" s="13">
-        <v>451</v>
+      <c r="B112" s="68">
+        <v>0</v>
+      </c>
+      <c r="C112" s="68">
+        <v>401</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
-        <v>451</v>
-      </c>
-      <c r="E112" s="13">
-        <v>0</v>
-      </c>
-      <c r="F112" s="13">
+        <v>401</v>
+      </c>
+      <c r="E112" s="69">
+        <v>0</v>
+      </c>
+      <c r="F112" s="69">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="13">
-        <v>0</v>
-      </c>
-      <c r="I112" s="13">
+      <c r="H112" s="70">
+        <v>0</v>
+      </c>
+      <c r="I112" s="70">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5303,33 +5403,33 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B113" s="13">
-        <v>0</v>
-      </c>
-      <c r="C113" s="13">
+      <c r="A113" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="68">
+        <v>0</v>
+      </c>
+      <c r="C113" s="68">
         <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="13">
-        <v>100</v>
-      </c>
-      <c r="F113" s="13">
-        <v>0</v>
+      <c r="E113" s="69">
+        <v>42000</v>
+      </c>
+      <c r="F113" s="69">
+        <v>96</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
-        <v>-100</v>
-      </c>
-      <c r="H113" s="13">
-        <v>0</v>
-      </c>
-      <c r="I113" s="13">
+        <v>-41904</v>
+      </c>
+      <c r="H113" s="70">
+        <v>0</v>
+      </c>
+      <c r="I113" s="70">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5338,33 +5438,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B114" s="13">
-        <v>0</v>
-      </c>
-      <c r="C114" s="13">
-        <v>370</v>
+      <c r="B114" s="68">
+        <v>0</v>
+      </c>
+      <c r="C114" s="68">
+        <v>0</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
-        <v>370</v>
-      </c>
-      <c r="E114" s="13">
-        <v>27312</v>
-      </c>
-      <c r="F114" s="13">
+        <v>0</v>
+      </c>
+      <c r="E114" s="69">
+        <v>21823</v>
+      </c>
+      <c r="F114" s="69">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-27312</v>
-      </c>
-      <c r="H114" s="13">
-        <v>0</v>
-      </c>
-      <c r="I114" s="13">
+        <v>-21823</v>
+      </c>
+      <c r="H114" s="70">
+        <v>0</v>
+      </c>
+      <c r="I114" s="70">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5373,33 +5473,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="68">
         <v>800</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="68">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E115" s="13">
-        <v>0</v>
-      </c>
-      <c r="F115" s="13">
+      <c r="E115" s="69">
+        <v>0</v>
+      </c>
+      <c r="F115" s="69">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="13">
-        <v>0</v>
-      </c>
-      <c r="I115" s="13">
+      <c r="H115" s="70">
+        <v>0</v>
+      </c>
+      <c r="I115" s="70">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5408,33 +5508,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B116" s="13">
-        <v>0</v>
-      </c>
-      <c r="C116" s="13">
-        <v>2340</v>
+      <c r="B116" s="68">
+        <v>0</v>
+      </c>
+      <c r="C116" s="68">
+        <v>0</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
-        <v>2340</v>
-      </c>
-      <c r="E116" s="13">
+        <v>0</v>
+      </c>
+      <c r="E116" s="69">
         <v>7</v>
       </c>
-      <c r="F116" s="13">
+      <c r="F116" s="69">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
         <v>-7</v>
       </c>
-      <c r="H116" s="13">
-        <v>0</v>
-      </c>
-      <c r="I116" s="13">
+      <c r="H116" s="70">
+        <v>0</v>
+      </c>
+      <c r="I116" s="70">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5443,33 +5543,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B117" s="13">
-        <v>200</v>
-      </c>
-      <c r="C117" s="13">
+      <c r="A117" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="68">
+        <v>0</v>
+      </c>
+      <c r="C117" s="68">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
-        <v>-200</v>
-      </c>
-      <c r="E117" s="13">
-        <v>13997</v>
-      </c>
-      <c r="F117" s="13">
-        <v>10400</v>
+        <v>0</v>
+      </c>
+      <c r="E117" s="69">
+        <v>0</v>
+      </c>
+      <c r="F117" s="69">
+        <v>200</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
-        <v>-3597</v>
-      </c>
-      <c r="H117" s="13">
-        <v>0</v>
-      </c>
-      <c r="I117" s="13">
+        <v>200</v>
+      </c>
+      <c r="H117" s="70">
+        <v>0</v>
+      </c>
+      <c r="I117" s="70">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5478,33 +5578,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B118" s="13">
-        <v>0</v>
-      </c>
-      <c r="C118" s="13">
+      <c r="B118" s="68">
+        <v>0</v>
+      </c>
+      <c r="C118" s="68">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="69">
         <v>7682</v>
       </c>
-      <c r="F118" s="13">
+      <c r="F118" s="69">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="13">
-        <v>0</v>
-      </c>
-      <c r="I118" s="13">
+      <c r="H118" s="70">
+        <v>0</v>
+      </c>
+      <c r="I118" s="70">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5513,33 +5613,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B119" s="13">
-        <v>245</v>
-      </c>
-      <c r="C119" s="13">
+      <c r="B119" s="68">
+        <v>1845</v>
+      </c>
+      <c r="C119" s="68">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
-        <v>-245</v>
-      </c>
-      <c r="E119" s="13">
-        <v>1113</v>
-      </c>
-      <c r="F119" s="13">
+        <v>-1845</v>
+      </c>
+      <c r="E119" s="69">
+        <v>6288</v>
+      </c>
+      <c r="F119" s="69">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-1113</v>
-      </c>
-      <c r="H119" s="13">
-        <v>0</v>
-      </c>
-      <c r="I119" s="13">
+        <v>-6288</v>
+      </c>
+      <c r="H119" s="70">
+        <v>0</v>
+      </c>
+      <c r="I119" s="70">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5548,33 +5648,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120" s="68">
         <v>300</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="68">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E120" s="13">
-        <v>26</v>
-      </c>
-      <c r="F120" s="13">
+      <c r="E120" s="69">
+        <v>106</v>
+      </c>
+      <c r="F120" s="69">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
-        <v>-26</v>
-      </c>
-      <c r="H120" s="13">
-        <v>0</v>
-      </c>
-      <c r="I120" s="13">
+        <v>-106</v>
+      </c>
+      <c r="H120" s="70">
+        <v>0</v>
+      </c>
+      <c r="I120" s="70">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5583,33 +5683,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B121" s="13">
-        <v>0</v>
-      </c>
-      <c r="C121" s="13">
+      <c r="B121" s="68">
+        <v>0</v>
+      </c>
+      <c r="C121" s="68">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="13">
+      <c r="E121" s="69">
         <v>15000</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="69">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="13">
-        <v>0</v>
-      </c>
-      <c r="I121" s="13">
+      <c r="H121" s="70">
+        <v>0</v>
+      </c>
+      <c r="I121" s="70">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5618,33 +5718,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B122" s="13">
-        <v>0</v>
-      </c>
-      <c r="C122" s="13">
+      <c r="A122" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" s="68">
+        <v>0</v>
+      </c>
+      <c r="C122" s="68">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="13">
-        <v>508</v>
-      </c>
-      <c r="F122" s="13">
-        <v>0</v>
+      <c r="E122" s="69">
+        <v>0</v>
+      </c>
+      <c r="F122" s="69">
+        <v>5900</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
-        <v>-508</v>
-      </c>
-      <c r="H122" s="13">
-        <v>0</v>
-      </c>
-      <c r="I122" s="13">
+        <v>5900</v>
+      </c>
+      <c r="H122" s="70">
+        <v>0</v>
+      </c>
+      <c r="I122" s="70">
         <v>0</v>
       </c>
       <c r="J122" s="6">
@@ -5653,33 +5753,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="13">
-        <v>1430</v>
-      </c>
-      <c r="C123" s="13">
+      <c r="A123" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" s="68">
+        <v>0</v>
+      </c>
+      <c r="C123" s="68">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
-        <v>-1430</v>
-      </c>
-      <c r="E123" s="13">
-        <v>2880</v>
-      </c>
-      <c r="F123" s="13">
+        <v>0</v>
+      </c>
+      <c r="E123" s="69">
+        <v>0</v>
+      </c>
+      <c r="F123" s="69">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
-        <v>-2880</v>
-      </c>
-      <c r="H123" s="13">
-        <v>0</v>
-      </c>
-      <c r="I123" s="13">
+        <v>0</v>
+      </c>
+      <c r="H123" s="70">
+        <v>0</v>
+      </c>
+      <c r="I123" s="70">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5688,33 +5788,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="13">
-        <v>400</v>
-      </c>
-      <c r="C124" s="13">
+      <c r="A124" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124" s="68">
+        <v>0</v>
+      </c>
+      <c r="C124" s="68">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
-        <v>-400</v>
-      </c>
-      <c r="E124" s="13">
-        <v>0</v>
-      </c>
-      <c r="F124" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E124" s="69">
+        <v>0</v>
+      </c>
+      <c r="F124" s="69">
+        <v>548</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H124" s="13">
-        <v>0</v>
-      </c>
-      <c r="I124" s="13">
+        <v>548</v>
+      </c>
+      <c r="H124" s="70">
+        <v>0</v>
+      </c>
+      <c r="I124" s="70">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5723,33 +5823,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B125" s="13">
-        <v>1000</v>
-      </c>
-      <c r="C125" s="13">
+      <c r="B125" s="68">
+        <v>800</v>
+      </c>
+      <c r="C125" s="68">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
-        <v>-1000</v>
-      </c>
-      <c r="E125" s="13">
-        <v>0</v>
-      </c>
-      <c r="F125" s="13">
+        <v>-800</v>
+      </c>
+      <c r="E125" s="69">
+        <v>0</v>
+      </c>
+      <c r="F125" s="69">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H125" s="13">
-        <v>0</v>
-      </c>
-      <c r="I125" s="13">
+      <c r="H125" s="70">
+        <v>0</v>
+      </c>
+      <c r="I125" s="70">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5758,33 +5858,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B126" s="13">
-        <v>0</v>
-      </c>
-      <c r="C126" s="13">
+      <c r="B126" s="68">
+        <v>0</v>
+      </c>
+      <c r="C126" s="68">
         <v>0</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E126" s="13">
+      <c r="E126" s="69">
         <v>108</v>
       </c>
-      <c r="F126" s="13">
+      <c r="F126" s="69">
         <v>0</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
         <v>-108</v>
       </c>
-      <c r="H126" s="13">
-        <v>0</v>
-      </c>
-      <c r="I126" s="13">
+      <c r="H126" s="70">
+        <v>0</v>
+      </c>
+      <c r="I126" s="70">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5793,33 +5893,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" s="13">
-        <v>0</v>
-      </c>
-      <c r="C127" s="13">
+      <c r="A127" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="68">
+        <v>0</v>
+      </c>
+      <c r="C127" s="68">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="13">
-        <v>500</v>
-      </c>
-      <c r="F127" s="13">
-        <v>0</v>
+      <c r="E127" s="69">
+        <v>0</v>
+      </c>
+      <c r="F127" s="69">
+        <v>9515</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
-        <v>-500</v>
-      </c>
-      <c r="H127" s="13">
-        <v>0</v>
-      </c>
-      <c r="I127" s="13">
+        <v>9515</v>
+      </c>
+      <c r="H127" s="70">
+        <v>0</v>
+      </c>
+      <c r="I127" s="70">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5828,33 +5928,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B128" s="13">
-        <v>300</v>
-      </c>
-      <c r="C128" s="13">
+      <c r="A128" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="68">
+        <v>0</v>
+      </c>
+      <c r="C128" s="68">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
-        <v>-300</v>
-      </c>
-      <c r="E128" s="13">
-        <v>0</v>
-      </c>
-      <c r="F128" s="13">
+        <v>0</v>
+      </c>
+      <c r="E128" s="69">
+        <v>200</v>
+      </c>
+      <c r="F128" s="69">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H128" s="13">
-        <v>0</v>
-      </c>
-      <c r="I128" s="13">
+        <v>-200</v>
+      </c>
+      <c r="H128" s="70">
+        <v>0</v>
+      </c>
+      <c r="I128" s="70">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5863,33 +5963,33 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B129" s="13">
-        <v>0</v>
-      </c>
-      <c r="C129" s="13">
+      <c r="A129" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="68">
+        <v>0</v>
+      </c>
+      <c r="C129" s="68">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="13">
-        <v>128</v>
-      </c>
-      <c r="F129" s="13">
+      <c r="E129" s="69">
+        <v>700</v>
+      </c>
+      <c r="F129" s="69">
         <v>0</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
-        <v>-128</v>
-      </c>
-      <c r="H129" s="13">
-        <v>0</v>
-      </c>
-      <c r="I129" s="13">
+        <v>-700</v>
+      </c>
+      <c r="H129" s="70">
+        <v>0</v>
+      </c>
+      <c r="I129" s="70">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5898,33 +5998,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B130" s="13">
-        <v>0</v>
-      </c>
-      <c r="C130" s="13">
+      <c r="A130" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="68">
+        <v>0</v>
+      </c>
+      <c r="C130" s="68">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E130" s="13">
-        <v>23000</v>
-      </c>
-      <c r="F130" s="13">
+      <c r="E130" s="69">
+        <v>1000</v>
+      </c>
+      <c r="F130" s="69">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
-        <v>-23000</v>
-      </c>
-      <c r="H130" s="13">
-        <v>0</v>
-      </c>
-      <c r="I130" s="13">
+        <v>-1000</v>
+      </c>
+      <c r="H130" s="70">
+        <v>0</v>
+      </c>
+      <c r="I130" s="70">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -5933,33 +6033,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B131" s="13">
-        <v>0</v>
-      </c>
-      <c r="C131" s="13">
+      <c r="A131" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" s="68">
+        <v>0</v>
+      </c>
+      <c r="C131" s="68">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
         <v>0</v>
       </c>
-      <c r="E131" s="13">
-        <v>3000</v>
-      </c>
-      <c r="F131" s="13">
-        <v>0</v>
+      <c r="E131" s="69">
+        <v>0</v>
+      </c>
+      <c r="F131" s="69">
+        <v>26</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
-        <v>-3000</v>
-      </c>
-      <c r="H131" s="13">
-        <v>0</v>
-      </c>
-      <c r="I131" s="13">
+        <v>26</v>
+      </c>
+      <c r="H131" s="70">
+        <v>0</v>
+      </c>
+      <c r="I131" s="70">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -5968,33 +6068,27 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B132" s="13">
-        <v>0</v>
-      </c>
-      <c r="C132" s="13">
-        <v>323</v>
-      </c>
+      <c r="A132" s="10"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="13"/>
       <c r="D132" s="6">
         <f t="shared" si="6"/>
-        <v>323</v>
-      </c>
-      <c r="E132" s="13">
-        <v>0</v>
-      </c>
-      <c r="F132" s="13">
+        <v>0</v>
+      </c>
+      <c r="E132" s="69">
+        <v>0</v>
+      </c>
+      <c r="F132" s="69">
         <v>0</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H132" s="13">
-        <v>0</v>
-      </c>
-      <c r="I132" s="13">
+      <c r="H132" s="70">
+        <v>0</v>
+      </c>
+      <c r="I132" s="70">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -6003,140 +6097,84 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B133" s="13">
-        <v>0</v>
-      </c>
-      <c r="C133" s="13">
-        <v>0</v>
-      </c>
+      <c r="A133" s="10"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
       <c r="D133" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="13">
-        <v>1478</v>
-      </c>
-      <c r="F133" s="13">
-        <v>0</v>
-      </c>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
       <c r="G133" s="6">
         <f t="shared" si="7"/>
-        <v>-1478</v>
-      </c>
-      <c r="H133" s="13">
-        <v>0</v>
-      </c>
-      <c r="I133" s="13">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
       <c r="J133" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B134" s="13">
-        <v>0</v>
-      </c>
-      <c r="C134" s="13">
-        <v>0</v>
-      </c>
+      <c r="A134" s="10"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
       <c r="D134" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E134" s="13">
-        <v>670</v>
-      </c>
-      <c r="F134" s="13">
-        <v>0</v>
-      </c>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
       <c r="G134" s="6">
         <f t="shared" si="7"/>
-        <v>-670</v>
-      </c>
-      <c r="H134" s="13">
-        <v>0</v>
-      </c>
-      <c r="I134" s="13">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
       <c r="J134" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B135" s="13">
-        <v>0</v>
-      </c>
-      <c r="C135" s="13">
-        <v>0</v>
-      </c>
+      <c r="A135" s="10"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
       <c r="D135" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E135" s="13">
-        <v>0</v>
-      </c>
-      <c r="F135" s="13">
-        <v>60620</v>
-      </c>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
       <c r="G135" s="6">
         <f t="shared" si="7"/>
-        <v>60620</v>
-      </c>
-      <c r="H135" s="13">
-        <v>0</v>
-      </c>
-      <c r="I135" s="13">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
       <c r="J135" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B136" s="48">
-        <v>1050</v>
-      </c>
-      <c r="C136" s="13">
-        <v>0</v>
-      </c>
+      <c r="A136" s="10"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="13"/>
       <c r="D136" s="6">
         <f t="shared" si="6"/>
-        <v>-1050</v>
-      </c>
-      <c r="E136" s="13">
-        <v>0</v>
-      </c>
-      <c r="F136" s="13">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
       <c r="G136" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H136" s="13">
-        <v>0</v>
-      </c>
-      <c r="I136" s="13">
-        <v>0</v>
-      </c>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6144,32 +6182,20 @@
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
-      <c r="B137" s="48">
-        <v>0</v>
-      </c>
-      <c r="C137" s="13">
-        <v>0</v>
-      </c>
+      <c r="B137" s="46"/>
+      <c r="C137" s="13"/>
       <c r="D137" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E137" s="13">
-        <v>0</v>
-      </c>
-      <c r="F137" s="13">
-        <v>0</v>
-      </c>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
       <c r="G137" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H137" s="13">
-        <v>0</v>
-      </c>
-      <c r="I137" s="13">
-        <v>0</v>
-      </c>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
       <c r="J137" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6177,32 +6203,20 @@
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
-      <c r="B138" s="48">
-        <v>0</v>
-      </c>
-      <c r="C138" s="13">
-        <v>0</v>
-      </c>
+      <c r="B138" s="46"/>
+      <c r="C138" s="13"/>
       <c r="D138" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E138" s="13">
-        <v>0</v>
-      </c>
-      <c r="F138" s="13">
-        <v>0</v>
-      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
       <c r="G138" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H138" s="13">
-        <v>0</v>
-      </c>
-      <c r="I138" s="13">
-        <v>0</v>
-      </c>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
       <c r="J138" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6210,32 +6224,20 @@
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
-      <c r="B139" s="48">
-        <v>0</v>
-      </c>
-      <c r="C139" s="13">
-        <v>0</v>
-      </c>
+      <c r="B139" s="46"/>
+      <c r="C139" s="13"/>
       <c r="D139" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E139" s="13">
-        <v>0</v>
-      </c>
-      <c r="F139" s="13">
-        <v>0</v>
-      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
       <c r="G139" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H139" s="13">
-        <v>0</v>
-      </c>
-      <c r="I139" s="13">
-        <v>0</v>
-      </c>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
       <c r="J139" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6243,32 +6245,20 @@
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
-      <c r="B140" s="48">
-        <v>0</v>
-      </c>
-      <c r="C140" s="13">
-        <v>0</v>
-      </c>
+      <c r="B140" s="46"/>
+      <c r="C140" s="13"/>
       <c r="D140" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E140" s="13">
-        <v>0</v>
-      </c>
-      <c r="F140" s="13">
-        <v>0</v>
-      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
       <c r="G140" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H140" s="13">
-        <v>0</v>
-      </c>
-      <c r="I140" s="13">
-        <v>0</v>
-      </c>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
       <c r="J140" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6276,32 +6266,20 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
-      <c r="B141" s="48">
-        <v>0</v>
-      </c>
-      <c r="C141" s="13">
-        <v>0</v>
-      </c>
+      <c r="B141" s="46"/>
+      <c r="C141" s="13"/>
       <c r="D141" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E141" s="13">
-        <v>0</v>
-      </c>
-      <c r="F141" s="13">
-        <v>0</v>
-      </c>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
       <c r="G141" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H141" s="13">
-        <v>0</v>
-      </c>
-      <c r="I141" s="13">
-        <v>0</v>
-      </c>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
       <c r="J141" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6309,32 +6287,20 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
-      <c r="B142" s="48">
-        <v>0</v>
-      </c>
-      <c r="C142" s="13">
-        <v>0</v>
-      </c>
+      <c r="B142" s="46"/>
+      <c r="C142" s="13"/>
       <c r="D142" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E142" s="13">
-        <v>0</v>
-      </c>
-      <c r="F142" s="13">
-        <v>0</v>
-      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
       <c r="G142" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H142" s="13">
-        <v>0</v>
-      </c>
-      <c r="I142" s="13">
-        <v>0</v>
-      </c>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
       <c r="J142" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6342,32 +6308,20 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
-      <c r="B143" s="48">
-        <v>0</v>
-      </c>
-      <c r="C143" s="13">
-        <v>0</v>
-      </c>
+      <c r="B143" s="46"/>
+      <c r="C143" s="13"/>
       <c r="D143" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E143" s="13">
-        <v>0</v>
-      </c>
-      <c r="F143" s="13">
-        <v>0</v>
-      </c>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
       <c r="G143" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H143" s="13">
-        <v>0</v>
-      </c>
-      <c r="I143" s="13">
-        <v>0</v>
-      </c>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
       <c r="J143" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6375,32 +6329,20 @@
     </row>
     <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
-      <c r="B144" s="48">
-        <v>0</v>
-      </c>
-      <c r="C144" s="13">
-        <v>0</v>
-      </c>
+      <c r="B144" s="46"/>
+      <c r="C144" s="13"/>
       <c r="D144" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E144" s="13">
-        <v>0</v>
-      </c>
-      <c r="F144" s="13">
-        <v>0</v>
-      </c>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
       <c r="G144" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H144" s="13">
-        <v>0</v>
-      </c>
-      <c r="I144" s="13">
-        <v>0</v>
-      </c>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
       <c r="J144" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6408,32 +6350,20 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
-      <c r="B145" s="48">
-        <v>0</v>
-      </c>
-      <c r="C145" s="13">
-        <v>0</v>
-      </c>
+      <c r="B145" s="46"/>
+      <c r="C145" s="13"/>
       <c r="D145" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E145" s="13">
-        <v>0</v>
-      </c>
-      <c r="F145" s="13">
-        <v>0</v>
-      </c>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
       <c r="G145" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H145" s="13">
-        <v>0</v>
-      </c>
-      <c r="I145" s="13">
-        <v>0</v>
-      </c>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
       <c r="J145" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6441,32 +6371,20 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
-      <c r="B146" s="48">
-        <v>0</v>
-      </c>
-      <c r="C146" s="13">
-        <v>0</v>
-      </c>
+      <c r="B146" s="46"/>
+      <c r="C146" s="13"/>
       <c r="D146" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E146" s="13">
-        <v>0</v>
-      </c>
-      <c r="F146" s="13">
-        <v>0</v>
-      </c>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
       <c r="G146" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H146" s="13">
-        <v>0</v>
-      </c>
-      <c r="I146" s="13">
-        <v>0</v>
-      </c>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
       <c r="J146" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6474,32 +6392,20 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="B147" s="48">
-        <v>0</v>
-      </c>
-      <c r="C147" s="13">
-        <v>0</v>
-      </c>
+      <c r="B147" s="46"/>
+      <c r="C147" s="13"/>
       <c r="D147" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E147" s="13">
-        <v>0</v>
-      </c>
-      <c r="F147" s="13">
-        <v>0</v>
-      </c>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
       <c r="G147" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H147" s="13">
-        <v>0</v>
-      </c>
-      <c r="I147" s="13">
-        <v>0</v>
-      </c>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
       <c r="J147" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6507,32 +6413,20 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
-      <c r="B148" s="48">
-        <v>0</v>
-      </c>
-      <c r="C148" s="13">
-        <v>0</v>
-      </c>
+      <c r="B148" s="46"/>
+      <c r="C148" s="13"/>
       <c r="D148" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E148" s="13">
-        <v>0</v>
-      </c>
-      <c r="F148" s="13">
-        <v>0</v>
-      </c>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
       <c r="G148" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H148" s="13">
-        <v>0</v>
-      </c>
-      <c r="I148" s="13">
-        <v>0</v>
-      </c>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
       <c r="J148" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6540,32 +6434,20 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
-      <c r="B149" s="48">
-        <v>0</v>
-      </c>
-      <c r="C149" s="13">
-        <v>0</v>
-      </c>
+      <c r="B149" s="46"/>
+      <c r="C149" s="13"/>
       <c r="D149" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E149" s="13">
-        <v>0</v>
-      </c>
-      <c r="F149" s="13">
-        <v>0</v>
-      </c>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
       <c r="G149" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H149" s="13">
-        <v>0</v>
-      </c>
-      <c r="I149" s="13">
-        <v>0</v>
-      </c>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
       <c r="J149" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6573,32 +6455,20 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
-      <c r="B150" s="48">
-        <v>0</v>
-      </c>
-      <c r="C150" s="13">
-        <v>0</v>
-      </c>
+      <c r="B150" s="46"/>
+      <c r="C150" s="13"/>
       <c r="D150" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E150" s="13">
-        <v>0</v>
-      </c>
-      <c r="F150" s="13">
-        <v>0</v>
-      </c>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
       <c r="G150" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H150" s="13">
-        <v>0</v>
-      </c>
-      <c r="I150" s="13">
-        <v>0</v>
-      </c>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
       <c r="J150" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6606,32 +6476,20 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
-      <c r="B151" s="48">
-        <v>0</v>
-      </c>
-      <c r="C151" s="13">
-        <v>0</v>
-      </c>
+      <c r="B151" s="46"/>
+      <c r="C151" s="13"/>
       <c r="D151" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E151" s="13">
-        <v>0</v>
-      </c>
-      <c r="F151" s="13">
-        <v>0</v>
-      </c>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
       <c r="G151" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H151" s="13">
-        <v>0</v>
-      </c>
-      <c r="I151" s="13">
-        <v>0</v>
-      </c>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
       <c r="J151" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6639,32 +6497,20 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
-      <c r="B152" s="48">
-        <v>0</v>
-      </c>
-      <c r="C152" s="13">
-        <v>0</v>
-      </c>
+      <c r="B152" s="46"/>
+      <c r="C152" s="13"/>
       <c r="D152" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E152" s="13">
-        <v>0</v>
-      </c>
-      <c r="F152" s="13">
-        <v>0</v>
-      </c>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
       <c r="G152" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H152" s="13">
-        <v>0</v>
-      </c>
-      <c r="I152" s="13">
-        <v>0</v>
-      </c>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
       <c r="J152" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6673,117 +6519,57 @@
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="48">
-        <v>0</v>
-      </c>
-      <c r="C153" s="13">
-        <v>0</v>
-      </c>
-      <c r="E153" s="13">
-        <v>0</v>
-      </c>
-      <c r="F153" s="13">
-        <v>0</v>
-      </c>
-      <c r="H153" s="13">
-        <v>0</v>
-      </c>
-      <c r="I153" s="13">
-        <v>0</v>
-      </c>
+      <c r="B153" s="46"/>
+      <c r="C153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
       <c r="L153" s="14"/>
     </row>
     <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="48">
-        <v>0</v>
-      </c>
-      <c r="C154" s="13">
-        <v>0</v>
-      </c>
-      <c r="E154" s="13">
-        <v>0</v>
-      </c>
-      <c r="F154" s="13">
-        <v>0</v>
-      </c>
-      <c r="H154" s="13">
-        <v>0</v>
-      </c>
-      <c r="I154" s="13">
-        <v>0</v>
-      </c>
+      <c r="B154" s="46"/>
+      <c r="C154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
     </row>
     <row r="155" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H155" s="13">
-        <v>0</v>
-      </c>
-      <c r="I155" s="13">
-        <v>0</v>
-      </c>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
     </row>
     <row r="156" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H156" s="13">
-        <v>0</v>
-      </c>
-      <c r="I156" s="13">
-        <v>0</v>
-      </c>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
     </row>
     <row r="157" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H157" s="13">
-        <v>0</v>
-      </c>
-      <c r="I157" s="13">
-        <v>0</v>
-      </c>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
     </row>
     <row r="158" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H158" s="13">
-        <v>0</v>
-      </c>
-      <c r="I158" s="13">
-        <v>0</v>
-      </c>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
     </row>
     <row r="159" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H159" s="13">
-        <v>0</v>
-      </c>
-      <c r="I159" s="13">
-        <v>0</v>
-      </c>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
     </row>
     <row r="160" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H160" s="13">
-        <v>0</v>
-      </c>
-      <c r="I160" s="13">
-        <v>0</v>
-      </c>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
     </row>
     <row r="161" spans="8:9" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H161" s="13">
-        <v>0</v>
-      </c>
-      <c r="I161" s="13">
-        <v>0</v>
-      </c>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
     </row>
     <row r="162" spans="8:9" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H162" s="13">
-        <v>0</v>
-      </c>
-      <c r="I162" s="13">
-        <v>0</v>
-      </c>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
     </row>
     <row r="163" spans="8:9" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="H163" s="13">
-        <v>0</v>
-      </c>
-      <c r="I163" s="13">
-        <v>0</v>
-      </c>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6797,7 +6583,7 @@
   <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6842,28 +6628,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>152370</v>
+        <v>259891</v>
       </c>
       <c r="D4" s="15">
-        <v>10848</v>
+        <v>10621</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="15">
-        <v>-2498</v>
+        <v>-3086</v>
       </c>
       <c r="C5" s="15">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D5" s="15">
         <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15">
@@ -6877,17 +6663,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
-        <v>1383</v>
+        <v>500</v>
       </c>
       <c r="D7" s="15">
-        <v>1110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
@@ -6898,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>480</v>
+        <v>3353</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -6909,10 +6695,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="15">
-        <v>0</v>
+        <v>-1050</v>
       </c>
       <c r="C9" s="15">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
@@ -6954,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
@@ -6975,21 +6761,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="15">
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <v>-3899</v>
+        <v>-1013</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="15">
@@ -7003,14 +6789,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="15">
         <v>0</v>
       </c>
       <c r="C16" s="15">
-        <v>-2800</v>
+        <v>-1400</v>
       </c>
       <c r="D16" s="15">
         <v>0</v>
@@ -7031,7 +6817,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="15">
@@ -7049,7 +6835,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="15">
-        <v>-1660</v>
+        <v>-1680</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
@@ -7073,14 +6859,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="15">
-        <v>0</v>
+        <v>-470</v>
       </c>
       <c r="C21" s="15">
-        <v>5662</v>
+        <v>2894</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
@@ -7101,7 +6887,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15">
@@ -7129,7 +6915,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="15">
@@ -7143,7 +6929,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="15">
@@ -7157,7 +6943,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="15">
@@ -7171,7 +6957,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="15">
@@ -7199,14 +6985,14 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="37" t="s">
         <v>135</v>
       </c>
       <c r="B30" s="15">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C30" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
@@ -7227,7 +7013,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="15">
@@ -7241,14 +7027,14 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="15">
         <v>0</v>
       </c>
       <c r="C33" s="15">
-        <v>-660</v>
+        <v>-600</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
@@ -7273,17 +7059,17 @@
         <v>41</v>
       </c>
       <c r="B35" s="15">
-        <v>973</v>
+        <v>2114</v>
       </c>
       <c r="C35" s="15">
-        <v>-630</v>
+        <v>-3641</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="15">
@@ -7297,7 +7083,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="15">
@@ -7311,11 +7097,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="38" t="s">
         <v>136</v>
       </c>
       <c r="B38" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C38" s="15">
         <v>0</v>
@@ -7332,14 +7118,14 @@
         <v>0</v>
       </c>
       <c r="C39" s="15">
-        <v>10424</v>
+        <v>2793</v>
       </c>
       <c r="D39" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="15">
@@ -7360,14 +7146,14 @@
         <v>0</v>
       </c>
       <c r="C41" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="40" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="15">
@@ -7381,17 +7167,17 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="15">
         <v>0</v>
       </c>
       <c r="C43" s="15">
-        <v>-14255</v>
+        <v>-4527</v>
       </c>
       <c r="D43" s="15">
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7399,7 +7185,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="15">
-        <v>-225</v>
+        <v>0</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -7409,11 +7195,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="42" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="15">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="C45" s="15">
         <v>0</v>
@@ -7423,7 +7209,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="15">
@@ -7451,7 +7237,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="15">
@@ -7514,14 +7300,14 @@
         <v>0</v>
       </c>
       <c r="C52" s="15">
-        <v>0</v>
+        <v>-128</v>
       </c>
       <c r="D52" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="15">
@@ -7535,7 +7321,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="15">
@@ -7556,10 +7342,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-11540</v>
+        <v>-26431</v>
       </c>
       <c r="D55" s="15">
-        <v>-3205</v>
+        <v>-6714</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7598,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="15">
-        <v>0</v>
+        <v>-548</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
@@ -7640,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="15">
-        <v>-7495</v>
+        <v>-1569</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
@@ -7665,7 +7451,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="15">
-        <v>0</v>
+        <v>4420</v>
       </c>
       <c r="C63" s="15">
         <v>0</v>
@@ -7693,13 +7479,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="15">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="C65" s="15">
         <v>500</v>
       </c>
       <c r="D65" s="15">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7727,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="15">
-        <v>0</v>
+        <v>-2525</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7738,7 +7524,7 @@
         <v>20</v>
       </c>
       <c r="C68" s="15">
-        <v>1180</v>
+        <v>1239</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
@@ -7752,14 +7538,14 @@
         <v>0</v>
       </c>
       <c r="C69" s="15">
-        <v>0</v>
+        <v>-64665</v>
       </c>
       <c r="D69" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="15">
@@ -7773,14 +7559,14 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="44" t="s">
         <v>118</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
       </c>
       <c r="C71" s="15">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
@@ -7808,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="15">
-        <v>392</v>
+        <v>48</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -7819,7 +7605,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="15">
-        <v>2120</v>
+        <v>1170</v>
       </c>
       <c r="C74" s="15">
         <v>0</v>
@@ -7850,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="15">
-        <v>0</v>
+        <v>-22000</v>
       </c>
       <c r="D76" s="15">
         <v>0</v>
@@ -7878,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="15">
-        <v>-13030</v>
+        <v>-3680</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
@@ -7906,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="15">
-        <v>-4840</v>
+        <v>-2853</v>
       </c>
       <c r="D80" s="15">
         <v>0</v>
@@ -7941,7 +7727,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="45" t="s">
         <v>77</v>
       </c>
       <c r="B83" s="15">
@@ -7962,10 +7748,10 @@
         <v>0</v>
       </c>
       <c r="C84" s="15">
-        <v>1673</v>
+        <v>3036</v>
       </c>
       <c r="D84" s="15">
-        <v>-590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -7976,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="15">
-        <v>0</v>
+        <v>-1502</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
@@ -8032,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="15">
-        <v>0</v>
+        <v>-6533</v>
       </c>
       <c r="D89" s="15">
         <v>0</v>
@@ -8043,7 +7829,7 @@
         <v>82</v>
       </c>
       <c r="B90" s="15">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="C90" s="15">
         <v>0</v>
@@ -8097,7 +7883,7 @@
         <v>122</v>
       </c>
       <c r="B94" s="15">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C94" s="15">
         <v>0</v>
@@ -8111,7 +7897,7 @@
         <v>84</v>
       </c>
       <c r="B95" s="15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C95" s="15">
         <v>0</v>
@@ -8156,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="15">
-        <v>0</v>
+        <v>-9944</v>
       </c>
       <c r="D98" s="15">
         <v>0</v>
@@ -8170,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="15">
-        <v>-350</v>
+        <v>-250</v>
       </c>
       <c r="D99" s="15">
         <v>0</v>
@@ -8184,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="C100" s="15">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D100" s="15">
-        <v>-105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -8226,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="15">
-        <v>0</v>
+        <v>-883</v>
       </c>
       <c r="D103" s="15">
         <v>0</v>
@@ -8237,7 +8023,7 @@
         <v>143</v>
       </c>
       <c r="B104" s="15">
-        <v>-115</v>
+        <v>-222</v>
       </c>
       <c r="C104" s="15">
         <v>0</v>
@@ -8268,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="15">
-        <v>-3599</v>
+        <v>-11394</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
@@ -8282,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="15">
-        <v>-12985</v>
+        <v>11478</v>
       </c>
       <c r="D107" s="15">
         <v>0</v>
@@ -8310,10 +8096,10 @@
         <v>0</v>
       </c>
       <c r="C109" s="15">
-        <v>-6000</v>
+        <v>-670</v>
       </c>
       <c r="D109" s="15">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -8338,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="15">
-        <v>-250</v>
+        <v>7303</v>
       </c>
       <c r="D111" s="15">
         <v>0</v>
@@ -8366,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="15">
-        <v>-327</v>
+        <v>-1100</v>
       </c>
       <c r="D113" s="15">
         <v>0</v>
@@ -8377,7 +8163,7 @@
         <v>97</v>
       </c>
       <c r="B114" s="15">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="C114" s="15">
         <v>0</v>
@@ -8394,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="15">
-        <v>-100</v>
+        <v>-41904</v>
       </c>
       <c r="D115" s="15">
         <v>0</v>
@@ -8405,10 +8191,10 @@
         <v>98</v>
       </c>
       <c r="B116" s="15">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="C116" s="15">
-        <v>-27312</v>
+        <v>-21823</v>
       </c>
       <c r="D116" s="15">
         <v>0</v>
@@ -8433,7 +8219,7 @@
         <v>100</v>
       </c>
       <c r="B118" s="15">
-        <v>2340</v>
+        <v>0</v>
       </c>
       <c r="C118" s="15">
         <v>-7</v>
@@ -8447,10 +8233,10 @@
         <v>101</v>
       </c>
       <c r="B119" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C119" s="15">
-        <v>-3597</v>
+        <v>200</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
@@ -8475,10 +8261,10 @@
         <v>103</v>
       </c>
       <c r="B121" s="15">
-        <v>-245</v>
+        <v>-1845</v>
       </c>
       <c r="C121" s="15">
-        <v>-1113</v>
+        <v>-6288</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
@@ -8492,7 +8278,7 @@
         <v>-300</v>
       </c>
       <c r="C122" s="15">
-        <v>-26</v>
+        <v>-106</v>
       </c>
       <c r="D122" s="15">
         <v>0</v>
@@ -8520,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="15">
-        <v>-508</v>
+        <v>5900</v>
       </c>
       <c r="D124" s="15">
         <v>0</v>
@@ -8531,10 +8317,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="15">
-        <v>-1430</v>
+        <v>0</v>
       </c>
       <c r="C125" s="15">
-        <v>-2880</v>
+        <v>0</v>
       </c>
       <c r="D125" s="15">
         <v>0</v>
@@ -8545,10 +8331,10 @@
         <v>127</v>
       </c>
       <c r="B126" s="15">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C126" s="15">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="D126" s="15">
         <v>0</v>
@@ -8559,7 +8345,7 @@
         <v>106</v>
       </c>
       <c r="B127" s="15">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="C127" s="15">
         <v>0</v>
@@ -8590,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="15">
-        <v>-500</v>
+        <v>9515</v>
       </c>
       <c r="D129" s="15">
         <v>0</v>
@@ -8601,10 +8387,10 @@
         <v>107</v>
       </c>
       <c r="B130" s="15">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C130" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D130" s="15">
         <v>0</v>
@@ -8618,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="15">
-        <v>-128</v>
+        <v>-700</v>
       </c>
       <c r="D131" s="15">
         <v>0</v>
@@ -8632,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="15">
-        <v>-23000</v>
+        <v>-1000</v>
       </c>
       <c r="D132" s="15">
         <v>0</v>
@@ -8646,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="15">
-        <v>-3000</v>
+        <v>26</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
@@ -8656,9 +8442,6 @@
       <c r="A134" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B134" s="15">
-        <v>323</v>
-      </c>
       <c r="C134" s="15">
         <v>0</v>
       </c>
@@ -8670,56 +8453,20 @@
       <c r="A135" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B135" s="15">
-        <v>0</v>
-      </c>
-      <c r="C135" s="15">
-        <v>-1478</v>
-      </c>
-      <c r="D135" s="15">
-        <v>0</v>
-      </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="15">
-        <v>0</v>
-      </c>
-      <c r="C136" s="15">
-        <v>-670</v>
-      </c>
-      <c r="D136" s="15">
-        <v>0</v>
-      </c>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B137" s="15">
-        <v>0</v>
-      </c>
-      <c r="C137" s="15">
-        <v>60620</v>
-      </c>
-      <c r="D137" s="15">
-        <v>0</v>
-      </c>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="B138" s="15">
-        <v>-1050</v>
-      </c>
-      <c r="C138" s="15">
-        <v>0</v>
-      </c>
-      <c r="D138" s="15">
-        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
@@ -8772,15 +8519,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>23550</v>
+        <v>25748</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>21349</v>
+        <v>6493</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>4750</v>
+        <v>-1911</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8825,15 +8572,13 @@
         <v>112</v>
       </c>
       <c r="B160" s="15">
-        <v>10556</v>
+        <v>2543</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E160" s="16">
-        <v>3.72</v>
-      </c>
+      <c r="E160" s="16"/>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -8841,15 +8586,13 @@
         <v>113</v>
       </c>
       <c r="B161" s="15">
-        <v>118</v>
+        <v>-5684</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="16">
-        <v>0.71</v>
-      </c>
+      <c r="E161" s="16"/>
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -8863,12 +8606,7 @@
       <c r="D162" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E162" s="15">
-        <v>0.115</v>
-      </c>
-      <c r="F162" s="31">
-        <v>32.3478260869</v>
-      </c>
+      <c r="F162" s="29"/>
       <c r="G162" s="15"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -8877,12 +8615,7 @@
       <c r="D163" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="15">
-        <v>0.185</v>
-      </c>
-      <c r="F163" s="31">
-        <v>3.83783783783</v>
-      </c>
+      <c r="F163" s="29"/>
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8891,9 +8624,7 @@
       <c r="D164" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E164" s="16">
-        <v>1.08</v>
-      </c>
+      <c r="E164" s="16"/>
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -8905,13 +8636,13 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dede\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F68DDD-739D-4C2C-BA7A-B65FB819F646}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D1008C-BFC0-44AC-8C28-D2E99BDFED66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="1965" windowWidth="9195" windowHeight="8535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,6 @@
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
   <si>
     <t>الشيكل</t>
   </si>
@@ -348,9 +341,6 @@
     <t>تيودور شحاده</t>
   </si>
   <si>
-    <t>دبي الدن</t>
-  </si>
-  <si>
     <t>الدانا</t>
   </si>
   <si>
@@ -381,9 +371,6 @@
     <t>ابوعلاء ابوسمهدانه</t>
   </si>
   <si>
-    <t>ريم ابوسيدو</t>
-  </si>
-  <si>
     <t>الجرجاوي ابويامن</t>
   </si>
   <si>
@@ -426,9 +413,6 @@
     <t>يورو</t>
   </si>
   <si>
-    <t>محمد حميد</t>
-  </si>
-  <si>
     <t>مالك الرنتيسي</t>
   </si>
   <si>
@@ -453,72 +437,30 @@
     <t>محمد فوره</t>
   </si>
   <si>
-    <t>حكيم خلف</t>
-  </si>
-  <si>
-    <t>باي كاش</t>
-  </si>
-  <si>
-    <t>فراس ابوكميل</t>
-  </si>
-  <si>
-    <t>العبادله 2</t>
-  </si>
-  <si>
-    <t>عبد الهادي القصاص</t>
-  </si>
-  <si>
     <t>علاء المشهراوي</t>
   </si>
   <si>
-    <t>ابوانس سكيك</t>
-  </si>
-  <si>
-    <t>محمد الزين دليس</t>
-  </si>
-  <si>
     <t>عمار ابوضاهر</t>
   </si>
   <si>
     <t>صندوق واحد صندوق كــــاظــــم 1 كـاظم</t>
   </si>
   <si>
-    <t>نور مشتهى</t>
-  </si>
-  <si>
-    <t>حازم مصبح</t>
-  </si>
-  <si>
     <t>صامد الشريف</t>
   </si>
   <si>
-    <t>هادي ابومعروف</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حازم مشتهى </t>
-  </si>
-  <si>
     <t>سمير فتحي ساق الله</t>
   </si>
   <si>
     <t>ابواسعد حموده</t>
   </si>
   <si>
-    <t>ابوالمجد ابوعقلين</t>
-  </si>
-  <si>
     <t>احمد جوال بي</t>
   </si>
   <si>
     <t>ابودرويش</t>
   </si>
   <si>
-    <t>اكرم وادي</t>
-  </si>
-  <si>
-    <t>إبراهيم الطويل</t>
-  </si>
-  <si>
     <t>احمد خليل</t>
   </si>
   <si>
@@ -529,9 +471,6 @@
   </si>
   <si>
     <t>مصطفى بشير</t>
-  </si>
-  <si>
-    <t>محمد شيك</t>
   </si>
   <si>
     <t>ام العبد الترتوري 2</t>
@@ -968,10 +907,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1002,7 +941,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1019,64 +958,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,11 +1018,11 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1169,9 +1051,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1209,9 +1091,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1244,26 +1126,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,26 +1161,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1491,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView rightToLeft="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,32 +1371,32 @@
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="68">
-        <v>0</v>
-      </c>
-      <c r="C2" s="68">
+        <v>124</v>
+      </c>
+      <c r="B2" s="49">
+        <v>0</v>
+      </c>
+      <c r="C2" s="49">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="69">
-        <v>0</v>
-      </c>
-      <c r="F2" s="69">
+      <c r="E2" s="49">
+        <v>0</v>
+      </c>
+      <c r="F2" s="49">
         <v>259891</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
         <v>259891</v>
       </c>
-      <c r="H2" s="70">
-        <v>0</v>
-      </c>
-      <c r="I2" s="70">
+      <c r="H2" s="49">
+        <v>0</v>
+      </c>
+      <c r="I2" s="49">
         <v>10621</v>
       </c>
       <c r="J2" s="6">
@@ -1557,33 +1405,33 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="49">
         <v>3086</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="49">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
         <v>-3086</v>
       </c>
-      <c r="E3" s="69">
-        <v>0</v>
-      </c>
-      <c r="F3" s="69">
+      <c r="E3" s="49">
+        <v>0</v>
+      </c>
+      <c r="F3" s="49">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="49">
         <v>40</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="49">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1592,33 +1440,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="68">
-        <v>0</v>
-      </c>
-      <c r="C4" s="68">
+      <c r="B4" s="49">
+        <v>0</v>
+      </c>
+      <c r="C4" s="49">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="69">
-        <v>0</v>
-      </c>
-      <c r="F4" s="69">
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="70">
-        <v>0</v>
-      </c>
-      <c r="I4" s="70">
+      <c r="H4" s="49">
+        <v>0</v>
+      </c>
+      <c r="I4" s="49">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1627,33 +1475,33 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="68">
-        <v>0</v>
-      </c>
-      <c r="C5" s="68">
+      <c r="B5" s="49">
+        <v>0</v>
+      </c>
+      <c r="C5" s="49">
         <v>0</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="69">
-        <v>0</v>
-      </c>
-      <c r="F5" s="69">
+      <c r="E5" s="49">
+        <v>0</v>
+      </c>
+      <c r="F5" s="49">
         <v>500</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H5" s="70">
-        <v>0</v>
-      </c>
-      <c r="I5" s="70">
+      <c r="H5" s="49">
+        <v>0</v>
+      </c>
+      <c r="I5" s="49">
         <v>0</v>
       </c>
       <c r="J5" s="6">
@@ -1662,33 +1510,33 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="68">
-        <v>0</v>
-      </c>
-      <c r="C6" s="68">
+      <c r="B6" s="49">
+        <v>0</v>
+      </c>
+      <c r="C6" s="49">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="69">
-        <v>0</v>
-      </c>
-      <c r="F6" s="69">
+      <c r="E6" s="49">
+        <v>0</v>
+      </c>
+      <c r="F6" s="49">
         <v>3353</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>3353</v>
       </c>
-      <c r="H6" s="70">
-        <v>0</v>
-      </c>
-      <c r="I6" s="70">
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="49">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1697,33 +1545,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="68">
+      <c r="A7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="49">
         <v>1050</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="49">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>-1050</v>
       </c>
-      <c r="E7" s="69">
-        <v>0</v>
-      </c>
-      <c r="F7" s="69">
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="70">
-        <v>0</v>
-      </c>
-      <c r="I7" s="70">
+      <c r="H7" s="49">
+        <v>0</v>
+      </c>
+      <c r="I7" s="49">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1732,33 +1580,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="68">
-        <v>0</v>
-      </c>
-      <c r="C8" s="68">
+      <c r="B8" s="49">
+        <v>0</v>
+      </c>
+      <c r="C8" s="49">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="69">
-        <v>0</v>
-      </c>
-      <c r="F8" s="69">
+      <c r="E8" s="49">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
         <v>472</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>472</v>
       </c>
-      <c r="H8" s="70">
-        <v>0</v>
-      </c>
-      <c r="I8" s="70">
+      <c r="H8" s="49">
+        <v>0</v>
+      </c>
+      <c r="I8" s="49">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1767,33 +1615,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="68">
-        <v>0</v>
-      </c>
-      <c r="C9" s="68">
+      <c r="B9" s="49">
+        <v>0</v>
+      </c>
+      <c r="C9" s="49">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="49">
         <v>33</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="49">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="70">
-        <v>0</v>
-      </c>
-      <c r="I9" s="70">
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="49">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1802,33 +1650,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="68">
-        <v>0</v>
-      </c>
-      <c r="C10" s="68">
+      <c r="B10" s="49">
+        <v>0</v>
+      </c>
+      <c r="C10" s="49">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="49">
         <v>18</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="49">
         <v>0</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="H10" s="70">
-        <v>0</v>
-      </c>
-      <c r="I10" s="70">
+      <c r="H10" s="49">
+        <v>0</v>
+      </c>
+      <c r="I10" s="49">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1837,33 +1685,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="68">
-        <v>0</v>
-      </c>
-      <c r="C11" s="68">
+      <c r="B11" s="49">
+        <v>0</v>
+      </c>
+      <c r="C11" s="49">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="69">
-        <v>0</v>
-      </c>
-      <c r="F11" s="69">
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="70">
-        <v>0</v>
-      </c>
-      <c r="I11" s="70">
+      <c r="H11" s="49">
+        <v>0</v>
+      </c>
+      <c r="I11" s="49">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1872,33 +1720,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="68">
-        <v>0</v>
-      </c>
-      <c r="C12" s="68">
+      <c r="B12" s="49">
+        <v>0</v>
+      </c>
+      <c r="C12" s="49">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="49">
         <v>1013</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="49">
         <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>-1013</v>
       </c>
-      <c r="H12" s="70">
-        <v>0</v>
-      </c>
-      <c r="I12" s="70">
+      <c r="H12" s="49">
+        <v>0</v>
+      </c>
+      <c r="I12" s="49">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1907,33 +1755,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="68">
-        <v>0</v>
-      </c>
-      <c r="C13" s="68">
+      <c r="B13" s="49">
+        <v>0</v>
+      </c>
+      <c r="C13" s="49">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="69">
-        <v>0</v>
-      </c>
-      <c r="F13" s="69">
+      <c r="E13" s="49">
+        <v>0</v>
+      </c>
+      <c r="F13" s="49">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="70">
-        <v>0</v>
-      </c>
-      <c r="I13" s="70">
+      <c r="H13" s="49">
+        <v>0</v>
+      </c>
+      <c r="I13" s="49">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1942,33 +1790,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="68">
-        <v>0</v>
-      </c>
-      <c r="C14" s="68">
+      <c r="B14" s="49">
+        <v>0</v>
+      </c>
+      <c r="C14" s="49">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="49">
         <v>1400</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="49">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>-1400</v>
       </c>
-      <c r="H14" s="70">
-        <v>0</v>
-      </c>
-      <c r="I14" s="70">
+      <c r="H14" s="49">
+        <v>0</v>
+      </c>
+      <c r="I14" s="49">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1977,33 +1825,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="49">
         <v>1070</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="49">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="69">
-        <v>0</v>
-      </c>
-      <c r="F15" s="69">
+      <c r="E15" s="49">
+        <v>0</v>
+      </c>
+      <c r="F15" s="49">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="70">
-        <v>0</v>
-      </c>
-      <c r="I15" s="70">
+      <c r="H15" s="49">
+        <v>0</v>
+      </c>
+      <c r="I15" s="49">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -2012,33 +1860,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="49">
         <v>40</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="49">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="49">
         <v>115</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="49">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="70">
-        <v>0</v>
-      </c>
-      <c r="I16" s="70">
+      <c r="H16" s="49">
+        <v>0</v>
+      </c>
+      <c r="I16" s="49">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -2047,33 +1895,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="49">
         <v>1980</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="49">
         <v>300</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>-1680</v>
       </c>
-      <c r="E17" s="69">
-        <v>0</v>
-      </c>
-      <c r="F17" s="69">
+      <c r="E17" s="49">
+        <v>0</v>
+      </c>
+      <c r="F17" s="49">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="70">
-        <v>0</v>
-      </c>
-      <c r="I17" s="70">
+      <c r="H17" s="49">
+        <v>0</v>
+      </c>
+      <c r="I17" s="49">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -2082,33 +1930,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="68">
-        <v>0</v>
-      </c>
-      <c r="C18" s="68">
+      <c r="B18" s="49">
+        <v>0</v>
+      </c>
+      <c r="C18" s="49">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="49">
         <v>10650</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="49">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="70">
-        <v>0</v>
-      </c>
-      <c r="I18" s="70">
+      <c r="H18" s="49">
+        <v>0</v>
+      </c>
+      <c r="I18" s="49">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -2117,33 +1965,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="49">
         <v>470</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="49">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>-470</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="49">
         <v>4000</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="49">
         <v>6894</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>2894</v>
       </c>
-      <c r="H19" s="70">
-        <v>0</v>
-      </c>
-      <c r="I19" s="70">
+      <c r="H19" s="49">
+        <v>0</v>
+      </c>
+      <c r="I19" s="49">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2152,33 +2000,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="49">
         <v>160</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="49">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="69">
-        <v>0</v>
-      </c>
-      <c r="F20" s="69">
+      <c r="E20" s="49">
+        <v>0</v>
+      </c>
+      <c r="F20" s="49">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="70">
-        <v>0</v>
-      </c>
-      <c r="I20" s="70">
+      <c r="H20" s="49">
+        <v>0</v>
+      </c>
+      <c r="I20" s="49">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2187,33 +2035,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="68">
-        <v>0</v>
-      </c>
-      <c r="C21" s="68">
+      <c r="B21" s="49">
+        <v>0</v>
+      </c>
+      <c r="C21" s="49">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="49">
         <v>156</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="49">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="70">
-        <v>0</v>
-      </c>
-      <c r="I21" s="70">
+      <c r="H21" s="49">
+        <v>0</v>
+      </c>
+      <c r="I21" s="49">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2222,33 +2070,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="68">
-        <v>0</v>
-      </c>
-      <c r="C22" s="68">
+      <c r="B22" s="49">
+        <v>0</v>
+      </c>
+      <c r="C22" s="49">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="69">
-        <v>0</v>
-      </c>
-      <c r="F22" s="69">
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="49">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="70">
-        <v>0</v>
-      </c>
-      <c r="I22" s="70">
+      <c r="H22" s="49">
+        <v>0</v>
+      </c>
+      <c r="I22" s="49">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2257,33 +2105,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="68">
-        <v>0</v>
-      </c>
-      <c r="C23" s="68">
+      <c r="B23" s="49">
+        <v>0</v>
+      </c>
+      <c r="C23" s="49">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="69">
-        <v>0</v>
-      </c>
-      <c r="F23" s="69">
+      <c r="E23" s="49">
+        <v>0</v>
+      </c>
+      <c r="F23" s="49">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="49">
         <v>3000</v>
       </c>
-      <c r="I23" s="70">
+      <c r="I23" s="49">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2292,33 +2140,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="68">
-        <v>0</v>
-      </c>
-      <c r="C24" s="68">
+      <c r="B24" s="49">
+        <v>0</v>
+      </c>
+      <c r="C24" s="49">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="69">
-        <v>0</v>
-      </c>
-      <c r="F24" s="69">
+      <c r="E24" s="49">
+        <v>0</v>
+      </c>
+      <c r="F24" s="49">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="70">
-        <v>0</v>
-      </c>
-      <c r="I24" s="70">
+      <c r="H24" s="49">
+        <v>0</v>
+      </c>
+      <c r="I24" s="49">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2327,33 +2175,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="68">
-        <v>0</v>
-      </c>
-      <c r="C25" s="68">
+      <c r="B25" s="49">
+        <v>0</v>
+      </c>
+      <c r="C25" s="49">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="69">
-        <v>0</v>
-      </c>
-      <c r="F25" s="69">
+      <c r="E25" s="49">
+        <v>0</v>
+      </c>
+      <c r="F25" s="49">
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="70">
-        <v>0</v>
-      </c>
-      <c r="I25" s="70">
+      <c r="H25" s="49">
+        <v>0</v>
+      </c>
+      <c r="I25" s="49">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2362,33 +2210,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="68">
-        <v>0</v>
-      </c>
-      <c r="C26" s="68">
+      <c r="B26" s="49">
+        <v>0</v>
+      </c>
+      <c r="C26" s="49">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="49">
         <v>656</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="49">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="70">
-        <v>0</v>
-      </c>
-      <c r="I26" s="70">
+      <c r="H26" s="49">
+        <v>0</v>
+      </c>
+      <c r="I26" s="49">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2397,33 +2245,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="68">
-        <v>0</v>
-      </c>
-      <c r="C27" s="68">
+      <c r="B27" s="49">
+        <v>0</v>
+      </c>
+      <c r="C27" s="49">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="49">
         <v>1596</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="49">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="70">
-        <v>0</v>
-      </c>
-      <c r="I27" s="70">
+      <c r="H27" s="49">
+        <v>0</v>
+      </c>
+      <c r="I27" s="49">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2432,33 +2280,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="68">
+      <c r="A28" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="49">
         <v>300</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="49">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="E28" s="69">
-        <v>0</v>
-      </c>
-      <c r="F28" s="69">
+      <c r="E28" s="49">
+        <v>0</v>
+      </c>
+      <c r="F28" s="49">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="70">
-        <v>0</v>
-      </c>
-      <c r="I28" s="70">
+      <c r="H28" s="49">
+        <v>0</v>
+      </c>
+      <c r="I28" s="49">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2467,33 +2315,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="68">
-        <v>0</v>
-      </c>
-      <c r="C29" s="68">
+      <c r="B29" s="49">
+        <v>0</v>
+      </c>
+      <c r="C29" s="49">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="49">
         <v>6000</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="49">
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>-6000</v>
       </c>
-      <c r="H29" s="70">
-        <v>0</v>
-      </c>
-      <c r="I29" s="70">
+      <c r="H29" s="49">
+        <v>0</v>
+      </c>
+      <c r="I29" s="49">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2502,33 +2350,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="49">
         <v>610</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="49">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="69">
-        <v>0</v>
-      </c>
-      <c r="F30" s="69">
+      <c r="E30" s="49">
+        <v>0</v>
+      </c>
+      <c r="F30" s="49">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="70">
-        <v>0</v>
-      </c>
-      <c r="I30" s="70">
+      <c r="H30" s="49">
+        <v>0</v>
+      </c>
+      <c r="I30" s="49">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2537,33 +2385,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="68">
-        <v>0</v>
-      </c>
-      <c r="C31" s="68">
+      <c r="B31" s="49">
+        <v>0</v>
+      </c>
+      <c r="C31" s="49">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="49">
         <v>600</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="49">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>-600</v>
       </c>
-      <c r="H31" s="70">
-        <v>0</v>
-      </c>
-      <c r="I31" s="70">
+      <c r="H31" s="49">
+        <v>0</v>
+      </c>
+      <c r="I31" s="49">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2572,33 +2420,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="68">
+      <c r="B32" s="49">
         <v>5600</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="49">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="69">
-        <v>0</v>
-      </c>
-      <c r="F32" s="69">
+      <c r="E32" s="49">
+        <v>0</v>
+      </c>
+      <c r="F32" s="49">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="70">
-        <v>0</v>
-      </c>
-      <c r="I32" s="70">
+      <c r="H32" s="49">
+        <v>0</v>
+      </c>
+      <c r="I32" s="49">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2607,33 +2455,33 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="68">
-        <v>0</v>
-      </c>
-      <c r="C33" s="68">
+      <c r="B33" s="49">
+        <v>0</v>
+      </c>
+      <c r="C33" s="49">
         <v>2114</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>2114</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="49">
         <v>3641</v>
       </c>
-      <c r="F33" s="69">
+      <c r="F33" s="49">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
         <v>-3641</v>
       </c>
-      <c r="H33" s="70">
-        <v>0</v>
-      </c>
-      <c r="I33" s="70">
+      <c r="H33" s="49">
+        <v>0</v>
+      </c>
+      <c r="I33" s="49">
         <v>0</v>
       </c>
       <c r="J33" s="6">
@@ -2642,33 +2490,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="68">
+      <c r="B34" s="49">
         <v>15</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="49">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="49">
         <v>5600</v>
       </c>
-      <c r="F34" s="69">
+      <c r="F34" s="49">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="70">
-        <v>0</v>
-      </c>
-      <c r="I34" s="70">
+      <c r="H34" s="49">
+        <v>0</v>
+      </c>
+      <c r="I34" s="49">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2677,33 +2525,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="68">
-        <v>0</v>
-      </c>
-      <c r="C35" s="68">
+      <c r="B35" s="49">
+        <v>0</v>
+      </c>
+      <c r="C35" s="49">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="69">
+      <c r="E35" s="49">
         <v>10</v>
       </c>
-      <c r="F35" s="69">
+      <c r="F35" s="49">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="70">
-        <v>0</v>
-      </c>
-      <c r="I35" s="70">
+      <c r="H35" s="49">
+        <v>0</v>
+      </c>
+      <c r="I35" s="49">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2712,33 +2560,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B36" s="68">
-        <v>0</v>
-      </c>
-      <c r="C36" s="68">
+      <c r="A36" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="49">
+        <v>0</v>
+      </c>
+      <c r="C36" s="49">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="69">
-        <v>0</v>
-      </c>
-      <c r="F36" s="69">
+      <c r="E36" s="49">
+        <v>0</v>
+      </c>
+      <c r="F36" s="49">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="70">
-        <v>0</v>
-      </c>
-      <c r="I36" s="70">
+      <c r="H36" s="49">
+        <v>0</v>
+      </c>
+      <c r="I36" s="49">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2747,33 +2595,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="68">
-        <v>0</v>
-      </c>
-      <c r="C37" s="68">
+      <c r="A37" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="49">
+        <v>0</v>
+      </c>
+      <c r="C37" s="49">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="69">
-        <v>0</v>
-      </c>
-      <c r="F37" s="69">
+      <c r="E37" s="49">
+        <v>0</v>
+      </c>
+      <c r="F37" s="49">
         <v>2793</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>2793</v>
       </c>
-      <c r="H37" s="70">
-        <v>0</v>
-      </c>
-      <c r="I37" s="70">
+      <c r="H37" s="49">
+        <v>0</v>
+      </c>
+      <c r="I37" s="49">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2782,33 +2630,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="49">
         <v>20</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="49">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="69">
-        <v>0</v>
-      </c>
-      <c r="F38" s="69">
+      <c r="E38" s="49">
+        <v>0</v>
+      </c>
+      <c r="F38" s="49">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="70">
-        <v>0</v>
-      </c>
-      <c r="I38" s="70">
+      <c r="H38" s="49">
+        <v>0</v>
+      </c>
+      <c r="I38" s="49">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2817,33 +2665,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="68">
-        <v>0</v>
-      </c>
-      <c r="C39" s="68">
+      <c r="A39" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="49">
+        <v>0</v>
+      </c>
+      <c r="C39" s="49">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="69">
-        <v>0</v>
-      </c>
-      <c r="F39" s="69">
+      <c r="E39" s="49">
+        <v>0</v>
+      </c>
+      <c r="F39" s="49">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="70">
-        <v>0</v>
-      </c>
-      <c r="I39" s="70">
+      <c r="H39" s="49">
+        <v>0</v>
+      </c>
+      <c r="I39" s="49">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2852,33 +2700,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="68">
-        <v>0</v>
-      </c>
-      <c r="C40" s="68">
+      <c r="B40" s="49">
+        <v>0</v>
+      </c>
+      <c r="C40" s="49">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="69">
-        <v>0</v>
-      </c>
-      <c r="F40" s="69">
+      <c r="E40" s="49">
+        <v>0</v>
+      </c>
+      <c r="F40" s="49">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="70">
-        <v>0</v>
-      </c>
-      <c r="I40" s="70">
+      <c r="H40" s="49">
+        <v>0</v>
+      </c>
+      <c r="I40" s="49">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2887,33 +2735,33 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="68">
-        <v>0</v>
-      </c>
-      <c r="C41" s="68">
+      <c r="B41" s="49">
+        <v>0</v>
+      </c>
+      <c r="C41" s="49">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="69">
+      <c r="E41" s="49">
         <v>4527</v>
       </c>
-      <c r="F41" s="69">
+      <c r="F41" s="49">
         <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
         <v>-4527</v>
       </c>
-      <c r="H41" s="70">
-        <v>0</v>
-      </c>
-      <c r="I41" s="70">
+      <c r="H41" s="49">
+        <v>0</v>
+      </c>
+      <c r="I41" s="49">
         <v>0</v>
       </c>
       <c r="J41" s="6">
@@ -2922,33 +2770,33 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="68">
-        <v>0</v>
-      </c>
-      <c r="C42" s="68">
+      <c r="B42" s="49">
+        <v>0</v>
+      </c>
+      <c r="C42" s="49">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="69">
-        <v>0</v>
-      </c>
-      <c r="F42" s="69">
+      <c r="E42" s="49">
+        <v>0</v>
+      </c>
+      <c r="F42" s="49">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="70">
-        <v>0</v>
-      </c>
-      <c r="I42" s="70">
+      <c r="H42" s="49">
+        <v>0</v>
+      </c>
+      <c r="I42" s="49">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2957,33 +2805,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="68">
-        <v>0</v>
-      </c>
-      <c r="C43" s="68">
+      <c r="B43" s="49">
+        <v>0</v>
+      </c>
+      <c r="C43" s="49">
         <v>300</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E43" s="69">
-        <v>0</v>
-      </c>
-      <c r="F43" s="69">
+      <c r="E43" s="49">
+        <v>0</v>
+      </c>
+      <c r="F43" s="49">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="70">
-        <v>0</v>
-      </c>
-      <c r="I43" s="70">
+      <c r="H43" s="49">
+        <v>0</v>
+      </c>
+      <c r="I43" s="49">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2992,33 +2840,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="68">
-        <v>0</v>
-      </c>
-      <c r="C44" s="68">
+      <c r="B44" s="49">
+        <v>0</v>
+      </c>
+      <c r="C44" s="49">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="69">
+      <c r="E44" s="49">
         <v>60</v>
       </c>
-      <c r="F44" s="69">
+      <c r="F44" s="49">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="70">
-        <v>0</v>
-      </c>
-      <c r="I44" s="70">
+      <c r="H44" s="49">
+        <v>0</v>
+      </c>
+      <c r="I44" s="49">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -3027,33 +2875,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="68">
+      <c r="A45" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="49">
         <v>95</v>
       </c>
-      <c r="C45" s="68">
+      <c r="C45" s="49">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>-95</v>
       </c>
-      <c r="E45" s="69">
-        <v>0</v>
-      </c>
-      <c r="F45" s="69">
+      <c r="E45" s="49">
+        <v>0</v>
+      </c>
+      <c r="F45" s="49">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="70">
-        <v>0</v>
-      </c>
-      <c r="I45" s="70">
+      <c r="H45" s="49">
+        <v>0</v>
+      </c>
+      <c r="I45" s="49">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -3062,33 +2910,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="68">
-        <v>0</v>
-      </c>
-      <c r="C46" s="68">
+      <c r="B46" s="49">
+        <v>0</v>
+      </c>
+      <c r="C46" s="49">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="69">
+      <c r="E46" s="49">
         <v>10</v>
       </c>
-      <c r="F46" s="69">
+      <c r="F46" s="49">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="70">
-        <v>0</v>
-      </c>
-      <c r="I46" s="70">
+      <c r="H46" s="49">
+        <v>0</v>
+      </c>
+      <c r="I46" s="49">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -3097,33 +2945,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="68">
-        <v>0</v>
-      </c>
-      <c r="C47" s="68">
+      <c r="B47" s="49">
+        <v>0</v>
+      </c>
+      <c r="C47" s="49">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="69">
+      <c r="E47" s="49">
         <v>250</v>
       </c>
-      <c r="F47" s="69">
+      <c r="F47" s="49">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="70">
-        <v>0</v>
-      </c>
-      <c r="I47" s="70">
+      <c r="H47" s="49">
+        <v>0</v>
+      </c>
+      <c r="I47" s="49">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -3132,33 +2980,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="68">
-        <v>0</v>
-      </c>
-      <c r="C48" s="68">
+      <c r="B48" s="49">
+        <v>0</v>
+      </c>
+      <c r="C48" s="49">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="69">
+      <c r="E48" s="49">
         <v>2419</v>
       </c>
-      <c r="F48" s="69">
+      <c r="F48" s="49">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>-2419</v>
       </c>
-      <c r="H48" s="70">
-        <v>0</v>
-      </c>
-      <c r="I48" s="70">
+      <c r="H48" s="49">
+        <v>0</v>
+      </c>
+      <c r="I48" s="49">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3167,33 +3015,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="68">
+      <c r="B49" s="49">
         <v>74</v>
       </c>
-      <c r="C49" s="68">
+      <c r="C49" s="49">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="69">
-        <v>0</v>
-      </c>
-      <c r="F49" s="69">
+      <c r="E49" s="49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="49">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="70">
-        <v>0</v>
-      </c>
-      <c r="I49" s="70">
+      <c r="H49" s="49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="49">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3202,33 +3050,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="68">
-        <v>0</v>
-      </c>
-      <c r="C50" s="68">
+      <c r="A50" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="49">
+        <v>0</v>
+      </c>
+      <c r="C50" s="49">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="69">
+      <c r="E50" s="49">
         <v>128</v>
       </c>
-      <c r="F50" s="69">
+      <c r="F50" s="49">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
         <v>-128</v>
       </c>
-      <c r="H50" s="70">
-        <v>0</v>
-      </c>
-      <c r="I50" s="70">
+      <c r="H50" s="49">
+        <v>0</v>
+      </c>
+      <c r="I50" s="49">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3237,33 +3085,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="68">
-        <v>0</v>
-      </c>
-      <c r="C51" s="68">
+      <c r="B51" s="49">
+        <v>0</v>
+      </c>
+      <c r="C51" s="49">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="69">
+      <c r="E51" s="49">
         <v>300</v>
       </c>
-      <c r="F51" s="69">
+      <c r="F51" s="49">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="70">
-        <v>0</v>
-      </c>
-      <c r="I51" s="70">
+      <c r="H51" s="49">
+        <v>0</v>
+      </c>
+      <c r="I51" s="49">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3272,33 +3120,33 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="68">
+      <c r="B52" s="49">
         <v>250</v>
       </c>
-      <c r="C52" s="68">
+      <c r="C52" s="49">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="69">
-        <v>0</v>
-      </c>
-      <c r="F52" s="69">
+      <c r="E52" s="49">
+        <v>0</v>
+      </c>
+      <c r="F52" s="49">
         <v>0</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52" s="70">
-        <v>0</v>
-      </c>
-      <c r="I52" s="70">
+      <c r="H52" s="49">
+        <v>0</v>
+      </c>
+      <c r="I52" s="49">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3307,33 +3155,33 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="68">
-        <v>0</v>
-      </c>
-      <c r="C53" s="68">
+      <c r="B53" s="49">
+        <v>0</v>
+      </c>
+      <c r="C53" s="49">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="69">
+      <c r="E53" s="49">
         <v>26431</v>
       </c>
-      <c r="F53" s="69">
+      <c r="F53" s="49">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
         <v>-26431</v>
       </c>
-      <c r="H53" s="70">
+      <c r="H53" s="49">
         <v>6714</v>
       </c>
-      <c r="I53" s="70">
+      <c r="I53" s="49">
         <v>0</v>
       </c>
       <c r="J53" s="6">
@@ -3342,33 +3190,33 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="68">
-        <v>0</v>
-      </c>
-      <c r="C54" s="68">
+      <c r="A54" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="49">
+        <v>0</v>
+      </c>
+      <c r="C54" s="49">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="69">
-        <v>0</v>
-      </c>
-      <c r="F54" s="69">
+      <c r="E54" s="49">
+        <v>0</v>
+      </c>
+      <c r="F54" s="49">
         <v>0</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="70">
-        <v>0</v>
-      </c>
-      <c r="I54" s="70">
+      <c r="H54" s="49">
+        <v>0</v>
+      </c>
+      <c r="I54" s="49">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3377,33 +3225,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="68">
+      <c r="B55" s="49">
         <v>14</v>
       </c>
-      <c r="C55" s="68">
+      <c r="C55" s="49">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="69">
-        <v>0</v>
-      </c>
-      <c r="F55" s="69">
+      <c r="E55" s="49">
+        <v>0</v>
+      </c>
+      <c r="F55" s="49">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="70">
-        <v>0</v>
-      </c>
-      <c r="I55" s="70">
+      <c r="H55" s="49">
+        <v>0</v>
+      </c>
+      <c r="I55" s="49">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3412,33 +3260,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="68">
-        <v>0</v>
-      </c>
-      <c r="C56" s="68">
+      <c r="A56" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="49">
+        <v>0</v>
+      </c>
+      <c r="C56" s="49">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="69">
+      <c r="E56" s="49">
         <v>548</v>
       </c>
-      <c r="F56" s="69">
+      <c r="F56" s="49">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
         <v>-548</v>
       </c>
-      <c r="H56" s="70">
-        <v>0</v>
-      </c>
-      <c r="I56" s="70">
+      <c r="H56" s="49">
+        <v>0</v>
+      </c>
+      <c r="I56" s="49">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3447,33 +3295,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="68">
-        <v>0</v>
-      </c>
-      <c r="C57" s="68">
+      <c r="B57" s="49">
+        <v>0</v>
+      </c>
+      <c r="C57" s="49">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="69">
+      <c r="E57" s="49">
         <v>10</v>
       </c>
-      <c r="F57" s="69">
+      <c r="F57" s="49">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="70">
-        <v>0</v>
-      </c>
-      <c r="I57" s="70">
+      <c r="H57" s="49">
+        <v>0</v>
+      </c>
+      <c r="I57" s="49">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3482,33 +3330,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="68">
+      <c r="A58" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="49">
         <v>625</v>
       </c>
-      <c r="C58" s="68">
+      <c r="C58" s="49">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
         <v>-625</v>
       </c>
-      <c r="E58" s="69">
+      <c r="E58" s="49">
         <v>2522</v>
       </c>
-      <c r="F58" s="69">
+      <c r="F58" s="49">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="70">
-        <v>0</v>
-      </c>
-      <c r="I58" s="70">
+      <c r="H58" s="49">
+        <v>0</v>
+      </c>
+      <c r="I58" s="49">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3517,33 +3365,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="68">
-        <v>0</v>
-      </c>
-      <c r="C59" s="68">
+      <c r="B59" s="49">
+        <v>0</v>
+      </c>
+      <c r="C59" s="49">
         <v>0</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="69">
+      <c r="E59" s="49">
         <v>1569</v>
       </c>
-      <c r="F59" s="69">
+      <c r="F59" s="49">
         <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
         <v>-1569</v>
       </c>
-      <c r="H59" s="70">
-        <v>0</v>
-      </c>
-      <c r="I59" s="70">
+      <c r="H59" s="49">
+        <v>0</v>
+      </c>
+      <c r="I59" s="49">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3552,33 +3400,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="68">
-        <v>0</v>
-      </c>
-      <c r="C60" s="68">
+      <c r="B60" s="49">
+        <v>0</v>
+      </c>
+      <c r="C60" s="49">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="69">
+      <c r="E60" s="49">
         <v>165</v>
       </c>
-      <c r="F60" s="69">
+      <c r="F60" s="49">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
         <v>-165</v>
       </c>
-      <c r="H60" s="70">
-        <v>0</v>
-      </c>
-      <c r="I60" s="70">
+      <c r="H60" s="49">
+        <v>0</v>
+      </c>
+      <c r="I60" s="49">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3587,33 +3435,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="68">
-        <v>0</v>
-      </c>
-      <c r="C61" s="68">
+      <c r="B61" s="49">
+        <v>0</v>
+      </c>
+      <c r="C61" s="49">
         <v>4420</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
         <v>4420</v>
       </c>
-      <c r="E61" s="69">
-        <v>0</v>
-      </c>
-      <c r="F61" s="69">
+      <c r="E61" s="49">
+        <v>0</v>
+      </c>
+      <c r="F61" s="49">
         <v>0</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H61" s="70">
-        <v>0</v>
-      </c>
-      <c r="I61" s="70">
+      <c r="H61" s="49">
+        <v>0</v>
+      </c>
+      <c r="I61" s="49">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3622,33 +3470,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="68">
+      <c r="B62" s="49">
         <v>389</v>
       </c>
-      <c r="C62" s="68">
+      <c r="C62" s="49">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="69">
-        <v>0</v>
-      </c>
-      <c r="F62" s="69">
+      <c r="E62" s="49">
+        <v>0</v>
+      </c>
+      <c r="F62" s="49">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="70">
-        <v>0</v>
-      </c>
-      <c r="I62" s="70">
+      <c r="H62" s="49">
+        <v>0</v>
+      </c>
+      <c r="I62" s="49">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3657,33 +3505,33 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="68">
-        <v>0</v>
-      </c>
-      <c r="C63" s="68">
+      <c r="B63" s="49">
+        <v>0</v>
+      </c>
+      <c r="C63" s="49">
         <v>0</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E63" s="69">
-        <v>0</v>
-      </c>
-      <c r="F63" s="69">
+      <c r="E63" s="49">
+        <v>0</v>
+      </c>
+      <c r="F63" s="49">
         <v>500</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H63" s="70">
-        <v>0</v>
-      </c>
-      <c r="I63" s="70">
+      <c r="H63" s="49">
+        <v>0</v>
+      </c>
+      <c r="I63" s="49">
         <v>120</v>
       </c>
       <c r="J63" s="6">
@@ -3692,33 +3540,33 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="68">
-        <v>0</v>
-      </c>
-      <c r="C64" s="68">
+      <c r="B64" s="49">
+        <v>0</v>
+      </c>
+      <c r="C64" s="49">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="69">
+      <c r="E64" s="49">
         <v>200</v>
       </c>
-      <c r="F64" s="69">
+      <c r="F64" s="49">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="70">
-        <v>0</v>
-      </c>
-      <c r="I64" s="70">
+      <c r="H64" s="49">
+        <v>0</v>
+      </c>
+      <c r="I64" s="49">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3727,33 +3575,33 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="68">
-        <v>0</v>
-      </c>
-      <c r="C65" s="68">
+      <c r="B65" s="49">
+        <v>0</v>
+      </c>
+      <c r="C65" s="49">
         <v>0</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="69">
-        <v>0</v>
-      </c>
-      <c r="F65" s="69">
+      <c r="E65" s="49">
+        <v>0</v>
+      </c>
+      <c r="F65" s="49">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="70">
+      <c r="H65" s="49">
         <v>2525</v>
       </c>
-      <c r="I65" s="70">
+      <c r="I65" s="49">
         <v>0</v>
       </c>
       <c r="J65" s="6">
@@ -3762,33 +3610,33 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="68">
-        <v>0</v>
-      </c>
-      <c r="C66" s="68">
+      <c r="B66" s="49">
+        <v>0</v>
+      </c>
+      <c r="C66" s="49">
         <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="69">
-        <v>0</v>
-      </c>
-      <c r="F66" s="69">
+      <c r="E66" s="49">
+        <v>0</v>
+      </c>
+      <c r="F66" s="49">
         <v>1239</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
         <v>1239</v>
       </c>
-      <c r="H66" s="70">
-        <v>0</v>
-      </c>
-      <c r="I66" s="70">
+      <c r="H66" s="49">
+        <v>0</v>
+      </c>
+      <c r="I66" s="49">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3797,33 +3645,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="68">
-        <v>0</v>
-      </c>
-      <c r="C67" s="68">
+      <c r="B67" s="49">
+        <v>0</v>
+      </c>
+      <c r="C67" s="49">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="69">
+      <c r="E67" s="49">
         <v>64665</v>
       </c>
-      <c r="F67" s="69">
+      <c r="F67" s="49">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
         <v>-64665</v>
       </c>
-      <c r="H67" s="70">
-        <v>0</v>
-      </c>
-      <c r="I67" s="70">
+      <c r="H67" s="49">
+        <v>0</v>
+      </c>
+      <c r="I67" s="49">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3832,33 +3680,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="68">
-        <v>0</v>
-      </c>
-      <c r="C68" s="68">
+      <c r="B68" s="49">
+        <v>0</v>
+      </c>
+      <c r="C68" s="49">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="69">
+      <c r="E68" s="49">
         <v>16</v>
       </c>
-      <c r="F68" s="69">
+      <c r="F68" s="49">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="70">
-        <v>0</v>
-      </c>
-      <c r="I68" s="70">
+      <c r="H68" s="49">
+        <v>0</v>
+      </c>
+      <c r="I68" s="49">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3867,33 +3715,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="68">
-        <v>0</v>
-      </c>
-      <c r="C69" s="68">
+      <c r="A69" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="49">
+        <v>0</v>
+      </c>
+      <c r="C69" s="49">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="69">
-        <v>0</v>
-      </c>
-      <c r="F69" s="69">
+      <c r="E69" s="49">
+        <v>0</v>
+      </c>
+      <c r="F69" s="49">
         <v>940</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
         <v>940</v>
       </c>
-      <c r="H69" s="70">
-        <v>0</v>
-      </c>
-      <c r="I69" s="70">
+      <c r="H69" s="49">
+        <v>0</v>
+      </c>
+      <c r="I69" s="49">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3902,33 +3750,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="68">
-        <v>0</v>
-      </c>
-      <c r="C70" s="68">
+      <c r="B70" s="49">
+        <v>0</v>
+      </c>
+      <c r="C70" s="49">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="49">
         <v>146</v>
       </c>
-      <c r="F70" s="69">
+      <c r="F70" s="49">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="70">
+      <c r="H70" s="49">
+        <v>0</v>
+      </c>
+      <c r="I70" s="49">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3937,33 +3785,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="68">
-        <v>0</v>
-      </c>
-      <c r="C71" s="68">
+      <c r="A71" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="49">
+        <v>0</v>
+      </c>
+      <c r="C71" s="49">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="69">
-        <v>0</v>
-      </c>
-      <c r="F71" s="69">
+      <c r="E71" s="49">
+        <v>0</v>
+      </c>
+      <c r="F71" s="49">
         <v>48</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="H71" s="70">
-        <v>0</v>
-      </c>
-      <c r="I71" s="70">
+      <c r="H71" s="49">
+        <v>0</v>
+      </c>
+      <c r="I71" s="49">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3972,33 +3820,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="68">
+      <c r="B72" s="49">
         <v>100</v>
       </c>
-      <c r="C72" s="68">
+      <c r="C72" s="49">
         <v>1270</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
         <v>1170</v>
       </c>
-      <c r="E72" s="69">
-        <v>0</v>
-      </c>
-      <c r="F72" s="69">
+      <c r="E72" s="49">
+        <v>0</v>
+      </c>
+      <c r="F72" s="49">
         <v>0</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H72" s="70">
-        <v>0</v>
-      </c>
-      <c r="I72" s="70">
+      <c r="H72" s="49">
+        <v>0</v>
+      </c>
+      <c r="I72" s="49">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -4007,33 +3855,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49" t="s">
+      <c r="A73" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="68">
-        <v>0</v>
-      </c>
-      <c r="C73" s="68">
+      <c r="B73" s="49">
+        <v>0</v>
+      </c>
+      <c r="C73" s="49">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="69">
+      <c r="E73" s="49">
         <v>12813</v>
       </c>
-      <c r="F73" s="69">
+      <c r="F73" s="49">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
         <v>-12813</v>
       </c>
-      <c r="H73" s="70">
-        <v>0</v>
-      </c>
-      <c r="I73" s="70">
+      <c r="H73" s="49">
+        <v>0</v>
+      </c>
+      <c r="I73" s="49">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -4042,33 +3890,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="68">
-        <v>0</v>
-      </c>
-      <c r="C74" s="68">
+      <c r="A74" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="49">
+        <v>0</v>
+      </c>
+      <c r="C74" s="49">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="69">
+      <c r="E74" s="49">
         <v>22000</v>
       </c>
-      <c r="F74" s="69">
+      <c r="F74" s="49">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
         <v>-22000</v>
       </c>
-      <c r="H74" s="70">
-        <v>0</v>
-      </c>
-      <c r="I74" s="70">
+      <c r="H74" s="49">
+        <v>0</v>
+      </c>
+      <c r="I74" s="49">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -4077,33 +3925,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49" t="s">
+      <c r="A75" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="68">
+      <c r="B75" s="49">
         <v>200</v>
       </c>
-      <c r="C75" s="68">
+      <c r="C75" s="49">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="69">
-        <v>0</v>
-      </c>
-      <c r="F75" s="69">
+      <c r="E75" s="49">
+        <v>0</v>
+      </c>
+      <c r="F75" s="49">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="70">
-        <v>0</v>
-      </c>
-      <c r="I75" s="70">
+      <c r="H75" s="49">
+        <v>0</v>
+      </c>
+      <c r="I75" s="49">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -4112,33 +3960,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="68">
-        <v>0</v>
-      </c>
-      <c r="C76" s="68">
+      <c r="B76" s="49">
+        <v>0</v>
+      </c>
+      <c r="C76" s="49">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="49">
         <v>3680</v>
       </c>
-      <c r="F76" s="69">
+      <c r="F76" s="49">
         <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
         <v>-3680</v>
       </c>
-      <c r="H76" s="70">
-        <v>0</v>
-      </c>
-      <c r="I76" s="70">
+      <c r="H76" s="49">
+        <v>0</v>
+      </c>
+      <c r="I76" s="49">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -4147,33 +3995,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="68">
-        <v>0</v>
-      </c>
-      <c r="C77" s="68">
+      <c r="B77" s="49">
+        <v>0</v>
+      </c>
+      <c r="C77" s="49">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="69">
+      <c r="E77" s="49">
         <v>133</v>
       </c>
-      <c r="F77" s="69">
+      <c r="F77" s="49">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
         <v>-133</v>
       </c>
-      <c r="H77" s="70">
-        <v>0</v>
-      </c>
-      <c r="I77" s="70">
+      <c r="H77" s="49">
+        <v>0</v>
+      </c>
+      <c r="I77" s="49">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4182,33 +4030,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49" t="s">
+      <c r="A78" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="68">
-        <v>0</v>
-      </c>
-      <c r="C78" s="68">
+      <c r="B78" s="49">
+        <v>0</v>
+      </c>
+      <c r="C78" s="49">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="69">
+      <c r="E78" s="49">
         <v>12853</v>
       </c>
-      <c r="F78" s="69">
+      <c r="F78" s="49">
         <v>10000</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
         <v>-2853</v>
       </c>
-      <c r="H78" s="70">
-        <v>0</v>
-      </c>
-      <c r="I78" s="70">
+      <c r="H78" s="49">
+        <v>0</v>
+      </c>
+      <c r="I78" s="49">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4217,33 +4065,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" s="68">
+      <c r="A79" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="49">
         <v>150</v>
       </c>
-      <c r="C79" s="68">
+      <c r="C79" s="49">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="69">
-        <v>0</v>
-      </c>
-      <c r="F79" s="69">
+      <c r="E79" s="49">
+        <v>0</v>
+      </c>
+      <c r="F79" s="49">
         <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H79" s="70">
-        <v>0</v>
-      </c>
-      <c r="I79" s="70">
+      <c r="H79" s="49">
+        <v>0</v>
+      </c>
+      <c r="I79" s="49">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4252,33 +4100,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="68">
-        <v>0</v>
-      </c>
-      <c r="C80" s="68">
+      <c r="B80" s="49">
+        <v>0</v>
+      </c>
+      <c r="C80" s="49">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="69">
-        <v>0</v>
-      </c>
-      <c r="F80" s="69">
+      <c r="E80" s="49">
+        <v>0</v>
+      </c>
+      <c r="F80" s="49">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="70">
-        <v>0</v>
-      </c>
-      <c r="I80" s="70">
+      <c r="H80" s="49">
+        <v>0</v>
+      </c>
+      <c r="I80" s="49">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4287,33 +4135,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="66" t="s">
+      <c r="A81" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="68">
-        <v>0</v>
-      </c>
-      <c r="C81" s="68">
+      <c r="B81" s="49">
+        <v>0</v>
+      </c>
+      <c r="C81" s="49">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="69">
-        <v>0</v>
-      </c>
-      <c r="F81" s="69">
+      <c r="E81" s="49">
+        <v>0</v>
+      </c>
+      <c r="F81" s="49">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="70">
-        <v>0</v>
-      </c>
-      <c r="I81" s="70">
+      <c r="H81" s="49">
+        <v>0</v>
+      </c>
+      <c r="I81" s="49">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4322,33 +4170,33 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="68">
-        <v>0</v>
-      </c>
-      <c r="C82" s="68">
+      <c r="B82" s="49">
+        <v>0</v>
+      </c>
+      <c r="C82" s="49">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="69">
-        <v>0</v>
-      </c>
-      <c r="F82" s="69">
+      <c r="E82" s="49">
+        <v>0</v>
+      </c>
+      <c r="F82" s="49">
         <v>3036</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
         <v>3036</v>
       </c>
-      <c r="H82" s="70">
-        <v>0</v>
-      </c>
-      <c r="I82" s="70">
+      <c r="H82" s="49">
+        <v>0</v>
+      </c>
+      <c r="I82" s="49">
         <v>0</v>
       </c>
       <c r="J82" s="6">
@@ -4357,33 +4205,33 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="68">
-        <v>0</v>
-      </c>
-      <c r="C83" s="68">
+      <c r="A83" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="49">
+        <v>0</v>
+      </c>
+      <c r="C83" s="49">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="69">
+      <c r="E83" s="49">
         <v>1502</v>
       </c>
-      <c r="F83" s="69">
+      <c r="F83" s="49">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
         <v>-1502</v>
       </c>
-      <c r="H83" s="70">
-        <v>0</v>
-      </c>
-      <c r="I83" s="70">
+      <c r="H83" s="49">
+        <v>0</v>
+      </c>
+      <c r="I83" s="49">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4392,33 +4240,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="68">
-        <v>0</v>
-      </c>
-      <c r="C84" s="68">
+      <c r="A84" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="49">
+        <v>0</v>
+      </c>
+      <c r="C84" s="49">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="69">
+      <c r="E84" s="49">
         <v>312</v>
       </c>
-      <c r="F84" s="69">
+      <c r="F84" s="49">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
         <v>-312</v>
       </c>
-      <c r="H84" s="70">
-        <v>0</v>
-      </c>
-      <c r="I84" s="70">
+      <c r="H84" s="49">
+        <v>0</v>
+      </c>
+      <c r="I84" s="49">
         <v>0</v>
       </c>
       <c r="J84" s="6">
@@ -4427,33 +4275,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="68">
+      <c r="B85" s="49">
         <v>95</v>
       </c>
-      <c r="C85" s="68">
+      <c r="C85" s="49">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="69">
+      <c r="E85" s="49">
         <v>200</v>
       </c>
-      <c r="F85" s="69">
+      <c r="F85" s="49">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="70">
-        <v>0</v>
-      </c>
-      <c r="I85" s="70">
+      <c r="H85" s="49">
+        <v>0</v>
+      </c>
+      <c r="I85" s="49">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4462,33 +4310,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="68">
-        <v>0</v>
-      </c>
-      <c r="C86" s="68">
+      <c r="B86" s="49">
+        <v>0</v>
+      </c>
+      <c r="C86" s="49">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="69">
-        <v>0</v>
-      </c>
-      <c r="F86" s="69">
+      <c r="E86" s="49">
+        <v>0</v>
+      </c>
+      <c r="F86" s="49">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="70">
-        <v>0</v>
-      </c>
-      <c r="I86" s="70">
+      <c r="H86" s="49">
+        <v>0</v>
+      </c>
+      <c r="I86" s="49">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4497,33 +4345,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="68">
-        <v>0</v>
-      </c>
-      <c r="C87" s="68">
+      <c r="B87" s="49">
+        <v>0</v>
+      </c>
+      <c r="C87" s="49">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="69">
+      <c r="E87" s="49">
         <v>6533</v>
       </c>
-      <c r="F87" s="69">
+      <c r="F87" s="49">
         <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
         <v>-6533</v>
       </c>
-      <c r="H87" s="70">
-        <v>0</v>
-      </c>
-      <c r="I87" s="70">
+      <c r="H87" s="49">
+        <v>0</v>
+      </c>
+      <c r="I87" s="49">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4532,33 +4380,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="68">
-        <v>0</v>
-      </c>
-      <c r="C88" s="68">
+      <c r="B88" s="49">
+        <v>0</v>
+      </c>
+      <c r="C88" s="49">
         <v>1800</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="E88" s="69">
-        <v>0</v>
-      </c>
-      <c r="F88" s="69">
+      <c r="E88" s="49">
+        <v>0</v>
+      </c>
+      <c r="F88" s="49">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="70">
-        <v>0</v>
-      </c>
-      <c r="I88" s="70">
+      <c r="H88" s="49">
+        <v>0</v>
+      </c>
+      <c r="I88" s="49">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4567,33 +4415,33 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" s="68">
-        <v>0</v>
-      </c>
-      <c r="C89" s="68">
+      <c r="A89" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="49">
+        <v>0</v>
+      </c>
+      <c r="C89" s="49">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="69">
+      <c r="E89" s="49">
         <v>208</v>
       </c>
-      <c r="F89" s="69">
+      <c r="F89" s="49">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
         <v>-208</v>
       </c>
-      <c r="H89" s="70">
+      <c r="H89" s="49">
         <v>358</v>
       </c>
-      <c r="I89" s="70">
+      <c r="I89" s="49">
         <v>0</v>
       </c>
       <c r="J89" s="6">
@@ -4602,33 +4450,33 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49" t="s">
+      <c r="A90" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="68">
-        <v>0</v>
-      </c>
-      <c r="C90" s="68">
+      <c r="B90" s="49">
+        <v>0</v>
+      </c>
+      <c r="C90" s="49">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="69">
+      <c r="E90" s="49">
         <v>12662</v>
       </c>
-      <c r="F90" s="69">
+      <c r="F90" s="49">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="70">
-        <v>0</v>
-      </c>
-      <c r="I90" s="70">
+      <c r="H90" s="49">
+        <v>0</v>
+      </c>
+      <c r="I90" s="49">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4637,31 +4485,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="68">
-        <v>0</v>
-      </c>
-      <c r="C91" s="68">
+      <c r="A91" s="28"/>
+      <c r="B91" s="49">
+        <v>0</v>
+      </c>
+      <c r="C91" s="49">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="69">
-        <v>0</v>
-      </c>
-      <c r="F91" s="69">
+      <c r="E91" s="49">
+        <v>0</v>
+      </c>
+      <c r="F91" s="49">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="70">
-        <v>0</v>
-      </c>
-      <c r="I91" s="70">
+      <c r="H91" s="49">
+        <v>0</v>
+      </c>
+      <c r="I91" s="49">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4670,33 +4518,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="68">
-        <v>0</v>
-      </c>
-      <c r="C92" s="68">
+      <c r="A92" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="49">
+        <v>0</v>
+      </c>
+      <c r="C92" s="49">
         <v>200</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="E92" s="69">
-        <v>0</v>
-      </c>
-      <c r="F92" s="69">
+      <c r="E92" s="49">
+        <v>0</v>
+      </c>
+      <c r="F92" s="49">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="70">
-        <v>0</v>
-      </c>
-      <c r="I92" s="70">
+      <c r="H92" s="49">
+        <v>0</v>
+      </c>
+      <c r="I92" s="49">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4705,33 +4553,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="68">
-        <v>0</v>
-      </c>
-      <c r="C93" s="68">
+      <c r="B93" s="49">
+        <v>0</v>
+      </c>
+      <c r="C93" s="49">
         <v>3000</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="E93" s="69">
-        <v>0</v>
-      </c>
-      <c r="F93" s="69">
+      <c r="E93" s="49">
+        <v>0</v>
+      </c>
+      <c r="F93" s="49">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="70">
-        <v>0</v>
-      </c>
-      <c r="I93" s="70">
+      <c r="H93" s="49">
+        <v>0</v>
+      </c>
+      <c r="I93" s="49">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4740,33 +4588,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B94" s="68">
+      <c r="B94" s="49">
         <v>7</v>
       </c>
-      <c r="C94" s="68">
+      <c r="C94" s="49">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="69">
-        <v>0</v>
-      </c>
-      <c r="F94" s="69">
+      <c r="E94" s="49">
+        <v>0</v>
+      </c>
+      <c r="F94" s="49">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="70">
-        <v>0</v>
-      </c>
-      <c r="I94" s="70">
+      <c r="H94" s="49">
+        <v>0</v>
+      </c>
+      <c r="I94" s="49">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4775,33 +4623,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="68">
-        <v>0</v>
-      </c>
-      <c r="C95" s="68">
+      <c r="B95" s="49">
+        <v>0</v>
+      </c>
+      <c r="C95" s="49">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="69">
+      <c r="E95" s="49">
         <v>21</v>
       </c>
-      <c r="F95" s="69">
+      <c r="F95" s="49">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="70">
-        <v>0</v>
-      </c>
-      <c r="I95" s="70">
+      <c r="H95" s="49">
+        <v>0</v>
+      </c>
+      <c r="I95" s="49">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4810,33 +4658,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49" t="s">
+      <c r="A96" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="68">
-        <v>0</v>
-      </c>
-      <c r="C96" s="68">
+      <c r="B96" s="49">
+        <v>0</v>
+      </c>
+      <c r="C96" s="49">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="69">
+      <c r="E96" s="49">
         <v>15225</v>
       </c>
-      <c r="F96" s="69">
+      <c r="F96" s="49">
         <v>5281</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
         <v>-9944</v>
       </c>
-      <c r="H96" s="70">
-        <v>0</v>
-      </c>
-      <c r="I96" s="70">
+      <c r="H96" s="49">
+        <v>0</v>
+      </c>
+      <c r="I96" s="49">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4845,33 +4693,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="68">
-        <v>0</v>
-      </c>
-      <c r="C97" s="68">
+      <c r="B97" s="49">
+        <v>0</v>
+      </c>
+      <c r="C97" s="49">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="69">
+      <c r="E97" s="49">
         <v>250</v>
       </c>
-      <c r="F97" s="69">
+      <c r="F97" s="49">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
         <v>-250</v>
       </c>
-      <c r="H97" s="70">
-        <v>0</v>
-      </c>
-      <c r="I97" s="70">
+      <c r="H97" s="49">
+        <v>0</v>
+      </c>
+      <c r="I97" s="49">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4880,33 +4728,33 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" s="68">
-        <v>0</v>
-      </c>
-      <c r="C98" s="68">
+      <c r="A98" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="49">
+        <v>0</v>
+      </c>
+      <c r="C98" s="49">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="69">
+      <c r="E98" s="49">
         <v>500</v>
       </c>
-      <c r="F98" s="69">
+      <c r="F98" s="49">
         <v>0</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
         <v>-500</v>
       </c>
-      <c r="H98" s="70">
-        <v>0</v>
-      </c>
-      <c r="I98" s="70">
+      <c r="H98" s="49">
+        <v>0</v>
+      </c>
+      <c r="I98" s="49">
         <v>0</v>
       </c>
       <c r="J98" s="6">
@@ -4915,33 +4763,33 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B99" s="68">
-        <v>0</v>
-      </c>
-      <c r="C99" s="68">
+      <c r="A99" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="49">
+        <v>0</v>
+      </c>
+      <c r="C99" s="49">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="69">
+      <c r="E99" s="49">
         <v>100</v>
       </c>
-      <c r="F99" s="69">
+      <c r="F99" s="49">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
-      <c r="H99" s="70">
-        <v>0</v>
-      </c>
-      <c r="I99" s="70">
+      <c r="H99" s="49">
+        <v>0</v>
+      </c>
+      <c r="I99" s="49">
         <v>0</v>
       </c>
       <c r="J99" s="6">
@@ -4950,31 +4798,31 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-      <c r="B100" s="68">
-        <v>0</v>
-      </c>
-      <c r="C100" s="68">
+      <c r="A100" s="28"/>
+      <c r="B100" s="49">
+        <v>0</v>
+      </c>
+      <c r="C100" s="49">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="69">
-        <v>0</v>
-      </c>
-      <c r="F100" s="69">
+      <c r="E100" s="49">
+        <v>0</v>
+      </c>
+      <c r="F100" s="49">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="70">
-        <v>0</v>
-      </c>
-      <c r="I100" s="70">
+      <c r="H100" s="49">
+        <v>0</v>
+      </c>
+      <c r="I100" s="49">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4983,33 +4831,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B101" s="68">
-        <v>0</v>
-      </c>
-      <c r="C101" s="68">
+      <c r="A101" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="49">
+        <v>0</v>
+      </c>
+      <c r="C101" s="49">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="69">
+      <c r="E101" s="49">
         <v>1478</v>
       </c>
-      <c r="F101" s="69">
+      <c r="F101" s="49">
         <v>595</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
         <v>-883</v>
       </c>
-      <c r="H101" s="70">
-        <v>0</v>
-      </c>
-      <c r="I101" s="70">
+      <c r="H101" s="49">
+        <v>0</v>
+      </c>
+      <c r="I101" s="49">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -5018,33 +4866,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="68">
+      <c r="A102" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="49">
         <v>415</v>
       </c>
-      <c r="C102" s="68">
+      <c r="C102" s="49">
         <v>193</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
         <v>-222</v>
       </c>
-      <c r="E102" s="69">
-        <v>0</v>
-      </c>
-      <c r="F102" s="69">
+      <c r="E102" s="49">
+        <v>0</v>
+      </c>
+      <c r="F102" s="49">
         <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H102" s="70">
-        <v>0</v>
-      </c>
-      <c r="I102" s="70">
+      <c r="H102" s="49">
+        <v>0</v>
+      </c>
+      <c r="I102" s="49">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -5053,33 +4901,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" s="68">
+      <c r="A103" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="49">
         <v>50</v>
       </c>
-      <c r="C103" s="68">
+      <c r="C103" s="49">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="69">
-        <v>0</v>
-      </c>
-      <c r="F103" s="69">
+      <c r="E103" s="49">
+        <v>0</v>
+      </c>
+      <c r="F103" s="49">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="70">
-        <v>0</v>
-      </c>
-      <c r="I103" s="70">
+      <c r="H103" s="49">
+        <v>0</v>
+      </c>
+      <c r="I103" s="49">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -5088,33 +4936,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B104" s="68">
-        <v>0</v>
-      </c>
-      <c r="C104" s="68">
+      <c r="A104" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="49">
+        <v>0</v>
+      </c>
+      <c r="C104" s="49">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="69">
+      <c r="E104" s="49">
         <v>11394</v>
       </c>
-      <c r="F104" s="69">
+      <c r="F104" s="49">
         <v>0</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
         <v>-11394</v>
       </c>
-      <c r="H104" s="70">
-        <v>0</v>
-      </c>
-      <c r="I104" s="70">
+      <c r="H104" s="49">
+        <v>0</v>
+      </c>
+      <c r="I104" s="49">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -5123,33 +4971,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="68">
-        <v>0</v>
-      </c>
-      <c r="C105" s="68">
+      <c r="A105" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" s="49">
+        <v>0</v>
+      </c>
+      <c r="C105" s="49">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="69">
-        <v>0</v>
-      </c>
-      <c r="F105" s="69">
+      <c r="E105" s="49">
+        <v>0</v>
+      </c>
+      <c r="F105" s="49">
         <v>11478</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
         <v>11478</v>
       </c>
-      <c r="H105" s="70">
-        <v>0</v>
-      </c>
-      <c r="I105" s="70">
+      <c r="H105" s="49">
+        <v>0</v>
+      </c>
+      <c r="I105" s="49">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5158,33 +5006,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="68">
-        <v>0</v>
-      </c>
-      <c r="C106" s="68">
+      <c r="A106" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" s="49">
+        <v>0</v>
+      </c>
+      <c r="C106" s="49">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="69">
+      <c r="E106" s="49">
         <v>300</v>
       </c>
-      <c r="F106" s="69">
+      <c r="F106" s="49">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="70">
-        <v>0</v>
-      </c>
-      <c r="I106" s="70">
+      <c r="H106" s="49">
+        <v>0</v>
+      </c>
+      <c r="I106" s="49">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5193,33 +5041,33 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="68">
-        <v>0</v>
-      </c>
-      <c r="C107" s="68">
+      <c r="A107" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="49">
+        <v>0</v>
+      </c>
+      <c r="C107" s="49">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="69">
+      <c r="E107" s="49">
         <v>670</v>
       </c>
-      <c r="F107" s="69">
+      <c r="F107" s="49">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
         <v>-670</v>
       </c>
-      <c r="H107" s="70">
+      <c r="H107" s="49">
         <v>15</v>
       </c>
-      <c r="I107" s="70">
+      <c r="I107" s="49">
         <v>0</v>
       </c>
       <c r="J107" s="6">
@@ -5228,33 +5076,33 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" s="68">
-        <v>0</v>
-      </c>
-      <c r="C108" s="68">
+      <c r="A108" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="49">
+        <v>0</v>
+      </c>
+      <c r="C108" s="49">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="69">
+      <c r="E108" s="49">
         <v>300</v>
       </c>
-      <c r="F108" s="69">
+      <c r="F108" s="49">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H108" s="70">
-        <v>0</v>
-      </c>
-      <c r="I108" s="70">
+      <c r="H108" s="49">
+        <v>0</v>
+      </c>
+      <c r="I108" s="49">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5263,33 +5111,33 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="B109" s="68">
-        <v>0</v>
-      </c>
-      <c r="C109" s="68">
+      <c r="A109" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="49">
+        <v>0</v>
+      </c>
+      <c r="C109" s="49">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="69">
-        <v>0</v>
-      </c>
-      <c r="F109" s="69">
+      <c r="E109" s="49">
+        <v>0</v>
+      </c>
+      <c r="F109" s="49">
         <v>7303</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
         <v>7303</v>
       </c>
-      <c r="H109" s="70">
-        <v>0</v>
-      </c>
-      <c r="I109" s="70">
+      <c r="H109" s="49">
+        <v>0</v>
+      </c>
+      <c r="I109" s="49">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5298,33 +5146,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="68">
-        <v>0</v>
-      </c>
-      <c r="C110" s="68">
+      <c r="A110" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110" s="49">
+        <v>0</v>
+      </c>
+      <c r="C110" s="49">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="69">
+      <c r="E110" s="49">
         <v>10</v>
       </c>
-      <c r="F110" s="69">
+      <c r="F110" s="49">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="70">
-        <v>0</v>
-      </c>
-      <c r="I110" s="70">
+      <c r="H110" s="49">
+        <v>0</v>
+      </c>
+      <c r="I110" s="49">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5333,33 +5181,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B111" s="68">
-        <v>0</v>
-      </c>
-      <c r="C111" s="68">
+      <c r="A111" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="49">
+        <v>0</v>
+      </c>
+      <c r="C111" s="49">
         <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E111" s="69">
+      <c r="E111" s="49">
         <v>1100</v>
       </c>
-      <c r="F111" s="69">
+      <c r="F111" s="49">
         <v>0</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
         <v>-1100</v>
       </c>
-      <c r="H111" s="70">
-        <v>0</v>
-      </c>
-      <c r="I111" s="70">
+      <c r="H111" s="49">
+        <v>0</v>
+      </c>
+      <c r="I111" s="49">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5368,33 +5216,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B112" s="68">
-        <v>0</v>
-      </c>
-      <c r="C112" s="68">
+      <c r="A112" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B112" s="49">
+        <v>0</v>
+      </c>
+      <c r="C112" s="49">
         <v>401</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
         <v>401</v>
       </c>
-      <c r="E112" s="69">
-        <v>0</v>
-      </c>
-      <c r="F112" s="69">
+      <c r="E112" s="49">
+        <v>0</v>
+      </c>
+      <c r="F112" s="49">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="70">
-        <v>0</v>
-      </c>
-      <c r="I112" s="70">
+      <c r="H112" s="49">
+        <v>0</v>
+      </c>
+      <c r="I112" s="49">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5403,33 +5251,33 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B113" s="68">
-        <v>0</v>
-      </c>
-      <c r="C113" s="68">
+      <c r="A113" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="49">
+        <v>0</v>
+      </c>
+      <c r="C113" s="49">
         <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="69">
+      <c r="E113" s="49">
         <v>42000</v>
       </c>
-      <c r="F113" s="69">
+      <c r="F113" s="49">
         <v>96</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
         <v>-41904</v>
       </c>
-      <c r="H113" s="70">
-        <v>0</v>
-      </c>
-      <c r="I113" s="70">
+      <c r="H113" s="49">
+        <v>0</v>
+      </c>
+      <c r="I113" s="49">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5438,33 +5286,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="68">
-        <v>0</v>
-      </c>
-      <c r="C114" s="68">
+      <c r="A114" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="49">
+        <v>0</v>
+      </c>
+      <c r="C114" s="49">
         <v>0</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E114" s="69">
+      <c r="E114" s="49">
         <v>21823</v>
       </c>
-      <c r="F114" s="69">
+      <c r="F114" s="49">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
         <v>-21823</v>
       </c>
-      <c r="H114" s="70">
-        <v>0</v>
-      </c>
-      <c r="I114" s="70">
+      <c r="H114" s="49">
+        <v>0</v>
+      </c>
+      <c r="I114" s="49">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5473,33 +5321,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B115" s="68">
+      <c r="A115" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" s="49">
         <v>800</v>
       </c>
-      <c r="C115" s="68">
+      <c r="C115" s="49">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E115" s="69">
-        <v>0</v>
-      </c>
-      <c r="F115" s="69">
+      <c r="E115" s="49">
+        <v>0</v>
+      </c>
+      <c r="F115" s="49">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="70">
-        <v>0</v>
-      </c>
-      <c r="I115" s="70">
+      <c r="H115" s="49">
+        <v>0</v>
+      </c>
+      <c r="I115" s="49">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5508,33 +5356,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" s="68">
-        <v>0</v>
-      </c>
-      <c r="C116" s="68">
+      <c r="A116" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" s="49">
+        <v>0</v>
+      </c>
+      <c r="C116" s="49">
         <v>0</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E116" s="69">
+      <c r="E116" s="49">
         <v>7</v>
       </c>
-      <c r="F116" s="69">
+      <c r="F116" s="49">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
         <v>-7</v>
       </c>
-      <c r="H116" s="70">
-        <v>0</v>
-      </c>
-      <c r="I116" s="70">
+      <c r="H116" s="49">
+        <v>0</v>
+      </c>
+      <c r="I116" s="49">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5543,33 +5391,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117" s="68">
-        <v>0</v>
-      </c>
-      <c r="C117" s="68">
+      <c r="A117" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="49">
+        <v>0</v>
+      </c>
+      <c r="C117" s="49">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E117" s="69">
-        <v>0</v>
-      </c>
-      <c r="F117" s="69">
+      <c r="E117" s="49">
+        <v>0</v>
+      </c>
+      <c r="F117" s="49">
         <v>200</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="H117" s="70">
-        <v>0</v>
-      </c>
-      <c r="I117" s="70">
+      <c r="H117" s="49">
+        <v>0</v>
+      </c>
+      <c r="I117" s="49">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5578,33 +5426,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B118" s="68">
-        <v>0</v>
-      </c>
-      <c r="C118" s="68">
+      <c r="A118" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="49">
+        <v>0</v>
+      </c>
+      <c r="C118" s="49">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="69">
+      <c r="E118" s="49">
         <v>7682</v>
       </c>
-      <c r="F118" s="69">
+      <c r="F118" s="49">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="70">
-        <v>0</v>
-      </c>
-      <c r="I118" s="70">
+      <c r="H118" s="49">
+        <v>0</v>
+      </c>
+      <c r="I118" s="49">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5613,33 +5461,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B119" s="68">
+      <c r="A119" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B119" s="49">
         <v>1845</v>
       </c>
-      <c r="C119" s="68">
+      <c r="C119" s="49">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
         <v>-1845</v>
       </c>
-      <c r="E119" s="69">
+      <c r="E119" s="49">
         <v>6288</v>
       </c>
-      <c r="F119" s="69">
+      <c r="F119" s="49">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
         <v>-6288</v>
       </c>
-      <c r="H119" s="70">
-        <v>0</v>
-      </c>
-      <c r="I119" s="70">
+      <c r="H119" s="49">
+        <v>0</v>
+      </c>
+      <c r="I119" s="49">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5648,33 +5496,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B120" s="68">
+      <c r="A120" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="49">
         <v>300</v>
       </c>
-      <c r="C120" s="68">
+      <c r="C120" s="49">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E120" s="69">
+      <c r="E120" s="49">
         <v>106</v>
       </c>
-      <c r="F120" s="69">
+      <c r="F120" s="49">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
         <v>-106</v>
       </c>
-      <c r="H120" s="70">
-        <v>0</v>
-      </c>
-      <c r="I120" s="70">
+      <c r="H120" s="49">
+        <v>0</v>
+      </c>
+      <c r="I120" s="49">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5683,33 +5531,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B121" s="68">
-        <v>0</v>
-      </c>
-      <c r="C121" s="68">
+      <c r="A121" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="49">
+        <v>0</v>
+      </c>
+      <c r="C121" s="49">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="69">
+      <c r="E121" s="49">
         <v>15000</v>
       </c>
-      <c r="F121" s="69">
+      <c r="F121" s="49">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="70">
-        <v>0</v>
-      </c>
-      <c r="I121" s="70">
+      <c r="H121" s="49">
+        <v>0</v>
+      </c>
+      <c r="I121" s="49">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5718,33 +5566,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B122" s="68">
-        <v>0</v>
-      </c>
-      <c r="C122" s="68">
+      <c r="A122" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" s="49">
+        <v>0</v>
+      </c>
+      <c r="C122" s="49">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="69">
-        <v>0</v>
-      </c>
-      <c r="F122" s="69">
+      <c r="E122" s="49">
+        <v>0</v>
+      </c>
+      <c r="F122" s="49">
         <v>5900</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
         <v>5900</v>
       </c>
-      <c r="H122" s="70">
-        <v>0</v>
-      </c>
-      <c r="I122" s="70">
+      <c r="H122" s="49">
+        <v>0</v>
+      </c>
+      <c r="I122" s="49">
         <v>0</v>
       </c>
       <c r="J122" s="6">
@@ -5753,33 +5601,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="B123" s="68">
-        <v>0</v>
-      </c>
-      <c r="C123" s="68">
+      <c r="A123" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="49">
+        <v>0</v>
+      </c>
+      <c r="C123" s="49">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E123" s="69">
-        <v>0</v>
-      </c>
-      <c r="F123" s="69">
+      <c r="E123" s="49">
+        <v>0</v>
+      </c>
+      <c r="F123" s="49">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H123" s="70">
-        <v>0</v>
-      </c>
-      <c r="I123" s="70">
+      <c r="H123" s="49">
+        <v>0</v>
+      </c>
+      <c r="I123" s="49">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5788,33 +5636,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="49" t="s">
+      <c r="A124" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B124" s="68">
-        <v>0</v>
-      </c>
-      <c r="C124" s="68">
+      <c r="B124" s="49">
+        <v>0</v>
+      </c>
+      <c r="C124" s="49">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E124" s="69">
-        <v>0</v>
-      </c>
-      <c r="F124" s="69">
+      <c r="E124" s="49">
+        <v>0</v>
+      </c>
+      <c r="F124" s="49">
         <v>548</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
         <v>548</v>
       </c>
-      <c r="H124" s="70">
-        <v>0</v>
-      </c>
-      <c r="I124" s="70">
+      <c r="H124" s="49">
+        <v>0</v>
+      </c>
+      <c r="I124" s="49">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5823,33 +5671,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B125" s="68">
+      <c r="A125" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B125" s="49">
         <v>800</v>
       </c>
-      <c r="C125" s="68">
+      <c r="C125" s="49">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E125" s="69">
-        <v>0</v>
-      </c>
-      <c r="F125" s="69">
+      <c r="E125" s="49">
+        <v>0</v>
+      </c>
+      <c r="F125" s="49">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H125" s="70">
-        <v>0</v>
-      </c>
-      <c r="I125" s="70">
+      <c r="H125" s="49">
+        <v>0</v>
+      </c>
+      <c r="I125" s="49">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5858,33 +5706,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="68">
-        <v>0</v>
-      </c>
-      <c r="C126" s="68">
+      <c r="A126" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" s="49">
+        <v>0</v>
+      </c>
+      <c r="C126" s="49">
         <v>0</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E126" s="69">
+      <c r="E126" s="49">
         <v>108</v>
       </c>
-      <c r="F126" s="69">
+      <c r="F126" s="49">
         <v>0</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
         <v>-108</v>
       </c>
-      <c r="H126" s="70">
-        <v>0</v>
-      </c>
-      <c r="I126" s="70">
+      <c r="H126" s="49">
+        <v>0</v>
+      </c>
+      <c r="I126" s="49">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5893,33 +5741,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B127" s="68">
-        <v>0</v>
-      </c>
-      <c r="C127" s="68">
+      <c r="A127" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="49">
+        <v>0</v>
+      </c>
+      <c r="C127" s="49">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="69">
-        <v>0</v>
-      </c>
-      <c r="F127" s="69">
+      <c r="E127" s="49">
+        <v>0</v>
+      </c>
+      <c r="F127" s="49">
         <v>9515</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
         <v>9515</v>
       </c>
-      <c r="H127" s="70">
-        <v>0</v>
-      </c>
-      <c r="I127" s="70">
+      <c r="H127" s="49">
+        <v>0</v>
+      </c>
+      <c r="I127" s="49">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5928,33 +5776,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B128" s="68">
-        <v>0</v>
-      </c>
-      <c r="C128" s="68">
+      <c r="A128" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="49">
+        <v>0</v>
+      </c>
+      <c r="C128" s="49">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E128" s="69">
+      <c r="E128" s="49">
         <v>200</v>
       </c>
-      <c r="F128" s="69">
+      <c r="F128" s="49">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H128" s="70">
-        <v>0</v>
-      </c>
-      <c r="I128" s="70">
+      <c r="H128" s="49">
+        <v>0</v>
+      </c>
+      <c r="I128" s="49">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5963,33 +5811,33 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B129" s="68">
-        <v>0</v>
-      </c>
-      <c r="C129" s="68">
+      <c r="A129" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="49">
+        <v>0</v>
+      </c>
+      <c r="C129" s="49">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="69">
+      <c r="E129" s="49">
         <v>700</v>
       </c>
-      <c r="F129" s="69">
+      <c r="F129" s="49">
         <v>0</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
         <v>-700</v>
       </c>
-      <c r="H129" s="70">
-        <v>0</v>
-      </c>
-      <c r="I129" s="70">
+      <c r="H129" s="49">
+        <v>0</v>
+      </c>
+      <c r="I129" s="49">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5998,33 +5846,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="B130" s="68">
-        <v>0</v>
-      </c>
-      <c r="C130" s="68">
+      <c r="A130" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" s="49">
+        <v>0</v>
+      </c>
+      <c r="C130" s="49">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E130" s="69">
+      <c r="E130" s="49">
         <v>1000</v>
       </c>
-      <c r="F130" s="69">
+      <c r="F130" s="49">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
         <v>-1000</v>
       </c>
-      <c r="H130" s="70">
-        <v>0</v>
-      </c>
-      <c r="I130" s="70">
+      <c r="H130" s="49">
+        <v>0</v>
+      </c>
+      <c r="I130" s="49">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -6033,33 +5881,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B131" s="68">
-        <v>0</v>
-      </c>
-      <c r="C131" s="68">
+      <c r="A131" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="49">
+        <v>0</v>
+      </c>
+      <c r="C131" s="49">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
         <v>0</v>
       </c>
-      <c r="E131" s="69">
-        <v>0</v>
-      </c>
-      <c r="F131" s="69">
+      <c r="E131" s="49">
+        <v>0</v>
+      </c>
+      <c r="F131" s="49">
         <v>26</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
         <v>26</v>
       </c>
-      <c r="H131" s="70">
-        <v>0</v>
-      </c>
-      <c r="I131" s="70">
+      <c r="H131" s="49">
+        <v>0</v>
+      </c>
+      <c r="I131" s="49">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -6075,20 +5923,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E132" s="69">
-        <v>0</v>
-      </c>
-      <c r="F132" s="69">
+      <c r="E132" s="49">
+        <v>0</v>
+      </c>
+      <c r="F132" s="49">
         <v>0</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H132" s="70">
-        <v>0</v>
-      </c>
-      <c r="I132" s="70">
+      <c r="H132" s="49">
+        <v>0</v>
+      </c>
+      <c r="I132" s="49">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -6161,7 +6009,7 @@
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
-      <c r="B136" s="46"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="13"/>
       <c r="D136" s="6">
         <f t="shared" si="6"/>
@@ -6182,7 +6030,7 @@
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
-      <c r="B137" s="46"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="13"/>
       <c r="D137" s="6">
         <f t="shared" si="6"/>
@@ -6203,7 +6051,7 @@
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
-      <c r="B138" s="46"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="13"/>
       <c r="D138" s="6">
         <f t="shared" si="6"/>
@@ -6224,7 +6072,7 @@
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
-      <c r="B139" s="46"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="13"/>
       <c r="D139" s="6">
         <f t="shared" si="6"/>
@@ -6245,7 +6093,7 @@
     </row>
     <row r="140" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
-      <c r="B140" s="46"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="13"/>
       <c r="D140" s="6">
         <f t="shared" si="6"/>
@@ -6266,7 +6114,7 @@
     </row>
     <row r="141" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
-      <c r="B141" s="46"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="13"/>
       <c r="D141" s="6">
         <f t="shared" si="6"/>
@@ -6287,7 +6135,7 @@
     </row>
     <row r="142" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
-      <c r="B142" s="46"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="13"/>
       <c r="D142" s="6">
         <f t="shared" si="6"/>
@@ -6308,7 +6156,7 @@
     </row>
     <row r="143" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
-      <c r="B143" s="46"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="13"/>
       <c r="D143" s="6">
         <f t="shared" si="6"/>
@@ -6329,7 +6177,7 @@
     </row>
     <row r="144" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
-      <c r="B144" s="46"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="13"/>
       <c r="D144" s="6">
         <f t="shared" si="6"/>
@@ -6350,7 +6198,7 @@
     </row>
     <row r="145" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
-      <c r="B145" s="46"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="13"/>
       <c r="D145" s="6">
         <f t="shared" si="6"/>
@@ -6371,7 +6219,7 @@
     </row>
     <row r="146" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
-      <c r="B146" s="46"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="13"/>
       <c r="D146" s="6">
         <f t="shared" si="6"/>
@@ -6392,7 +6240,7 @@
     </row>
     <row r="147" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="B147" s="46"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="13"/>
       <c r="D147" s="6">
         <f t="shared" si="6"/>
@@ -6413,7 +6261,7 @@
     </row>
     <row r="148" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
-      <c r="B148" s="46"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="13"/>
       <c r="D148" s="6">
         <f t="shared" si="6"/>
@@ -6434,7 +6282,7 @@
     </row>
     <row r="149" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
-      <c r="B149" s="46"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="13"/>
       <c r="D149" s="6">
         <f t="shared" si="6"/>
@@ -6455,7 +6303,7 @@
     </row>
     <row r="150" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
-      <c r="B150" s="46"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="13"/>
       <c r="D150" s="6">
         <f t="shared" si="6"/>
@@ -6476,7 +6324,7 @@
     </row>
     <row r="151" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
-      <c r="B151" s="46"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="13"/>
       <c r="D151" s="6">
         <f t="shared" si="6"/>
@@ -6497,7 +6345,7 @@
     </row>
     <row r="152" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
-      <c r="B152" s="46"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="13"/>
       <c r="D152" s="6">
         <f t="shared" si="6"/>
@@ -6519,7 +6367,7 @@
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="46"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="13"/>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
@@ -6528,7 +6376,7 @@
       <c r="L153" s="14"/>
     </row>
     <row r="154" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="46"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
@@ -6583,7 +6431,7 @@
   <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6622,7 +6470,7 @@
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
@@ -6635,7 +6483,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="15">
@@ -6649,7 +6497,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15">
@@ -6663,7 +6511,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15">
@@ -6677,7 +6525,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="15">
@@ -6691,8 +6539,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>17</v>
+      <c r="A9" s="28" t="s">
+        <v>134</v>
       </c>
       <c r="B9" s="15">
         <v>-1050</v>
@@ -6705,7 +6553,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="15">
@@ -6719,7 +6567,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="15">
@@ -6733,7 +6581,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="15">
@@ -6747,7 +6595,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="15">
@@ -6761,7 +6609,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="15">
@@ -6775,7 +6623,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="15">
@@ -6789,7 +6637,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="15">
@@ -6803,7 +6651,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="15">
@@ -6817,7 +6665,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="15">
@@ -6831,7 +6679,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="15">
@@ -6845,7 +6693,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="15">
@@ -6859,7 +6707,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="15">
@@ -6873,7 +6721,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="15">
@@ -6887,7 +6735,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15">
@@ -6901,7 +6749,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="15">
@@ -6915,7 +6763,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="15">
@@ -6929,7 +6777,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="15">
@@ -6943,7 +6791,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="41" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="15">
@@ -6957,7 +6805,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="37" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="15">
@@ -6971,7 +6819,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="15">
@@ -6985,8 +6833,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>135</v>
+      <c r="A30" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="B30" s="15">
         <v>-300</v>
@@ -6999,7 +6847,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="15">
@@ -7013,7 +6861,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="41" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="15">
@@ -7027,7 +6875,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="15">
@@ -7041,7 +6889,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="15">
@@ -7055,7 +6903,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="15">
@@ -7069,7 +6917,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="34" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="15">
@@ -7083,7 +6931,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="15">
@@ -7097,8 +6945,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
-        <v>136</v>
+      <c r="A38" s="31" t="s">
+        <v>135</v>
       </c>
       <c r="B38" s="15">
         <v>0</v>
@@ -7111,8 +6959,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>137</v>
+      <c r="A39" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="B39" s="15">
         <v>0</v>
@@ -7125,7 +6973,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="15">
@@ -7139,8 +6987,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>117</v>
+      <c r="A41" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
@@ -7153,7 +7001,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="15">
@@ -7167,7 +7015,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="15">
@@ -7181,7 +7029,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="46" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="15">
@@ -7195,7 +7043,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="15">
@@ -7209,7 +7057,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="15">
@@ -7223,8 +7071,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>130</v>
+      <c r="A47" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="B47" s="15">
         <v>-95</v>
@@ -7237,7 +7085,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="15">
@@ -7251,7 +7099,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="15">
@@ -7265,7 +7113,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="15">
@@ -7279,7 +7127,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="15">
@@ -7293,8 +7141,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>131</v>
+      <c r="A52" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
@@ -7307,7 +7155,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="15">
@@ -7335,7 +7183,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="15">
@@ -7349,8 +7197,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>116</v>
+      <c r="A56" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="B56" s="15">
         <v>0</v>
@@ -7363,7 +7211,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="15">
@@ -7377,8 +7225,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>138</v>
+      <c r="A58" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="B58" s="15">
         <v>0</v>
@@ -7391,7 +7239,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="15">
@@ -7405,8 +7253,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>119</v>
+      <c r="A60" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="B60" s="15">
         <v>-625</v>
@@ -7419,7 +7267,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="15">
@@ -7433,7 +7281,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="15">
@@ -7447,7 +7295,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="15">
@@ -7461,7 +7309,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="15">
@@ -7475,7 +7323,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="28" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="15">
@@ -7489,7 +7337,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="15">
@@ -7503,7 +7351,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="28" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="15">
@@ -7517,7 +7365,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="15">
@@ -7531,7 +7379,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="15">
@@ -7545,7 +7393,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="39" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="15">
@@ -7559,8 +7407,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="44" t="s">
-        <v>118</v>
+      <c r="A71" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
@@ -7573,7 +7421,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="15">
@@ -7587,8 +7435,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>120</v>
+      <c r="A73" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="B73" s="15">
         <v>0</v>
@@ -7601,7 +7449,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="15">
@@ -7615,7 +7463,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="15">
@@ -7629,8 +7477,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>139</v>
+      <c r="A76" s="28" t="s">
+        <v>106</v>
       </c>
       <c r="B76" s="15">
         <v>0</v>
@@ -7643,7 +7491,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B77" s="15">
@@ -7657,7 +7505,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B78" s="15">
@@ -7671,7 +7519,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="15">
@@ -7685,7 +7533,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B80" s="15">
@@ -7699,8 +7547,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>140</v>
+      <c r="A81" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="B81" s="15">
         <v>-150</v>
@@ -7713,7 +7561,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="15">
@@ -7727,7 +7575,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="47" t="s">
         <v>77</v>
       </c>
       <c r="B83" s="15">
@@ -7741,7 +7589,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="28" t="s">
         <v>78</v>
       </c>
       <c r="B84" s="15">
@@ -7755,8 +7603,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>129</v>
+      <c r="A85" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="B85" s="15">
         <v>0</v>
@@ -7769,8 +7617,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>123</v>
+      <c r="A86" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="B86" s="15">
         <v>0</v>
@@ -7783,7 +7631,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="28" t="s">
         <v>79</v>
       </c>
       <c r="B87" s="15">
@@ -7797,7 +7645,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B88" s="15">
@@ -7811,8 +7659,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>81</v>
+      <c r="A89" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
@@ -7825,7 +7673,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="28" t="s">
         <v>82</v>
       </c>
       <c r="B90" s="15">
@@ -7839,8 +7687,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>121</v>
+      <c r="A91" s="28" t="s">
+        <v>118</v>
       </c>
       <c r="B91" s="15">
         <v>0</v>
@@ -7853,7 +7701,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B92" s="15">
@@ -7867,7 +7715,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="15">
         <v>0</v>
       </c>
@@ -7879,8 +7727,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>122</v>
+      <c r="A94" s="28" t="s">
+        <v>119</v>
       </c>
       <c r="B94" s="15">
         <v>200</v>
@@ -7893,7 +7741,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B95" s="15">
@@ -7907,7 +7755,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B96" s="15">
@@ -7921,7 +7769,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B97" s="15">
@@ -7935,7 +7783,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="28" t="s">
         <v>87</v>
       </c>
       <c r="B98" s="15">
@@ -7949,7 +7797,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="28" t="s">
         <v>88</v>
       </c>
       <c r="B99" s="15">
@@ -7963,8 +7811,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>132</v>
+      <c r="A100" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="B100" s="15">
         <v>0</v>
@@ -7977,8 +7825,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>141</v>
+      <c r="A101" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="B101" s="15">
         <v>0</v>
@@ -7991,9 +7839,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="A102" s="28"/>
       <c r="B102" s="15">
         <v>0</v>
       </c>
@@ -8005,8 +7851,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>142</v>
+      <c r="A103" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="15">
         <v>0</v>
@@ -8019,8 +7865,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>143</v>
+      <c r="A104" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="B104" s="15">
         <v>-222</v>
@@ -8033,8 +7879,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>92</v>
+      <c r="A105" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="B105" s="15">
         <v>-50</v>
@@ -8047,8 +7893,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>93</v>
+      <c r="A106" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
@@ -8061,8 +7907,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>94</v>
+      <c r="A107" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="B107" s="15">
         <v>0</v>
@@ -8075,8 +7921,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>95</v>
+      <c r="A108" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="B108" s="15">
         <v>245</v>
@@ -8089,8 +7935,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>124</v>
+      <c r="A109" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="B109" s="15">
         <v>0</v>
@@ -8103,8 +7949,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>144</v>
+      <c r="A110" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="B110" s="15">
         <v>0</v>
@@ -8117,8 +7963,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>145</v>
+      <c r="A111" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="B111" s="15">
         <v>0</v>
@@ -8131,8 +7977,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>96</v>
+      <c r="A112" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="B112" s="15">
         <v>0</v>
@@ -8145,8 +7991,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>146</v>
+      <c r="A113" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="B113" s="15">
         <v>0</v>
@@ -8159,8 +8005,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>97</v>
+      <c r="A114" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="B114" s="15">
         <v>401</v>
@@ -8173,8 +8019,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>125</v>
+      <c r="A115" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="B115" s="15">
         <v>0</v>
@@ -8187,8 +8033,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>98</v>
+      <c r="A116" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="B116" s="15">
         <v>0</v>
@@ -8201,8 +8047,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>99</v>
+      <c r="A117" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="B117" s="15">
         <v>-800</v>
@@ -8215,8 +8061,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>100</v>
+      <c r="A118" s="28" t="s">
+        <v>99</v>
       </c>
       <c r="B118" s="15">
         <v>0</v>
@@ -8229,8 +8075,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>101</v>
+      <c r="A119" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="B119" s="15">
         <v>0</v>
@@ -8243,8 +8089,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>102</v>
+      <c r="A120" s="28" t="s">
+        <v>100</v>
       </c>
       <c r="B120" s="15">
         <v>23800</v>
@@ -8257,8 +8103,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>103</v>
+      <c r="A121" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="B121" s="15">
         <v>-1845</v>
@@ -8271,8 +8117,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>104</v>
+      <c r="A122" s="28" t="s">
+        <v>102</v>
       </c>
       <c r="B122" s="15">
         <v>-300</v>
@@ -8285,8 +8131,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>105</v>
+      <c r="A123" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="B123" s="15">
         <v>0</v>
@@ -8299,8 +8145,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>133</v>
+      <c r="A124" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="B124" s="15">
         <v>0</v>
@@ -8313,8 +8159,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
-        <v>126</v>
+      <c r="A125" s="28" t="s">
+        <v>141</v>
       </c>
       <c r="B125" s="15">
         <v>0</v>
@@ -8327,8 +8173,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
-        <v>127</v>
+      <c r="A126" s="28" t="s">
+        <v>81</v>
       </c>
       <c r="B126" s="15">
         <v>0</v>
@@ -8341,8 +8187,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>106</v>
+      <c r="A127" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="B127" s="15">
         <v>-800</v>
@@ -8355,8 +8201,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
-        <v>147</v>
+      <c r="A128" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="B128" s="15">
         <v>0</v>
@@ -8369,8 +8215,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>148</v>
+      <c r="A129" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="B129" s="15">
         <v>0</v>
@@ -8383,8 +8229,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>107</v>
+      <c r="A130" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="B130" s="15">
         <v>0</v>
@@ -8397,8 +8243,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>149</v>
+      <c r="A131" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="B131" s="15">
         <v>0</v>
@@ -8411,8 +8257,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
-        <v>108</v>
+      <c r="A132" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="B132" s="15">
         <v>0</v>
@@ -8425,8 +8271,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
-        <v>150</v>
+      <c r="A133" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="B133" s="15">
         <v>0</v>
@@ -8439,9 +8285,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="A134" s="28"/>
       <c r="C134" s="15">
         <v>0</v>
       </c>
@@ -8450,24 +8294,16 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="A135" s="28"/>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="A136" s="28"/>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="A137" s="28"/>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>151</v>
-      </c>
+      <c r="A138" s="28"/>
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
@@ -8557,7 +8393,7 @@
     </row>
     <row r="159" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C159" s="26"/>
       <c r="D159" s="23" t="s">
@@ -8569,7 +8405,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B160" s="15">
         <v>2543</v>
@@ -8583,7 +8419,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B161" s="15">
         <v>-5684</v>
@@ -8597,10 +8433,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B162" s="15">
-        <v>-846</v>
+        <v>3900</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">
@@ -8629,20 +8465,20 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B165" s="15">
         <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="47" t="s">
+      <c r="B169" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="47"/>
-      <c r="D169" s="47"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="51"/>
+      <c r="F169" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dede\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D1008C-BFC0-44AC-8C28-D2E99BDFED66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C74479-17CC-440A-8A4F-342A50F76F76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,13 @@
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -56,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
   <si>
     <t>الشيكل</t>
   </si>
@@ -413,9 +420,6 @@
     <t>يورو</t>
   </si>
   <si>
-    <t>مالك الرنتيسي</t>
-  </si>
-  <si>
     <t>الصفدي صفد</t>
   </si>
   <si>
@@ -443,9 +447,6 @@
     <t>عمار ابوضاهر</t>
   </si>
   <si>
-    <t>صندوق واحد صندوق كــــاظــــم 1 كـاظم</t>
-  </si>
-  <si>
     <t>صامد الشريف</t>
   </si>
   <si>
@@ -494,9 +495,6 @@
     <t>اميره الواديه</t>
   </si>
   <si>
-    <t>شادي ابوحصيره</t>
-  </si>
-  <si>
     <t>حسن العبادله</t>
   </si>
   <si>
@@ -506,7 +504,22 @@
     <t>محمد الخزندار</t>
   </si>
   <si>
-    <t>حميد</t>
+    <t>مالك ابومعروف</t>
+  </si>
+  <si>
+    <t>ام عماد الترك</t>
+  </si>
+  <si>
+    <t>ميار دلول</t>
+  </si>
+  <si>
+    <t>ريم ابوسيدو</t>
+  </si>
+  <si>
+    <t>محمد ابوفول</t>
+  </si>
+  <si>
+    <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
   </si>
 </sst>
 </file>
@@ -797,7 +810,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="178"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -907,10 +920,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -941,7 +954,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -961,68 +974,134 @@
     <xf numFmtId="1" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1051,9 +1130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1091,9 +1170,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1126,9 +1205,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1161,9 +1257,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1339,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A131"/>
+    <sheetView rightToLeft="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J133" sqref="J2:J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,32 +1484,32 @@
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="49">
-        <v>0</v>
-      </c>
-      <c r="C2" s="49">
+        <v>147</v>
+      </c>
+      <c r="B2" s="52">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="49">
-        <v>0</v>
-      </c>
-      <c r="F2" s="49">
-        <v>259891</v>
+      <c r="E2" s="53">
+        <v>28031</v>
+      </c>
+      <c r="F2" s="53">
+        <v>307891</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
-        <v>259891</v>
-      </c>
-      <c r="H2" s="49">
-        <v>0</v>
-      </c>
-      <c r="I2" s="49">
+        <v>279860</v>
+      </c>
+      <c r="H2" s="55">
+        <v>0</v>
+      </c>
+      <c r="I2" s="55">
         <v>10621</v>
       </c>
       <c r="J2" s="6">
@@ -1405,33 +1518,33 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="49">
-        <v>3086</v>
-      </c>
-      <c r="C3" s="49">
+      <c r="B3" s="52">
+        <v>4500</v>
+      </c>
+      <c r="C3" s="52">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-3086</v>
-      </c>
-      <c r="E3" s="49">
-        <v>0</v>
-      </c>
-      <c r="F3" s="49">
+        <v>-4500</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="53">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="55">
         <v>40</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="55">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1440,33 +1553,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="49">
-        <v>0</v>
-      </c>
-      <c r="C4" s="49">
+      <c r="B4" s="52">
+        <v>0</v>
+      </c>
+      <c r="C4" s="52">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="49">
-        <v>0</v>
-      </c>
-      <c r="F4" s="49">
+      <c r="E4" s="53">
+        <v>0</v>
+      </c>
+      <c r="F4" s="53">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="49">
-        <v>0</v>
-      </c>
-      <c r="I4" s="49">
+      <c r="H4" s="55">
+        <v>0</v>
+      </c>
+      <c r="I4" s="55">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1475,33 +1588,33 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="49">
-        <v>0</v>
-      </c>
-      <c r="C5" s="49">
+      <c r="B5" s="52">
+        <v>0</v>
+      </c>
+      <c r="C5" s="52">
         <v>0</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="49">
-        <v>0</v>
-      </c>
-      <c r="F5" s="49">
-        <v>500</v>
+      <c r="E5" s="53">
+        <v>0</v>
+      </c>
+      <c r="F5" s="53">
+        <v>0</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="H5" s="49">
-        <v>0</v>
-      </c>
-      <c r="I5" s="49">
+        <v>0</v>
+      </c>
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="55">
         <v>0</v>
       </c>
       <c r="J5" s="6">
@@ -1510,33 +1623,33 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="49">
-        <v>0</v>
-      </c>
-      <c r="C6" s="49">
+      <c r="B6" s="52">
+        <v>0</v>
+      </c>
+      <c r="C6" s="52">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="49">
-        <v>0</v>
-      </c>
-      <c r="F6" s="49">
-        <v>3353</v>
+      <c r="E6" s="53">
+        <v>0</v>
+      </c>
+      <c r="F6" s="53">
+        <v>2811</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>3353</v>
-      </c>
-      <c r="H6" s="49">
-        <v>0</v>
-      </c>
-      <c r="I6" s="49">
+        <v>2811</v>
+      </c>
+      <c r="H6" s="55">
+        <v>0</v>
+      </c>
+      <c r="I6" s="55">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1545,33 +1658,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="49">
+      <c r="A7" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="52">
         <v>1050</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="52">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>-1050</v>
       </c>
-      <c r="E7" s="49">
-        <v>0</v>
-      </c>
-      <c r="F7" s="49">
+      <c r="E7" s="53">
+        <v>0</v>
+      </c>
+      <c r="F7" s="53">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="49">
-        <v>0</v>
-      </c>
-      <c r="I7" s="49">
+      <c r="H7" s="55">
+        <v>0</v>
+      </c>
+      <c r="I7" s="55">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1580,33 +1693,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="49">
-        <v>0</v>
-      </c>
-      <c r="C8" s="49">
+      <c r="B8" s="52">
+        <v>0</v>
+      </c>
+      <c r="C8" s="52">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="49">
-        <v>0</v>
-      </c>
-      <c r="F8" s="49">
+      <c r="E8" s="53">
+        <v>0</v>
+      </c>
+      <c r="F8" s="53">
         <v>472</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>472</v>
       </c>
-      <c r="H8" s="49">
-        <v>0</v>
-      </c>
-      <c r="I8" s="49">
+      <c r="H8" s="55">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1615,33 +1728,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="49">
-        <v>0</v>
-      </c>
-      <c r="C9" s="49">
+      <c r="B9" s="52">
+        <v>0</v>
+      </c>
+      <c r="C9" s="52">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="53">
         <v>33</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="53">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="49">
-        <v>0</v>
-      </c>
-      <c r="I9" s="49">
+      <c r="H9" s="55">
+        <v>0</v>
+      </c>
+      <c r="I9" s="55">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1650,33 +1763,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="49">
-        <v>0</v>
-      </c>
-      <c r="C10" s="49">
+      <c r="B10" s="52">
+        <v>0</v>
+      </c>
+      <c r="C10" s="52">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="53">
         <v>18</v>
       </c>
-      <c r="F10" s="49">
-        <v>0</v>
+      <c r="F10" s="53">
+        <v>597</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>-18</v>
-      </c>
-      <c r="H10" s="49">
-        <v>0</v>
-      </c>
-      <c r="I10" s="49">
+        <v>579</v>
+      </c>
+      <c r="H10" s="55">
+        <v>0</v>
+      </c>
+      <c r="I10" s="55">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1685,33 +1798,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="49">
-        <v>0</v>
-      </c>
-      <c r="C11" s="49">
+      <c r="B11" s="52">
+        <v>0</v>
+      </c>
+      <c r="C11" s="52">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="49">
-        <v>0</v>
-      </c>
-      <c r="F11" s="49">
+      <c r="E11" s="53">
+        <v>0</v>
+      </c>
+      <c r="F11" s="53">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="49">
-        <v>0</v>
-      </c>
-      <c r="I11" s="49">
+      <c r="H11" s="55">
+        <v>0</v>
+      </c>
+      <c r="I11" s="55">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1720,33 +1833,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="49">
-        <v>0</v>
-      </c>
-      <c r="C12" s="49">
+      <c r="B12" s="52">
+        <v>0</v>
+      </c>
+      <c r="C12" s="52">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="53">
         <v>1013</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="53">
         <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>-1013</v>
       </c>
-      <c r="H12" s="49">
-        <v>0</v>
-      </c>
-      <c r="I12" s="49">
+      <c r="H12" s="55">
+        <v>0</v>
+      </c>
+      <c r="I12" s="55">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1755,33 +1868,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="49">
-        <v>0</v>
-      </c>
-      <c r="C13" s="49">
+      <c r="B13" s="52">
+        <v>0</v>
+      </c>
+      <c r="C13" s="52">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="49">
-        <v>0</v>
-      </c>
-      <c r="F13" s="49">
+      <c r="E13" s="53">
+        <v>0</v>
+      </c>
+      <c r="F13" s="53">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="49">
-        <v>0</v>
-      </c>
-      <c r="I13" s="49">
+      <c r="H13" s="55">
+        <v>0</v>
+      </c>
+      <c r="I13" s="55">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1790,33 +1903,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="49">
-        <v>0</v>
-      </c>
-      <c r="C14" s="49">
+      <c r="B14" s="52">
+        <v>0</v>
+      </c>
+      <c r="C14" s="52">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="53">
         <v>1400</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="53">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>-1400</v>
       </c>
-      <c r="H14" s="49">
-        <v>0</v>
-      </c>
-      <c r="I14" s="49">
+      <c r="H14" s="55">
+        <v>0</v>
+      </c>
+      <c r="I14" s="55">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1825,33 +1938,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="52">
         <v>1070</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="52">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="49">
-        <v>0</v>
-      </c>
-      <c r="F15" s="49">
+      <c r="E15" s="53">
+        <v>0</v>
+      </c>
+      <c r="F15" s="53">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="49">
-        <v>0</v>
-      </c>
-      <c r="I15" s="49">
+      <c r="H15" s="55">
+        <v>0</v>
+      </c>
+      <c r="I15" s="55">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1860,33 +1973,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="52">
         <v>40</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="52">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="53">
         <v>115</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="53">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="49">
-        <v>0</v>
-      </c>
-      <c r="I16" s="49">
+      <c r="H16" s="55">
+        <v>0</v>
+      </c>
+      <c r="I16" s="55">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -1895,33 +2008,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="49">
-        <v>1980</v>
-      </c>
-      <c r="C17" s="49">
+      <c r="B17" s="52">
+        <v>1610</v>
+      </c>
+      <c r="C17" s="52">
         <v>300</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>-1680</v>
-      </c>
-      <c r="E17" s="49">
-        <v>0</v>
-      </c>
-      <c r="F17" s="49">
+        <v>-1310</v>
+      </c>
+      <c r="E17" s="53">
+        <v>1004</v>
+      </c>
+      <c r="F17" s="53">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="49">
-        <v>0</v>
-      </c>
-      <c r="I17" s="49">
+        <v>-1004</v>
+      </c>
+      <c r="H17" s="55">
+        <v>0</v>
+      </c>
+      <c r="I17" s="55">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -1930,33 +2043,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="49">
-        <v>0</v>
-      </c>
-      <c r="C18" s="49">
+      <c r="B18" s="52">
+        <v>0</v>
+      </c>
+      <c r="C18" s="52">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="53">
         <v>10650</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="53">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="49">
-        <v>0</v>
-      </c>
-      <c r="I18" s="49">
+      <c r="H18" s="55">
+        <v>0</v>
+      </c>
+      <c r="I18" s="55">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -1965,33 +2078,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="49">
-        <v>470</v>
-      </c>
-      <c r="C19" s="49">
+      <c r="B19" s="52">
+        <v>0</v>
+      </c>
+      <c r="C19" s="52">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>-470</v>
-      </c>
-      <c r="E19" s="49">
-        <v>4000</v>
-      </c>
-      <c r="F19" s="49">
-        <v>6894</v>
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53">
+        <v>7823</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>2894</v>
-      </c>
-      <c r="H19" s="49">
-        <v>0</v>
-      </c>
-      <c r="I19" s="49">
+        <v>7823</v>
+      </c>
+      <c r="H19" s="55">
+        <v>0</v>
+      </c>
+      <c r="I19" s="55">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2000,33 +2113,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="52">
         <v>160</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="52">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="49">
-        <v>0</v>
-      </c>
-      <c r="F20" s="49">
+      <c r="E20" s="53">
+        <v>0</v>
+      </c>
+      <c r="F20" s="53">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="49">
-        <v>0</v>
-      </c>
-      <c r="I20" s="49">
+      <c r="H20" s="55">
+        <v>0</v>
+      </c>
+      <c r="I20" s="55">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2035,33 +2148,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="49">
-        <v>0</v>
-      </c>
-      <c r="C21" s="49">
+      <c r="B21" s="52">
+        <v>0</v>
+      </c>
+      <c r="C21" s="52">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="53">
         <v>156</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="53">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="49">
-        <v>0</v>
-      </c>
-      <c r="I21" s="49">
+      <c r="H21" s="55">
+        <v>0</v>
+      </c>
+      <c r="I21" s="55">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2070,33 +2183,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="49">
-        <v>0</v>
-      </c>
-      <c r="C22" s="49">
+      <c r="B22" s="52">
+        <v>0</v>
+      </c>
+      <c r="C22" s="52">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="49">
-        <v>0</v>
-      </c>
-      <c r="F22" s="49">
+      <c r="E22" s="53">
+        <v>0</v>
+      </c>
+      <c r="F22" s="53">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="49">
-        <v>0</v>
-      </c>
-      <c r="I22" s="49">
+      <c r="H22" s="55">
+        <v>0</v>
+      </c>
+      <c r="I22" s="55">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2105,33 +2218,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="49">
-        <v>0</v>
-      </c>
-      <c r="C23" s="49">
+      <c r="B23" s="52">
+        <v>0</v>
+      </c>
+      <c r="C23" s="52">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="49">
-        <v>0</v>
-      </c>
-      <c r="F23" s="49">
+      <c r="E23" s="53">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="55">
         <v>3000</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="55">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2140,33 +2253,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="49">
-        <v>0</v>
-      </c>
-      <c r="C24" s="49">
+      <c r="B24" s="52">
+        <v>0</v>
+      </c>
+      <c r="C24" s="52">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="49">
-        <v>0</v>
-      </c>
-      <c r="F24" s="49">
+      <c r="E24" s="53">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="49">
-        <v>0</v>
-      </c>
-      <c r="I24" s="49">
+      <c r="H24" s="55">
+        <v>0</v>
+      </c>
+      <c r="I24" s="55">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2175,33 +2288,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="49">
-        <v>0</v>
-      </c>
-      <c r="C25" s="49">
+      <c r="B25" s="52">
+        <v>0</v>
+      </c>
+      <c r="C25" s="52">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="49">
-        <v>0</v>
-      </c>
-      <c r="F25" s="49">
+      <c r="E25" s="53">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53">
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="49">
-        <v>0</v>
-      </c>
-      <c r="I25" s="49">
+      <c r="H25" s="55">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2210,33 +2323,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="49">
-        <v>0</v>
-      </c>
-      <c r="C26" s="49">
+      <c r="B26" s="52">
+        <v>0</v>
+      </c>
+      <c r="C26" s="52">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="53">
         <v>656</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="53">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="49">
-        <v>0</v>
-      </c>
-      <c r="I26" s="49">
+      <c r="H26" s="55">
+        <v>0</v>
+      </c>
+      <c r="I26" s="55">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2245,33 +2358,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="49">
-        <v>0</v>
-      </c>
-      <c r="C27" s="49">
+      <c r="B27" s="52">
+        <v>0</v>
+      </c>
+      <c r="C27" s="52">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="53">
         <v>1596</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="53">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="49">
-        <v>0</v>
-      </c>
-      <c r="I27" s="49">
+      <c r="H27" s="55">
+        <v>0</v>
+      </c>
+      <c r="I27" s="55">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2280,33 +2393,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="52">
         <v>300</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="52">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="E28" s="49">
-        <v>0</v>
-      </c>
-      <c r="F28" s="49">
+      <c r="E28" s="53">
+        <v>0</v>
+      </c>
+      <c r="F28" s="53">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="49">
-        <v>0</v>
-      </c>
-      <c r="I28" s="49">
+      <c r="H28" s="55">
+        <v>0</v>
+      </c>
+      <c r="I28" s="55">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2315,33 +2428,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="49">
-        <v>0</v>
-      </c>
-      <c r="C29" s="49">
+      <c r="B29" s="52">
+        <v>0</v>
+      </c>
+      <c r="C29" s="52">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="53">
         <v>6000</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="53">
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>-6000</v>
       </c>
-      <c r="H29" s="49">
-        <v>0</v>
-      </c>
-      <c r="I29" s="49">
+      <c r="H29" s="55">
+        <v>0</v>
+      </c>
+      <c r="I29" s="55">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2350,33 +2463,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="52">
         <v>610</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="52">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="49">
-        <v>0</v>
-      </c>
-      <c r="F30" s="49">
+      <c r="E30" s="53">
+        <v>0</v>
+      </c>
+      <c r="F30" s="53">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="49">
-        <v>0</v>
-      </c>
-      <c r="I30" s="49">
+      <c r="H30" s="55">
+        <v>0</v>
+      </c>
+      <c r="I30" s="55">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2385,33 +2498,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="49">
-        <v>0</v>
-      </c>
-      <c r="C31" s="49">
+      <c r="B31" s="52">
+        <v>0</v>
+      </c>
+      <c r="C31" s="52">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="53">
         <v>600</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="53">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>-600</v>
       </c>
-      <c r="H31" s="49">
-        <v>0</v>
-      </c>
-      <c r="I31" s="49">
+      <c r="H31" s="55">
+        <v>0</v>
+      </c>
+      <c r="I31" s="55">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2420,33 +2533,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="52">
         <v>5600</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="52">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="49">
-        <v>0</v>
-      </c>
-      <c r="F32" s="49">
+      <c r="E32" s="53">
+        <v>0</v>
+      </c>
+      <c r="F32" s="53">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="49">
-        <v>0</v>
-      </c>
-      <c r="I32" s="49">
+      <c r="H32" s="55">
+        <v>0</v>
+      </c>
+      <c r="I32" s="55">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2455,33 +2568,33 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="49">
-        <v>0</v>
-      </c>
-      <c r="C33" s="49">
+      <c r="B33" s="52">
+        <v>0</v>
+      </c>
+      <c r="C33" s="52">
         <v>2114</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>2114</v>
       </c>
-      <c r="E33" s="49">
-        <v>3641</v>
-      </c>
-      <c r="F33" s="49">
+      <c r="E33" s="53">
+        <v>6364</v>
+      </c>
+      <c r="F33" s="53">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>-3641</v>
-      </c>
-      <c r="H33" s="49">
-        <v>0</v>
-      </c>
-      <c r="I33" s="49">
+        <v>-6364</v>
+      </c>
+      <c r="H33" s="55">
+        <v>0</v>
+      </c>
+      <c r="I33" s="55">
         <v>0</v>
       </c>
       <c r="J33" s="6">
@@ -2490,33 +2603,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="52">
         <v>15</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="52">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="53">
         <v>5600</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="53">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="49">
-        <v>0</v>
-      </c>
-      <c r="I34" s="49">
+      <c r="H34" s="55">
+        <v>0</v>
+      </c>
+      <c r="I34" s="55">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2525,33 +2638,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="49">
-        <v>0</v>
-      </c>
-      <c r="C35" s="49">
+      <c r="B35" s="52">
+        <v>0</v>
+      </c>
+      <c r="C35" s="52">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="53">
         <v>10</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="53">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="49">
-        <v>0</v>
-      </c>
-      <c r="I35" s="49">
+      <c r="H35" s="55">
+        <v>0</v>
+      </c>
+      <c r="I35" s="55">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2560,33 +2673,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="49">
-        <v>0</v>
-      </c>
-      <c r="C36" s="49">
+      <c r="A36" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="52">
+        <v>0</v>
+      </c>
+      <c r="C36" s="52">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="49">
-        <v>0</v>
-      </c>
-      <c r="F36" s="49">
+      <c r="E36" s="53">
+        <v>0</v>
+      </c>
+      <c r="F36" s="53">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="49">
-        <v>0</v>
-      </c>
-      <c r="I36" s="49">
+      <c r="H36" s="55">
+        <v>0</v>
+      </c>
+      <c r="I36" s="55">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2595,33 +2708,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="49">
-        <v>0</v>
-      </c>
-      <c r="C37" s="49">
+      <c r="A37" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="52">
+        <v>0</v>
+      </c>
+      <c r="C37" s="52">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="49">
-        <v>0</v>
-      </c>
-      <c r="F37" s="49">
-        <v>2793</v>
+      <c r="E37" s="53">
+        <v>0</v>
+      </c>
+      <c r="F37" s="53">
+        <v>2376</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
-        <v>2793</v>
-      </c>
-      <c r="H37" s="49">
-        <v>0</v>
-      </c>
-      <c r="I37" s="49">
+        <v>2376</v>
+      </c>
+      <c r="H37" s="55">
+        <v>0</v>
+      </c>
+      <c r="I37" s="55">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2630,33 +2743,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="52">
         <v>20</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="52">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="49">
-        <v>0</v>
-      </c>
-      <c r="F38" s="49">
+      <c r="E38" s="53">
+        <v>0</v>
+      </c>
+      <c r="F38" s="53">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="49">
-        <v>0</v>
-      </c>
-      <c r="I38" s="49">
+      <c r="H38" s="55">
+        <v>0</v>
+      </c>
+      <c r="I38" s="55">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2665,33 +2778,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="49">
-        <v>0</v>
-      </c>
-      <c r="C39" s="49">
+      <c r="A39" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="52">
+        <v>0</v>
+      </c>
+      <c r="C39" s="52">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="49">
-        <v>0</v>
-      </c>
-      <c r="F39" s="49">
+      <c r="E39" s="53">
+        <v>270</v>
+      </c>
+      <c r="F39" s="53">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="49">
-        <v>0</v>
-      </c>
-      <c r="I39" s="49">
+        <v>-270</v>
+      </c>
+      <c r="H39" s="55">
+        <v>0</v>
+      </c>
+      <c r="I39" s="55">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2700,33 +2813,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="49">
-        <v>0</v>
-      </c>
-      <c r="C40" s="49">
+      <c r="B40" s="52">
+        <v>0</v>
+      </c>
+      <c r="C40" s="52">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="49">
-        <v>0</v>
-      </c>
-      <c r="F40" s="49">
+      <c r="E40" s="53">
+        <v>0</v>
+      </c>
+      <c r="F40" s="53">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="49">
-        <v>0</v>
-      </c>
-      <c r="I40" s="49">
+      <c r="H40" s="55">
+        <v>0</v>
+      </c>
+      <c r="I40" s="55">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2735,33 +2848,33 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="49">
-        <v>0</v>
-      </c>
-      <c r="C41" s="49">
+      <c r="B41" s="52">
+        <v>0</v>
+      </c>
+      <c r="C41" s="52">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="49">
-        <v>4527</v>
-      </c>
-      <c r="F41" s="49">
+      <c r="E41" s="53">
+        <v>3934</v>
+      </c>
+      <c r="F41" s="53">
         <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>-4527</v>
-      </c>
-      <c r="H41" s="49">
-        <v>0</v>
-      </c>
-      <c r="I41" s="49">
+        <v>-3934</v>
+      </c>
+      <c r="H41" s="55">
+        <v>0</v>
+      </c>
+      <c r="I41" s="55">
         <v>0</v>
       </c>
       <c r="J41" s="6">
@@ -2770,33 +2883,33 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="49">
-        <v>0</v>
-      </c>
-      <c r="C42" s="49">
+      <c r="B42" s="52">
+        <v>0</v>
+      </c>
+      <c r="C42" s="52">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="49">
-        <v>0</v>
-      </c>
-      <c r="F42" s="49">
+      <c r="E42" s="53">
+        <v>0</v>
+      </c>
+      <c r="F42" s="53">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="49">
-        <v>0</v>
-      </c>
-      <c r="I42" s="49">
+      <c r="H42" s="55">
+        <v>0</v>
+      </c>
+      <c r="I42" s="55">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2805,33 +2918,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="49">
-        <v>0</v>
-      </c>
-      <c r="C43" s="49">
+      <c r="B43" s="52">
+        <v>0</v>
+      </c>
+      <c r="C43" s="52">
         <v>300</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E43" s="49">
-        <v>0</v>
-      </c>
-      <c r="F43" s="49">
+      <c r="E43" s="53">
+        <v>0</v>
+      </c>
+      <c r="F43" s="53">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="49">
-        <v>0</v>
-      </c>
-      <c r="I43" s="49">
+      <c r="H43" s="55">
+        <v>0</v>
+      </c>
+      <c r="I43" s="55">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2840,33 +2953,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="49">
-        <v>0</v>
-      </c>
-      <c r="C44" s="49">
+      <c r="B44" s="52">
+        <v>0</v>
+      </c>
+      <c r="C44" s="52">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="53">
         <v>60</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="53">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="49">
-        <v>0</v>
-      </c>
-      <c r="I44" s="49">
+      <c r="H44" s="55">
+        <v>0</v>
+      </c>
+      <c r="I44" s="55">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -2875,33 +2988,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="49">
+      <c r="A45" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="52">
         <v>95</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="52">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>-95</v>
       </c>
-      <c r="E45" s="49">
-        <v>0</v>
-      </c>
-      <c r="F45" s="49">
+      <c r="E45" s="53">
+        <v>0</v>
+      </c>
+      <c r="F45" s="53">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="49">
-        <v>0</v>
-      </c>
-      <c r="I45" s="49">
+      <c r="H45" s="55">
+        <v>0</v>
+      </c>
+      <c r="I45" s="55">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -2910,33 +3023,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="49">
-        <v>0</v>
-      </c>
-      <c r="C46" s="49">
+      <c r="B46" s="52">
+        <v>0</v>
+      </c>
+      <c r="C46" s="52">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="53">
         <v>10</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="53">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="49">
-        <v>0</v>
-      </c>
-      <c r="I46" s="49">
+      <c r="H46" s="55">
+        <v>0</v>
+      </c>
+      <c r="I46" s="55">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -2945,33 +3058,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="49">
-        <v>0</v>
-      </c>
-      <c r="C47" s="49">
+      <c r="B47" s="52">
+        <v>0</v>
+      </c>
+      <c r="C47" s="52">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="53">
         <v>250</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="53">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="49">
-        <v>0</v>
-      </c>
-      <c r="I47" s="49">
+      <c r="H47" s="55">
+        <v>0</v>
+      </c>
+      <c r="I47" s="55">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -2980,33 +3093,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="49">
-        <v>0</v>
-      </c>
-      <c r="C48" s="49">
+      <c r="B48" s="52">
+        <v>0</v>
+      </c>
+      <c r="C48" s="52">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="53">
         <v>2419</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="53">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>-2419</v>
       </c>
-      <c r="H48" s="49">
-        <v>0</v>
-      </c>
-      <c r="I48" s="49">
+      <c r="H48" s="55">
+        <v>0</v>
+      </c>
+      <c r="I48" s="55">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3015,33 +3128,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="52">
         <v>74</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="52">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="49">
+      <c r="E49" s="53">
+        <v>0</v>
+      </c>
+      <c r="F49" s="53">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="49">
-        <v>0</v>
-      </c>
-      <c r="I49" s="49">
+      <c r="H49" s="55">
+        <v>0</v>
+      </c>
+      <c r="I49" s="55">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3050,33 +3163,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="49">
-        <v>0</v>
-      </c>
-      <c r="C50" s="49">
+      <c r="A50" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="52">
+        <v>0</v>
+      </c>
+      <c r="C50" s="52">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="53">
         <v>128</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="53">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
         <v>-128</v>
       </c>
-      <c r="H50" s="49">
-        <v>0</v>
-      </c>
-      <c r="I50" s="49">
+      <c r="H50" s="55">
+        <v>0</v>
+      </c>
+      <c r="I50" s="55">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3085,33 +3198,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="49">
-        <v>0</v>
-      </c>
-      <c r="C51" s="49">
+      <c r="B51" s="52">
+        <v>0</v>
+      </c>
+      <c r="C51" s="52">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="53">
         <v>300</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="53">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="49">
-        <v>0</v>
-      </c>
-      <c r="I51" s="49">
+      <c r="H51" s="55">
+        <v>0</v>
+      </c>
+      <c r="I51" s="55">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3120,33 +3233,33 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="49">
+      <c r="B52" s="52">
         <v>250</v>
       </c>
-      <c r="C52" s="49">
+      <c r="C52" s="52">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="49">
-        <v>0</v>
-      </c>
-      <c r="F52" s="49">
+      <c r="E52" s="53">
+        <v>0</v>
+      </c>
+      <c r="F52" s="53">
         <v>0</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52" s="49">
-        <v>0</v>
-      </c>
-      <c r="I52" s="49">
+      <c r="H52" s="55">
+        <v>0</v>
+      </c>
+      <c r="I52" s="55">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3155,68 +3268,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="49">
-        <v>0</v>
-      </c>
-      <c r="C53" s="49">
+      <c r="B53" s="52">
+        <v>0</v>
+      </c>
+      <c r="C53" s="52">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="49">
-        <v>26431</v>
-      </c>
-      <c r="F53" s="49">
+      <c r="E53" s="53">
+        <v>18991</v>
+      </c>
+      <c r="F53" s="53">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-26431</v>
-      </c>
-      <c r="H53" s="49">
-        <v>6714</v>
-      </c>
-      <c r="I53" s="49">
+        <v>-18991</v>
+      </c>
+      <c r="H53" s="55">
+        <v>7549</v>
+      </c>
+      <c r="I53" s="55">
         <v>0</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>-6714</v>
+        <v>-7549</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="49">
-        <v>0</v>
-      </c>
-      <c r="C54" s="49">
+      <c r="A54" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="52">
+        <v>0</v>
+      </c>
+      <c r="C54" s="52">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="49">
-        <v>0</v>
-      </c>
-      <c r="F54" s="49">
+      <c r="E54" s="53">
+        <v>0</v>
+      </c>
+      <c r="F54" s="53">
         <v>0</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="49">
-        <v>0</v>
-      </c>
-      <c r="I54" s="49">
+      <c r="H54" s="55">
+        <v>0</v>
+      </c>
+      <c r="I54" s="55">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3225,33 +3338,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="52">
         <v>14</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55" s="52">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="49">
-        <v>0</v>
-      </c>
-      <c r="F55" s="49">
+      <c r="E55" s="53">
+        <v>0</v>
+      </c>
+      <c r="F55" s="53">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="49">
-        <v>0</v>
-      </c>
-      <c r="I55" s="49">
+      <c r="H55" s="55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="55">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3260,33 +3373,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="49">
-        <v>0</v>
-      </c>
-      <c r="C56" s="49">
+      <c r="A56" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="52">
+        <v>0</v>
+      </c>
+      <c r="C56" s="52">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="53">
         <v>548</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="53">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
         <v>-548</v>
       </c>
-      <c r="H56" s="49">
-        <v>0</v>
-      </c>
-      <c r="I56" s="49">
+      <c r="H56" s="55">
+        <v>0</v>
+      </c>
+      <c r="I56" s="55">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3295,33 +3408,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="49">
-        <v>0</v>
-      </c>
-      <c r="C57" s="49">
+      <c r="B57" s="52">
+        <v>0</v>
+      </c>
+      <c r="C57" s="52">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="53">
         <v>10</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="53">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="49">
-        <v>0</v>
-      </c>
-      <c r="I57" s="49">
+      <c r="H57" s="55">
+        <v>0</v>
+      </c>
+      <c r="I57" s="55">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3330,33 +3443,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="49">
+      <c r="A58" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="52">
         <v>625</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="52">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
         <v>-625</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="53">
         <v>2522</v>
       </c>
-      <c r="F58" s="49">
+      <c r="F58" s="53">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="49">
-        <v>0</v>
-      </c>
-      <c r="I58" s="49">
+      <c r="H58" s="55">
+        <v>0</v>
+      </c>
+      <c r="I58" s="55">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3365,33 +3478,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="49">
-        <v>0</v>
-      </c>
-      <c r="C59" s="49">
+      <c r="B59" s="52">
+        <v>0</v>
+      </c>
+      <c r="C59" s="52">
         <v>0</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E59" s="49">
-        <v>1569</v>
-      </c>
-      <c r="F59" s="49">
+      <c r="E59" s="53">
+        <v>18143</v>
+      </c>
+      <c r="F59" s="53">
         <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>-1569</v>
-      </c>
-      <c r="H59" s="49">
-        <v>0</v>
-      </c>
-      <c r="I59" s="49">
+        <v>-18143</v>
+      </c>
+      <c r="H59" s="55">
+        <v>0</v>
+      </c>
+      <c r="I59" s="55">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3400,33 +3513,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="49">
-        <v>0</v>
-      </c>
-      <c r="C60" s="49">
+      <c r="B60" s="52">
+        <v>0</v>
+      </c>
+      <c r="C60" s="52">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="53">
         <v>165</v>
       </c>
-      <c r="F60" s="49">
+      <c r="F60" s="53">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
         <v>-165</v>
       </c>
-      <c r="H60" s="49">
-        <v>0</v>
-      </c>
-      <c r="I60" s="49">
+      <c r="H60" s="55">
+        <v>0</v>
+      </c>
+      <c r="I60" s="55">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3435,33 +3548,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="49">
-        <v>0</v>
-      </c>
-      <c r="C61" s="49">
-        <v>4420</v>
+      <c r="B61" s="52">
+        <v>0</v>
+      </c>
+      <c r="C61" s="52">
+        <v>4707</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
-        <v>4420</v>
-      </c>
-      <c r="E61" s="49">
-        <v>0</v>
-      </c>
-      <c r="F61" s="49">
+        <v>4707</v>
+      </c>
+      <c r="E61" s="53">
+        <v>0</v>
+      </c>
+      <c r="F61" s="53">
         <v>0</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H61" s="49">
-        <v>0</v>
-      </c>
-      <c r="I61" s="49">
+      <c r="H61" s="55">
+        <v>0</v>
+      </c>
+      <c r="I61" s="55">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3470,33 +3583,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="52">
         <v>389</v>
       </c>
-      <c r="C62" s="49">
+      <c r="C62" s="52">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="49">
-        <v>0</v>
-      </c>
-      <c r="F62" s="49">
+      <c r="E62" s="53">
+        <v>0</v>
+      </c>
+      <c r="F62" s="53">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="49">
-        <v>0</v>
-      </c>
-      <c r="I62" s="49">
+      <c r="H62" s="55">
+        <v>0</v>
+      </c>
+      <c r="I62" s="55">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3505,33 +3618,33 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="49">
-        <v>0</v>
-      </c>
-      <c r="C63" s="49">
+      <c r="B63" s="52">
+        <v>0</v>
+      </c>
+      <c r="C63" s="52">
         <v>0</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E63" s="49">
-        <v>0</v>
-      </c>
-      <c r="F63" s="49">
+      <c r="E63" s="53">
+        <v>0</v>
+      </c>
+      <c r="F63" s="53">
         <v>500</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H63" s="49">
-        <v>0</v>
-      </c>
-      <c r="I63" s="49">
+      <c r="H63" s="55">
+        <v>0</v>
+      </c>
+      <c r="I63" s="55">
         <v>120</v>
       </c>
       <c r="J63" s="6">
@@ -3540,33 +3653,33 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="49">
-        <v>0</v>
-      </c>
-      <c r="C64" s="49">
+      <c r="B64" s="52">
+        <v>0</v>
+      </c>
+      <c r="C64" s="52">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="53">
         <v>200</v>
       </c>
-      <c r="F64" s="49">
+      <c r="F64" s="53">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="49">
-        <v>0</v>
-      </c>
-      <c r="I64" s="49">
+      <c r="H64" s="55">
+        <v>0</v>
+      </c>
+      <c r="I64" s="55">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3575,33 +3688,33 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="49">
-        <v>0</v>
-      </c>
-      <c r="C65" s="49">
+      <c r="B65" s="52">
+        <v>0</v>
+      </c>
+      <c r="C65" s="52">
         <v>0</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="49">
-        <v>0</v>
-      </c>
-      <c r="F65" s="49">
+      <c r="E65" s="53">
+        <v>0</v>
+      </c>
+      <c r="F65" s="53">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="49">
+      <c r="H65" s="55">
         <v>2525</v>
       </c>
-      <c r="I65" s="49">
+      <c r="I65" s="55">
         <v>0</v>
       </c>
       <c r="J65" s="6">
@@ -3610,33 +3723,33 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="49">
-        <v>0</v>
-      </c>
-      <c r="C66" s="49">
+      <c r="B66" s="52">
+        <v>0</v>
+      </c>
+      <c r="C66" s="52">
         <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="49">
-        <v>0</v>
-      </c>
-      <c r="F66" s="49">
-        <v>1239</v>
+      <c r="E66" s="53">
+        <v>0</v>
+      </c>
+      <c r="F66" s="53">
+        <v>1242</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
-        <v>1239</v>
-      </c>
-      <c r="H66" s="49">
-        <v>0</v>
-      </c>
-      <c r="I66" s="49">
+        <v>1242</v>
+      </c>
+      <c r="H66" s="55">
+        <v>0</v>
+      </c>
+      <c r="I66" s="55">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3645,33 +3758,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="49">
-        <v>0</v>
-      </c>
-      <c r="C67" s="49">
+      <c r="B67" s="52">
+        <v>0</v>
+      </c>
+      <c r="C67" s="52">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="49">
-        <v>64665</v>
-      </c>
-      <c r="F67" s="49">
+      <c r="E67" s="53">
+        <v>38529</v>
+      </c>
+      <c r="F67" s="53">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>-64665</v>
-      </c>
-      <c r="H67" s="49">
-        <v>0</v>
-      </c>
-      <c r="I67" s="49">
+        <v>-38529</v>
+      </c>
+      <c r="H67" s="55">
+        <v>0</v>
+      </c>
+      <c r="I67" s="55">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3680,33 +3793,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="49">
-        <v>0</v>
-      </c>
-      <c r="C68" s="49">
+      <c r="B68" s="52">
+        <v>0</v>
+      </c>
+      <c r="C68" s="52">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="53">
         <v>16</v>
       </c>
-      <c r="F68" s="49">
+      <c r="F68" s="53">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="49">
-        <v>0</v>
-      </c>
-      <c r="I68" s="49">
+      <c r="H68" s="55">
+        <v>0</v>
+      </c>
+      <c r="I68" s="55">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3715,33 +3828,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" s="49">
-        <v>0</v>
-      </c>
-      <c r="C69" s="49">
+      <c r="A69" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="52">
+        <v>0</v>
+      </c>
+      <c r="C69" s="52">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="49">
-        <v>0</v>
-      </c>
-      <c r="F69" s="49">
-        <v>940</v>
+      <c r="E69" s="53">
+        <v>0</v>
+      </c>
+      <c r="F69" s="53">
+        <v>1285</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
-        <v>940</v>
-      </c>
-      <c r="H69" s="49">
-        <v>0</v>
-      </c>
-      <c r="I69" s="49">
+        <v>1285</v>
+      </c>
+      <c r="H69" s="55">
+        <v>0</v>
+      </c>
+      <c r="I69" s="55">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3750,33 +3863,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="49">
-        <v>0</v>
-      </c>
-      <c r="C70" s="49">
+      <c r="B70" s="52">
+        <v>0</v>
+      </c>
+      <c r="C70" s="52">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="49">
+      <c r="E70" s="53">
         <v>146</v>
       </c>
-      <c r="F70" s="49">
+      <c r="F70" s="53">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="49">
-        <v>0</v>
-      </c>
-      <c r="I70" s="49">
+      <c r="H70" s="55">
+        <v>0</v>
+      </c>
+      <c r="I70" s="55">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3785,33 +3898,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="49">
-        <v>0</v>
-      </c>
-      <c r="C71" s="49">
+      <c r="A71" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="52">
+        <v>0</v>
+      </c>
+      <c r="C71" s="52">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="49">
-        <v>0</v>
-      </c>
-      <c r="F71" s="49">
-        <v>48</v>
+      <c r="E71" s="53">
+        <v>0</v>
+      </c>
+      <c r="F71" s="53">
+        <v>0</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="H71" s="49">
-        <v>0</v>
-      </c>
-      <c r="I71" s="49">
+        <v>0</v>
+      </c>
+      <c r="H71" s="55">
+        <v>0</v>
+      </c>
+      <c r="I71" s="55">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3820,33 +3933,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="52">
         <v>100</v>
       </c>
-      <c r="C72" s="49">
+      <c r="C72" s="52">
         <v>1270</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
         <v>1170</v>
       </c>
-      <c r="E72" s="49">
-        <v>0</v>
-      </c>
-      <c r="F72" s="49">
+      <c r="E72" s="53">
+        <v>0</v>
+      </c>
+      <c r="F72" s="53">
         <v>0</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H72" s="49">
-        <v>0</v>
-      </c>
-      <c r="I72" s="49">
+      <c r="H72" s="55">
+        <v>0</v>
+      </c>
+      <c r="I72" s="55">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -3855,33 +3968,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="49">
-        <v>0</v>
-      </c>
-      <c r="C73" s="49">
+      <c r="B73" s="52">
+        <v>0</v>
+      </c>
+      <c r="C73" s="52">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E73" s="53">
         <v>12813</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F73" s="53">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
         <v>-12813</v>
       </c>
-      <c r="H73" s="49">
-        <v>0</v>
-      </c>
-      <c r="I73" s="49">
+      <c r="H73" s="55">
+        <v>0</v>
+      </c>
+      <c r="I73" s="55">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -3890,33 +4003,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="49">
-        <v>0</v>
-      </c>
-      <c r="C74" s="49">
+      <c r="B74" s="52">
+        <v>0</v>
+      </c>
+      <c r="C74" s="52">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="49">
+      <c r="E74" s="53">
         <v>22000</v>
       </c>
-      <c r="F74" s="49">
+      <c r="F74" s="53">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
         <v>-22000</v>
       </c>
-      <c r="H74" s="49">
-        <v>0</v>
-      </c>
-      <c r="I74" s="49">
+      <c r="H74" s="55">
+        <v>0</v>
+      </c>
+      <c r="I74" s="55">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -3925,33 +4038,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="49">
+      <c r="B75" s="52">
         <v>200</v>
       </c>
-      <c r="C75" s="49">
+      <c r="C75" s="52">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="49">
-        <v>0</v>
-      </c>
-      <c r="F75" s="49">
+      <c r="E75" s="53">
+        <v>0</v>
+      </c>
+      <c r="F75" s="53">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="49">
-        <v>0</v>
-      </c>
-      <c r="I75" s="49">
+      <c r="H75" s="55">
+        <v>0</v>
+      </c>
+      <c r="I75" s="55">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -3960,33 +4073,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="49">
-        <v>0</v>
-      </c>
-      <c r="C76" s="49">
+      <c r="B76" s="52">
+        <v>0</v>
+      </c>
+      <c r="C76" s="52">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="49">
-        <v>3680</v>
-      </c>
-      <c r="F76" s="49">
+      <c r="E76" s="53">
+        <v>3302</v>
+      </c>
+      <c r="F76" s="53">
         <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-3680</v>
-      </c>
-      <c r="H76" s="49">
-        <v>0</v>
-      </c>
-      <c r="I76" s="49">
+        <v>-3302</v>
+      </c>
+      <c r="H76" s="55">
+        <v>0</v>
+      </c>
+      <c r="I76" s="55">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -3995,33 +4108,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="49">
-        <v>0</v>
-      </c>
-      <c r="C77" s="49">
+      <c r="B77" s="52">
+        <v>0</v>
+      </c>
+      <c r="C77" s="52">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E77" s="53">
         <v>133</v>
       </c>
-      <c r="F77" s="49">
+      <c r="F77" s="53">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
         <v>-133</v>
       </c>
-      <c r="H77" s="49">
-        <v>0</v>
-      </c>
-      <c r="I77" s="49">
+      <c r="H77" s="55">
+        <v>0</v>
+      </c>
+      <c r="I77" s="55">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4030,33 +4143,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="49">
-        <v>0</v>
-      </c>
-      <c r="C78" s="49">
+      <c r="B78" s="52">
+        <v>0</v>
+      </c>
+      <c r="C78" s="52">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="49">
+      <c r="E78" s="53">
         <v>12853</v>
       </c>
-      <c r="F78" s="49">
+      <c r="F78" s="53">
         <v>10000</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
         <v>-2853</v>
       </c>
-      <c r="H78" s="49">
-        <v>0</v>
-      </c>
-      <c r="I78" s="49">
+      <c r="H78" s="55">
+        <v>0</v>
+      </c>
+      <c r="I78" s="55">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4065,33 +4178,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="49">
+      <c r="A79" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="52">
         <v>150</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="52">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="49">
-        <v>0</v>
-      </c>
-      <c r="F79" s="49">
+      <c r="E79" s="53">
+        <v>0</v>
+      </c>
+      <c r="F79" s="53">
         <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H79" s="49">
-        <v>0</v>
-      </c>
-      <c r="I79" s="49">
+      <c r="H79" s="55">
+        <v>0</v>
+      </c>
+      <c r="I79" s="55">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4100,33 +4213,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="49">
-        <v>0</v>
-      </c>
-      <c r="C80" s="49">
+      <c r="B80" s="52">
+        <v>0</v>
+      </c>
+      <c r="C80" s="52">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="49">
-        <v>0</v>
-      </c>
-      <c r="F80" s="49">
+      <c r="E80" s="53">
+        <v>0</v>
+      </c>
+      <c r="F80" s="53">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="49">
-        <v>0</v>
-      </c>
-      <c r="I80" s="49">
+      <c r="H80" s="55">
+        <v>0</v>
+      </c>
+      <c r="I80" s="55">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4135,33 +4248,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="49">
-        <v>0</v>
-      </c>
-      <c r="C81" s="49">
+      <c r="B81" s="52">
+        <v>0</v>
+      </c>
+      <c r="C81" s="52">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="49">
-        <v>0</v>
-      </c>
-      <c r="F81" s="49">
+      <c r="E81" s="53">
+        <v>0</v>
+      </c>
+      <c r="F81" s="53">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="49">
-        <v>0</v>
-      </c>
-      <c r="I81" s="49">
+      <c r="H81" s="55">
+        <v>0</v>
+      </c>
+      <c r="I81" s="55">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4170,33 +4283,33 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="49">
-        <v>0</v>
-      </c>
-      <c r="C82" s="49">
+      <c r="B82" s="52">
+        <v>0</v>
+      </c>
+      <c r="C82" s="52">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="49">
-        <v>0</v>
-      </c>
-      <c r="F82" s="49">
-        <v>3036</v>
+      <c r="E82" s="53">
+        <v>2211</v>
+      </c>
+      <c r="F82" s="53">
+        <v>0</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>3036</v>
-      </c>
-      <c r="H82" s="49">
-        <v>0</v>
-      </c>
-      <c r="I82" s="49">
+        <v>-2211</v>
+      </c>
+      <c r="H82" s="55">
+        <v>0</v>
+      </c>
+      <c r="I82" s="55">
         <v>0</v>
       </c>
       <c r="J82" s="6">
@@ -4205,33 +4318,33 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B83" s="49">
-        <v>0</v>
-      </c>
-      <c r="C83" s="49">
+      <c r="A83" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="52">
+        <v>0</v>
+      </c>
+      <c r="C83" s="52">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E83" s="53">
         <v>1502</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="53">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
         <v>-1502</v>
       </c>
-      <c r="H83" s="49">
-        <v>0</v>
-      </c>
-      <c r="I83" s="49">
+      <c r="H83" s="55">
+        <v>0</v>
+      </c>
+      <c r="I83" s="55">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4240,33 +4353,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B84" s="49">
-        <v>0</v>
-      </c>
-      <c r="C84" s="49">
+      <c r="A84" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="52">
+        <v>0</v>
+      </c>
+      <c r="C84" s="52">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="49">
+      <c r="E84" s="53">
         <v>312</v>
       </c>
-      <c r="F84" s="49">
+      <c r="F84" s="53">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
         <v>-312</v>
       </c>
-      <c r="H84" s="49">
-        <v>0</v>
-      </c>
-      <c r="I84" s="49">
+      <c r="H84" s="55">
+        <v>0</v>
+      </c>
+      <c r="I84" s="55">
         <v>0</v>
       </c>
       <c r="J84" s="6">
@@ -4275,33 +4388,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="49">
+      <c r="B85" s="52">
         <v>95</v>
       </c>
-      <c r="C85" s="49">
+      <c r="C85" s="52">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="53">
         <v>200</v>
       </c>
-      <c r="F85" s="49">
+      <c r="F85" s="53">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="49">
-        <v>0</v>
-      </c>
-      <c r="I85" s="49">
+      <c r="H85" s="55">
+        <v>0</v>
+      </c>
+      <c r="I85" s="55">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4310,33 +4423,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="49">
-        <v>0</v>
-      </c>
-      <c r="C86" s="49">
+      <c r="B86" s="52">
+        <v>0</v>
+      </c>
+      <c r="C86" s="52">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="49">
-        <v>0</v>
-      </c>
-      <c r="F86" s="49">
+      <c r="E86" s="53">
+        <v>0</v>
+      </c>
+      <c r="F86" s="53">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="49">
-        <v>0</v>
-      </c>
-      <c r="I86" s="49">
+      <c r="H86" s="55">
+        <v>0</v>
+      </c>
+      <c r="I86" s="55">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4345,33 +4458,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="49">
-        <v>0</v>
-      </c>
-      <c r="C87" s="49">
+      <c r="B87" s="52">
+        <v>0</v>
+      </c>
+      <c r="C87" s="52">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="49">
-        <v>6533</v>
-      </c>
-      <c r="F87" s="49">
+      <c r="E87" s="53">
+        <v>4937</v>
+      </c>
+      <c r="F87" s="53">
         <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
-        <v>-6533</v>
-      </c>
-      <c r="H87" s="49">
-        <v>0</v>
-      </c>
-      <c r="I87" s="49">
+        <v>-4937</v>
+      </c>
+      <c r="H87" s="55">
+        <v>0</v>
+      </c>
+      <c r="I87" s="55">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4380,33 +4493,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="49">
-        <v>0</v>
-      </c>
-      <c r="C88" s="49">
+      <c r="B88" s="52">
+        <v>0</v>
+      </c>
+      <c r="C88" s="52">
         <v>1800</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="E88" s="49">
-        <v>0</v>
-      </c>
-      <c r="F88" s="49">
+      <c r="E88" s="53">
+        <v>0</v>
+      </c>
+      <c r="F88" s="53">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="49">
-        <v>0</v>
-      </c>
-      <c r="I88" s="49">
+      <c r="H88" s="55">
+        <v>0</v>
+      </c>
+      <c r="I88" s="55">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4415,33 +4528,33 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" s="49">
-        <v>0</v>
-      </c>
-      <c r="C89" s="49">
+      <c r="A89" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="52">
+        <v>0</v>
+      </c>
+      <c r="C89" s="52">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="49">
+      <c r="E89" s="53">
         <v>208</v>
       </c>
-      <c r="F89" s="49">
+      <c r="F89" s="53">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
         <v>-208</v>
       </c>
-      <c r="H89" s="49">
+      <c r="H89" s="55">
         <v>358</v>
       </c>
-      <c r="I89" s="49">
+      <c r="I89" s="55">
         <v>0</v>
       </c>
       <c r="J89" s="6">
@@ -4450,33 +4563,33 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="49">
-        <v>0</v>
-      </c>
-      <c r="C90" s="49">
+      <c r="B90" s="52">
+        <v>0</v>
+      </c>
+      <c r="C90" s="52">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="49">
+      <c r="E90" s="53">
         <v>12662</v>
       </c>
-      <c r="F90" s="49">
+      <c r="F90" s="53">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="49">
-        <v>0</v>
-      </c>
-      <c r="I90" s="49">
+      <c r="H90" s="55">
+        <v>0</v>
+      </c>
+      <c r="I90" s="55">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4485,31 +4598,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="49">
-        <v>0</v>
-      </c>
-      <c r="C91" s="49">
+      <c r="A91" s="33"/>
+      <c r="B91" s="52">
+        <v>0</v>
+      </c>
+      <c r="C91" s="52">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="49">
-        <v>0</v>
-      </c>
-      <c r="F91" s="49">
+      <c r="E91" s="53">
+        <v>0</v>
+      </c>
+      <c r="F91" s="53">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="49">
-        <v>0</v>
-      </c>
-      <c r="I91" s="49">
+      <c r="H91" s="55">
+        <v>0</v>
+      </c>
+      <c r="I91" s="55">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4518,33 +4631,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="49">
-        <v>0</v>
-      </c>
-      <c r="C92" s="49">
+      <c r="A92" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="52">
+        <v>0</v>
+      </c>
+      <c r="C92" s="52">
         <v>200</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="E92" s="49">
-        <v>0</v>
-      </c>
-      <c r="F92" s="49">
+      <c r="E92" s="53">
+        <v>0</v>
+      </c>
+      <c r="F92" s="53">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="49">
-        <v>0</v>
-      </c>
-      <c r="I92" s="49">
+      <c r="H92" s="55">
+        <v>0</v>
+      </c>
+      <c r="I92" s="55">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4553,33 +4666,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="49">
-        <v>0</v>
-      </c>
-      <c r="C93" s="49">
-        <v>3000</v>
+      <c r="B93" s="52">
+        <v>0</v>
+      </c>
+      <c r="C93" s="52">
+        <v>2850</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="E93" s="49">
-        <v>0</v>
-      </c>
-      <c r="F93" s="49">
+        <v>2850</v>
+      </c>
+      <c r="E93" s="53">
+        <v>0</v>
+      </c>
+      <c r="F93" s="53">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="49">
-        <v>0</v>
-      </c>
-      <c r="I93" s="49">
+      <c r="H93" s="55">
+        <v>0</v>
+      </c>
+      <c r="I93" s="55">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4588,33 +4701,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B94" s="49">
+      <c r="B94" s="52">
         <v>7</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="52">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="49">
-        <v>0</v>
-      </c>
-      <c r="F94" s="49">
+      <c r="E94" s="53">
+        <v>0</v>
+      </c>
+      <c r="F94" s="53">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="49">
-        <v>0</v>
-      </c>
-      <c r="I94" s="49">
+      <c r="H94" s="55">
+        <v>0</v>
+      </c>
+      <c r="I94" s="55">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4623,33 +4736,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="49">
-        <v>0</v>
-      </c>
-      <c r="C95" s="49">
+      <c r="B95" s="52">
+        <v>0</v>
+      </c>
+      <c r="C95" s="52">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="49">
+      <c r="E95" s="53">
         <v>21</v>
       </c>
-      <c r="F95" s="49">
+      <c r="F95" s="53">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="49">
-        <v>0</v>
-      </c>
-      <c r="I95" s="49">
+      <c r="H95" s="55">
+        <v>0</v>
+      </c>
+      <c r="I95" s="55">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4658,33 +4771,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B96" s="49">
-        <v>0</v>
-      </c>
-      <c r="C96" s="49">
+      <c r="B96" s="52">
+        <v>0</v>
+      </c>
+      <c r="C96" s="52">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="49">
+      <c r="E96" s="53">
         <v>15225</v>
       </c>
-      <c r="F96" s="49">
-        <v>5281</v>
+      <c r="F96" s="53">
+        <v>7976</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
-        <v>-9944</v>
-      </c>
-      <c r="H96" s="49">
-        <v>0</v>
-      </c>
-      <c r="I96" s="49">
+        <v>-7249</v>
+      </c>
+      <c r="H96" s="55">
+        <v>0</v>
+      </c>
+      <c r="I96" s="55">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4693,33 +4806,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="49">
-        <v>0</v>
-      </c>
-      <c r="C97" s="49">
+      <c r="B97" s="52">
+        <v>0</v>
+      </c>
+      <c r="C97" s="52">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="49">
+      <c r="E97" s="53">
         <v>250</v>
       </c>
-      <c r="F97" s="49">
+      <c r="F97" s="53">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
         <v>-250</v>
       </c>
-      <c r="H97" s="49">
-        <v>0</v>
-      </c>
-      <c r="I97" s="49">
+      <c r="H97" s="55">
+        <v>0</v>
+      </c>
+      <c r="I97" s="55">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4728,33 +4841,33 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="49">
-        <v>0</v>
-      </c>
-      <c r="C98" s="49">
+      <c r="A98" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="52">
+        <v>0</v>
+      </c>
+      <c r="C98" s="52">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="49">
+      <c r="E98" s="53">
         <v>500</v>
       </c>
-      <c r="F98" s="49">
+      <c r="F98" s="53">
         <v>0</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
         <v>-500</v>
       </c>
-      <c r="H98" s="49">
-        <v>0</v>
-      </c>
-      <c r="I98" s="49">
+      <c r="H98" s="55">
+        <v>0</v>
+      </c>
+      <c r="I98" s="55">
         <v>0</v>
       </c>
       <c r="J98" s="6">
@@ -4763,33 +4876,33 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B99" s="49">
-        <v>0</v>
-      </c>
-      <c r="C99" s="49">
+      <c r="A99" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="52">
+        <v>0</v>
+      </c>
+      <c r="C99" s="52">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="49">
+      <c r="E99" s="53">
         <v>100</v>
       </c>
-      <c r="F99" s="49">
+      <c r="F99" s="53">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
-      <c r="H99" s="49">
-        <v>0</v>
-      </c>
-      <c r="I99" s="49">
+      <c r="H99" s="55">
+        <v>0</v>
+      </c>
+      <c r="I99" s="55">
         <v>0</v>
       </c>
       <c r="J99" s="6">
@@ -4798,31 +4911,33 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="49">
-        <v>0</v>
-      </c>
-      <c r="C100" s="49">
+      <c r="A100" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B100" s="52">
+        <v>100</v>
+      </c>
+      <c r="C100" s="52">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="49">
-        <v>0</v>
-      </c>
-      <c r="F100" s="49">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="53">
+        <v>0</v>
+      </c>
+      <c r="F100" s="53">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="49">
-        <v>0</v>
-      </c>
-      <c r="I100" s="49">
+      <c r="H100" s="55">
+        <v>0</v>
+      </c>
+      <c r="I100" s="55">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4831,33 +4946,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="49">
-        <v>0</v>
-      </c>
-      <c r="C101" s="49">
+      <c r="B101" s="52">
+        <v>0</v>
+      </c>
+      <c r="C101" s="52">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="49">
+      <c r="E101" s="53">
         <v>1478</v>
       </c>
-      <c r="F101" s="49">
+      <c r="F101" s="53">
         <v>595</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
         <v>-883</v>
       </c>
-      <c r="H101" s="49">
-        <v>0</v>
-      </c>
-      <c r="I101" s="49">
+      <c r="H101" s="55">
+        <v>0</v>
+      </c>
+      <c r="I101" s="55">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -4866,33 +4981,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B102" s="49">
+      <c r="A102" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="52">
         <v>415</v>
       </c>
-      <c r="C102" s="49">
-        <v>193</v>
+      <c r="C102" s="52">
+        <v>328</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
-        <v>-222</v>
-      </c>
-      <c r="E102" s="49">
-        <v>0</v>
-      </c>
-      <c r="F102" s="49">
+        <v>-87</v>
+      </c>
+      <c r="E102" s="53">
+        <v>0</v>
+      </c>
+      <c r="F102" s="53">
         <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H102" s="49">
-        <v>0</v>
-      </c>
-      <c r="I102" s="49">
+      <c r="H102" s="55">
+        <v>0</v>
+      </c>
+      <c r="I102" s="55">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -4901,33 +5016,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="49">
+      <c r="B103" s="52">
         <v>50</v>
       </c>
-      <c r="C103" s="49">
+      <c r="C103" s="52">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="49">
-        <v>0</v>
-      </c>
-      <c r="F103" s="49">
+      <c r="E103" s="53">
+        <v>0</v>
+      </c>
+      <c r="F103" s="53">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="49">
-        <v>0</v>
-      </c>
-      <c r="I103" s="49">
+      <c r="H103" s="55">
+        <v>0</v>
+      </c>
+      <c r="I103" s="55">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -4936,33 +5051,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="49">
-        <v>0</v>
-      </c>
-      <c r="C104" s="49">
+      <c r="B104" s="52">
+        <v>0</v>
+      </c>
+      <c r="C104" s="52">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="49">
-        <v>11394</v>
-      </c>
-      <c r="F104" s="49">
+      <c r="E104" s="53">
+        <v>5407</v>
+      </c>
+      <c r="F104" s="53">
         <v>0</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>-11394</v>
-      </c>
-      <c r="H104" s="49">
-        <v>0</v>
-      </c>
-      <c r="I104" s="49">
+        <v>-5407</v>
+      </c>
+      <c r="H104" s="55">
+        <v>0</v>
+      </c>
+      <c r="I104" s="55">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -4971,33 +5086,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="49">
-        <v>0</v>
-      </c>
-      <c r="C105" s="49">
+      <c r="B105" s="52">
+        <v>0</v>
+      </c>
+      <c r="C105" s="52">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="49">
-        <v>0</v>
-      </c>
-      <c r="F105" s="49">
-        <v>11478</v>
+      <c r="E105" s="53">
+        <v>35989</v>
+      </c>
+      <c r="F105" s="53">
+        <v>0</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>11478</v>
-      </c>
-      <c r="H105" s="49">
-        <v>0</v>
-      </c>
-      <c r="I105" s="49">
+        <v>-35989</v>
+      </c>
+      <c r="H105" s="55">
+        <v>0</v>
+      </c>
+      <c r="I105" s="55">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5006,33 +5121,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="49">
-        <v>0</v>
-      </c>
-      <c r="C106" s="49">
+      <c r="B106" s="52">
+        <v>0</v>
+      </c>
+      <c r="C106" s="52">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="49">
+      <c r="E106" s="53">
         <v>300</v>
       </c>
-      <c r="F106" s="49">
+      <c r="F106" s="53">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="49">
-        <v>0</v>
-      </c>
-      <c r="I106" s="49">
+      <c r="H106" s="55">
+        <v>0</v>
+      </c>
+      <c r="I106" s="55">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5041,33 +5156,33 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="49">
-        <v>0</v>
-      </c>
-      <c r="C107" s="49">
+      <c r="B107" s="52">
+        <v>0</v>
+      </c>
+      <c r="C107" s="52">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="49">
+      <c r="E107" s="53">
         <v>670</v>
       </c>
-      <c r="F107" s="49">
+      <c r="F107" s="53">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
         <v>-670</v>
       </c>
-      <c r="H107" s="49">
+      <c r="H107" s="55">
         <v>15</v>
       </c>
-      <c r="I107" s="49">
+      <c r="I107" s="55">
         <v>0</v>
       </c>
       <c r="J107" s="6">
@@ -5076,33 +5191,33 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108" s="49">
-        <v>0</v>
-      </c>
-      <c r="C108" s="49">
+      <c r="A108" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="52">
+        <v>0</v>
+      </c>
+      <c r="C108" s="52">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="49">
+      <c r="E108" s="53">
         <v>300</v>
       </c>
-      <c r="F108" s="49">
+      <c r="F108" s="53">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H108" s="49">
-        <v>0</v>
-      </c>
-      <c r="I108" s="49">
+      <c r="H108" s="55">
+        <v>0</v>
+      </c>
+      <c r="I108" s="55">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5111,33 +5226,33 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B109" s="49">
-        <v>0</v>
-      </c>
-      <c r="C109" s="49">
+      <c r="A109" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="52">
+        <v>0</v>
+      </c>
+      <c r="C109" s="52">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="49">
-        <v>0</v>
-      </c>
-      <c r="F109" s="49">
-        <v>7303</v>
+      <c r="E109" s="53">
+        <v>0</v>
+      </c>
+      <c r="F109" s="53">
+        <v>15248</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
-        <v>7303</v>
-      </c>
-      <c r="H109" s="49">
-        <v>0</v>
-      </c>
-      <c r="I109" s="49">
+        <v>15248</v>
+      </c>
+      <c r="H109" s="55">
+        <v>0</v>
+      </c>
+      <c r="I109" s="55">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5146,33 +5261,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B110" s="49">
-        <v>0</v>
-      </c>
-      <c r="C110" s="49">
+      <c r="B110" s="52">
+        <v>0</v>
+      </c>
+      <c r="C110" s="52">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="49">
+      <c r="E110" s="53">
         <v>10</v>
       </c>
-      <c r="F110" s="49">
+      <c r="F110" s="53">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="49">
-        <v>0</v>
-      </c>
-      <c r="I110" s="49">
+      <c r="H110" s="55">
+        <v>0</v>
+      </c>
+      <c r="I110" s="55">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5181,33 +5296,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B111" s="49">
-        <v>0</v>
-      </c>
-      <c r="C111" s="49">
+      <c r="A111" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="52">
+        <v>0</v>
+      </c>
+      <c r="C111" s="52">
         <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E111" s="49">
+      <c r="E111" s="53">
         <v>1100</v>
       </c>
-      <c r="F111" s="49">
+      <c r="F111" s="53">
         <v>0</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
         <v>-1100</v>
       </c>
-      <c r="H111" s="49">
-        <v>0</v>
-      </c>
-      <c r="I111" s="49">
+      <c r="H111" s="55">
+        <v>0</v>
+      </c>
+      <c r="I111" s="55">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5216,33 +5331,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B112" s="49">
-        <v>0</v>
-      </c>
-      <c r="C112" s="49">
+      <c r="B112" s="52">
+        <v>0</v>
+      </c>
+      <c r="C112" s="52">
         <v>401</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
         <v>401</v>
       </c>
-      <c r="E112" s="49">
-        <v>0</v>
-      </c>
-      <c r="F112" s="49">
+      <c r="E112" s="53">
+        <v>0</v>
+      </c>
+      <c r="F112" s="53">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="49">
-        <v>0</v>
-      </c>
-      <c r="I112" s="49">
+      <c r="H112" s="55">
+        <v>0</v>
+      </c>
+      <c r="I112" s="55">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5251,33 +5366,33 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B113" s="49">
-        <v>0</v>
-      </c>
-      <c r="C113" s="49">
+      <c r="B113" s="52">
+        <v>0</v>
+      </c>
+      <c r="C113" s="52">
         <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="49">
-        <v>42000</v>
-      </c>
-      <c r="F113" s="49">
+      <c r="E113" s="53">
+        <v>7000</v>
+      </c>
+      <c r="F113" s="53">
         <v>96</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
-        <v>-41904</v>
-      </c>
-      <c r="H113" s="49">
-        <v>0</v>
-      </c>
-      <c r="I113" s="49">
+        <v>-6904</v>
+      </c>
+      <c r="H113" s="55">
+        <v>0</v>
+      </c>
+      <c r="I113" s="55">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5286,33 +5401,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B114" s="49">
-        <v>0</v>
-      </c>
-      <c r="C114" s="49">
+      <c r="B114" s="52">
+        <v>0</v>
+      </c>
+      <c r="C114" s="52">
         <v>0</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E114" s="49">
-        <v>21823</v>
-      </c>
-      <c r="F114" s="49">
+      <c r="E114" s="53">
+        <v>15650</v>
+      </c>
+      <c r="F114" s="53">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-21823</v>
-      </c>
-      <c r="H114" s="49">
-        <v>0</v>
-      </c>
-      <c r="I114" s="49">
+        <v>-15650</v>
+      </c>
+      <c r="H114" s="55">
+        <v>0</v>
+      </c>
+      <c r="I114" s="55">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5321,33 +5436,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B115" s="49">
+      <c r="B115" s="52">
         <v>800</v>
       </c>
-      <c r="C115" s="49">
+      <c r="C115" s="52">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E115" s="49">
-        <v>0</v>
-      </c>
-      <c r="F115" s="49">
+      <c r="E115" s="53">
+        <v>0</v>
+      </c>
+      <c r="F115" s="53">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="49">
-        <v>0</v>
-      </c>
-      <c r="I115" s="49">
+      <c r="H115" s="55">
+        <v>0</v>
+      </c>
+      <c r="I115" s="55">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5356,33 +5471,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="49">
-        <v>0</v>
-      </c>
-      <c r="C116" s="49">
-        <v>0</v>
+      <c r="B116" s="52">
+        <v>0</v>
+      </c>
+      <c r="C116" s="52">
+        <v>300</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E116" s="49">
+        <v>300</v>
+      </c>
+      <c r="E116" s="53">
         <v>7</v>
       </c>
-      <c r="F116" s="49">
+      <c r="F116" s="53">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
         <v>-7</v>
       </c>
-      <c r="H116" s="49">
-        <v>0</v>
-      </c>
-      <c r="I116" s="49">
+      <c r="H116" s="55">
+        <v>0</v>
+      </c>
+      <c r="I116" s="55">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5391,33 +5506,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B117" s="49">
-        <v>0</v>
-      </c>
-      <c r="C117" s="49">
+      <c r="A117" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="52">
+        <v>0</v>
+      </c>
+      <c r="C117" s="52">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E117" s="49">
-        <v>0</v>
-      </c>
-      <c r="F117" s="49">
+      <c r="E117" s="53">
+        <v>0</v>
+      </c>
+      <c r="F117" s="53">
         <v>200</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="H117" s="49">
-        <v>0</v>
-      </c>
-      <c r="I117" s="49">
+      <c r="H117" s="55">
+        <v>0</v>
+      </c>
+      <c r="I117" s="55">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5426,33 +5541,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="49">
-        <v>0</v>
-      </c>
-      <c r="C118" s="49">
+      <c r="B118" s="52">
+        <v>0</v>
+      </c>
+      <c r="C118" s="52">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="49">
+      <c r="E118" s="53">
         <v>7682</v>
       </c>
-      <c r="F118" s="49">
+      <c r="F118" s="53">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="49">
-        <v>0</v>
-      </c>
-      <c r="I118" s="49">
+      <c r="H118" s="55">
+        <v>0</v>
+      </c>
+      <c r="I118" s="55">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5461,33 +5576,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B119" s="49">
+      <c r="B119" s="52">
         <v>1845</v>
       </c>
-      <c r="C119" s="49">
+      <c r="C119" s="52">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
         <v>-1845</v>
       </c>
-      <c r="E119" s="49">
-        <v>6288</v>
-      </c>
-      <c r="F119" s="49">
+      <c r="E119" s="53">
+        <v>6888</v>
+      </c>
+      <c r="F119" s="53">
         <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-6288</v>
-      </c>
-      <c r="H119" s="49">
-        <v>0</v>
-      </c>
-      <c r="I119" s="49">
+        <v>-6888</v>
+      </c>
+      <c r="H119" s="55">
+        <v>0</v>
+      </c>
+      <c r="I119" s="55">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5496,33 +5611,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B120" s="49">
+      <c r="B120" s="52">
         <v>300</v>
       </c>
-      <c r="C120" s="49">
+      <c r="C120" s="52">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
         <v>-300</v>
       </c>
-      <c r="E120" s="49">
+      <c r="E120" s="53">
         <v>106</v>
       </c>
-      <c r="F120" s="49">
+      <c r="F120" s="53">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
         <v>-106</v>
       </c>
-      <c r="H120" s="49">
-        <v>0</v>
-      </c>
-      <c r="I120" s="49">
+      <c r="H120" s="55">
+        <v>0</v>
+      </c>
+      <c r="I120" s="55">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5531,33 +5646,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B121" s="49">
-        <v>0</v>
-      </c>
-      <c r="C121" s="49">
+      <c r="B121" s="52">
+        <v>0</v>
+      </c>
+      <c r="C121" s="52">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="49">
+      <c r="E121" s="53">
         <v>15000</v>
       </c>
-      <c r="F121" s="49">
+      <c r="F121" s="53">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="49">
-        <v>0</v>
-      </c>
-      <c r="I121" s="49">
+      <c r="H121" s="55">
+        <v>0</v>
+      </c>
+      <c r="I121" s="55">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5566,33 +5681,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B122" s="49">
-        <v>0</v>
-      </c>
-      <c r="C122" s="49">
+      <c r="A122" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" s="52">
+        <v>0</v>
+      </c>
+      <c r="C122" s="52">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="49">
-        <v>0</v>
-      </c>
-      <c r="F122" s="49">
+      <c r="E122" s="53">
+        <v>0</v>
+      </c>
+      <c r="F122" s="53">
         <v>5900</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
         <v>5900</v>
       </c>
-      <c r="H122" s="49">
-        <v>0</v>
-      </c>
-      <c r="I122" s="49">
+      <c r="H122" s="55">
+        <v>0</v>
+      </c>
+      <c r="I122" s="55">
         <v>0</v>
       </c>
       <c r="J122" s="6">
@@ -5601,33 +5716,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B123" s="49">
-        <v>0</v>
-      </c>
-      <c r="C123" s="49">
+      <c r="A123" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="52">
+        <v>0</v>
+      </c>
+      <c r="C123" s="52">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E123" s="49">
-        <v>0</v>
-      </c>
-      <c r="F123" s="49">
+      <c r="E123" s="53">
+        <v>1495</v>
+      </c>
+      <c r="F123" s="53">
         <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H123" s="49">
-        <v>0</v>
-      </c>
-      <c r="I123" s="49">
+        <v>-1495</v>
+      </c>
+      <c r="H123" s="55">
+        <v>0</v>
+      </c>
+      <c r="I123" s="55">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5636,33 +5751,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B124" s="49">
-        <v>0</v>
-      </c>
-      <c r="C124" s="49">
+      <c r="B124" s="52">
+        <v>0</v>
+      </c>
+      <c r="C124" s="52">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E124" s="49">
-        <v>0</v>
-      </c>
-      <c r="F124" s="49">
-        <v>548</v>
+      <c r="E124" s="53">
+        <v>0</v>
+      </c>
+      <c r="F124" s="53">
+        <v>0</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
-        <v>548</v>
-      </c>
-      <c r="H124" s="49">
-        <v>0</v>
-      </c>
-      <c r="I124" s="49">
+        <v>0</v>
+      </c>
+      <c r="H124" s="55">
+        <v>0</v>
+      </c>
+      <c r="I124" s="55">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5671,33 +5786,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B125" s="49">
+      <c r="B125" s="52">
         <v>800</v>
       </c>
-      <c r="C125" s="49">
+      <c r="C125" s="52">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E125" s="49">
-        <v>0</v>
-      </c>
-      <c r="F125" s="49">
+      <c r="E125" s="53">
+        <v>0</v>
+      </c>
+      <c r="F125" s="53">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H125" s="49">
-        <v>0</v>
-      </c>
-      <c r="I125" s="49">
+      <c r="H125" s="55">
+        <v>0</v>
+      </c>
+      <c r="I125" s="55">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5706,33 +5821,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B126" s="49">
-        <v>0</v>
-      </c>
-      <c r="C126" s="49">
+      <c r="A126" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="52">
+        <v>0</v>
+      </c>
+      <c r="C126" s="52">
         <v>0</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E126" s="49">
+      <c r="E126" s="53">
         <v>108</v>
       </c>
-      <c r="F126" s="49">
+      <c r="F126" s="53">
         <v>0</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
         <v>-108</v>
       </c>
-      <c r="H126" s="49">
-        <v>0</v>
-      </c>
-      <c r="I126" s="49">
+      <c r="H126" s="55">
+        <v>0</v>
+      </c>
+      <c r="I126" s="55">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5741,33 +5856,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B127" s="49">
-        <v>0</v>
-      </c>
-      <c r="C127" s="49">
+      <c r="A127" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="52">
+        <v>0</v>
+      </c>
+      <c r="C127" s="52">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="49">
-        <v>0</v>
-      </c>
-      <c r="F127" s="49">
-        <v>9515</v>
+      <c r="E127" s="53">
+        <v>0</v>
+      </c>
+      <c r="F127" s="53">
+        <v>8214</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
-        <v>9515</v>
-      </c>
-      <c r="H127" s="49">
-        <v>0</v>
-      </c>
-      <c r="I127" s="49">
+        <v>8214</v>
+      </c>
+      <c r="H127" s="55">
+        <v>0</v>
+      </c>
+      <c r="I127" s="55">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5776,33 +5891,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128" s="49">
-        <v>0</v>
-      </c>
-      <c r="C128" s="49">
+      <c r="A128" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="52">
+        <v>0</v>
+      </c>
+      <c r="C128" s="52">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E128" s="49">
+      <c r="E128" s="53">
         <v>200</v>
       </c>
-      <c r="F128" s="49">
+      <c r="F128" s="53">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H128" s="49">
-        <v>0</v>
-      </c>
-      <c r="I128" s="49">
+      <c r="H128" s="55">
+        <v>0</v>
+      </c>
+      <c r="I128" s="55">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5811,33 +5926,33 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B129" s="49">
-        <v>0</v>
-      </c>
-      <c r="C129" s="49">
+      <c r="A129" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="52">
+        <v>0</v>
+      </c>
+      <c r="C129" s="52">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="49">
+      <c r="E129" s="53">
         <v>700</v>
       </c>
-      <c r="F129" s="49">
+      <c r="F129" s="53">
         <v>0</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
         <v>-700</v>
       </c>
-      <c r="H129" s="49">
-        <v>0</v>
-      </c>
-      <c r="I129" s="49">
+      <c r="H129" s="55">
+        <v>0</v>
+      </c>
+      <c r="I129" s="55">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5846,33 +5961,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B130" s="49">
-        <v>0</v>
-      </c>
-      <c r="C130" s="49">
+      <c r="A130" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" s="52">
+        <v>0</v>
+      </c>
+      <c r="C130" s="52">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E130" s="49">
+      <c r="E130" s="53">
         <v>1000</v>
       </c>
-      <c r="F130" s="49">
+      <c r="F130" s="53">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
         <v>-1000</v>
       </c>
-      <c r="H130" s="49">
-        <v>0</v>
-      </c>
-      <c r="I130" s="49">
+      <c r="H130" s="55">
+        <v>0</v>
+      </c>
+      <c r="I130" s="55">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -5881,33 +5996,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B131" s="49">
-        <v>0</v>
-      </c>
-      <c r="C131" s="49">
+      <c r="B131" s="52">
+        <v>0</v>
+      </c>
+      <c r="C131" s="52">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
         <v>0</v>
       </c>
-      <c r="E131" s="49">
-        <v>0</v>
-      </c>
-      <c r="F131" s="49">
-        <v>26</v>
+      <c r="E131" s="53">
+        <v>1000</v>
+      </c>
+      <c r="F131" s="53">
+        <v>0</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
-        <v>26</v>
-      </c>
-      <c r="H131" s="49">
-        <v>0</v>
-      </c>
-      <c r="I131" s="49">
+        <v>-1000</v>
+      </c>
+      <c r="H131" s="55">
+        <v>0</v>
+      </c>
+      <c r="I131" s="55">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -5916,27 +6031,33 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
+      <c r="A132" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="52">
+        <v>150</v>
+      </c>
+      <c r="C132" s="52">
+        <v>0</v>
+      </c>
       <c r="D132" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E132" s="49">
-        <v>0</v>
-      </c>
-      <c r="F132" s="49">
+        <v>-150</v>
+      </c>
+      <c r="E132" s="53">
+        <v>0</v>
+      </c>
+      <c r="F132" s="53">
         <v>0</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H132" s="49">
-        <v>0</v>
-      </c>
-      <c r="I132" s="49">
+      <c r="H132" s="55">
+        <v>0</v>
+      </c>
+      <c r="I132" s="55">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -5945,21 +6066,33 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="52">
+        <v>0</v>
+      </c>
+      <c r="C133" s="52">
+        <v>0</v>
+      </c>
       <c r="D133" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
+      <c r="E133" s="53">
+        <v>0</v>
+      </c>
+      <c r="F133" s="53">
+        <v>0</v>
+      </c>
       <c r="G133" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
+      <c r="H133" s="55">
+        <v>0</v>
+      </c>
+      <c r="I133" s="55">
+        <v>0</v>
+      </c>
       <c r="J133" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6430,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6469,25 +6602,25 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>124</v>
+      <c r="A4" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>259891</v>
+        <v>279860</v>
       </c>
       <c r="D4" s="15">
         <v>10621</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="65" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="15">
-        <v>-3086</v>
+        <v>-4500</v>
       </c>
       <c r="C5" s="15">
         <v>0</v>
@@ -6497,7 +6630,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15">
@@ -6511,36 +6644,36 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="65" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15">
         <v>0</v>
       </c>
       <c r="C7" s="15">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="54" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>3353</v>
+        <v>2811</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>134</v>
+      <c r="A9" s="54" t="s">
+        <v>132</v>
       </c>
       <c r="B9" s="15">
         <v>-1050</v>
@@ -6553,7 +6686,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="54" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="15">
@@ -6567,7 +6700,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="54" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="15">
@@ -6581,21 +6714,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="54" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>-18</v>
+        <v>579</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="15">
@@ -6609,7 +6742,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="15">
@@ -6623,7 +6756,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="15">
@@ -6637,7 +6770,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="15">
@@ -6651,7 +6784,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="15">
@@ -6665,7 +6798,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="15">
@@ -6679,21 +6812,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="57" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="15">
-        <v>-1680</v>
+        <v>-1310</v>
       </c>
       <c r="C19" s="15">
-        <v>0</v>
+        <v>-1004</v>
       </c>
       <c r="D19" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="15">
@@ -6707,21 +6840,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="15">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="C21" s="15">
-        <v>2894</v>
+        <v>7823</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="15">
@@ -6735,7 +6868,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="67" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15">
@@ -6749,7 +6882,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="15">
@@ -6763,7 +6896,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="73" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="15">
@@ -6777,7 +6910,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="66" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="15">
@@ -6791,7 +6924,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="66" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="15">
@@ -6805,7 +6938,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="62" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="15">
@@ -6819,7 +6952,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="15">
@@ -6833,7 +6966,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="58" t="s">
         <v>105</v>
       </c>
       <c r="B30" s="15">
@@ -6847,7 +6980,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="54" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="15">
@@ -6861,7 +6994,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="66" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="15">
@@ -6875,7 +7008,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="66" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="15">
@@ -6889,7 +7022,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="54" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="15">
@@ -6903,21 +7036,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="54" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="15">
         <v>2114</v>
       </c>
       <c r="C35" s="15">
-        <v>-3641</v>
+        <v>-6364</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="59" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="15">
@@ -6931,7 +7064,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="60" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="15">
@@ -6945,8 +7078,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>135</v>
+      <c r="A38" s="56" t="s">
+        <v>133</v>
       </c>
       <c r="B38" s="15">
         <v>0</v>
@@ -6959,21 +7092,21 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>125</v>
+      <c r="A39" s="54" t="s">
+        <v>123</v>
       </c>
       <c r="B39" s="15">
         <v>0</v>
       </c>
       <c r="C39" s="15">
-        <v>2793</v>
+        <v>2376</v>
       </c>
       <c r="D39" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="69" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="15">
@@ -6987,21 +7120,21 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>114</v>
+      <c r="A41" s="54" t="s">
+        <v>142</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
       </c>
       <c r="C41" s="15">
-        <v>0</v>
+        <v>-270</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="63" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="15">
@@ -7015,21 +7148,21 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="70" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="15">
         <v>0</v>
       </c>
       <c r="C43" s="15">
-        <v>-4527</v>
+        <v>-3934</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="71" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="15">
@@ -7043,7 +7176,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="61" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="15">
@@ -7057,7 +7190,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="61" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="15">
@@ -7071,8 +7204,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>122</v>
+      <c r="A47" s="54" t="s">
+        <v>121</v>
       </c>
       <c r="B47" s="15">
         <v>-95</v>
@@ -7085,7 +7218,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="56" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="15">
@@ -7099,7 +7232,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="15">
@@ -7113,7 +7246,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="57" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="15">
@@ -7127,7 +7260,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="54" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="15">
@@ -7141,8 +7274,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
-        <v>132</v>
+      <c r="A52" s="54" t="s">
+        <v>130</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
@@ -7155,7 +7288,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="59" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="15">
@@ -7169,7 +7302,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="68" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="15">
@@ -7183,22 +7316,22 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="54" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-26431</v>
+        <v>-18991</v>
       </c>
       <c r="D55" s="15">
-        <v>-6714</v>
+        <v>-7549</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
-        <v>121</v>
+      <c r="A56" s="54" t="s">
+        <v>120</v>
       </c>
       <c r="B56" s="15">
         <v>0</v>
@@ -7211,7 +7344,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="54" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="15">
@@ -7225,8 +7358,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
-        <v>136</v>
+      <c r="A58" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="B58" s="15">
         <v>0</v>
@@ -7239,7 +7372,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="15">
@@ -7253,8 +7386,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>116</v>
+      <c r="A60" s="57" t="s">
+        <v>115</v>
       </c>
       <c r="B60" s="15">
         <v>-625</v>
@@ -7267,21 +7400,21 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="57" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="15">
         <v>0</v>
       </c>
       <c r="C61" s="15">
-        <v>-1569</v>
+        <v>-18143</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="54" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="15">
@@ -7295,11 +7428,11 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="54" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="15">
-        <v>4420</v>
+        <v>4707</v>
       </c>
       <c r="C63" s="15">
         <v>0</v>
@@ -7309,7 +7442,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="54" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="15">
@@ -7323,7 +7456,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="54" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="15">
@@ -7337,7 +7470,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="54" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="15">
@@ -7351,7 +7484,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="54" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="15">
@@ -7365,35 +7498,35 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="54" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="15">
         <v>20</v>
       </c>
       <c r="C68" s="15">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="54" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="15">
         <v>0</v>
       </c>
       <c r="C69" s="15">
-        <v>-64665</v>
+        <v>-38529</v>
       </c>
       <c r="D69" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="64" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="15">
@@ -7407,21 +7540,21 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>115</v>
+      <c r="A71" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
       </c>
       <c r="C71" s="15">
-        <v>940</v>
+        <v>1285</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="54" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="15">
@@ -7435,21 +7568,21 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
-        <v>117</v>
+      <c r="A73" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="B73" s="15">
         <v>0</v>
       </c>
       <c r="C73" s="15">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="54" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="15">
@@ -7463,7 +7596,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="54" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="15">
@@ -7477,7 +7610,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="54" t="s">
         <v>106</v>
       </c>
       <c r="B76" s="15">
@@ -7491,7 +7624,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="54" t="s">
         <v>72</v>
       </c>
       <c r="B77" s="15">
@@ -7505,21 +7638,21 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="54" t="s">
         <v>73</v>
       </c>
       <c r="B78" s="15">
         <v>0</v>
       </c>
       <c r="C78" s="15">
-        <v>-3680</v>
+        <v>-3302</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="54" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="15">
@@ -7533,7 +7666,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="54" t="s">
         <v>75</v>
       </c>
       <c r="B80" s="15">
@@ -7547,8 +7680,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
-        <v>126</v>
+      <c r="A81" s="54" t="s">
+        <v>124</v>
       </c>
       <c r="B81" s="15">
         <v>-150</v>
@@ -7561,7 +7694,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="15">
@@ -7575,7 +7708,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="72" t="s">
         <v>77</v>
       </c>
       <c r="B83" s="15">
@@ -7589,22 +7722,22 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="54" t="s">
         <v>78</v>
       </c>
       <c r="B84" s="15">
         <v>0</v>
       </c>
       <c r="C84" s="15">
-        <v>3036</v>
+        <v>-2211</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
-        <v>133</v>
+      <c r="A85" s="54" t="s">
+        <v>131</v>
       </c>
       <c r="B85" s="15">
         <v>0</v>
@@ -7617,8 +7750,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
-        <v>120</v>
+      <c r="A86" s="54" t="s">
+        <v>119</v>
       </c>
       <c r="B86" s="15">
         <v>0</v>
@@ -7631,7 +7764,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="54" t="s">
         <v>79</v>
       </c>
       <c r="B87" s="15">
@@ -7645,7 +7778,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="54" t="s">
         <v>80</v>
       </c>
       <c r="B88" s="15">
@@ -7659,21 +7792,21 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="54" t="s">
         <v>17</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
       </c>
       <c r="C89" s="15">
-        <v>-6533</v>
+        <v>-4937</v>
       </c>
       <c r="D89" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="54" t="s">
         <v>82</v>
       </c>
       <c r="B90" s="15">
@@ -7687,8 +7820,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
-        <v>118</v>
+      <c r="A91" s="54" t="s">
+        <v>117</v>
       </c>
       <c r="B91" s="15">
         <v>0</v>
@@ -7701,7 +7834,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="54" t="s">
         <v>83</v>
       </c>
       <c r="B92" s="15">
@@ -7715,7 +7848,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="15">
         <v>0</v>
       </c>
@@ -7727,8 +7860,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="28" t="s">
-        <v>119</v>
+      <c r="A94" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="B94" s="15">
         <v>200</v>
@@ -7741,11 +7874,11 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="54" t="s">
         <v>84</v>
       </c>
       <c r="B95" s="15">
-        <v>3000</v>
+        <v>2850</v>
       </c>
       <c r="C95" s="15">
         <v>0</v>
@@ -7755,7 +7888,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="54" t="s">
         <v>85</v>
       </c>
       <c r="B96" s="15">
@@ -7769,7 +7902,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="54" t="s">
         <v>86</v>
       </c>
       <c r="B97" s="15">
@@ -7783,21 +7916,21 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="54" t="s">
         <v>87</v>
       </c>
       <c r="B98" s="15">
         <v>0</v>
       </c>
       <c r="C98" s="15">
-        <v>-9944</v>
+        <v>-7249</v>
       </c>
       <c r="D98" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="54" t="s">
         <v>88</v>
       </c>
       <c r="B99" s="15">
@@ -7811,8 +7944,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
-        <v>137</v>
+      <c r="A100" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="B100" s="15">
         <v>0</v>
@@ -7825,8 +7958,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
-        <v>127</v>
+      <c r="A101" s="54" t="s">
+        <v>125</v>
       </c>
       <c r="B101" s="15">
         <v>0</v>
@@ -7839,9 +7972,11 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
+      <c r="A102" s="54" t="s">
+        <v>143</v>
+      </c>
       <c r="B102" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C102" s="15">
         <v>0</v>
@@ -7851,7 +7986,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="54" t="s">
         <v>107</v>
       </c>
       <c r="B103" s="15">
@@ -7865,11 +8000,11 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
-        <v>128</v>
+      <c r="A104" s="54" t="s">
+        <v>126</v>
       </c>
       <c r="B104" s="15">
-        <v>-222</v>
+        <v>-87</v>
       </c>
       <c r="C104" s="15">
         <v>0</v>
@@ -7879,7 +8014,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="54" t="s">
         <v>91</v>
       </c>
       <c r="B105" s="15">
@@ -7893,35 +8028,35 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="54" t="s">
         <v>92</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
       </c>
       <c r="C106" s="15">
-        <v>-11394</v>
+        <v>-5407</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="54" t="s">
         <v>93</v>
       </c>
       <c r="B107" s="15">
         <v>0</v>
       </c>
       <c r="C107" s="15">
-        <v>11478</v>
+        <v>-35989</v>
       </c>
       <c r="D107" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="54" t="s">
         <v>94</v>
       </c>
       <c r="B108" s="15">
@@ -7935,7 +8070,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="54" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="15">
@@ -7949,8 +8084,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="28" t="s">
-        <v>129</v>
+      <c r="A110" s="54" t="s">
+        <v>127</v>
       </c>
       <c r="B110" s="15">
         <v>0</v>
@@ -7963,21 +8098,21 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="28" t="s">
-        <v>138</v>
+      <c r="A111" s="54" t="s">
+        <v>136</v>
       </c>
       <c r="B111" s="15">
         <v>0</v>
       </c>
       <c r="C111" s="15">
-        <v>7303</v>
+        <v>15248</v>
       </c>
       <c r="D111" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="57" t="s">
         <v>95</v>
       </c>
       <c r="B112" s="15">
@@ -7991,8 +8126,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="28" t="s">
-        <v>123</v>
+      <c r="A113" s="54" t="s">
+        <v>122</v>
       </c>
       <c r="B113" s="15">
         <v>0</v>
@@ -8005,7 +8140,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="54" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="15">
@@ -8019,35 +8154,35 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="54" t="s">
         <v>90</v>
       </c>
       <c r="B115" s="15">
         <v>0</v>
       </c>
       <c r="C115" s="15">
-        <v>-41904</v>
+        <v>-6904</v>
       </c>
       <c r="D115" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="54" t="s">
         <v>97</v>
       </c>
       <c r="B116" s="15">
         <v>0</v>
       </c>
       <c r="C116" s="15">
-        <v>-21823</v>
+        <v>-15650</v>
       </c>
       <c r="D116" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="54" t="s">
         <v>98</v>
       </c>
       <c r="B117" s="15">
@@ -8061,11 +8196,11 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="54" t="s">
         <v>99</v>
       </c>
       <c r="B118" s="15">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C118" s="15">
         <v>-7</v>
@@ -8075,8 +8210,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
-        <v>139</v>
+      <c r="A119" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="B119" s="15">
         <v>0</v>
@@ -8089,7 +8224,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="54" t="s">
         <v>100</v>
       </c>
       <c r="B120" s="15">
@@ -8103,21 +8238,21 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="54" t="s">
         <v>101</v>
       </c>
       <c r="B121" s="15">
         <v>-1845</v>
       </c>
       <c r="C121" s="15">
-        <v>-6288</v>
+        <v>-6888</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B122" s="15">
@@ -8131,7 +8266,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="54" t="s">
         <v>103</v>
       </c>
       <c r="B123" s="15">
@@ -8145,8 +8280,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="s">
-        <v>140</v>
+      <c r="A124" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="B124" s="15">
         <v>0</v>
@@ -8159,35 +8294,35 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="28" t="s">
-        <v>141</v>
+      <c r="A125" s="54" t="s">
+        <v>144</v>
       </c>
       <c r="B125" s="15">
         <v>0</v>
       </c>
       <c r="C125" s="15">
-        <v>0</v>
+        <v>-1495</v>
       </c>
       <c r="D125" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="54" t="s">
         <v>81</v>
       </c>
       <c r="B126" s="15">
         <v>0</v>
       </c>
       <c r="C126" s="15">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="D126" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="54" t="s">
         <v>104</v>
       </c>
       <c r="B127" s="15">
@@ -8201,8 +8336,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="28" t="s">
-        <v>130</v>
+      <c r="A128" s="54" t="s">
+        <v>128</v>
       </c>
       <c r="B128" s="15">
         <v>0</v>
@@ -8215,22 +8350,22 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="28" t="s">
-        <v>142</v>
+      <c r="A129" s="54" t="s">
+        <v>139</v>
       </c>
       <c r="B129" s="15">
         <v>0</v>
       </c>
       <c r="C129" s="15">
-        <v>9515</v>
+        <v>8214</v>
       </c>
       <c r="D129" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="28" t="s">
-        <v>131</v>
+      <c r="A130" s="54" t="s">
+        <v>129</v>
       </c>
       <c r="B130" s="15">
         <v>0</v>
@@ -8243,8 +8378,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="28" t="s">
-        <v>143</v>
+      <c r="A131" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="B131" s="15">
         <v>0</v>
@@ -8257,8 +8392,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="28" t="s">
-        <v>144</v>
+      <c r="A132" s="54" t="s">
+        <v>141</v>
       </c>
       <c r="B132" s="15">
         <v>0</v>
@@ -8271,21 +8406,26 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="54" t="s">
         <v>145</v>
       </c>
       <c r="B133" s="15">
         <v>0</v>
       </c>
       <c r="C133" s="15">
-        <v>26</v>
+        <v>-1000</v>
       </c>
       <c r="D133" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="28"/>
+      <c r="A134" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="15">
+        <v>-150</v>
+      </c>
       <c r="C134" s="15">
         <v>0</v>
       </c>
@@ -8294,16 +8434,25 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="28"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="15">
+        <v>0</v>
+      </c>
+      <c r="C135" s="15">
+        <v>0</v>
+      </c>
+      <c r="D135" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="28"/>
+      <c r="A136" s="10"/>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="28"/>
+      <c r="A137" s="10"/>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="28"/>
+      <c r="A138" s="10"/>
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
@@ -8355,15 +8504,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>25748</v>
+        <v>25496</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>6493</v>
+        <v>46517</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>-1911</v>
+        <v>-2746</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8408,7 +8557,7 @@
         <v>110</v>
       </c>
       <c r="B160" s="15">
-        <v>2543</v>
+        <v>9614</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
@@ -8422,7 +8571,7 @@
         <v>111</v>
       </c>
       <c r="B161" s="15">
-        <v>-5684</v>
+        <v>-4997</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
@@ -8436,7 +8585,7 @@
         <v>112</v>
       </c>
       <c r="B162" s="15">
-        <v>3900</v>
+        <v>2755</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">
@@ -8468,17 +8617,17 @@
         <v>113</v>
       </c>
       <c r="B165" s="15">
-        <v>375</v>
+        <v>525</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="50" t="s">
+      <c r="B169" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="50"/>
-      <c r="D169" s="50"/>
-      <c r="E169" s="51"/>
-      <c r="F169" s="51"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C74479-17CC-440A-8A4F-342A50F76F76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20576D6D-F032-4575-BFF5-F313D353148F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <author>هشام</author>
   </authors>
   <commentList>
-    <comment ref="B130" authorId="0" shapeId="0" xr:uid="{C108AB85-F20D-4B79-9A6E-1A3C617D5D66}">
+    <comment ref="B130" authorId="0" shapeId="0" xr:uid="{000BF19E-2502-4478-BA0B-FD8E2C82E70B}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
   <si>
     <t>الشيكل</t>
   </si>
@@ -303,9 +303,6 @@
     <t>ناجي الخضري</t>
   </si>
   <si>
-    <t>محمود سكيك ميلاد</t>
-  </si>
-  <si>
     <t>محمد مفيد تامين عماره</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>علاء المشهراوي</t>
   </si>
   <si>
-    <t>عمار ابوضاهر</t>
-  </si>
-  <si>
     <t>صامد الشريف</t>
   </si>
   <si>
@@ -465,9 +459,6 @@
     <t>احمد خليل</t>
   </si>
   <si>
-    <t>خالد محمود</t>
-  </si>
-  <si>
     <t>ام محمود مهنا</t>
   </si>
   <si>
@@ -477,12 +468,6 @@
     <t>ام العبد الترتوري 2</t>
   </si>
   <si>
-    <t>عبد اللطيف عبيد</t>
-  </si>
-  <si>
-    <t>سعدو خلف</t>
-  </si>
-  <si>
     <t>محمد شعت</t>
   </si>
   <si>
@@ -498,9 +483,6 @@
     <t>حسن العبادله</t>
   </si>
   <si>
-    <t>الدكتور القيشاوي</t>
-  </si>
-  <si>
     <t>محمد الخزندار</t>
   </si>
   <si>
@@ -510,9 +492,6 @@
     <t>ام عماد الترك</t>
   </si>
   <si>
-    <t>ميار دلول</t>
-  </si>
-  <si>
     <t>ريم ابوسيدو</t>
   </si>
   <si>
@@ -520,6 +499,21 @@
   </si>
   <si>
     <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
+  </si>
+  <si>
+    <t>شادي ابوحصيره</t>
+  </si>
+  <si>
+    <t>محمد حميد</t>
+  </si>
+  <si>
+    <t>شيفت نادر بدير</t>
+  </si>
+  <si>
+    <t>تشطيب الدور الأرضي</t>
+  </si>
+  <si>
+    <t>موئل احمد</t>
   </si>
 </sst>
 </file>
@@ -920,7 +914,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -974,69 +968,6 @@
     <xf numFmtId="1" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,59 +980,59 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1452,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J133" sqref="J2:J133"/>
+    <sheetView rightToLeft="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,67 +1415,67 @@
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="52">
-        <v>0</v>
-      </c>
-      <c r="C2" s="52">
+        <v>140</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="53">
-        <v>28031</v>
-      </c>
-      <c r="F2" s="53">
-        <v>307891</v>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>155073</v>
       </c>
       <c r="G2" s="6">
         <f>F2-E2</f>
-        <v>279860</v>
-      </c>
-      <c r="H2" s="55">
-        <v>0</v>
-      </c>
-      <c r="I2" s="55">
-        <v>10621</v>
+        <v>155073</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>4101</v>
       </c>
       <c r="J2" s="6">
         <f>I2-H2</f>
-        <v>10621</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="52">
-        <v>4500</v>
-      </c>
-      <c r="C3" s="52">
+      <c r="B3" s="13">
+        <v>7040</v>
+      </c>
+      <c r="C3" s="13">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-4500</v>
-      </c>
-      <c r="E3" s="53">
-        <v>0</v>
-      </c>
-      <c r="F3" s="53">
+        <v>-7040</v>
+      </c>
+      <c r="E3" s="13">
+        <v>200</v>
+      </c>
+      <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="55">
+        <v>-200</v>
+      </c>
+      <c r="H3" s="13">
         <v>40</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3" s="6">
@@ -1553,33 +1484,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="52">
-        <v>0</v>
-      </c>
-      <c r="C4" s="52">
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="53">
-        <v>0</v>
-      </c>
-      <c r="F4" s="53">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
         <v>63</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="55">
-        <v>0</v>
-      </c>
-      <c r="I4" s="55">
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4" s="6">
@@ -1588,68 +1519,68 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="52">
-        <v>0</v>
-      </c>
-      <c r="C5" s="52">
-        <v>0</v>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>440</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="53">
-        <v>0</v>
-      </c>
-      <c r="F5" s="53">
+        <v>440</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4363</v>
+      </c>
+      <c r="F5" s="13">
         <v>0</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="55">
-        <v>0</v>
-      </c>
-      <c r="I5" s="55">
-        <v>0</v>
+        <v>-4363</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>380</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="52">
-        <v>0</v>
-      </c>
-      <c r="C6" s="52">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="53">
-        <v>0</v>
-      </c>
-      <c r="F6" s="53">
-        <v>2811</v>
+      <c r="E6" s="13">
+        <v>214</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>2811</v>
-      </c>
-      <c r="H6" s="55">
-        <v>0</v>
-      </c>
-      <c r="I6" s="55">
+        <v>-214</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1658,33 +1589,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="52">
-        <v>1050</v>
-      </c>
-      <c r="C7" s="52">
+      <c r="A7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="13">
+        <v>250</v>
+      </c>
+      <c r="C7" s="13">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>-1050</v>
-      </c>
-      <c r="E7" s="53">
-        <v>0</v>
-      </c>
-      <c r="F7" s="53">
+        <v>-250</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="55">
-        <v>0</v>
-      </c>
-      <c r="I7" s="55">
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1693,33 +1624,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="52">
-        <v>0</v>
-      </c>
-      <c r="C8" s="52">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="53">
-        <v>0</v>
-      </c>
-      <c r="F8" s="53">
-        <v>472</v>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>476</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>472</v>
-      </c>
-      <c r="H8" s="55">
-        <v>0</v>
-      </c>
-      <c r="I8" s="55">
+        <v>476</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1728,33 +1659,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="52">
-        <v>0</v>
-      </c>
-      <c r="C9" s="52">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="13">
         <v>33</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="55">
-        <v>0</v>
-      </c>
-      <c r="I9" s="55">
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1763,33 +1694,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="52">
-        <v>0</v>
-      </c>
-      <c r="C10" s="52">
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="53">
-        <v>18</v>
-      </c>
-      <c r="F10" s="53">
-        <v>597</v>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>579</v>
-      </c>
-      <c r="H10" s="55">
-        <v>0</v>
-      </c>
-      <c r="I10" s="55">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1798,33 +1729,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="52">
-        <v>0</v>
-      </c>
-      <c r="C11" s="52">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="53">
-        <v>0</v>
-      </c>
-      <c r="F11" s="53">
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
         <v>155</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="55">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55">
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <v>0</v>
       </c>
       <c r="J11" s="6">
@@ -1833,33 +1764,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="52">
-        <v>0</v>
-      </c>
-      <c r="C12" s="52">
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="53">
-        <v>1013</v>
-      </c>
-      <c r="F12" s="53">
-        <v>0</v>
+      <c r="E12" s="13">
+        <v>40159</v>
+      </c>
+      <c r="F12" s="13">
+        <v>60000</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>-1013</v>
-      </c>
-      <c r="H12" s="55">
-        <v>0</v>
-      </c>
-      <c r="I12" s="55">
+        <v>19841</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <v>0</v>
       </c>
       <c r="J12" s="6">
@@ -1868,33 +1799,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="52">
-        <v>0</v>
-      </c>
-      <c r="C13" s="52">
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="53">
-        <v>0</v>
-      </c>
-      <c r="F13" s="53">
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
         <v>113</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="55">
-        <v>0</v>
-      </c>
-      <c r="I13" s="55">
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1903,33 +1834,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="52">
-        <v>0</v>
-      </c>
-      <c r="C14" s="52">
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13">
         <v>0</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="13">
         <v>1400</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="13">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>-1400</v>
       </c>
-      <c r="H14" s="55">
-        <v>0</v>
-      </c>
-      <c r="I14" s="55">
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
         <v>0</v>
       </c>
       <c r="J14" s="6">
@@ -1938,33 +1869,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="13">
         <v>1070</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="13">
         <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="53">
-        <v>0</v>
-      </c>
-      <c r="F15" s="53">
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="55">
-        <v>0</v>
-      </c>
-      <c r="I15" s="55">
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1973,33 +1904,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="13">
         <v>40</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="13">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="13">
         <v>115</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="55">
-        <v>0</v>
-      </c>
-      <c r="I16" s="55">
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -2008,33 +1939,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="13">
         <v>1610</v>
       </c>
-      <c r="C17" s="52">
-        <v>300</v>
+      <c r="C17" s="13">
+        <v>200</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>-1310</v>
-      </c>
-      <c r="E17" s="53">
-        <v>1004</v>
-      </c>
-      <c r="F17" s="53">
+        <v>-1410</v>
+      </c>
+      <c r="E17" s="13">
+        <v>920</v>
+      </c>
+      <c r="F17" s="13">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>-1004</v>
-      </c>
-      <c r="H17" s="55">
-        <v>0</v>
-      </c>
-      <c r="I17" s="55">
+        <v>-920</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>0</v>
       </c>
       <c r="J17" s="6">
@@ -2043,33 +1974,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="52">
-        <v>0</v>
-      </c>
-      <c r="C18" s="52">
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="13">
         <v>10650</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="55">
-        <v>0</v>
-      </c>
-      <c r="I18" s="55">
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>0</v>
       </c>
       <c r="J18" s="6">
@@ -2078,33 +2009,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="52">
-        <v>0</v>
-      </c>
-      <c r="C19" s="52">
+      <c r="B19" s="13">
+        <v>835</v>
+      </c>
+      <c r="C19" s="13">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="53">
-        <v>0</v>
-      </c>
-      <c r="F19" s="53">
-        <v>7823</v>
+        <v>-835</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>6073</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>7823</v>
-      </c>
-      <c r="H19" s="55">
-        <v>0</v>
-      </c>
-      <c r="I19" s="55">
+        <v>6073</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
         <v>0</v>
       </c>
       <c r="J19" s="6">
@@ -2113,33 +2044,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="13">
         <v>160</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="13">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="53">
-        <v>0</v>
-      </c>
-      <c r="F20" s="53">
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="55">
-        <v>0</v>
-      </c>
-      <c r="I20" s="55">
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
         <v>0</v>
       </c>
       <c r="J20" s="6">
@@ -2148,33 +2079,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="52">
-        <v>0</v>
-      </c>
-      <c r="C21" s="52">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="13">
         <v>156</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="13">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="55">
-        <v>0</v>
-      </c>
-      <c r="I21" s="55">
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21" s="6">
@@ -2183,33 +2114,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="52">
-        <v>0</v>
-      </c>
-      <c r="C22" s="52">
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
         <v>0</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="53">
-        <v>0</v>
-      </c>
-      <c r="F22" s="53">
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
         <v>5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="55">
-        <v>0</v>
-      </c>
-      <c r="I22" s="55">
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
         <v>0</v>
       </c>
       <c r="J22" s="6">
@@ -2218,33 +2149,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="52">
-        <v>0</v>
-      </c>
-      <c r="C23" s="52">
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
         <v>0</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="53">
-        <v>0</v>
-      </c>
-      <c r="F23" s="53">
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
         <v>4075</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="13">
         <v>3000</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="13">
         <v>0</v>
       </c>
       <c r="J23" s="6">
@@ -2253,33 +2184,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="52">
-        <v>0</v>
-      </c>
-      <c r="C24" s="52">
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
         <v>800</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="53">
-        <v>0</v>
-      </c>
-      <c r="F24" s="53">
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
         <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="55">
-        <v>0</v>
-      </c>
-      <c r="I24" s="55">
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
         <v>0</v>
       </c>
       <c r="J24" s="6">
@@ -2288,33 +2219,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="52">
-        <v>0</v>
-      </c>
-      <c r="C25" s="52">
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="53">
-        <v>0</v>
-      </c>
-      <c r="F25" s="53">
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
         <v>0</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="55">
-        <v>0</v>
-      </c>
-      <c r="I25" s="55">
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
         <v>0</v>
       </c>
       <c r="J25" s="6">
@@ -2323,33 +2254,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="52">
-        <v>0</v>
-      </c>
-      <c r="C26" s="52">
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="13">
         <v>656</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="13">
         <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="55">
-        <v>0</v>
-      </c>
-      <c r="I26" s="55">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
         <v>0</v>
       </c>
       <c r="J26" s="6">
@@ -2358,33 +2289,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="52">
-        <v>0</v>
-      </c>
-      <c r="C27" s="52">
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="13">
         <v>1596</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="13">
         <v>0</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="55">
-        <v>0</v>
-      </c>
-      <c r="I27" s="55">
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
         <v>0</v>
       </c>
       <c r="J27" s="6">
@@ -2393,33 +2324,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="52">
+      <c r="A28" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="13">
         <v>300</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="13">
         <v>0</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="E28" s="53">
-        <v>0</v>
-      </c>
-      <c r="F28" s="53">
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
         <v>0</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="55">
-        <v>0</v>
-      </c>
-      <c r="I28" s="55">
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
         <v>0</v>
       </c>
       <c r="J28" s="6">
@@ -2428,33 +2359,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="52">
-        <v>0</v>
-      </c>
-      <c r="C29" s="52">
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="13">
         <v>6000</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="13">
         <v>0</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>-6000</v>
       </c>
-      <c r="H29" s="55">
-        <v>0</v>
-      </c>
-      <c r="I29" s="55">
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
         <v>0</v>
       </c>
       <c r="J29" s="6">
@@ -2463,33 +2394,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="13">
         <v>610</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="13">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="53">
-        <v>0</v>
-      </c>
-      <c r="F30" s="53">
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
         <v>1868</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="55">
-        <v>0</v>
-      </c>
-      <c r="I30" s="55">
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
         <v>0</v>
       </c>
       <c r="J30" s="6">
@@ -2498,33 +2429,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="52">
-        <v>0</v>
-      </c>
-      <c r="C31" s="52">
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
         <v>0</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="13">
         <v>600</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="13">
         <v>0</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>-600</v>
       </c>
-      <c r="H31" s="55">
-        <v>0</v>
-      </c>
-      <c r="I31" s="55">
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="6">
@@ -2533,33 +2464,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="13">
         <v>5600</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="13">
         <v>0</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="53">
-        <v>0</v>
-      </c>
-      <c r="F32" s="53">
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
         <v>0</v>
       </c>
       <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="55">
-        <v>0</v>
-      </c>
-      <c r="I32" s="55">
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
         <v>0</v>
       </c>
       <c r="J32" s="6">
@@ -2568,33 +2499,33 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="52">
-        <v>0</v>
-      </c>
-      <c r="C33" s="52">
-        <v>2114</v>
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
+        <v>3017</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="0"/>
-        <v>2114</v>
-      </c>
-      <c r="E33" s="53">
-        <v>6364</v>
-      </c>
-      <c r="F33" s="53">
+        <v>3017</v>
+      </c>
+      <c r="E33" s="13">
+        <v>6464</v>
+      </c>
+      <c r="F33" s="13">
         <v>0</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="1"/>
-        <v>-6364</v>
-      </c>
-      <c r="H33" s="55">
-        <v>0</v>
-      </c>
-      <c r="I33" s="55">
+        <v>-6464</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
         <v>0</v>
       </c>
       <c r="J33" s="6">
@@ -2603,33 +2534,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="13">
         <v>15</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="13">
         <v>0</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="53">
+      <c r="E34" s="13">
         <v>5600</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="13">
         <v>0</v>
       </c>
       <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>-5600</v>
       </c>
-      <c r="H34" s="55">
-        <v>0</v>
-      </c>
-      <c r="I34" s="55">
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
         <v>0</v>
       </c>
       <c r="J34" s="6">
@@ -2638,33 +2569,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="52">
-        <v>0</v>
-      </c>
-      <c r="C35" s="52">
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
         <v>0</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="53">
+      <c r="E35" s="13">
         <v>10</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="13">
         <v>0</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="55">
-        <v>0</v>
-      </c>
-      <c r="I35" s="55">
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
         <v>0</v>
       </c>
       <c r="J35" s="6">
@@ -2673,33 +2604,31 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="52">
-        <v>0</v>
-      </c>
-      <c r="C36" s="52">
+      <c r="A36" s="45"/>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="53">
-        <v>0</v>
-      </c>
-      <c r="F36" s="53">
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
         <v>0</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="55">
-        <v>0</v>
-      </c>
-      <c r="I36" s="55">
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
         <v>0</v>
       </c>
       <c r="J36" s="6">
@@ -2708,33 +2637,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="52">
-        <v>0</v>
-      </c>
-      <c r="C37" s="52">
+      <c r="A37" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="53">
-        <v>0</v>
-      </c>
-      <c r="F37" s="53">
-        <v>2376</v>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2189</v>
       </c>
       <c r="G37" s="6">
         <f t="shared" si="1"/>
-        <v>2376</v>
-      </c>
-      <c r="H37" s="55">
-        <v>0</v>
-      </c>
-      <c r="I37" s="55">
+        <v>2189</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
         <v>0</v>
       </c>
       <c r="J37" s="6">
@@ -2743,33 +2672,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B38" s="13">
         <v>20</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="13">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="53">
-        <v>0</v>
-      </c>
-      <c r="F38" s="53">
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
         <v>0</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="55">
-        <v>0</v>
-      </c>
-      <c r="I38" s="55">
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
         <v>0</v>
       </c>
       <c r="J38" s="6">
@@ -2778,33 +2707,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="52">
-        <v>0</v>
-      </c>
-      <c r="C39" s="52">
+      <c r="A39" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13">
         <v>0</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="53">
-        <v>270</v>
-      </c>
-      <c r="F39" s="53">
+      <c r="E39" s="13">
+        <v>770</v>
+      </c>
+      <c r="F39" s="13">
         <v>0</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>-270</v>
-      </c>
-      <c r="H39" s="55">
-        <v>0</v>
-      </c>
-      <c r="I39" s="55">
+        <v>-770</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
         <v>0</v>
       </c>
       <c r="J39" s="6">
@@ -2813,33 +2742,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="52">
-        <v>0</v>
-      </c>
-      <c r="C40" s="52">
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
         <v>5475</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="53">
-        <v>0</v>
-      </c>
-      <c r="F40" s="53">
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
         <v>0</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="55">
-        <v>0</v>
-      </c>
-      <c r="I40" s="55">
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
         <v>0</v>
       </c>
       <c r="J40" s="6">
@@ -2851,30 +2780,30 @@
       <c r="A41" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="52">
-        <v>0</v>
-      </c>
-      <c r="C41" s="52">
+      <c r="B41" s="13">
+        <v>100</v>
+      </c>
+      <c r="C41" s="13">
         <v>0</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="53">
-        <v>3934</v>
-      </c>
-      <c r="F41" s="53">
+        <v>-100</v>
+      </c>
+      <c r="E41" s="13">
+        <v>3790</v>
+      </c>
+      <c r="F41" s="13">
         <v>0</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>-3934</v>
-      </c>
-      <c r="H41" s="55">
-        <v>0</v>
-      </c>
-      <c r="I41" s="55">
+        <v>-3790</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
         <v>0</v>
       </c>
       <c r="J41" s="6">
@@ -2883,33 +2812,33 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="52">
-        <v>0</v>
-      </c>
-      <c r="C42" s="52">
+      <c r="B42" s="13">
+        <v>25</v>
+      </c>
+      <c r="C42" s="13">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="53">
-        <v>0</v>
-      </c>
-      <c r="F42" s="53">
+        <v>-25</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13">
         <v>0</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="55">
-        <v>0</v>
-      </c>
-      <c r="I42" s="55">
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
         <v>0</v>
       </c>
       <c r="J42" s="6">
@@ -2918,33 +2847,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="52">
-        <v>0</v>
-      </c>
-      <c r="C43" s="52">
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
         <v>300</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E43" s="53">
-        <v>0</v>
-      </c>
-      <c r="F43" s="53">
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
         <v>0</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="55">
-        <v>0</v>
-      </c>
-      <c r="I43" s="55">
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
         <v>0</v>
       </c>
       <c r="J43" s="6">
@@ -2953,33 +2882,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="52">
-        <v>0</v>
-      </c>
-      <c r="C44" s="52">
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
         <v>0</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="13">
         <v>60</v>
       </c>
-      <c r="F44" s="53">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="55">
-        <v>0</v>
-      </c>
-      <c r="I44" s="55">
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
         <v>0</v>
       </c>
       <c r="J44" s="6">
@@ -2988,33 +2917,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="52">
+      <c r="A45" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="13">
         <v>95</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="13">
         <v>0</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>-95</v>
       </c>
-      <c r="E45" s="53">
-        <v>0</v>
-      </c>
-      <c r="F45" s="53">
+      <c r="E45" s="13">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
         <v>0</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="55">
-        <v>0</v>
-      </c>
-      <c r="I45" s="55">
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
         <v>0</v>
       </c>
       <c r="J45" s="6">
@@ -3023,33 +2952,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="52">
-        <v>0</v>
-      </c>
-      <c r="C46" s="52">
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E46" s="13">
         <v>10</v>
       </c>
-      <c r="F46" s="53">
+      <c r="F46" s="13">
         <v>0</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="55">
-        <v>0</v>
-      </c>
-      <c r="I46" s="55">
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
         <v>0</v>
       </c>
       <c r="J46" s="6">
@@ -3058,33 +2987,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="52">
-        <v>0</v>
-      </c>
-      <c r="C47" s="52">
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
         <v>0</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E47" s="13">
         <v>250</v>
       </c>
-      <c r="F47" s="53">
+      <c r="F47" s="13">
         <v>0</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="55">
-        <v>0</v>
-      </c>
-      <c r="I47" s="55">
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
         <v>0</v>
       </c>
       <c r="J47" s="6">
@@ -3093,33 +3022,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="52">
-        <v>0</v>
-      </c>
-      <c r="C48" s="52">
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13">
         <v>300</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E48" s="13">
         <v>2419</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F48" s="13">
         <v>0</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>-2419</v>
       </c>
-      <c r="H48" s="55">
-        <v>0</v>
-      </c>
-      <c r="I48" s="55">
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
         <v>0</v>
       </c>
       <c r="J48" s="6">
@@ -3128,33 +3057,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="52">
+      <c r="B49" s="13">
         <v>74</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="13">
         <v>0</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="53">
-        <v>0</v>
-      </c>
-      <c r="F49" s="53">
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
         <v>0</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="55">
-        <v>0</v>
-      </c>
-      <c r="I49" s="55">
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
         <v>0</v>
       </c>
       <c r="J49" s="6">
@@ -3163,33 +3092,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="52">
-        <v>0</v>
-      </c>
-      <c r="C50" s="52">
+      <c r="A50" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
         <v>0</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E50" s="13">
         <v>128</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F50" s="13">
         <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
         <v>-128</v>
       </c>
-      <c r="H50" s="55">
-        <v>0</v>
-      </c>
-      <c r="I50" s="55">
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
         <v>0</v>
       </c>
       <c r="J50" s="6">
@@ -3198,33 +3127,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="52">
-        <v>0</v>
-      </c>
-      <c r="C51" s="52">
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E51" s="13">
         <v>300</v>
       </c>
-      <c r="F51" s="53">
+      <c r="F51" s="13">
         <v>0</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="55">
-        <v>0</v>
-      </c>
-      <c r="I51" s="55">
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
         <v>0</v>
       </c>
       <c r="J51" s="6">
@@ -3233,33 +3162,33 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B52" s="13">
         <v>250</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="13">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="53">
-        <v>0</v>
-      </c>
-      <c r="F52" s="53">
+      <c r="E52" s="13">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
         <v>0</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52" s="55">
-        <v>0</v>
-      </c>
-      <c r="I52" s="55">
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
         <v>0</v>
       </c>
       <c r="J52" s="6">
@@ -3268,68 +3197,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="52">
-        <v>0</v>
-      </c>
-      <c r="C53" s="52">
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="13">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="53">
-        <v>18991</v>
-      </c>
-      <c r="F53" s="53">
+      <c r="E53" s="13">
+        <v>7071</v>
+      </c>
+      <c r="F53" s="13">
         <v>0</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>-18991</v>
-      </c>
-      <c r="H53" s="55">
-        <v>7549</v>
-      </c>
-      <c r="I53" s="55">
-        <v>0</v>
+        <v>-7071</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <v>6011</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>-7549</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="52">
-        <v>0</v>
-      </c>
-      <c r="C54" s="52">
+      <c r="A54" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E54" s="53">
-        <v>0</v>
-      </c>
-      <c r="F54" s="53">
-        <v>0</v>
+      <c r="E54" s="13">
+        <v>2961</v>
+      </c>
+      <c r="F54" s="13">
+        <v>3000</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="55">
-        <v>0</v>
-      </c>
-      <c r="I54" s="55">
+        <v>39</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
         <v>0</v>
       </c>
       <c r="J54" s="6">
@@ -3338,33 +3267,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="13">
         <v>14</v>
       </c>
-      <c r="C55" s="52">
+      <c r="C55" s="13">
         <v>0</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="53">
-        <v>0</v>
-      </c>
-      <c r="F55" s="53">
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
         <v>0</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="55">
-        <v>0</v>
-      </c>
-      <c r="I55" s="55">
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
         <v>0</v>
       </c>
       <c r="J55" s="6">
@@ -3373,33 +3302,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="52">
-        <v>0</v>
-      </c>
-      <c r="C56" s="52">
+      <c r="A56" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13">
         <v>0</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="53">
-        <v>548</v>
-      </c>
-      <c r="F56" s="53">
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
         <v>0</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="1"/>
-        <v>-548</v>
-      </c>
-      <c r="H56" s="55">
-        <v>0</v>
-      </c>
-      <c r="I56" s="55">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
         <v>0</v>
       </c>
       <c r="J56" s="6">
@@ -3408,33 +3337,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="52">
-        <v>0</v>
-      </c>
-      <c r="C57" s="52">
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="13">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="53">
+      <c r="E57" s="13">
         <v>10</v>
       </c>
-      <c r="F57" s="53">
+      <c r="F57" s="13">
         <v>0</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="55">
-        <v>0</v>
-      </c>
-      <c r="I57" s="55">
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
         <v>0</v>
       </c>
       <c r="J57" s="6">
@@ -3443,33 +3372,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="52">
+      <c r="A58" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="13">
         <v>625</v>
       </c>
-      <c r="C58" s="52">
+      <c r="C58" s="13">
         <v>0</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="0"/>
         <v>-625</v>
       </c>
-      <c r="E58" s="53">
+      <c r="E58" s="13">
         <v>2522</v>
       </c>
-      <c r="F58" s="53">
+      <c r="F58" s="13">
         <v>0</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="55">
-        <v>0</v>
-      </c>
-      <c r="I58" s="55">
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
         <v>0</v>
       </c>
       <c r="J58" s="6">
@@ -3478,33 +3407,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="52">
-        <v>0</v>
-      </c>
-      <c r="C59" s="52">
-        <v>0</v>
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13">
+        <v>5570</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="53">
-        <v>18143</v>
-      </c>
-      <c r="F59" s="53">
+        <v>5570</v>
+      </c>
+      <c r="E59" s="13">
+        <v>17329</v>
+      </c>
+      <c r="F59" s="13">
         <v>0</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="1"/>
-        <v>-18143</v>
-      </c>
-      <c r="H59" s="55">
-        <v>0</v>
-      </c>
-      <c r="I59" s="55">
+        <v>-17329</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
         <v>0</v>
       </c>
       <c r="J59" s="6">
@@ -3513,33 +3442,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="52">
-        <v>0</v>
-      </c>
-      <c r="C60" s="52">
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13">
         <v>0</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="13">
         <v>165</v>
       </c>
-      <c r="F60" s="53">
+      <c r="F60" s="13">
         <v>0</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="1"/>
         <v>-165</v>
       </c>
-      <c r="H60" s="55">
-        <v>0</v>
-      </c>
-      <c r="I60" s="55">
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
         <v>0</v>
       </c>
       <c r="J60" s="6">
@@ -3548,33 +3477,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="52">
-        <v>0</v>
-      </c>
-      <c r="C61" s="52">
-        <v>4707</v>
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="13">
+        <v>10287</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="0"/>
-        <v>4707</v>
-      </c>
-      <c r="E61" s="53">
-        <v>0</v>
-      </c>
-      <c r="F61" s="53">
+        <v>10287</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0</v>
+      </c>
+      <c r="F61" s="13">
         <v>0</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H61" s="55">
-        <v>0</v>
-      </c>
-      <c r="I61" s="55">
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13">
         <v>0</v>
       </c>
       <c r="J61" s="6">
@@ -3583,33 +3512,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="13">
         <v>389</v>
       </c>
-      <c r="C62" s="52">
+      <c r="C62" s="13">
         <v>0</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="0"/>
         <v>-389</v>
       </c>
-      <c r="E62" s="53">
-        <v>0</v>
-      </c>
-      <c r="F62" s="53">
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
         <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="55">
-        <v>0</v>
-      </c>
-      <c r="I62" s="55">
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
         <v>0</v>
       </c>
       <c r="J62" s="6">
@@ -3618,68 +3547,68 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="52">
-        <v>0</v>
-      </c>
-      <c r="C63" s="52">
+      <c r="B63" s="13">
+        <v>500</v>
+      </c>
+      <c r="C63" s="13">
         <v>0</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="53">
-        <v>0</v>
-      </c>
-      <c r="F63" s="53">
+        <v>-500</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
         <v>500</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H63" s="55">
-        <v>0</v>
-      </c>
-      <c r="I63" s="55">
-        <v>120</v>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
+        <v>0</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="52">
-        <v>0</v>
-      </c>
-      <c r="C64" s="52">
+      <c r="B64" s="13">
+        <v>0</v>
+      </c>
+      <c r="C64" s="13">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="53">
+      <c r="E64" s="13">
         <v>200</v>
       </c>
-      <c r="F64" s="53">
+      <c r="F64" s="13">
         <v>0</v>
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="55">
-        <v>0</v>
-      </c>
-      <c r="I64" s="55">
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13">
         <v>0</v>
       </c>
       <c r="J64" s="6">
@@ -3688,33 +3617,33 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="52">
-        <v>0</v>
-      </c>
-      <c r="C65" s="52">
+      <c r="A65" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="13">
         <v>0</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="53">
-        <v>0</v>
-      </c>
-      <c r="F65" s="53">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
         <v>0</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="55">
+      <c r="H65" s="13">
         <v>2525</v>
       </c>
-      <c r="I65" s="55">
+      <c r="I65" s="13">
         <v>0</v>
       </c>
       <c r="J65" s="6">
@@ -3723,33 +3652,33 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="52">
-        <v>0</v>
-      </c>
-      <c r="C66" s="52">
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="13">
         <v>20</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="53">
-        <v>0</v>
-      </c>
-      <c r="F66" s="53">
-        <v>1242</v>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>1260</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" si="1"/>
-        <v>1242</v>
-      </c>
-      <c r="H66" s="55">
-        <v>0</v>
-      </c>
-      <c r="I66" s="55">
+        <v>1260</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0</v>
+      </c>
+      <c r="I66" s="13">
         <v>0</v>
       </c>
       <c r="J66" s="6">
@@ -3758,33 +3687,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="52">
-        <v>0</v>
-      </c>
-      <c r="C67" s="52">
+      <c r="B67" s="13">
+        <v>0</v>
+      </c>
+      <c r="C67" s="13">
         <v>0</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="53">
-        <v>38529</v>
-      </c>
-      <c r="F67" s="53">
+      <c r="E67" s="13">
+        <v>3580</v>
+      </c>
+      <c r="F67" s="13">
         <v>0</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>-38529</v>
-      </c>
-      <c r="H67" s="55">
-        <v>0</v>
-      </c>
-      <c r="I67" s="55">
+        <v>-3580</v>
+      </c>
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13">
         <v>0</v>
       </c>
       <c r="J67" s="6">
@@ -3793,33 +3722,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="52">
-        <v>0</v>
-      </c>
-      <c r="C68" s="52">
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13">
         <v>0</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="13">
         <v>16</v>
       </c>
-      <c r="F68" s="53">
+      <c r="F68" s="13">
         <v>0</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="55">
-        <v>0</v>
-      </c>
-      <c r="I68" s="55">
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13">
         <v>0</v>
       </c>
       <c r="J68" s="6">
@@ -3828,33 +3757,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="52">
-        <v>0</v>
-      </c>
-      <c r="C69" s="52">
+      <c r="A69" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="13">
+        <v>0</v>
+      </c>
+      <c r="C69" s="13">
         <v>0</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="53">
-        <v>0</v>
-      </c>
-      <c r="F69" s="53">
-        <v>1285</v>
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <v>5467</v>
       </c>
       <c r="G69" s="6">
         <f t="shared" si="4"/>
-        <v>1285</v>
-      </c>
-      <c r="H69" s="55">
-        <v>0</v>
-      </c>
-      <c r="I69" s="55">
+        <v>5467</v>
+      </c>
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13">
         <v>0</v>
       </c>
       <c r="J69" s="6">
@@ -3863,33 +3792,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="52">
-        <v>0</v>
-      </c>
-      <c r="C70" s="52">
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="13">
         <v>0</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="53">
+      <c r="E70" s="13">
         <v>146</v>
       </c>
-      <c r="F70" s="53">
+      <c r="F70" s="13">
         <v>0</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="55">
-        <v>0</v>
-      </c>
-      <c r="I70" s="55">
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13">
         <v>0</v>
       </c>
       <c r="J70" s="6">
@@ -3898,33 +3827,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" s="52">
-        <v>0</v>
-      </c>
-      <c r="C71" s="52">
+      <c r="A71" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="13">
+        <v>0</v>
+      </c>
+      <c r="C71" s="13">
         <v>0</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="53">
-        <v>0</v>
-      </c>
-      <c r="F71" s="53">
-        <v>0</v>
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
+        <v>99</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="55">
-        <v>0</v>
-      </c>
-      <c r="I71" s="55">
+        <v>99</v>
+      </c>
+      <c r="H71" s="13">
+        <v>0</v>
+      </c>
+      <c r="I71" s="13">
         <v>0</v>
       </c>
       <c r="J71" s="6">
@@ -3933,33 +3862,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="52">
-        <v>100</v>
-      </c>
-      <c r="C72" s="52">
+      <c r="B72" s="13">
+        <v>150</v>
+      </c>
+      <c r="C72" s="13">
         <v>1270</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="3"/>
-        <v>1170</v>
-      </c>
-      <c r="E72" s="53">
-        <v>0</v>
-      </c>
-      <c r="F72" s="53">
+        <v>1120</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
         <v>0</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H72" s="55">
-        <v>0</v>
-      </c>
-      <c r="I72" s="55">
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
+      <c r="I72" s="13">
         <v>0</v>
       </c>
       <c r="J72" s="6">
@@ -3968,33 +3897,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="52">
-        <v>0</v>
-      </c>
-      <c r="C73" s="52">
+      <c r="B73" s="13">
+        <v>0</v>
+      </c>
+      <c r="C73" s="13">
         <v>0</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="13">
         <v>12813</v>
       </c>
-      <c r="F73" s="53">
+      <c r="F73" s="13">
         <v>0</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="4"/>
         <v>-12813</v>
       </c>
-      <c r="H73" s="55">
-        <v>0</v>
-      </c>
-      <c r="I73" s="55">
+      <c r="H73" s="13">
+        <v>0</v>
+      </c>
+      <c r="I73" s="13">
         <v>0</v>
       </c>
       <c r="J73" s="6">
@@ -4003,33 +3932,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="52">
-        <v>0</v>
-      </c>
-      <c r="C74" s="52">
+      <c r="A74" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="13">
         <v>0</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="13">
         <v>22000</v>
       </c>
-      <c r="F74" s="53">
+      <c r="F74" s="13">
         <v>0</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="4"/>
         <v>-22000</v>
       </c>
-      <c r="H74" s="55">
-        <v>0</v>
-      </c>
-      <c r="I74" s="55">
+      <c r="H74" s="13">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13">
         <v>0</v>
       </c>
       <c r="J74" s="6">
@@ -4038,33 +3967,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="52">
+      <c r="B75" s="13">
         <v>200</v>
       </c>
-      <c r="C75" s="52">
+      <c r="C75" s="13">
         <v>0</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="53">
-        <v>0</v>
-      </c>
-      <c r="F75" s="53">
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
         <v>0</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="55">
-        <v>0</v>
-      </c>
-      <c r="I75" s="55">
+      <c r="H75" s="13">
+        <v>0</v>
+      </c>
+      <c r="I75" s="13">
         <v>0</v>
       </c>
       <c r="J75" s="6">
@@ -4073,33 +4002,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="52">
-        <v>0</v>
-      </c>
-      <c r="C76" s="52">
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="13">
         <v>0</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="53">
-        <v>3302</v>
-      </c>
-      <c r="F76" s="53">
+      <c r="E76" s="13">
+        <v>7535</v>
+      </c>
+      <c r="F76" s="13">
         <v>0</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="4"/>
-        <v>-3302</v>
-      </c>
-      <c r="H76" s="55">
-        <v>0</v>
-      </c>
-      <c r="I76" s="55">
+        <v>-7535</v>
+      </c>
+      <c r="H76" s="13">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13">
         <v>0</v>
       </c>
       <c r="J76" s="6">
@@ -4108,33 +4037,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="52">
-        <v>0</v>
-      </c>
-      <c r="C77" s="52">
+      <c r="B77" s="13">
+        <v>0</v>
+      </c>
+      <c r="C77" s="13">
         <v>0</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="13">
         <v>133</v>
       </c>
-      <c r="F77" s="53">
+      <c r="F77" s="13">
         <v>0</v>
       </c>
       <c r="G77" s="6">
         <f t="shared" si="4"/>
         <v>-133</v>
       </c>
-      <c r="H77" s="55">
-        <v>0</v>
-      </c>
-      <c r="I77" s="55">
+      <c r="H77" s="13">
+        <v>0</v>
+      </c>
+      <c r="I77" s="13">
         <v>0</v>
       </c>
       <c r="J77" s="6">
@@ -4143,33 +4072,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="52">
-        <v>0</v>
-      </c>
-      <c r="C78" s="52">
+      <c r="A78" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="13">
+        <v>0</v>
+      </c>
+      <c r="C78" s="13">
         <v>0</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="53">
-        <v>12853</v>
-      </c>
-      <c r="F78" s="53">
-        <v>10000</v>
+      <c r="E78" s="13">
+        <v>400</v>
+      </c>
+      <c r="F78" s="13">
+        <v>0</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" si="4"/>
-        <v>-2853</v>
-      </c>
-      <c r="H78" s="55">
-        <v>0</v>
-      </c>
-      <c r="I78" s="55">
+        <v>-400</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
+      </c>
+      <c r="I78" s="13">
         <v>0</v>
       </c>
       <c r="J78" s="6">
@@ -4178,33 +4107,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B79" s="52">
+      <c r="A79" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="13">
         <v>150</v>
       </c>
-      <c r="C79" s="52">
+      <c r="C79" s="13">
         <v>0</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="53">
-        <v>0</v>
-      </c>
-      <c r="F79" s="53">
+      <c r="E79" s="13">
+        <v>0</v>
+      </c>
+      <c r="F79" s="13">
         <v>0</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H79" s="55">
-        <v>0</v>
-      </c>
-      <c r="I79" s="55">
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
         <v>0</v>
       </c>
       <c r="J79" s="6">
@@ -4213,33 +4142,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="52">
-        <v>0</v>
-      </c>
-      <c r="C80" s="52">
+      <c r="A80" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="13">
+        <v>0</v>
+      </c>
+      <c r="C80" s="13">
         <v>1620</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="53">
-        <v>0</v>
-      </c>
-      <c r="F80" s="53">
+      <c r="E80" s="13">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13">
         <v>0</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="55">
-        <v>0</v>
-      </c>
-      <c r="I80" s="55">
+      <c r="H80" s="13">
+        <v>0</v>
+      </c>
+      <c r="I80" s="13">
         <v>0</v>
       </c>
       <c r="J80" s="6">
@@ -4248,33 +4177,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="52">
-        <v>0</v>
-      </c>
-      <c r="C81" s="52">
+      <c r="A81" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="13">
+        <v>0</v>
+      </c>
+      <c r="C81" s="13">
         <v>0</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="53">
-        <v>0</v>
-      </c>
-      <c r="F81" s="53">
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="13">
         <v>100</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="55">
-        <v>0</v>
-      </c>
-      <c r="I81" s="55">
+      <c r="H81" s="13">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13">
         <v>0</v>
       </c>
       <c r="J81" s="6">
@@ -4283,33 +4212,33 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="52">
-        <v>0</v>
-      </c>
-      <c r="C82" s="52">
+      <c r="A82" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="13">
+        <v>0</v>
+      </c>
+      <c r="C82" s="13">
         <v>0</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="53">
-        <v>2211</v>
-      </c>
-      <c r="F82" s="53">
+      <c r="E82" s="13">
+        <v>2137</v>
+      </c>
+      <c r="F82" s="13">
         <v>0</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="4"/>
-        <v>-2211</v>
-      </c>
-      <c r="H82" s="55">
-        <v>0</v>
-      </c>
-      <c r="I82" s="55">
+        <v>-2137</v>
+      </c>
+      <c r="H82" s="13">
+        <v>0</v>
+      </c>
+      <c r="I82" s="13">
         <v>0</v>
       </c>
       <c r="J82" s="6">
@@ -4318,33 +4247,33 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" s="52">
-        <v>0</v>
-      </c>
-      <c r="C83" s="52">
+      <c r="A83" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="13">
+        <v>0</v>
+      </c>
+      <c r="C83" s="13">
         <v>0</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="53">
+      <c r="E83" s="13">
         <v>1502</v>
       </c>
-      <c r="F83" s="53">
+      <c r="F83" s="13">
         <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="4"/>
         <v>-1502</v>
       </c>
-      <c r="H83" s="55">
-        <v>0</v>
-      </c>
-      <c r="I83" s="55">
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
         <v>0</v>
       </c>
       <c r="J83" s="6">
@@ -4353,33 +4282,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" s="52">
-        <v>0</v>
-      </c>
-      <c r="C84" s="52">
+      <c r="A84" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="13">
+        <v>0</v>
+      </c>
+      <c r="C84" s="13">
         <v>0</v>
       </c>
       <c r="D84" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="53">
-        <v>312</v>
-      </c>
-      <c r="F84" s="53">
+      <c r="E84" s="13">
+        <v>80</v>
+      </c>
+      <c r="F84" s="13">
         <v>0</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="4"/>
-        <v>-312</v>
-      </c>
-      <c r="H84" s="55">
-        <v>0</v>
-      </c>
-      <c r="I84" s="55">
+        <v>-80</v>
+      </c>
+      <c r="H84" s="13">
+        <v>0</v>
+      </c>
+      <c r="I84" s="13">
         <v>0</v>
       </c>
       <c r="J84" s="6">
@@ -4388,33 +4317,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="52">
+      <c r="A85" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="13">
         <v>95</v>
       </c>
-      <c r="C85" s="52">
+      <c r="C85" s="13">
         <v>0</v>
       </c>
       <c r="D85" s="6">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="53">
+      <c r="E85" s="13">
         <v>200</v>
       </c>
-      <c r="F85" s="53">
+      <c r="F85" s="13">
         <v>0</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="4"/>
         <v>-200</v>
       </c>
-      <c r="H85" s="55">
-        <v>0</v>
-      </c>
-      <c r="I85" s="55">
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+      <c r="I85" s="13">
         <v>0</v>
       </c>
       <c r="J85" s="6">
@@ -4423,33 +4352,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="52">
-        <v>0</v>
-      </c>
-      <c r="C86" s="52">
+      <c r="A86" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="13">
+        <v>0</v>
+      </c>
+      <c r="C86" s="13">
         <v>0</v>
       </c>
       <c r="D86" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="53">
-        <v>0</v>
-      </c>
-      <c r="F86" s="53">
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
         <v>8118</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="55">
-        <v>0</v>
-      </c>
-      <c r="I86" s="55">
+      <c r="H86" s="13">
+        <v>0</v>
+      </c>
+      <c r="I86" s="13">
         <v>0</v>
       </c>
       <c r="J86" s="6">
@@ -4458,33 +4387,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="52">
-        <v>0</v>
-      </c>
-      <c r="C87" s="52">
+      <c r="B87" s="13">
+        <v>0</v>
+      </c>
+      <c r="C87" s="13">
         <v>0</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="53">
-        <v>4937</v>
-      </c>
-      <c r="F87" s="53">
-        <v>0</v>
+      <c r="E87" s="13">
+        <v>1008</v>
+      </c>
+      <c r="F87" s="13">
+        <v>3480</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="4"/>
-        <v>-4937</v>
-      </c>
-      <c r="H87" s="55">
-        <v>0</v>
-      </c>
-      <c r="I87" s="55">
+        <v>2472</v>
+      </c>
+      <c r="H87" s="13">
+        <v>0</v>
+      </c>
+      <c r="I87" s="13">
         <v>0</v>
       </c>
       <c r="J87" s="6">
@@ -4493,33 +4422,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="52">
-        <v>0</v>
-      </c>
-      <c r="C88" s="52">
-        <v>1800</v>
+      <c r="A88" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="13">
+        <v>0</v>
+      </c>
+      <c r="C88" s="13">
+        <v>900</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-      <c r="E88" s="53">
-        <v>0</v>
-      </c>
-      <c r="F88" s="53">
+        <v>900</v>
+      </c>
+      <c r="E88" s="13">
+        <v>0</v>
+      </c>
+      <c r="F88" s="13">
         <v>0</v>
       </c>
       <c r="G88" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="55">
-        <v>0</v>
-      </c>
-      <c r="I88" s="55">
+      <c r="H88" s="13">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13">
         <v>0</v>
       </c>
       <c r="J88" s="6">
@@ -4528,68 +4457,68 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="52">
-        <v>0</v>
-      </c>
-      <c r="C89" s="52">
+      <c r="A89" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="13">
+        <v>0</v>
+      </c>
+      <c r="C89" s="13">
         <v>0</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="53">
-        <v>208</v>
-      </c>
-      <c r="F89" s="53">
+      <c r="E89" s="13">
+        <v>714</v>
+      </c>
+      <c r="F89" s="13">
         <v>0</v>
       </c>
       <c r="G89" s="6">
         <f t="shared" si="4"/>
-        <v>-208</v>
-      </c>
-      <c r="H89" s="55">
-        <v>358</v>
-      </c>
-      <c r="I89" s="55">
+        <v>-714</v>
+      </c>
+      <c r="H89" s="13">
+        <v>0</v>
+      </c>
+      <c r="I89" s="13">
         <v>0</v>
       </c>
       <c r="J89" s="6">
         <f t="shared" si="5"/>
-        <v>-358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" s="52">
-        <v>0</v>
-      </c>
-      <c r="C90" s="52">
+      <c r="A90" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="13">
+        <v>0</v>
+      </c>
+      <c r="C90" s="13">
         <v>0</v>
       </c>
       <c r="D90" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="13">
         <v>12662</v>
       </c>
-      <c r="F90" s="53">
+      <c r="F90" s="13">
         <v>0</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="55">
-        <v>0</v>
-      </c>
-      <c r="I90" s="55">
+      <c r="H90" s="13">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13">
         <v>0</v>
       </c>
       <c r="J90" s="6">
@@ -4598,31 +4527,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="52">
-        <v>0</v>
-      </c>
-      <c r="C91" s="52">
+      <c r="A91" s="10"/>
+      <c r="B91" s="13">
+        <v>0</v>
+      </c>
+      <c r="C91" s="13">
         <v>0</v>
       </c>
       <c r="D91" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="53">
-        <v>0</v>
-      </c>
-      <c r="F91" s="53">
+      <c r="E91" s="13">
+        <v>0</v>
+      </c>
+      <c r="F91" s="13">
         <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="55">
-        <v>0</v>
-      </c>
-      <c r="I91" s="55">
+      <c r="H91" s="13">
+        <v>0</v>
+      </c>
+      <c r="I91" s="13">
         <v>0</v>
       </c>
       <c r="J91" s="6">
@@ -4631,33 +4560,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B92" s="52">
-        <v>0</v>
-      </c>
-      <c r="C92" s="52">
-        <v>200</v>
+      <c r="A92" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="13">
+        <v>0</v>
+      </c>
+      <c r="C92" s="13">
+        <v>175</v>
       </c>
       <c r="D92" s="6">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="E92" s="53">
-        <v>0</v>
-      </c>
-      <c r="F92" s="53">
+        <v>175</v>
+      </c>
+      <c r="E92" s="13">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13">
         <v>0</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="55">
-        <v>0</v>
-      </c>
-      <c r="I92" s="55">
+      <c r="H92" s="13">
+        <v>0</v>
+      </c>
+      <c r="I92" s="13">
         <v>0</v>
       </c>
       <c r="J92" s="6">
@@ -4666,33 +4595,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="52">
-        <v>0</v>
-      </c>
-      <c r="C93" s="52">
+      <c r="A93" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="13">
+        <v>0</v>
+      </c>
+      <c r="C93" s="13">
         <v>2850</v>
       </c>
       <c r="D93" s="6">
         <f t="shared" si="3"/>
         <v>2850</v>
       </c>
-      <c r="E93" s="53">
-        <v>0</v>
-      </c>
-      <c r="F93" s="53">
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
         <v>0</v>
       </c>
       <c r="G93" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="55">
-        <v>0</v>
-      </c>
-      <c r="I93" s="55">
+      <c r="H93" s="13">
+        <v>0</v>
+      </c>
+      <c r="I93" s="13">
         <v>0</v>
       </c>
       <c r="J93" s="6">
@@ -4701,33 +4630,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="52">
+      <c r="A94" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="13">
         <v>7</v>
       </c>
-      <c r="C94" s="52">
+      <c r="C94" s="13">
         <v>0</v>
       </c>
       <c r="D94" s="6">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="53">
-        <v>0</v>
-      </c>
-      <c r="F94" s="53">
+      <c r="E94" s="13">
+        <v>0</v>
+      </c>
+      <c r="F94" s="13">
         <v>0</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="55">
-        <v>0</v>
-      </c>
-      <c r="I94" s="55">
+      <c r="H94" s="13">
+        <v>0</v>
+      </c>
+      <c r="I94" s="13">
         <v>0</v>
       </c>
       <c r="J94" s="6">
@@ -4736,33 +4665,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B95" s="52">
-        <v>0</v>
-      </c>
-      <c r="C95" s="52">
+      <c r="A95" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="13">
+        <v>0</v>
+      </c>
+      <c r="C95" s="13">
         <v>0</v>
       </c>
       <c r="D95" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="53">
+      <c r="E95" s="13">
         <v>21</v>
       </c>
-      <c r="F95" s="53">
+      <c r="F95" s="13">
         <v>0</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="55">
-        <v>0</v>
-      </c>
-      <c r="I95" s="55">
+      <c r="H95" s="13">
+        <v>0</v>
+      </c>
+      <c r="I95" s="13">
         <v>0</v>
       </c>
       <c r="J95" s="6">
@@ -4771,33 +4700,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="52">
-        <v>0</v>
-      </c>
-      <c r="C96" s="52">
+      <c r="A96" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="13">
+        <v>0</v>
+      </c>
+      <c r="C96" s="13">
         <v>0</v>
       </c>
       <c r="D96" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="53">
+      <c r="E96" s="13">
         <v>15225</v>
       </c>
-      <c r="F96" s="53">
-        <v>7976</v>
+      <c r="F96" s="13">
+        <v>11918</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="4"/>
-        <v>-7249</v>
-      </c>
-      <c r="H96" s="55">
-        <v>0</v>
-      </c>
-      <c r="I96" s="55">
+        <v>-3307</v>
+      </c>
+      <c r="H96" s="13">
+        <v>0</v>
+      </c>
+      <c r="I96" s="13">
         <v>0</v>
       </c>
       <c r="J96" s="6">
@@ -4806,33 +4735,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="52">
-        <v>0</v>
-      </c>
-      <c r="C97" s="52">
+      <c r="A97" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="13">
+        <v>0</v>
+      </c>
+      <c r="C97" s="13">
         <v>0</v>
       </c>
       <c r="D97" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="53">
+      <c r="E97" s="13">
         <v>250</v>
       </c>
-      <c r="F97" s="53">
+      <c r="F97" s="13">
         <v>0</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="4"/>
         <v>-250</v>
       </c>
-      <c r="H97" s="55">
-        <v>0</v>
-      </c>
-      <c r="I97" s="55">
+      <c r="H97" s="13">
+        <v>0</v>
+      </c>
+      <c r="I97" s="13">
         <v>0</v>
       </c>
       <c r="J97" s="6">
@@ -4841,33 +4770,33 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B98" s="52">
-        <v>0</v>
-      </c>
-      <c r="C98" s="52">
+      <c r="A98" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="13">
+        <v>0</v>
+      </c>
+      <c r="C98" s="13">
         <v>0</v>
       </c>
       <c r="D98" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="53">
+      <c r="E98" s="13">
         <v>500</v>
       </c>
-      <c r="F98" s="53">
+      <c r="F98" s="13">
         <v>0</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="4"/>
         <v>-500</v>
       </c>
-      <c r="H98" s="55">
-        <v>0</v>
-      </c>
-      <c r="I98" s="55">
+      <c r="H98" s="13">
+        <v>0</v>
+      </c>
+      <c r="I98" s="13">
         <v>0</v>
       </c>
       <c r="J98" s="6">
@@ -4876,33 +4805,33 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B99" s="52">
-        <v>0</v>
-      </c>
-      <c r="C99" s="52">
+      <c r="A99" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="13">
+        <v>0</v>
+      </c>
+      <c r="C99" s="13">
         <v>0</v>
       </c>
       <c r="D99" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="53">
+      <c r="E99" s="13">
         <v>100</v>
       </c>
-      <c r="F99" s="53">
+      <c r="F99" s="13">
         <v>0</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
-      <c r="H99" s="55">
-        <v>0</v>
-      </c>
-      <c r="I99" s="55">
+      <c r="H99" s="13">
+        <v>0</v>
+      </c>
+      <c r="I99" s="13">
         <v>0</v>
       </c>
       <c r="J99" s="6">
@@ -4911,33 +4840,31 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="52">
-        <v>100</v>
-      </c>
-      <c r="C100" s="52">
+      <c r="A100" s="10"/>
+      <c r="B100" s="13">
+        <v>0</v>
+      </c>
+      <c r="C100" s="13">
         <v>0</v>
       </c>
       <c r="D100" s="6">
         <f t="shared" si="3"/>
-        <v>-100</v>
-      </c>
-      <c r="E100" s="53">
-        <v>0</v>
-      </c>
-      <c r="F100" s="53">
+        <v>0</v>
+      </c>
+      <c r="E100" s="13">
+        <v>0</v>
+      </c>
+      <c r="F100" s="13">
         <v>0</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="55">
-        <v>0</v>
-      </c>
-      <c r="I100" s="55">
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="13">
         <v>0</v>
       </c>
       <c r="J100" s="6">
@@ -4946,33 +4873,33 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="52">
-        <v>0</v>
-      </c>
-      <c r="C101" s="52">
+      <c r="A101" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="13">
+        <v>0</v>
+      </c>
+      <c r="C101" s="13">
         <v>0</v>
       </c>
       <c r="D101" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="53">
-        <v>1478</v>
-      </c>
-      <c r="F101" s="53">
-        <v>595</v>
+      <c r="E101" s="13">
+        <v>916</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="4"/>
-        <v>-883</v>
-      </c>
-      <c r="H101" s="55">
-        <v>0</v>
-      </c>
-      <c r="I101" s="55">
+        <v>-916</v>
+      </c>
+      <c r="H101" s="13">
+        <v>0</v>
+      </c>
+      <c r="I101" s="13">
         <v>0</v>
       </c>
       <c r="J101" s="6">
@@ -4981,33 +4908,33 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B102" s="52">
+      <c r="A102" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="13">
         <v>415</v>
       </c>
-      <c r="C102" s="52">
-        <v>328</v>
+      <c r="C102" s="13">
+        <v>338</v>
       </c>
       <c r="D102" s="6">
         <f t="shared" si="3"/>
-        <v>-87</v>
-      </c>
-      <c r="E102" s="53">
-        <v>0</v>
-      </c>
-      <c r="F102" s="53">
+        <v>-77</v>
+      </c>
+      <c r="E102" s="13">
+        <v>0</v>
+      </c>
+      <c r="F102" s="13">
         <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H102" s="55">
-        <v>0</v>
-      </c>
-      <c r="I102" s="55">
+      <c r="H102" s="13">
+        <v>0</v>
+      </c>
+      <c r="I102" s="13">
         <v>0</v>
       </c>
       <c r="J102" s="6">
@@ -5016,33 +4943,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B103" s="52">
+      <c r="A103" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="13">
         <v>50</v>
       </c>
-      <c r="C103" s="52">
+      <c r="C103" s="13">
         <v>0</v>
       </c>
       <c r="D103" s="6">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="E103" s="53">
-        <v>0</v>
-      </c>
-      <c r="F103" s="53">
+      <c r="E103" s="13">
+        <v>0</v>
+      </c>
+      <c r="F103" s="13">
         <v>0</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="55">
-        <v>0</v>
-      </c>
-      <c r="I103" s="55">
+      <c r="H103" s="13">
+        <v>0</v>
+      </c>
+      <c r="I103" s="13">
         <v>0</v>
       </c>
       <c r="J103" s="6">
@@ -5051,33 +4978,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="52">
-        <v>0</v>
-      </c>
-      <c r="C104" s="52">
+      <c r="A104" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" s="13">
+        <v>0</v>
+      </c>
+      <c r="C104" s="13">
         <v>0</v>
       </c>
       <c r="D104" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="53">
-        <v>5407</v>
-      </c>
-      <c r="F104" s="53">
-        <v>0</v>
+      <c r="E104" s="13">
+        <v>0</v>
+      </c>
+      <c r="F104" s="13">
+        <v>5656</v>
       </c>
       <c r="G104" s="6">
         <f t="shared" si="4"/>
-        <v>-5407</v>
-      </c>
-      <c r="H104" s="55">
-        <v>0</v>
-      </c>
-      <c r="I104" s="55">
+        <v>5656</v>
+      </c>
+      <c r="H104" s="13">
+        <v>0</v>
+      </c>
+      <c r="I104" s="13">
         <v>0</v>
       </c>
       <c r="J104" s="6">
@@ -5086,33 +5013,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B105" s="52">
-        <v>0</v>
-      </c>
-      <c r="C105" s="52">
+      <c r="A105" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="13">
+        <v>0</v>
+      </c>
+      <c r="C105" s="13">
         <v>0</v>
       </c>
       <c r="D105" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="53">
-        <v>35989</v>
-      </c>
-      <c r="F105" s="53">
+      <c r="E105" s="13">
+        <v>19746</v>
+      </c>
+      <c r="F105" s="13">
         <v>0</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" si="4"/>
-        <v>-35989</v>
-      </c>
-      <c r="H105" s="55">
-        <v>0</v>
-      </c>
-      <c r="I105" s="55">
+        <v>-19746</v>
+      </c>
+      <c r="H105" s="13">
+        <v>0</v>
+      </c>
+      <c r="I105" s="13">
         <v>0</v>
       </c>
       <c r="J105" s="6">
@@ -5121,33 +5048,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B106" s="52">
-        <v>0</v>
-      </c>
-      <c r="C106" s="52">
+      <c r="A106" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="13">
+        <v>0</v>
+      </c>
+      <c r="C106" s="13">
         <v>245</v>
       </c>
       <c r="D106" s="6">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="53">
+      <c r="E106" s="13">
         <v>300</v>
       </c>
-      <c r="F106" s="53">
+      <c r="F106" s="13">
         <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="55">
-        <v>0</v>
-      </c>
-      <c r="I106" s="55">
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13">
         <v>0</v>
       </c>
       <c r="J106" s="6">
@@ -5156,33 +5083,33 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="52">
-        <v>0</v>
-      </c>
-      <c r="C107" s="52">
+      <c r="A107" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="13">
+        <v>0</v>
+      </c>
+      <c r="C107" s="13">
         <v>0</v>
       </c>
       <c r="D107" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="53">
-        <v>670</v>
-      </c>
-      <c r="F107" s="53">
+      <c r="E107" s="13">
+        <v>1760</v>
+      </c>
+      <c r="F107" s="13">
         <v>0</v>
       </c>
       <c r="G107" s="6">
         <f t="shared" si="4"/>
-        <v>-670</v>
-      </c>
-      <c r="H107" s="55">
+        <v>-1760</v>
+      </c>
+      <c r="H107" s="13">
         <v>15</v>
       </c>
-      <c r="I107" s="55">
+      <c r="I107" s="13">
         <v>0</v>
       </c>
       <c r="J107" s="6">
@@ -5191,33 +5118,33 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B108" s="52">
-        <v>0</v>
-      </c>
-      <c r="C108" s="52">
+      <c r="A108" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" s="13">
+        <v>0</v>
+      </c>
+      <c r="C108" s="13">
         <v>0</v>
       </c>
       <c r="D108" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="53">
+      <c r="E108" s="13">
         <v>300</v>
       </c>
-      <c r="F108" s="53">
+      <c r="F108" s="13">
         <v>0</v>
       </c>
       <c r="G108" s="6">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H108" s="55">
-        <v>0</v>
-      </c>
-      <c r="I108" s="55">
+      <c r="H108" s="13">
+        <v>0</v>
+      </c>
+      <c r="I108" s="13">
         <v>0</v>
       </c>
       <c r="J108" s="6">
@@ -5226,33 +5153,33 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B109" s="52">
-        <v>0</v>
-      </c>
-      <c r="C109" s="52">
+      <c r="A109" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="13">
+        <v>0</v>
+      </c>
+      <c r="C109" s="13">
         <v>0</v>
       </c>
       <c r="D109" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="53">
-        <v>0</v>
-      </c>
-      <c r="F109" s="53">
-        <v>15248</v>
+      <c r="E109" s="13">
+        <v>0</v>
+      </c>
+      <c r="F109" s="13">
+        <v>15338</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="4"/>
-        <v>15248</v>
-      </c>
-      <c r="H109" s="55">
-        <v>0</v>
-      </c>
-      <c r="I109" s="55">
+        <v>15338</v>
+      </c>
+      <c r="H109" s="13">
+        <v>0</v>
+      </c>
+      <c r="I109" s="13">
         <v>0</v>
       </c>
       <c r="J109" s="6">
@@ -5261,33 +5188,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B110" s="52">
-        <v>0</v>
-      </c>
-      <c r="C110" s="52">
+      <c r="A110" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" s="13">
+        <v>0</v>
+      </c>
+      <c r="C110" s="13">
         <v>0</v>
       </c>
       <c r="D110" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="53">
+      <c r="E110" s="13">
         <v>10</v>
       </c>
-      <c r="F110" s="53">
+      <c r="F110" s="13">
         <v>0</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="55">
-        <v>0</v>
-      </c>
-      <c r="I110" s="55">
+      <c r="H110" s="13">
+        <v>0</v>
+      </c>
+      <c r="I110" s="13">
         <v>0</v>
       </c>
       <c r="J110" s="6">
@@ -5296,33 +5223,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B111" s="52">
-        <v>0</v>
-      </c>
-      <c r="C111" s="52">
+      <c r="A111" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="13">
+        <v>0</v>
+      </c>
+      <c r="C111" s="13">
         <v>0</v>
       </c>
       <c r="D111" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E111" s="53">
-        <v>1100</v>
-      </c>
-      <c r="F111" s="53">
-        <v>0</v>
+      <c r="E111" s="13">
+        <v>0</v>
+      </c>
+      <c r="F111" s="13">
+        <v>1070</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" si="4"/>
-        <v>-1100</v>
-      </c>
-      <c r="H111" s="55">
-        <v>0</v>
-      </c>
-      <c r="I111" s="55">
+        <v>1070</v>
+      </c>
+      <c r="H111" s="13">
+        <v>0</v>
+      </c>
+      <c r="I111" s="13">
         <v>0</v>
       </c>
       <c r="J111" s="6">
@@ -5331,33 +5258,33 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" s="52">
-        <v>0</v>
-      </c>
-      <c r="C112" s="52">
-        <v>401</v>
+      <c r="A112" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="13">
+        <v>0</v>
+      </c>
+      <c r="C112" s="13">
+        <v>251</v>
       </c>
       <c r="D112" s="6">
         <f t="shared" si="3"/>
-        <v>401</v>
-      </c>
-      <c r="E112" s="53">
-        <v>0</v>
-      </c>
-      <c r="F112" s="53">
+        <v>251</v>
+      </c>
+      <c r="E112" s="13">
+        <v>0</v>
+      </c>
+      <c r="F112" s="13">
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="55">
-        <v>0</v>
-      </c>
-      <c r="I112" s="55">
+      <c r="H112" s="13">
+        <v>0</v>
+      </c>
+      <c r="I112" s="13">
         <v>0</v>
       </c>
       <c r="J112" s="6">
@@ -5366,33 +5293,33 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="52">
-        <v>0</v>
-      </c>
-      <c r="C113" s="52">
+      <c r="A113" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="13">
+        <v>0</v>
+      </c>
+      <c r="C113" s="13">
         <v>0</v>
       </c>
       <c r="D113" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E113" s="53">
+      <c r="E113" s="13">
         <v>7000</v>
       </c>
-      <c r="F113" s="53">
-        <v>96</v>
+      <c r="F113" s="13">
+        <v>0</v>
       </c>
       <c r="G113" s="6">
         <f t="shared" si="4"/>
-        <v>-6904</v>
-      </c>
-      <c r="H113" s="55">
-        <v>0</v>
-      </c>
-      <c r="I113" s="55">
+        <v>-7000</v>
+      </c>
+      <c r="H113" s="13">
+        <v>0</v>
+      </c>
+      <c r="I113" s="13">
         <v>0</v>
       </c>
       <c r="J113" s="6">
@@ -5401,33 +5328,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="52">
-        <v>0</v>
-      </c>
-      <c r="C114" s="52">
+      <c r="A114" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="13">
+        <v>0</v>
+      </c>
+      <c r="C114" s="13">
         <v>0</v>
       </c>
       <c r="D114" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E114" s="53">
-        <v>15650</v>
-      </c>
-      <c r="F114" s="53">
+      <c r="E114" s="13">
+        <v>41838</v>
+      </c>
+      <c r="F114" s="13">
         <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="4"/>
-        <v>-15650</v>
-      </c>
-      <c r="H114" s="55">
-        <v>0</v>
-      </c>
-      <c r="I114" s="55">
+        <v>-41838</v>
+      </c>
+      <c r="H114" s="13">
+        <v>0</v>
+      </c>
+      <c r="I114" s="13">
         <v>0</v>
       </c>
       <c r="J114" s="6">
@@ -5436,33 +5363,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B115" s="52">
+      <c r="A115" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B115" s="13">
         <v>800</v>
       </c>
-      <c r="C115" s="52">
+      <c r="C115" s="13">
         <v>0</v>
       </c>
       <c r="D115" s="6">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E115" s="53">
-        <v>0</v>
-      </c>
-      <c r="F115" s="53">
+      <c r="E115" s="13">
+        <v>0</v>
+      </c>
+      <c r="F115" s="13">
         <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="55">
-        <v>0</v>
-      </c>
-      <c r="I115" s="55">
+      <c r="H115" s="13">
+        <v>0</v>
+      </c>
+      <c r="I115" s="13">
         <v>0</v>
       </c>
       <c r="J115" s="6">
@@ -5471,33 +5398,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B116" s="52">
-        <v>0</v>
-      </c>
-      <c r="C116" s="52">
+      <c r="A116" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="13">
+        <v>0</v>
+      </c>
+      <c r="C116" s="13">
         <v>300</v>
       </c>
       <c r="D116" s="6">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="E116" s="53">
+      <c r="E116" s="13">
         <v>7</v>
       </c>
-      <c r="F116" s="53">
+      <c r="F116" s="13">
         <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="4"/>
         <v>-7</v>
       </c>
-      <c r="H116" s="55">
-        <v>0</v>
-      </c>
-      <c r="I116" s="55">
+      <c r="H116" s="13">
+        <v>0</v>
+      </c>
+      <c r="I116" s="13">
         <v>0</v>
       </c>
       <c r="J116" s="6">
@@ -5506,33 +5433,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" s="52">
-        <v>0</v>
-      </c>
-      <c r="C117" s="52">
+      <c r="A117" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="13">
+        <v>0</v>
+      </c>
+      <c r="C117" s="13">
         <v>0</v>
       </c>
       <c r="D117" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E117" s="53">
-        <v>0</v>
-      </c>
-      <c r="F117" s="53">
+      <c r="E117" s="13">
+        <v>0</v>
+      </c>
+      <c r="F117" s="13">
         <v>200</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="H117" s="55">
-        <v>0</v>
-      </c>
-      <c r="I117" s="55">
+      <c r="H117" s="13">
+        <v>0</v>
+      </c>
+      <c r="I117" s="13">
         <v>0</v>
       </c>
       <c r="J117" s="6">
@@ -5541,33 +5468,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" s="52">
-        <v>0</v>
-      </c>
-      <c r="C118" s="52">
+      <c r="A118" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="13">
+        <v>0</v>
+      </c>
+      <c r="C118" s="13">
         <v>23800</v>
       </c>
       <c r="D118" s="6">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="53">
+      <c r="E118" s="13">
         <v>7682</v>
       </c>
-      <c r="F118" s="53">
+      <c r="F118" s="13">
         <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="55">
-        <v>0</v>
-      </c>
-      <c r="I118" s="55">
+      <c r="H118" s="13">
+        <v>0</v>
+      </c>
+      <c r="I118" s="13">
         <v>0</v>
       </c>
       <c r="J118" s="6">
@@ -5576,33 +5503,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B119" s="52">
-        <v>1845</v>
-      </c>
-      <c r="C119" s="52">
+      <c r="A119" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B119" s="13">
+        <v>4032</v>
+      </c>
+      <c r="C119" s="13">
         <v>0</v>
       </c>
       <c r="D119" s="6">
         <f t="shared" si="3"/>
-        <v>-1845</v>
-      </c>
-      <c r="E119" s="53">
-        <v>6888</v>
-      </c>
-      <c r="F119" s="53">
-        <v>0</v>
+        <v>-4032</v>
+      </c>
+      <c r="E119" s="13">
+        <v>2870</v>
+      </c>
+      <c r="F119" s="13">
+        <v>2900</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="4"/>
-        <v>-6888</v>
-      </c>
-      <c r="H119" s="55">
-        <v>0</v>
-      </c>
-      <c r="I119" s="55">
+        <v>30</v>
+      </c>
+      <c r="H119" s="13">
+        <v>0</v>
+      </c>
+      <c r="I119" s="13">
         <v>0</v>
       </c>
       <c r="J119" s="6">
@@ -5611,33 +5538,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B120" s="52">
-        <v>300</v>
-      </c>
-      <c r="C120" s="52">
+      <c r="A120" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B120" s="13">
+        <v>100</v>
+      </c>
+      <c r="C120" s="13">
         <v>0</v>
       </c>
       <c r="D120" s="6">
         <f t="shared" si="3"/>
-        <v>-300</v>
-      </c>
-      <c r="E120" s="53">
-        <v>106</v>
-      </c>
-      <c r="F120" s="53">
+        <v>-100</v>
+      </c>
+      <c r="E120" s="13">
+        <v>66</v>
+      </c>
+      <c r="F120" s="13">
         <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="4"/>
-        <v>-106</v>
-      </c>
-      <c r="H120" s="55">
-        <v>0</v>
-      </c>
-      <c r="I120" s="55">
+        <v>-66</v>
+      </c>
+      <c r="H120" s="13">
+        <v>0</v>
+      </c>
+      <c r="I120" s="13">
         <v>0</v>
       </c>
       <c r="J120" s="6">
@@ -5646,33 +5573,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="52">
-        <v>0</v>
-      </c>
-      <c r="C121" s="52">
+      <c r="A121" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B121" s="13">
+        <v>0</v>
+      </c>
+      <c r="C121" s="13">
         <v>0</v>
       </c>
       <c r="D121" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="53">
+      <c r="E121" s="13">
         <v>15000</v>
       </c>
-      <c r="F121" s="53">
+      <c r="F121" s="13">
         <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="55">
-        <v>0</v>
-      </c>
-      <c r="I121" s="55">
+      <c r="H121" s="13">
+        <v>0</v>
+      </c>
+      <c r="I121" s="13">
         <v>0</v>
       </c>
       <c r="J121" s="6">
@@ -5681,33 +5608,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B122" s="52">
-        <v>0</v>
-      </c>
-      <c r="C122" s="52">
+      <c r="A122" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="13">
+        <v>0</v>
+      </c>
+      <c r="C122" s="13">
         <v>0</v>
       </c>
       <c r="D122" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="53">
-        <v>0</v>
-      </c>
-      <c r="F122" s="53">
-        <v>5900</v>
+      <c r="E122" s="13">
+        <v>0</v>
+      </c>
+      <c r="F122" s="13">
+        <v>2200</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="4"/>
-        <v>5900</v>
-      </c>
-      <c r="H122" s="55">
-        <v>0</v>
-      </c>
-      <c r="I122" s="55">
+        <v>2200</v>
+      </c>
+      <c r="H122" s="13">
+        <v>0</v>
+      </c>
+      <c r="I122" s="13">
         <v>0</v>
       </c>
       <c r="J122" s="6">
@@ -5716,33 +5643,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123" s="52">
-        <v>0</v>
-      </c>
-      <c r="C123" s="52">
+      <c r="A123" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="13">
+        <v>0</v>
+      </c>
+      <c r="C123" s="13">
         <v>0</v>
       </c>
       <c r="D123" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E123" s="53">
-        <v>1495</v>
-      </c>
-      <c r="F123" s="53">
-        <v>0</v>
+      <c r="E123" s="13">
+        <v>0</v>
+      </c>
+      <c r="F123" s="13">
+        <v>542</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="4"/>
-        <v>-1495</v>
-      </c>
-      <c r="H123" s="55">
-        <v>0</v>
-      </c>
-      <c r="I123" s="55">
+        <v>542</v>
+      </c>
+      <c r="H123" s="13">
+        <v>0</v>
+      </c>
+      <c r="I123" s="13">
         <v>0</v>
       </c>
       <c r="J123" s="6">
@@ -5751,33 +5678,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B124" s="52">
-        <v>0</v>
-      </c>
-      <c r="C124" s="52">
+      <c r="A124" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" s="13">
+        <v>0</v>
+      </c>
+      <c r="C124" s="13">
         <v>0</v>
       </c>
       <c r="D124" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E124" s="53">
-        <v>0</v>
-      </c>
-      <c r="F124" s="53">
+      <c r="E124" s="13">
+        <v>0</v>
+      </c>
+      <c r="F124" s="13">
         <v>0</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H124" s="55">
-        <v>0</v>
-      </c>
-      <c r="I124" s="55">
+      <c r="H124" s="13">
+        <v>0</v>
+      </c>
+      <c r="I124" s="13">
         <v>0</v>
       </c>
       <c r="J124" s="6">
@@ -5786,33 +5713,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B125" s="52">
+      <c r="A125" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" s="13">
         <v>800</v>
       </c>
-      <c r="C125" s="52">
+      <c r="C125" s="13">
         <v>0</v>
       </c>
       <c r="D125" s="6">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E125" s="53">
-        <v>0</v>
-      </c>
-      <c r="F125" s="53">
+      <c r="E125" s="13">
+        <v>0</v>
+      </c>
+      <c r="F125" s="13">
         <v>0</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H125" s="55">
-        <v>0</v>
-      </c>
-      <c r="I125" s="55">
+      <c r="H125" s="13">
+        <v>0</v>
+      </c>
+      <c r="I125" s="13">
         <v>0</v>
       </c>
       <c r="J125" s="6">
@@ -5821,33 +5748,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126" s="52">
-        <v>0</v>
-      </c>
-      <c r="C126" s="52">
+      <c r="A126" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="13">
+        <v>0</v>
+      </c>
+      <c r="C126" s="13">
         <v>0</v>
       </c>
       <c r="D126" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E126" s="53">
+      <c r="E126" s="13">
         <v>108</v>
       </c>
-      <c r="F126" s="53">
+      <c r="F126" s="13">
         <v>0</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" si="4"/>
         <v>-108</v>
       </c>
-      <c r="H126" s="55">
-        <v>0</v>
-      </c>
-      <c r="I126" s="55">
+      <c r="H126" s="13">
+        <v>0</v>
+      </c>
+      <c r="I126" s="13">
         <v>0</v>
       </c>
       <c r="J126" s="6">
@@ -5856,33 +5783,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B127" s="52">
-        <v>0</v>
-      </c>
-      <c r="C127" s="52">
+      <c r="A127" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="13">
+        <v>0</v>
+      </c>
+      <c r="C127" s="13">
         <v>0</v>
       </c>
       <c r="D127" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="53">
-        <v>0</v>
-      </c>
-      <c r="F127" s="53">
+      <c r="E127" s="13">
+        <v>0</v>
+      </c>
+      <c r="F127" s="13">
         <v>8214</v>
       </c>
       <c r="G127" s="6">
         <f t="shared" si="4"/>
         <v>8214</v>
       </c>
-      <c r="H127" s="55">
-        <v>0</v>
-      </c>
-      <c r="I127" s="55">
+      <c r="H127" s="13">
+        <v>0</v>
+      </c>
+      <c r="I127" s="13">
         <v>0</v>
       </c>
       <c r="J127" s="6">
@@ -5891,33 +5818,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="52">
-        <v>0</v>
-      </c>
-      <c r="C128" s="52">
+      <c r="A128" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" s="13">
+        <v>800</v>
+      </c>
+      <c r="C128" s="13">
         <v>0</v>
       </c>
       <c r="D128" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E128" s="53">
-        <v>200</v>
-      </c>
-      <c r="F128" s="53">
+        <v>-800</v>
+      </c>
+      <c r="E128" s="13">
+        <v>0</v>
+      </c>
+      <c r="F128" s="13">
         <v>0</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" si="4"/>
-        <v>-200</v>
-      </c>
-      <c r="H128" s="55">
-        <v>0</v>
-      </c>
-      <c r="I128" s="55">
+        <v>0</v>
+      </c>
+      <c r="H128" s="13">
+        <v>0</v>
+      </c>
+      <c r="I128" s="13">
         <v>0</v>
       </c>
       <c r="J128" s="6">
@@ -5926,33 +5853,33 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B129" s="52">
-        <v>0</v>
-      </c>
-      <c r="C129" s="52">
+      <c r="A129" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="13">
+        <v>0</v>
+      </c>
+      <c r="C129" s="13">
         <v>0</v>
       </c>
       <c r="D129" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="53">
-        <v>700</v>
-      </c>
-      <c r="F129" s="53">
-        <v>0</v>
+      <c r="E129" s="13">
+        <v>0</v>
+      </c>
+      <c r="F129" s="13">
+        <v>8500</v>
       </c>
       <c r="G129" s="6">
         <f t="shared" si="4"/>
-        <v>-700</v>
-      </c>
-      <c r="H129" s="55">
-        <v>0</v>
-      </c>
-      <c r="I129" s="55">
+        <v>8500</v>
+      </c>
+      <c r="H129" s="13">
+        <v>0</v>
+      </c>
+      <c r="I129" s="13">
         <v>0</v>
       </c>
       <c r="J129" s="6">
@@ -5961,33 +5888,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B130" s="52">
-        <v>0</v>
-      </c>
-      <c r="C130" s="52">
+      <c r="A130" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="13">
+        <v>0</v>
+      </c>
+      <c r="C130" s="13">
         <v>0</v>
       </c>
       <c r="D130" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E130" s="53">
+      <c r="E130" s="13">
         <v>1000</v>
       </c>
-      <c r="F130" s="53">
+      <c r="F130" s="13">
         <v>0</v>
       </c>
       <c r="G130" s="6">
         <f t="shared" si="4"/>
         <v>-1000</v>
       </c>
-      <c r="H130" s="55">
-        <v>0</v>
-      </c>
-      <c r="I130" s="55">
+      <c r="H130" s="13">
+        <v>0</v>
+      </c>
+      <c r="I130" s="13">
         <v>0</v>
       </c>
       <c r="J130" s="6">
@@ -5996,33 +5923,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131" s="52">
-        <v>0</v>
-      </c>
-      <c r="C131" s="52">
+      <c r="A131" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" s="13">
+        <v>0</v>
+      </c>
+      <c r="C131" s="13">
         <v>0</v>
       </c>
       <c r="D131" s="6">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
         <v>0</v>
       </c>
-      <c r="E131" s="53">
+      <c r="E131" s="13">
         <v>1000</v>
       </c>
-      <c r="F131" s="53">
+      <c r="F131" s="13">
         <v>0</v>
       </c>
       <c r="G131" s="6">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
         <v>-1000</v>
       </c>
-      <c r="H131" s="55">
-        <v>0</v>
-      </c>
-      <c r="I131" s="55">
+      <c r="H131" s="13">
+        <v>0</v>
+      </c>
+      <c r="I131" s="13">
         <v>0</v>
       </c>
       <c r="J131" s="6">
@@ -6031,33 +5958,33 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B132" s="52">
+      <c r="A132" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" s="13">
         <v>150</v>
       </c>
-      <c r="C132" s="52">
+      <c r="C132" s="13">
         <v>0</v>
       </c>
       <c r="D132" s="6">
         <f t="shared" si="6"/>
         <v>-150</v>
       </c>
-      <c r="E132" s="53">
-        <v>0</v>
-      </c>
-      <c r="F132" s="53">
+      <c r="E132" s="13">
+        <v>0</v>
+      </c>
+      <c r="F132" s="13">
         <v>0</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H132" s="55">
-        <v>0</v>
-      </c>
-      <c r="I132" s="55">
+      <c r="H132" s="13">
+        <v>0</v>
+      </c>
+      <c r="I132" s="13">
         <v>0</v>
       </c>
       <c r="J132" s="6">
@@ -6066,33 +5993,21 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
-      <c r="B133" s="52">
-        <v>0</v>
-      </c>
-      <c r="C133" s="52">
-        <v>0</v>
-      </c>
+      <c r="A133" s="10"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
       <c r="D133" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="53">
-        <v>0</v>
-      </c>
-      <c r="F133" s="53">
-        <v>0</v>
-      </c>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
       <c r="G133" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H133" s="55">
-        <v>0</v>
-      </c>
-      <c r="I133" s="55">
-        <v>0</v>
-      </c>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
       <c r="J133" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -6563,8 +6478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6602,35 +6517,35 @@
       <c r="A3"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>147</v>
+      <c r="A4" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="15">
         <v>0</v>
       </c>
       <c r="C4" s="15">
-        <v>279860</v>
+        <v>155073</v>
       </c>
       <c r="D4" s="15">
-        <v>10621</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="15">
-        <v>-4500</v>
+        <v>-7040</v>
       </c>
       <c r="C5" s="15">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D5" s="15">
         <v>-40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="15">
@@ -6644,39 +6559,39 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="C7" s="15">
-        <v>0</v>
+        <v>-4363</v>
       </c>
       <c r="D7" s="15">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>2811</v>
+        <v>-214</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>132</v>
+      <c r="A9" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B9" s="15">
-        <v>-1050</v>
+        <v>-250</v>
       </c>
       <c r="C9" s="15">
         <v>0</v>
@@ -6686,21 +6601,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="15">
         <v>0</v>
       </c>
       <c r="C10" s="15">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="15">
@@ -6714,21 +6629,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
       </c>
       <c r="C12" s="15">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="15">
@@ -6742,21 +6657,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="15">
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <v>-1013</v>
+        <v>19841</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="39" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="15">
@@ -6770,7 +6685,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="15">
@@ -6784,7 +6699,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="15">
@@ -6798,7 +6713,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="15">
@@ -6812,21 +6727,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="15">
-        <v>-1310</v>
+        <v>-1410</v>
       </c>
       <c r="C19" s="15">
-        <v>-1004</v>
+        <v>-920</v>
       </c>
       <c r="D19" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="15">
@@ -6840,21 +6755,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="15">
-        <v>0</v>
+        <v>-835</v>
       </c>
       <c r="C21" s="15">
-        <v>7823</v>
+        <v>6073</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="15">
@@ -6868,7 +6783,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15">
@@ -6882,7 +6797,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="15">
@@ -6896,7 +6811,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="15">
@@ -6910,7 +6825,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="15">
@@ -6924,7 +6839,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="15">
@@ -6938,7 +6853,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="15">
@@ -6952,7 +6867,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="15">
@@ -6966,8 +6881,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
-        <v>105</v>
+      <c r="A30" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="B30" s="15">
         <v>-300</v>
@@ -6980,7 +6895,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="15">
@@ -6994,7 +6909,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="15">
@@ -7008,7 +6923,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="15">
@@ -7022,7 +6937,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="15">
@@ -7036,21 +6951,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="15">
-        <v>2114</v>
+        <v>3017</v>
       </c>
       <c r="C35" s="15">
-        <v>-6364</v>
+        <v>-6464</v>
       </c>
       <c r="D35" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="15">
@@ -7064,7 +6979,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="15">
@@ -7078,9 +6993,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="s">
-        <v>133</v>
-      </c>
+      <c r="A38" s="45"/>
       <c r="B38" s="15">
         <v>0</v>
       </c>
@@ -7092,21 +7005,21 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>123</v>
+      <c r="A39" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B39" s="15">
         <v>0</v>
       </c>
       <c r="C39" s="15">
-        <v>2376</v>
+        <v>2189</v>
       </c>
       <c r="D39" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="15">
@@ -7120,21 +7033,21 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
-        <v>142</v>
+      <c r="A41" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="B41" s="15">
         <v>0</v>
       </c>
       <c r="C41" s="15">
-        <v>-270</v>
+        <v>-770</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="15">
@@ -7148,25 +7061,25 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="15">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C43" s="15">
-        <v>-3934</v>
+        <v>-3790</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="15">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -7176,7 +7089,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="49" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="15">
@@ -7190,7 +7103,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="49" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="15">
@@ -7204,8 +7117,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
-        <v>121</v>
+      <c r="A47" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B47" s="15">
         <v>-95</v>
@@ -7218,7 +7131,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="45" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="15">
@@ -7232,7 +7145,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="15">
@@ -7246,7 +7159,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="15">
@@ -7260,7 +7173,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="15">
@@ -7274,8 +7187,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
-        <v>130</v>
+      <c r="A52" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B52" s="15">
         <v>0</v>
@@ -7288,7 +7201,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="15">
@@ -7302,7 +7215,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="50" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="15">
@@ -7316,35 +7229,35 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="15">
         <v>0</v>
       </c>
       <c r="C55" s="15">
-        <v>-18991</v>
+        <v>-7071</v>
       </c>
       <c r="D55" s="15">
-        <v>-7549</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
-        <v>120</v>
+      <c r="A56" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B56" s="15">
         <v>0</v>
       </c>
       <c r="C56" s="15">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D56" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="15">
@@ -7358,21 +7271,21 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
-        <v>134</v>
+      <c r="A58" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B58" s="15">
         <v>0</v>
       </c>
       <c r="C58" s="15">
-        <v>-548</v>
+        <v>0</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="15">
@@ -7386,8 +7299,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
-        <v>115</v>
+      <c r="A60" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B60" s="15">
         <v>-625</v>
@@ -7400,21 +7313,21 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="15">
-        <v>0</v>
+        <v>5570</v>
       </c>
       <c r="C61" s="15">
-        <v>-18143</v>
+        <v>-17329</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="15">
@@ -7428,11 +7341,11 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="15">
-        <v>4707</v>
+        <v>10287</v>
       </c>
       <c r="C63" s="15">
         <v>0</v>
@@ -7442,7 +7355,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="15">
@@ -7456,21 +7369,21 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="15">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="C65" s="15">
         <v>500</v>
       </c>
       <c r="D65" s="15">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="15">
@@ -7484,8 +7397,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="54" t="s">
-        <v>89</v>
+      <c r="A67" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B67" s="15">
         <v>0</v>
@@ -7498,35 +7411,35 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="15">
         <v>20</v>
       </c>
       <c r="C68" s="15">
-        <v>1242</v>
+        <v>1260</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="15">
         <v>0</v>
       </c>
       <c r="C69" s="15">
-        <v>-38529</v>
+        <v>-3580</v>
       </c>
       <c r="D69" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="51" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="15">
@@ -7540,21 +7453,21 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="64" t="s">
-        <v>114</v>
+      <c r="A71" s="51" t="s">
+        <v>113</v>
       </c>
       <c r="B71" s="15">
         <v>0</v>
       </c>
       <c r="C71" s="15">
-        <v>1285</v>
+        <v>5467</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="15">
@@ -7568,25 +7481,25 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="s">
-        <v>116</v>
+      <c r="A73" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B73" s="15">
         <v>0</v>
       </c>
       <c r="C73" s="15">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="15">
-        <v>1170</v>
+        <v>1120</v>
       </c>
       <c r="C74" s="15">
         <v>0</v>
@@ -7596,7 +7509,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="15">
@@ -7610,8 +7523,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="54" t="s">
-        <v>106</v>
+      <c r="A76" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="B76" s="15">
         <v>0</v>
@@ -7624,7 +7537,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B77" s="15">
@@ -7638,21 +7551,21 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B78" s="15">
         <v>0</v>
       </c>
       <c r="C78" s="15">
-        <v>-3302</v>
+        <v>-7535</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="15">
@@ -7666,22 +7579,22 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
-        <v>75</v>
+      <c r="A80" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B80" s="15">
         <v>0</v>
       </c>
       <c r="C80" s="15">
-        <v>-2853</v>
+        <v>-400</v>
       </c>
       <c r="D80" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="54" t="s">
-        <v>124</v>
+      <c r="A81" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B81" s="15">
         <v>-150</v>
@@ -7694,8 +7607,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="54" t="s">
-        <v>76</v>
+      <c r="A82" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B82" s="15">
         <v>1620</v>
@@ -7708,8 +7621,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="72" t="s">
-        <v>77</v>
+      <c r="A83" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="B83" s="15">
         <v>0</v>
@@ -7722,22 +7635,22 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="54" t="s">
-        <v>78</v>
+      <c r="A84" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B84" s="15">
         <v>0</v>
       </c>
       <c r="C84" s="15">
-        <v>-2211</v>
+        <v>-2137</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="54" t="s">
-        <v>131</v>
+      <c r="A85" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B85" s="15">
         <v>0</v>
@@ -7750,22 +7663,22 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="54" t="s">
-        <v>119</v>
+      <c r="A86" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B86" s="15">
         <v>0</v>
       </c>
       <c r="C86" s="15">
-        <v>-312</v>
+        <v>-80</v>
       </c>
       <c r="D86" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="54" t="s">
-        <v>79</v>
+      <c r="A87" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B87" s="15">
         <v>-95</v>
@@ -7778,8 +7691,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="54" t="s">
-        <v>80</v>
+      <c r="A88" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B88" s="15">
         <v>0</v>
@@ -7792,50 +7705,50 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B89" s="15">
         <v>0</v>
       </c>
       <c r="C89" s="15">
-        <v>-4937</v>
+        <v>2472</v>
       </c>
       <c r="D89" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="15">
+        <v>900</v>
+      </c>
+      <c r="C90" s="15">
+        <v>0</v>
+      </c>
+      <c r="D90" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="15">
+        <v>0</v>
+      </c>
+      <c r="C91" s="15">
+        <v>-714</v>
+      </c>
+      <c r="D91" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B90" s="15">
-        <v>1800</v>
-      </c>
-      <c r="C90" s="15">
-        <v>0</v>
-      </c>
-      <c r="D90" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="B91" s="15">
-        <v>0</v>
-      </c>
-      <c r="C91" s="15">
-        <v>-208</v>
-      </c>
-      <c r="D91" s="15">
-        <v>-358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="54" t="s">
-        <v>83</v>
       </c>
       <c r="B92" s="15">
         <v>0</v>
@@ -7848,7 +7761,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="15">
         <v>0</v>
       </c>
@@ -7860,11 +7773,11 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="54" t="s">
-        <v>118</v>
+      <c r="A94" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B94" s="15">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C94" s="15">
         <v>0</v>
@@ -7874,8 +7787,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="54" t="s">
-        <v>84</v>
+      <c r="A95" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B95" s="15">
         <v>2850</v>
@@ -7888,8 +7801,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="54" t="s">
-        <v>85</v>
+      <c r="A96" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B96" s="15">
         <v>-7</v>
@@ -7902,8 +7815,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="54" t="s">
-        <v>86</v>
+      <c r="A97" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="B97" s="15">
         <v>0</v>
@@ -7916,22 +7829,22 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="15">
+        <v>0</v>
+      </c>
+      <c r="C98" s="15">
+        <v>-3307</v>
+      </c>
+      <c r="D98" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B98" s="15">
-        <v>0</v>
-      </c>
-      <c r="C98" s="15">
-        <v>-7249</v>
-      </c>
-      <c r="D98" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="54" t="s">
-        <v>88</v>
       </c>
       <c r="B99" s="15">
         <v>0</v>
@@ -7944,8 +7857,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="54" t="s">
-        <v>135</v>
+      <c r="A100" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B100" s="15">
         <v>0</v>
@@ -7958,8 +7871,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="54" t="s">
-        <v>125</v>
+      <c r="A101" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B101" s="15">
         <v>0</v>
@@ -7972,11 +7885,9 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="54" t="s">
-        <v>143</v>
-      </c>
+      <c r="A102" s="10"/>
       <c r="B102" s="15">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C102" s="15">
         <v>0</v>
@@ -7986,25 +7897,25 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="54" t="s">
-        <v>107</v>
+      <c r="A103" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B103" s="15">
         <v>0</v>
       </c>
       <c r="C103" s="15">
-        <v>-883</v>
+        <v>-916</v>
       </c>
       <c r="D103" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="54" t="s">
-        <v>126</v>
+      <c r="A104" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="B104" s="15">
-        <v>-87</v>
+        <v>-77</v>
       </c>
       <c r="C104" s="15">
         <v>0</v>
@@ -8014,8 +7925,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="54" t="s">
-        <v>91</v>
+      <c r="A105" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="B105" s="15">
         <v>-50</v>
@@ -8028,36 +7939,36 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="54" t="s">
+      <c r="A106" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="15">
+        <v>0</v>
+      </c>
+      <c r="C106" s="15">
+        <v>5656</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="15">
-        <v>0</v>
-      </c>
-      <c r="C106" s="15">
-        <v>-5407</v>
-      </c>
-      <c r="D106" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="54" t="s">
+      <c r="B107" s="15">
+        <v>0</v>
+      </c>
+      <c r="C107" s="15">
+        <v>-19746</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B107" s="15">
-        <v>0</v>
-      </c>
-      <c r="C107" s="15">
-        <v>-35989</v>
-      </c>
-      <c r="D107" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="54" t="s">
-        <v>94</v>
       </c>
       <c r="B108" s="15">
         <v>245</v>
@@ -8070,22 +7981,22 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="54" t="s">
-        <v>108</v>
+      <c r="A109" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B109" s="15">
         <v>0</v>
       </c>
       <c r="C109" s="15">
-        <v>-670</v>
+        <v>-1760</v>
       </c>
       <c r="D109" s="15">
         <v>-15</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="54" t="s">
-        <v>127</v>
+      <c r="A110" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B110" s="15">
         <v>0</v>
@@ -8098,22 +8009,22 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="54" t="s">
-        <v>136</v>
+      <c r="A111" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B111" s="15">
         <v>0</v>
       </c>
       <c r="C111" s="15">
-        <v>15248</v>
+        <v>15338</v>
       </c>
       <c r="D111" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="57" t="s">
-        <v>95</v>
+      <c r="A112" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B112" s="15">
         <v>0</v>
@@ -8126,64 +8037,64 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="54" t="s">
-        <v>122</v>
+      <c r="A113" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="B113" s="15">
         <v>0</v>
       </c>
       <c r="C113" s="15">
-        <v>-1100</v>
+        <v>1070</v>
       </c>
       <c r="D113" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="15">
+        <v>251</v>
+      </c>
+      <c r="C114" s="15">
+        <v>0</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="15">
+        <v>0</v>
+      </c>
+      <c r="C115" s="15">
+        <v>-7000</v>
+      </c>
+      <c r="D115" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="15">
-        <v>401</v>
-      </c>
-      <c r="C114" s="15">
-        <v>0</v>
-      </c>
-      <c r="D114" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="15">
-        <v>0</v>
-      </c>
-      <c r="C115" s="15">
-        <v>-6904</v>
-      </c>
-      <c r="D115" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="54" t="s">
+      <c r="B116" s="15">
+        <v>0</v>
+      </c>
+      <c r="C116" s="15">
+        <v>-41838</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="B116" s="15">
-        <v>0</v>
-      </c>
-      <c r="C116" s="15">
-        <v>-15650</v>
-      </c>
-      <c r="D116" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="54" t="s">
-        <v>98</v>
       </c>
       <c r="B117" s="15">
         <v>-800</v>
@@ -8196,8 +8107,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="54" t="s">
-        <v>99</v>
+      <c r="A118" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B118" s="15">
         <v>300</v>
@@ -8210,8 +8121,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="54" t="s">
-        <v>137</v>
+      <c r="A119" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B119" s="15">
         <v>0</v>
@@ -8224,8 +8135,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="54" t="s">
-        <v>100</v>
+      <c r="A120" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B120" s="15">
         <v>23800</v>
@@ -8238,36 +8149,36 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="54" t="s">
+      <c r="A121" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" s="15">
+        <v>-4032</v>
+      </c>
+      <c r="C121" s="15">
+        <v>30</v>
+      </c>
+      <c r="D121" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B121" s="15">
-        <v>-1845</v>
-      </c>
-      <c r="C121" s="15">
-        <v>-6888</v>
-      </c>
-      <c r="D121" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="54" t="s">
+      <c r="B122" s="15">
+        <v>-100</v>
+      </c>
+      <c r="C122" s="15">
+        <v>-66</v>
+      </c>
+      <c r="D122" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="B122" s="15">
-        <v>-300</v>
-      </c>
-      <c r="C122" s="15">
-        <v>-106</v>
-      </c>
-      <c r="D122" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="54" t="s">
-        <v>103</v>
       </c>
       <c r="B123" s="15">
         <v>0</v>
@@ -8280,36 +8191,36 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="54" t="s">
-        <v>138</v>
+      <c r="A124" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B124" s="15">
         <v>0</v>
       </c>
       <c r="C124" s="15">
-        <v>5900</v>
+        <v>2200</v>
       </c>
       <c r="D124" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="54" t="s">
-        <v>144</v>
+      <c r="A125" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B125" s="15">
         <v>0</v>
       </c>
       <c r="C125" s="15">
-        <v>-1495</v>
+        <v>542</v>
       </c>
       <c r="D125" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="54" t="s">
-        <v>81</v>
+      <c r="A126" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B126" s="15">
         <v>0</v>
@@ -8322,8 +8233,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="54" t="s">
-        <v>104</v>
+      <c r="A127" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B127" s="15">
         <v>-800</v>
@@ -8336,8 +8247,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="54" t="s">
-        <v>128</v>
+      <c r="A128" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B128" s="15">
         <v>0</v>
@@ -8350,8 +8261,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="54" t="s">
-        <v>139</v>
+      <c r="A129" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B129" s="15">
         <v>0</v>
@@ -8364,36 +8275,36 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="54" t="s">
-        <v>129</v>
+      <c r="A130" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="B130" s="15">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C130" s="15">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D130" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="54" t="s">
-        <v>140</v>
+      <c r="A131" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B131" s="15">
         <v>0</v>
       </c>
       <c r="C131" s="15">
-        <v>-700</v>
+        <v>8500</v>
       </c>
       <c r="D131" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="54" t="s">
-        <v>141</v>
+      <c r="A132" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B132" s="15">
         <v>0</v>
@@ -8406,8 +8317,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="54" t="s">
-        <v>145</v>
+      <c r="A133" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="B133" s="15">
         <v>0</v>
@@ -8420,8 +8331,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="54" t="s">
-        <v>146</v>
+      <c r="A134" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B134" s="15">
         <v>-150</v>
@@ -8439,9 +8350,6 @@
         <v>0</v>
       </c>
       <c r="C135" s="15">
-        <v>0</v>
-      </c>
-      <c r="D135" s="15">
         <v>0</v>
       </c>
     </row>
@@ -8504,15 +8412,15 @@
       <c r="A155" s="21"/>
       <c r="B155" s="22">
         <f>SUM(B2:B154)</f>
-        <v>25496</v>
+        <v>30887</v>
       </c>
       <c r="C155" s="22">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>46517</v>
+        <v>10906</v>
       </c>
       <c r="D155" s="22">
         <f t="shared" si="0"/>
-        <v>-2746</v>
+        <v>4912</v>
       </c>
       <c r="E155" s="22">
         <f t="shared" si="0"/>
@@ -8542,7 +8450,7 @@
     </row>
     <row r="159" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C159" s="26"/>
       <c r="D159" s="23" t="s">
@@ -8554,44 +8462,53 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B160" s="15">
-        <v>9614</v>
+        <v>-6184</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E160" s="16"/>
+      <c r="E160" s="16">
+        <v>3.7</v>
+      </c>
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B161" s="15">
-        <v>-4997</v>
+        <v>6911</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="16"/>
+      <c r="E161" s="16">
+        <v>0.71</v>
+      </c>
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B162" s="15">
-        <v>2755</v>
+        <v>-1026</v>
       </c>
       <c r="C162" s="26"/>
       <c r="D162" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F162" s="29"/>
+      <c r="E162" s="15">
+        <v>0.115</v>
+      </c>
+      <c r="F162" s="29">
+        <v>32.173913043399999</v>
+      </c>
       <c r="G162" s="15"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -8600,7 +8517,12 @@
       <c r="D163" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="29"/>
+      <c r="E163" s="15">
+        <v>0.185</v>
+      </c>
+      <c r="F163" s="29">
+        <v>3.83783783783</v>
+      </c>
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8609,25 +8531,27 @@
       <c r="D164" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E164" s="16"/>
+      <c r="E164" s="16">
+        <v>1.08</v>
+      </c>
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B165" s="15">
-        <v>525</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="35"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA43797-B43F-4F38-9EEE-65A2CB3EE625}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDE0438-7D93-40A4-BB4D-E4BA3852BCC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="147">
   <si>
     <t>الشيكل</t>
   </si>
@@ -357,9 +357,6 @@
     <t>حمدي الريفي ابومحمد</t>
   </si>
   <si>
-    <t>مهند ابوخضير</t>
-  </si>
-  <si>
     <t>موني جرام</t>
   </si>
   <si>
@@ -417,18 +414,12 @@
     <t>احمد بارود جينيف</t>
   </si>
   <si>
-    <t>محمد رفعت مشتهى</t>
-  </si>
-  <si>
     <t>خدمات العماره سفن ستار</t>
   </si>
   <si>
     <t>طيبه</t>
   </si>
   <si>
-    <t>محمد فوره</t>
-  </si>
-  <si>
     <t>علاء المشهراوي</t>
   </si>
   <si>
@@ -468,9 +459,6 @@
     <t>اميره الواديه</t>
   </si>
   <si>
-    <t>حسن العبادله</t>
-  </si>
-  <si>
     <t>محمد الخزندار</t>
   </si>
   <si>
@@ -486,9 +474,6 @@
     <t>صندوق 1 صندوق واحد صندوق كاظم كـــــــــــــاظــــــــم</t>
   </si>
   <si>
-    <t>شادي ابوحصيره</t>
-  </si>
-  <si>
     <t>تشطيب الدور الأرضي</t>
   </si>
   <si>
@@ -504,12 +489,6 @@
     <t>حسين سليم</t>
   </si>
   <si>
-    <t>سرحان قويدر</t>
-  </si>
-  <si>
-    <t>ابوالمجد ابوعقلين</t>
-  </si>
-  <si>
     <t>دبي الدن</t>
   </si>
   <si>
@@ -525,7 +504,19 @@
     <t>امي عماره</t>
   </si>
   <si>
-    <t>هادي ابومعروف</t>
+    <t>اسامه محمد مشتهى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البكري </t>
+  </si>
+  <si>
+    <t>غطاس حاكوره</t>
+  </si>
+  <si>
+    <t>محمد حميد</t>
+  </si>
+  <si>
+    <t>اسامه العشي</t>
   </si>
 </sst>
 </file>
@@ -933,7 +924,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -987,12 +978,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,6 +997,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J136" sqref="J2:J136"/>
+    <sheetView rightToLeft="1" topLeftCell="A125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,63 +1511,67 @@
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+        <v>131</v>
+      </c>
+      <c r="B2" s="59">
+        <v>0</v>
+      </c>
+      <c r="C2" s="59">
+        <v>0</v>
+      </c>
       <c r="D2" s="5">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="37">
-        <v>0</v>
-      </c>
-      <c r="F2" s="37">
-        <v>105450</v>
+      <c r="E2" s="60">
+        <v>0</v>
+      </c>
+      <c r="F2" s="60">
+        <v>150004</v>
       </c>
       <c r="G2" s="5">
         <f>F2-E2</f>
-        <v>105450</v>
-      </c>
-      <c r="H2" s="38">
-        <v>0</v>
-      </c>
-      <c r="I2" s="38">
+        <v>150004</v>
+      </c>
+      <c r="H2" s="62">
+        <v>20130</v>
+      </c>
+      <c r="I2" s="62">
         <v>1608</v>
       </c>
       <c r="J2" s="5">
         <f>I2-H2</f>
-        <v>1608</v>
+        <v>-18522</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="36">
-        <v>2500</v>
-      </c>
-      <c r="C3" s="36">
+      <c r="B3" s="59">
+        <v>40</v>
+      </c>
+      <c r="C3" s="59">
         <v>0</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
-        <v>-2500</v>
-      </c>
-      <c r="E3" s="37">
-        <v>0</v>
-      </c>
-      <c r="F3" s="37">
+        <v>-40</v>
+      </c>
+      <c r="E3" s="60">
+        <v>0</v>
+      </c>
+      <c r="F3" s="60">
         <v>0</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="62">
         <v>40</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="62">
         <v>0</v>
       </c>
       <c r="J3" s="5">
@@ -1516,33 +1580,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="B4" s="59">
+        <v>0</v>
+      </c>
+      <c r="C4" s="59">
         <v>0</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="E4" s="60">
+        <v>0</v>
+      </c>
+      <c r="F4" s="60">
         <v>63</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38">
+      <c r="H4" s="62">
+        <v>0</v>
+      </c>
+      <c r="I4" s="62">
         <v>0</v>
       </c>
       <c r="J4" s="5">
@@ -1551,68 +1615,68 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="36">
-        <v>0</v>
-      </c>
-      <c r="C5" s="36">
-        <v>0</v>
+      <c r="B5" s="59">
+        <v>0</v>
+      </c>
+      <c r="C5" s="59">
+        <v>150</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="37">
-        <v>15000</v>
-      </c>
-      <c r="F5" s="37">
-        <v>105</v>
+        <v>150</v>
+      </c>
+      <c r="E5" s="60">
+        <v>12000</v>
+      </c>
+      <c r="F5" s="60">
+        <v>100</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>-14895</v>
-      </c>
-      <c r="H5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="38">
-        <v>0</v>
+        <v>-11900</v>
+      </c>
+      <c r="H5" s="62">
+        <v>0</v>
+      </c>
+      <c r="I5" s="62">
+        <v>1000</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="36">
-        <v>0</v>
-      </c>
-      <c r="C6" s="36">
+      <c r="B6" s="59">
+        <v>0</v>
+      </c>
+      <c r="C6" s="59">
         <v>0</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="37">
-        <v>352</v>
-      </c>
-      <c r="F6" s="37">
+      <c r="E6" s="60">
+        <v>875</v>
+      </c>
+      <c r="F6" s="60">
         <v>0</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>-352</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="38">
+        <v>-875</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0</v>
+      </c>
+      <c r="I6" s="62">
         <v>0</v>
       </c>
       <c r="J6" s="5">
@@ -1621,33 +1685,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="36">
-        <v>250</v>
-      </c>
-      <c r="C7" s="36">
+      <c r="A7" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="59">
+        <v>50</v>
+      </c>
+      <c r="C7" s="59">
         <v>0</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>-250</v>
-      </c>
-      <c r="E7" s="37">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37">
+        <v>-50</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0</v>
+      </c>
+      <c r="F7" s="60">
         <v>0</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
+      <c r="H7" s="62">
+        <v>0</v>
+      </c>
+      <c r="I7" s="62">
         <v>0</v>
       </c>
       <c r="J7" s="5">
@@ -1656,33 +1720,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="36">
-        <v>0</v>
-      </c>
-      <c r="C8" s="36">
+      <c r="B8" s="59">
+        <v>0</v>
+      </c>
+      <c r="C8" s="59">
         <v>0</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="37">
-        <v>0</v>
-      </c>
-      <c r="F8" s="37">
+      <c r="E8" s="60">
+        <v>0</v>
+      </c>
+      <c r="F8" s="60">
         <v>476</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="38">
+      <c r="H8" s="62">
+        <v>0</v>
+      </c>
+      <c r="I8" s="62">
         <v>0</v>
       </c>
       <c r="J8" s="5">
@@ -1691,33 +1755,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="36">
-        <v>0</v>
-      </c>
-      <c r="C9" s="36">
+      <c r="B9" s="59">
+        <v>0</v>
+      </c>
+      <c r="C9" s="59">
         <v>0</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="60">
         <v>33</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="60">
         <v>0</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="38">
-        <v>0</v>
-      </c>
-      <c r="I9" s="38">
+      <c r="H9" s="62">
+        <v>0</v>
+      </c>
+      <c r="I9" s="62">
         <v>0</v>
       </c>
       <c r="J9" s="5">
@@ -1726,33 +1790,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="36">
-        <v>0</v>
-      </c>
-      <c r="C10" s="36">
+      <c r="B10" s="59">
+        <v>0</v>
+      </c>
+      <c r="C10" s="59">
         <v>0</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="37">
-        <v>0</v>
-      </c>
-      <c r="F10" s="37">
-        <v>0</v>
+      <c r="E10" s="60">
+        <v>0</v>
+      </c>
+      <c r="F10" s="60">
+        <v>1499</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="38">
-        <v>0</v>
-      </c>
-      <c r="I10" s="38">
+        <v>1499</v>
+      </c>
+      <c r="H10" s="62">
+        <v>0</v>
+      </c>
+      <c r="I10" s="62">
         <v>0</v>
       </c>
       <c r="J10" s="5">
@@ -1761,33 +1825,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="36">
-        <v>0</v>
-      </c>
-      <c r="C11" s="36">
+      <c r="B11" s="59">
+        <v>0</v>
+      </c>
+      <c r="C11" s="59">
         <v>0</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="37">
-        <v>0</v>
-      </c>
-      <c r="F11" s="37">
+      <c r="E11" s="60">
+        <v>0</v>
+      </c>
+      <c r="F11" s="60">
         <v>155</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38">
+      <c r="H11" s="62">
+        <v>0</v>
+      </c>
+      <c r="I11" s="62">
         <v>0</v>
       </c>
       <c r="J11" s="5">
@@ -1796,33 +1860,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="36">
-        <v>0</v>
-      </c>
-      <c r="C12" s="36">
+      <c r="B12" s="59">
+        <v>0</v>
+      </c>
+      <c r="C12" s="59">
         <v>0</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="60">
         <v>639</v>
       </c>
-      <c r="F12" s="37">
-        <v>0</v>
+      <c r="F12" s="60">
+        <v>16000</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>-639</v>
-      </c>
-      <c r="H12" s="38">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
+        <v>15361</v>
+      </c>
+      <c r="H12" s="62">
+        <v>0</v>
+      </c>
+      <c r="I12" s="62">
         <v>0</v>
       </c>
       <c r="J12" s="5">
@@ -1831,33 +1895,33 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="36">
-        <v>0</v>
-      </c>
-      <c r="C13" s="36">
+      <c r="B13" s="59">
+        <v>0</v>
+      </c>
+      <c r="C13" s="59">
         <v>0</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="37">
-        <v>0</v>
-      </c>
-      <c r="F13" s="37">
+      <c r="E13" s="60">
+        <v>0</v>
+      </c>
+      <c r="F13" s="60">
         <v>113</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="H13" s="38">
-        <v>0</v>
-      </c>
-      <c r="I13" s="38">
+      <c r="H13" s="62">
+        <v>0</v>
+      </c>
+      <c r="I13" s="62">
         <v>0</v>
       </c>
       <c r="J13" s="5">
@@ -1866,33 +1930,33 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="36">
-        <v>0</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="B14" s="59">
+        <v>0</v>
+      </c>
+      <c r="C14" s="59">
         <v>0</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="37">
-        <v>1345</v>
-      </c>
-      <c r="F14" s="37">
+      <c r="E14" s="60">
+        <v>1374</v>
+      </c>
+      <c r="F14" s="60">
         <v>0</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
-        <v>-1345</v>
-      </c>
-      <c r="H14" s="38">
-        <v>0</v>
-      </c>
-      <c r="I14" s="38">
+        <v>-1374</v>
+      </c>
+      <c r="H14" s="62">
+        <v>0</v>
+      </c>
+      <c r="I14" s="62">
         <v>0</v>
       </c>
       <c r="J14" s="5">
@@ -1901,33 +1965,33 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="59">
         <v>1070</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="59">
         <v>100</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>-970</v>
       </c>
-      <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15" s="37">
+      <c r="E15" s="60">
+        <v>0</v>
+      </c>
+      <c r="F15" s="60">
         <v>0</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="38">
-        <v>0</v>
-      </c>
-      <c r="I15" s="38">
+      <c r="H15" s="62">
+        <v>0</v>
+      </c>
+      <c r="I15" s="62">
         <v>0</v>
       </c>
       <c r="J15" s="5">
@@ -1936,33 +2000,33 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="59">
         <v>40</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="59">
         <v>0</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="60">
         <v>115</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="60">
         <v>0</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="H16" s="38">
-        <v>0</v>
-      </c>
-      <c r="I16" s="38">
+      <c r="H16" s="62">
+        <v>0</v>
+      </c>
+      <c r="I16" s="62">
         <v>0</v>
       </c>
       <c r="J16" s="5">
@@ -1971,33 +2035,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="36">
-        <v>1610</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="B17" s="59">
+        <v>1720</v>
+      </c>
+      <c r="C17" s="59">
         <v>200</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>-1410</v>
-      </c>
-      <c r="E17" s="37">
-        <v>503</v>
-      </c>
-      <c r="F17" s="37">
+        <v>-1520</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0</v>
+      </c>
+      <c r="F17" s="60">
         <v>0</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>-503</v>
-      </c>
-      <c r="H17" s="38">
-        <v>0</v>
-      </c>
-      <c r="I17" s="38">
+        <v>0</v>
+      </c>
+      <c r="H17" s="62">
+        <v>0</v>
+      </c>
+      <c r="I17" s="62">
         <v>0</v>
       </c>
       <c r="J17" s="5">
@@ -2006,33 +2070,33 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="36">
-        <v>0</v>
-      </c>
-      <c r="C18" s="36">
+      <c r="B18" s="59">
+        <v>0</v>
+      </c>
+      <c r="C18" s="59">
         <v>0</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="60">
         <v>10650</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="60">
         <v>0</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>-10650</v>
       </c>
-      <c r="H18" s="38">
-        <v>0</v>
-      </c>
-      <c r="I18" s="38">
+      <c r="H18" s="62">
+        <v>0</v>
+      </c>
+      <c r="I18" s="62">
         <v>0</v>
       </c>
       <c r="J18" s="5">
@@ -2041,33 +2105,33 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="36">
-        <v>1305</v>
-      </c>
-      <c r="C19" s="36">
+      <c r="B19" s="59">
+        <v>270</v>
+      </c>
+      <c r="C19" s="59">
         <v>0</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>-1305</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="F19" s="37">
-        <v>5473</v>
+        <v>-270</v>
+      </c>
+      <c r="E19" s="60">
+        <v>0</v>
+      </c>
+      <c r="F19" s="60">
+        <v>9448</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>5473</v>
-      </c>
-      <c r="H19" s="38">
-        <v>0</v>
-      </c>
-      <c r="I19" s="38">
+        <v>9448</v>
+      </c>
+      <c r="H19" s="62">
+        <v>0</v>
+      </c>
+      <c r="I19" s="62">
         <v>0</v>
       </c>
       <c r="J19" s="5">
@@ -2076,33 +2140,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="59">
         <v>160</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="59">
         <v>0</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="E20" s="37">
-        <v>0</v>
-      </c>
-      <c r="F20" s="37">
+      <c r="E20" s="60">
+        <v>0</v>
+      </c>
+      <c r="F20" s="60">
         <v>0</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="38">
-        <v>0</v>
-      </c>
-      <c r="I20" s="38">
+      <c r="H20" s="62">
+        <v>0</v>
+      </c>
+      <c r="I20" s="62">
         <v>0</v>
       </c>
       <c r="J20" s="5">
@@ -2111,33 +2175,33 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="36">
-        <v>0</v>
-      </c>
-      <c r="C21" s="36">
+      <c r="B21" s="59">
+        <v>0</v>
+      </c>
+      <c r="C21" s="59">
         <v>0</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="60">
         <v>156</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="60">
         <v>0</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>-156</v>
       </c>
-      <c r="H21" s="38">
-        <v>0</v>
-      </c>
-      <c r="I21" s="38">
+      <c r="H21" s="62">
+        <v>0</v>
+      </c>
+      <c r="I21" s="62">
         <v>0</v>
       </c>
       <c r="J21" s="5">
@@ -2146,33 +2210,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="36">
-        <v>0</v>
-      </c>
-      <c r="C22" s="36">
+      <c r="B22" s="59">
+        <v>0</v>
+      </c>
+      <c r="C22" s="59">
         <v>0</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="37">
-        <v>0</v>
-      </c>
-      <c r="F22" s="37">
+      <c r="E22" s="60">
+        <v>0</v>
+      </c>
+      <c r="F22" s="60">
         <v>5</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H22" s="38">
-        <v>0</v>
-      </c>
-      <c r="I22" s="38">
+      <c r="H22" s="62">
+        <v>0</v>
+      </c>
+      <c r="I22" s="62">
         <v>0</v>
       </c>
       <c r="J22" s="5">
@@ -2181,33 +2245,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="36">
-        <v>0</v>
-      </c>
-      <c r="C23" s="36">
+      <c r="B23" s="59">
+        <v>0</v>
+      </c>
+      <c r="C23" s="59">
         <v>0</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="37">
-        <v>0</v>
-      </c>
-      <c r="F23" s="37">
+      <c r="E23" s="60">
+        <v>0</v>
+      </c>
+      <c r="F23" s="60">
         <v>4075</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>4075</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="62">
         <v>3000</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="62">
         <v>0</v>
       </c>
       <c r="J23" s="5">
@@ -2216,33 +2280,33 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="36">
-        <v>0</v>
-      </c>
-      <c r="C24" s="36">
+      <c r="B24" s="59">
+        <v>0</v>
+      </c>
+      <c r="C24" s="59">
         <v>800</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="E24" s="37">
-        <v>0</v>
-      </c>
-      <c r="F24" s="37">
+      <c r="E24" s="60">
+        <v>0</v>
+      </c>
+      <c r="F24" s="60">
         <v>0</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="38">
-        <v>0</v>
-      </c>
-      <c r="I24" s="38">
+      <c r="H24" s="62">
+        <v>0</v>
+      </c>
+      <c r="I24" s="62">
         <v>0</v>
       </c>
       <c r="J24" s="5">
@@ -2251,33 +2315,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="36">
-        <v>0</v>
-      </c>
-      <c r="C25" s="36">
+      <c r="B25" s="59">
+        <v>0</v>
+      </c>
+      <c r="C25" s="59">
         <v>0</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="37">
-        <v>0</v>
-      </c>
-      <c r="F25" s="37">
+      <c r="E25" s="60">
+        <v>0</v>
+      </c>
+      <c r="F25" s="60">
         <v>0</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="38">
-        <v>0</v>
-      </c>
-      <c r="I25" s="38">
+      <c r="H25" s="62">
+        <v>0</v>
+      </c>
+      <c r="I25" s="62">
         <v>0</v>
       </c>
       <c r="J25" s="5">
@@ -2286,33 +2350,33 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="36">
-        <v>0</v>
-      </c>
-      <c r="C26" s="36">
+      <c r="B26" s="59">
+        <v>0</v>
+      </c>
+      <c r="C26" s="59">
         <v>0</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="60">
         <v>656</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="60">
         <v>0</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
         <v>-656</v>
       </c>
-      <c r="H26" s="38">
-        <v>0</v>
-      </c>
-      <c r="I26" s="38">
+      <c r="H26" s="62">
+        <v>0</v>
+      </c>
+      <c r="I26" s="62">
         <v>0</v>
       </c>
       <c r="J26" s="5">
@@ -2321,33 +2385,33 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="36">
-        <v>0</v>
-      </c>
-      <c r="C27" s="36">
+      <c r="B27" s="59">
+        <v>0</v>
+      </c>
+      <c r="C27" s="59">
         <v>0</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="60">
         <v>1596</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="60">
         <v>0</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
         <v>-1596</v>
       </c>
-      <c r="H27" s="38">
-        <v>0</v>
-      </c>
-      <c r="I27" s="38">
+      <c r="H27" s="62">
+        <v>0</v>
+      </c>
+      <c r="I27" s="62">
         <v>0</v>
       </c>
       <c r="J27" s="5">
@@ -2356,33 +2420,33 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="36">
+      <c r="A28" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="59">
         <v>300</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="59">
         <v>0</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>-300</v>
       </c>
-      <c r="E28" s="37">
-        <v>0</v>
-      </c>
-      <c r="F28" s="37">
+      <c r="E28" s="60">
+        <v>0</v>
+      </c>
+      <c r="F28" s="60">
         <v>0</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="38">
-        <v>0</v>
-      </c>
-      <c r="I28" s="38">
+      <c r="H28" s="62">
+        <v>0</v>
+      </c>
+      <c r="I28" s="62">
         <v>0</v>
       </c>
       <c r="J28" s="5">
@@ -2391,33 +2455,33 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="36">
-        <v>0</v>
-      </c>
-      <c r="C29" s="36">
+      <c r="B29" s="59">
+        <v>0</v>
+      </c>
+      <c r="C29" s="59">
         <v>0</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="60">
         <v>6000</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="60">
         <v>0</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
         <v>-6000</v>
       </c>
-      <c r="H29" s="38">
-        <v>0</v>
-      </c>
-      <c r="I29" s="38">
+      <c r="H29" s="62">
+        <v>0</v>
+      </c>
+      <c r="I29" s="62">
         <v>0</v>
       </c>
       <c r="J29" s="5">
@@ -2426,33 +2490,33 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="59">
         <v>610</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="59">
         <v>0</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
         <v>-610</v>
       </c>
-      <c r="E30" s="37">
-        <v>0</v>
-      </c>
-      <c r="F30" s="37">
+      <c r="E30" s="60">
+        <v>0</v>
+      </c>
+      <c r="F30" s="60">
         <v>1868</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
         <v>1868</v>
       </c>
-      <c r="H30" s="38">
-        <v>0</v>
-      </c>
-      <c r="I30" s="38">
+      <c r="H30" s="62">
+        <v>0</v>
+      </c>
+      <c r="I30" s="62">
         <v>0</v>
       </c>
       <c r="J30" s="5">
@@ -2461,33 +2525,33 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="36">
-        <v>0</v>
-      </c>
-      <c r="C31" s="36">
+      <c r="B31" s="59">
+        <v>0</v>
+      </c>
+      <c r="C31" s="59">
         <v>0</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="37">
-        <v>550</v>
-      </c>
-      <c r="F31" s="37">
+      <c r="E31" s="60">
+        <v>500</v>
+      </c>
+      <c r="F31" s="60">
         <v>0</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="1"/>
-        <v>-550</v>
-      </c>
-      <c r="H31" s="38">
-        <v>0</v>
-      </c>
-      <c r="I31" s="38">
+        <v>-500</v>
+      </c>
+      <c r="H31" s="62">
+        <v>0</v>
+      </c>
+      <c r="I31" s="62">
         <v>0</v>
       </c>
       <c r="J31" s="5">
@@ -2496,33 +2560,33 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="59">
         <v>5600</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="59">
         <v>0</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>-5600</v>
       </c>
-      <c r="E32" s="37">
-        <v>0</v>
-      </c>
-      <c r="F32" s="37">
+      <c r="E32" s="60">
+        <v>0</v>
+      </c>
+      <c r="F32" s="60">
         <v>0</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="38">
-        <v>0</v>
-      </c>
-      <c r="I32" s="38">
+      <c r="H32" s="62">
+        <v>0</v>
+      </c>
+      <c r="I32" s="62">
         <v>0</v>
       </c>
       <c r="J32" s="5">
@@ -2531,33 +2595,33 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="36">
-        <v>0</v>
-      </c>
-      <c r="C33" s="36">
+      <c r="B33" s="59">
+        <v>0</v>
+      </c>
+      <c r="C33" s="59">
         <v>3942</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>3942</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="60">
         <v>345</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="60">
         <v>0</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="1"/>
         <v>-345</v>
       </c>
-      <c r="H33" s="38">
-        <v>0</v>
-      </c>
-      <c r="I33" s="38">
+      <c r="H33" s="62">
+        <v>0</v>
+      </c>
+      <c r="I33" s="62">
         <v>0</v>
       </c>
       <c r="J33" s="5">
@@ -2566,33 +2630,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="59">
         <v>15</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="59">
         <v>0</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="60">
         <v>5000</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="60">
         <v>0</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="1"/>
         <v>-5000</v>
       </c>
-      <c r="H34" s="38">
-        <v>0</v>
-      </c>
-      <c r="I34" s="38">
+      <c r="H34" s="62">
+        <v>0</v>
+      </c>
+      <c r="I34" s="62">
         <v>0</v>
       </c>
       <c r="J34" s="5">
@@ -2601,33 +2665,33 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="36">
-        <v>0</v>
-      </c>
-      <c r="C35" s="36">
+      <c r="B35" s="59">
+        <v>0</v>
+      </c>
+      <c r="C35" s="59">
         <v>0</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="60">
         <v>10</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="60">
         <v>0</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H35" s="38">
-        <v>0</v>
-      </c>
-      <c r="I35" s="38">
+      <c r="H35" s="62">
+        <v>0</v>
+      </c>
+      <c r="I35" s="62">
         <v>0</v>
       </c>
       <c r="J35" s="5">
@@ -2636,33 +2700,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="36">
-        <v>0</v>
-      </c>
-      <c r="C36" s="36">
+      <c r="A36" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="59">
+        <v>100</v>
+      </c>
+      <c r="C36" s="59">
         <v>2805</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="0"/>
-        <v>2805</v>
-      </c>
-      <c r="E36" s="37">
+        <v>2705</v>
+      </c>
+      <c r="E36" s="60">
         <v>207</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="60">
         <v>0</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="1"/>
         <v>-207</v>
       </c>
-      <c r="H36" s="38">
-        <v>0</v>
-      </c>
-      <c r="I36" s="38">
+      <c r="H36" s="62">
+        <v>0</v>
+      </c>
+      <c r="I36" s="62">
         <v>0</v>
       </c>
       <c r="J36" s="5">
@@ -2671,33 +2735,33 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="36">
-        <v>0</v>
-      </c>
-      <c r="C37" s="36">
-        <v>3405</v>
+      <c r="A37" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="59">
+        <v>0</v>
+      </c>
+      <c r="C37" s="59">
+        <v>505</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>3405</v>
-      </c>
-      <c r="E37" s="37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="37">
-        <v>0</v>
+        <v>505</v>
+      </c>
+      <c r="E37" s="60">
+        <v>0</v>
+      </c>
+      <c r="F37" s="60">
+        <v>100</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="38">
-        <v>0</v>
-      </c>
-      <c r="I37" s="38">
+        <v>100</v>
+      </c>
+      <c r="H37" s="62">
+        <v>0</v>
+      </c>
+      <c r="I37" s="62">
         <v>0</v>
       </c>
       <c r="J37" s="5">
@@ -2706,33 +2770,33 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="59">
         <v>20</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="59">
         <v>0</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="E38" s="37">
-        <v>0</v>
-      </c>
-      <c r="F38" s="37">
+      <c r="E38" s="60">
+        <v>0</v>
+      </c>
+      <c r="F38" s="60">
         <v>0</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="38">
+      <c r="H38" s="62">
+        <v>0</v>
+      </c>
+      <c r="I38" s="62">
         <v>0</v>
       </c>
       <c r="J38" s="5">
@@ -2741,33 +2805,33 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="36">
-        <v>0</v>
-      </c>
-      <c r="C39" s="36">
+      <c r="A39" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="59">
+        <v>0</v>
+      </c>
+      <c r="C39" s="59">
         <v>0</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="60">
         <v>770</v>
       </c>
-      <c r="F39" s="37">
-        <v>0</v>
+      <c r="F39" s="60">
+        <v>625</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="1"/>
-        <v>-770</v>
-      </c>
-      <c r="H39" s="38">
-        <v>0</v>
-      </c>
-      <c r="I39" s="38">
+        <v>-145</v>
+      </c>
+      <c r="H39" s="62">
+        <v>0</v>
+      </c>
+      <c r="I39" s="62">
         <v>0</v>
       </c>
       <c r="J39" s="5">
@@ -2776,33 +2840,33 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="36">
-        <v>0</v>
-      </c>
-      <c r="C40" s="36">
+      <c r="B40" s="59">
+        <v>0</v>
+      </c>
+      <c r="C40" s="59">
         <v>5475</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="0"/>
         <v>5475</v>
       </c>
-      <c r="E40" s="37">
-        <v>0</v>
-      </c>
-      <c r="F40" s="37">
+      <c r="E40" s="60">
+        <v>0</v>
+      </c>
+      <c r="F40" s="60">
         <v>0</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="38">
-        <v>0</v>
-      </c>
-      <c r="I40" s="38">
+      <c r="H40" s="62">
+        <v>0</v>
+      </c>
+      <c r="I40" s="62">
         <v>0</v>
       </c>
       <c r="J40" s="5">
@@ -2811,33 +2875,33 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="36">
-        <v>0</v>
-      </c>
-      <c r="C41" s="36">
+      <c r="B41" s="59">
+        <v>0</v>
+      </c>
+      <c r="C41" s="59">
         <v>0</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="37">
-        <v>2749</v>
-      </c>
-      <c r="F41" s="37">
+      <c r="E41" s="60">
+        <v>10860</v>
+      </c>
+      <c r="F41" s="60">
         <v>0</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="1"/>
-        <v>-2749</v>
-      </c>
-      <c r="H41" s="38">
-        <v>0</v>
-      </c>
-      <c r="I41" s="38">
+        <v>-10860</v>
+      </c>
+      <c r="H41" s="62">
+        <v>0</v>
+      </c>
+      <c r="I41" s="62">
         <v>0</v>
       </c>
       <c r="J41" s="5">
@@ -2846,33 +2910,33 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="36">
-        <v>0</v>
-      </c>
-      <c r="C42" s="36">
+      <c r="A42" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="59">
+        <v>0</v>
+      </c>
+      <c r="C42" s="59">
         <v>0</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="60">
         <v>4150</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="60">
         <v>0</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="1"/>
         <v>-4150</v>
       </c>
-      <c r="H42" s="38">
-        <v>0</v>
-      </c>
-      <c r="I42" s="38">
+      <c r="H42" s="62">
+        <v>0</v>
+      </c>
+      <c r="I42" s="62">
         <v>0</v>
       </c>
       <c r="J42" s="5">
@@ -2881,33 +2945,33 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="36">
-        <v>0</v>
-      </c>
-      <c r="C43" s="36">
+      <c r="B43" s="59">
+        <v>0</v>
+      </c>
+      <c r="C43" s="59">
         <v>300</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E43" s="37">
-        <v>0</v>
-      </c>
-      <c r="F43" s="37">
+      <c r="E43" s="60">
+        <v>0</v>
+      </c>
+      <c r="F43" s="60">
         <v>0</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="38">
-        <v>0</v>
-      </c>
-      <c r="I43" s="38">
+      <c r="H43" s="62">
+        <v>0</v>
+      </c>
+      <c r="I43" s="62">
         <v>0</v>
       </c>
       <c r="J43" s="5">
@@ -2916,33 +2980,33 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="36">
-        <v>0</v>
-      </c>
-      <c r="C44" s="36">
+      <c r="B44" s="59">
+        <v>0</v>
+      </c>
+      <c r="C44" s="59">
         <v>0</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="60">
         <v>60</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="60">
         <v>0</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="H44" s="38">
-        <v>0</v>
-      </c>
-      <c r="I44" s="38">
+      <c r="H44" s="62">
+        <v>0</v>
+      </c>
+      <c r="I44" s="62">
         <v>0</v>
       </c>
       <c r="J44" s="5">
@@ -2951,33 +3015,33 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="36">
+      <c r="A45" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="59">
         <v>95</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="59">
         <v>0</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="0"/>
         <v>-95</v>
       </c>
-      <c r="E45" s="37">
-        <v>0</v>
-      </c>
-      <c r="F45" s="37">
+      <c r="E45" s="60">
+        <v>0</v>
+      </c>
+      <c r="F45" s="60">
         <v>0</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="38">
-        <v>0</v>
-      </c>
-      <c r="I45" s="38">
+      <c r="H45" s="62">
+        <v>0</v>
+      </c>
+      <c r="I45" s="62">
         <v>0</v>
       </c>
       <c r="J45" s="5">
@@ -2986,33 +3050,33 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="36">
-        <v>0</v>
-      </c>
-      <c r="C46" s="36">
+      <c r="B46" s="59">
+        <v>0</v>
+      </c>
+      <c r="C46" s="59">
         <v>0</v>
       </c>
       <c r="D46" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="60">
         <v>10</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="60">
         <v>0</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H46" s="38">
-        <v>0</v>
-      </c>
-      <c r="I46" s="38">
+      <c r="H46" s="62">
+        <v>0</v>
+      </c>
+      <c r="I46" s="62">
         <v>0</v>
       </c>
       <c r="J46" s="5">
@@ -3021,33 +3085,33 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="36">
-        <v>0</v>
-      </c>
-      <c r="C47" s="36">
+      <c r="B47" s="59">
+        <v>0</v>
+      </c>
+      <c r="C47" s="59">
         <v>0</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="60">
         <v>250</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="60">
         <v>0</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="H47" s="38">
-        <v>0</v>
-      </c>
-      <c r="I47" s="38">
+      <c r="H47" s="62">
+        <v>0</v>
+      </c>
+      <c r="I47" s="62">
         <v>0</v>
       </c>
       <c r="J47" s="5">
@@ -3056,33 +3120,33 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="36">
-        <v>0</v>
-      </c>
-      <c r="C48" s="36">
+      <c r="B48" s="59">
+        <v>0</v>
+      </c>
+      <c r="C48" s="59">
         <v>300</v>
       </c>
       <c r="D48" s="5">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="60">
         <v>2419</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="60">
         <v>0</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" si="1"/>
         <v>-2419</v>
       </c>
-      <c r="H48" s="38">
-        <v>0</v>
-      </c>
-      <c r="I48" s="38">
+      <c r="H48" s="62">
+        <v>0</v>
+      </c>
+      <c r="I48" s="62">
         <v>0</v>
       </c>
       <c r="J48" s="5">
@@ -3091,33 +3155,33 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="59">
         <v>74</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="59">
         <v>0</v>
       </c>
       <c r="D49" s="5">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="E49" s="37">
-        <v>0</v>
-      </c>
-      <c r="F49" s="37">
+      <c r="E49" s="60">
+        <v>0</v>
+      </c>
+      <c r="F49" s="60">
         <v>0</v>
       </c>
       <c r="G49" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="38">
-        <v>0</v>
-      </c>
-      <c r="I49" s="38">
+      <c r="H49" s="62">
+        <v>0</v>
+      </c>
+      <c r="I49" s="62">
         <v>0</v>
       </c>
       <c r="J49" s="5">
@@ -3126,33 +3190,33 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="36">
-        <v>0</v>
-      </c>
-      <c r="C50" s="36">
+      <c r="A50" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="59">
+        <v>0</v>
+      </c>
+      <c r="C50" s="59">
         <v>0</v>
       </c>
       <c r="D50" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="60">
         <v>128</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="60">
         <v>0</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" si="1"/>
         <v>-128</v>
       </c>
-      <c r="H50" s="38">
-        <v>0</v>
-      </c>
-      <c r="I50" s="38">
+      <c r="H50" s="62">
+        <v>0</v>
+      </c>
+      <c r="I50" s="62">
         <v>0</v>
       </c>
       <c r="J50" s="5">
@@ -3161,33 +3225,33 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="36">
-        <v>0</v>
-      </c>
-      <c r="C51" s="36">
+      <c r="B51" s="59">
+        <v>0</v>
+      </c>
+      <c r="C51" s="59">
         <v>0</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="60">
         <v>300</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="60">
         <v>0</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" si="1"/>
         <v>-300</v>
       </c>
-      <c r="H51" s="38">
-        <v>0</v>
-      </c>
-      <c r="I51" s="38">
+      <c r="H51" s="62">
+        <v>0</v>
+      </c>
+      <c r="I51" s="62">
         <v>0</v>
       </c>
       <c r="J51" s="5">
@@ -3196,33 +3260,33 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="59">
         <v>250</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="59">
         <v>0</v>
       </c>
       <c r="D52" s="5">
         <f t="shared" si="0"/>
         <v>-250</v>
       </c>
-      <c r="E52" s="37">
-        <v>0</v>
-      </c>
-      <c r="F52" s="37">
+      <c r="E52" s="60">
+        <v>0</v>
+      </c>
+      <c r="F52" s="60">
         <v>0</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52" s="38">
-        <v>0</v>
-      </c>
-      <c r="I52" s="38">
+      <c r="H52" s="62">
+        <v>0</v>
+      </c>
+      <c r="I52" s="62">
         <v>0</v>
       </c>
       <c r="J52" s="5">
@@ -3231,68 +3295,68 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="36">
-        <v>0</v>
-      </c>
-      <c r="C53" s="36">
+      <c r="B53" s="59">
+        <v>0</v>
+      </c>
+      <c r="C53" s="59">
         <v>0</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E53" s="37">
-        <v>9829</v>
-      </c>
-      <c r="F53" s="37">
+      <c r="E53" s="60">
+        <v>15846</v>
+      </c>
+      <c r="F53" s="60">
         <v>0</v>
       </c>
       <c r="G53" s="5">
         <f t="shared" si="1"/>
-        <v>-9829</v>
-      </c>
-      <c r="H53" s="38">
-        <v>0</v>
-      </c>
-      <c r="I53" s="38">
-        <v>10110</v>
+        <v>-15846</v>
+      </c>
+      <c r="H53" s="62">
+        <v>0</v>
+      </c>
+      <c r="I53" s="62">
+        <v>34215</v>
       </c>
       <c r="J53" s="5">
         <f t="shared" si="2"/>
-        <v>10110</v>
+        <v>34215</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="36">
-        <v>0</v>
-      </c>
-      <c r="C54" s="36">
-        <v>0</v>
+      <c r="A54" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="59">
+        <v>0</v>
+      </c>
+      <c r="C54" s="59">
+        <v>106</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="37">
-        <v>2961</v>
-      </c>
-      <c r="F54" s="37">
-        <v>3000</v>
+        <v>106</v>
+      </c>
+      <c r="E54" s="60">
+        <v>0</v>
+      </c>
+      <c r="F54" s="60">
+        <v>0</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="H54" s="38">
-        <v>0</v>
-      </c>
-      <c r="I54" s="38">
+        <v>0</v>
+      </c>
+      <c r="H54" s="62">
+        <v>0</v>
+      </c>
+      <c r="I54" s="62">
         <v>0</v>
       </c>
       <c r="J54" s="5">
@@ -3301,33 +3365,33 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="59">
         <v>14</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="59">
         <v>0</v>
       </c>
       <c r="D55" s="5">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
-      <c r="E55" s="37">
-        <v>0</v>
-      </c>
-      <c r="F55" s="37">
+      <c r="E55" s="60">
+        <v>0</v>
+      </c>
+      <c r="F55" s="60">
         <v>0</v>
       </c>
       <c r="G55" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="38">
-        <v>0</v>
-      </c>
-      <c r="I55" s="38">
+      <c r="H55" s="62">
+        <v>0</v>
+      </c>
+      <c r="I55" s="62">
         <v>0</v>
       </c>
       <c r="J55" s="5">
@@ -3336,33 +3400,33 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="36">
-        <v>0</v>
-      </c>
-      <c r="C56" s="36">
+      <c r="A56" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="59">
+        <v>0</v>
+      </c>
+      <c r="C56" s="59">
         <v>0</v>
       </c>
       <c r="D56" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E56" s="37">
-        <v>0</v>
-      </c>
-      <c r="F56" s="37">
+      <c r="E56" s="60">
+        <v>0</v>
+      </c>
+      <c r="F56" s="60">
         <v>7</v>
       </c>
       <c r="G56" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H56" s="38">
-        <v>0</v>
-      </c>
-      <c r="I56" s="38">
+      <c r="H56" s="62">
+        <v>0</v>
+      </c>
+      <c r="I56" s="62">
         <v>0</v>
       </c>
       <c r="J56" s="5">
@@ -3371,33 +3435,33 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="36">
-        <v>0</v>
-      </c>
-      <c r="C57" s="36">
+      <c r="B57" s="59">
+        <v>0</v>
+      </c>
+      <c r="C57" s="59">
         <v>0</v>
       </c>
       <c r="D57" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="60">
         <v>10</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="60">
         <v>0</v>
       </c>
       <c r="G57" s="5">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H57" s="38">
-        <v>0</v>
-      </c>
-      <c r="I57" s="38">
+      <c r="H57" s="62">
+        <v>0</v>
+      </c>
+      <c r="I57" s="62">
         <v>0</v>
       </c>
       <c r="J57" s="5">
@@ -3406,33 +3470,33 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="36">
+      <c r="A58" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="59">
         <v>625</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="59">
         <v>0</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" si="0"/>
         <v>-625</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="60">
         <v>2522</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="60">
         <v>0</v>
       </c>
       <c r="G58" s="5">
         <f t="shared" si="1"/>
         <v>-2522</v>
       </c>
-      <c r="H58" s="38">
-        <v>0</v>
-      </c>
-      <c r="I58" s="38">
+      <c r="H58" s="62">
+        <v>0</v>
+      </c>
+      <c r="I58" s="62">
         <v>0</v>
       </c>
       <c r="J58" s="5">
@@ -3441,33 +3505,33 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="36">
-        <v>0</v>
-      </c>
-      <c r="C59" s="36">
-        <v>18530</v>
+      <c r="B59" s="59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="59">
+        <v>34290</v>
       </c>
       <c r="D59" s="5">
         <f t="shared" si="0"/>
-        <v>18530</v>
-      </c>
-      <c r="E59" s="37">
-        <v>9729</v>
-      </c>
-      <c r="F59" s="37">
+        <v>34290</v>
+      </c>
+      <c r="E59" s="60">
+        <v>689</v>
+      </c>
+      <c r="F59" s="60">
         <v>0</v>
       </c>
       <c r="G59" s="5">
         <f t="shared" si="1"/>
-        <v>-9729</v>
-      </c>
-      <c r="H59" s="38">
-        <v>0</v>
-      </c>
-      <c r="I59" s="38">
+        <v>-689</v>
+      </c>
+      <c r="H59" s="62">
+        <v>0</v>
+      </c>
+      <c r="I59" s="62">
         <v>0</v>
       </c>
       <c r="J59" s="5">
@@ -3476,33 +3540,33 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="36">
-        <v>0</v>
-      </c>
-      <c r="C60" s="36">
+      <c r="B60" s="59">
+        <v>0</v>
+      </c>
+      <c r="C60" s="59">
         <v>0</v>
       </c>
       <c r="D60" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="60">
         <v>165</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="60">
         <v>0</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" si="1"/>
         <v>-165</v>
       </c>
-      <c r="H60" s="38">
-        <v>0</v>
-      </c>
-      <c r="I60" s="38">
+      <c r="H60" s="62">
+        <v>0</v>
+      </c>
+      <c r="I60" s="62">
         <v>0</v>
       </c>
       <c r="J60" s="5">
@@ -3511,33 +3575,33 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="36">
-        <v>0</v>
-      </c>
-      <c r="C61" s="36">
-        <v>3116</v>
+      <c r="B61" s="59">
+        <v>0</v>
+      </c>
+      <c r="C61" s="59">
+        <v>3551</v>
       </c>
       <c r="D61" s="5">
         <f t="shared" si="0"/>
-        <v>3116</v>
-      </c>
-      <c r="E61" s="37">
-        <v>9357</v>
-      </c>
-      <c r="F61" s="37">
+        <v>3551</v>
+      </c>
+      <c r="E61" s="60">
+        <v>9807</v>
+      </c>
+      <c r="F61" s="60">
         <v>9000</v>
       </c>
       <c r="G61" s="5">
         <f t="shared" si="1"/>
-        <v>-357</v>
-      </c>
-      <c r="H61" s="38">
-        <v>0</v>
-      </c>
-      <c r="I61" s="38">
+        <v>-807</v>
+      </c>
+      <c r="H61" s="62">
+        <v>0</v>
+      </c>
+      <c r="I61" s="62">
         <v>0</v>
       </c>
       <c r="J61" s="5">
@@ -3546,33 +3610,33 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="36">
-        <v>534</v>
-      </c>
-      <c r="C62" s="36">
+      <c r="B62" s="59">
+        <v>389</v>
+      </c>
+      <c r="C62" s="59">
         <v>0</v>
       </c>
       <c r="D62" s="5">
         <f t="shared" si="0"/>
-        <v>-534</v>
-      </c>
-      <c r="E62" s="37">
-        <v>0</v>
-      </c>
-      <c r="F62" s="37">
+        <v>-389</v>
+      </c>
+      <c r="E62" s="60">
+        <v>0</v>
+      </c>
+      <c r="F62" s="60">
         <v>0</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="38">
-        <v>0</v>
-      </c>
-      <c r="I62" s="38">
+      <c r="H62" s="62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="62">
         <v>0</v>
       </c>
       <c r="J62" s="5">
@@ -3581,33 +3645,33 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="36">
-        <v>0</v>
-      </c>
-      <c r="C63" s="36">
+      <c r="B63" s="59">
+        <v>0</v>
+      </c>
+      <c r="C63" s="59">
         <v>0</v>
       </c>
       <c r="D63" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E63" s="37">
-        <v>1195</v>
-      </c>
-      <c r="F63" s="37">
-        <v>950</v>
+      <c r="E63" s="60">
+        <v>3615</v>
+      </c>
+      <c r="F63" s="60">
+        <v>2550</v>
       </c>
       <c r="G63" s="5">
         <f t="shared" si="1"/>
-        <v>-245</v>
-      </c>
-      <c r="H63" s="38">
-        <v>0</v>
-      </c>
-      <c r="I63" s="38">
+        <v>-1065</v>
+      </c>
+      <c r="H63" s="62">
+        <v>0</v>
+      </c>
+      <c r="I63" s="62">
         <v>0</v>
       </c>
       <c r="J63" s="5">
@@ -3616,33 +3680,33 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="36">
-        <v>0</v>
-      </c>
-      <c r="C64" s="36">
+      <c r="B64" s="59">
+        <v>0</v>
+      </c>
+      <c r="C64" s="59">
         <v>0</v>
       </c>
       <c r="D64" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="60">
         <v>200</v>
       </c>
-      <c r="F64" s="37">
+      <c r="F64" s="60">
         <v>0</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" si="1"/>
         <v>-200</v>
       </c>
-      <c r="H64" s="38">
-        <v>0</v>
-      </c>
-      <c r="I64" s="38">
+      <c r="H64" s="62">
+        <v>0</v>
+      </c>
+      <c r="I64" s="62">
         <v>0</v>
       </c>
       <c r="J64" s="5">
@@ -3651,68 +3715,68 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="36">
-        <v>0</v>
-      </c>
-      <c r="C65" s="36">
+      <c r="B65" s="59">
+        <v>0</v>
+      </c>
+      <c r="C65" s="59">
         <v>0</v>
       </c>
       <c r="D65" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E65" s="37">
-        <v>0</v>
-      </c>
-      <c r="F65" s="37">
+      <c r="E65" s="60">
+        <v>0</v>
+      </c>
+      <c r="F65" s="60">
         <v>0</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="38">
-        <v>2525</v>
-      </c>
-      <c r="I65" s="38">
+      <c r="H65" s="62">
+        <v>6585</v>
+      </c>
+      <c r="I65" s="62">
         <v>0</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" si="2"/>
-        <v>-2525</v>
+        <v>-6585</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="36">
-        <v>0</v>
-      </c>
-      <c r="C66" s="36">
+      <c r="B66" s="59">
+        <v>0</v>
+      </c>
+      <c r="C66" s="59">
         <v>20</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E66" s="37">
-        <v>0</v>
-      </c>
-      <c r="F66" s="37">
+      <c r="E66" s="60">
+        <v>0</v>
+      </c>
+      <c r="F66" s="60">
         <v>1299</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="1"/>
         <v>1299</v>
       </c>
-      <c r="H66" s="38">
-        <v>0</v>
-      </c>
-      <c r="I66" s="38">
+      <c r="H66" s="62">
+        <v>0</v>
+      </c>
+      <c r="I66" s="62">
         <v>0</v>
       </c>
       <c r="J66" s="5">
@@ -3721,33 +3785,33 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="36">
-        <v>0</v>
-      </c>
-      <c r="C67" s="36">
+      <c r="B67" s="59">
+        <v>0</v>
+      </c>
+      <c r="C67" s="59">
         <v>0</v>
       </c>
       <c r="D67" s="5">
         <f t="shared" ref="D67:D130" si="3">C67-B67</f>
         <v>0</v>
       </c>
-      <c r="E67" s="37">
-        <v>0</v>
-      </c>
-      <c r="F67" s="37">
-        <v>205</v>
+      <c r="E67" s="60">
+        <v>501</v>
+      </c>
+      <c r="F67" s="60">
+        <v>944</v>
       </c>
       <c r="G67" s="5">
         <f t="shared" ref="G67:G130" si="4">F67-E67</f>
-        <v>205</v>
-      </c>
-      <c r="H67" s="38">
-        <v>0</v>
-      </c>
-      <c r="I67" s="38">
+        <v>443</v>
+      </c>
+      <c r="H67" s="62">
+        <v>0</v>
+      </c>
+      <c r="I67" s="62">
         <v>0</v>
       </c>
       <c r="J67" s="5">
@@ -3756,33 +3820,33 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="36">
-        <v>0</v>
-      </c>
-      <c r="C68" s="36">
+      <c r="B68" s="59">
+        <v>0</v>
+      </c>
+      <c r="C68" s="59">
         <v>0</v>
       </c>
       <c r="D68" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="60">
         <v>16</v>
       </c>
-      <c r="F68" s="37">
+      <c r="F68" s="60">
         <v>0</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" si="4"/>
         <v>-16</v>
       </c>
-      <c r="H68" s="38">
-        <v>0</v>
-      </c>
-      <c r="I68" s="38">
+      <c r="H68" s="62">
+        <v>0</v>
+      </c>
+      <c r="I68" s="62">
         <v>0</v>
       </c>
       <c r="J68" s="5">
@@ -3791,33 +3855,33 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="36">
-        <v>0</v>
-      </c>
-      <c r="C69" s="36">
+      <c r="A69" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="59">
+        <v>0</v>
+      </c>
+      <c r="C69" s="59">
         <v>0</v>
       </c>
       <c r="D69" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E69" s="37">
-        <v>0</v>
-      </c>
-      <c r="F69" s="37">
-        <v>5886</v>
+      <c r="E69" s="60">
+        <v>0</v>
+      </c>
+      <c r="F69" s="60">
+        <v>2580</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" si="4"/>
-        <v>5886</v>
-      </c>
-      <c r="H69" s="38">
-        <v>0</v>
-      </c>
-      <c r="I69" s="38">
+        <v>2580</v>
+      </c>
+      <c r="H69" s="62">
+        <v>0</v>
+      </c>
+      <c r="I69" s="62">
         <v>0</v>
       </c>
       <c r="J69" s="5">
@@ -3826,33 +3890,33 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="36">
-        <v>0</v>
-      </c>
-      <c r="C70" s="36">
+      <c r="B70" s="59">
+        <v>0</v>
+      </c>
+      <c r="C70" s="59">
         <v>0</v>
       </c>
       <c r="D70" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="37">
+      <c r="E70" s="60">
         <v>146</v>
       </c>
-      <c r="F70" s="37">
+      <c r="F70" s="60">
         <v>0</v>
       </c>
       <c r="G70" s="5">
         <f t="shared" si="4"/>
         <v>-146</v>
       </c>
-      <c r="H70" s="38">
-        <v>0</v>
-      </c>
-      <c r="I70" s="38">
+      <c r="H70" s="62">
+        <v>0</v>
+      </c>
+      <c r="I70" s="62">
         <v>0</v>
       </c>
       <c r="J70" s="5">
@@ -3861,33 +3925,33 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B71" s="36">
-        <v>0</v>
-      </c>
-      <c r="C71" s="36">
+      <c r="A71" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="59">
+        <v>0</v>
+      </c>
+      <c r="C71" s="59">
         <v>0</v>
       </c>
       <c r="D71" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E71" s="37">
-        <v>0</v>
-      </c>
-      <c r="F71" s="37">
-        <v>747</v>
+      <c r="E71" s="60">
+        <v>2000</v>
+      </c>
+      <c r="F71" s="60">
+        <v>1200</v>
       </c>
       <c r="G71" s="5">
         <f t="shared" si="4"/>
-        <v>747</v>
-      </c>
-      <c r="H71" s="38">
-        <v>0</v>
-      </c>
-      <c r="I71" s="38">
+        <v>-800</v>
+      </c>
+      <c r="H71" s="62">
+        <v>0</v>
+      </c>
+      <c r="I71" s="62">
         <v>0</v>
       </c>
       <c r="J71" s="5">
@@ -3896,33 +3960,33 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="36">
-        <v>150</v>
-      </c>
-      <c r="C72" s="36">
+      <c r="B72" s="59">
+        <v>200</v>
+      </c>
+      <c r="C72" s="59">
         <v>1270</v>
       </c>
       <c r="D72" s="5">
         <f t="shared" si="3"/>
-        <v>1120</v>
-      </c>
-      <c r="E72" s="37">
-        <v>0</v>
-      </c>
-      <c r="F72" s="37">
+        <v>1070</v>
+      </c>
+      <c r="E72" s="60">
+        <v>0</v>
+      </c>
+      <c r="F72" s="60">
         <v>0</v>
       </c>
       <c r="G72" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H72" s="38">
-        <v>0</v>
-      </c>
-      <c r="I72" s="38">
+      <c r="H72" s="62">
+        <v>0</v>
+      </c>
+      <c r="I72" s="62">
         <v>0</v>
       </c>
       <c r="J72" s="5">
@@ -3931,33 +3995,33 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="36">
-        <v>0</v>
-      </c>
-      <c r="C73" s="36">
+      <c r="B73" s="59">
+        <v>0</v>
+      </c>
+      <c r="C73" s="59">
         <v>0</v>
       </c>
       <c r="D73" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="37">
+      <c r="E73" s="60">
         <v>12813</v>
       </c>
-      <c r="F73" s="37">
+      <c r="F73" s="60">
         <v>0</v>
       </c>
       <c r="G73" s="5">
         <f t="shared" si="4"/>
         <v>-12813</v>
       </c>
-      <c r="H73" s="38">
-        <v>0</v>
-      </c>
-      <c r="I73" s="38">
+      <c r="H73" s="62">
+        <v>0</v>
+      </c>
+      <c r="I73" s="62">
         <v>0</v>
       </c>
       <c r="J73" s="5">
@@ -3966,33 +4030,33 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="36">
-        <v>0</v>
-      </c>
-      <c r="C74" s="36">
+      <c r="A74" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="59">
+        <v>0</v>
+      </c>
+      <c r="C74" s="59">
         <v>0</v>
       </c>
       <c r="D74" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="37">
+      <c r="E74" s="60">
         <v>21000</v>
       </c>
-      <c r="F74" s="37">
+      <c r="F74" s="60">
         <v>0</v>
       </c>
       <c r="G74" s="5">
         <f t="shared" si="4"/>
         <v>-21000</v>
       </c>
-      <c r="H74" s="38">
-        <v>0</v>
-      </c>
-      <c r="I74" s="38">
+      <c r="H74" s="62">
+        <v>0</v>
+      </c>
+      <c r="I74" s="62">
         <v>0</v>
       </c>
       <c r="J74" s="5">
@@ -4001,33 +4065,33 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="59">
         <v>200</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="59">
         <v>0</v>
       </c>
       <c r="D75" s="5">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E75" s="37">
-        <v>0</v>
-      </c>
-      <c r="F75" s="37">
+      <c r="E75" s="60">
+        <v>0</v>
+      </c>
+      <c r="F75" s="60">
         <v>0</v>
       </c>
       <c r="G75" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H75" s="38">
-        <v>0</v>
-      </c>
-      <c r="I75" s="38">
+      <c r="H75" s="62">
+        <v>0</v>
+      </c>
+      <c r="I75" s="62">
         <v>0</v>
       </c>
       <c r="J75" s="5">
@@ -4036,33 +4100,33 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="36">
-        <v>0</v>
-      </c>
-      <c r="C76" s="36">
+      <c r="B76" s="59">
+        <v>0</v>
+      </c>
+      <c r="C76" s="59">
         <v>0</v>
       </c>
       <c r="D76" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="37">
-        <v>12516</v>
-      </c>
-      <c r="F76" s="37">
+      <c r="E76" s="60">
+        <v>7977</v>
+      </c>
+      <c r="F76" s="60">
         <v>0</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" si="4"/>
-        <v>-12516</v>
-      </c>
-      <c r="H76" s="38">
-        <v>0</v>
-      </c>
-      <c r="I76" s="38">
+        <v>-7977</v>
+      </c>
+      <c r="H76" s="62">
+        <v>0</v>
+      </c>
+      <c r="I76" s="62">
         <v>0</v>
       </c>
       <c r="J76" s="5">
@@ -4071,33 +4135,33 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="36">
-        <v>0</v>
-      </c>
-      <c r="C77" s="36">
+      <c r="B77" s="59">
+        <v>0</v>
+      </c>
+      <c r="C77" s="59">
         <v>0</v>
       </c>
       <c r="D77" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="37">
+      <c r="E77" s="60">
         <v>133</v>
       </c>
-      <c r="F77" s="37">
+      <c r="F77" s="60">
         <v>0</v>
       </c>
       <c r="G77" s="5">
         <f t="shared" si="4"/>
         <v>-133</v>
       </c>
-      <c r="H77" s="38">
-        <v>0</v>
-      </c>
-      <c r="I77" s="38">
+      <c r="H77" s="62">
+        <v>0</v>
+      </c>
+      <c r="I77" s="62">
         <v>0</v>
       </c>
       <c r="J77" s="5">
@@ -4106,33 +4170,33 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B78" s="36">
-        <v>2000</v>
-      </c>
-      <c r="C78" s="36">
+      <c r="A78" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="59">
+        <v>0</v>
+      </c>
+      <c r="C78" s="59">
         <v>0</v>
       </c>
       <c r="D78" s="5">
         <f t="shared" si="3"/>
-        <v>-2000</v>
-      </c>
-      <c r="E78" s="37">
-        <v>0</v>
-      </c>
-      <c r="F78" s="37">
+        <v>0</v>
+      </c>
+      <c r="E78" s="60">
+        <v>500</v>
+      </c>
+      <c r="F78" s="60">
         <v>0</v>
       </c>
       <c r="G78" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="38">
-        <v>0</v>
-      </c>
-      <c r="I78" s="38">
+        <v>-500</v>
+      </c>
+      <c r="H78" s="62">
+        <v>0</v>
+      </c>
+      <c r="I78" s="62">
         <v>0</v>
       </c>
       <c r="J78" s="5">
@@ -4141,33 +4205,33 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" s="36">
+      <c r="A79" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="59">
         <v>150</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C79" s="59">
         <v>0</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="3"/>
         <v>-150</v>
       </c>
-      <c r="E79" s="37">
-        <v>0</v>
-      </c>
-      <c r="F79" s="37">
+      <c r="E79" s="60">
+        <v>0</v>
+      </c>
+      <c r="F79" s="60">
         <v>0</v>
       </c>
       <c r="G79" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H79" s="38">
-        <v>0</v>
-      </c>
-      <c r="I79" s="38">
+      <c r="H79" s="62">
+        <v>0</v>
+      </c>
+      <c r="I79" s="62">
         <v>0</v>
       </c>
       <c r="J79" s="5">
@@ -4176,33 +4240,33 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="36">
-        <v>0</v>
-      </c>
-      <c r="C80" s="36">
+      <c r="B80" s="59">
+        <v>0</v>
+      </c>
+      <c r="C80" s="59">
         <v>1620</v>
       </c>
       <c r="D80" s="5">
         <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-      <c r="E80" s="37">
-        <v>0</v>
-      </c>
-      <c r="F80" s="37">
+      <c r="E80" s="60">
+        <v>0</v>
+      </c>
+      <c r="F80" s="60">
         <v>0</v>
       </c>
       <c r="G80" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H80" s="38">
-        <v>0</v>
-      </c>
-      <c r="I80" s="38">
+      <c r="H80" s="62">
+        <v>0</v>
+      </c>
+      <c r="I80" s="62">
         <v>0</v>
       </c>
       <c r="J80" s="5">
@@ -4211,33 +4275,33 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="36">
-        <v>0</v>
-      </c>
-      <c r="C81" s="36">
+      <c r="B81" s="59">
+        <v>0</v>
+      </c>
+      <c r="C81" s="59">
         <v>0</v>
       </c>
       <c r="D81" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="37">
-        <v>0</v>
-      </c>
-      <c r="F81" s="37">
+      <c r="E81" s="60">
+        <v>0</v>
+      </c>
+      <c r="F81" s="60">
         <v>100</v>
       </c>
       <c r="G81" s="5">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H81" s="38">
-        <v>0</v>
-      </c>
-      <c r="I81" s="38">
+      <c r="H81" s="62">
+        <v>0</v>
+      </c>
+      <c r="I81" s="62">
         <v>0</v>
       </c>
       <c r="J81" s="5">
@@ -4246,33 +4310,33 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="36">
-        <v>0</v>
-      </c>
-      <c r="C82" s="36">
+      <c r="B82" s="59">
+        <v>0</v>
+      </c>
+      <c r="C82" s="59">
         <v>0</v>
       </c>
       <c r="D82" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="37">
-        <v>1343</v>
-      </c>
-      <c r="F82" s="37">
-        <v>0</v>
+      <c r="E82" s="60">
+        <v>0</v>
+      </c>
+      <c r="F82" s="60">
+        <v>416</v>
       </c>
       <c r="G82" s="5">
         <f t="shared" si="4"/>
-        <v>-1343</v>
-      </c>
-      <c r="H82" s="38">
-        <v>0</v>
-      </c>
-      <c r="I82" s="38">
+        <v>416</v>
+      </c>
+      <c r="H82" s="62">
+        <v>0</v>
+      </c>
+      <c r="I82" s="62">
         <v>0</v>
       </c>
       <c r="J82" s="5">
@@ -4281,33 +4345,33 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="36">
-        <v>0</v>
-      </c>
-      <c r="C83" s="36">
+      <c r="B83" s="59">
+        <v>0</v>
+      </c>
+      <c r="C83" s="59">
         <v>0</v>
       </c>
       <c r="D83" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="37">
-        <v>1105</v>
-      </c>
-      <c r="F83" s="37">
-        <v>0</v>
+      <c r="E83" s="60">
+        <v>0</v>
+      </c>
+      <c r="F83" s="60">
+        <v>346</v>
       </c>
       <c r="G83" s="5">
         <f t="shared" si="4"/>
-        <v>-1105</v>
-      </c>
-      <c r="H83" s="38">
-        <v>0</v>
-      </c>
-      <c r="I83" s="38">
+        <v>346</v>
+      </c>
+      <c r="H83" s="62">
+        <v>0</v>
+      </c>
+      <c r="I83" s="62">
         <v>0</v>
       </c>
       <c r="J83" s="5">
@@ -4316,33 +4380,33 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B84" s="36">
-        <v>0</v>
-      </c>
-      <c r="C84" s="36">
+      <c r="A84" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="59">
+        <v>0</v>
+      </c>
+      <c r="C84" s="59">
         <v>0</v>
       </c>
       <c r="D84" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="37">
+      <c r="E84" s="60">
         <v>80</v>
       </c>
-      <c r="F84" s="37">
+      <c r="F84" s="60">
         <v>0</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" si="4"/>
         <v>-80</v>
       </c>
-      <c r="H84" s="38">
-        <v>0</v>
-      </c>
-      <c r="I84" s="38">
+      <c r="H84" s="62">
+        <v>0</v>
+      </c>
+      <c r="I84" s="62">
         <v>0</v>
       </c>
       <c r="J84" s="5">
@@ -4351,33 +4415,33 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="36">
+      <c r="B85" s="59">
         <v>95</v>
       </c>
-      <c r="C85" s="36">
+      <c r="C85" s="59">
         <v>0</v>
       </c>
       <c r="D85" s="5">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="E85" s="37">
-        <v>200</v>
-      </c>
-      <c r="F85" s="37">
+      <c r="E85" s="60">
+        <v>0</v>
+      </c>
+      <c r="F85" s="60">
         <v>0</v>
       </c>
       <c r="G85" s="5">
         <f t="shared" si="4"/>
-        <v>-200</v>
-      </c>
-      <c r="H85" s="38">
-        <v>0</v>
-      </c>
-      <c r="I85" s="38">
+        <v>0</v>
+      </c>
+      <c r="H85" s="62">
+        <v>0</v>
+      </c>
+      <c r="I85" s="62">
         <v>0</v>
       </c>
       <c r="J85" s="5">
@@ -4386,33 +4450,33 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="36">
-        <v>0</v>
-      </c>
-      <c r="C86" s="36">
+      <c r="B86" s="59">
+        <v>0</v>
+      </c>
+      <c r="C86" s="59">
         <v>0</v>
       </c>
       <c r="D86" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="37">
-        <v>0</v>
-      </c>
-      <c r="F86" s="37">
+      <c r="E86" s="60">
+        <v>0</v>
+      </c>
+      <c r="F86" s="60">
         <v>8118</v>
       </c>
       <c r="G86" s="5">
         <f t="shared" si="4"/>
         <v>8118</v>
       </c>
-      <c r="H86" s="38">
-        <v>0</v>
-      </c>
-      <c r="I86" s="38">
+      <c r="H86" s="62">
+        <v>0</v>
+      </c>
+      <c r="I86" s="62">
         <v>0</v>
       </c>
       <c r="J86" s="5">
@@ -4421,33 +4485,33 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="36">
-        <v>0</v>
-      </c>
-      <c r="C87" s="36">
+      <c r="B87" s="59">
+        <v>0</v>
+      </c>
+      <c r="C87" s="59">
         <v>0</v>
       </c>
       <c r="D87" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="37">
-        <v>0</v>
-      </c>
-      <c r="F87" s="37">
+      <c r="E87" s="60">
+        <v>0</v>
+      </c>
+      <c r="F87" s="60">
         <v>0</v>
       </c>
       <c r="G87" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H87" s="38">
-        <v>0</v>
-      </c>
-      <c r="I87" s="38">
+      <c r="H87" s="62">
+        <v>0</v>
+      </c>
+      <c r="I87" s="62">
         <v>0</v>
       </c>
       <c r="J87" s="5">
@@ -4456,33 +4520,33 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="36">
-        <v>0</v>
-      </c>
-      <c r="C88" s="36">
+      <c r="B88" s="59">
+        <v>0</v>
+      </c>
+      <c r="C88" s="59">
         <v>900</v>
       </c>
       <c r="D88" s="5">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="E88" s="37">
-        <v>0</v>
-      </c>
-      <c r="F88" s="37">
+      <c r="E88" s="60">
+        <v>0</v>
+      </c>
+      <c r="F88" s="60">
         <v>0</v>
       </c>
       <c r="G88" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H88" s="38">
-        <v>0</v>
-      </c>
-      <c r="I88" s="38">
+      <c r="H88" s="62">
+        <v>0</v>
+      </c>
+      <c r="I88" s="62">
         <v>0</v>
       </c>
       <c r="J88" s="5">
@@ -4491,33 +4555,31 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B89" s="36">
-        <v>0</v>
-      </c>
-      <c r="C89" s="36">
+      <c r="A89" s="40"/>
+      <c r="B89" s="59">
+        <v>0</v>
+      </c>
+      <c r="C89" s="59">
         <v>0</v>
       </c>
       <c r="D89" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="37">
-        <v>714</v>
-      </c>
-      <c r="F89" s="37">
+      <c r="E89" s="60">
+        <v>0</v>
+      </c>
+      <c r="F89" s="60">
         <v>0</v>
       </c>
       <c r="G89" s="5">
         <f t="shared" si="4"/>
-        <v>-714</v>
-      </c>
-      <c r="H89" s="38">
-        <v>0</v>
-      </c>
-      <c r="I89" s="38">
+        <v>0</v>
+      </c>
+      <c r="H89" s="62">
+        <v>0</v>
+      </c>
+      <c r="I89" s="62">
         <v>0</v>
       </c>
       <c r="J89" s="5">
@@ -4526,33 +4588,33 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="36">
-        <v>0</v>
-      </c>
-      <c r="C90" s="36">
+      <c r="B90" s="59">
+        <v>0</v>
+      </c>
+      <c r="C90" s="59">
         <v>0</v>
       </c>
       <c r="D90" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="37">
+      <c r="E90" s="60">
         <v>12662</v>
       </c>
-      <c r="F90" s="37">
+      <c r="F90" s="60">
         <v>0</v>
       </c>
       <c r="G90" s="5">
         <f t="shared" si="4"/>
         <v>-12662</v>
       </c>
-      <c r="H90" s="38">
-        <v>0</v>
-      </c>
-      <c r="I90" s="38">
+      <c r="H90" s="62">
+        <v>0</v>
+      </c>
+      <c r="I90" s="62">
         <v>0</v>
       </c>
       <c r="J90" s="5">
@@ -4561,31 +4623,31 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
-      <c r="B91" s="36">
-        <v>0</v>
-      </c>
-      <c r="C91" s="36">
+      <c r="A91" s="40"/>
+      <c r="B91" s="59">
+        <v>0</v>
+      </c>
+      <c r="C91" s="59">
         <v>0</v>
       </c>
       <c r="D91" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="37">
-        <v>0</v>
-      </c>
-      <c r="F91" s="37">
+      <c r="E91" s="60">
+        <v>0</v>
+      </c>
+      <c r="F91" s="60">
         <v>0</v>
       </c>
       <c r="G91" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H91" s="38">
-        <v>0</v>
-      </c>
-      <c r="I91" s="38">
+      <c r="H91" s="62">
+        <v>0</v>
+      </c>
+      <c r="I91" s="62">
         <v>0</v>
       </c>
       <c r="J91" s="5">
@@ -4594,33 +4656,33 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" s="36">
-        <v>0</v>
-      </c>
-      <c r="C92" s="36">
-        <v>175</v>
+      <c r="A92" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="59">
+        <v>0</v>
+      </c>
+      <c r="C92" s="59">
+        <v>150</v>
       </c>
       <c r="D92" s="5">
         <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="E92" s="37">
-        <v>0</v>
-      </c>
-      <c r="F92" s="37">
+        <v>150</v>
+      </c>
+      <c r="E92" s="60">
+        <v>0</v>
+      </c>
+      <c r="F92" s="60">
         <v>0</v>
       </c>
       <c r="G92" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H92" s="38">
-        <v>0</v>
-      </c>
-      <c r="I92" s="38">
+      <c r="H92" s="62">
+        <v>0</v>
+      </c>
+      <c r="I92" s="62">
         <v>0</v>
       </c>
       <c r="J92" s="5">
@@ -4629,33 +4691,33 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="36">
-        <v>0</v>
-      </c>
-      <c r="C93" s="36">
-        <v>2850</v>
+      <c r="B93" s="59">
+        <v>0</v>
+      </c>
+      <c r="C93" s="59">
+        <v>2700</v>
       </c>
       <c r="D93" s="5">
         <f t="shared" si="3"/>
-        <v>2850</v>
-      </c>
-      <c r="E93" s="37">
-        <v>0</v>
-      </c>
-      <c r="F93" s="37">
+        <v>2700</v>
+      </c>
+      <c r="E93" s="60">
+        <v>0</v>
+      </c>
+      <c r="F93" s="60">
         <v>0</v>
       </c>
       <c r="G93" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H93" s="38">
-        <v>0</v>
-      </c>
-      <c r="I93" s="38">
+      <c r="H93" s="62">
+        <v>0</v>
+      </c>
+      <c r="I93" s="62">
         <v>0</v>
       </c>
       <c r="J93" s="5">
@@ -4664,33 +4726,33 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
+      <c r="A94" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="36">
+      <c r="B94" s="59">
         <v>7</v>
       </c>
-      <c r="C94" s="36">
+      <c r="C94" s="59">
         <v>0</v>
       </c>
       <c r="D94" s="5">
         <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="E94" s="37">
-        <v>0</v>
-      </c>
-      <c r="F94" s="37">
+      <c r="E94" s="60">
+        <v>0</v>
+      </c>
+      <c r="F94" s="60">
         <v>0</v>
       </c>
       <c r="G94" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H94" s="38">
-        <v>0</v>
-      </c>
-      <c r="I94" s="38">
+      <c r="H94" s="62">
+        <v>0</v>
+      </c>
+      <c r="I94" s="62">
         <v>0</v>
       </c>
       <c r="J94" s="5">
@@ -4699,33 +4761,33 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="36">
-        <v>0</v>
-      </c>
-      <c r="C95" s="36">
+      <c r="B95" s="59">
+        <v>0</v>
+      </c>
+      <c r="C95" s="59">
         <v>0</v>
       </c>
       <c r="D95" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="37">
+      <c r="E95" s="60">
         <v>21</v>
       </c>
-      <c r="F95" s="37">
+      <c r="F95" s="60">
         <v>0</v>
       </c>
       <c r="G95" s="5">
         <f t="shared" si="4"/>
         <v>-21</v>
       </c>
-      <c r="H95" s="38">
-        <v>0</v>
-      </c>
-      <c r="I95" s="38">
+      <c r="H95" s="62">
+        <v>0</v>
+      </c>
+      <c r="I95" s="62">
         <v>0</v>
       </c>
       <c r="J95" s="5">
@@ -4734,33 +4796,33 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="36">
-        <v>0</v>
-      </c>
-      <c r="C96" s="36">
+      <c r="B96" s="59">
+        <v>0</v>
+      </c>
+      <c r="C96" s="59">
         <v>0</v>
       </c>
       <c r="D96" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="37">
+      <c r="E96" s="60">
         <v>15225</v>
       </c>
-      <c r="F96" s="37">
+      <c r="F96" s="60">
         <v>14972</v>
       </c>
       <c r="G96" s="5">
         <f t="shared" si="4"/>
         <v>-253</v>
       </c>
-      <c r="H96" s="38">
-        <v>0</v>
-      </c>
-      <c r="I96" s="38">
+      <c r="H96" s="62">
+        <v>0</v>
+      </c>
+      <c r="I96" s="62">
         <v>0</v>
       </c>
       <c r="J96" s="5">
@@ -4769,33 +4831,33 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B97" s="36">
-        <v>0</v>
-      </c>
-      <c r="C97" s="36">
+      <c r="B97" s="59">
+        <v>0</v>
+      </c>
+      <c r="C97" s="59">
         <v>0</v>
       </c>
       <c r="D97" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="37">
+      <c r="E97" s="60">
         <v>250</v>
       </c>
-      <c r="F97" s="37">
+      <c r="F97" s="60">
         <v>0</v>
       </c>
       <c r="G97" s="5">
         <f t="shared" si="4"/>
         <v>-250</v>
       </c>
-      <c r="H97" s="38">
-        <v>0</v>
-      </c>
-      <c r="I97" s="38">
+      <c r="H97" s="62">
+        <v>0</v>
+      </c>
+      <c r="I97" s="62">
         <v>0</v>
       </c>
       <c r="J97" s="5">
@@ -4804,33 +4866,31 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B98" s="36">
-        <v>0</v>
-      </c>
-      <c r="C98" s="36">
+      <c r="A98" s="40"/>
+      <c r="B98" s="59">
+        <v>0</v>
+      </c>
+      <c r="C98" s="59">
         <v>0</v>
       </c>
       <c r="D98" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="37">
-        <v>4024</v>
-      </c>
-      <c r="F98" s="37">
+      <c r="E98" s="60">
+        <v>0</v>
+      </c>
+      <c r="F98" s="60">
         <v>0</v>
       </c>
       <c r="G98" s="5">
         <f t="shared" si="4"/>
-        <v>-4024</v>
-      </c>
-      <c r="H98" s="38">
-        <v>0</v>
-      </c>
-      <c r="I98" s="38">
+        <v>0</v>
+      </c>
+      <c r="H98" s="62">
+        <v>0</v>
+      </c>
+      <c r="I98" s="62">
         <v>0</v>
       </c>
       <c r="J98" s="5">
@@ -4839,33 +4899,33 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="36">
-        <v>0</v>
-      </c>
-      <c r="C99" s="36">
+      <c r="A99" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="59">
+        <v>0</v>
+      </c>
+      <c r="C99" s="59">
         <v>0</v>
       </c>
       <c r="D99" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="37">
+      <c r="E99" s="60">
         <v>100</v>
       </c>
-      <c r="F99" s="37">
+      <c r="F99" s="60">
         <v>0</v>
       </c>
       <c r="G99" s="5">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
-      <c r="H99" s="38">
-        <v>0</v>
-      </c>
-      <c r="I99" s="38">
+      <c r="H99" s="62">
+        <v>0</v>
+      </c>
+      <c r="I99" s="62">
         <v>0</v>
       </c>
       <c r="J99" s="5">
@@ -4874,33 +4934,33 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="36">
-        <v>0</v>
-      </c>
-      <c r="C100" s="36">
+      <c r="A100" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="59">
+        <v>0</v>
+      </c>
+      <c r="C100" s="59">
         <v>0</v>
       </c>
       <c r="D100" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="37">
-        <v>0</v>
-      </c>
-      <c r="F100" s="37">
+      <c r="E100" s="60">
+        <v>0</v>
+      </c>
+      <c r="F100" s="60">
         <v>0</v>
       </c>
       <c r="G100" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H100" s="38">
-        <v>0</v>
-      </c>
-      <c r="I100" s="38">
+      <c r="H100" s="62">
+        <v>0</v>
+      </c>
+      <c r="I100" s="62">
         <v>0</v>
       </c>
       <c r="J100" s="5">
@@ -4909,68 +4969,68 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="36">
-        <v>0</v>
-      </c>
-      <c r="C101" s="36">
+      <c r="A101" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="59">
+        <v>0</v>
+      </c>
+      <c r="C101" s="59">
         <v>0</v>
       </c>
       <c r="D101" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="37">
-        <v>1731</v>
-      </c>
-      <c r="F101" s="37">
+      <c r="E101" s="60">
+        <v>886</v>
+      </c>
+      <c r="F101" s="60">
         <v>0</v>
       </c>
       <c r="G101" s="5">
         <f t="shared" si="4"/>
-        <v>-1731</v>
-      </c>
-      <c r="H101" s="38">
-        <v>1495</v>
-      </c>
-      <c r="I101" s="38">
+        <v>-886</v>
+      </c>
+      <c r="H101" s="62">
+        <v>0</v>
+      </c>
+      <c r="I101" s="62">
         <v>0</v>
       </c>
       <c r="J101" s="5">
         <f t="shared" si="5"/>
-        <v>-1495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B102" s="36">
-        <v>533</v>
-      </c>
-      <c r="C102" s="36">
+      <c r="A102" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="59">
+        <v>613</v>
+      </c>
+      <c r="C102" s="59">
         <v>0</v>
       </c>
       <c r="D102" s="5">
         <f t="shared" si="3"/>
-        <v>-533</v>
-      </c>
-      <c r="E102" s="37">
-        <v>0</v>
-      </c>
-      <c r="F102" s="37">
+        <v>-613</v>
+      </c>
+      <c r="E102" s="60">
+        <v>0</v>
+      </c>
+      <c r="F102" s="60">
         <v>0</v>
       </c>
       <c r="G102" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H102" s="38">
-        <v>0</v>
-      </c>
-      <c r="I102" s="38">
+      <c r="H102" s="62">
+        <v>0</v>
+      </c>
+      <c r="I102" s="62">
         <v>0</v>
       </c>
       <c r="J102" s="5">
@@ -4979,31 +5039,33 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
-      <c r="B103" s="36">
-        <v>0</v>
-      </c>
-      <c r="C103" s="36">
+      <c r="A103" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="59">
+        <v>0</v>
+      </c>
+      <c r="C103" s="59">
         <v>0</v>
       </c>
       <c r="D103" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E103" s="37">
-        <v>0</v>
-      </c>
-      <c r="F103" s="37">
+      <c r="E103" s="60">
+        <v>0</v>
+      </c>
+      <c r="F103" s="60">
         <v>0</v>
       </c>
       <c r="G103" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H103" s="38">
-        <v>0</v>
-      </c>
-      <c r="I103" s="38">
+      <c r="H103" s="62">
+        <v>0</v>
+      </c>
+      <c r="I103" s="62">
         <v>0</v>
       </c>
       <c r="J103" s="5">
@@ -5012,33 +5074,33 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B104" s="36">
-        <v>0</v>
-      </c>
-      <c r="C104" s="36">
+      <c r="B104" s="59">
+        <v>0</v>
+      </c>
+      <c r="C104" s="59">
         <v>0</v>
       </c>
       <c r="D104" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E104" s="37">
-        <v>5000</v>
-      </c>
-      <c r="F104" s="37">
-        <v>2405</v>
+      <c r="E104" s="60">
+        <v>7610</v>
+      </c>
+      <c r="F104" s="60">
+        <v>0</v>
       </c>
       <c r="G104" s="5">
         <f t="shared" si="4"/>
-        <v>-2595</v>
-      </c>
-      <c r="H104" s="38">
-        <v>0</v>
-      </c>
-      <c r="I104" s="38">
+        <v>-7610</v>
+      </c>
+      <c r="H104" s="62">
+        <v>0</v>
+      </c>
+      <c r="I104" s="62">
         <v>0</v>
       </c>
       <c r="J104" s="5">
@@ -5047,33 +5109,33 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="36">
-        <v>0</v>
-      </c>
-      <c r="C105" s="36">
+      <c r="B105" s="59">
+        <v>0</v>
+      </c>
+      <c r="C105" s="59">
         <v>0</v>
       </c>
       <c r="D105" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E105" s="37">
-        <v>0</v>
-      </c>
-      <c r="F105" s="37">
-        <v>12107</v>
+      <c r="E105" s="60">
+        <v>0</v>
+      </c>
+      <c r="F105" s="60">
+        <v>20820</v>
       </c>
       <c r="G105" s="5">
         <f t="shared" si="4"/>
-        <v>12107</v>
-      </c>
-      <c r="H105" s="38">
-        <v>0</v>
-      </c>
-      <c r="I105" s="38">
+        <v>20820</v>
+      </c>
+      <c r="H105" s="62">
+        <v>0</v>
+      </c>
+      <c r="I105" s="62">
         <v>0</v>
       </c>
       <c r="J105" s="5">
@@ -5082,33 +5144,33 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B106" s="36">
-        <v>0</v>
-      </c>
-      <c r="C106" s="36">
+      <c r="B106" s="59">
+        <v>0</v>
+      </c>
+      <c r="C106" s="59">
         <v>245</v>
       </c>
       <c r="D106" s="5">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-      <c r="E106" s="37">
+      <c r="E106" s="60">
         <v>300</v>
       </c>
-      <c r="F106" s="37">
+      <c r="F106" s="60">
         <v>0</v>
       </c>
       <c r="G106" s="5">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H106" s="38">
-        <v>0</v>
-      </c>
-      <c r="I106" s="38">
+      <c r="H106" s="62">
+        <v>0</v>
+      </c>
+      <c r="I106" s="62">
         <v>0</v>
       </c>
       <c r="J106" s="5">
@@ -5117,33 +5179,33 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="36">
-        <v>0</v>
-      </c>
-      <c r="C107" s="36">
+      <c r="A107" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="59">
+        <v>0</v>
+      </c>
+      <c r="C107" s="59">
         <v>0</v>
       </c>
       <c r="D107" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E107" s="37">
+      <c r="E107" s="60">
         <v>670</v>
       </c>
-      <c r="F107" s="37">
+      <c r="F107" s="60">
         <v>0</v>
       </c>
       <c r="G107" s="5">
         <f t="shared" si="4"/>
         <v>-670</v>
       </c>
-      <c r="H107" s="38">
+      <c r="H107" s="62">
         <v>15</v>
       </c>
-      <c r="I107" s="38">
+      <c r="I107" s="62">
         <v>0</v>
       </c>
       <c r="J107" s="5">
@@ -5152,33 +5214,33 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" s="36">
-        <v>0</v>
-      </c>
-      <c r="C108" s="36">
+      <c r="A108" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="59">
+        <v>0</v>
+      </c>
+      <c r="C108" s="59">
         <v>0</v>
       </c>
       <c r="D108" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E108" s="37">
+      <c r="E108" s="60">
         <v>300</v>
       </c>
-      <c r="F108" s="37">
+      <c r="F108" s="60">
         <v>0</v>
       </c>
       <c r="G108" s="5">
         <f t="shared" si="4"/>
         <v>-300</v>
       </c>
-      <c r="H108" s="38">
-        <v>0</v>
-      </c>
-      <c r="I108" s="38">
+      <c r="H108" s="62">
+        <v>0</v>
+      </c>
+      <c r="I108" s="62">
         <v>0</v>
       </c>
       <c r="J108" s="5">
@@ -5187,33 +5249,33 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B109" s="36">
-        <v>0</v>
-      </c>
-      <c r="C109" s="36">
+      <c r="A109" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="59">
+        <v>0</v>
+      </c>
+      <c r="C109" s="59">
         <v>0</v>
       </c>
       <c r="D109" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E109" s="37">
-        <v>0</v>
-      </c>
-      <c r="F109" s="37">
-        <v>43018</v>
+      <c r="E109" s="60">
+        <v>0</v>
+      </c>
+      <c r="F109" s="60">
+        <v>31739</v>
       </c>
       <c r="G109" s="5">
         <f t="shared" si="4"/>
-        <v>43018</v>
-      </c>
-      <c r="H109" s="38">
-        <v>0</v>
-      </c>
-      <c r="I109" s="38">
+        <v>31739</v>
+      </c>
+      <c r="H109" s="62">
+        <v>0</v>
+      </c>
+      <c r="I109" s="62">
         <v>0</v>
       </c>
       <c r="J109" s="5">
@@ -5222,33 +5284,33 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="41" t="s">
+      <c r="A110" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="36">
-        <v>0</v>
-      </c>
-      <c r="C110" s="36">
+      <c r="B110" s="59">
+        <v>0</v>
+      </c>
+      <c r="C110" s="59">
         <v>0</v>
       </c>
       <c r="D110" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E110" s="37">
+      <c r="E110" s="60">
         <v>10</v>
       </c>
-      <c r="F110" s="37">
+      <c r="F110" s="60">
         <v>0</v>
       </c>
       <c r="G110" s="5">
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-      <c r="H110" s="38">
-        <v>0</v>
-      </c>
-      <c r="I110" s="38">
+      <c r="H110" s="62">
+        <v>0</v>
+      </c>
+      <c r="I110" s="62">
         <v>0</v>
       </c>
       <c r="J110" s="5">
@@ -5257,33 +5319,33 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B111" s="36">
+      <c r="A111" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="59">
         <v>70</v>
       </c>
-      <c r="C111" s="36">
+      <c r="C111" s="59">
         <v>80</v>
       </c>
       <c r="D111" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="E111" s="37">
+      <c r="E111" s="60">
         <v>100</v>
       </c>
-      <c r="F111" s="37">
+      <c r="F111" s="60">
         <v>0</v>
       </c>
       <c r="G111" s="5">
         <f t="shared" si="4"/>
         <v>-100</v>
       </c>
-      <c r="H111" s="38">
-        <v>0</v>
-      </c>
-      <c r="I111" s="38">
+      <c r="H111" s="62">
+        <v>0</v>
+      </c>
+      <c r="I111" s="62">
         <v>0</v>
       </c>
       <c r="J111" s="5">
@@ -5292,33 +5354,31 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B112" s="36">
-        <v>0</v>
-      </c>
-      <c r="C112" s="36">
-        <v>51</v>
+      <c r="A112" s="40"/>
+      <c r="B112" s="59">
+        <v>0</v>
+      </c>
+      <c r="C112" s="59">
+        <v>0</v>
       </c>
       <c r="D112" s="5">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="E112" s="37">
-        <v>0</v>
-      </c>
-      <c r="F112" s="37">
+        <v>0</v>
+      </c>
+      <c r="E112" s="60">
+        <v>0</v>
+      </c>
+      <c r="F112" s="60">
         <v>0</v>
       </c>
       <c r="G112" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H112" s="38">
-        <v>0</v>
-      </c>
-      <c r="I112" s="38">
+      <c r="H112" s="62">
+        <v>0</v>
+      </c>
+      <c r="I112" s="62">
         <v>0</v>
       </c>
       <c r="J112" s="5">
@@ -5327,33 +5387,33 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B113" s="36">
-        <v>0</v>
-      </c>
-      <c r="C113" s="36">
+      <c r="A113" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="59">
+        <v>100</v>
+      </c>
+      <c r="C113" s="59">
         <v>0</v>
       </c>
       <c r="D113" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E113" s="37">
+        <v>-100</v>
+      </c>
+      <c r="E113" s="60">
         <v>77</v>
       </c>
-      <c r="F113" s="37">
+      <c r="F113" s="60">
         <v>0</v>
       </c>
       <c r="G113" s="5">
         <f t="shared" si="4"/>
         <v>-77</v>
       </c>
-      <c r="H113" s="38">
-        <v>0</v>
-      </c>
-      <c r="I113" s="38">
+      <c r="H113" s="62">
+        <v>0</v>
+      </c>
+      <c r="I113" s="62">
         <v>0</v>
       </c>
       <c r="J113" s="5">
@@ -5362,33 +5422,33 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B114" s="36">
-        <v>0</v>
-      </c>
-      <c r="C114" s="36">
+      <c r="A114" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="59">
+        <v>0</v>
+      </c>
+      <c r="C114" s="59">
         <v>0</v>
       </c>
       <c r="D114" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E114" s="37">
-        <v>23498</v>
-      </c>
-      <c r="F114" s="37">
+      <c r="E114" s="60">
+        <v>41257</v>
+      </c>
+      <c r="F114" s="60">
         <v>0</v>
       </c>
       <c r="G114" s="5">
         <f t="shared" si="4"/>
-        <v>-23498</v>
-      </c>
-      <c r="H114" s="38">
-        <v>0</v>
-      </c>
-      <c r="I114" s="38">
+        <v>-41257</v>
+      </c>
+      <c r="H114" s="62">
+        <v>0</v>
+      </c>
+      <c r="I114" s="62">
         <v>0</v>
       </c>
       <c r="J114" s="5">
@@ -5397,33 +5457,33 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B115" s="36">
+      <c r="A115" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" s="59">
         <v>800</v>
       </c>
-      <c r="C115" s="36">
+      <c r="C115" s="59">
         <v>0</v>
       </c>
       <c r="D115" s="5">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E115" s="37">
-        <v>0</v>
-      </c>
-      <c r="F115" s="37">
+      <c r="E115" s="60">
+        <v>0</v>
+      </c>
+      <c r="F115" s="60">
         <v>0</v>
       </c>
       <c r="G115" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H115" s="38">
-        <v>0</v>
-      </c>
-      <c r="I115" s="38">
+      <c r="H115" s="62">
+        <v>0</v>
+      </c>
+      <c r="I115" s="62">
         <v>0</v>
       </c>
       <c r="J115" s="5">
@@ -5432,33 +5492,33 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B116" s="36">
-        <v>0</v>
-      </c>
-      <c r="C116" s="36">
+      <c r="B116" s="59">
+        <v>0</v>
+      </c>
+      <c r="C116" s="59">
         <v>0</v>
       </c>
       <c r="D116" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E116" s="37">
-        <v>0</v>
-      </c>
-      <c r="F116" s="37">
-        <v>815</v>
+      <c r="E116" s="60">
+        <v>0</v>
+      </c>
+      <c r="F116" s="60">
+        <v>1519</v>
       </c>
       <c r="G116" s="5">
         <f t="shared" si="4"/>
-        <v>815</v>
-      </c>
-      <c r="H116" s="38">
-        <v>0</v>
-      </c>
-      <c r="I116" s="38">
+        <v>1519</v>
+      </c>
+      <c r="H116" s="62">
+        <v>0</v>
+      </c>
+      <c r="I116" s="62">
         <v>0</v>
       </c>
       <c r="J116" s="5">
@@ -5467,33 +5527,33 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B117" s="36">
-        <v>0</v>
-      </c>
-      <c r="C117" s="36">
+      <c r="A117" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="59">
+        <v>0</v>
+      </c>
+      <c r="C117" s="59">
         <v>0</v>
       </c>
       <c r="D117" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E117" s="37">
-        <v>0</v>
-      </c>
-      <c r="F117" s="37">
+      <c r="E117" s="60">
+        <v>0</v>
+      </c>
+      <c r="F117" s="60">
         <v>200</v>
       </c>
       <c r="G117" s="5">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="H117" s="38">
-        <v>0</v>
-      </c>
-      <c r="I117" s="38">
+      <c r="H117" s="62">
+        <v>0</v>
+      </c>
+      <c r="I117" s="62">
         <v>0</v>
       </c>
       <c r="J117" s="5">
@@ -5502,33 +5562,33 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B118" s="36">
-        <v>0</v>
-      </c>
-      <c r="C118" s="36">
+      <c r="A118" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B118" s="59">
+        <v>0</v>
+      </c>
+      <c r="C118" s="59">
         <v>23800</v>
       </c>
       <c r="D118" s="5">
         <f t="shared" si="3"/>
         <v>23800</v>
       </c>
-      <c r="E118" s="37">
+      <c r="E118" s="60">
         <v>7682</v>
       </c>
-      <c r="F118" s="37">
+      <c r="F118" s="60">
         <v>0</v>
       </c>
       <c r="G118" s="5">
         <f t="shared" si="4"/>
         <v>-7682</v>
       </c>
-      <c r="H118" s="38">
-        <v>0</v>
-      </c>
-      <c r="I118" s="38">
+      <c r="H118" s="62">
+        <v>0</v>
+      </c>
+      <c r="I118" s="62">
         <v>0</v>
       </c>
       <c r="J118" s="5">
@@ -5537,33 +5597,33 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B119" s="36">
-        <v>29759</v>
-      </c>
-      <c r="C119" s="36">
-        <v>1150</v>
+      <c r="A119" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="59">
+        <v>31585</v>
+      </c>
+      <c r="C119" s="59">
+        <v>1250</v>
       </c>
       <c r="D119" s="5">
         <f t="shared" si="3"/>
-        <v>-28609</v>
-      </c>
-      <c r="E119" s="37">
-        <v>6770</v>
-      </c>
-      <c r="F119" s="37">
-        <v>5118</v>
+        <v>-30335</v>
+      </c>
+      <c r="E119" s="60">
+        <v>7270</v>
+      </c>
+      <c r="F119" s="60">
+        <v>7312</v>
       </c>
       <c r="G119" s="5">
         <f t="shared" si="4"/>
-        <v>-1652</v>
-      </c>
-      <c r="H119" s="38">
-        <v>0</v>
-      </c>
-      <c r="I119" s="38">
+        <v>42</v>
+      </c>
+      <c r="H119" s="62">
+        <v>0</v>
+      </c>
+      <c r="I119" s="62">
         <v>0</v>
       </c>
       <c r="J119" s="5">
@@ -5572,33 +5632,33 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B120" s="36">
+      <c r="A120" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" s="59">
         <v>200</v>
       </c>
-      <c r="C120" s="36">
+      <c r="C120" s="59">
         <v>0</v>
       </c>
       <c r="D120" s="5">
         <f t="shared" si="3"/>
         <v>-200</v>
       </c>
-      <c r="E120" s="37">
+      <c r="E120" s="60">
         <v>121</v>
       </c>
-      <c r="F120" s="37">
+      <c r="F120" s="60">
         <v>0</v>
       </c>
       <c r="G120" s="5">
         <f t="shared" si="4"/>
         <v>-121</v>
       </c>
-      <c r="H120" s="38">
-        <v>0</v>
-      </c>
-      <c r="I120" s="38">
+      <c r="H120" s="62">
+        <v>0</v>
+      </c>
+      <c r="I120" s="62">
         <v>0</v>
       </c>
       <c r="J120" s="5">
@@ -5607,33 +5667,33 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B121" s="36">
-        <v>0</v>
-      </c>
-      <c r="C121" s="36">
+      <c r="A121" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" s="59">
+        <v>0</v>
+      </c>
+      <c r="C121" s="59">
         <v>0</v>
       </c>
       <c r="D121" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E121" s="37">
+      <c r="E121" s="60">
         <v>15000</v>
       </c>
-      <c r="F121" s="37">
+      <c r="F121" s="60">
         <v>0</v>
       </c>
       <c r="G121" s="5">
         <f t="shared" si="4"/>
         <v>-15000</v>
       </c>
-      <c r="H121" s="38">
-        <v>0</v>
-      </c>
-      <c r="I121" s="38">
+      <c r="H121" s="62">
+        <v>0</v>
+      </c>
+      <c r="I121" s="62">
         <v>0</v>
       </c>
       <c r="J121" s="5">
@@ -5642,33 +5702,33 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B122" s="36">
-        <v>0</v>
-      </c>
-      <c r="C122" s="36">
+      <c r="A122" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="59">
+        <v>0</v>
+      </c>
+      <c r="C122" s="59">
         <v>0</v>
       </c>
       <c r="D122" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E122" s="37">
-        <v>0</v>
-      </c>
-      <c r="F122" s="37">
-        <v>700</v>
+      <c r="E122" s="60">
+        <v>0</v>
+      </c>
+      <c r="F122" s="60">
+        <v>100</v>
       </c>
       <c r="G122" s="5">
         <f t="shared" si="4"/>
-        <v>700</v>
-      </c>
-      <c r="H122" s="38">
-        <v>0</v>
-      </c>
-      <c r="I122" s="38">
+        <v>100</v>
+      </c>
+      <c r="H122" s="62">
+        <v>0</v>
+      </c>
+      <c r="I122" s="62">
         <v>0</v>
       </c>
       <c r="J122" s="5">
@@ -5677,31 +5737,33 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="36">
-        <v>0</v>
-      </c>
-      <c r="C123" s="36">
+      <c r="A123" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="59">
+        <v>0</v>
+      </c>
+      <c r="C123" s="59">
         <v>0</v>
       </c>
       <c r="D123" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E123" s="37">
-        <v>0</v>
-      </c>
-      <c r="F123" s="37">
+      <c r="E123" s="60">
+        <v>0</v>
+      </c>
+      <c r="F123" s="60">
         <v>0</v>
       </c>
       <c r="G123" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H123" s="38">
-        <v>0</v>
-      </c>
-      <c r="I123" s="38">
+      <c r="H123" s="62">
+        <v>0</v>
+      </c>
+      <c r="I123" s="62">
         <v>0</v>
       </c>
       <c r="J123" s="5">
@@ -5710,33 +5772,33 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B124" s="36">
-        <v>0</v>
-      </c>
-      <c r="C124" s="36">
+      <c r="A124" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="59">
+        <v>0</v>
+      </c>
+      <c r="C124" s="59">
         <v>0</v>
       </c>
       <c r="D124" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E124" s="37">
-        <v>200</v>
-      </c>
-      <c r="F124" s="37">
+      <c r="E124" s="60">
+        <v>0</v>
+      </c>
+      <c r="F124" s="60">
         <v>0</v>
       </c>
       <c r="G124" s="5">
         <f t="shared" si="4"/>
-        <v>-200</v>
-      </c>
-      <c r="H124" s="38">
-        <v>0</v>
-      </c>
-      <c r="I124" s="38">
+        <v>0</v>
+      </c>
+      <c r="H124" s="62">
+        <v>0</v>
+      </c>
+      <c r="I124" s="62">
         <v>0</v>
       </c>
       <c r="J124" s="5">
@@ -5745,33 +5807,33 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B125" s="36">
-        <v>600</v>
-      </c>
-      <c r="C125" s="36">
+      <c r="A125" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="59">
+        <v>400</v>
+      </c>
+      <c r="C125" s="59">
         <v>0</v>
       </c>
       <c r="D125" s="5">
         <f t="shared" si="3"/>
-        <v>-600</v>
-      </c>
-      <c r="E125" s="37">
-        <v>0</v>
-      </c>
-      <c r="F125" s="37">
+        <v>-400</v>
+      </c>
+      <c r="E125" s="60">
+        <v>0</v>
+      </c>
+      <c r="F125" s="60">
         <v>0</v>
       </c>
       <c r="G125" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H125" s="38">
-        <v>0</v>
-      </c>
-      <c r="I125" s="38">
+      <c r="H125" s="62">
+        <v>0</v>
+      </c>
+      <c r="I125" s="62">
         <v>0</v>
       </c>
       <c r="J125" s="5">
@@ -5780,33 +5842,33 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" s="36">
-        <v>0</v>
-      </c>
-      <c r="C126" s="36">
+      <c r="A126" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" s="59">
+        <v>0</v>
+      </c>
+      <c r="C126" s="59">
         <v>0</v>
       </c>
       <c r="D126" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E126" s="37">
+      <c r="E126" s="60">
         <v>108</v>
       </c>
-      <c r="F126" s="37">
+      <c r="F126" s="60">
         <v>0</v>
       </c>
       <c r="G126" s="5">
         <f t="shared" si="4"/>
         <v>-108</v>
       </c>
-      <c r="H126" s="38">
-        <v>0</v>
-      </c>
-      <c r="I126" s="38">
+      <c r="H126" s="62">
+        <v>0</v>
+      </c>
+      <c r="I126" s="62">
         <v>0</v>
       </c>
       <c r="J126" s="5">
@@ -5815,33 +5877,33 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" s="36">
-        <v>0</v>
-      </c>
-      <c r="C127" s="36">
+      <c r="A127" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" s="59">
+        <v>0</v>
+      </c>
+      <c r="C127" s="59">
         <v>0</v>
       </c>
       <c r="D127" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E127" s="37">
-        <v>0</v>
-      </c>
-      <c r="F127" s="37">
-        <v>7943</v>
+      <c r="E127" s="60">
+        <v>50</v>
+      </c>
+      <c r="F127" s="60">
+        <v>0</v>
       </c>
       <c r="G127" s="5">
         <f t="shared" si="4"/>
-        <v>7943</v>
-      </c>
-      <c r="H127" s="38">
-        <v>0</v>
-      </c>
-      <c r="I127" s="38">
+        <v>-50</v>
+      </c>
+      <c r="H127" s="62">
+        <v>0</v>
+      </c>
+      <c r="I127" s="62">
         <v>0</v>
       </c>
       <c r="J127" s="5">
@@ -5850,33 +5912,33 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" s="36">
+      <c r="A128" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="59">
         <v>800</v>
       </c>
-      <c r="C128" s="36">
+      <c r="C128" s="59">
         <v>0</v>
       </c>
       <c r="D128" s="5">
         <f t="shared" si="3"/>
         <v>-800</v>
       </c>
-      <c r="E128" s="37">
-        <v>500</v>
-      </c>
-      <c r="F128" s="37">
+      <c r="E128" s="60">
+        <v>0</v>
+      </c>
+      <c r="F128" s="60">
         <v>0</v>
       </c>
       <c r="G128" s="5">
         <f t="shared" si="4"/>
-        <v>-500</v>
-      </c>
-      <c r="H128" s="38">
-        <v>0</v>
-      </c>
-      <c r="I128" s="38">
+        <v>0</v>
+      </c>
+      <c r="H128" s="62">
+        <v>0</v>
+      </c>
+      <c r="I128" s="62">
         <v>0</v>
       </c>
       <c r="J128" s="5">
@@ -5885,33 +5947,33 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B129" s="36">
-        <v>0</v>
-      </c>
-      <c r="C129" s="36">
+      <c r="A129" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="59">
+        <v>0</v>
+      </c>
+      <c r="C129" s="59">
         <v>0</v>
       </c>
       <c r="D129" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E129" s="37">
-        <v>0</v>
-      </c>
-      <c r="F129" s="37">
-        <v>8500</v>
+      <c r="E129" s="60">
+        <v>0</v>
+      </c>
+      <c r="F129" s="60">
+        <v>8000</v>
       </c>
       <c r="G129" s="5">
         <f t="shared" si="4"/>
-        <v>8500</v>
-      </c>
-      <c r="H129" s="38">
-        <v>0</v>
-      </c>
-      <c r="I129" s="38">
+        <v>8000</v>
+      </c>
+      <c r="H129" s="62">
+        <v>0</v>
+      </c>
+      <c r="I129" s="62">
         <v>0</v>
       </c>
       <c r="J129" s="5">
@@ -5920,33 +5982,33 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" s="36">
-        <v>0</v>
-      </c>
-      <c r="C130" s="36">
+      <c r="A130" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" s="59">
+        <v>0</v>
+      </c>
+      <c r="C130" s="59">
         <v>0</v>
       </c>
       <c r="D130" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E130" s="37">
+      <c r="E130" s="60">
         <v>1000</v>
       </c>
-      <c r="F130" s="37">
+      <c r="F130" s="60">
         <v>3</v>
       </c>
       <c r="G130" s="5">
         <f t="shared" si="4"/>
         <v>-997</v>
       </c>
-      <c r="H130" s="38">
-        <v>0</v>
-      </c>
-      <c r="I130" s="38">
+      <c r="H130" s="62">
+        <v>0</v>
+      </c>
+      <c r="I130" s="62">
         <v>0</v>
       </c>
       <c r="J130" s="5">
@@ -5955,33 +6017,33 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" s="36">
-        <v>0</v>
-      </c>
-      <c r="C131" s="36">
+      <c r="A131" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="59">
+        <v>300</v>
+      </c>
+      <c r="C131" s="59">
         <v>0</v>
       </c>
       <c r="D131" s="5">
         <f t="shared" ref="D131:D152" si="6">C131-B131</f>
-        <v>0</v>
-      </c>
-      <c r="E131" s="37">
-        <v>1174</v>
-      </c>
-      <c r="F131" s="37">
+        <v>-300</v>
+      </c>
+      <c r="E131" s="60">
+        <v>1474</v>
+      </c>
+      <c r="F131" s="60">
         <v>0</v>
       </c>
       <c r="G131" s="5">
         <f t="shared" ref="G131:G152" si="7">F131-E131</f>
-        <v>-1174</v>
-      </c>
-      <c r="H131" s="38">
-        <v>0</v>
-      </c>
-      <c r="I131" s="38">
+        <v>-1474</v>
+      </c>
+      <c r="H131" s="62">
+        <v>0</v>
+      </c>
+      <c r="I131" s="62">
         <v>0</v>
       </c>
       <c r="J131" s="5">
@@ -5990,33 +6052,33 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" s="36">
+      <c r="A132" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="59">
         <v>150</v>
       </c>
-      <c r="C132" s="36">
+      <c r="C132" s="59">
         <v>0</v>
       </c>
       <c r="D132" s="5">
         <f t="shared" si="6"/>
         <v>-150</v>
       </c>
-      <c r="E132" s="37">
-        <v>0</v>
-      </c>
-      <c r="F132" s="37">
+      <c r="E132" s="60">
+        <v>0</v>
+      </c>
+      <c r="F132" s="60">
         <v>0</v>
       </c>
       <c r="G132" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H132" s="38">
-        <v>0</v>
-      </c>
-      <c r="I132" s="38">
+      <c r="H132" s="62">
+        <v>0</v>
+      </c>
+      <c r="I132" s="62">
         <v>0</v>
       </c>
       <c r="J132" s="5">
@@ -6025,33 +6087,33 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133" s="36">
-        <v>0</v>
-      </c>
-      <c r="C133" s="36">
+      <c r="A133" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" s="59">
+        <v>0</v>
+      </c>
+      <c r="C133" s="59">
         <v>0</v>
       </c>
       <c r="D133" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E133" s="37">
+      <c r="E133" s="60">
         <v>78</v>
       </c>
-      <c r="F133" s="37">
+      <c r="F133" s="60">
         <v>0</v>
       </c>
       <c r="G133" s="5">
         <f t="shared" si="7"/>
         <v>-78</v>
       </c>
-      <c r="H133" s="38">
-        <v>0</v>
-      </c>
-      <c r="I133" s="38">
+      <c r="H133" s="62">
+        <v>0</v>
+      </c>
+      <c r="I133" s="62">
         <v>0</v>
       </c>
       <c r="J133" s="5">
@@ -6060,112 +6122,84 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B134" s="36">
-        <v>50</v>
-      </c>
-      <c r="C134" s="36">
+      <c r="A134" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" s="59">
+        <v>25</v>
+      </c>
+      <c r="C134" s="59">
         <v>0</v>
       </c>
       <c r="D134" s="5">
         <f t="shared" si="6"/>
-        <v>-50</v>
-      </c>
-      <c r="E134" s="37">
-        <v>0</v>
-      </c>
-      <c r="F134" s="37">
+        <v>-25</v>
+      </c>
+      <c r="E134" s="60">
+        <v>0</v>
+      </c>
+      <c r="F134" s="60">
         <v>0</v>
       </c>
       <c r="G134" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H134" s="38">
-        <v>0</v>
-      </c>
-      <c r="I134" s="38">
+      <c r="H134" s="62">
+        <v>100</v>
+      </c>
+      <c r="I134" s="62">
         <v>0</v>
       </c>
       <c r="J134" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" s="36">
-        <v>0</v>
-      </c>
-      <c r="C135" s="36">
-        <v>0</v>
-      </c>
+      <c r="A135" s="37"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
       <c r="D135" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E135" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F135" s="37">
-        <v>999</v>
-      </c>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
       <c r="G135" s="5">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="H135" s="38">
-        <v>0</v>
-      </c>
-      <c r="I135" s="38">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
       <c r="J135" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B136" s="36">
-        <v>0</v>
-      </c>
-      <c r="C136" s="36">
-        <v>0</v>
-      </c>
+      <c r="A136" s="37"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
       <c r="D136" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E136" s="37">
-        <v>0</v>
-      </c>
-      <c r="F136" s="37">
-        <v>1000</v>
-      </c>
+      <c r="E136" s="35"/>
+      <c r="F136" s="35"/>
       <c r="G136" s="5">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="H136" s="38">
-        <v>0</v>
-      </c>
-      <c r="I136" s="38">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
       <c r="J136" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
+      <c r="A137" s="37"/>
       <c r="B137" s="29"/>
       <c r="C137" s="12"/>
       <c r="D137" s="5">
@@ -6186,7 +6220,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="33"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="29"/>
       <c r="C138" s="12"/>
       <c r="D138" s="5">
@@ -6207,7 +6241,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="34"/>
+      <c r="A139" s="32"/>
       <c r="B139" s="29"/>
       <c r="C139" s="12"/>
       <c r="D139" s="5">
@@ -6502,7 +6536,7 @@
       <c r="K152" s="2"/>
     </row>
     <row r="153" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="35"/>
+      <c r="A153" s="33"/>
       <c r="B153" s="29"/>
       <c r="C153" s="12"/>
       <c r="E153" s="12"/>
@@ -6570,13 +6604,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.25" style="19" customWidth="1"/>
+    <col min="1" max="1" width="34.625" style="19" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="14" customWidth="1"/>
     <col min="3" max="3" width="11" style="14" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="14" customWidth="1"/>
@@ -6610,24 +6644,24 @@
     </row>
     <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B4" s="14">
         <v>0</v>
       </c>
       <c r="C4" s="14">
-        <v>105450</v>
+        <v>150004</v>
       </c>
       <c r="D4" s="14">
-        <v>1608</v>
+        <v>-18522</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="14">
-        <v>-2500</v>
+        <v>-40</v>
       </c>
       <c r="C5" s="14">
         <v>0</v>
@@ -6637,7 +6671,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="14">
@@ -6651,39 +6685,39 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="72" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="14">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C7" s="14">
-        <v>-14895</v>
+        <v>-11900</v>
       </c>
       <c r="D7" s="14">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="14">
         <v>0</v>
       </c>
       <c r="C8" s="14">
-        <v>-352</v>
+        <v>-875</v>
       </c>
       <c r="D8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>126</v>
+      <c r="A9" s="61" t="s">
+        <v>123</v>
       </c>
       <c r="B9" s="14">
-        <v>-250</v>
+        <v>-50</v>
       </c>
       <c r="C9" s="14">
         <v>0</v>
@@ -6693,7 +6727,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="14">
@@ -6707,7 +6741,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="14">
@@ -6721,21 +6755,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="61" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="14">
         <v>0</v>
       </c>
       <c r="C12" s="14">
-        <v>0</v>
+        <v>1499</v>
       </c>
       <c r="D12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="14">
@@ -6749,21 +6783,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="14">
         <v>0</v>
       </c>
       <c r="C14" s="14">
-        <v>-639</v>
+        <v>15361</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="14">
@@ -6777,21 +6811,21 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="67" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
       </c>
       <c r="C16" s="14">
-        <v>-1345</v>
+        <v>-1374</v>
       </c>
       <c r="D16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="14">
@@ -6805,7 +6839,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="14">
@@ -6819,21 +6853,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="14">
-        <v>-1410</v>
+        <v>-1520</v>
       </c>
       <c r="C19" s="14">
-        <v>-503</v>
+        <v>0</v>
       </c>
       <c r="D19" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="61" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="14">
@@ -6847,21 +6881,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="14">
-        <v>-1305</v>
+        <v>-270</v>
       </c>
       <c r="C21" s="14">
-        <v>5473</v>
+        <v>9448</v>
       </c>
       <c r="D21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="14">
@@ -6875,7 +6909,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="74" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="14">
@@ -6889,7 +6923,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="14">
@@ -6903,7 +6937,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="80" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="14">
@@ -6917,7 +6951,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="14">
@@ -6931,7 +6965,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="73" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="14">
@@ -6945,7 +6979,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="69" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="14">
@@ -6959,7 +6993,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="61" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="14">
@@ -6973,8 +7007,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>101</v>
+      <c r="A30" s="65" t="s">
+        <v>100</v>
       </c>
       <c r="B30" s="14">
         <v>-300</v>
@@ -6987,7 +7021,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="14">
@@ -7001,7 +7035,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="14">
@@ -7015,21 +7049,21 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="73" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="14">
         <v>0</v>
       </c>
       <c r="C33" s="14">
-        <v>-550</v>
+        <v>-500</v>
       </c>
       <c r="D33" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="61" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="14">
@@ -7043,7 +7077,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="61" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="14">
@@ -7057,7 +7091,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="66" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="14">
@@ -7071,7 +7105,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="67" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="14">
@@ -7085,11 +7119,11 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
-        <v>139</v>
+      <c r="A38" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="B38" s="14">
-        <v>2805</v>
+        <v>2705</v>
       </c>
       <c r="C38" s="14">
         <v>-207</v>
@@ -7099,21 +7133,21 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>118</v>
+      <c r="A39" s="61" t="s">
+        <v>115</v>
       </c>
       <c r="B39" s="14">
-        <v>3405</v>
+        <v>505</v>
       </c>
       <c r="C39" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D39" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="76" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="14">
@@ -7127,21 +7161,21 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>132</v>
+      <c r="A41" s="61" t="s">
+        <v>128</v>
       </c>
       <c r="B41" s="14">
         <v>0</v>
       </c>
       <c r="C41" s="14">
-        <v>-770</v>
+        <v>-145</v>
       </c>
       <c r="D41" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="70" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="14">
@@ -7155,22 +7189,22 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="77" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="14">
         <v>0</v>
       </c>
       <c r="C43" s="14">
-        <v>-2749</v>
+        <v>-10860</v>
       </c>
       <c r="D43" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
-        <v>140</v>
+      <c r="A44" s="78" t="s">
+        <v>135</v>
       </c>
       <c r="B44" s="14">
         <v>0</v>
@@ -7183,7 +7217,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="68" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="14">
@@ -7197,7 +7231,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="68" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="14">
@@ -7211,8 +7245,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>117</v>
+      <c r="A47" s="61" t="s">
+        <v>114</v>
       </c>
       <c r="B47" s="14">
         <v>-95</v>
@@ -7225,7 +7259,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="63" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="14">
@@ -7239,7 +7273,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="61" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="14">
@@ -7253,7 +7287,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="64" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="14">
@@ -7267,7 +7301,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="61" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="14">
@@ -7281,8 +7315,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
-        <v>124</v>
+      <c r="A52" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="B52" s="14">
         <v>0</v>
@@ -7295,7 +7329,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="66" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="14">
@@ -7309,7 +7343,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="75" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="14">
@@ -7323,35 +7357,35 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="61" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="14">
         <v>0</v>
       </c>
       <c r="C55" s="14">
-        <v>-9829</v>
+        <v>-15846</v>
       </c>
       <c r="D55" s="14">
-        <v>10110</v>
+        <v>34215</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>116</v>
+      <c r="A56" s="61" t="s">
+        <v>142</v>
       </c>
       <c r="B56" s="14">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C56" s="14">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D56" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="61" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="14">
@@ -7365,8 +7399,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
-        <v>141</v>
+      <c r="A58" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="B58" s="14">
         <v>0</v>
@@ -7379,7 +7413,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="64" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="14">
@@ -7393,8 +7427,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="41" t="s">
-        <v>111</v>
+      <c r="A60" s="64" t="s">
+        <v>110</v>
       </c>
       <c r="B60" s="14">
         <v>-625</v>
@@ -7407,21 +7441,21 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="64" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="14">
-        <v>18530</v>
+        <v>34290</v>
       </c>
       <c r="C61" s="14">
-        <v>-9729</v>
+        <v>-689</v>
       </c>
       <c r="D61" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="61" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="14">
@@ -7435,25 +7469,25 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="61" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="14">
-        <v>3116</v>
+        <v>3551</v>
       </c>
       <c r="C63" s="14">
-        <v>-357</v>
+        <v>-807</v>
       </c>
       <c r="D63" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="61" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="14">
-        <v>-534</v>
+        <v>-389</v>
       </c>
       <c r="C64" s="14">
         <v>0</v>
@@ -7463,21 +7497,21 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="61" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="14">
         <v>0</v>
       </c>
       <c r="C65" s="14">
-        <v>-245</v>
+        <v>-1065</v>
       </c>
       <c r="D65" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="61" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="14">
@@ -7491,7 +7525,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="61" t="s">
         <v>87</v>
       </c>
       <c r="B67" s="14">
@@ -7501,11 +7535,11 @@
         <v>0</v>
       </c>
       <c r="D67" s="14">
-        <v>-2525</v>
+        <v>-6585</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="61" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="14">
@@ -7519,21 +7553,21 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="61" t="s">
         <v>66</v>
       </c>
       <c r="B69" s="14">
         <v>0</v>
       </c>
       <c r="C69" s="14">
-        <v>205</v>
+        <v>443</v>
       </c>
       <c r="D69" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B70" s="14">
@@ -7547,21 +7581,21 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="48" t="s">
-        <v>110</v>
+      <c r="A71" s="71" t="s">
+        <v>109</v>
       </c>
       <c r="B71" s="14">
         <v>0</v>
       </c>
       <c r="C71" s="14">
-        <v>5886</v>
+        <v>2580</v>
       </c>
       <c r="D71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="61" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="14">
@@ -7575,25 +7609,25 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>112</v>
+      <c r="A73" s="61" t="s">
+        <v>111</v>
       </c>
       <c r="B73" s="14">
         <v>0</v>
       </c>
       <c r="C73" s="14">
-        <v>747</v>
+        <v>-800</v>
       </c>
       <c r="D73" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="61" t="s">
         <v>69</v>
       </c>
       <c r="B74" s="14">
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="C74" s="14">
         <v>0</v>
@@ -7603,7 +7637,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="61" t="s">
         <v>70</v>
       </c>
       <c r="B75" s="14">
@@ -7617,8 +7651,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
-        <v>102</v>
+      <c r="A76" s="61" t="s">
+        <v>101</v>
       </c>
       <c r="B76" s="14">
         <v>0</v>
@@ -7631,7 +7665,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="61" t="s">
         <v>71</v>
       </c>
       <c r="B77" s="14">
@@ -7645,21 +7679,21 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="61" t="s">
         <v>72</v>
       </c>
       <c r="B78" s="14">
         <v>0</v>
       </c>
       <c r="C78" s="14">
-        <v>-12516</v>
+        <v>-7977</v>
       </c>
       <c r="D78" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="14">
@@ -7673,22 +7707,22 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="39" t="s">
-        <v>142</v>
+      <c r="A80" s="61" t="s">
+        <v>143</v>
       </c>
       <c r="B80" s="14">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="C80" s="14">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D80" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="39" t="s">
-        <v>119</v>
+      <c r="A81" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="B81" s="14">
         <v>-150</v>
@@ -7701,7 +7735,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B82" s="14">
@@ -7715,7 +7749,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="79" t="s">
         <v>75</v>
       </c>
       <c r="B83" s="14">
@@ -7729,36 +7763,36 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="61" t="s">
         <v>76</v>
       </c>
       <c r="B84" s="14">
         <v>0</v>
       </c>
       <c r="C84" s="14">
-        <v>-1343</v>
+        <v>416</v>
       </c>
       <c r="D84" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="14">
         <v>0</v>
       </c>
       <c r="C85" s="14">
-        <v>-1105</v>
+        <v>346</v>
       </c>
       <c r="D85" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="39" t="s">
-        <v>115</v>
+      <c r="A86" s="61" t="s">
+        <v>113</v>
       </c>
       <c r="B86" s="14">
         <v>0</v>
@@ -7771,21 +7805,21 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="61" t="s">
         <v>77</v>
       </c>
       <c r="B87" s="14">
         <v>-95</v>
       </c>
       <c r="C87" s="14">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D87" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="61" t="s">
         <v>78</v>
       </c>
       <c r="B88" s="14">
@@ -7799,7 +7833,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B89" s="14">
@@ -7813,7 +7847,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="61" t="s">
         <v>80</v>
       </c>
       <c r="B90" s="14">
@@ -7827,21 +7861,19 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
-        <v>113</v>
-      </c>
+      <c r="A91" s="61"/>
       <c r="B91" s="14">
         <v>0</v>
       </c>
       <c r="C91" s="14">
-        <v>-714</v>
+        <v>0</v>
       </c>
       <c r="D91" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="61" t="s">
         <v>81</v>
       </c>
       <c r="B92" s="14">
@@ -7855,7 +7887,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="14">
         <v>0</v>
       </c>
@@ -7867,11 +7899,11 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="39" t="s">
-        <v>114</v>
+      <c r="A94" s="61" t="s">
+        <v>112</v>
       </c>
       <c r="B94" s="14">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C94" s="14">
         <v>0</v>
@@ -7881,11 +7913,11 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="39" t="s">
+      <c r="A95" s="61" t="s">
         <v>82</v>
       </c>
       <c r="B95" s="14">
-        <v>2850</v>
+        <v>2700</v>
       </c>
       <c r="C95" s="14">
         <v>0</v>
@@ -7895,7 +7927,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="61" t="s">
         <v>83</v>
       </c>
       <c r="B96" s="14">
@@ -7909,7 +7941,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B97" s="14">
@@ -7923,7 +7955,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="39" t="s">
+      <c r="A98" s="61" t="s">
         <v>85</v>
       </c>
       <c r="B98" s="14">
@@ -7937,7 +7969,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="39" t="s">
+      <c r="A99" s="61" t="s">
         <v>86</v>
       </c>
       <c r="B99" s="14">
@@ -7951,22 +7983,20 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
-        <v>143</v>
-      </c>
+      <c r="A100" s="61"/>
       <c r="B100" s="14">
         <v>0</v>
       </c>
       <c r="C100" s="14">
-        <v>-4024</v>
+        <v>0</v>
       </c>
       <c r="D100" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
-        <v>120</v>
+      <c r="A101" s="61" t="s">
+        <v>117</v>
       </c>
       <c r="B101" s="14">
         <v>0</v>
@@ -7979,49 +8009,51 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="39" t="s">
+      <c r="A102" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="14">
+        <v>0</v>
+      </c>
+      <c r="C102" s="14">
+        <v>0</v>
+      </c>
+      <c r="D102" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="14">
+        <v>0</v>
+      </c>
+      <c r="C103" s="14">
+        <v>-886</v>
+      </c>
+      <c r="D103" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="14">
+        <v>-613</v>
+      </c>
+      <c r="C104" s="14">
+        <v>0</v>
+      </c>
+      <c r="D104" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="14">
-        <v>0</v>
-      </c>
-      <c r="C102" s="14">
-        <v>0</v>
-      </c>
-      <c r="D102" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="14">
-        <v>0</v>
-      </c>
-      <c r="C103" s="14">
-        <v>-1731</v>
-      </c>
-      <c r="D103" s="14">
-        <v>-1495</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B104" s="14">
-        <v>-533</v>
-      </c>
-      <c r="C104" s="14">
-        <v>0</v>
-      </c>
-      <c r="D104" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
       <c r="B105" s="14">
         <v>0</v>
       </c>
@@ -8033,35 +8065,35 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="61" t="s">
         <v>89</v>
       </c>
       <c r="B106" s="14">
         <v>0</v>
       </c>
       <c r="C106" s="14">
-        <v>-2595</v>
+        <v>-7610</v>
       </c>
       <c r="D106" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="61" t="s">
         <v>90</v>
       </c>
       <c r="B107" s="14">
         <v>0</v>
       </c>
       <c r="C107" s="14">
-        <v>12107</v>
+        <v>20820</v>
       </c>
       <c r="D107" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="39" t="s">
+      <c r="A108" s="61" t="s">
         <v>91</v>
       </c>
       <c r="B108" s="14">
@@ -8075,8 +8107,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="39" t="s">
-        <v>104</v>
+      <c r="A109" s="61" t="s">
+        <v>103</v>
       </c>
       <c r="B109" s="14">
         <v>0</v>
@@ -8089,8 +8121,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="39" t="s">
-        <v>122</v>
+      <c r="A110" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="B110" s="14">
         <v>0</v>
@@ -8103,21 +8135,21 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="39" t="s">
-        <v>127</v>
+      <c r="A111" s="61" t="s">
+        <v>124</v>
       </c>
       <c r="B111" s="14">
         <v>0</v>
       </c>
       <c r="C111" s="14">
-        <v>43018</v>
+        <v>31739</v>
       </c>
       <c r="D111" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="64" t="s">
         <v>92</v>
       </c>
       <c r="B112" s="14">
@@ -8131,8 +8163,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="39" t="s">
-        <v>125</v>
+      <c r="A113" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="B113" s="14">
         <v>10</v>
@@ -8145,11 +8177,9 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="39" t="s">
-        <v>93</v>
-      </c>
+      <c r="A114" s="61"/>
       <c r="B114" s="14">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C114" s="14">
         <v>0</v>
@@ -8159,11 +8189,11 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
-        <v>145</v>
+      <c r="A115" s="61" t="s">
+        <v>138</v>
       </c>
       <c r="B115" s="14">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C115" s="14">
         <v>-77</v>
@@ -8173,22 +8203,22 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="14">
+        <v>0</v>
+      </c>
+      <c r="C116" s="14">
+        <v>-41257</v>
+      </c>
+      <c r="D116" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="61" t="s">
         <v>94</v>
-      </c>
-      <c r="B116" s="14">
-        <v>0</v>
-      </c>
-      <c r="C116" s="14">
-        <v>-23498</v>
-      </c>
-      <c r="D116" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
-        <v>95</v>
       </c>
       <c r="B117" s="14">
         <v>-800</v>
@@ -8201,22 +8231,22 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="61" t="s">
         <v>88</v>
       </c>
       <c r="B118" s="14">
         <v>0</v>
       </c>
       <c r="C118" s="14">
-        <v>815</v>
+        <v>1519</v>
       </c>
       <c r="D118" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
-        <v>128</v>
+      <c r="A119" s="61" t="s">
+        <v>125</v>
       </c>
       <c r="B119" s="14">
         <v>0</v>
@@ -8229,8 +8259,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="39" t="s">
-        <v>96</v>
+      <c r="A120" s="61" t="s">
+        <v>95</v>
       </c>
       <c r="B120" s="14">
         <v>23800</v>
@@ -8243,22 +8273,22 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
+      <c r="A121" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B121" s="14">
+        <v>-30335</v>
+      </c>
+      <c r="C121" s="14">
+        <v>42</v>
+      </c>
+      <c r="D121" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="61" t="s">
         <v>97</v>
-      </c>
-      <c r="B121" s="14">
-        <v>-28609</v>
-      </c>
-      <c r="C121" s="14">
-        <v>-1652</v>
-      </c>
-      <c r="D121" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="39" t="s">
-        <v>98</v>
       </c>
       <c r="B122" s="14">
         <v>-200</v>
@@ -8271,8 +8301,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="39" t="s">
-        <v>99</v>
+      <c r="A123" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="B123" s="14">
         <v>0</v>
@@ -8285,21 +8315,23 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
-        <v>129</v>
+      <c r="A124" s="61" t="s">
+        <v>126</v>
       </c>
       <c r="B124" s="14">
         <v>0</v>
       </c>
       <c r="C124" s="14">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="D124" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+      <c r="A125" s="61" t="s">
+        <v>145</v>
+      </c>
       <c r="B125" s="14">
         <v>0</v>
       </c>
@@ -8311,25 +8343,25 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
-        <v>146</v>
+      <c r="A126" s="61" t="s">
+        <v>139</v>
       </c>
       <c r="B126" s="14">
         <v>0</v>
       </c>
       <c r="C126" s="14">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D126" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
-        <v>100</v>
+      <c r="A127" s="61" t="s">
+        <v>99</v>
       </c>
       <c r="B127" s="14">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="C127" s="14">
         <v>0</v>
@@ -8339,8 +8371,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
-        <v>123</v>
+      <c r="A128" s="61" t="s">
+        <v>120</v>
       </c>
       <c r="B128" s="14">
         <v>0</v>
@@ -8353,50 +8385,50 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="39" t="s">
-        <v>130</v>
+      <c r="A129" s="61" t="s">
+        <v>146</v>
       </c>
       <c r="B129" s="14">
         <v>0</v>
       </c>
       <c r="C129" s="14">
-        <v>7943</v>
+        <v>-50</v>
       </c>
       <c r="D129" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="39" t="s">
-        <v>137</v>
+      <c r="A130" s="61" t="s">
+        <v>132</v>
       </c>
       <c r="B130" s="14">
         <v>-800</v>
       </c>
       <c r="C130" s="14">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D130" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="39" t="s">
-        <v>138</v>
+      <c r="A131" s="61" t="s">
+        <v>133</v>
       </c>
       <c r="B131" s="14">
         <v>0</v>
       </c>
       <c r="C131" s="14">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="D131" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="39" t="s">
-        <v>131</v>
+      <c r="A132" s="61" t="s">
+        <v>127</v>
       </c>
       <c r="B132" s="14">
         <v>0</v>
@@ -8409,22 +8441,22 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="39" t="s">
-        <v>133</v>
+      <c r="A133" s="61" t="s">
+        <v>129</v>
       </c>
       <c r="B133" s="14">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C133" s="14">
-        <v>-1174</v>
+        <v>-1474</v>
       </c>
       <c r="D133" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="39" t="s">
-        <v>134</v>
+      <c r="A134" s="61" t="s">
+        <v>130</v>
       </c>
       <c r="B134" s="14">
         <v>-150</v>
@@ -8437,8 +8469,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="39" t="s">
-        <v>147</v>
+      <c r="A135" s="61" t="s">
+        <v>140</v>
       </c>
       <c r="B135" s="14">
         <v>0</v>
@@ -8451,46 +8483,24 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="39" t="s">
-        <v>148</v>
+      <c r="A136" s="61" t="s">
+        <v>141</v>
       </c>
       <c r="B136" s="14">
-        <v>-50</v>
+        <v>-25</v>
       </c>
       <c r="C136" s="14">
         <v>0</v>
       </c>
       <c r="D136" s="14">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" s="14">
-        <v>0</v>
-      </c>
-      <c r="C137" s="14">
-        <v>-1</v>
-      </c>
-      <c r="D137" s="14">
-        <v>0</v>
-      </c>
+      <c r="A137" s="61"/>
     </row>
     <row r="138" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B138" s="14">
-        <v>0</v>
-      </c>
-      <c r="C138" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D138" s="14">
-        <v>0</v>
-      </c>
+      <c r="A138" s="37"/>
     </row>
     <row r="139" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A139" s="27"/>
@@ -8542,15 +8552,15 @@
       <c r="A155" s="20"/>
       <c r="B155" s="21">
         <f>SUM(B2:B154)</f>
-        <v>20498</v>
+        <v>37422</v>
       </c>
       <c r="C155" s="21">
         <f t="shared" ref="C155:F155" si="0">SUM(C2:C154)</f>
-        <v>7247</v>
+        <v>46382</v>
       </c>
       <c r="D155" s="21">
         <f t="shared" si="0"/>
-        <v>4643</v>
+        <v>6953</v>
       </c>
       <c r="E155" s="21">
         <f t="shared" si="0"/>
@@ -8580,7 +8590,7 @@
     </row>
     <row r="159" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C159" s="25"/>
       <c r="D159" s="22" t="s">
@@ -8592,53 +8602,44 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B160" s="14">
-        <v>16137</v>
+        <v>9787</v>
       </c>
       <c r="C160" s="25"/>
       <c r="D160" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E160" s="15">
-        <v>3.78</v>
-      </c>
+      <c r="E160" s="15"/>
       <c r="G160" s="14"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B161" s="14">
-        <v>3388</v>
+        <v>-17672</v>
       </c>
       <c r="C161" s="25"/>
       <c r="D161" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="15">
-        <v>0.71</v>
-      </c>
+      <c r="E161" s="15"/>
       <c r="G161" s="14"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B162" s="14">
-        <v>-1633</v>
+        <v>11212</v>
       </c>
       <c r="C162" s="25"/>
       <c r="D162" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E162" s="14">
-        <v>0.115</v>
-      </c>
-      <c r="F162" s="28">
-        <v>32.8695652173</v>
-      </c>
+      <c r="F162" s="28"/>
       <c r="G162" s="14"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -8647,12 +8648,7 @@
       <c r="D163" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E163" s="14">
-        <v>0.185</v>
-      </c>
-      <c r="F163" s="28">
-        <v>3.83783783783</v>
-      </c>
+      <c r="F163" s="28"/>
       <c r="G163" s="14"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8661,24 +8657,25 @@
       <c r="D164" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E164" s="15">
-        <v>1.08</v>
-      </c>
+      <c r="E164" s="15"/>
       <c r="G164" s="14"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B165" s="14">
+        <v>1050</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B169" s="31" t="s">
+      <c r="B169" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel/new/صندوق احمد 2.xlsx
+++ b/excel/new/صندوق احمد 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDE0438-7D93-40A4-BB4D-E4BA3852BCC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48953E-8AA6-4ACC-BF8A-B4F0CD3B3DB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
   <si>
     <t>الشيكل</t>
   </si>
@@ -402,9 +402,6 @@
     <t>دينار</t>
   </si>
   <si>
-    <t>يورو</t>
-  </si>
-  <si>
     <t>الصفدي صفد</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>فراس دير البلح</t>
   </si>
   <si>
-    <t>اميره الواديه</t>
-  </si>
-  <si>
     <t>محمد الخزندار</t>
   </si>
   <si>
@@ -495,9 +489,6 @@
     <t>خالد محمود</t>
   </si>
   <si>
-    <t>ياسمين ابوسيدو</t>
-  </si>
-  <si>
     <t>عطا النيرب</t>
   </si>
   <si>
@@ -513,10 +504,10 @@
     <t>غطاس حاكوره</t>
   </si>
   <si>
-    <t>محمد حميد</t>
-  </si>
-  <si>
     <t>اسامه العشي</t>
+  </si>
+  <si>
+    <t>كارلوس عرفات</t>
   </si>
 </sst>
 </file>
@@ -924,7 +915,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -994,6 +985,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1479,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A125" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J134" sqref="J2:J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,67 +1505,67 @@
     </row>
     <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="59">
-        <v>0</v>
-      </c>
-      <c r="C2" s="59">
+        <v>129</v>
+      </c>
+      <c r="B2" s="60">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60">
         <v>0</v>
       </c>
       <c r="D2" s="5">
         <f>C2-B2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="60">
-        <v>0</v>
-      </c>
-      <c r="F2" s="60">
-        <v>150004</v>
+      <c r="E2" s="61">
+        <v>21451</v>
+      </c>
+      <c r="F2" s="61">
+        <v>170004</v>
       </c>
       <c r="G2" s="5">
         <f>F2-E2</f>
-        <v>150004</v>
-      </c>
-      <c r="H2" s="62">
-        <v>20130</v>
-      </c>
-      <c r="I2" s="62">
+        <v>148553</v>
+      </c>
+      <c r="H2" s="63">
+        <v>37130</v>
+      </c>
+      <c r="I2" s="63">
         <v>1608</v>
       </c>
       <c r="J2" s="5">
         <f>I2-H2</f>
-        <v>-18522</v>
+        <v>-35522</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="60">
         <v>40</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="60">
         <v>0</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" ref="D3:D66" si="0">C3-B3</f>
         <v>-40</v>
       </c>
-      <c r="E3" s="60">
-        <v>0</v>
-      </c>
-      <c r="F3" s="60">
+      <c r="E3" s="61">
+        <v>100</v>
+      </c>
+      <c r="F3" s="61">
         <v>0</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G66" si="1">F3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="62">
+        <v>-100</v>
+      </c>
+      <c r="H3" s="63">
         <v>40</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="63">
         <v>0</v>
       </c>
       <c r="J3" s="5">
@@ -1580,33 +1574,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="59">
-        <v>0</v>
-      </c>
-      <c r="C4" s="59">
+      <c r="B4" s="60">
+        <v>0</v>
+      </c>
+      <c r="C4" s="60">
         <v>0</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="60">
-        <v>0</v>
-      </c>
-      <c r="F4" s="60">
+      <c r="E4" s="61">
+        <v>0</v>
+      </c>
+      <c r="F4" s="61">
         <v>63</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H4" s="62">
-        <v>0</v>
-      </c>
-      <c r="I4" s="62">
+      <c r="H4" s="63">
+        <v>0</v>
+      </c>
+      <c r="I4" s="63">
         <v>0</v>
       </c>
       <c r="J4" s="5">
@@ -1615,68 +1609,68 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="59">
-        <v>0</v>
-      </c>
-      <c r="C5" s="59">
+      <c r="B5" s="60">
+        <v>0</v>
+      </c>
+      <c r="C5" s="60">
         <v>150</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="61">
         <v>12000</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="61">
         <v>100</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>-11900</v>
       </c>
-      <c r="H5" s="62">
-        <v>0</v>
-      </c>
-      <c r="I5" s="62">
-        <v>1000</v>
+      <c r="H5" s="63">
+        <v>0</v>
+      </c>
+      <c r="I5" s="63">
+        <v>1300</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="59">
-        <v>0</v>
-      </c>
-      <c r="C6" s="59">
+      <c r="B6" s="60">
+        <v>0</v>
+      </c>
+      <c r="C6" s="60">
         <v>0</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="61">
         <v>875</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="61">
         <v>0</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>-875</v>
       </c>
-      <c r="H6" s="62">
-        <v>0</v>
-      </c>
-      <c r="I6" s="62">
+      <c r="H6" s="63">
+        <v>0</v>
+      </c>
+      <c r="I6" s="63">
         <v>0</v>
       </c>
       <c r="J6" s="5">
@@ -1685,33 +1679,33 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="59">
+      <c r="A7" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="60">
         <v>50</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="60">
         <v>0</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="E7" s="60">
-        <v>0</v>
-      </c>
-      <c r="F7" s="60">
+      <c r="E7" s="61">
+        <v>0</v>
+      </c>
+      <c r="F7" s="61">
         <v>0</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="62">
-        <v>0</v>
-      </c>
-      <c r="I7" s="62">
+      <c r="H7" s="63">
+        <v>0</v>
+      </c>
+      <c r="I7" s="63">
         <v>0</v>
       </c>
       <c r="J7" s="5">
@@ -1720,33 +1714,33 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59">
-        <v>0</v>
-      </c>
-      <c r="C8" s="59">
+      <c r="B8" s="60">
+        <v>0</v>
+      </c>
+      <c r="C8" s="60">
         <v>0</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="60">
-        <v>0</v>
-      </c>
-      <c r="F8" s="60">
+      <c r="E8" s="61">
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
         <v>476</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
-      <c r="H8" s="62">
-        <v>0</v>
-      </c>
-      <c r="I8" s="62">
+      <c r="H8" s="63">
+        <v>0</v>
+      </c>
+      <c r="I8" s="63">
         <v>0</v>
       </c>
       <c r="J8" s="5">
@@ -1755,33 +1749,33 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="59">
-        <v>0</v>
-      </c>
-      <c r="C9" s="59">
+      <c r="B9" s="60">
+        <v>0</v>
+      </c>
+      <c r="C9" s="60">
         <v>0</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="61">
         <v>33</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="61">
         <v>0</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="H9" s="62">
-        <v>0</v>
-      </c>
-      <c r="I9" s="62">
+      <c r="H9" s="63">
+        <v>0</v>
+      </c>
+      <c r="I9" s="63">
         <v>0</v>
       </c>
       <c r="J9" s="5">
@@ -1790,33 +1784,33 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="59">
-        <v>0</v>
-      </c>
-      <c r="C10" s="59">
+      <c r="B10" s="60">
+        <v>0</v>
+      </c>
+      <c r="C10" s="60">
         <v>0</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="60">
-        <v>0</v>
-      </c>
-      <c r="F10" s="60">
-        <v>1499</v>
+      <c r="E10" s="61">
+        <v>0</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>1499</v>
-      </c>
-      <c r="H10" s="62">
-        <v>0</v>
-      </c>
-      <c r="I10" s="62">
+        <v>0</v>
+      </c>
+      <c r="H10" s="63">
+        <v>0</v>
+      </c>
+      <c r="I10" s="63">
         <v>0</v>
       </c>
       <c r="J10" s="5">
@@ -1825,33 +1819,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="59">
-        <v>0</v>
-      </c>
-      <c r="C11" s="59">
+      <c r="B11" s="60">
+        <v>0</v>
+      </c>
+      <c r="C11" s="60">
         <v>0</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="60">
-        <v>0</v>
-      </c>
-      <c r="F11" s="60">
+      <c r="E11" s="61">
+        <v>0</v>
+      </c>
+      <c r="F11" s="61">
         <v>155</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="H11" s="62">
-        <v>0</v>
-      </c>
-      <c r="I11" s="62">
+      <c r="H11" s="63">
+        <v>0</v>
+      </c>
+      <c r="I11" s="63">
         <v>0</v>
       </c>
       <c r="J11" s="5">
@@ -1860,33 +1854,33 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="59">
-        <v>0</v>
-      </c>
-      <c r="C12" s="59">
+      <c r="B12" s="60">
+        <v>0</v>
+      </c>
+      <c r="C12" s="60">
         <v>0</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="61">
         <v>639</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="61">
         <v>16